--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF608A58-45C5-4C9A-9E6E-732EFB437899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238FEB19-CCCD-43BF-930A-30A7098A9543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2432,9 +2432,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X1029"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G208" sqref="G208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238FEB19-CCCD-43BF-930A-30A7098A9543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14BB86B-AF4B-4B79-AF1B-17187E54DE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipMakeProto" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="425">
   <si>
     <t>#</t>
   </si>
@@ -2043,7 +2043,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2124,6 +2124,22 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2430,11 +2446,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X1029"/>
+  <dimension ref="C1:X1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G208" sqref="G208"/>
+      <pane ySplit="5" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -7029,7 +7045,7 @@
     </row>
     <row r="72" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C72" s="18">
-        <v>100001</v>
+        <v>100101</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>179</v>
@@ -7095,7 +7111,7 @@
     </row>
     <row r="73" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C73" s="18">
-        <v>100002</v>
+        <v>100102</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>180</v>
@@ -7161,7 +7177,7 @@
     </row>
     <row r="74" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C74" s="18">
-        <v>100003</v>
+        <v>100103</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>181</v>
@@ -7227,7 +7243,7 @@
     </row>
     <row r="75" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C75" s="18">
-        <v>100004</v>
+        <v>100104</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>182</v>
@@ -7293,7 +7309,7 @@
     </row>
     <row r="76" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C76" s="18">
-        <v>100005</v>
+        <v>100105</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>183</v>
@@ -7359,7 +7375,7 @@
     </row>
     <row r="77" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C77" s="18">
-        <v>100006</v>
+        <v>100106</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>184</v>
@@ -7425,7 +7441,7 @@
     </row>
     <row r="78" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C78" s="18">
-        <v>100007</v>
+        <v>100107</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>185</v>
@@ -7491,7 +7507,7 @@
     </row>
     <row r="79" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C79" s="18">
-        <v>100008</v>
+        <v>100108</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>186</v>
@@ -7557,7 +7573,7 @@
     </row>
     <row r="80" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C80" s="18">
-        <v>100009</v>
+        <v>100109</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>187</v>
@@ -7623,7 +7639,7 @@
     </row>
     <row r="81" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C81" s="18">
-        <v>100010</v>
+        <v>100110</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>188</v>
@@ -7689,7 +7705,7 @@
     </row>
     <row r="82" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C82" s="18">
-        <v>100011</v>
+        <v>100111</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>189</v>
@@ -7755,7 +7771,7 @@
     </row>
     <row r="83" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C83" s="18">
-        <v>100012</v>
+        <v>100112</v>
       </c>
       <c r="D83" s="18" t="s">
         <v>190</v>
@@ -7821,7 +7837,7 @@
     </row>
     <row r="84" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C84" s="18">
-        <v>100013</v>
+        <v>100113</v>
       </c>
       <c r="D84" s="18" t="s">
         <v>191</v>
@@ -7887,7 +7903,7 @@
     </row>
     <row r="85" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C85" s="18">
-        <v>100014</v>
+        <v>100114</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>192</v>
@@ -7953,7 +7969,7 @@
     </row>
     <row r="86" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C86" s="18">
-        <v>100015</v>
+        <v>100115</v>
       </c>
       <c r="D86" s="18" t="s">
         <v>193</v>
@@ -8019,7 +8035,7 @@
     </row>
     <row r="87" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C87" s="18">
-        <v>100016</v>
+        <v>100116</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>194</v>
@@ -8085,7 +8101,7 @@
     </row>
     <row r="88" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C88" s="18">
-        <v>100017</v>
+        <v>100117</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>195</v>
@@ -8151,7 +8167,7 @@
     </row>
     <row r="89" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C89" s="18">
-        <v>100018</v>
+        <v>100118</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>196</v>
@@ -8217,7 +8233,7 @@
     </row>
     <row r="90" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C90" s="18">
-        <v>100019</v>
+        <v>100119</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>197</v>
@@ -8283,7 +8299,7 @@
     </row>
     <row r="91" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C91" s="18">
-        <v>100020</v>
+        <v>100120</v>
       </c>
       <c r="D91" s="18" t="s">
         <v>198</v>
@@ -8349,7 +8365,7 @@
     </row>
     <row r="92" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C92" s="18">
-        <v>100021</v>
+        <v>100121</v>
       </c>
       <c r="D92" s="18" t="s">
         <v>199</v>
@@ -8415,7 +8431,7 @@
     </row>
     <row r="93" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C93" s="18">
-        <v>100022</v>
+        <v>100122</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>200</v>
@@ -8481,7 +8497,7 @@
     </row>
     <row r="94" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C94" s="18">
-        <v>100023</v>
+        <v>100123</v>
       </c>
       <c r="D94" s="18" t="s">
         <v>201</v>
@@ -8547,7 +8563,7 @@
     </row>
     <row r="95" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C95" s="18">
-        <v>100024</v>
+        <v>100124</v>
       </c>
       <c r="D95" s="18" t="s">
         <v>202</v>
@@ -8613,7 +8629,7 @@
     </row>
     <row r="96" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C96" s="18">
-        <v>100025</v>
+        <v>100125</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>203</v>
@@ -8679,7 +8695,7 @@
     </row>
     <row r="97" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C97" s="18">
-        <v>100026</v>
+        <v>100126</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>204</v>
@@ -8743,84 +8759,84 @@
         <v>336</v>
       </c>
     </row>
-    <row r="98" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C98" s="18">
-        <v>100027</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="E98" s="18">
-        <v>2</v>
-      </c>
-      <c r="F98" s="9">
-        <v>15201002</v>
-      </c>
-      <c r="G98" s="18">
+    <row r="98" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C98" s="30">
+        <v>100151</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E98" s="30">
+        <v>3</v>
+      </c>
+      <c r="F98" s="29">
+        <v>14060004</v>
+      </c>
+      <c r="G98" s="30">
+        <v>10</v>
+      </c>
+      <c r="H98" s="30">
+        <v>50000</v>
+      </c>
+      <c r="I98" s="30">
         <v>20</v>
       </c>
-      <c r="H98" s="18">
-        <v>100000</v>
-      </c>
-      <c r="I98" s="18">
-        <v>20</v>
-      </c>
-      <c r="J98" s="19">
-        <v>0</v>
-      </c>
-      <c r="K98" s="20">
-        <v>1</v>
-      </c>
-      <c r="L98" s="20">
-        <v>1</v>
-      </c>
-      <c r="M98" s="13">
+      <c r="J98" s="31">
+        <v>0</v>
+      </c>
+      <c r="K98" s="32">
+        <v>1</v>
+      </c>
+      <c r="L98" s="32">
+        <v>1</v>
+      </c>
+      <c r="M98" s="33">
         <v>0.1</v>
       </c>
-      <c r="N98" s="20"/>
-      <c r="O98" s="20">
-        <v>1</v>
-      </c>
-      <c r="P98" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q98" s="20">
+      <c r="N98" s="32"/>
+      <c r="O98" s="32">
+        <v>1</v>
+      </c>
+      <c r="P98" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="32">
         <v>3</v>
       </c>
-      <c r="R98" s="20">
-        <v>1</v>
-      </c>
-      <c r="S98" s="20">
+      <c r="R98" s="32">
+        <v>1</v>
+      </c>
+      <c r="S98" s="32">
         <v>200</v>
       </c>
-      <c r="T98" s="13" t="s">
+      <c r="T98" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="U98" s="20">
-        <v>1</v>
-      </c>
-      <c r="V98" s="20">
-        <v>1</v>
-      </c>
-      <c r="W98" s="20">
-        <v>0</v>
-      </c>
-      <c r="X98" s="23" t="s">
-        <v>340</v>
+      <c r="U98" s="32">
+        <v>1</v>
+      </c>
+      <c r="V98" s="32">
+        <v>1</v>
+      </c>
+      <c r="W98" s="32">
+        <v>0</v>
+      </c>
+      <c r="X98" s="34" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C99" s="18">
-        <v>100028</v>
+        <v>100201</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E99" s="18">
         <v>2</v>
       </c>
       <c r="F99" s="9">
-        <v>15201004</v>
+        <v>15201002</v>
       </c>
       <c r="G99" s="18">
         <v>20</v>
@@ -8872,21 +8888,21 @@
         <v>0</v>
       </c>
       <c r="X99" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C100" s="18">
-        <v>100029</v>
+        <v>100202</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E100" s="18">
         <v>2</v>
       </c>
       <c r="F100" s="9">
-        <v>15201006</v>
+        <v>15201004</v>
       </c>
       <c r="G100" s="18">
         <v>20</v>
@@ -8938,21 +8954,21 @@
         <v>0</v>
       </c>
       <c r="X100" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C101" s="18">
-        <v>100030</v>
+        <v>100203</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E101" s="18">
         <v>2</v>
       </c>
       <c r="F101" s="9">
-        <v>15202002</v>
+        <v>15201006</v>
       </c>
       <c r="G101" s="18">
         <v>20</v>
@@ -9004,21 +9020,21 @@
         <v>0</v>
       </c>
       <c r="X101" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="102" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C102" s="18">
-        <v>100031</v>
+        <v>100204</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E102" s="18">
         <v>2</v>
       </c>
       <c r="F102" s="9">
-        <v>15202004</v>
+        <v>15202002</v>
       </c>
       <c r="G102" s="18">
         <v>20</v>
@@ -9070,21 +9086,21 @@
         <v>0</v>
       </c>
       <c r="X102" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="103" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C103" s="18">
-        <v>100032</v>
+        <v>100205</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E103" s="18">
         <v>2</v>
       </c>
       <c r="F103" s="9">
-        <v>15202006</v>
+        <v>15202004</v>
       </c>
       <c r="G103" s="18">
         <v>20</v>
@@ -9136,21 +9152,21 @@
         <v>0</v>
       </c>
       <c r="X103" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C104" s="18">
-        <v>100033</v>
+        <v>100206</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E104" s="18">
         <v>2</v>
       </c>
       <c r="F104" s="9">
-        <v>15203002</v>
+        <v>15202006</v>
       </c>
       <c r="G104" s="18">
         <v>20</v>
@@ -9202,21 +9218,21 @@
         <v>0</v>
       </c>
       <c r="X104" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C105" s="18">
-        <v>100034</v>
+        <v>100207</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E105" s="18">
         <v>2</v>
       </c>
       <c r="F105" s="9">
-        <v>15203004</v>
+        <v>15203002</v>
       </c>
       <c r="G105" s="18">
         <v>20</v>
@@ -9268,21 +9284,21 @@
         <v>0</v>
       </c>
       <c r="X105" s="23" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="106" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C106" s="18">
-        <v>100035</v>
+        <v>100208</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E106" s="18">
         <v>2</v>
       </c>
       <c r="F106" s="9">
-        <v>15203006</v>
+        <v>15203004</v>
       </c>
       <c r="G106" s="18">
         <v>20</v>
@@ -9334,21 +9350,21 @@
         <v>0</v>
       </c>
       <c r="X106" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="107" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C107" s="18">
-        <v>100036</v>
+        <v>100209</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E107" s="18">
         <v>2</v>
       </c>
       <c r="F107" s="9">
-        <v>15204002</v>
+        <v>15203006</v>
       </c>
       <c r="G107" s="18">
         <v>20</v>
@@ -9400,21 +9416,21 @@
         <v>0</v>
       </c>
       <c r="X107" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="108" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C108" s="18">
-        <v>100037</v>
+        <v>100210</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E108" s="18">
         <v>2</v>
       </c>
       <c r="F108" s="9">
-        <v>15204004</v>
+        <v>15204002</v>
       </c>
       <c r="G108" s="18">
         <v>20</v>
@@ -9466,21 +9482,21 @@
         <v>0</v>
       </c>
       <c r="X108" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="109" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C109" s="18">
-        <v>100038</v>
+        <v>100211</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E109" s="18">
         <v>2</v>
       </c>
       <c r="F109" s="9">
-        <v>15204006</v>
+        <v>15204004</v>
       </c>
       <c r="G109" s="18">
         <v>20</v>
@@ -9532,21 +9548,21 @@
         <v>0</v>
       </c>
       <c r="X109" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="110" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C110" s="18">
-        <v>100039</v>
+        <v>100212</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E110" s="18">
         <v>2</v>
       </c>
       <c r="F110" s="9">
-        <v>15205002</v>
+        <v>15204006</v>
       </c>
       <c r="G110" s="18">
         <v>20</v>
@@ -9598,21 +9614,21 @@
         <v>0</v>
       </c>
       <c r="X110" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="111" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
-        <v>100040</v>
+        <v>100213</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E111" s="18">
         <v>2</v>
       </c>
       <c r="F111" s="9">
-        <v>15205004</v>
+        <v>15205002</v>
       </c>
       <c r="G111" s="18">
         <v>20</v>
@@ -9664,21 +9680,21 @@
         <v>0</v>
       </c>
       <c r="X111" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="112" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
-        <v>100041</v>
+        <v>100214</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E112" s="18">
         <v>2</v>
       </c>
       <c r="F112" s="9">
-        <v>15205006</v>
+        <v>15205004</v>
       </c>
       <c r="G112" s="18">
         <v>20</v>
@@ -9730,21 +9746,21 @@
         <v>0</v>
       </c>
       <c r="X112" s="23" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="113" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
-        <v>100042</v>
+        <v>100215</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E113" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F113" s="9">
-        <v>15206002</v>
+        <v>15205006</v>
       </c>
       <c r="G113" s="18">
         <v>20</v>
@@ -9796,21 +9812,21 @@
         <v>0</v>
       </c>
       <c r="X113" s="23" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="114" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
-        <v>100043</v>
+        <v>100216</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E114" s="18">
         <v>3</v>
       </c>
       <c r="F114" s="9">
-        <v>15207002</v>
+        <v>15206002</v>
       </c>
       <c r="G114" s="18">
         <v>20</v>
@@ -9862,21 +9878,21 @@
         <v>0</v>
       </c>
       <c r="X114" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="115" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
-        <v>100044</v>
+        <v>100217</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E115" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F115" s="9">
-        <v>15208002</v>
+        <v>15207002</v>
       </c>
       <c r="G115" s="18">
         <v>20</v>
@@ -9928,21 +9944,21 @@
         <v>0</v>
       </c>
       <c r="X115" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
-        <v>100045</v>
+        <v>100218</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E116" s="18">
         <v>1</v>
       </c>
       <c r="F116" s="9">
-        <v>15209002</v>
+        <v>15208002</v>
       </c>
       <c r="G116" s="18">
         <v>20</v>
@@ -9994,21 +10010,21 @@
         <v>0</v>
       </c>
       <c r="X116" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="117" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
-        <v>100046</v>
+        <v>100219</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E117" s="18">
         <v>1</v>
       </c>
       <c r="F117" s="9">
-        <v>15210002</v>
+        <v>15209002</v>
       </c>
       <c r="G117" s="18">
         <v>20</v>
@@ -10060,21 +10076,21 @@
         <v>0</v>
       </c>
       <c r="X117" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="118" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
-        <v>100047</v>
+        <v>100220</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E118" s="18">
         <v>1</v>
       </c>
       <c r="F118" s="9">
-        <v>15210004</v>
+        <v>15210002</v>
       </c>
       <c r="G118" s="18">
         <v>20</v>
@@ -10126,21 +10142,21 @@
         <v>0</v>
       </c>
       <c r="X118" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="119" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
-        <v>100048</v>
+        <v>100221</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E119" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F119" s="9">
-        <v>15211002</v>
+        <v>15210004</v>
       </c>
       <c r="G119" s="18">
         <v>20</v>
@@ -10192,21 +10208,21 @@
         <v>0</v>
       </c>
       <c r="X119" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="120" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
-        <v>100049</v>
+        <v>100222</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E120" s="18">
         <v>2</v>
       </c>
       <c r="F120" s="9">
-        <v>15211004</v>
+        <v>15211002</v>
       </c>
       <c r="G120" s="18">
         <v>20</v>
@@ -10258,21 +10274,21 @@
         <v>0</v>
       </c>
       <c r="X120" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="121" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
-        <v>100050</v>
+        <v>100223</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E121" s="18">
         <v>2</v>
       </c>
       <c r="F121" s="9">
-        <v>15211006</v>
+        <v>15211004</v>
       </c>
       <c r="G121" s="18">
         <v>20</v>
@@ -10324,21 +10340,21 @@
         <v>0</v>
       </c>
       <c r="X121" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="122" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
-        <v>100051</v>
+        <v>100224</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E122" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F122" s="9">
-        <v>15210102</v>
+        <v>15211006</v>
       </c>
       <c r="G122" s="18">
         <v>20</v>
@@ -10390,21 +10406,21 @@
         <v>0</v>
       </c>
       <c r="X122" s="23" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="123" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
-        <v>100052</v>
+        <v>100225</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E123" s="18">
         <v>1</v>
       </c>
       <c r="F123" s="9">
-        <v>15210104</v>
+        <v>15210102</v>
       </c>
       <c r="G123" s="18">
         <v>20</v>
@@ -10456,27 +10472,27 @@
         <v>0</v>
       </c>
       <c r="X123" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
-        <v>100053</v>
+        <v>100226</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E124" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" s="9">
-        <v>15301002</v>
+        <v>15210104</v>
       </c>
       <c r="G124" s="18">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H124" s="18">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I124" s="18">
         <v>20</v>
@@ -10507,7 +10523,7 @@
         <v>1</v>
       </c>
       <c r="S124" s="20">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T124" s="13" t="s">
         <v>421</v>
@@ -10522,21 +10538,21 @@
         <v>0</v>
       </c>
       <c r="X124" s="23" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="125" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C125" s="18">
-        <v>100054</v>
+        <v>100301</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E125" s="18">
         <v>2</v>
       </c>
       <c r="F125" s="9">
-        <v>15301004</v>
+        <v>15301002</v>
       </c>
       <c r="G125" s="18">
         <v>30</v>
@@ -10588,21 +10604,21 @@
         <v>0</v>
       </c>
       <c r="X125" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="126" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C126" s="18">
-        <v>100055</v>
+        <v>100302</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E126" s="18">
         <v>2</v>
       </c>
       <c r="F126" s="9">
-        <v>15301006</v>
+        <v>15301004</v>
       </c>
       <c r="G126" s="18">
         <v>30</v>
@@ -10654,21 +10670,21 @@
         <v>0</v>
       </c>
       <c r="X126" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="127" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C127" s="18">
-        <v>100056</v>
+        <v>100303</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E127" s="18">
         <v>2</v>
       </c>
       <c r="F127" s="9">
-        <v>15302002</v>
+        <v>15301006</v>
       </c>
       <c r="G127" s="18">
         <v>30</v>
@@ -10720,21 +10736,21 @@
         <v>0</v>
       </c>
       <c r="X127" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="128" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C128" s="18">
-        <v>100057</v>
+        <v>100304</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E128" s="18">
         <v>2</v>
       </c>
       <c r="F128" s="9">
-        <v>15302004</v>
+        <v>15302002</v>
       </c>
       <c r="G128" s="18">
         <v>30</v>
@@ -10786,21 +10802,21 @@
         <v>0</v>
       </c>
       <c r="X128" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="129" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C129" s="18">
-        <v>100058</v>
+        <v>100305</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E129" s="18">
         <v>2</v>
       </c>
       <c r="F129" s="9">
-        <v>15302006</v>
+        <v>15302004</v>
       </c>
       <c r="G129" s="18">
         <v>30</v>
@@ -10852,21 +10868,21 @@
         <v>0</v>
       </c>
       <c r="X129" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="130" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C130" s="18">
-        <v>100059</v>
+        <v>100306</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E130" s="18">
         <v>2</v>
       </c>
       <c r="F130" s="9">
-        <v>15303002</v>
+        <v>15302006</v>
       </c>
       <c r="G130" s="18">
         <v>30</v>
@@ -10918,21 +10934,21 @@
         <v>0</v>
       </c>
       <c r="X130" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="131" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C131" s="18">
-        <v>100060</v>
+        <v>100307</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E131" s="18">
         <v>2</v>
       </c>
       <c r="F131" s="9">
-        <v>15303004</v>
+        <v>15303002</v>
       </c>
       <c r="G131" s="18">
         <v>30</v>
@@ -10984,21 +11000,21 @@
         <v>0</v>
       </c>
       <c r="X131" s="23" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="132" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C132" s="18">
-        <v>100061</v>
+        <v>100308</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E132" s="18">
         <v>2</v>
       </c>
       <c r="F132" s="9">
-        <v>15303006</v>
+        <v>15303004</v>
       </c>
       <c r="G132" s="18">
         <v>30</v>
@@ -11050,21 +11066,21 @@
         <v>0</v>
       </c>
       <c r="X132" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="133" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C133" s="18">
-        <v>100062</v>
+        <v>100309</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E133" s="18">
         <v>2</v>
       </c>
       <c r="F133" s="9">
-        <v>15304002</v>
+        <v>15303006</v>
       </c>
       <c r="G133" s="18">
         <v>30</v>
@@ -11116,21 +11132,21 @@
         <v>0</v>
       </c>
       <c r="X133" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C134" s="18">
-        <v>100063</v>
+        <v>100310</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E134" s="18">
         <v>2</v>
       </c>
       <c r="F134" s="9">
-        <v>15304004</v>
+        <v>15304002</v>
       </c>
       <c r="G134" s="18">
         <v>30</v>
@@ -11182,21 +11198,21 @@
         <v>0</v>
       </c>
       <c r="X134" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C135" s="18">
-        <v>100064</v>
+        <v>100311</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E135" s="18">
         <v>2</v>
       </c>
       <c r="F135" s="9">
-        <v>15304006</v>
+        <v>15304004</v>
       </c>
       <c r="G135" s="18">
         <v>30</v>
@@ -11248,21 +11264,21 @@
         <v>0</v>
       </c>
       <c r="X135" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="136" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C136" s="18">
-        <v>100065</v>
+        <v>100312</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E136" s="18">
         <v>2</v>
       </c>
       <c r="F136" s="9">
-        <v>15305002</v>
+        <v>15304006</v>
       </c>
       <c r="G136" s="18">
         <v>30</v>
@@ -11314,21 +11330,21 @@
         <v>0</v>
       </c>
       <c r="X136" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="137" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C137" s="18">
-        <v>100066</v>
+        <v>100313</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E137" s="18">
         <v>2</v>
       </c>
       <c r="F137" s="9">
-        <v>15305004</v>
+        <v>15305002</v>
       </c>
       <c r="G137" s="18">
         <v>30</v>
@@ -11380,21 +11396,21 @@
         <v>0</v>
       </c>
       <c r="X137" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="138" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C138" s="18">
-        <v>100067</v>
+        <v>100314</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E138" s="18">
         <v>2</v>
       </c>
       <c r="F138" s="9">
-        <v>15305006</v>
+        <v>15305004</v>
       </c>
       <c r="G138" s="18">
         <v>30</v>
@@ -11446,21 +11462,21 @@
         <v>0</v>
       </c>
       <c r="X138" s="23" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C139" s="18">
-        <v>100068</v>
+        <v>100315</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E139" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F139" s="9">
-        <v>15306002</v>
+        <v>15305006</v>
       </c>
       <c r="G139" s="18">
         <v>30</v>
@@ -11512,21 +11528,21 @@
         <v>0</v>
       </c>
       <c r="X139" s="23" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="140" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C140" s="18">
-        <v>100069</v>
+        <v>100316</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E140" s="18">
         <v>3</v>
       </c>
       <c r="F140" s="9">
-        <v>15307002</v>
+        <v>15306002</v>
       </c>
       <c r="G140" s="18">
         <v>30</v>
@@ -11578,21 +11594,21 @@
         <v>0</v>
       </c>
       <c r="X140" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="141" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C141" s="18">
-        <v>100070</v>
+        <v>100317</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E141" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F141" s="9">
-        <v>15308002</v>
+        <v>15307002</v>
       </c>
       <c r="G141" s="18">
         <v>30</v>
@@ -11644,21 +11660,21 @@
         <v>0</v>
       </c>
       <c r="X141" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="142" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C142" s="18">
-        <v>100071</v>
+        <v>100318</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E142" s="18">
         <v>1</v>
       </c>
       <c r="F142" s="9">
-        <v>15309002</v>
+        <v>15308002</v>
       </c>
       <c r="G142" s="18">
         <v>30</v>
@@ -11710,21 +11726,21 @@
         <v>0</v>
       </c>
       <c r="X142" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="143" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C143" s="18">
-        <v>100072</v>
+        <v>100319</v>
       </c>
       <c r="D143" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E143" s="18">
         <v>1</v>
       </c>
       <c r="F143" s="9">
-        <v>15310002</v>
+        <v>15309002</v>
       </c>
       <c r="G143" s="18">
         <v>30</v>
@@ -11776,21 +11792,21 @@
         <v>0</v>
       </c>
       <c r="X143" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="144" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C144" s="18">
-        <v>100073</v>
+        <v>100320</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E144" s="18">
         <v>1</v>
       </c>
       <c r="F144" s="9">
-        <v>15310004</v>
+        <v>15310002</v>
       </c>
       <c r="G144" s="18">
         <v>30</v>
@@ -11842,21 +11858,21 @@
         <v>0</v>
       </c>
       <c r="X144" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="145" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C145" s="18">
-        <v>100074</v>
+        <v>100321</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E145" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F145" s="9">
-        <v>15311002</v>
+        <v>15310004</v>
       </c>
       <c r="G145" s="18">
         <v>30</v>
@@ -11908,21 +11924,21 @@
         <v>0</v>
       </c>
       <c r="X145" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="146" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C146" s="18">
-        <v>100075</v>
+        <v>100322</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E146" s="18">
         <v>2</v>
       </c>
       <c r="F146" s="9">
-        <v>15311004</v>
+        <v>15311002</v>
       </c>
       <c r="G146" s="18">
         <v>30</v>
@@ -11974,21 +11990,21 @@
         <v>0</v>
       </c>
       <c r="X146" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="147" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C147" s="18">
-        <v>100076</v>
+        <v>100323</v>
       </c>
       <c r="D147" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E147" s="18">
         <v>2</v>
       </c>
       <c r="F147" s="9">
-        <v>15311006</v>
+        <v>15311004</v>
       </c>
       <c r="G147" s="18">
         <v>30</v>
@@ -12040,21 +12056,21 @@
         <v>0</v>
       </c>
       <c r="X147" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="148" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C148" s="18">
-        <v>100077</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>255</v>
+        <v>100324</v>
+      </c>
+      <c r="D148" s="18" t="s">
+        <v>254</v>
       </c>
       <c r="E148" s="18">
-        <v>1</v>
-      </c>
-      <c r="F148" s="8">
-        <v>15310103</v>
+        <v>2</v>
+      </c>
+      <c r="F148" s="9">
+        <v>15311006</v>
       </c>
       <c r="G148" s="18">
         <v>30</v>
@@ -12106,21 +12122,21 @@
         <v>0</v>
       </c>
       <c r="X148" s="23" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="149" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C149" s="18">
-        <v>100078</v>
+        <v>100325</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E149" s="18">
         <v>1</v>
       </c>
       <c r="F149" s="8">
-        <v>15310104</v>
+        <v>15310103</v>
       </c>
       <c r="G149" s="18">
         <v>30</v>
@@ -12172,27 +12188,27 @@
         <v>0</v>
       </c>
       <c r="X149" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="150" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C150" s="18">
-        <v>100079</v>
-      </c>
-      <c r="D150" s="18" t="s">
-        <v>257</v>
+        <v>100326</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>256</v>
       </c>
       <c r="E150" s="18">
-        <v>2</v>
-      </c>
-      <c r="F150" s="9">
-        <v>15401002</v>
+        <v>1</v>
+      </c>
+      <c r="F150" s="8">
+        <v>15310104</v>
       </c>
       <c r="G150" s="18">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H150" s="18">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="I150" s="18">
         <v>20</v>
@@ -12223,7 +12239,7 @@
         <v>1</v>
       </c>
       <c r="S150" s="20">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T150" s="13" t="s">
         <v>421</v>
@@ -12238,21 +12254,21 @@
         <v>0</v>
       </c>
       <c r="X150" s="23" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="151" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C151" s="18">
-        <v>100080</v>
+        <v>100401</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E151" s="18">
         <v>2</v>
       </c>
       <c r="F151" s="9">
-        <v>15401004</v>
+        <v>15401002</v>
       </c>
       <c r="G151" s="18">
         <v>40</v>
@@ -12304,21 +12320,21 @@
         <v>0</v>
       </c>
       <c r="X151" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="152" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C152" s="18">
-        <v>100081</v>
+        <v>100402</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E152" s="18">
         <v>2</v>
       </c>
       <c r="F152" s="9">
-        <v>15401006</v>
+        <v>15401004</v>
       </c>
       <c r="G152" s="18">
         <v>40</v>
@@ -12370,21 +12386,21 @@
         <v>0</v>
       </c>
       <c r="X152" s="23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="153" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C153" s="18">
-        <v>100082</v>
+        <v>100403</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E153" s="18">
         <v>2</v>
       </c>
       <c r="F153" s="9">
-        <v>15402002</v>
+        <v>15401006</v>
       </c>
       <c r="G153" s="18">
         <v>40</v>
@@ -12436,21 +12452,21 @@
         <v>0</v>
       </c>
       <c r="X153" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="154" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C154" s="18">
-        <v>100083</v>
+        <v>100404</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E154" s="18">
         <v>2</v>
       </c>
       <c r="F154" s="9">
-        <v>15402004</v>
+        <v>15402002</v>
       </c>
       <c r="G154" s="18">
         <v>40</v>
@@ -12502,21 +12518,21 @@
         <v>0</v>
       </c>
       <c r="X154" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="155" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C155" s="18">
-        <v>100084</v>
+        <v>100405</v>
       </c>
       <c r="D155" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E155" s="18">
         <v>2</v>
       </c>
       <c r="F155" s="9">
-        <v>15402006</v>
+        <v>15402004</v>
       </c>
       <c r="G155" s="18">
         <v>40</v>
@@ -12568,21 +12584,21 @@
         <v>0</v>
       </c>
       <c r="X155" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="156" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C156" s="18">
-        <v>100085</v>
+        <v>100406</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E156" s="18">
         <v>2</v>
       </c>
       <c r="F156" s="9">
-        <v>15403002</v>
+        <v>15402006</v>
       </c>
       <c r="G156" s="18">
         <v>40</v>
@@ -12634,21 +12650,21 @@
         <v>0</v>
       </c>
       <c r="X156" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="157" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C157" s="18">
-        <v>100086</v>
+        <v>100407</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E157" s="18">
         <v>2</v>
       </c>
       <c r="F157" s="9">
-        <v>15403004</v>
+        <v>15403002</v>
       </c>
       <c r="G157" s="18">
         <v>40</v>
@@ -12700,21 +12716,21 @@
         <v>0</v>
       </c>
       <c r="X157" s="23" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="158" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C158" s="18">
-        <v>100087</v>
+        <v>100408</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E158" s="18">
         <v>2</v>
       </c>
       <c r="F158" s="9">
-        <v>15403006</v>
+        <v>15403004</v>
       </c>
       <c r="G158" s="18">
         <v>40</v>
@@ -12766,21 +12782,21 @@
         <v>0</v>
       </c>
       <c r="X158" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="159" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C159" s="18">
-        <v>100088</v>
+        <v>100409</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E159" s="18">
         <v>2</v>
       </c>
       <c r="F159" s="9">
-        <v>15404002</v>
+        <v>15403006</v>
       </c>
       <c r="G159" s="18">
         <v>40</v>
@@ -12832,21 +12848,21 @@
         <v>0</v>
       </c>
       <c r="X159" s="23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="160" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C160" s="18">
-        <v>100089</v>
+        <v>100410</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E160" s="18">
         <v>2</v>
       </c>
       <c r="F160" s="9">
-        <v>15404004</v>
+        <v>15404002</v>
       </c>
       <c r="G160" s="18">
         <v>40</v>
@@ -12898,21 +12914,21 @@
         <v>0</v>
       </c>
       <c r="X160" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="161" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C161" s="18">
-        <v>100090</v>
+        <v>100411</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E161" s="18">
         <v>2</v>
       </c>
       <c r="F161" s="9">
-        <v>15404006</v>
+        <v>15404004</v>
       </c>
       <c r="G161" s="18">
         <v>40</v>
@@ -12964,21 +12980,21 @@
         <v>0</v>
       </c>
       <c r="X161" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="162" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C162" s="18">
-        <v>100091</v>
+        <v>100412</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E162" s="18">
         <v>2</v>
       </c>
       <c r="F162" s="9">
-        <v>15405002</v>
+        <v>15404006</v>
       </c>
       <c r="G162" s="18">
         <v>40</v>
@@ -13030,21 +13046,21 @@
         <v>0</v>
       </c>
       <c r="X162" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="163" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C163" s="18">
-        <v>100092</v>
+        <v>100413</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E163" s="18">
         <v>2</v>
       </c>
       <c r="F163" s="9">
-        <v>15405004</v>
+        <v>15405002</v>
       </c>
       <c r="G163" s="18">
         <v>40</v>
@@ -13096,21 +13112,21 @@
         <v>0</v>
       </c>
       <c r="X163" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="164" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C164" s="18">
-        <v>100093</v>
+        <v>100414</v>
       </c>
       <c r="D164" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E164" s="18">
         <v>2</v>
       </c>
       <c r="F164" s="9">
-        <v>15405006</v>
+        <v>15405004</v>
       </c>
       <c r="G164" s="18">
         <v>40</v>
@@ -13162,21 +13178,21 @@
         <v>0</v>
       </c>
       <c r="X164" s="23" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="165" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C165" s="18">
-        <v>100094</v>
+        <v>100415</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E165" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F165" s="9">
-        <v>15406002</v>
+        <v>15405006</v>
       </c>
       <c r="G165" s="18">
         <v>40</v>
@@ -13228,21 +13244,21 @@
         <v>0</v>
       </c>
       <c r="X165" s="23" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="166" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C166" s="18">
-        <v>100095</v>
+        <v>100416</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E166" s="18">
         <v>3</v>
       </c>
       <c r="F166" s="9">
-        <v>15407002</v>
+        <v>15406002</v>
       </c>
       <c r="G166" s="18">
         <v>40</v>
@@ -13294,21 +13310,21 @@
         <v>0</v>
       </c>
       <c r="X166" s="23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="167" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C167" s="18">
-        <v>100096</v>
+        <v>100417</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E167" s="18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F167" s="9">
-        <v>15408002</v>
+        <v>15407002</v>
       </c>
       <c r="G167" s="18">
         <v>40</v>
@@ -13360,21 +13376,21 @@
         <v>0</v>
       </c>
       <c r="X167" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="168" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C168" s="18">
-        <v>100097</v>
+        <v>100418</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E168" s="18">
         <v>1</v>
       </c>
       <c r="F168" s="9">
-        <v>15409002</v>
+        <v>15408002</v>
       </c>
       <c r="G168" s="18">
         <v>40</v>
@@ -13426,21 +13442,21 @@
         <v>0</v>
       </c>
       <c r="X168" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="169" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C169" s="18">
-        <v>100098</v>
+        <v>100419</v>
       </c>
       <c r="D169" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E169" s="18">
         <v>1</v>
       </c>
       <c r="F169" s="9">
-        <v>15410002</v>
+        <v>15409002</v>
       </c>
       <c r="G169" s="18">
         <v>40</v>
@@ -13492,21 +13508,21 @@
         <v>0</v>
       </c>
       <c r="X169" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="170" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C170" s="18">
-        <v>100099</v>
-      </c>
-      <c r="D170" s="9" t="s">
-        <v>277</v>
+        <v>100420</v>
+      </c>
+      <c r="D170" s="18" t="s">
+        <v>276</v>
       </c>
       <c r="E170" s="18">
         <v>1</v>
       </c>
       <c r="F170" s="9">
-        <v>15410004</v>
+        <v>15410002</v>
       </c>
       <c r="G170" s="18">
         <v>40</v>
@@ -13558,21 +13574,21 @@
         <v>0</v>
       </c>
       <c r="X170" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="171" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C171" s="18">
-        <v>100100</v>
-      </c>
-      <c r="D171" s="18" t="s">
-        <v>278</v>
+        <v>100421</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="E171" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F171" s="9">
-        <v>15411002</v>
+        <v>15410004</v>
       </c>
       <c r="G171" s="18">
         <v>40</v>
@@ -13624,21 +13640,21 @@
         <v>0</v>
       </c>
       <c r="X171" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="172" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C172" s="18">
-        <v>100101</v>
+        <v>100422</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E172" s="18">
         <v>2</v>
       </c>
       <c r="F172" s="9">
-        <v>15411004</v>
+        <v>15411002</v>
       </c>
       <c r="G172" s="18">
         <v>40</v>
@@ -13690,21 +13706,21 @@
         <v>0</v>
       </c>
       <c r="X172" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="173" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C173" s="18">
-        <v>100102</v>
+        <v>100423</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E173" s="18">
         <v>2</v>
       </c>
       <c r="F173" s="9">
-        <v>15411006</v>
+        <v>15411004</v>
       </c>
       <c r="G173" s="18">
         <v>40</v>
@@ -13756,21 +13772,21 @@
         <v>0</v>
       </c>
       <c r="X173" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="174" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C174" s="18">
-        <v>100103</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>281</v>
+        <v>100424</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="E174" s="18">
-        <v>1</v>
-      </c>
-      <c r="F174" s="8">
-        <v>15410102</v>
+        <v>2</v>
+      </c>
+      <c r="F174" s="9">
+        <v>15411006</v>
       </c>
       <c r="G174" s="18">
         <v>40</v>
@@ -13822,12 +13838,12 @@
         <v>0</v>
       </c>
       <c r="X174" s="23" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="175" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C175" s="18">
-        <v>100104</v>
+        <v>100425</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>281</v>
@@ -13836,7 +13852,7 @@
         <v>1</v>
       </c>
       <c r="F175" s="8">
-        <v>15410104</v>
+        <v>15410102</v>
       </c>
       <c r="G175" s="18">
         <v>40</v>
@@ -13888,30 +13904,30 @@
         <v>0</v>
       </c>
       <c r="X175" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="176" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C176" s="18">
-        <v>200001</v>
-      </c>
-      <c r="D176" s="9" t="s">
-        <v>282</v>
+        <v>100426</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="E176" s="18">
-        <v>3</v>
-      </c>
-      <c r="F176" s="9">
-        <v>13001001</v>
+        <v>1</v>
+      </c>
+      <c r="F176" s="8">
+        <v>15410104</v>
       </c>
       <c r="G176" s="18">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H176" s="18">
-        <v>50000</v>
+        <v>300000</v>
       </c>
       <c r="I176" s="18">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J176" s="19">
         <v>0</v>
@@ -13923,7 +13939,7 @@
         <v>1</v>
       </c>
       <c r="M176" s="13">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="N176" s="20"/>
       <c r="O176" s="20">
@@ -13939,7 +13955,7 @@
         <v>1</v>
       </c>
       <c r="S176" s="20">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="T176" s="13" t="s">
         <v>421</v>
@@ -13954,21 +13970,21 @@
         <v>0</v>
       </c>
       <c r="X176" s="23" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="177" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C177" s="18">
-        <v>200002</v>
+        <v>200001</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E177" s="18">
         <v>3</v>
       </c>
       <c r="F177" s="9">
-        <v>13001002</v>
+        <v>13001001</v>
       </c>
       <c r="G177" s="18">
         <v>10</v>
@@ -13977,7 +13993,7 @@
         <v>50000</v>
       </c>
       <c r="I177" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J177" s="19">
         <v>0</v>
@@ -14020,21 +14036,21 @@
         <v>0</v>
       </c>
       <c r="X177" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="178" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C178" s="18">
-        <v>200003</v>
+        <v>200002</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E178" s="18">
         <v>3</v>
       </c>
       <c r="F178" s="9">
-        <v>13001003</v>
+        <v>13001002</v>
       </c>
       <c r="G178" s="18">
         <v>10</v>
@@ -14086,21 +14102,21 @@
         <v>0</v>
       </c>
       <c r="X178" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="179" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C179" s="18">
-        <v>200004</v>
+        <v>200003</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E179" s="18">
         <v>3</v>
       </c>
       <c r="F179" s="9">
-        <v>13001004</v>
+        <v>13001003</v>
       </c>
       <c r="G179" s="18">
         <v>10</v>
@@ -14152,21 +14168,21 @@
         <v>0</v>
       </c>
       <c r="X179" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="180" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C180" s="18">
-        <v>200005</v>
+        <v>200004</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E180" s="18">
         <v>3</v>
       </c>
       <c r="F180" s="9">
-        <v>13001005</v>
+        <v>13001004</v>
       </c>
       <c r="G180" s="18">
         <v>10</v>
@@ -14218,21 +14234,21 @@
         <v>0</v>
       </c>
       <c r="X180" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="181" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C181" s="18">
-        <v>200006</v>
+        <v>200005</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E181" s="18">
         <v>3</v>
       </c>
       <c r="F181" s="9">
-        <v>13001006</v>
+        <v>13001005</v>
       </c>
       <c r="G181" s="18">
         <v>10</v>
@@ -14284,30 +14300,30 @@
         <v>0</v>
       </c>
       <c r="X181" s="23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="182" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C182" s="18">
-        <v>200007</v>
+        <v>200006</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E182" s="18">
         <v>3</v>
       </c>
       <c r="F182" s="9">
-        <v>13002001</v>
+        <v>13001006</v>
       </c>
       <c r="G182" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H182" s="18">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I182" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J182" s="19">
         <v>0</v>
@@ -14350,21 +14366,21 @@
         <v>0</v>
       </c>
       <c r="X182" s="23" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="183" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C183" s="18">
-        <v>200008</v>
+        <v>200007</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E183" s="18">
         <v>3</v>
       </c>
       <c r="F183" s="9">
-        <v>13002002</v>
+        <v>13002001</v>
       </c>
       <c r="G183" s="18">
         <v>20</v>
@@ -14373,7 +14389,7 @@
         <v>100000</v>
       </c>
       <c r="I183" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J183" s="19">
         <v>0</v>
@@ -14416,21 +14432,21 @@
         <v>0</v>
       </c>
       <c r="X183" s="23" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="184" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C184" s="18">
-        <v>200009</v>
+        <v>200008</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E184" s="18">
         <v>3</v>
       </c>
       <c r="F184" s="9">
-        <v>13002003</v>
+        <v>13002002</v>
       </c>
       <c r="G184" s="18">
         <v>20</v>
@@ -14482,21 +14498,21 @@
         <v>0</v>
       </c>
       <c r="X184" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="185" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C185" s="18">
-        <v>200010</v>
+        <v>200009</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E185" s="18">
         <v>3</v>
       </c>
       <c r="F185" s="9">
-        <v>13002004</v>
+        <v>13002003</v>
       </c>
       <c r="G185" s="18">
         <v>20</v>
@@ -14548,21 +14564,21 @@
         <v>0</v>
       </c>
       <c r="X185" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="186" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C186" s="18">
-        <v>200011</v>
+        <v>200010</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E186" s="18">
         <v>3</v>
       </c>
       <c r="F186" s="9">
-        <v>13002005</v>
+        <v>13002004</v>
       </c>
       <c r="G186" s="18">
         <v>20</v>
@@ -14614,21 +14630,21 @@
         <v>0</v>
       </c>
       <c r="X186" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="187" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C187" s="18">
-        <v>200012</v>
+        <v>200011</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E187" s="18">
         <v>3</v>
       </c>
       <c r="F187" s="9">
-        <v>13002006</v>
+        <v>13002005</v>
       </c>
       <c r="G187" s="18">
         <v>20</v>
@@ -14680,30 +14696,30 @@
         <v>0</v>
       </c>
       <c r="X187" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="188" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C188" s="18">
-        <v>200013</v>
+        <v>200012</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E188" s="18">
         <v>3</v>
       </c>
       <c r="F188" s="9">
-        <v>13003001</v>
+        <v>13002006</v>
       </c>
       <c r="G188" s="18">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H188" s="18">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I188" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J188" s="19">
         <v>0</v>
@@ -14731,7 +14747,7 @@
         <v>1</v>
       </c>
       <c r="S188" s="20">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T188" s="13" t="s">
         <v>421</v>
@@ -14746,21 +14762,21 @@
         <v>0</v>
       </c>
       <c r="X188" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="189" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C189" s="18">
-        <v>200014</v>
+        <v>200013</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E189" s="18">
         <v>3</v>
       </c>
       <c r="F189" s="9">
-        <v>13003002</v>
+        <v>13003001</v>
       </c>
       <c r="G189" s="18">
         <v>30</v>
@@ -14769,7 +14785,7 @@
         <v>200000</v>
       </c>
       <c r="I189" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J189" s="19">
         <v>0</v>
@@ -14812,21 +14828,21 @@
         <v>0</v>
       </c>
       <c r="X189" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C190" s="18">
-        <v>200015</v>
+        <v>200014</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E190" s="18">
         <v>3</v>
       </c>
       <c r="F190" s="9">
-        <v>13003003</v>
+        <v>13003002</v>
       </c>
       <c r="G190" s="18">
         <v>30</v>
@@ -14878,21 +14894,21 @@
         <v>0</v>
       </c>
       <c r="X190" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="191" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C191" s="18">
-        <v>200016</v>
+        <v>200015</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E191" s="18">
         <v>3</v>
       </c>
       <c r="F191" s="9">
-        <v>13003004</v>
+        <v>13003003</v>
       </c>
       <c r="G191" s="18">
         <v>30</v>
@@ -14944,21 +14960,21 @@
         <v>0</v>
       </c>
       <c r="X191" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="192" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C192" s="18">
-        <v>200017</v>
+        <v>200016</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E192" s="18">
         <v>3</v>
       </c>
       <c r="F192" s="9">
-        <v>13003005</v>
+        <v>13003004</v>
       </c>
       <c r="G192" s="18">
         <v>30</v>
@@ -15010,21 +15026,21 @@
         <v>0</v>
       </c>
       <c r="X192" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="193" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C193" s="18">
-        <v>200018</v>
+        <v>200017</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E193" s="18">
         <v>3</v>
       </c>
       <c r="F193" s="9">
-        <v>13003006</v>
+        <v>13003005</v>
       </c>
       <c r="G193" s="18">
         <v>30</v>
@@ -15076,30 +15092,30 @@
         <v>0</v>
       </c>
       <c r="X193" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="194" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C194" s="18">
-        <v>200019</v>
+        <v>200018</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E194" s="18">
         <v>3</v>
       </c>
       <c r="F194" s="9">
-        <v>13004001</v>
+        <v>13003006</v>
       </c>
       <c r="G194" s="18">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H194" s="18">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="I194" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J194" s="19">
         <v>0</v>
@@ -15127,7 +15143,7 @@
         <v>1</v>
       </c>
       <c r="S194" s="20">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T194" s="13" t="s">
         <v>421</v>
@@ -15142,21 +15158,21 @@
         <v>0</v>
       </c>
       <c r="X194" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="195" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C195" s="18">
-        <v>200020</v>
+        <v>200019</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E195" s="18">
         <v>3</v>
       </c>
       <c r="F195" s="9">
-        <v>13004002</v>
+        <v>13004001</v>
       </c>
       <c r="G195" s="18">
         <v>40</v>
@@ -15165,7 +15181,7 @@
         <v>300000</v>
       </c>
       <c r="I195" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J195" s="19">
         <v>0</v>
@@ -15208,21 +15224,21 @@
         <v>0</v>
       </c>
       <c r="X195" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="196" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C196" s="18">
-        <v>200021</v>
+        <v>200020</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E196" s="18">
         <v>3</v>
       </c>
       <c r="F196" s="9">
-        <v>13004003</v>
+        <v>13004002</v>
       </c>
       <c r="G196" s="18">
         <v>40</v>
@@ -15274,21 +15290,21 @@
         <v>0</v>
       </c>
       <c r="X196" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="197" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C197" s="18">
-        <v>200022</v>
+        <v>200021</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E197" s="18">
         <v>3</v>
       </c>
       <c r="F197" s="9">
-        <v>13004004</v>
+        <v>13004003</v>
       </c>
       <c r="G197" s="18">
         <v>40</v>
@@ -15340,21 +15356,21 @@
         <v>0</v>
       </c>
       <c r="X197" s="23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="198" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C198" s="18">
-        <v>200023</v>
+        <v>200022</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E198" s="18">
         <v>3</v>
       </c>
       <c r="F198" s="9">
-        <v>13004005</v>
+        <v>13004004</v>
       </c>
       <c r="G198" s="18">
         <v>40</v>
@@ -15406,21 +15422,21 @@
         <v>0</v>
       </c>
       <c r="X198" s="23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="199" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C199" s="18">
-        <v>200024</v>
+        <v>200023</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E199" s="18">
         <v>3</v>
       </c>
       <c r="F199" s="9">
-        <v>13004006</v>
+        <v>13004005</v>
       </c>
       <c r="G199" s="18">
         <v>40</v>
@@ -15472,30 +15488,30 @@
         <v>0</v>
       </c>
       <c r="X199" s="23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="200" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C200" s="18">
-        <v>200025</v>
+        <v>200024</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E200" s="18">
         <v>3</v>
       </c>
       <c r="F200" s="9">
-        <v>13005001</v>
+        <v>13004006</v>
       </c>
       <c r="G200" s="18">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H200" s="18">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="I200" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J200" s="19">
         <v>0</v>
@@ -15523,7 +15539,7 @@
         <v>1</v>
       </c>
       <c r="S200" s="20">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T200" s="13" t="s">
         <v>421</v>
@@ -15538,21 +15554,21 @@
         <v>0</v>
       </c>
       <c r="X200" s="23" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="201" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C201" s="18">
-        <v>200026</v>
+        <v>200025</v>
       </c>
       <c r="D201" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E201" s="18">
         <v>3</v>
       </c>
       <c r="F201" s="9">
-        <v>13005002</v>
+        <v>13005001</v>
       </c>
       <c r="G201" s="18">
         <v>50</v>
@@ -15561,7 +15577,7 @@
         <v>500000</v>
       </c>
       <c r="I201" s="18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J201" s="19">
         <v>0</v>
@@ -15604,21 +15620,21 @@
         <v>0</v>
       </c>
       <c r="X201" s="23" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="202" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C202" s="18">
-        <v>200027</v>
+        <v>200026</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E202" s="18">
         <v>3</v>
       </c>
       <c r="F202" s="9">
-        <v>13005003</v>
+        <v>13005002</v>
       </c>
       <c r="G202" s="18">
         <v>50</v>
@@ -15670,21 +15686,21 @@
         <v>0</v>
       </c>
       <c r="X202" s="23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="203" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C203" s="18">
-        <v>200028</v>
+        <v>200027</v>
       </c>
       <c r="D203" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E203" s="18">
         <v>3</v>
       </c>
       <c r="F203" s="9">
-        <v>13005004</v>
+        <v>13005003</v>
       </c>
       <c r="G203" s="18">
         <v>50</v>
@@ -15736,21 +15752,21 @@
         <v>0</v>
       </c>
       <c r="X203" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="204" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C204" s="18">
-        <v>200029</v>
+        <v>200028</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E204" s="18">
         <v>3</v>
       </c>
       <c r="F204" s="9">
-        <v>13005005</v>
+        <v>13005004</v>
       </c>
       <c r="G204" s="18">
         <v>50</v>
@@ -15802,21 +15818,21 @@
         <v>0</v>
       </c>
       <c r="X204" s="23" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="205" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C205" s="18">
-        <v>200030</v>
+        <v>200029</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E205" s="18">
         <v>3</v>
       </c>
       <c r="F205" s="9">
-        <v>13005006</v>
+        <v>13005005</v>
       </c>
       <c r="G205" s="18">
         <v>50</v>
@@ -15868,27 +15884,27 @@
         <v>0</v>
       </c>
       <c r="X205" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="206" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C206" s="18">
-        <v>300001</v>
+        <v>200030</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E206" s="18">
-        <v>1</v>
-      </c>
-      <c r="F206" s="28">
-        <v>11200001</v>
+        <v>3</v>
+      </c>
+      <c r="F206" s="9">
+        <v>13005006</v>
       </c>
       <c r="G206" s="18">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H206" s="18">
-        <v>50000</v>
+        <v>500000</v>
       </c>
       <c r="I206" s="18">
         <v>5</v>
@@ -15919,7 +15935,7 @@
         <v>1</v>
       </c>
       <c r="S206" s="20">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="T206" s="13" t="s">
         <v>421</v>
@@ -15934,21 +15950,21 @@
         <v>0</v>
       </c>
       <c r="X206" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="207" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C207" s="18">
-        <v>300002</v>
+        <v>300001</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E207" s="18">
         <v>1</v>
       </c>
       <c r="F207" s="28">
-        <v>11200002</v>
+        <v>11200001</v>
       </c>
       <c r="G207" s="18">
         <v>10</v>
@@ -16005,16 +16021,16 @@
     </row>
     <row r="208" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C208" s="18">
-        <v>300003</v>
+        <v>300002</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E208" s="18">
         <v>1</v>
       </c>
       <c r="F208" s="28">
-        <v>11200003</v>
+        <v>11200002</v>
       </c>
       <c r="G208" s="18">
         <v>10</v>
@@ -16071,22 +16087,22 @@
     </row>
     <row r="209" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C209" s="18">
-        <v>300004</v>
+        <v>300003</v>
       </c>
       <c r="D209" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E209" s="18">
         <v>1</v>
       </c>
       <c r="F209" s="28">
-        <v>11200004</v>
+        <v>11200003</v>
       </c>
       <c r="G209" s="18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H209" s="18">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="I209" s="18">
         <v>5</v>
@@ -16132,21 +16148,21 @@
         <v>0</v>
       </c>
       <c r="X209" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="210" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C210" s="18">
-        <v>300005</v>
+        <v>300004</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E210" s="18">
         <v>1</v>
       </c>
       <c r="F210" s="28">
-        <v>11200005</v>
+        <v>11200004</v>
       </c>
       <c r="G210" s="18">
         <v>20</v>
@@ -16203,16 +16219,16 @@
     </row>
     <row r="211" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C211" s="18">
-        <v>300006</v>
+        <v>300005</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E211" s="18">
         <v>1</v>
       </c>
       <c r="F211" s="28">
-        <v>11200006</v>
+        <v>11200005</v>
       </c>
       <c r="G211" s="18">
         <v>20</v>
@@ -16269,22 +16285,22 @@
     </row>
     <row r="212" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C212" s="18">
-        <v>300007</v>
+        <v>300006</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E212" s="18">
         <v>1</v>
       </c>
       <c r="F212" s="28">
-        <v>11200007</v>
+        <v>11200006</v>
       </c>
       <c r="G212" s="18">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H212" s="18">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="I212" s="18">
         <v>5</v>
@@ -16315,7 +16331,7 @@
         <v>1</v>
       </c>
       <c r="S212" s="20">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T212" s="13" t="s">
         <v>421</v>
@@ -16330,21 +16346,21 @@
         <v>0</v>
       </c>
       <c r="X212" s="23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="213" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C213" s="18">
-        <v>300008</v>
+        <v>300007</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E213" s="18">
         <v>1</v>
       </c>
       <c r="F213" s="28">
-        <v>11200008</v>
+        <v>11200007</v>
       </c>
       <c r="G213" s="18">
         <v>30</v>
@@ -16401,16 +16417,16 @@
     </row>
     <row r="214" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C214" s="18">
-        <v>300009</v>
+        <v>300008</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E214" s="18">
         <v>1</v>
       </c>
       <c r="F214" s="28">
-        <v>11200009</v>
+        <v>11200008</v>
       </c>
       <c r="G214" s="18">
         <v>30</v>
@@ -16467,22 +16483,22 @@
     </row>
     <row r="215" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C215" s="18">
-        <v>300010</v>
+        <v>300009</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E215" s="18">
         <v>1</v>
       </c>
       <c r="F215" s="28">
-        <v>11200010</v>
+        <v>11200009</v>
       </c>
       <c r="G215" s="18">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H215" s="18">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="I215" s="18">
         <v>5</v>
@@ -16513,7 +16529,7 @@
         <v>1</v>
       </c>
       <c r="S215" s="20">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T215" s="13" t="s">
         <v>421</v>
@@ -16528,21 +16544,21 @@
         <v>0</v>
       </c>
       <c r="X215" s="23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="216" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C216" s="18">
-        <v>300011</v>
+        <v>300010</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E216" s="18">
         <v>1</v>
       </c>
       <c r="F216" s="28">
-        <v>11200011</v>
+        <v>11200010</v>
       </c>
       <c r="G216" s="18">
         <v>40</v>
@@ -16599,16 +16615,16 @@
     </row>
     <row r="217" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C217" s="18">
-        <v>300012</v>
+        <v>300011</v>
       </c>
       <c r="D217" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E217" s="18">
         <v>1</v>
       </c>
       <c r="F217" s="28">
-        <v>11200012</v>
+        <v>11200011</v>
       </c>
       <c r="G217" s="18">
         <v>40</v>
@@ -16664,7 +16680,70 @@
       </c>
     </row>
     <row r="218" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D218" s="18"/>
+      <c r="C218" s="18">
+        <v>300012</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E218" s="18">
+        <v>1</v>
+      </c>
+      <c r="F218" s="28">
+        <v>11200012</v>
+      </c>
+      <c r="G218" s="18">
+        <v>40</v>
+      </c>
+      <c r="H218" s="18">
+        <v>300000</v>
+      </c>
+      <c r="I218" s="18">
+        <v>5</v>
+      </c>
+      <c r="J218" s="19">
+        <v>0</v>
+      </c>
+      <c r="K218" s="20">
+        <v>1</v>
+      </c>
+      <c r="L218" s="20">
+        <v>1</v>
+      </c>
+      <c r="M218" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="N218" s="20"/>
+      <c r="O218" s="20">
+        <v>1</v>
+      </c>
+      <c r="P218" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q218" s="20">
+        <v>3</v>
+      </c>
+      <c r="R218" s="20">
+        <v>1</v>
+      </c>
+      <c r="S218" s="20">
+        <v>400</v>
+      </c>
+      <c r="T218" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="U218" s="20">
+        <v>1</v>
+      </c>
+      <c r="V218" s="20">
+        <v>1</v>
+      </c>
+      <c r="W218" s="20">
+        <v>0</v>
+      </c>
+      <c r="X218" s="23" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="219" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D219" s="18"/>
@@ -16717,11 +16796,8 @@
     <row r="235" spans="4:9" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D235" s="18"/>
     </row>
-    <row r="236" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E236" s="2"/>
-      <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
-      <c r="I236" s="2"/>
+    <row r="236" spans="4:9" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D236" s="18"/>
     </row>
     <row r="237" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E237" s="2"/>
@@ -21480,6 +21556,12 @@
       <c r="G1029" s="2"/>
       <c r="H1029" s="2"/>
       <c r="I1029" s="2"/>
+    </row>
+    <row r="1030" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E1030" s="2"/>
+      <c r="G1030" s="2"/>
+      <c r="H1030" s="2"/>
+      <c r="I1030" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D5974C-CE2D-4C15-8A67-B7E2A2C28525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC2DA17-3EE9-488F-995D-551274D72EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipMakeProto" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,25 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>炼金类型</t>
+          <t xml:space="preserve">炼金类型
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>宝石类型</t>
         </r>
       </text>
     </comment>
@@ -401,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="581">
   <si>
     <t>#</t>
   </si>
@@ -2029,6 +2047,222 @@
   </si>
   <si>
     <t>10020001;200@10025010;200@15411006;1@10025008;30@10025009;15@10000143;10</t>
+  </si>
+  <si>
+    <t>2级攻击石</t>
+  </si>
+  <si>
+    <t>3级攻击石</t>
+  </si>
+  <si>
+    <t>4级攻击石</t>
+  </si>
+  <si>
+    <t>5级攻击石</t>
+  </si>
+  <si>
+    <t>6级攻击石</t>
+  </si>
+  <si>
+    <t>7级攻击石</t>
+  </si>
+  <si>
+    <t>8级攻击石</t>
+  </si>
+  <si>
+    <t>9级攻击石</t>
+  </si>
+  <si>
+    <t>10级攻击石</t>
+  </si>
+  <si>
+    <t>2级生命石</t>
+  </si>
+  <si>
+    <t>3级生命石</t>
+  </si>
+  <si>
+    <t>4级生命石</t>
+  </si>
+  <si>
+    <t>5级生命石</t>
+  </si>
+  <si>
+    <t>6级生命石</t>
+  </si>
+  <si>
+    <t>7级生命石</t>
+  </si>
+  <si>
+    <t>8级生命石</t>
+  </si>
+  <si>
+    <t>9级生命石</t>
+  </si>
+  <si>
+    <t>10级生命石</t>
+  </si>
+  <si>
+    <t>2级物防石</t>
+  </si>
+  <si>
+    <t>3级物防石</t>
+  </si>
+  <si>
+    <t>4级物防石</t>
+  </si>
+  <si>
+    <t>5级物防石</t>
+  </si>
+  <si>
+    <t>6级物防石</t>
+  </si>
+  <si>
+    <t>7级物防石</t>
+  </si>
+  <si>
+    <t>8级物防石</t>
+  </si>
+  <si>
+    <t>9级物防石</t>
+  </si>
+  <si>
+    <t>10级物防石</t>
+  </si>
+  <si>
+    <t>2级魔防石</t>
+  </si>
+  <si>
+    <t>3级魔防石</t>
+  </si>
+  <si>
+    <t>4级魔防石</t>
+  </si>
+  <si>
+    <t>5级魔防石</t>
+  </si>
+  <si>
+    <t>6级魔防石</t>
+  </si>
+  <si>
+    <t>7级魔防石</t>
+  </si>
+  <si>
+    <t>8级魔防石</t>
+  </si>
+  <si>
+    <t>9级魔防石</t>
+  </si>
+  <si>
+    <t>10级魔防石</t>
+  </si>
+  <si>
+    <t>10045101;2</t>
+  </si>
+  <si>
+    <t>10045102;2</t>
+  </si>
+  <si>
+    <t>10045103;2</t>
+  </si>
+  <si>
+    <t>10045104;2</t>
+  </si>
+  <si>
+    <t>10045105;2</t>
+  </si>
+  <si>
+    <t>10045106;2</t>
+  </si>
+  <si>
+    <t>10045107;2</t>
+  </si>
+  <si>
+    <t>10045108;2</t>
+  </si>
+  <si>
+    <t>10045109;2</t>
+  </si>
+  <si>
+    <t>10045201;2</t>
+  </si>
+  <si>
+    <t>10045202;2</t>
+  </si>
+  <si>
+    <t>10045203;2</t>
+  </si>
+  <si>
+    <t>10045204;2</t>
+  </si>
+  <si>
+    <t>10045205;2</t>
+  </si>
+  <si>
+    <t>10045206;2</t>
+  </si>
+  <si>
+    <t>10045207;2</t>
+  </si>
+  <si>
+    <t>10045208;2</t>
+  </si>
+  <si>
+    <t>10045209;2</t>
+  </si>
+  <si>
+    <t>10045301;2</t>
+  </si>
+  <si>
+    <t>10045302;2</t>
+  </si>
+  <si>
+    <t>10045303;2</t>
+  </si>
+  <si>
+    <t>10045304;2</t>
+  </si>
+  <si>
+    <t>10045305;2</t>
+  </si>
+  <si>
+    <t>10045306;2</t>
+  </si>
+  <si>
+    <t>10045307;2</t>
+  </si>
+  <si>
+    <t>10045308;2</t>
+  </si>
+  <si>
+    <t>10045309;2</t>
+  </si>
+  <si>
+    <t>10045401;2</t>
+  </si>
+  <si>
+    <t>10045402;2</t>
+  </si>
+  <si>
+    <t>10045403;2</t>
+  </si>
+  <si>
+    <t>10045404;2</t>
+  </si>
+  <si>
+    <t>10045405;2</t>
+  </si>
+  <si>
+    <t>10045406;2</t>
+  </si>
+  <si>
+    <t>10045407;2</t>
+  </si>
+  <si>
+    <t>10045408;2</t>
+  </si>
+  <si>
+    <t>10045409;2</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2529,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2396,6 +2630,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2704,11 +2941,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X1086"/>
+  <dimension ref="C1:X1080"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H243" sqref="H243"/>
+      <pane ySplit="5" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F279" sqref="F279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -20734,222 +20971,2508 @@
       </c>
     </row>
     <row r="275" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D275" s="18"/>
+      <c r="C275" s="38">
+        <v>4000101</v>
+      </c>
+      <c r="D275" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="E275" s="18">
+        <v>4</v>
+      </c>
+      <c r="F275" s="38">
+        <v>10045102</v>
+      </c>
+      <c r="G275" s="18">
+        <v>1</v>
+      </c>
+      <c r="H275" s="18">
+        <v>0</v>
+      </c>
+      <c r="I275" s="18">
+        <v>0</v>
+      </c>
+      <c r="J275" s="18">
+        <v>0</v>
+      </c>
+      <c r="K275" s="18">
+        <v>1</v>
+      </c>
+      <c r="L275" s="18">
+        <v>1</v>
+      </c>
+      <c r="M275" s="18">
+        <v>0</v>
+      </c>
+      <c r="N275" s="18">
+        <v>0</v>
+      </c>
+      <c r="O275" s="18">
+        <v>1</v>
+      </c>
+      <c r="P275" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q275" s="18">
+        <v>1</v>
+      </c>
+      <c r="R275" s="18">
+        <v>0</v>
+      </c>
+      <c r="S275" s="18">
+        <v>0</v>
+      </c>
+      <c r="T275" s="18">
+        <v>0</v>
+      </c>
+      <c r="U275" s="18">
+        <v>0</v>
+      </c>
+      <c r="V275" s="18">
+        <v>1</v>
+      </c>
+      <c r="W275" s="38">
+        <v>10045101</v>
+      </c>
+      <c r="X275" s="17" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="276" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D276" s="18"/>
+      <c r="C276" s="38">
+        <v>4000102</v>
+      </c>
+      <c r="D276" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="E276" s="18">
+        <v>4</v>
+      </c>
+      <c r="F276" s="38">
+        <v>10045103</v>
+      </c>
+      <c r="G276" s="18">
+        <v>1</v>
+      </c>
+      <c r="H276" s="18">
+        <v>0</v>
+      </c>
+      <c r="I276" s="18">
+        <v>0</v>
+      </c>
+      <c r="J276" s="18">
+        <v>0</v>
+      </c>
+      <c r="K276" s="18">
+        <v>1</v>
+      </c>
+      <c r="L276" s="18">
+        <v>1</v>
+      </c>
+      <c r="M276" s="18">
+        <v>0</v>
+      </c>
+      <c r="N276" s="18">
+        <v>0</v>
+      </c>
+      <c r="O276" s="18">
+        <v>1</v>
+      </c>
+      <c r="P276" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q276" s="18">
+        <v>1</v>
+      </c>
+      <c r="R276" s="18">
+        <v>0</v>
+      </c>
+      <c r="S276" s="18">
+        <v>0</v>
+      </c>
+      <c r="T276" s="18">
+        <v>0</v>
+      </c>
+      <c r="U276" s="18">
+        <v>0</v>
+      </c>
+      <c r="V276" s="18">
+        <v>1</v>
+      </c>
+      <c r="W276" s="38">
+        <v>10045102</v>
+      </c>
+      <c r="X276" s="17" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="277" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D277" s="18"/>
+      <c r="C277" s="38">
+        <v>4000103</v>
+      </c>
+      <c r="D277" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="E277" s="18">
+        <v>4</v>
+      </c>
+      <c r="F277" s="38">
+        <v>10045104</v>
+      </c>
+      <c r="G277" s="18">
+        <v>10</v>
+      </c>
+      <c r="H277" s="18">
+        <v>0</v>
+      </c>
+      <c r="I277" s="18">
+        <v>0</v>
+      </c>
+      <c r="J277" s="18">
+        <v>0</v>
+      </c>
+      <c r="K277" s="18">
+        <v>1</v>
+      </c>
+      <c r="L277" s="18">
+        <v>1</v>
+      </c>
+      <c r="M277" s="18">
+        <v>0</v>
+      </c>
+      <c r="N277" s="18">
+        <v>0</v>
+      </c>
+      <c r="O277" s="18">
+        <v>1</v>
+      </c>
+      <c r="P277" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q277" s="18">
+        <v>1</v>
+      </c>
+      <c r="R277" s="18">
+        <v>0</v>
+      </c>
+      <c r="S277" s="18">
+        <v>0</v>
+      </c>
+      <c r="T277" s="18">
+        <v>0</v>
+      </c>
+      <c r="U277" s="18">
+        <v>0</v>
+      </c>
+      <c r="V277" s="18">
+        <v>1</v>
+      </c>
+      <c r="W277" s="38">
+        <v>10045103</v>
+      </c>
+      <c r="X277" s="17" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="278" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D278" s="18"/>
+      <c r="C278" s="38">
+        <v>4000104</v>
+      </c>
+      <c r="D278" s="38" t="s">
+        <v>512</v>
+      </c>
+      <c r="E278" s="18">
+        <v>4</v>
+      </c>
+      <c r="F278" s="38">
+        <v>10045105</v>
+      </c>
+      <c r="G278" s="18">
+        <v>15</v>
+      </c>
+      <c r="H278" s="18">
+        <v>0</v>
+      </c>
+      <c r="I278" s="18">
+        <v>0</v>
+      </c>
+      <c r="J278" s="18">
+        <v>0</v>
+      </c>
+      <c r="K278" s="18">
+        <v>1</v>
+      </c>
+      <c r="L278" s="18">
+        <v>1</v>
+      </c>
+      <c r="M278" s="18">
+        <v>0</v>
+      </c>
+      <c r="N278" s="18">
+        <v>0</v>
+      </c>
+      <c r="O278" s="18">
+        <v>1</v>
+      </c>
+      <c r="P278" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q278" s="18">
+        <v>1</v>
+      </c>
+      <c r="R278" s="18">
+        <v>0</v>
+      </c>
+      <c r="S278" s="18">
+        <v>0</v>
+      </c>
+      <c r="T278" s="18">
+        <v>0</v>
+      </c>
+      <c r="U278" s="18">
+        <v>0</v>
+      </c>
+      <c r="V278" s="18">
+        <v>1</v>
+      </c>
+      <c r="W278" s="38">
+        <v>10045104</v>
+      </c>
+      <c r="X278" s="17" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="279" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D279" s="18"/>
+      <c r="C279" s="38">
+        <v>4000105</v>
+      </c>
+      <c r="D279" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="E279" s="18">
+        <v>4</v>
+      </c>
+      <c r="F279" s="38">
+        <v>10045106</v>
+      </c>
+      <c r="G279" s="18">
+        <v>20</v>
+      </c>
+      <c r="H279" s="18">
+        <v>0</v>
+      </c>
+      <c r="I279" s="18">
+        <v>0</v>
+      </c>
+      <c r="J279" s="18">
+        <v>0</v>
+      </c>
+      <c r="K279" s="18">
+        <v>1</v>
+      </c>
+      <c r="L279" s="18">
+        <v>1</v>
+      </c>
+      <c r="M279" s="18">
+        <v>0</v>
+      </c>
+      <c r="N279" s="18">
+        <v>0</v>
+      </c>
+      <c r="O279" s="18">
+        <v>1</v>
+      </c>
+      <c r="P279" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q279" s="18">
+        <v>1</v>
+      </c>
+      <c r="R279" s="18">
+        <v>0</v>
+      </c>
+      <c r="S279" s="18">
+        <v>0</v>
+      </c>
+      <c r="T279" s="18">
+        <v>0</v>
+      </c>
+      <c r="U279" s="18">
+        <v>0</v>
+      </c>
+      <c r="V279" s="18">
+        <v>1</v>
+      </c>
+      <c r="W279" s="38">
+        <v>10045105</v>
+      </c>
+      <c r="X279" s="17" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="280" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D280" s="18"/>
+      <c r="C280" s="38">
+        <v>4000106</v>
+      </c>
+      <c r="D280" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="E280" s="18">
+        <v>4</v>
+      </c>
+      <c r="F280" s="38">
+        <v>10045107</v>
+      </c>
+      <c r="G280" s="18">
+        <v>30</v>
+      </c>
+      <c r="H280" s="18">
+        <v>0</v>
+      </c>
+      <c r="I280" s="18">
+        <v>0</v>
+      </c>
+      <c r="J280" s="18">
+        <v>0</v>
+      </c>
+      <c r="K280" s="18">
+        <v>1</v>
+      </c>
+      <c r="L280" s="18">
+        <v>1</v>
+      </c>
+      <c r="M280" s="18">
+        <v>0</v>
+      </c>
+      <c r="N280" s="18">
+        <v>0</v>
+      </c>
+      <c r="O280" s="18">
+        <v>1</v>
+      </c>
+      <c r="P280" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q280" s="18">
+        <v>1</v>
+      </c>
+      <c r="R280" s="18">
+        <v>0</v>
+      </c>
+      <c r="S280" s="18">
+        <v>0</v>
+      </c>
+      <c r="T280" s="18">
+        <v>0</v>
+      </c>
+      <c r="U280" s="18">
+        <v>0</v>
+      </c>
+      <c r="V280" s="18">
+        <v>1</v>
+      </c>
+      <c r="W280" s="38">
+        <v>10045106</v>
+      </c>
+      <c r="X280" s="17" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="281" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D281" s="18"/>
+      <c r="C281" s="38">
+        <v>4000107</v>
+      </c>
+      <c r="D281" s="38" t="s">
+        <v>515</v>
+      </c>
+      <c r="E281" s="18">
+        <v>4</v>
+      </c>
+      <c r="F281" s="38">
+        <v>10045108</v>
+      </c>
+      <c r="G281" s="18">
+        <v>40</v>
+      </c>
+      <c r="H281" s="18">
+        <v>0</v>
+      </c>
+      <c r="I281" s="18">
+        <v>0</v>
+      </c>
+      <c r="J281" s="18">
+        <v>0</v>
+      </c>
+      <c r="K281" s="18">
+        <v>1</v>
+      </c>
+      <c r="L281" s="18">
+        <v>1</v>
+      </c>
+      <c r="M281" s="18">
+        <v>0</v>
+      </c>
+      <c r="N281" s="18">
+        <v>0</v>
+      </c>
+      <c r="O281" s="18">
+        <v>1</v>
+      </c>
+      <c r="P281" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q281" s="18">
+        <v>1</v>
+      </c>
+      <c r="R281" s="18">
+        <v>0</v>
+      </c>
+      <c r="S281" s="18">
+        <v>0</v>
+      </c>
+      <c r="T281" s="18">
+        <v>0</v>
+      </c>
+      <c r="U281" s="18">
+        <v>0</v>
+      </c>
+      <c r="V281" s="18">
+        <v>1</v>
+      </c>
+      <c r="W281" s="38">
+        <v>10045107</v>
+      </c>
+      <c r="X281" s="17" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="282" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D282" s="18"/>
+      <c r="C282" s="38">
+        <v>4000108</v>
+      </c>
+      <c r="D282" s="38" t="s">
+        <v>516</v>
+      </c>
+      <c r="E282" s="18">
+        <v>4</v>
+      </c>
+      <c r="F282" s="38">
+        <v>10045109</v>
+      </c>
+      <c r="G282" s="18">
+        <v>50</v>
+      </c>
+      <c r="H282" s="18">
+        <v>0</v>
+      </c>
+      <c r="I282" s="18">
+        <v>0</v>
+      </c>
+      <c r="J282" s="18">
+        <v>0</v>
+      </c>
+      <c r="K282" s="18">
+        <v>1</v>
+      </c>
+      <c r="L282" s="18">
+        <v>1</v>
+      </c>
+      <c r="M282" s="18">
+        <v>0</v>
+      </c>
+      <c r="N282" s="18">
+        <v>0</v>
+      </c>
+      <c r="O282" s="18">
+        <v>1</v>
+      </c>
+      <c r="P282" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q282" s="18">
+        <v>1</v>
+      </c>
+      <c r="R282" s="18">
+        <v>0</v>
+      </c>
+      <c r="S282" s="18">
+        <v>0</v>
+      </c>
+      <c r="T282" s="18">
+        <v>0</v>
+      </c>
+      <c r="U282" s="18">
+        <v>0</v>
+      </c>
+      <c r="V282" s="18">
+        <v>1</v>
+      </c>
+      <c r="W282" s="38">
+        <v>10045108</v>
+      </c>
+      <c r="X282" s="17" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="283" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D283" s="18"/>
+      <c r="C283" s="38">
+        <v>4000109</v>
+      </c>
+      <c r="D283" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="E283" s="18">
+        <v>4</v>
+      </c>
+      <c r="F283" s="38">
+        <v>10045110</v>
+      </c>
+      <c r="G283" s="18">
+        <v>50</v>
+      </c>
+      <c r="H283" s="18">
+        <v>0</v>
+      </c>
+      <c r="I283" s="18">
+        <v>0</v>
+      </c>
+      <c r="J283" s="18">
+        <v>0</v>
+      </c>
+      <c r="K283" s="18">
+        <v>1</v>
+      </c>
+      <c r="L283" s="18">
+        <v>1</v>
+      </c>
+      <c r="M283" s="18">
+        <v>0</v>
+      </c>
+      <c r="N283" s="18">
+        <v>0</v>
+      </c>
+      <c r="O283" s="18">
+        <v>1</v>
+      </c>
+      <c r="P283" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q283" s="18">
+        <v>1</v>
+      </c>
+      <c r="R283" s="18">
+        <v>0</v>
+      </c>
+      <c r="S283" s="18">
+        <v>0</v>
+      </c>
+      <c r="T283" s="18">
+        <v>0</v>
+      </c>
+      <c r="U283" s="18">
+        <v>0</v>
+      </c>
+      <c r="V283" s="18">
+        <v>1</v>
+      </c>
+      <c r="W283" s="38">
+        <v>10045109</v>
+      </c>
+      <c r="X283" s="17" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="284" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D284" s="18"/>
+      <c r="C284" s="38">
+        <v>4000201</v>
+      </c>
+      <c r="D284" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="E284" s="18">
+        <v>4</v>
+      </c>
+      <c r="F284" s="38">
+        <v>10045202</v>
+      </c>
+      <c r="G284" s="18">
+        <v>1</v>
+      </c>
+      <c r="H284" s="18">
+        <v>0</v>
+      </c>
+      <c r="I284" s="18">
+        <v>0</v>
+      </c>
+      <c r="J284" s="18">
+        <v>0</v>
+      </c>
+      <c r="K284" s="18">
+        <v>1</v>
+      </c>
+      <c r="L284" s="18">
+        <v>1</v>
+      </c>
+      <c r="M284" s="18">
+        <v>0</v>
+      </c>
+      <c r="N284" s="18">
+        <v>0</v>
+      </c>
+      <c r="O284" s="18">
+        <v>1</v>
+      </c>
+      <c r="P284" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q284" s="18">
+        <v>1</v>
+      </c>
+      <c r="R284" s="18">
+        <v>0</v>
+      </c>
+      <c r="S284" s="18">
+        <v>0</v>
+      </c>
+      <c r="T284" s="18">
+        <v>0</v>
+      </c>
+      <c r="U284" s="18">
+        <v>0</v>
+      </c>
+      <c r="V284" s="18">
+        <v>1</v>
+      </c>
+      <c r="W284" s="38">
+        <v>10045201</v>
+      </c>
+      <c r="X284" s="17" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="285" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D285" s="18"/>
+      <c r="C285" s="38">
+        <v>4000202</v>
+      </c>
+      <c r="D285" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="E285" s="18">
+        <v>4</v>
+      </c>
+      <c r="F285" s="38">
+        <v>10045203</v>
+      </c>
+      <c r="G285" s="18">
+        <v>1</v>
+      </c>
+      <c r="H285" s="18">
+        <v>0</v>
+      </c>
+      <c r="I285" s="18">
+        <v>0</v>
+      </c>
+      <c r="J285" s="18">
+        <v>0</v>
+      </c>
+      <c r="K285" s="18">
+        <v>1</v>
+      </c>
+      <c r="L285" s="18">
+        <v>1</v>
+      </c>
+      <c r="M285" s="18">
+        <v>0</v>
+      </c>
+      <c r="N285" s="18">
+        <v>0</v>
+      </c>
+      <c r="O285" s="18">
+        <v>1</v>
+      </c>
+      <c r="P285" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q285" s="18">
+        <v>1</v>
+      </c>
+      <c r="R285" s="18">
+        <v>0</v>
+      </c>
+      <c r="S285" s="18">
+        <v>0</v>
+      </c>
+      <c r="T285" s="18">
+        <v>0</v>
+      </c>
+      <c r="U285" s="18">
+        <v>0</v>
+      </c>
+      <c r="V285" s="18">
+        <v>1</v>
+      </c>
+      <c r="W285" s="38">
+        <v>10045202</v>
+      </c>
+      <c r="X285" s="17" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="286" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D286" s="18"/>
+      <c r="C286" s="38">
+        <v>4000203</v>
+      </c>
+      <c r="D286" s="38" t="s">
+        <v>520</v>
+      </c>
+      <c r="E286" s="18">
+        <v>4</v>
+      </c>
+      <c r="F286" s="38">
+        <v>10045204</v>
+      </c>
+      <c r="G286" s="18">
+        <v>10</v>
+      </c>
+      <c r="H286" s="18">
+        <v>0</v>
+      </c>
+      <c r="I286" s="18">
+        <v>0</v>
+      </c>
+      <c r="J286" s="18">
+        <v>0</v>
+      </c>
+      <c r="K286" s="18">
+        <v>1</v>
+      </c>
+      <c r="L286" s="18">
+        <v>1</v>
+      </c>
+      <c r="M286" s="18">
+        <v>0</v>
+      </c>
+      <c r="N286" s="18">
+        <v>0</v>
+      </c>
+      <c r="O286" s="18">
+        <v>1</v>
+      </c>
+      <c r="P286" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q286" s="18">
+        <v>1</v>
+      </c>
+      <c r="R286" s="18">
+        <v>0</v>
+      </c>
+      <c r="S286" s="18">
+        <v>0</v>
+      </c>
+      <c r="T286" s="18">
+        <v>0</v>
+      </c>
+      <c r="U286" s="18">
+        <v>0</v>
+      </c>
+      <c r="V286" s="18">
+        <v>1</v>
+      </c>
+      <c r="W286" s="38">
+        <v>10045203</v>
+      </c>
+      <c r="X286" s="17" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="287" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D287" s="18"/>
+      <c r="C287" s="38">
+        <v>4000204</v>
+      </c>
+      <c r="D287" s="38" t="s">
+        <v>521</v>
+      </c>
+      <c r="E287" s="18">
+        <v>4</v>
+      </c>
+      <c r="F287" s="38">
+        <v>10045205</v>
+      </c>
+      <c r="G287" s="18">
+        <v>15</v>
+      </c>
+      <c r="H287" s="18">
+        <v>0</v>
+      </c>
+      <c r="I287" s="18">
+        <v>0</v>
+      </c>
+      <c r="J287" s="18">
+        <v>0</v>
+      </c>
+      <c r="K287" s="18">
+        <v>1</v>
+      </c>
+      <c r="L287" s="18">
+        <v>1</v>
+      </c>
+      <c r="M287" s="18">
+        <v>0</v>
+      </c>
+      <c r="N287" s="18">
+        <v>0</v>
+      </c>
+      <c r="O287" s="18">
+        <v>1</v>
+      </c>
+      <c r="P287" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q287" s="18">
+        <v>1</v>
+      </c>
+      <c r="R287" s="18">
+        <v>0</v>
+      </c>
+      <c r="S287" s="18">
+        <v>0</v>
+      </c>
+      <c r="T287" s="18">
+        <v>0</v>
+      </c>
+      <c r="U287" s="18">
+        <v>0</v>
+      </c>
+      <c r="V287" s="18">
+        <v>1</v>
+      </c>
+      <c r="W287" s="38">
+        <v>10045204</v>
+      </c>
+      <c r="X287" s="17" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="288" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D288" s="18"/>
-    </row>
-    <row r="289" spans="4:9" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D289" s="18"/>
-    </row>
-    <row r="290" spans="4:9" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D290" s="18"/>
-    </row>
-    <row r="291" spans="4:9" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D291" s="18"/>
-    </row>
-    <row r="292" spans="4:9" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D292" s="18"/>
-    </row>
-    <row r="293" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E293" s="2"/>
-      <c r="G293" s="2"/>
-      <c r="H293" s="2"/>
-      <c r="I293" s="2"/>
-    </row>
-    <row r="294" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E294" s="2"/>
-      <c r="G294" s="2"/>
-      <c r="H294" s="2"/>
-      <c r="I294" s="2"/>
-    </row>
-    <row r="295" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E295" s="2"/>
-      <c r="G295" s="2"/>
-      <c r="H295" s="2"/>
-      <c r="I295" s="2"/>
-    </row>
-    <row r="296" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E296" s="2"/>
-      <c r="G296" s="2"/>
-      <c r="H296" s="2"/>
-      <c r="I296" s="2"/>
-    </row>
-    <row r="297" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E297" s="2"/>
-      <c r="G297" s="2"/>
-      <c r="H297" s="2"/>
-      <c r="I297" s="2"/>
-    </row>
-    <row r="298" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E298" s="2"/>
-      <c r="G298" s="2"/>
-      <c r="H298" s="2"/>
-      <c r="I298" s="2"/>
-    </row>
-    <row r="299" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E299" s="2"/>
-      <c r="G299" s="2"/>
-      <c r="H299" s="2"/>
-      <c r="I299" s="2"/>
-    </row>
-    <row r="300" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E300" s="2"/>
-      <c r="G300" s="2"/>
-      <c r="H300" s="2"/>
-      <c r="I300" s="2"/>
-    </row>
-    <row r="301" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E301" s="2"/>
-      <c r="G301" s="2"/>
-      <c r="H301" s="2"/>
-      <c r="I301" s="2"/>
-    </row>
-    <row r="302" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E302" s="2"/>
-      <c r="G302" s="2"/>
-      <c r="H302" s="2"/>
-      <c r="I302" s="2"/>
-    </row>
-    <row r="303" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E303" s="2"/>
-      <c r="G303" s="2"/>
-      <c r="H303" s="2"/>
-      <c r="I303" s="2"/>
-    </row>
-    <row r="304" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="E304" s="2"/>
-      <c r="G304" s="2"/>
-      <c r="H304" s="2"/>
-      <c r="I304" s="2"/>
-    </row>
-    <row r="305" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E305" s="2"/>
-      <c r="G305" s="2"/>
-      <c r="H305" s="2"/>
-      <c r="I305" s="2"/>
-    </row>
-    <row r="306" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E306" s="2"/>
-      <c r="G306" s="2"/>
-      <c r="H306" s="2"/>
-      <c r="I306" s="2"/>
-    </row>
-    <row r="307" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E307" s="2"/>
-      <c r="G307" s="2"/>
-      <c r="H307" s="2"/>
-      <c r="I307" s="2"/>
-    </row>
-    <row r="308" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E308" s="2"/>
-      <c r="G308" s="2"/>
-      <c r="H308" s="2"/>
-      <c r="I308" s="2"/>
-    </row>
-    <row r="309" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E309" s="2"/>
-      <c r="G309" s="2"/>
-      <c r="H309" s="2"/>
-      <c r="I309" s="2"/>
-    </row>
-    <row r="310" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E310" s="2"/>
-      <c r="G310" s="2"/>
-      <c r="H310" s="2"/>
-      <c r="I310" s="2"/>
-    </row>
-    <row r="311" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="C288" s="38">
+        <v>4000205</v>
+      </c>
+      <c r="D288" s="38" t="s">
+        <v>522</v>
+      </c>
+      <c r="E288" s="18">
+        <v>4</v>
+      </c>
+      <c r="F288" s="38">
+        <v>10045206</v>
+      </c>
+      <c r="G288" s="18">
+        <v>20</v>
+      </c>
+      <c r="H288" s="18">
+        <v>0</v>
+      </c>
+      <c r="I288" s="18">
+        <v>0</v>
+      </c>
+      <c r="J288" s="18">
+        <v>0</v>
+      </c>
+      <c r="K288" s="18">
+        <v>1</v>
+      </c>
+      <c r="L288" s="18">
+        <v>1</v>
+      </c>
+      <c r="M288" s="18">
+        <v>0</v>
+      </c>
+      <c r="N288" s="18">
+        <v>0</v>
+      </c>
+      <c r="O288" s="18">
+        <v>1</v>
+      </c>
+      <c r="P288" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q288" s="18">
+        <v>1</v>
+      </c>
+      <c r="R288" s="18">
+        <v>0</v>
+      </c>
+      <c r="S288" s="18">
+        <v>0</v>
+      </c>
+      <c r="T288" s="18">
+        <v>0</v>
+      </c>
+      <c r="U288" s="18">
+        <v>0</v>
+      </c>
+      <c r="V288" s="18">
+        <v>1</v>
+      </c>
+      <c r="W288" s="38">
+        <v>10045205</v>
+      </c>
+      <c r="X288" s="17" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="289" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C289" s="38">
+        <v>4000206</v>
+      </c>
+      <c r="D289" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="E289" s="18">
+        <v>4</v>
+      </c>
+      <c r="F289" s="38">
+        <v>10045207</v>
+      </c>
+      <c r="G289" s="18">
+        <v>30</v>
+      </c>
+      <c r="H289" s="18">
+        <v>0</v>
+      </c>
+      <c r="I289" s="18">
+        <v>0</v>
+      </c>
+      <c r="J289" s="18">
+        <v>0</v>
+      </c>
+      <c r="K289" s="18">
+        <v>1</v>
+      </c>
+      <c r="L289" s="18">
+        <v>1</v>
+      </c>
+      <c r="M289" s="18">
+        <v>0</v>
+      </c>
+      <c r="N289" s="18">
+        <v>0</v>
+      </c>
+      <c r="O289" s="18">
+        <v>1</v>
+      </c>
+      <c r="P289" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q289" s="18">
+        <v>1</v>
+      </c>
+      <c r="R289" s="18">
+        <v>0</v>
+      </c>
+      <c r="S289" s="18">
+        <v>0</v>
+      </c>
+      <c r="T289" s="18">
+        <v>0</v>
+      </c>
+      <c r="U289" s="18">
+        <v>0</v>
+      </c>
+      <c r="V289" s="18">
+        <v>1</v>
+      </c>
+      <c r="W289" s="38">
+        <v>10045206</v>
+      </c>
+      <c r="X289" s="17" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="290" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C290" s="38">
+        <v>4000207</v>
+      </c>
+      <c r="D290" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="E290" s="18">
+        <v>4</v>
+      </c>
+      <c r="F290" s="38">
+        <v>10045208</v>
+      </c>
+      <c r="G290" s="18">
+        <v>40</v>
+      </c>
+      <c r="H290" s="18">
+        <v>0</v>
+      </c>
+      <c r="I290" s="18">
+        <v>0</v>
+      </c>
+      <c r="J290" s="18">
+        <v>0</v>
+      </c>
+      <c r="K290" s="18">
+        <v>1</v>
+      </c>
+      <c r="L290" s="18">
+        <v>1</v>
+      </c>
+      <c r="M290" s="18">
+        <v>0</v>
+      </c>
+      <c r="N290" s="18">
+        <v>0</v>
+      </c>
+      <c r="O290" s="18">
+        <v>1</v>
+      </c>
+      <c r="P290" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q290" s="18">
+        <v>1</v>
+      </c>
+      <c r="R290" s="18">
+        <v>0</v>
+      </c>
+      <c r="S290" s="18">
+        <v>0</v>
+      </c>
+      <c r="T290" s="18">
+        <v>0</v>
+      </c>
+      <c r="U290" s="18">
+        <v>0</v>
+      </c>
+      <c r="V290" s="18">
+        <v>1</v>
+      </c>
+      <c r="W290" s="38">
+        <v>10045207</v>
+      </c>
+      <c r="X290" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="291" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C291" s="38">
+        <v>4000208</v>
+      </c>
+      <c r="D291" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="E291" s="18">
+        <v>4</v>
+      </c>
+      <c r="F291" s="38">
+        <v>10045209</v>
+      </c>
+      <c r="G291" s="18">
+        <v>50</v>
+      </c>
+      <c r="H291" s="18">
+        <v>0</v>
+      </c>
+      <c r="I291" s="18">
+        <v>0</v>
+      </c>
+      <c r="J291" s="18">
+        <v>0</v>
+      </c>
+      <c r="K291" s="18">
+        <v>1</v>
+      </c>
+      <c r="L291" s="18">
+        <v>1</v>
+      </c>
+      <c r="M291" s="18">
+        <v>0</v>
+      </c>
+      <c r="N291" s="18">
+        <v>0</v>
+      </c>
+      <c r="O291" s="18">
+        <v>1</v>
+      </c>
+      <c r="P291" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q291" s="18">
+        <v>1</v>
+      </c>
+      <c r="R291" s="18">
+        <v>0</v>
+      </c>
+      <c r="S291" s="18">
+        <v>0</v>
+      </c>
+      <c r="T291" s="18">
+        <v>0</v>
+      </c>
+      <c r="U291" s="18">
+        <v>0</v>
+      </c>
+      <c r="V291" s="18">
+        <v>1</v>
+      </c>
+      <c r="W291" s="38">
+        <v>10045208</v>
+      </c>
+      <c r="X291" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="292" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C292" s="38">
+        <v>4000209</v>
+      </c>
+      <c r="D292" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="E292" s="18">
+        <v>4</v>
+      </c>
+      <c r="F292" s="38">
+        <v>10045210</v>
+      </c>
+      <c r="G292" s="18">
+        <v>50</v>
+      </c>
+      <c r="H292" s="18">
+        <v>0</v>
+      </c>
+      <c r="I292" s="18">
+        <v>0</v>
+      </c>
+      <c r="J292" s="18">
+        <v>0</v>
+      </c>
+      <c r="K292" s="18">
+        <v>1</v>
+      </c>
+      <c r="L292" s="18">
+        <v>1</v>
+      </c>
+      <c r="M292" s="18">
+        <v>0</v>
+      </c>
+      <c r="N292" s="18">
+        <v>0</v>
+      </c>
+      <c r="O292" s="18">
+        <v>1</v>
+      </c>
+      <c r="P292" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q292" s="18">
+        <v>1</v>
+      </c>
+      <c r="R292" s="18">
+        <v>0</v>
+      </c>
+      <c r="S292" s="18">
+        <v>0</v>
+      </c>
+      <c r="T292" s="18">
+        <v>0</v>
+      </c>
+      <c r="U292" s="18">
+        <v>0</v>
+      </c>
+      <c r="V292" s="18">
+        <v>1</v>
+      </c>
+      <c r="W292" s="38">
+        <v>10045209</v>
+      </c>
+      <c r="X292" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="293" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C293" s="38">
+        <v>4000301</v>
+      </c>
+      <c r="D293" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="E293" s="18">
+        <v>4</v>
+      </c>
+      <c r="F293" s="38">
+        <v>10045302</v>
+      </c>
+      <c r="G293" s="18">
+        <v>1</v>
+      </c>
+      <c r="H293" s="18">
+        <v>0</v>
+      </c>
+      <c r="I293" s="18">
+        <v>0</v>
+      </c>
+      <c r="J293" s="18">
+        <v>0</v>
+      </c>
+      <c r="K293" s="18">
+        <v>1</v>
+      </c>
+      <c r="L293" s="18">
+        <v>1</v>
+      </c>
+      <c r="M293" s="18">
+        <v>0</v>
+      </c>
+      <c r="N293" s="18">
+        <v>0</v>
+      </c>
+      <c r="O293" s="18">
+        <v>1</v>
+      </c>
+      <c r="P293" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q293" s="18">
+        <v>1</v>
+      </c>
+      <c r="R293" s="18">
+        <v>0</v>
+      </c>
+      <c r="S293" s="18">
+        <v>0</v>
+      </c>
+      <c r="T293" s="18">
+        <v>0</v>
+      </c>
+      <c r="U293" s="18">
+        <v>0</v>
+      </c>
+      <c r="V293" s="18">
+        <v>1</v>
+      </c>
+      <c r="W293" s="38">
+        <v>10045301</v>
+      </c>
+      <c r="X293" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="294" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C294" s="38">
+        <v>4000302</v>
+      </c>
+      <c r="D294" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="E294" s="18">
+        <v>4</v>
+      </c>
+      <c r="F294" s="38">
+        <v>10045303</v>
+      </c>
+      <c r="G294" s="18">
+        <v>1</v>
+      </c>
+      <c r="H294" s="18">
+        <v>0</v>
+      </c>
+      <c r="I294" s="18">
+        <v>0</v>
+      </c>
+      <c r="J294" s="18">
+        <v>0</v>
+      </c>
+      <c r="K294" s="18">
+        <v>1</v>
+      </c>
+      <c r="L294" s="18">
+        <v>1</v>
+      </c>
+      <c r="M294" s="18">
+        <v>0</v>
+      </c>
+      <c r="N294" s="18">
+        <v>0</v>
+      </c>
+      <c r="O294" s="18">
+        <v>1</v>
+      </c>
+      <c r="P294" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q294" s="18">
+        <v>1</v>
+      </c>
+      <c r="R294" s="18">
+        <v>0</v>
+      </c>
+      <c r="S294" s="18">
+        <v>0</v>
+      </c>
+      <c r="T294" s="18">
+        <v>0</v>
+      </c>
+      <c r="U294" s="18">
+        <v>0</v>
+      </c>
+      <c r="V294" s="18">
+        <v>1</v>
+      </c>
+      <c r="W294" s="38">
+        <v>10045302</v>
+      </c>
+      <c r="X294" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="295" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C295" s="38">
+        <v>4000303</v>
+      </c>
+      <c r="D295" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="E295" s="18">
+        <v>4</v>
+      </c>
+      <c r="F295" s="38">
+        <v>10045304</v>
+      </c>
+      <c r="G295" s="18">
+        <v>10</v>
+      </c>
+      <c r="H295" s="18">
+        <v>0</v>
+      </c>
+      <c r="I295" s="18">
+        <v>0</v>
+      </c>
+      <c r="J295" s="18">
+        <v>0</v>
+      </c>
+      <c r="K295" s="18">
+        <v>1</v>
+      </c>
+      <c r="L295" s="18">
+        <v>1</v>
+      </c>
+      <c r="M295" s="18">
+        <v>0</v>
+      </c>
+      <c r="N295" s="18">
+        <v>0</v>
+      </c>
+      <c r="O295" s="18">
+        <v>1</v>
+      </c>
+      <c r="P295" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q295" s="18">
+        <v>1</v>
+      </c>
+      <c r="R295" s="18">
+        <v>0</v>
+      </c>
+      <c r="S295" s="18">
+        <v>0</v>
+      </c>
+      <c r="T295" s="18">
+        <v>0</v>
+      </c>
+      <c r="U295" s="18">
+        <v>0</v>
+      </c>
+      <c r="V295" s="18">
+        <v>1</v>
+      </c>
+      <c r="W295" s="38">
+        <v>10045303</v>
+      </c>
+      <c r="X295" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="296" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C296" s="38">
+        <v>4000304</v>
+      </c>
+      <c r="D296" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="E296" s="18">
+        <v>4</v>
+      </c>
+      <c r="F296" s="38">
+        <v>10045305</v>
+      </c>
+      <c r="G296" s="18">
+        <v>15</v>
+      </c>
+      <c r="H296" s="18">
+        <v>0</v>
+      </c>
+      <c r="I296" s="18">
+        <v>0</v>
+      </c>
+      <c r="J296" s="18">
+        <v>0</v>
+      </c>
+      <c r="K296" s="18">
+        <v>1</v>
+      </c>
+      <c r="L296" s="18">
+        <v>1</v>
+      </c>
+      <c r="M296" s="18">
+        <v>0</v>
+      </c>
+      <c r="N296" s="18">
+        <v>0</v>
+      </c>
+      <c r="O296" s="18">
+        <v>1</v>
+      </c>
+      <c r="P296" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q296" s="18">
+        <v>1</v>
+      </c>
+      <c r="R296" s="18">
+        <v>0</v>
+      </c>
+      <c r="S296" s="18">
+        <v>0</v>
+      </c>
+      <c r="T296" s="18">
+        <v>0</v>
+      </c>
+      <c r="U296" s="18">
+        <v>0</v>
+      </c>
+      <c r="V296" s="18">
+        <v>1</v>
+      </c>
+      <c r="W296" s="38">
+        <v>10045304</v>
+      </c>
+      <c r="X296" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="297" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C297" s="38">
+        <v>4000305</v>
+      </c>
+      <c r="D297" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="E297" s="18">
+        <v>4</v>
+      </c>
+      <c r="F297" s="38">
+        <v>10045306</v>
+      </c>
+      <c r="G297" s="18">
+        <v>20</v>
+      </c>
+      <c r="H297" s="18">
+        <v>0</v>
+      </c>
+      <c r="I297" s="18">
+        <v>0</v>
+      </c>
+      <c r="J297" s="18">
+        <v>0</v>
+      </c>
+      <c r="K297" s="18">
+        <v>1</v>
+      </c>
+      <c r="L297" s="18">
+        <v>1</v>
+      </c>
+      <c r="M297" s="18">
+        <v>0</v>
+      </c>
+      <c r="N297" s="18">
+        <v>0</v>
+      </c>
+      <c r="O297" s="18">
+        <v>1</v>
+      </c>
+      <c r="P297" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q297" s="18">
+        <v>1</v>
+      </c>
+      <c r="R297" s="18">
+        <v>0</v>
+      </c>
+      <c r="S297" s="18">
+        <v>0</v>
+      </c>
+      <c r="T297" s="18">
+        <v>0</v>
+      </c>
+      <c r="U297" s="18">
+        <v>0</v>
+      </c>
+      <c r="V297" s="18">
+        <v>1</v>
+      </c>
+      <c r="W297" s="38">
+        <v>10045305</v>
+      </c>
+      <c r="X297" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="298" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C298" s="38">
+        <v>4000306</v>
+      </c>
+      <c r="D298" s="38" t="s">
+        <v>532</v>
+      </c>
+      <c r="E298" s="18">
+        <v>4</v>
+      </c>
+      <c r="F298" s="38">
+        <v>10045307</v>
+      </c>
+      <c r="G298" s="18">
+        <v>30</v>
+      </c>
+      <c r="H298" s="18">
+        <v>0</v>
+      </c>
+      <c r="I298" s="18">
+        <v>0</v>
+      </c>
+      <c r="J298" s="18">
+        <v>0</v>
+      </c>
+      <c r="K298" s="18">
+        <v>1</v>
+      </c>
+      <c r="L298" s="18">
+        <v>1</v>
+      </c>
+      <c r="M298" s="18">
+        <v>0</v>
+      </c>
+      <c r="N298" s="18">
+        <v>0</v>
+      </c>
+      <c r="O298" s="18">
+        <v>1</v>
+      </c>
+      <c r="P298" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q298" s="18">
+        <v>1</v>
+      </c>
+      <c r="R298" s="18">
+        <v>0</v>
+      </c>
+      <c r="S298" s="18">
+        <v>0</v>
+      </c>
+      <c r="T298" s="18">
+        <v>0</v>
+      </c>
+      <c r="U298" s="18">
+        <v>0</v>
+      </c>
+      <c r="V298" s="18">
+        <v>1</v>
+      </c>
+      <c r="W298" s="38">
+        <v>10045306</v>
+      </c>
+      <c r="X298" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="299" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C299" s="38">
+        <v>4000307</v>
+      </c>
+      <c r="D299" s="38" t="s">
+        <v>533</v>
+      </c>
+      <c r="E299" s="18">
+        <v>4</v>
+      </c>
+      <c r="F299" s="38">
+        <v>10045308</v>
+      </c>
+      <c r="G299" s="18">
+        <v>40</v>
+      </c>
+      <c r="H299" s="18">
+        <v>0</v>
+      </c>
+      <c r="I299" s="18">
+        <v>0</v>
+      </c>
+      <c r="J299" s="18">
+        <v>0</v>
+      </c>
+      <c r="K299" s="18">
+        <v>1</v>
+      </c>
+      <c r="L299" s="18">
+        <v>1</v>
+      </c>
+      <c r="M299" s="18">
+        <v>0</v>
+      </c>
+      <c r="N299" s="18">
+        <v>0</v>
+      </c>
+      <c r="O299" s="18">
+        <v>1</v>
+      </c>
+      <c r="P299" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q299" s="18">
+        <v>1</v>
+      </c>
+      <c r="R299" s="18">
+        <v>0</v>
+      </c>
+      <c r="S299" s="18">
+        <v>0</v>
+      </c>
+      <c r="T299" s="18">
+        <v>0</v>
+      </c>
+      <c r="U299" s="18">
+        <v>0</v>
+      </c>
+      <c r="V299" s="18">
+        <v>1</v>
+      </c>
+      <c r="W299" s="38">
+        <v>10045307</v>
+      </c>
+      <c r="X299" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="300" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C300" s="38">
+        <v>4000308</v>
+      </c>
+      <c r="D300" s="38" t="s">
+        <v>534</v>
+      </c>
+      <c r="E300" s="18">
+        <v>4</v>
+      </c>
+      <c r="F300" s="38">
+        <v>10045309</v>
+      </c>
+      <c r="G300" s="18">
+        <v>50</v>
+      </c>
+      <c r="H300" s="18">
+        <v>0</v>
+      </c>
+      <c r="I300" s="18">
+        <v>0</v>
+      </c>
+      <c r="J300" s="18">
+        <v>0</v>
+      </c>
+      <c r="K300" s="18">
+        <v>1</v>
+      </c>
+      <c r="L300" s="18">
+        <v>1</v>
+      </c>
+      <c r="M300" s="18">
+        <v>0</v>
+      </c>
+      <c r="N300" s="18">
+        <v>0</v>
+      </c>
+      <c r="O300" s="18">
+        <v>1</v>
+      </c>
+      <c r="P300" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q300" s="18">
+        <v>1</v>
+      </c>
+      <c r="R300" s="18">
+        <v>0</v>
+      </c>
+      <c r="S300" s="18">
+        <v>0</v>
+      </c>
+      <c r="T300" s="18">
+        <v>0</v>
+      </c>
+      <c r="U300" s="18">
+        <v>0</v>
+      </c>
+      <c r="V300" s="18">
+        <v>1</v>
+      </c>
+      <c r="W300" s="38">
+        <v>10045308</v>
+      </c>
+      <c r="X300" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="301" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C301" s="38">
+        <v>4000309</v>
+      </c>
+      <c r="D301" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="E301" s="18">
+        <v>4</v>
+      </c>
+      <c r="F301" s="38">
+        <v>10045310</v>
+      </c>
+      <c r="G301" s="18">
+        <v>50</v>
+      </c>
+      <c r="H301" s="18">
+        <v>0</v>
+      </c>
+      <c r="I301" s="18">
+        <v>0</v>
+      </c>
+      <c r="J301" s="18">
+        <v>0</v>
+      </c>
+      <c r="K301" s="18">
+        <v>1</v>
+      </c>
+      <c r="L301" s="18">
+        <v>1</v>
+      </c>
+      <c r="M301" s="18">
+        <v>0</v>
+      </c>
+      <c r="N301" s="18">
+        <v>0</v>
+      </c>
+      <c r="O301" s="18">
+        <v>1</v>
+      </c>
+      <c r="P301" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q301" s="18">
+        <v>1</v>
+      </c>
+      <c r="R301" s="18">
+        <v>0</v>
+      </c>
+      <c r="S301" s="18">
+        <v>0</v>
+      </c>
+      <c r="T301" s="18">
+        <v>0</v>
+      </c>
+      <c r="U301" s="18">
+        <v>0</v>
+      </c>
+      <c r="V301" s="18">
+        <v>1</v>
+      </c>
+      <c r="W301" s="38">
+        <v>10045309</v>
+      </c>
+      <c r="X301" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="302" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C302" s="38">
+        <v>4000401</v>
+      </c>
+      <c r="D302" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="E302" s="18">
+        <v>4</v>
+      </c>
+      <c r="F302" s="38">
+        <v>10045402</v>
+      </c>
+      <c r="G302" s="18">
+        <v>1</v>
+      </c>
+      <c r="H302" s="18">
+        <v>0</v>
+      </c>
+      <c r="I302" s="18">
+        <v>0</v>
+      </c>
+      <c r="J302" s="18">
+        <v>0</v>
+      </c>
+      <c r="K302" s="18">
+        <v>1</v>
+      </c>
+      <c r="L302" s="18">
+        <v>1</v>
+      </c>
+      <c r="M302" s="18">
+        <v>0</v>
+      </c>
+      <c r="N302" s="18">
+        <v>0</v>
+      </c>
+      <c r="O302" s="18">
+        <v>1</v>
+      </c>
+      <c r="P302" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q302" s="18">
+        <v>1</v>
+      </c>
+      <c r="R302" s="18">
+        <v>0</v>
+      </c>
+      <c r="S302" s="18">
+        <v>0</v>
+      </c>
+      <c r="T302" s="18">
+        <v>0</v>
+      </c>
+      <c r="U302" s="18">
+        <v>0</v>
+      </c>
+      <c r="V302" s="18">
+        <v>1</v>
+      </c>
+      <c r="W302" s="38">
+        <v>10045401</v>
+      </c>
+      <c r="X302" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="303" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C303" s="38">
+        <v>4000402</v>
+      </c>
+      <c r="D303" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="E303" s="18">
+        <v>4</v>
+      </c>
+      <c r="F303" s="38">
+        <v>10045403</v>
+      </c>
+      <c r="G303" s="18">
+        <v>1</v>
+      </c>
+      <c r="H303" s="18">
+        <v>0</v>
+      </c>
+      <c r="I303" s="18">
+        <v>0</v>
+      </c>
+      <c r="J303" s="18">
+        <v>0</v>
+      </c>
+      <c r="K303" s="18">
+        <v>1</v>
+      </c>
+      <c r="L303" s="18">
+        <v>1</v>
+      </c>
+      <c r="M303" s="18">
+        <v>0</v>
+      </c>
+      <c r="N303" s="18">
+        <v>0</v>
+      </c>
+      <c r="O303" s="18">
+        <v>1</v>
+      </c>
+      <c r="P303" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q303" s="18">
+        <v>1</v>
+      </c>
+      <c r="R303" s="18">
+        <v>0</v>
+      </c>
+      <c r="S303" s="18">
+        <v>0</v>
+      </c>
+      <c r="T303" s="18">
+        <v>0</v>
+      </c>
+      <c r="U303" s="18">
+        <v>0</v>
+      </c>
+      <c r="V303" s="18">
+        <v>1</v>
+      </c>
+      <c r="W303" s="38">
+        <v>10045402</v>
+      </c>
+      <c r="X303" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="304" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C304" s="38">
+        <v>4000403</v>
+      </c>
+      <c r="D304" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="E304" s="18">
+        <v>4</v>
+      </c>
+      <c r="F304" s="38">
+        <v>10045404</v>
+      </c>
+      <c r="G304" s="18">
+        <v>10</v>
+      </c>
+      <c r="H304" s="18">
+        <v>0</v>
+      </c>
+      <c r="I304" s="18">
+        <v>0</v>
+      </c>
+      <c r="J304" s="18">
+        <v>0</v>
+      </c>
+      <c r="K304" s="18">
+        <v>1</v>
+      </c>
+      <c r="L304" s="18">
+        <v>1</v>
+      </c>
+      <c r="M304" s="18">
+        <v>0</v>
+      </c>
+      <c r="N304" s="18">
+        <v>0</v>
+      </c>
+      <c r="O304" s="18">
+        <v>1</v>
+      </c>
+      <c r="P304" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q304" s="18">
+        <v>1</v>
+      </c>
+      <c r="R304" s="18">
+        <v>0</v>
+      </c>
+      <c r="S304" s="18">
+        <v>0</v>
+      </c>
+      <c r="T304" s="18">
+        <v>0</v>
+      </c>
+      <c r="U304" s="18">
+        <v>0</v>
+      </c>
+      <c r="V304" s="18">
+        <v>1</v>
+      </c>
+      <c r="W304" s="38">
+        <v>10045403</v>
+      </c>
+      <c r="X304" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="305" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C305" s="38">
+        <v>4000404</v>
+      </c>
+      <c r="D305" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="E305" s="18">
+        <v>4</v>
+      </c>
+      <c r="F305" s="38">
+        <v>10045405</v>
+      </c>
+      <c r="G305" s="18">
+        <v>15</v>
+      </c>
+      <c r="H305" s="18">
+        <v>0</v>
+      </c>
+      <c r="I305" s="18">
+        <v>0</v>
+      </c>
+      <c r="J305" s="18">
+        <v>0</v>
+      </c>
+      <c r="K305" s="18">
+        <v>1</v>
+      </c>
+      <c r="L305" s="18">
+        <v>1</v>
+      </c>
+      <c r="M305" s="18">
+        <v>0</v>
+      </c>
+      <c r="N305" s="18">
+        <v>0</v>
+      </c>
+      <c r="O305" s="18">
+        <v>1</v>
+      </c>
+      <c r="P305" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q305" s="18">
+        <v>1</v>
+      </c>
+      <c r="R305" s="18">
+        <v>0</v>
+      </c>
+      <c r="S305" s="18">
+        <v>0</v>
+      </c>
+      <c r="T305" s="18">
+        <v>0</v>
+      </c>
+      <c r="U305" s="18">
+        <v>0</v>
+      </c>
+      <c r="V305" s="18">
+        <v>1</v>
+      </c>
+      <c r="W305" s="38">
+        <v>10045404</v>
+      </c>
+      <c r="X305" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="306" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C306" s="38">
+        <v>4000405</v>
+      </c>
+      <c r="D306" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="E306" s="18">
+        <v>4</v>
+      </c>
+      <c r="F306" s="38">
+        <v>10045406</v>
+      </c>
+      <c r="G306" s="18">
+        <v>20</v>
+      </c>
+      <c r="H306" s="18">
+        <v>0</v>
+      </c>
+      <c r="I306" s="18">
+        <v>0</v>
+      </c>
+      <c r="J306" s="18">
+        <v>0</v>
+      </c>
+      <c r="K306" s="18">
+        <v>1</v>
+      </c>
+      <c r="L306" s="18">
+        <v>1</v>
+      </c>
+      <c r="M306" s="18">
+        <v>0</v>
+      </c>
+      <c r="N306" s="18">
+        <v>0</v>
+      </c>
+      <c r="O306" s="18">
+        <v>1</v>
+      </c>
+      <c r="P306" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q306" s="18">
+        <v>1</v>
+      </c>
+      <c r="R306" s="18">
+        <v>0</v>
+      </c>
+      <c r="S306" s="18">
+        <v>0</v>
+      </c>
+      <c r="T306" s="18">
+        <v>0</v>
+      </c>
+      <c r="U306" s="18">
+        <v>0</v>
+      </c>
+      <c r="V306" s="18">
+        <v>1</v>
+      </c>
+      <c r="W306" s="38">
+        <v>10045405</v>
+      </c>
+      <c r="X306" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="307" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C307" s="38">
+        <v>4000406</v>
+      </c>
+      <c r="D307" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="E307" s="18">
+        <v>4</v>
+      </c>
+      <c r="F307" s="38">
+        <v>10045407</v>
+      </c>
+      <c r="G307" s="18">
+        <v>30</v>
+      </c>
+      <c r="H307" s="18">
+        <v>0</v>
+      </c>
+      <c r="I307" s="18">
+        <v>0</v>
+      </c>
+      <c r="J307" s="18">
+        <v>0</v>
+      </c>
+      <c r="K307" s="18">
+        <v>1</v>
+      </c>
+      <c r="L307" s="18">
+        <v>1</v>
+      </c>
+      <c r="M307" s="18">
+        <v>0</v>
+      </c>
+      <c r="N307" s="18">
+        <v>0</v>
+      </c>
+      <c r="O307" s="18">
+        <v>1</v>
+      </c>
+      <c r="P307" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q307" s="18">
+        <v>1</v>
+      </c>
+      <c r="R307" s="18">
+        <v>0</v>
+      </c>
+      <c r="S307" s="18">
+        <v>0</v>
+      </c>
+      <c r="T307" s="18">
+        <v>0</v>
+      </c>
+      <c r="U307" s="18">
+        <v>0</v>
+      </c>
+      <c r="V307" s="18">
+        <v>1</v>
+      </c>
+      <c r="W307" s="38">
+        <v>10045406</v>
+      </c>
+      <c r="X307" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="308" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C308" s="38">
+        <v>4000407</v>
+      </c>
+      <c r="D308" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="E308" s="18">
+        <v>4</v>
+      </c>
+      <c r="F308" s="38">
+        <v>10045408</v>
+      </c>
+      <c r="G308" s="18">
+        <v>40</v>
+      </c>
+      <c r="H308" s="18">
+        <v>0</v>
+      </c>
+      <c r="I308" s="18">
+        <v>0</v>
+      </c>
+      <c r="J308" s="18">
+        <v>0</v>
+      </c>
+      <c r="K308" s="18">
+        <v>1</v>
+      </c>
+      <c r="L308" s="18">
+        <v>1</v>
+      </c>
+      <c r="M308" s="18">
+        <v>0</v>
+      </c>
+      <c r="N308" s="18">
+        <v>0</v>
+      </c>
+      <c r="O308" s="18">
+        <v>1</v>
+      </c>
+      <c r="P308" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q308" s="18">
+        <v>1</v>
+      </c>
+      <c r="R308" s="18">
+        <v>0</v>
+      </c>
+      <c r="S308" s="18">
+        <v>0</v>
+      </c>
+      <c r="T308" s="18">
+        <v>0</v>
+      </c>
+      <c r="U308" s="18">
+        <v>0</v>
+      </c>
+      <c r="V308" s="18">
+        <v>1</v>
+      </c>
+      <c r="W308" s="38">
+        <v>10045407</v>
+      </c>
+      <c r="X308" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="309" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C309" s="38">
+        <v>4000408</v>
+      </c>
+      <c r="D309" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="E309" s="18">
+        <v>4</v>
+      </c>
+      <c r="F309" s="38">
+        <v>10045409</v>
+      </c>
+      <c r="G309" s="18">
+        <v>50</v>
+      </c>
+      <c r="H309" s="18">
+        <v>0</v>
+      </c>
+      <c r="I309" s="18">
+        <v>0</v>
+      </c>
+      <c r="J309" s="18">
+        <v>0</v>
+      </c>
+      <c r="K309" s="18">
+        <v>1</v>
+      </c>
+      <c r="L309" s="18">
+        <v>1</v>
+      </c>
+      <c r="M309" s="18">
+        <v>0</v>
+      </c>
+      <c r="N309" s="18">
+        <v>0</v>
+      </c>
+      <c r="O309" s="18">
+        <v>1</v>
+      </c>
+      <c r="P309" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q309" s="18">
+        <v>1</v>
+      </c>
+      <c r="R309" s="18">
+        <v>0</v>
+      </c>
+      <c r="S309" s="18">
+        <v>0</v>
+      </c>
+      <c r="T309" s="18">
+        <v>0</v>
+      </c>
+      <c r="U309" s="18">
+        <v>0</v>
+      </c>
+      <c r="V309" s="18">
+        <v>1</v>
+      </c>
+      <c r="W309" s="38">
+        <v>10045408</v>
+      </c>
+      <c r="X309" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="310" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C310" s="38">
+        <v>4000409</v>
+      </c>
+      <c r="D310" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="E310" s="18">
+        <v>4</v>
+      </c>
+      <c r="F310" s="38">
+        <v>10045410</v>
+      </c>
+      <c r="G310" s="18">
+        <v>50</v>
+      </c>
+      <c r="H310" s="18">
+        <v>0</v>
+      </c>
+      <c r="I310" s="18">
+        <v>0</v>
+      </c>
+      <c r="J310" s="18">
+        <v>0</v>
+      </c>
+      <c r="K310" s="18">
+        <v>1</v>
+      </c>
+      <c r="L310" s="18">
+        <v>1</v>
+      </c>
+      <c r="M310" s="18">
+        <v>0</v>
+      </c>
+      <c r="N310" s="18">
+        <v>0</v>
+      </c>
+      <c r="O310" s="18">
+        <v>1</v>
+      </c>
+      <c r="P310" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q310" s="18">
+        <v>1</v>
+      </c>
+      <c r="R310" s="18">
+        <v>0</v>
+      </c>
+      <c r="S310" s="18">
+        <v>0</v>
+      </c>
+      <c r="T310" s="18">
+        <v>0</v>
+      </c>
+      <c r="U310" s="18">
+        <v>0</v>
+      </c>
+      <c r="V310" s="18">
+        <v>1</v>
+      </c>
+      <c r="W310" s="38">
+        <v>10045409</v>
+      </c>
+      <c r="X310" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="311" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E311" s="2"/>
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
       <c r="I311" s="2"/>
     </row>
-    <row r="312" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E312" s="2"/>
       <c r="G312" s="2"/>
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
     </row>
-    <row r="313" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E313" s="2"/>
       <c r="G313" s="2"/>
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
     </row>
-    <row r="314" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E314" s="2"/>
       <c r="G314" s="2"/>
       <c r="H314" s="2"/>
       <c r="I314" s="2"/>
     </row>
-    <row r="315" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E315" s="2"/>
       <c r="G315" s="2"/>
       <c r="H315" s="2"/>
       <c r="I315" s="2"/>
     </row>
-    <row r="316" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E316" s="2"/>
       <c r="G316" s="2"/>
       <c r="H316" s="2"/>
       <c r="I316" s="2"/>
     </row>
-    <row r="317" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E317" s="2"/>
       <c r="G317" s="2"/>
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
     </row>
-    <row r="318" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="3:24" x14ac:dyDescent="0.3">
       <c r="E318" s="2"/>
       <c r="G318" s="2"/>
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
     </row>
-    <row r="319" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="3:24" x14ac:dyDescent="0.3">
       <c r="E319" s="2"/>
       <c r="G319" s="2"/>
       <c r="H319" s="2"/>
       <c r="I319" s="2"/>
     </row>
-    <row r="320" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="3:24" x14ac:dyDescent="0.3">
       <c r="E320" s="2"/>
       <c r="G320" s="2"/>
       <c r="H320" s="2"/>
@@ -25514,42 +28037,6 @@
       <c r="G1080" s="2"/>
       <c r="H1080" s="2"/>
       <c r="I1080" s="2"/>
-    </row>
-    <row r="1081" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E1081" s="2"/>
-      <c r="G1081" s="2"/>
-      <c r="H1081" s="2"/>
-      <c r="I1081" s="2"/>
-    </row>
-    <row r="1082" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E1082" s="2"/>
-      <c r="G1082" s="2"/>
-      <c r="H1082" s="2"/>
-      <c r="I1082" s="2"/>
-    </row>
-    <row r="1083" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E1083" s="2"/>
-      <c r="G1083" s="2"/>
-      <c r="H1083" s="2"/>
-      <c r="I1083" s="2"/>
-    </row>
-    <row r="1084" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E1084" s="2"/>
-      <c r="G1084" s="2"/>
-      <c r="H1084" s="2"/>
-      <c r="I1084" s="2"/>
-    </row>
-    <row r="1085" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E1085" s="2"/>
-      <c r="G1085" s="2"/>
-      <c r="H1085" s="2"/>
-      <c r="I1085" s="2"/>
-    </row>
-    <row r="1086" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E1086" s="2"/>
-      <c r="G1086" s="2"/>
-      <c r="H1086" s="2"/>
-      <c r="I1086" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC2DA17-3EE9-488F-995D-551274D72EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400F0044-F0D4-4267-9AF9-E146342D650A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipMakeProto" sheetId="1" r:id="rId1"/>
@@ -2943,9 +2943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F279" sqref="F279"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W305" sqref="W305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -21031,8 +21031,8 @@
       <c r="V275" s="18">
         <v>1</v>
       </c>
-      <c r="W275" s="38">
-        <v>10045101</v>
+      <c r="W275" s="20">
+        <v>10000</v>
       </c>
       <c r="X275" s="17" t="s">
         <v>545</v>
@@ -21099,8 +21099,8 @@
       <c r="V276" s="18">
         <v>1</v>
       </c>
-      <c r="W276" s="38">
-        <v>10045102</v>
+      <c r="W276" s="20">
+        <v>20000</v>
       </c>
       <c r="X276" s="17" t="s">
         <v>546</v>
@@ -21167,8 +21167,8 @@
       <c r="V277" s="18">
         <v>1</v>
       </c>
-      <c r="W277" s="38">
-        <v>10045103</v>
+      <c r="W277" s="20">
+        <v>30000</v>
       </c>
       <c r="X277" s="17" t="s">
         <v>547</v>
@@ -21235,8 +21235,8 @@
       <c r="V278" s="18">
         <v>1</v>
       </c>
-      <c r="W278" s="38">
-        <v>10045104</v>
+      <c r="W278" s="20">
+        <v>50000</v>
       </c>
       <c r="X278" s="17" t="s">
         <v>548</v>
@@ -21303,8 +21303,8 @@
       <c r="V279" s="18">
         <v>1</v>
       </c>
-      <c r="W279" s="38">
-        <v>10045105</v>
+      <c r="W279" s="20">
+        <v>75000</v>
       </c>
       <c r="X279" s="17" t="s">
         <v>549</v>
@@ -21371,8 +21371,8 @@
       <c r="V280" s="18">
         <v>1</v>
       </c>
-      <c r="W280" s="38">
-        <v>10045106</v>
+      <c r="W280" s="20">
+        <v>100000</v>
       </c>
       <c r="X280" s="17" t="s">
         <v>550</v>
@@ -21439,8 +21439,8 @@
       <c r="V281" s="18">
         <v>1</v>
       </c>
-      <c r="W281" s="38">
-        <v>10045107</v>
+      <c r="W281" s="20">
+        <v>125000</v>
       </c>
       <c r="X281" s="17" t="s">
         <v>551</v>
@@ -21507,8 +21507,8 @@
       <c r="V282" s="18">
         <v>1</v>
       </c>
-      <c r="W282" s="38">
-        <v>10045108</v>
+      <c r="W282" s="20">
+        <v>150000</v>
       </c>
       <c r="X282" s="17" t="s">
         <v>552</v>
@@ -21575,8 +21575,8 @@
       <c r="V283" s="18">
         <v>1</v>
       </c>
-      <c r="W283" s="38">
-        <v>10045109</v>
+      <c r="W283" s="20">
+        <v>200000</v>
       </c>
       <c r="X283" s="17" t="s">
         <v>553</v>
@@ -21643,8 +21643,8 @@
       <c r="V284" s="18">
         <v>1</v>
       </c>
-      <c r="W284" s="38">
-        <v>10045201</v>
+      <c r="W284" s="20">
+        <v>10000</v>
       </c>
       <c r="X284" s="17" t="s">
         <v>554</v>
@@ -21711,8 +21711,8 @@
       <c r="V285" s="18">
         <v>1</v>
       </c>
-      <c r="W285" s="38">
-        <v>10045202</v>
+      <c r="W285" s="20">
+        <v>20000</v>
       </c>
       <c r="X285" s="17" t="s">
         <v>555</v>
@@ -21779,8 +21779,8 @@
       <c r="V286" s="18">
         <v>1</v>
       </c>
-      <c r="W286" s="38">
-        <v>10045203</v>
+      <c r="W286" s="20">
+        <v>30000</v>
       </c>
       <c r="X286" s="17" t="s">
         <v>556</v>
@@ -21847,8 +21847,8 @@
       <c r="V287" s="18">
         <v>1</v>
       </c>
-      <c r="W287" s="38">
-        <v>10045204</v>
+      <c r="W287" s="20">
+        <v>50000</v>
       </c>
       <c r="X287" s="17" t="s">
         <v>557</v>
@@ -21915,8 +21915,8 @@
       <c r="V288" s="18">
         <v>1</v>
       </c>
-      <c r="W288" s="38">
-        <v>10045205</v>
+      <c r="W288" s="20">
+        <v>75000</v>
       </c>
       <c r="X288" s="17" t="s">
         <v>558</v>
@@ -21983,14 +21983,14 @@
       <c r="V289" s="18">
         <v>1</v>
       </c>
-      <c r="W289" s="38">
-        <v>10045206</v>
+      <c r="W289" s="20">
+        <v>100000</v>
       </c>
       <c r="X289" s="17" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="290" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C290" s="38">
         <v>4000207</v>
       </c>
@@ -22051,14 +22051,14 @@
       <c r="V290" s="18">
         <v>1</v>
       </c>
-      <c r="W290" s="38">
-        <v>10045207</v>
+      <c r="W290" s="20">
+        <v>125000</v>
       </c>
       <c r="X290" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="291" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C291" s="38">
         <v>4000208</v>
       </c>
@@ -22119,14 +22119,14 @@
       <c r="V291" s="18">
         <v>1</v>
       </c>
-      <c r="W291" s="38">
-        <v>10045208</v>
+      <c r="W291" s="20">
+        <v>150000</v>
       </c>
       <c r="X291" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="292" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C292" s="38">
         <v>4000209</v>
       </c>
@@ -22187,14 +22187,14 @@
       <c r="V292" s="18">
         <v>1</v>
       </c>
-      <c r="W292" s="38">
-        <v>10045209</v>
+      <c r="W292" s="20">
+        <v>200000</v>
       </c>
       <c r="X292" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="293" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C293" s="38">
         <v>4000301</v>
       </c>
@@ -22255,14 +22255,14 @@
       <c r="V293" s="18">
         <v>1</v>
       </c>
-      <c r="W293" s="38">
-        <v>10045301</v>
+      <c r="W293" s="20">
+        <v>10000</v>
       </c>
       <c r="X293" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="294" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C294" s="38">
         <v>4000302</v>
       </c>
@@ -22323,14 +22323,14 @@
       <c r="V294" s="18">
         <v>1</v>
       </c>
-      <c r="W294" s="38">
-        <v>10045302</v>
+      <c r="W294" s="20">
+        <v>20000</v>
       </c>
       <c r="X294" s="2" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="295" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C295" s="38">
         <v>4000303</v>
       </c>
@@ -22391,14 +22391,14 @@
       <c r="V295" s="18">
         <v>1</v>
       </c>
-      <c r="W295" s="38">
-        <v>10045303</v>
+      <c r="W295" s="20">
+        <v>30000</v>
       </c>
       <c r="X295" s="2" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="296" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C296" s="38">
         <v>4000304</v>
       </c>
@@ -22459,14 +22459,14 @@
       <c r="V296" s="18">
         <v>1</v>
       </c>
-      <c r="W296" s="38">
-        <v>10045304</v>
+      <c r="W296" s="20">
+        <v>50000</v>
       </c>
       <c r="X296" s="2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="297" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C297" s="38">
         <v>4000305</v>
       </c>
@@ -22527,14 +22527,14 @@
       <c r="V297" s="18">
         <v>1</v>
       </c>
-      <c r="W297" s="38">
-        <v>10045305</v>
+      <c r="W297" s="20">
+        <v>75000</v>
       </c>
       <c r="X297" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="298" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C298" s="38">
         <v>4000306</v>
       </c>
@@ -22595,14 +22595,14 @@
       <c r="V298" s="18">
         <v>1</v>
       </c>
-      <c r="W298" s="38">
-        <v>10045306</v>
+      <c r="W298" s="20">
+        <v>100000</v>
       </c>
       <c r="X298" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="299" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C299" s="38">
         <v>4000307</v>
       </c>
@@ -22663,14 +22663,14 @@
       <c r="V299" s="18">
         <v>1</v>
       </c>
-      <c r="W299" s="38">
-        <v>10045307</v>
+      <c r="W299" s="20">
+        <v>125000</v>
       </c>
       <c r="X299" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="300" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C300" s="38">
         <v>4000308</v>
       </c>
@@ -22731,14 +22731,14 @@
       <c r="V300" s="18">
         <v>1</v>
       </c>
-      <c r="W300" s="38">
-        <v>10045308</v>
+      <c r="W300" s="20">
+        <v>150000</v>
       </c>
       <c r="X300" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="301" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C301" s="38">
         <v>4000309</v>
       </c>
@@ -22799,14 +22799,14 @@
       <c r="V301" s="18">
         <v>1</v>
       </c>
-      <c r="W301" s="38">
-        <v>10045309</v>
+      <c r="W301" s="20">
+        <v>200000</v>
       </c>
       <c r="X301" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="302" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C302" s="38">
         <v>4000401</v>
       </c>
@@ -22867,14 +22867,14 @@
       <c r="V302" s="18">
         <v>1</v>
       </c>
-      <c r="W302" s="38">
-        <v>10045401</v>
+      <c r="W302" s="20">
+        <v>10000</v>
       </c>
       <c r="X302" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="303" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C303" s="38">
         <v>4000402</v>
       </c>
@@ -22935,14 +22935,14 @@
       <c r="V303" s="18">
         <v>1</v>
       </c>
-      <c r="W303" s="38">
-        <v>10045402</v>
+      <c r="W303" s="20">
+        <v>20000</v>
       </c>
       <c r="X303" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="304" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C304" s="38">
         <v>4000403</v>
       </c>
@@ -23003,14 +23003,14 @@
       <c r="V304" s="18">
         <v>1</v>
       </c>
-      <c r="W304" s="38">
-        <v>10045403</v>
+      <c r="W304" s="20">
+        <v>30000</v>
       </c>
       <c r="X304" s="2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="305" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C305" s="38">
         <v>4000404</v>
       </c>
@@ -23071,14 +23071,14 @@
       <c r="V305" s="18">
         <v>1</v>
       </c>
-      <c r="W305" s="38">
-        <v>10045404</v>
+      <c r="W305" s="20">
+        <v>50000</v>
       </c>
       <c r="X305" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="306" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C306" s="38">
         <v>4000405</v>
       </c>
@@ -23139,14 +23139,14 @@
       <c r="V306" s="18">
         <v>1</v>
       </c>
-      <c r="W306" s="38">
-        <v>10045405</v>
+      <c r="W306" s="20">
+        <v>75000</v>
       </c>
       <c r="X306" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="307" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C307" s="38">
         <v>4000406</v>
       </c>
@@ -23207,14 +23207,14 @@
       <c r="V307" s="18">
         <v>1</v>
       </c>
-      <c r="W307" s="38">
-        <v>10045406</v>
+      <c r="W307" s="20">
+        <v>100000</v>
       </c>
       <c r="X307" s="2" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="308" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C308" s="38">
         <v>4000407</v>
       </c>
@@ -23275,14 +23275,14 @@
       <c r="V308" s="18">
         <v>1</v>
       </c>
-      <c r="W308" s="38">
-        <v>10045407</v>
+      <c r="W308" s="20">
+        <v>125000</v>
       </c>
       <c r="X308" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="309" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C309" s="38">
         <v>4000408</v>
       </c>
@@ -23343,14 +23343,14 @@
       <c r="V309" s="18">
         <v>1</v>
       </c>
-      <c r="W309" s="38">
-        <v>10045408</v>
+      <c r="W309" s="20">
+        <v>150000</v>
       </c>
       <c r="X309" s="2" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="310" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C310" s="38">
         <v>4000409</v>
       </c>
@@ -23411,8 +23411,8 @@
       <c r="V310" s="18">
         <v>1</v>
       </c>
-      <c r="W310" s="38">
-        <v>10045409</v>
+      <c r="W310" s="20">
+        <v>200000</v>
       </c>
       <c r="X310" s="2" t="s">
         <v>580</v>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400F0044-F0D4-4267-9AF9-E146342D650A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CD9362-0815-43BC-BD7B-2CBFE31A2DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2943,9 +2943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W305" sqref="W305"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -16525,7 +16525,7 @@
         <v>2</v>
       </c>
       <c r="F208" s="9">
-        <v>15401002</v>
+        <v>15501002</v>
       </c>
       <c r="G208" s="18">
         <f>G174+10</f>
@@ -16592,7 +16592,7 @@
         <v>2</v>
       </c>
       <c r="F209" s="9">
-        <v>15401004</v>
+        <v>15501004</v>
       </c>
       <c r="G209" s="18">
         <f t="shared" ref="G209:G241" si="0">G175+10</f>
@@ -16659,7 +16659,7 @@
         <v>2</v>
       </c>
       <c r="F210" s="9">
-        <v>15401006</v>
+        <v>15501006</v>
       </c>
       <c r="G210" s="18">
         <f t="shared" si="0"/>
@@ -16726,7 +16726,7 @@
         <v>2</v>
       </c>
       <c r="F211" s="9">
-        <v>15402002</v>
+        <v>15502002</v>
       </c>
       <c r="G211" s="18">
         <f t="shared" si="0"/>
@@ -16793,7 +16793,7 @@
         <v>2</v>
       </c>
       <c r="F212" s="9">
-        <v>15402004</v>
+        <v>15502004</v>
       </c>
       <c r="G212" s="18">
         <f t="shared" si="0"/>
@@ -16860,7 +16860,7 @@
         <v>2</v>
       </c>
       <c r="F213" s="9">
-        <v>15402006</v>
+        <v>15502006</v>
       </c>
       <c r="G213" s="18">
         <f t="shared" si="0"/>
@@ -16927,7 +16927,7 @@
         <v>2</v>
       </c>
       <c r="F214" s="9">
-        <v>15403002</v>
+        <v>15503002</v>
       </c>
       <c r="G214" s="18">
         <f t="shared" si="0"/>
@@ -16994,7 +16994,7 @@
         <v>2</v>
       </c>
       <c r="F215" s="9">
-        <v>15403004</v>
+        <v>15503004</v>
       </c>
       <c r="G215" s="18">
         <f t="shared" si="0"/>
@@ -17061,7 +17061,7 @@
         <v>2</v>
       </c>
       <c r="F216" s="9">
-        <v>15403006</v>
+        <v>15503006</v>
       </c>
       <c r="G216" s="18">
         <f t="shared" si="0"/>
@@ -17128,7 +17128,7 @@
         <v>2</v>
       </c>
       <c r="F217" s="9">
-        <v>15404002</v>
+        <v>15504002</v>
       </c>
       <c r="G217" s="18">
         <f t="shared" si="0"/>
@@ -17195,7 +17195,7 @@
         <v>2</v>
       </c>
       <c r="F218" s="9">
-        <v>15404004</v>
+        <v>15504004</v>
       </c>
       <c r="G218" s="18">
         <f t="shared" si="0"/>
@@ -17262,7 +17262,7 @@
         <v>2</v>
       </c>
       <c r="F219" s="9">
-        <v>15404006</v>
+        <v>15504006</v>
       </c>
       <c r="G219" s="18">
         <f t="shared" si="0"/>
@@ -17329,7 +17329,7 @@
         <v>2</v>
       </c>
       <c r="F220" s="9">
-        <v>15405002</v>
+        <v>15505002</v>
       </c>
       <c r="G220" s="18">
         <f t="shared" si="0"/>
@@ -17396,7 +17396,7 @@
         <v>2</v>
       </c>
       <c r="F221" s="9">
-        <v>15405004</v>
+        <v>15505004</v>
       </c>
       <c r="G221" s="18">
         <f t="shared" si="0"/>
@@ -17463,7 +17463,7 @@
         <v>2</v>
       </c>
       <c r="F222" s="9">
-        <v>15405006</v>
+        <v>15505006</v>
       </c>
       <c r="G222" s="18">
         <f t="shared" si="0"/>
@@ -17530,7 +17530,7 @@
         <v>3</v>
       </c>
       <c r="F223" s="9">
-        <v>15406002</v>
+        <v>15506002</v>
       </c>
       <c r="G223" s="18">
         <f t="shared" si="0"/>
@@ -17597,7 +17597,7 @@
         <v>3</v>
       </c>
       <c r="F224" s="9">
-        <v>15407002</v>
+        <v>15507002</v>
       </c>
       <c r="G224" s="18">
         <f t="shared" si="0"/>
@@ -17664,7 +17664,7 @@
         <v>1</v>
       </c>
       <c r="F225" s="9">
-        <v>15408002</v>
+        <v>15508002</v>
       </c>
       <c r="G225" s="18">
         <f t="shared" si="0"/>
@@ -17731,7 +17731,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="9">
-        <v>15409002</v>
+        <v>15509002</v>
       </c>
       <c r="G226" s="18">
         <f t="shared" si="0"/>
@@ -17798,7 +17798,7 @@
         <v>1</v>
       </c>
       <c r="F227" s="9">
-        <v>15410002</v>
+        <v>15510002</v>
       </c>
       <c r="G227" s="18">
         <f t="shared" si="0"/>
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="9">
-        <v>15410004</v>
+        <v>15510004</v>
       </c>
       <c r="G228" s="18">
         <f t="shared" si="0"/>
@@ -17932,7 +17932,7 @@
         <v>2</v>
       </c>
       <c r="F229" s="9">
-        <v>15411002</v>
+        <v>15511002</v>
       </c>
       <c r="G229" s="18">
         <f t="shared" si="0"/>
@@ -17999,7 +17999,7 @@
         <v>2</v>
       </c>
       <c r="F230" s="9">
-        <v>15411004</v>
+        <v>15511004</v>
       </c>
       <c r="G230" s="18">
         <f t="shared" si="0"/>
@@ -18066,7 +18066,7 @@
         <v>2</v>
       </c>
       <c r="F231" s="9">
-        <v>15411006</v>
+        <v>15511006</v>
       </c>
       <c r="G231" s="18">
         <f t="shared" si="0"/>
@@ -18133,7 +18133,7 @@
         <v>1</v>
       </c>
       <c r="F232" s="8">
-        <v>15410102</v>
+        <v>15510102</v>
       </c>
       <c r="G232" s="18">
         <f t="shared" si="0"/>
@@ -18200,7 +18200,7 @@
         <v>1</v>
       </c>
       <c r="F233" s="8">
-        <v>15410104</v>
+        <v>15510104</v>
       </c>
       <c r="G233" s="18">
         <f t="shared" si="0"/>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CD9362-0815-43BC-BD7B-2CBFE31A2DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA300EB-EAF7-4797-B8C7-7299F5FF1232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1361,9 +1361,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>初级治愈药水</t>
-  </si>
-  <si>
     <t>初级攻击药水</t>
   </si>
   <si>
@@ -2263,6 +2260,10 @@
   </si>
   <si>
     <t>10045409;2</t>
+  </si>
+  <si>
+    <t>初级治愈药水</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2943,9 +2944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F232" sqref="F232"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F273" sqref="F273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3014,7 +3015,7 @@
         <v>9</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>10</v>
@@ -3080,7 +3081,7 @@
         <v>25</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>37</v>
@@ -3167,7 +3168,7 @@
         <v>35</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>36</v>
@@ -3233,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U6" s="13">
         <v>1</v>
@@ -3299,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U7" s="13">
         <v>1</v>
@@ -3365,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U8" s="13">
         <v>1</v>
@@ -3431,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U9" s="13">
         <v>1</v>
@@ -3497,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U10" s="13">
         <v>1</v>
@@ -3563,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U11" s="13">
         <v>1</v>
@@ -3629,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U12" s="13">
         <v>1</v>
@@ -3695,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U13" s="13">
         <v>1</v>
@@ -3761,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U14" s="13">
         <v>1</v>
@@ -3827,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U15" s="13">
         <v>1</v>
@@ -3893,7 +3894,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U16" s="13">
         <v>1</v>
@@ -3959,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U17" s="13">
         <v>1</v>
@@ -4025,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="T18" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U18" s="13">
         <v>1</v>
@@ -4091,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="T19" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U19" s="13">
         <v>1</v>
@@ -4157,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U20" s="13">
         <v>1</v>
@@ -4223,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U21" s="13">
         <v>1</v>
@@ -4289,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="T22" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U22" s="13">
         <v>1</v>
@@ -4355,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U23" s="13">
         <v>1</v>
@@ -4421,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="T24" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U24" s="13">
         <v>1</v>
@@ -4487,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="T25" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U25" s="13">
         <v>1</v>
@@ -4553,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="T26" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U26" s="13">
         <v>1</v>
@@ -4619,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="T27" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U27" s="13">
         <v>1</v>
@@ -4685,7 +4686,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U28" s="13">
         <v>1</v>
@@ -4751,7 +4752,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U29" s="13">
         <v>1</v>
@@ -4817,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U30" s="13">
         <v>1</v>
@@ -4883,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U31" s="13">
         <v>1</v>
@@ -4949,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="T32" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U32" s="13">
         <v>1</v>
@@ -5015,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="T33" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U33" s="13">
         <v>1</v>
@@ -5081,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="T34" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U34" s="13">
         <v>1</v>
@@ -5147,7 +5148,7 @@
         <v>1</v>
       </c>
       <c r="T35" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U35" s="13">
         <v>1</v>
@@ -5213,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U36" s="13">
         <v>1</v>
@@ -5279,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="T37" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U37" s="13">
         <v>1</v>
@@ -5345,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="T38" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U38" s="13">
         <v>1</v>
@@ -5411,7 +5412,7 @@
         <v>1</v>
       </c>
       <c r="T39" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U39" s="13">
         <v>1</v>
@@ -5477,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="T40" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U40" s="13">
         <v>1</v>
@@ -5543,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="T41" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U41" s="13">
         <v>1</v>
@@ -5609,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="T42" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U42" s="13">
         <v>1</v>
@@ -5675,7 +5676,7 @@
         <v>1</v>
       </c>
       <c r="T43" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U43" s="13">
         <v>1</v>
@@ -5741,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="T44" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U44" s="13">
         <v>1</v>
@@ -5807,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="T45" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U45" s="13">
         <v>1</v>
@@ -5873,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="T46" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U46" s="13">
         <v>1</v>
@@ -5939,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="T47" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U47" s="13">
         <v>1</v>
@@ -6005,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="T48" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U48" s="13">
         <v>1</v>
@@ -6071,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="T49" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U49" s="13">
         <v>1</v>
@@ -6137,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="T50" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U50" s="13">
         <v>1</v>
@@ -6203,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="T51" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U51" s="13">
         <v>1</v>
@@ -6269,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="T52" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U52" s="13">
         <v>1</v>
@@ -6335,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="T53" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U53" s="13">
         <v>1</v>
@@ -6401,7 +6402,7 @@
         <v>1</v>
       </c>
       <c r="T54" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U54" s="13">
         <v>1</v>
@@ -6467,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="T55" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U55" s="13">
         <v>1</v>
@@ -6533,7 +6534,7 @@
         <v>1</v>
       </c>
       <c r="T56" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U56" s="13">
         <v>1</v>
@@ -6599,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="T57" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U57" s="13">
         <v>1</v>
@@ -6665,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="T58" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U58" s="13">
         <v>1</v>
@@ -6731,7 +6732,7 @@
         <v>1</v>
       </c>
       <c r="T59" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U59" s="13">
         <v>1</v>
@@ -6797,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="T60" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U60" s="13">
         <v>1</v>
@@ -6863,7 +6864,7 @@
         <v>1</v>
       </c>
       <c r="T61" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U61" s="13">
         <v>1</v>
@@ -6929,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="T62" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U62" s="13">
         <v>1</v>
@@ -6995,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="T63" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U63" s="13">
         <v>1</v>
@@ -7061,7 +7062,7 @@
         <v>1</v>
       </c>
       <c r="T64" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U64" s="13">
         <v>1</v>
@@ -7127,7 +7128,7 @@
         <v>1</v>
       </c>
       <c r="T65" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U65" s="13">
         <v>1</v>
@@ -7193,7 +7194,7 @@
         <v>1</v>
       </c>
       <c r="T66" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U66" s="13">
         <v>1</v>
@@ -7259,7 +7260,7 @@
         <v>1</v>
       </c>
       <c r="T67" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U67" s="13">
         <v>1</v>
@@ -7325,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="T68" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U68" s="13">
         <v>1</v>
@@ -7391,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="T69" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U69" s="13">
         <v>1</v>
@@ -7457,7 +7458,7 @@
         <v>1</v>
       </c>
       <c r="T70" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U70" s="13">
         <v>1</v>
@@ -7523,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="T71" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U71" s="13">
         <v>1</v>
@@ -7589,7 +7590,7 @@
         <v>200</v>
       </c>
       <c r="T72" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U72" s="20">
         <v>1</v>
@@ -7601,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="X72" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7655,7 +7656,7 @@
         <v>200</v>
       </c>
       <c r="T73" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U73" s="20">
         <v>1</v>
@@ -7667,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="X73" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7721,7 +7722,7 @@
         <v>200</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U74" s="20">
         <v>1</v>
@@ -7733,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="X74" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7787,7 +7788,7 @@
         <v>200</v>
       </c>
       <c r="T75" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U75" s="20">
         <v>1</v>
@@ -7799,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="X75" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="76" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7853,7 +7854,7 @@
         <v>200</v>
       </c>
       <c r="T76" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U76" s="20">
         <v>1</v>
@@ -7865,7 +7866,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="77" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7919,7 +7920,7 @@
         <v>200</v>
       </c>
       <c r="T77" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U77" s="20">
         <v>1</v>
@@ -7931,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="X77" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7985,7 +7986,7 @@
         <v>200</v>
       </c>
       <c r="T78" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U78" s="20">
         <v>1</v>
@@ -7997,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="X78" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8051,7 +8052,7 @@
         <v>200</v>
       </c>
       <c r="T79" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U79" s="20">
         <v>1</v>
@@ -8063,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="X79" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8117,7 +8118,7 @@
         <v>200</v>
       </c>
       <c r="T80" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U80" s="20">
         <v>1</v>
@@ -8129,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="X80" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="81" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8183,7 +8184,7 @@
         <v>200</v>
       </c>
       <c r="T81" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U81" s="20">
         <v>1</v>
@@ -8195,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="X81" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="82" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8249,7 +8250,7 @@
         <v>200</v>
       </c>
       <c r="T82" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U82" s="20">
         <v>1</v>
@@ -8261,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="X82" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8315,7 +8316,7 @@
         <v>200</v>
       </c>
       <c r="T83" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U83" s="20">
         <v>1</v>
@@ -8327,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="X83" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8381,7 +8382,7 @@
         <v>200</v>
       </c>
       <c r="T84" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U84" s="20">
         <v>1</v>
@@ -8393,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="X84" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8447,7 +8448,7 @@
         <v>200</v>
       </c>
       <c r="T85" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U85" s="20">
         <v>1</v>
@@ -8459,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="X85" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="86" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8513,7 +8514,7 @@
         <v>200</v>
       </c>
       <c r="T86" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U86" s="20">
         <v>1</v>
@@ -8525,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="X86" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8579,7 +8580,7 @@
         <v>200</v>
       </c>
       <c r="T87" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U87" s="20">
         <v>1</v>
@@ -8591,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="X87" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8645,7 +8646,7 @@
         <v>200</v>
       </c>
       <c r="T88" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U88" s="20">
         <v>1</v>
@@ -8657,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="X88" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="89" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8711,7 +8712,7 @@
         <v>200</v>
       </c>
       <c r="T89" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U89" s="20">
         <v>1</v>
@@ -8723,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="X89" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="90" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8777,7 +8778,7 @@
         <v>200</v>
       </c>
       <c r="T90" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U90" s="20">
         <v>1</v>
@@ -8789,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="X90" s="22" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="91" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8843,7 +8844,7 @@
         <v>200</v>
       </c>
       <c r="T91" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U91" s="20">
         <v>1</v>
@@ -8855,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="X91" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8909,7 +8910,7 @@
         <v>200</v>
       </c>
       <c r="T92" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U92" s="20">
         <v>1</v>
@@ -8921,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="X92" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="93" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8975,7 +8976,7 @@
         <v>200</v>
       </c>
       <c r="T93" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U93" s="20">
         <v>1</v>
@@ -8987,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="X93" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="94" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9041,7 +9042,7 @@
         <v>200</v>
       </c>
       <c r="T94" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U94" s="20">
         <v>1</v>
@@ -9053,7 +9054,7 @@
         <v>0</v>
       </c>
       <c r="X94" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9107,7 +9108,7 @@
         <v>200</v>
       </c>
       <c r="T95" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U95" s="20">
         <v>1</v>
@@ -9119,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="X95" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="96" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9173,7 +9174,7 @@
         <v>200</v>
       </c>
       <c r="T96" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U96" s="20">
         <v>1</v>
@@ -9185,7 +9186,7 @@
         <v>0</v>
       </c>
       <c r="X96" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9239,7 +9240,7 @@
         <v>200</v>
       </c>
       <c r="T97" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U97" s="20">
         <v>1</v>
@@ -9251,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="X97" s="22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="98" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9259,7 +9260,7 @@
         <v>100151</v>
       </c>
       <c r="D98" s="37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E98" s="30">
         <v>3</v>
@@ -9305,7 +9306,7 @@
         <v>200</v>
       </c>
       <c r="T98" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U98" s="32">
         <v>1</v>
@@ -9317,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="X98" s="34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="99" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9325,7 +9326,7 @@
         <v>100152</v>
       </c>
       <c r="D99" s="37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E99" s="30">
         <v>1</v>
@@ -9371,7 +9372,7 @@
         <v>200</v>
       </c>
       <c r="T99" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U99" s="32">
         <v>1</v>
@@ -9383,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="X99" s="34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="100" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9391,7 +9392,7 @@
         <v>100153</v>
       </c>
       <c r="D100" s="37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E100" s="30">
         <v>1</v>
@@ -9437,7 +9438,7 @@
         <v>200</v>
       </c>
       <c r="T100" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U100" s="32">
         <v>1</v>
@@ -9449,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="X100" s="34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="101" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9457,7 +9458,7 @@
         <v>100154</v>
       </c>
       <c r="D101" s="37" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E101" s="30">
         <v>1</v>
@@ -9503,7 +9504,7 @@
         <v>200</v>
       </c>
       <c r="T101" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U101" s="32">
         <v>1</v>
@@ -9515,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="X101" s="34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="102" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9523,7 +9524,7 @@
         <v>100155</v>
       </c>
       <c r="D102" s="37" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E102" s="30">
         <v>1</v>
@@ -9569,7 +9570,7 @@
         <v>200</v>
       </c>
       <c r="T102" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U102" s="32">
         <v>1</v>
@@ -9581,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="X102" s="34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="103" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9589,7 +9590,7 @@
         <v>100156</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E103" s="30">
         <v>2</v>
@@ -9635,7 +9636,7 @@
         <v>200</v>
       </c>
       <c r="T103" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U103" s="32">
         <v>1</v>
@@ -9647,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="X103" s="34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="104" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9655,7 +9656,7 @@
         <v>100157</v>
       </c>
       <c r="D104" s="37" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E104" s="30">
         <v>2</v>
@@ -9701,7 +9702,7 @@
         <v>200</v>
       </c>
       <c r="T104" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U104" s="32">
         <v>1</v>
@@ -9713,7 +9714,7 @@
         <v>0</v>
       </c>
       <c r="X104" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="105" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9721,7 +9722,7 @@
         <v>100158</v>
       </c>
       <c r="D105" s="37" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E105" s="30">
         <v>2</v>
@@ -9767,7 +9768,7 @@
         <v>200</v>
       </c>
       <c r="T105" s="33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U105" s="32">
         <v>1</v>
@@ -9779,7 +9780,7 @@
         <v>0</v>
       </c>
       <c r="X105" s="34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="106" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9833,7 +9834,7 @@
         <v>200</v>
       </c>
       <c r="T106" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U106" s="20">
         <v>1</v>
@@ -9845,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="X106" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="107" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9899,7 +9900,7 @@
         <v>200</v>
       </c>
       <c r="T107" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U107" s="20">
         <v>1</v>
@@ -9911,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="X107" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="108" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9965,7 +9966,7 @@
         <v>200</v>
       </c>
       <c r="T108" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U108" s="20">
         <v>1</v>
@@ -9977,7 +9978,7 @@
         <v>0</v>
       </c>
       <c r="X108" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10031,7 +10032,7 @@
         <v>200</v>
       </c>
       <c r="T109" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U109" s="20">
         <v>1</v>
@@ -10043,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="X109" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="110" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10097,7 +10098,7 @@
         <v>200</v>
       </c>
       <c r="T110" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U110" s="20">
         <v>1</v>
@@ -10109,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="X110" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="111" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10163,7 +10164,7 @@
         <v>200</v>
       </c>
       <c r="T111" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U111" s="20">
         <v>1</v>
@@ -10175,7 +10176,7 @@
         <v>0</v>
       </c>
       <c r="X111" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10229,7 +10230,7 @@
         <v>200</v>
       </c>
       <c r="T112" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U112" s="20">
         <v>1</v>
@@ -10241,7 +10242,7 @@
         <v>0</v>
       </c>
       <c r="X112" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10295,7 +10296,7 @@
         <v>200</v>
       </c>
       <c r="T113" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U113" s="20">
         <v>1</v>
@@ -10307,7 +10308,7 @@
         <v>0</v>
       </c>
       <c r="X113" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="114" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10361,7 +10362,7 @@
         <v>200</v>
       </c>
       <c r="T114" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U114" s="20">
         <v>1</v>
@@ -10373,7 +10374,7 @@
         <v>0</v>
       </c>
       <c r="X114" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="115" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10427,7 +10428,7 @@
         <v>200</v>
       </c>
       <c r="T115" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U115" s="20">
         <v>1</v>
@@ -10439,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="X115" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10493,7 +10494,7 @@
         <v>200</v>
       </c>
       <c r="T116" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U116" s="20">
         <v>1</v>
@@ -10505,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="X116" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="117" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10559,7 +10560,7 @@
         <v>200</v>
       </c>
       <c r="T117" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U117" s="20">
         <v>1</v>
@@ -10571,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="X117" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="118" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10625,7 +10626,7 @@
         <v>200</v>
       </c>
       <c r="T118" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U118" s="20">
         <v>1</v>
@@ -10637,7 +10638,7 @@
         <v>0</v>
       </c>
       <c r="X118" s="23" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="119" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10691,7 +10692,7 @@
         <v>200</v>
       </c>
       <c r="T119" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U119" s="20">
         <v>1</v>
@@ -10703,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="X119" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="120" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10757,7 +10758,7 @@
         <v>200</v>
       </c>
       <c r="T120" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U120" s="20">
         <v>1</v>
@@ -10769,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="X120" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10823,7 +10824,7 @@
         <v>200</v>
       </c>
       <c r="T121" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U121" s="20">
         <v>1</v>
@@ -10835,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="X121" s="23" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="122" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10889,7 +10890,7 @@
         <v>200</v>
       </c>
       <c r="T122" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U122" s="20">
         <v>1</v>
@@ -10901,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="X122" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="123" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10955,7 +10956,7 @@
         <v>200</v>
       </c>
       <c r="T123" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U123" s="20">
         <v>1</v>
@@ -10967,7 +10968,7 @@
         <v>0</v>
       </c>
       <c r="X123" s="23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11021,7 +11022,7 @@
         <v>200</v>
       </c>
       <c r="T124" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U124" s="20">
         <v>1</v>
@@ -11033,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="X124" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="125" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11087,7 +11088,7 @@
         <v>200</v>
       </c>
       <c r="T125" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U125" s="20">
         <v>1</v>
@@ -11099,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="X125" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="126" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11153,7 +11154,7 @@
         <v>200</v>
       </c>
       <c r="T126" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U126" s="20">
         <v>1</v>
@@ -11165,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="X126" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="127" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11219,7 +11220,7 @@
         <v>200</v>
       </c>
       <c r="T127" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U127" s="20">
         <v>1</v>
@@ -11231,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="X127" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="128" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11285,7 +11286,7 @@
         <v>200</v>
       </c>
       <c r="T128" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U128" s="20">
         <v>1</v>
@@ -11297,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="X128" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="129" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11351,7 +11352,7 @@
         <v>200</v>
       </c>
       <c r="T129" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U129" s="20">
         <v>1</v>
@@ -11363,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="X129" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="130" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11417,7 +11418,7 @@
         <v>200</v>
       </c>
       <c r="T130" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U130" s="20">
         <v>1</v>
@@ -11429,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="X130" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="131" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11483,7 +11484,7 @@
         <v>200</v>
       </c>
       <c r="T131" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U131" s="20">
         <v>1</v>
@@ -11495,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="X131" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="132" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11503,7 +11504,7 @@
         <v>100251</v>
       </c>
       <c r="D132" s="37" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E132" s="30">
         <v>3</v>
@@ -11549,7 +11550,7 @@
         <v>200</v>
       </c>
       <c r="T132" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U132" s="20">
         <v>1</v>
@@ -11561,7 +11562,7 @@
         <v>0</v>
       </c>
       <c r="X132" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="133" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11569,7 +11570,7 @@
         <v>100252</v>
       </c>
       <c r="D133" s="37" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E133" s="30">
         <v>1</v>
@@ -11615,7 +11616,7 @@
         <v>200</v>
       </c>
       <c r="T133" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U133" s="20">
         <v>1</v>
@@ -11627,7 +11628,7 @@
         <v>0</v>
       </c>
       <c r="X133" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="134" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11635,7 +11636,7 @@
         <v>100253</v>
       </c>
       <c r="D134" s="37" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E134" s="30">
         <v>1</v>
@@ -11681,7 +11682,7 @@
         <v>200</v>
       </c>
       <c r="T134" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U134" s="20">
         <v>1</v>
@@ -11693,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="X134" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="135" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11701,7 +11702,7 @@
         <v>100254</v>
       </c>
       <c r="D135" s="37" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E135" s="30">
         <v>1</v>
@@ -11747,7 +11748,7 @@
         <v>200</v>
       </c>
       <c r="T135" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U135" s="20">
         <v>1</v>
@@ -11759,7 +11760,7 @@
         <v>0</v>
       </c>
       <c r="X135" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="136" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11767,7 +11768,7 @@
         <v>100255</v>
       </c>
       <c r="D136" s="37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E136" s="30">
         <v>1</v>
@@ -11813,7 +11814,7 @@
         <v>200</v>
       </c>
       <c r="T136" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U136" s="20">
         <v>1</v>
@@ -11825,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="X136" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="137" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11833,7 +11834,7 @@
         <v>100256</v>
       </c>
       <c r="D137" s="37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E137" s="30">
         <v>2</v>
@@ -11879,7 +11880,7 @@
         <v>200</v>
       </c>
       <c r="T137" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U137" s="20">
         <v>1</v>
@@ -11891,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="X137" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="138" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11899,7 +11900,7 @@
         <v>100257</v>
       </c>
       <c r="D138" s="37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E138" s="30">
         <v>2</v>
@@ -11945,7 +11946,7 @@
         <v>200</v>
       </c>
       <c r="T138" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U138" s="20">
         <v>1</v>
@@ -11957,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="X138" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="139" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11965,7 +11966,7 @@
         <v>100258</v>
       </c>
       <c r="D139" s="37" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E139" s="30">
         <v>2</v>
@@ -12011,7 +12012,7 @@
         <v>200</v>
       </c>
       <c r="T139" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U139" s="20">
         <v>1</v>
@@ -12023,7 +12024,7 @@
         <v>0</v>
       </c>
       <c r="X139" s="34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="140" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12077,7 +12078,7 @@
         <v>300</v>
       </c>
       <c r="T140" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U140" s="20">
         <v>1</v>
@@ -12089,7 +12090,7 @@
         <v>0</v>
       </c>
       <c r="X140" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="141" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12143,7 +12144,7 @@
         <v>300</v>
       </c>
       <c r="T141" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U141" s="20">
         <v>1</v>
@@ -12155,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="X141" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="142" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12209,7 +12210,7 @@
         <v>300</v>
       </c>
       <c r="T142" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U142" s="20">
         <v>1</v>
@@ -12221,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="X142" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="143" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12275,7 +12276,7 @@
         <v>300</v>
       </c>
       <c r="T143" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U143" s="20">
         <v>1</v>
@@ -12287,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="X143" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="144" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12341,7 +12342,7 @@
         <v>300</v>
       </c>
       <c r="T144" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U144" s="20">
         <v>1</v>
@@ -12353,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="X144" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="145" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12407,7 +12408,7 @@
         <v>300</v>
       </c>
       <c r="T145" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U145" s="20">
         <v>1</v>
@@ -12419,7 +12420,7 @@
         <v>0</v>
       </c>
       <c r="X145" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="146" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12473,7 +12474,7 @@
         <v>300</v>
       </c>
       <c r="T146" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U146" s="20">
         <v>1</v>
@@ -12485,7 +12486,7 @@
         <v>0</v>
       </c>
       <c r="X146" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="147" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12539,7 +12540,7 @@
         <v>300</v>
       </c>
       <c r="T147" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U147" s="20">
         <v>1</v>
@@ -12551,7 +12552,7 @@
         <v>0</v>
       </c>
       <c r="X147" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="148" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12605,7 +12606,7 @@
         <v>300</v>
       </c>
       <c r="T148" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U148" s="20">
         <v>1</v>
@@ -12617,7 +12618,7 @@
         <v>0</v>
       </c>
       <c r="X148" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="149" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12671,7 +12672,7 @@
         <v>300</v>
       </c>
       <c r="T149" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U149" s="20">
         <v>1</v>
@@ -12683,7 +12684,7 @@
         <v>0</v>
       </c>
       <c r="X149" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="150" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12737,7 +12738,7 @@
         <v>300</v>
       </c>
       <c r="T150" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U150" s="20">
         <v>1</v>
@@ -12749,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="X150" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="151" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12803,7 +12804,7 @@
         <v>300</v>
       </c>
       <c r="T151" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U151" s="20">
         <v>1</v>
@@ -12815,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="X151" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="152" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12869,7 +12870,7 @@
         <v>300</v>
       </c>
       <c r="T152" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U152" s="20">
         <v>1</v>
@@ -12881,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="X152" s="23" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="153" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12935,7 +12936,7 @@
         <v>300</v>
       </c>
       <c r="T153" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U153" s="20">
         <v>1</v>
@@ -12947,7 +12948,7 @@
         <v>0</v>
       </c>
       <c r="X153" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="154" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13001,7 +13002,7 @@
         <v>300</v>
       </c>
       <c r="T154" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U154" s="20">
         <v>1</v>
@@ -13013,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="X154" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="155" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13067,7 +13068,7 @@
         <v>300</v>
       </c>
       <c r="T155" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U155" s="20">
         <v>1</v>
@@ -13079,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="X155" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="156" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13133,7 +13134,7 @@
         <v>300</v>
       </c>
       <c r="T156" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U156" s="20">
         <v>1</v>
@@ -13145,7 +13146,7 @@
         <v>0</v>
       </c>
       <c r="X156" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="157" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13199,7 +13200,7 @@
         <v>300</v>
       </c>
       <c r="T157" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U157" s="20">
         <v>1</v>
@@ -13211,7 +13212,7 @@
         <v>0</v>
       </c>
       <c r="X157" s="23" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="158" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13265,7 +13266,7 @@
         <v>300</v>
       </c>
       <c r="T158" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U158" s="20">
         <v>1</v>
@@ -13277,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="X158" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="159" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13331,7 +13332,7 @@
         <v>300</v>
       </c>
       <c r="T159" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U159" s="20">
         <v>1</v>
@@ -13343,7 +13344,7 @@
         <v>0</v>
       </c>
       <c r="X159" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="160" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13397,7 +13398,7 @@
         <v>300</v>
       </c>
       <c r="T160" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U160" s="20">
         <v>1</v>
@@ -13409,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="X160" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="161" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13463,7 +13464,7 @@
         <v>300</v>
       </c>
       <c r="T161" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U161" s="20">
         <v>1</v>
@@ -13475,7 +13476,7 @@
         <v>0</v>
       </c>
       <c r="X161" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="162" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13529,7 +13530,7 @@
         <v>300</v>
       </c>
       <c r="T162" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U162" s="20">
         <v>1</v>
@@ -13541,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="X162" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="163" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13595,7 +13596,7 @@
         <v>300</v>
       </c>
       <c r="T163" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U163" s="20">
         <v>1</v>
@@ -13607,7 +13608,7 @@
         <v>0</v>
       </c>
       <c r="X163" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="164" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13661,7 +13662,7 @@
         <v>300</v>
       </c>
       <c r="T164" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U164" s="20">
         <v>1</v>
@@ -13673,7 +13674,7 @@
         <v>0</v>
       </c>
       <c r="X164" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="165" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13727,7 +13728,7 @@
         <v>300</v>
       </c>
       <c r="T165" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U165" s="20">
         <v>1</v>
@@ -13739,7 +13740,7 @@
         <v>0</v>
       </c>
       <c r="X165" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="166" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13747,7 +13748,7 @@
         <v>100351</v>
       </c>
       <c r="D166" s="37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E166" s="30">
         <v>3</v>
@@ -13793,7 +13794,7 @@
         <v>300</v>
       </c>
       <c r="T166" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U166" s="20">
         <v>1</v>
@@ -13805,7 +13806,7 @@
         <v>0</v>
       </c>
       <c r="X166" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="167" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13813,7 +13814,7 @@
         <v>100352</v>
       </c>
       <c r="D167" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E167" s="30">
         <v>1</v>
@@ -13859,7 +13860,7 @@
         <v>300</v>
       </c>
       <c r="T167" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U167" s="20">
         <v>1</v>
@@ -13871,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="X167" s="34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="168" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13879,7 +13880,7 @@
         <v>100353</v>
       </c>
       <c r="D168" s="37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E168" s="30">
         <v>1</v>
@@ -13925,7 +13926,7 @@
         <v>300</v>
       </c>
       <c r="T168" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U168" s="20">
         <v>1</v>
@@ -13937,7 +13938,7 @@
         <v>0</v>
       </c>
       <c r="X168" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="169" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13945,7 +13946,7 @@
         <v>100354</v>
       </c>
       <c r="D169" s="37" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E169" s="30">
         <v>1</v>
@@ -13991,7 +13992,7 @@
         <v>300</v>
       </c>
       <c r="T169" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U169" s="20">
         <v>1</v>
@@ -14003,7 +14004,7 @@
         <v>0</v>
       </c>
       <c r="X169" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="170" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14011,7 +14012,7 @@
         <v>100355</v>
       </c>
       <c r="D170" s="37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E170" s="30">
         <v>1</v>
@@ -14057,7 +14058,7 @@
         <v>300</v>
       </c>
       <c r="T170" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U170" s="20">
         <v>1</v>
@@ -14069,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="X170" s="34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="171" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14077,7 +14078,7 @@
         <v>100356</v>
       </c>
       <c r="D171" s="37" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E171" s="30">
         <v>2</v>
@@ -14123,7 +14124,7 @@
         <v>300</v>
       </c>
       <c r="T171" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U171" s="20">
         <v>1</v>
@@ -14135,7 +14136,7 @@
         <v>0</v>
       </c>
       <c r="X171" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="172" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14143,7 +14144,7 @@
         <v>100357</v>
       </c>
       <c r="D172" s="37" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E172" s="30">
         <v>2</v>
@@ -14189,7 +14190,7 @@
         <v>300</v>
       </c>
       <c r="T172" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U172" s="20">
         <v>1</v>
@@ -14201,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="X172" s="34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="173" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14209,7 +14210,7 @@
         <v>100358</v>
       </c>
       <c r="D173" s="37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E173" s="30">
         <v>2</v>
@@ -14255,7 +14256,7 @@
         <v>300</v>
       </c>
       <c r="T173" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U173" s="20">
         <v>1</v>
@@ -14267,7 +14268,7 @@
         <v>0</v>
       </c>
       <c r="X173" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="174" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14321,7 +14322,7 @@
         <v>400</v>
       </c>
       <c r="T174" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U174" s="20">
         <v>1</v>
@@ -14333,7 +14334,7 @@
         <v>0</v>
       </c>
       <c r="X174" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="175" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14387,7 +14388,7 @@
         <v>400</v>
       </c>
       <c r="T175" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U175" s="20">
         <v>1</v>
@@ -14399,7 +14400,7 @@
         <v>0</v>
       </c>
       <c r="X175" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="176" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14453,7 +14454,7 @@
         <v>400</v>
       </c>
       <c r="T176" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U176" s="20">
         <v>1</v>
@@ -14465,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="X176" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="177" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14519,7 +14520,7 @@
         <v>400</v>
       </c>
       <c r="T177" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U177" s="20">
         <v>1</v>
@@ -14531,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="X177" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="178" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14585,7 +14586,7 @@
         <v>400</v>
       </c>
       <c r="T178" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U178" s="20">
         <v>1</v>
@@ -14597,7 +14598,7 @@
         <v>0</v>
       </c>
       <c r="X178" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="179" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14651,7 +14652,7 @@
         <v>400</v>
       </c>
       <c r="T179" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U179" s="20">
         <v>1</v>
@@ -14663,7 +14664,7 @@
         <v>0</v>
       </c>
       <c r="X179" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="180" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14717,7 +14718,7 @@
         <v>400</v>
       </c>
       <c r="T180" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U180" s="20">
         <v>1</v>
@@ -14729,7 +14730,7 @@
         <v>0</v>
       </c>
       <c r="X180" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="181" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14783,7 +14784,7 @@
         <v>400</v>
       </c>
       <c r="T181" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U181" s="20">
         <v>1</v>
@@ -14795,7 +14796,7 @@
         <v>0</v>
       </c>
       <c r="X181" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="182" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14849,7 +14850,7 @@
         <v>400</v>
       </c>
       <c r="T182" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U182" s="20">
         <v>1</v>
@@ -14861,7 +14862,7 @@
         <v>0</v>
       </c>
       <c r="X182" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="183" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14915,7 +14916,7 @@
         <v>400</v>
       </c>
       <c r="T183" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U183" s="20">
         <v>1</v>
@@ -14927,7 +14928,7 @@
         <v>0</v>
       </c>
       <c r="X183" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="184" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14981,7 +14982,7 @@
         <v>400</v>
       </c>
       <c r="T184" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U184" s="20">
         <v>1</v>
@@ -14993,7 +14994,7 @@
         <v>0</v>
       </c>
       <c r="X184" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="185" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15047,7 +15048,7 @@
         <v>400</v>
       </c>
       <c r="T185" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U185" s="20">
         <v>1</v>
@@ -15059,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="X185" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="186" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15113,7 +15114,7 @@
         <v>400</v>
       </c>
       <c r="T186" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U186" s="20">
         <v>1</v>
@@ -15125,7 +15126,7 @@
         <v>0</v>
       </c>
       <c r="X186" s="23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="187" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15179,7 +15180,7 @@
         <v>400</v>
       </c>
       <c r="T187" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U187" s="20">
         <v>1</v>
@@ -15191,7 +15192,7 @@
         <v>0</v>
       </c>
       <c r="X187" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="188" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15245,7 +15246,7 @@
         <v>400</v>
       </c>
       <c r="T188" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U188" s="20">
         <v>1</v>
@@ -15257,7 +15258,7 @@
         <v>0</v>
       </c>
       <c r="X188" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="189" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15311,7 +15312,7 @@
         <v>400</v>
       </c>
       <c r="T189" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U189" s="20">
         <v>1</v>
@@ -15323,7 +15324,7 @@
         <v>0</v>
       </c>
       <c r="X189" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="190" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15377,7 +15378,7 @@
         <v>400</v>
       </c>
       <c r="T190" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U190" s="20">
         <v>1</v>
@@ -15389,7 +15390,7 @@
         <v>0</v>
       </c>
       <c r="X190" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="191" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15443,7 +15444,7 @@
         <v>400</v>
       </c>
       <c r="T191" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U191" s="20">
         <v>1</v>
@@ -15455,7 +15456,7 @@
         <v>0</v>
       </c>
       <c r="X191" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="192" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15509,7 +15510,7 @@
         <v>400</v>
       </c>
       <c r="T192" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U192" s="20">
         <v>1</v>
@@ -15521,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="X192" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="193" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15575,7 +15576,7 @@
         <v>400</v>
       </c>
       <c r="T193" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U193" s="20">
         <v>1</v>
@@ -15587,7 +15588,7 @@
         <v>0</v>
       </c>
       <c r="X193" s="23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="194" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15641,7 +15642,7 @@
         <v>400</v>
       </c>
       <c r="T194" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U194" s="20">
         <v>1</v>
@@ -15653,7 +15654,7 @@
         <v>0</v>
       </c>
       <c r="X194" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="195" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15707,7 +15708,7 @@
         <v>400</v>
       </c>
       <c r="T195" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U195" s="20">
         <v>1</v>
@@ -15719,7 +15720,7 @@
         <v>0</v>
       </c>
       <c r="X195" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="196" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15773,7 +15774,7 @@
         <v>400</v>
       </c>
       <c r="T196" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U196" s="20">
         <v>1</v>
@@ -15785,7 +15786,7 @@
         <v>0</v>
       </c>
       <c r="X196" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="197" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15839,7 +15840,7 @@
         <v>400</v>
       </c>
       <c r="T197" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U197" s="20">
         <v>1</v>
@@ -15851,7 +15852,7 @@
         <v>0</v>
       </c>
       <c r="X197" s="23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="198" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15905,7 +15906,7 @@
         <v>400</v>
       </c>
       <c r="T198" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U198" s="20">
         <v>1</v>
@@ -15917,7 +15918,7 @@
         <v>0</v>
       </c>
       <c r="X198" s="23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="199" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15971,7 +15972,7 @@
         <v>400</v>
       </c>
       <c r="T199" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U199" s="20">
         <v>1</v>
@@ -15983,7 +15984,7 @@
         <v>0</v>
       </c>
       <c r="X199" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="200" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15991,7 +15992,7 @@
         <v>100451</v>
       </c>
       <c r="D200" s="37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E200" s="30">
         <v>3</v>
@@ -16037,7 +16038,7 @@
         <v>400</v>
       </c>
       <c r="T200" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U200" s="20">
         <v>1</v>
@@ -16049,7 +16050,7 @@
         <v>0</v>
       </c>
       <c r="X200" s="34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="201" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16057,7 +16058,7 @@
         <v>100452</v>
       </c>
       <c r="D201" s="37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E201" s="30">
         <v>1</v>
@@ -16103,7 +16104,7 @@
         <v>400</v>
       </c>
       <c r="T201" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U201" s="20">
         <v>1</v>
@@ -16115,7 +16116,7 @@
         <v>0</v>
       </c>
       <c r="X201" s="34" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="202" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16123,7 +16124,7 @@
         <v>100453</v>
       </c>
       <c r="D202" s="37" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E202" s="30">
         <v>1</v>
@@ -16169,7 +16170,7 @@
         <v>400</v>
       </c>
       <c r="T202" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U202" s="20">
         <v>1</v>
@@ -16181,7 +16182,7 @@
         <v>0</v>
       </c>
       <c r="X202" s="34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="203" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16189,7 +16190,7 @@
         <v>100454</v>
       </c>
       <c r="D203" s="37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E203" s="30">
         <v>1</v>
@@ -16235,7 +16236,7 @@
         <v>400</v>
       </c>
       <c r="T203" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U203" s="20">
         <v>1</v>
@@ -16247,7 +16248,7 @@
         <v>0</v>
       </c>
       <c r="X203" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="204" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16255,7 +16256,7 @@
         <v>100455</v>
       </c>
       <c r="D204" s="37" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E204" s="30">
         <v>1</v>
@@ -16301,7 +16302,7 @@
         <v>400</v>
       </c>
       <c r="T204" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U204" s="20">
         <v>1</v>
@@ -16313,7 +16314,7 @@
         <v>0</v>
       </c>
       <c r="X204" s="34" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="205" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16321,7 +16322,7 @@
         <v>100456</v>
       </c>
       <c r="D205" s="37" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E205" s="30">
         <v>2</v>
@@ -16367,7 +16368,7 @@
         <v>400</v>
       </c>
       <c r="T205" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U205" s="20">
         <v>1</v>
@@ -16379,7 +16380,7 @@
         <v>0</v>
       </c>
       <c r="X205" s="34" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="206" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16387,7 +16388,7 @@
         <v>100457</v>
       </c>
       <c r="D206" s="37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E206" s="30">
         <v>2</v>
@@ -16433,7 +16434,7 @@
         <v>400</v>
       </c>
       <c r="T206" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U206" s="20">
         <v>1</v>
@@ -16445,7 +16446,7 @@
         <v>0</v>
       </c>
       <c r="X206" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="207" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16453,7 +16454,7 @@
         <v>100458</v>
       </c>
       <c r="D207" s="37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E207" s="30">
         <v>2</v>
@@ -16499,7 +16500,7 @@
         <v>400</v>
       </c>
       <c r="T207" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U207" s="20">
         <v>1</v>
@@ -16511,7 +16512,7 @@
         <v>0</v>
       </c>
       <c r="X207" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="208" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16566,7 +16567,7 @@
         <v>400</v>
       </c>
       <c r="T208" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U208" s="20">
         <v>1</v>
@@ -16578,7 +16579,7 @@
         <v>0</v>
       </c>
       <c r="X208" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="209" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16633,7 +16634,7 @@
         <v>400</v>
       </c>
       <c r="T209" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U209" s="20">
         <v>1</v>
@@ -16645,7 +16646,7 @@
         <v>0</v>
       </c>
       <c r="X209" s="23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="210" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16700,7 +16701,7 @@
         <v>400</v>
       </c>
       <c r="T210" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U210" s="20">
         <v>1</v>
@@ -16712,7 +16713,7 @@
         <v>0</v>
       </c>
       <c r="X210" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="211" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16767,7 +16768,7 @@
         <v>400</v>
       </c>
       <c r="T211" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U211" s="20">
         <v>1</v>
@@ -16779,7 +16780,7 @@
         <v>0</v>
       </c>
       <c r="X211" s="23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="212" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16834,7 +16835,7 @@
         <v>400</v>
       </c>
       <c r="T212" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U212" s="20">
         <v>1</v>
@@ -16846,7 +16847,7 @@
         <v>0</v>
       </c>
       <c r="X212" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="213" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16901,7 +16902,7 @@
         <v>400</v>
       </c>
       <c r="T213" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U213" s="20">
         <v>1</v>
@@ -16913,7 +16914,7 @@
         <v>0</v>
       </c>
       <c r="X213" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="214" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16968,7 +16969,7 @@
         <v>400</v>
       </c>
       <c r="T214" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U214" s="20">
         <v>1</v>
@@ -16980,7 +16981,7 @@
         <v>0</v>
       </c>
       <c r="X214" s="23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="215" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17035,7 +17036,7 @@
         <v>400</v>
       </c>
       <c r="T215" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U215" s="20">
         <v>1</v>
@@ -17047,7 +17048,7 @@
         <v>0</v>
       </c>
       <c r="X215" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="216" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17102,7 +17103,7 @@
         <v>400</v>
       </c>
       <c r="T216" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U216" s="20">
         <v>1</v>
@@ -17114,7 +17115,7 @@
         <v>0</v>
       </c>
       <c r="X216" s="23" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="217" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17169,7 +17170,7 @@
         <v>400</v>
       </c>
       <c r="T217" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U217" s="20">
         <v>1</v>
@@ -17181,7 +17182,7 @@
         <v>0</v>
       </c>
       <c r="X217" s="23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="218" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17236,7 +17237,7 @@
         <v>400</v>
       </c>
       <c r="T218" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U218" s="20">
         <v>1</v>
@@ -17248,7 +17249,7 @@
         <v>0</v>
       </c>
       <c r="X218" s="23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="219" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17303,7 +17304,7 @@
         <v>400</v>
       </c>
       <c r="T219" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U219" s="20">
         <v>1</v>
@@ -17315,7 +17316,7 @@
         <v>0</v>
       </c>
       <c r="X219" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="220" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17370,7 +17371,7 @@
         <v>400</v>
       </c>
       <c r="T220" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U220" s="20">
         <v>1</v>
@@ -17382,7 +17383,7 @@
         <v>0</v>
       </c>
       <c r="X220" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="221" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17437,7 +17438,7 @@
         <v>400</v>
       </c>
       <c r="T221" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U221" s="20">
         <v>1</v>
@@ -17449,7 +17450,7 @@
         <v>0</v>
       </c>
       <c r="X221" s="23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="222" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17504,7 +17505,7 @@
         <v>400</v>
       </c>
       <c r="T222" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U222" s="20">
         <v>1</v>
@@ -17516,7 +17517,7 @@
         <v>0</v>
       </c>
       <c r="X222" s="23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="223" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17571,7 +17572,7 @@
         <v>400</v>
       </c>
       <c r="T223" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U223" s="20">
         <v>1</v>
@@ -17583,7 +17584,7 @@
         <v>0</v>
       </c>
       <c r="X223" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="224" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17638,7 +17639,7 @@
         <v>400</v>
       </c>
       <c r="T224" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U224" s="20">
         <v>1</v>
@@ -17650,7 +17651,7 @@
         <v>0</v>
       </c>
       <c r="X224" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="225" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17705,7 +17706,7 @@
         <v>400</v>
       </c>
       <c r="T225" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U225" s="20">
         <v>1</v>
@@ -17717,7 +17718,7 @@
         <v>0</v>
       </c>
       <c r="X225" s="23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="226" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17772,7 +17773,7 @@
         <v>400</v>
       </c>
       <c r="T226" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U226" s="20">
         <v>1</v>
@@ -17784,7 +17785,7 @@
         <v>0</v>
       </c>
       <c r="X226" s="23" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="227" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17839,7 +17840,7 @@
         <v>400</v>
       </c>
       <c r="T227" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U227" s="20">
         <v>1</v>
@@ -17851,7 +17852,7 @@
         <v>0</v>
       </c>
       <c r="X227" s="23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="228" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17906,7 +17907,7 @@
         <v>400</v>
       </c>
       <c r="T228" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U228" s="20">
         <v>1</v>
@@ -17918,7 +17919,7 @@
         <v>0</v>
       </c>
       <c r="X228" s="23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="229" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17973,7 +17974,7 @@
         <v>400</v>
       </c>
       <c r="T229" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U229" s="20">
         <v>1</v>
@@ -17985,7 +17986,7 @@
         <v>0</v>
       </c>
       <c r="X229" s="23" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="230" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18040,7 +18041,7 @@
         <v>400</v>
       </c>
       <c r="T230" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U230" s="20">
         <v>1</v>
@@ -18052,7 +18053,7 @@
         <v>0</v>
       </c>
       <c r="X230" s="23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="231" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18107,7 +18108,7 @@
         <v>400</v>
       </c>
       <c r="T231" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U231" s="20">
         <v>1</v>
@@ -18119,7 +18120,7 @@
         <v>0</v>
       </c>
       <c r="X231" s="23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="232" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18174,7 +18175,7 @@
         <v>400</v>
       </c>
       <c r="T232" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U232" s="20">
         <v>1</v>
@@ -18186,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="X232" s="23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="233" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18241,7 +18242,7 @@
         <v>400</v>
       </c>
       <c r="T233" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U233" s="20">
         <v>1</v>
@@ -18253,7 +18254,7 @@
         <v>0</v>
       </c>
       <c r="X233" s="23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="234" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18261,7 +18262,7 @@
         <v>100551</v>
       </c>
       <c r="D234" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E234" s="30">
         <v>3</v>
@@ -18308,7 +18309,7 @@
         <v>400</v>
       </c>
       <c r="T234" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U234" s="20">
         <v>1</v>
@@ -18320,7 +18321,7 @@
         <v>0</v>
       </c>
       <c r="X234" s="23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="235" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18328,7 +18329,7 @@
         <v>100552</v>
       </c>
       <c r="D235" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E235" s="30">
         <v>1</v>
@@ -18375,7 +18376,7 @@
         <v>400</v>
       </c>
       <c r="T235" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U235" s="20">
         <v>1</v>
@@ -18387,7 +18388,7 @@
         <v>0</v>
       </c>
       <c r="X235" s="23" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="236" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18395,7 +18396,7 @@
         <v>100553</v>
       </c>
       <c r="D236" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E236" s="30">
         <v>1</v>
@@ -18442,7 +18443,7 @@
         <v>400</v>
       </c>
       <c r="T236" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U236" s="20">
         <v>1</v>
@@ -18454,7 +18455,7 @@
         <v>0</v>
       </c>
       <c r="X236" s="34" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="237" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18462,7 +18463,7 @@
         <v>100554</v>
       </c>
       <c r="D237" s="37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E237" s="30">
         <v>1</v>
@@ -18509,7 +18510,7 @@
         <v>400</v>
       </c>
       <c r="T237" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U237" s="20">
         <v>1</v>
@@ -18521,7 +18522,7 @@
         <v>0</v>
       </c>
       <c r="X237" s="34" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="238" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18529,7 +18530,7 @@
         <v>100555</v>
       </c>
       <c r="D238" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E238" s="30">
         <v>1</v>
@@ -18576,7 +18577,7 @@
         <v>400</v>
       </c>
       <c r="T238" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U238" s="20">
         <v>1</v>
@@ -18588,7 +18589,7 @@
         <v>0</v>
       </c>
       <c r="X238" s="34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="239" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18596,7 +18597,7 @@
         <v>100556</v>
       </c>
       <c r="D239" s="37" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E239" s="30">
         <v>2</v>
@@ -18643,7 +18644,7 @@
         <v>400</v>
       </c>
       <c r="T239" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U239" s="20">
         <v>1</v>
@@ -18655,7 +18656,7 @@
         <v>0</v>
       </c>
       <c r="X239" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="240" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18663,7 +18664,7 @@
         <v>100557</v>
       </c>
       <c r="D240" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E240" s="30">
         <v>2</v>
@@ -18710,7 +18711,7 @@
         <v>400</v>
       </c>
       <c r="T240" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U240" s="20">
         <v>1</v>
@@ -18722,7 +18723,7 @@
         <v>0</v>
       </c>
       <c r="X240" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="241" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18730,7 +18731,7 @@
         <v>100558</v>
       </c>
       <c r="D241" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E241" s="30">
         <v>2</v>
@@ -18777,7 +18778,7 @@
         <v>400</v>
       </c>
       <c r="T241" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U241" s="20">
         <v>1</v>
@@ -18789,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="X241" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="242" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18797,13 +18798,13 @@
         <v>200001</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>282</v>
+        <v>580</v>
       </c>
       <c r="E242" s="18">
         <v>3</v>
       </c>
       <c r="F242" s="9">
-        <v>15503006</v>
+        <v>13001001</v>
       </c>
       <c r="G242" s="18">
         <v>3</v>
@@ -18843,7 +18844,7 @@
         <v>200</v>
       </c>
       <c r="T242" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U242" s="20">
         <v>1</v>
@@ -18855,7 +18856,7 @@
         <v>0</v>
       </c>
       <c r="X242" s="23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="243" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18863,13 +18864,13 @@
         <v>200002</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E243" s="18">
         <v>3</v>
       </c>
       <c r="F243" s="9">
-        <v>15504002</v>
+        <v>13001002</v>
       </c>
       <c r="G243" s="18">
         <v>4</v>
@@ -18909,7 +18910,7 @@
         <v>200</v>
       </c>
       <c r="T243" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U243" s="20">
         <v>1</v>
@@ -18921,7 +18922,7 @@
         <v>0</v>
       </c>
       <c r="X243" s="23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="244" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18929,13 +18930,13 @@
         <v>200003</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E244" s="18">
         <v>3</v>
       </c>
       <c r="F244" s="9">
-        <v>15504004</v>
+        <v>13001003</v>
       </c>
       <c r="G244" s="18">
         <v>6</v>
@@ -18975,7 +18976,7 @@
         <v>200</v>
       </c>
       <c r="T244" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U244" s="20">
         <v>1</v>
@@ -18987,7 +18988,7 @@
         <v>0</v>
       </c>
       <c r="X244" s="23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="245" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18995,13 +18996,13 @@
         <v>200004</v>
       </c>
       <c r="D245" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E245" s="18">
         <v>3</v>
       </c>
       <c r="F245" s="9">
-        <v>15504006</v>
+        <v>13001004</v>
       </c>
       <c r="G245" s="18">
         <v>8</v>
@@ -19041,7 +19042,7 @@
         <v>200</v>
       </c>
       <c r="T245" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U245" s="20">
         <v>1</v>
@@ -19053,7 +19054,7 @@
         <v>0</v>
       </c>
       <c r="X245" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="246" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19061,13 +19062,13 @@
         <v>200005</v>
       </c>
       <c r="D246" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E246" s="18">
         <v>3</v>
       </c>
       <c r="F246" s="9">
-        <v>15505002</v>
+        <v>13001005</v>
       </c>
       <c r="G246" s="18">
         <v>10</v>
@@ -19107,7 +19108,7 @@
         <v>200</v>
       </c>
       <c r="T246" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U246" s="20">
         <v>1</v>
@@ -19119,7 +19120,7 @@
         <v>0</v>
       </c>
       <c r="X246" s="23" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="247" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19127,13 +19128,13 @@
         <v>200006</v>
       </c>
       <c r="D247" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E247" s="18">
         <v>3</v>
       </c>
       <c r="F247" s="9">
-        <v>15505004</v>
+        <v>13001006</v>
       </c>
       <c r="G247" s="18">
         <v>12</v>
@@ -19173,7 +19174,7 @@
         <v>200</v>
       </c>
       <c r="T247" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U247" s="20">
         <v>1</v>
@@ -19185,7 +19186,7 @@
         <v>0</v>
       </c>
       <c r="X247" s="23" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="248" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19193,13 +19194,13 @@
         <v>200007</v>
       </c>
       <c r="D248" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E248" s="18">
         <v>3</v>
       </c>
       <c r="F248" s="9">
-        <v>15505006</v>
+        <v>13002001</v>
       </c>
       <c r="G248" s="18">
         <v>20</v>
@@ -19239,7 +19240,7 @@
         <v>200</v>
       </c>
       <c r="T248" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U248" s="20">
         <v>1</v>
@@ -19251,7 +19252,7 @@
         <v>0</v>
       </c>
       <c r="X248" s="23" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="249" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19259,13 +19260,13 @@
         <v>200008</v>
       </c>
       <c r="D249" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E249" s="18">
         <v>3</v>
       </c>
       <c r="F249" s="9">
-        <v>15506002</v>
+        <v>13002002</v>
       </c>
       <c r="G249" s="18">
         <v>21</v>
@@ -19305,7 +19306,7 @@
         <v>200</v>
       </c>
       <c r="T249" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U249" s="20">
         <v>1</v>
@@ -19317,7 +19318,7 @@
         <v>0</v>
       </c>
       <c r="X249" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="250" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19325,13 +19326,13 @@
         <v>200009</v>
       </c>
       <c r="D250" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E250" s="18">
         <v>3</v>
       </c>
       <c r="F250" s="9">
-        <v>15507002</v>
+        <v>13002003</v>
       </c>
       <c r="G250" s="18">
         <v>22</v>
@@ -19371,7 +19372,7 @@
         <v>200</v>
       </c>
       <c r="T250" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U250" s="20">
         <v>1</v>
@@ -19383,7 +19384,7 @@
         <v>0</v>
       </c>
       <c r="X250" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="251" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19391,13 +19392,13 @@
         <v>200010</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E251" s="18">
         <v>3</v>
       </c>
       <c r="F251" s="9">
-        <v>15508002</v>
+        <v>13002004</v>
       </c>
       <c r="G251" s="18">
         <v>23</v>
@@ -19437,7 +19438,7 @@
         <v>200</v>
       </c>
       <c r="T251" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U251" s="20">
         <v>1</v>
@@ -19449,7 +19450,7 @@
         <v>0</v>
       </c>
       <c r="X251" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="252" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19457,13 +19458,13 @@
         <v>200011</v>
       </c>
       <c r="D252" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E252" s="18">
         <v>3</v>
       </c>
       <c r="F252" s="9">
-        <v>15509002</v>
+        <v>13002005</v>
       </c>
       <c r="G252" s="18">
         <v>24</v>
@@ -19503,7 +19504,7 @@
         <v>200</v>
       </c>
       <c r="T252" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U252" s="20">
         <v>1</v>
@@ -19515,7 +19516,7 @@
         <v>0</v>
       </c>
       <c r="X252" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="253" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19523,13 +19524,13 @@
         <v>200012</v>
       </c>
       <c r="D253" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E253" s="18">
         <v>3</v>
       </c>
       <c r="F253" s="9">
-        <v>15510002</v>
+        <v>13002006</v>
       </c>
       <c r="G253" s="18">
         <v>25</v>
@@ -19569,7 +19570,7 @@
         <v>200</v>
       </c>
       <c r="T253" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U253" s="20">
         <v>1</v>
@@ -19581,7 +19582,7 @@
         <v>0</v>
       </c>
       <c r="X253" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="254" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19589,13 +19590,13 @@
         <v>200013</v>
       </c>
       <c r="D254" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E254" s="18">
         <v>3</v>
       </c>
       <c r="F254" s="9">
-        <v>15510004</v>
+        <v>13003001</v>
       </c>
       <c r="G254" s="18">
         <v>30</v>
@@ -19635,7 +19636,7 @@
         <v>300</v>
       </c>
       <c r="T254" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U254" s="20">
         <v>1</v>
@@ -19647,7 +19648,7 @@
         <v>0</v>
       </c>
       <c r="X254" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="255" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19655,13 +19656,13 @@
         <v>200014</v>
       </c>
       <c r="D255" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E255" s="18">
         <v>3</v>
       </c>
       <c r="F255" s="9">
-        <v>15511002</v>
+        <v>13003002</v>
       </c>
       <c r="G255" s="18">
         <v>31</v>
@@ -19701,7 +19702,7 @@
         <v>300</v>
       </c>
       <c r="T255" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U255" s="20">
         <v>1</v>
@@ -19713,7 +19714,7 @@
         <v>0</v>
       </c>
       <c r="X255" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="256" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19721,13 +19722,13 @@
         <v>200015</v>
       </c>
       <c r="D256" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E256" s="18">
         <v>3</v>
       </c>
       <c r="F256" s="9">
-        <v>15511004</v>
+        <v>13003003</v>
       </c>
       <c r="G256" s="18">
         <v>32</v>
@@ -19767,7 +19768,7 @@
         <v>300</v>
       </c>
       <c r="T256" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U256" s="20">
         <v>1</v>
@@ -19779,7 +19780,7 @@
         <v>0</v>
       </c>
       <c r="X256" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="257" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19787,13 +19788,13 @@
         <v>200016</v>
       </c>
       <c r="D257" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E257" s="18">
         <v>3</v>
       </c>
       <c r="F257" s="9">
-        <v>15511006</v>
+        <v>13003004</v>
       </c>
       <c r="G257" s="18">
         <v>33</v>
@@ -19833,7 +19834,7 @@
         <v>300</v>
       </c>
       <c r="T257" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U257" s="20">
         <v>1</v>
@@ -19845,7 +19846,7 @@
         <v>0</v>
       </c>
       <c r="X257" s="23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="258" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19853,13 +19854,13 @@
         <v>200017</v>
       </c>
       <c r="D258" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E258" s="18">
         <v>3</v>
       </c>
       <c r="F258" s="9">
-        <v>15506003</v>
+        <v>13003005</v>
       </c>
       <c r="G258" s="18">
         <v>34</v>
@@ -19899,7 +19900,7 @@
         <v>300</v>
       </c>
       <c r="T258" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U258" s="20">
         <v>1</v>
@@ -19911,7 +19912,7 @@
         <v>0</v>
       </c>
       <c r="X258" s="23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="259" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19919,13 +19920,13 @@
         <v>200018</v>
       </c>
       <c r="D259" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E259" s="18">
         <v>3</v>
       </c>
       <c r="F259" s="9">
-        <v>15510011</v>
+        <v>13003006</v>
       </c>
       <c r="G259" s="18">
         <v>35</v>
@@ -19965,7 +19966,7 @@
         <v>300</v>
       </c>
       <c r="T259" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U259" s="20">
         <v>1</v>
@@ -19977,7 +19978,7 @@
         <v>0</v>
       </c>
       <c r="X259" s="23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="260" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19985,13 +19986,13 @@
         <v>200019</v>
       </c>
       <c r="D260" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E260" s="18">
         <v>3</v>
       </c>
       <c r="F260" s="9">
-        <v>15510012</v>
+        <v>13004001</v>
       </c>
       <c r="G260" s="18">
         <v>40</v>
@@ -20031,7 +20032,7 @@
         <v>400</v>
       </c>
       <c r="T260" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U260" s="20">
         <v>1</v>
@@ -20043,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="X260" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="261" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20051,13 +20052,13 @@
         <v>200020</v>
       </c>
       <c r="D261" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E261" s="18">
         <v>3</v>
       </c>
       <c r="F261" s="9">
-        <v>15510121</v>
+        <v>13004002</v>
       </c>
       <c r="G261" s="18">
         <v>41</v>
@@ -20097,7 +20098,7 @@
         <v>400</v>
       </c>
       <c r="T261" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U261" s="20">
         <v>1</v>
@@ -20109,7 +20110,7 @@
         <v>0</v>
       </c>
       <c r="X261" s="23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="262" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20117,13 +20118,13 @@
         <v>200021</v>
       </c>
       <c r="D262" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E262" s="18">
         <v>3</v>
       </c>
       <c r="F262" s="9">
-        <v>15510122</v>
+        <v>13004003</v>
       </c>
       <c r="G262" s="18">
         <v>42</v>
@@ -20163,7 +20164,7 @@
         <v>400</v>
       </c>
       <c r="T262" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U262" s="20">
         <v>1</v>
@@ -20175,7 +20176,7 @@
         <v>0</v>
       </c>
       <c r="X262" s="23" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="263" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20183,13 +20184,13 @@
         <v>200022</v>
       </c>
       <c r="D263" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E263" s="18">
         <v>3</v>
       </c>
       <c r="F263" s="9">
-        <v>15511011</v>
+        <v>13004004</v>
       </c>
       <c r="G263" s="18">
         <v>43</v>
@@ -20229,7 +20230,7 @@
         <v>400</v>
       </c>
       <c r="T263" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U263" s="20">
         <v>1</v>
@@ -20241,7 +20242,7 @@
         <v>0</v>
       </c>
       <c r="X263" s="23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="264" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20249,13 +20250,13 @@
         <v>200023</v>
       </c>
       <c r="D264" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E264" s="18">
         <v>3</v>
       </c>
       <c r="F264" s="9">
-        <v>15511012</v>
+        <v>13004005</v>
       </c>
       <c r="G264" s="18">
         <v>44</v>
@@ -20295,7 +20296,7 @@
         <v>400</v>
       </c>
       <c r="T264" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U264" s="20">
         <v>1</v>
@@ -20307,7 +20308,7 @@
         <v>0</v>
       </c>
       <c r="X264" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="265" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20315,13 +20316,13 @@
         <v>200024</v>
       </c>
       <c r="D265" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E265" s="18">
         <v>3</v>
       </c>
       <c r="F265" s="9">
-        <v>15511013</v>
+        <v>13004006</v>
       </c>
       <c r="G265" s="18">
         <v>45</v>
@@ -20361,7 +20362,7 @@
         <v>400</v>
       </c>
       <c r="T265" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U265" s="20">
         <v>1</v>
@@ -20373,7 +20374,7 @@
         <v>0</v>
       </c>
       <c r="X265" s="23" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="266" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20381,7 +20382,7 @@
         <v>200025</v>
       </c>
       <c r="D266" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E266" s="18">
         <v>3</v>
@@ -20427,7 +20428,7 @@
         <v>500</v>
       </c>
       <c r="T266" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U266" s="20">
         <v>1</v>
@@ -20439,7 +20440,7 @@
         <v>0</v>
       </c>
       <c r="X266" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="267" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20447,7 +20448,7 @@
         <v>200026</v>
       </c>
       <c r="D267" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E267" s="18">
         <v>3</v>
@@ -20493,7 +20494,7 @@
         <v>500</v>
       </c>
       <c r="T267" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U267" s="20">
         <v>1</v>
@@ -20505,7 +20506,7 @@
         <v>0</v>
       </c>
       <c r="X267" s="23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="268" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20513,7 +20514,7 @@
         <v>200027</v>
       </c>
       <c r="D268" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E268" s="18">
         <v>3</v>
@@ -20559,7 +20560,7 @@
         <v>500</v>
       </c>
       <c r="T268" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U268" s="20">
         <v>1</v>
@@ -20571,7 +20572,7 @@
         <v>0</v>
       </c>
       <c r="X268" s="23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="269" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20579,7 +20580,7 @@
         <v>200028</v>
       </c>
       <c r="D269" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E269" s="18">
         <v>3</v>
@@ -20625,7 +20626,7 @@
         <v>500</v>
       </c>
       <c r="T269" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U269" s="20">
         <v>1</v>
@@ -20637,7 +20638,7 @@
         <v>0</v>
       </c>
       <c r="X269" s="23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="270" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20645,7 +20646,7 @@
         <v>200029</v>
       </c>
       <c r="D270" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E270" s="18">
         <v>3</v>
@@ -20691,7 +20692,7 @@
         <v>500</v>
       </c>
       <c r="T270" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U270" s="20">
         <v>1</v>
@@ -20703,7 +20704,7 @@
         <v>0</v>
       </c>
       <c r="X270" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="271" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20711,7 +20712,7 @@
         <v>200030</v>
       </c>
       <c r="D271" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E271" s="18">
         <v>3</v>
@@ -20757,7 +20758,7 @@
         <v>500</v>
       </c>
       <c r="T271" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U271" s="20">
         <v>1</v>
@@ -20769,7 +20770,7 @@
         <v>0</v>
       </c>
       <c r="X271" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="272" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20777,7 +20778,7 @@
         <v>300001</v>
       </c>
       <c r="D272" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E272" s="18">
         <v>1</v>
@@ -20823,7 +20824,7 @@
         <v>200</v>
       </c>
       <c r="T272" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U272" s="20">
         <v>1</v>
@@ -20835,7 +20836,7 @@
         <v>0</v>
       </c>
       <c r="X272" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="273" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20843,7 +20844,7 @@
         <v>300002</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E273" s="18">
         <v>1</v>
@@ -20889,7 +20890,7 @@
         <v>200</v>
       </c>
       <c r="T273" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U273" s="20">
         <v>1</v>
@@ -20901,7 +20902,7 @@
         <v>0</v>
       </c>
       <c r="X273" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="274" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20909,7 +20910,7 @@
         <v>300003</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E274" s="18">
         <v>1</v>
@@ -20955,7 +20956,7 @@
         <v>200</v>
       </c>
       <c r="T274" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="U274" s="20">
         <v>1</v>
@@ -20967,7 +20968,7 @@
         <v>0</v>
       </c>
       <c r="X274" s="23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="275" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20975,7 +20976,7 @@
         <v>4000101</v>
       </c>
       <c r="D275" s="38" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E275" s="18">
         <v>4</v>
@@ -21035,7 +21036,7 @@
         <v>10000</v>
       </c>
       <c r="X275" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="276" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21043,7 +21044,7 @@
         <v>4000102</v>
       </c>
       <c r="D276" s="38" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E276" s="18">
         <v>4</v>
@@ -21103,7 +21104,7 @@
         <v>20000</v>
       </c>
       <c r="X276" s="17" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="277" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21111,7 +21112,7 @@
         <v>4000103</v>
       </c>
       <c r="D277" s="38" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E277" s="18">
         <v>4</v>
@@ -21171,7 +21172,7 @@
         <v>30000</v>
       </c>
       <c r="X277" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="278" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21179,7 +21180,7 @@
         <v>4000104</v>
       </c>
       <c r="D278" s="38" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E278" s="18">
         <v>4</v>
@@ -21239,7 +21240,7 @@
         <v>50000</v>
       </c>
       <c r="X278" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="279" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21247,7 +21248,7 @@
         <v>4000105</v>
       </c>
       <c r="D279" s="38" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E279" s="18">
         <v>4</v>
@@ -21307,7 +21308,7 @@
         <v>75000</v>
       </c>
       <c r="X279" s="17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="280" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21315,7 +21316,7 @@
         <v>4000106</v>
       </c>
       <c r="D280" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E280" s="18">
         <v>4</v>
@@ -21375,7 +21376,7 @@
         <v>100000</v>
       </c>
       <c r="X280" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="281" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21383,7 +21384,7 @@
         <v>4000107</v>
       </c>
       <c r="D281" s="38" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E281" s="18">
         <v>4</v>
@@ -21443,7 +21444,7 @@
         <v>125000</v>
       </c>
       <c r="X281" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="282" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21451,7 +21452,7 @@
         <v>4000108</v>
       </c>
       <c r="D282" s="38" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E282" s="18">
         <v>4</v>
@@ -21511,7 +21512,7 @@
         <v>150000</v>
       </c>
       <c r="X282" s="17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="283" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21519,7 +21520,7 @@
         <v>4000109</v>
       </c>
       <c r="D283" s="38" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E283" s="18">
         <v>4</v>
@@ -21579,7 +21580,7 @@
         <v>200000</v>
       </c>
       <c r="X283" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="284" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21587,7 +21588,7 @@
         <v>4000201</v>
       </c>
       <c r="D284" s="38" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E284" s="18">
         <v>4</v>
@@ -21647,7 +21648,7 @@
         <v>10000</v>
       </c>
       <c r="X284" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="285" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21655,7 +21656,7 @@
         <v>4000202</v>
       </c>
       <c r="D285" s="38" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E285" s="18">
         <v>4</v>
@@ -21715,7 +21716,7 @@
         <v>20000</v>
       </c>
       <c r="X285" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="286" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21723,7 +21724,7 @@
         <v>4000203</v>
       </c>
       <c r="D286" s="38" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E286" s="18">
         <v>4</v>
@@ -21783,7 +21784,7 @@
         <v>30000</v>
       </c>
       <c r="X286" s="17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="287" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21791,7 +21792,7 @@
         <v>4000204</v>
       </c>
       <c r="D287" s="38" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E287" s="18">
         <v>4</v>
@@ -21851,7 +21852,7 @@
         <v>50000</v>
       </c>
       <c r="X287" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="288" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21859,7 +21860,7 @@
         <v>4000205</v>
       </c>
       <c r="D288" s="38" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E288" s="18">
         <v>4</v>
@@ -21919,7 +21920,7 @@
         <v>75000</v>
       </c>
       <c r="X288" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="289" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21927,7 +21928,7 @@
         <v>4000206</v>
       </c>
       <c r="D289" s="38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E289" s="18">
         <v>4</v>
@@ -21987,7 +21988,7 @@
         <v>100000</v>
       </c>
       <c r="X289" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="290" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21995,7 +21996,7 @@
         <v>4000207</v>
       </c>
       <c r="D290" s="38" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E290" s="18">
         <v>4</v>
@@ -22055,7 +22056,7 @@
         <v>125000</v>
       </c>
       <c r="X290" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="291" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22063,7 +22064,7 @@
         <v>4000208</v>
       </c>
       <c r="D291" s="38" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E291" s="18">
         <v>4</v>
@@ -22123,7 +22124,7 @@
         <v>150000</v>
       </c>
       <c r="X291" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="292" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22131,7 +22132,7 @@
         <v>4000209</v>
       </c>
       <c r="D292" s="38" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E292" s="18">
         <v>4</v>
@@ -22191,7 +22192,7 @@
         <v>200000</v>
       </c>
       <c r="X292" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="293" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22199,7 +22200,7 @@
         <v>4000301</v>
       </c>
       <c r="D293" s="38" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E293" s="18">
         <v>4</v>
@@ -22259,7 +22260,7 @@
         <v>10000</v>
       </c>
       <c r="X293" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="294" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22267,7 +22268,7 @@
         <v>4000302</v>
       </c>
       <c r="D294" s="38" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E294" s="18">
         <v>4</v>
@@ -22327,7 +22328,7 @@
         <v>20000</v>
       </c>
       <c r="X294" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="295" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22335,7 +22336,7 @@
         <v>4000303</v>
       </c>
       <c r="D295" s="38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E295" s="18">
         <v>4</v>
@@ -22395,7 +22396,7 @@
         <v>30000</v>
       </c>
       <c r="X295" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="296" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22403,7 +22404,7 @@
         <v>4000304</v>
       </c>
       <c r="D296" s="38" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E296" s="18">
         <v>4</v>
@@ -22463,7 +22464,7 @@
         <v>50000</v>
       </c>
       <c r="X296" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="297" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22471,7 +22472,7 @@
         <v>4000305</v>
       </c>
       <c r="D297" s="38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E297" s="18">
         <v>4</v>
@@ -22531,7 +22532,7 @@
         <v>75000</v>
       </c>
       <c r="X297" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="298" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22539,7 +22540,7 @@
         <v>4000306</v>
       </c>
       <c r="D298" s="38" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E298" s="18">
         <v>4</v>
@@ -22599,7 +22600,7 @@
         <v>100000</v>
       </c>
       <c r="X298" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="299" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22607,7 +22608,7 @@
         <v>4000307</v>
       </c>
       <c r="D299" s="38" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E299" s="18">
         <v>4</v>
@@ -22667,7 +22668,7 @@
         <v>125000</v>
       </c>
       <c r="X299" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="300" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22675,7 +22676,7 @@
         <v>4000308</v>
       </c>
       <c r="D300" s="38" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E300" s="18">
         <v>4</v>
@@ -22735,7 +22736,7 @@
         <v>150000</v>
       </c>
       <c r="X300" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="301" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22743,7 +22744,7 @@
         <v>4000309</v>
       </c>
       <c r="D301" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E301" s="18">
         <v>4</v>
@@ -22803,7 +22804,7 @@
         <v>200000</v>
       </c>
       <c r="X301" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="302" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22811,7 +22812,7 @@
         <v>4000401</v>
       </c>
       <c r="D302" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E302" s="18">
         <v>4</v>
@@ -22871,7 +22872,7 @@
         <v>10000</v>
       </c>
       <c r="X302" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="303" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22879,7 +22880,7 @@
         <v>4000402</v>
       </c>
       <c r="D303" s="38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E303" s="18">
         <v>4</v>
@@ -22939,7 +22940,7 @@
         <v>20000</v>
       </c>
       <c r="X303" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="304" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22947,7 +22948,7 @@
         <v>4000403</v>
       </c>
       <c r="D304" s="38" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E304" s="18">
         <v>4</v>
@@ -23007,7 +23008,7 @@
         <v>30000</v>
       </c>
       <c r="X304" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="305" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23015,7 +23016,7 @@
         <v>4000404</v>
       </c>
       <c r="D305" s="38" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E305" s="18">
         <v>4</v>
@@ -23075,7 +23076,7 @@
         <v>50000</v>
       </c>
       <c r="X305" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="306" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23083,7 +23084,7 @@
         <v>4000405</v>
       </c>
       <c r="D306" s="38" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E306" s="18">
         <v>4</v>
@@ -23143,7 +23144,7 @@
         <v>75000</v>
       </c>
       <c r="X306" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="307" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23151,7 +23152,7 @@
         <v>4000406</v>
       </c>
       <c r="D307" s="38" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E307" s="18">
         <v>4</v>
@@ -23211,7 +23212,7 @@
         <v>100000</v>
       </c>
       <c r="X307" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="308" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23219,7 +23220,7 @@
         <v>4000407</v>
       </c>
       <c r="D308" s="38" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E308" s="18">
         <v>4</v>
@@ -23279,7 +23280,7 @@
         <v>125000</v>
       </c>
       <c r="X308" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="309" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23287,7 +23288,7 @@
         <v>4000408</v>
       </c>
       <c r="D309" s="38" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E309" s="18">
         <v>4</v>
@@ -23347,7 +23348,7 @@
         <v>150000</v>
       </c>
       <c r="X309" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="310" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23355,7 +23356,7 @@
         <v>4000409</v>
       </c>
       <c r="D310" s="38" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E310" s="18">
         <v>4</v>
@@ -23415,7 +23416,7 @@
         <v>200000</v>
       </c>
       <c r="X310" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="311" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA300EB-EAF7-4797-B8C7-7299F5FF1232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17788C3F-B333-4833-9B0A-74D21B2FD8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipMakeProto" sheetId="1" r:id="rId1"/>
@@ -2944,9 +2944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:X1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F273" sqref="F273"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V280" sqref="V280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -21033,7 +21033,7 @@
         <v>1</v>
       </c>
       <c r="W275" s="20">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="X275" s="17" t="s">
         <v>544</v>
@@ -21101,7 +21101,7 @@
         <v>1</v>
       </c>
       <c r="W276" s="20">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="X276" s="17" t="s">
         <v>545</v>
@@ -21169,7 +21169,7 @@
         <v>1</v>
       </c>
       <c r="W277" s="20">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="X277" s="17" t="s">
         <v>546</v>
@@ -21237,7 +21237,7 @@
         <v>1</v>
       </c>
       <c r="W278" s="20">
-        <v>50000</v>
+        <v>7500</v>
       </c>
       <c r="X278" s="17" t="s">
         <v>547</v>
@@ -21305,7 +21305,7 @@
         <v>1</v>
       </c>
       <c r="W279" s="20">
-        <v>75000</v>
+        <v>10000</v>
       </c>
       <c r="X279" s="17" t="s">
         <v>548</v>
@@ -21373,7 +21373,7 @@
         <v>1</v>
       </c>
       <c r="W280" s="20">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="X280" s="17" t="s">
         <v>549</v>
@@ -21441,7 +21441,7 @@
         <v>1</v>
       </c>
       <c r="W281" s="20">
-        <v>125000</v>
+        <v>30000</v>
       </c>
       <c r="X281" s="17" t="s">
         <v>550</v>
@@ -21509,7 +21509,7 @@
         <v>1</v>
       </c>
       <c r="W282" s="20">
-        <v>150000</v>
+        <v>40000</v>
       </c>
       <c r="X282" s="17" t="s">
         <v>551</v>
@@ -21577,7 +21577,7 @@
         <v>1</v>
       </c>
       <c r="W283" s="20">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="X283" s="17" t="s">
         <v>552</v>
@@ -21645,7 +21645,7 @@
         <v>1</v>
       </c>
       <c r="W284" s="20">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="X284" s="17" t="s">
         <v>553</v>
@@ -21713,7 +21713,7 @@
         <v>1</v>
       </c>
       <c r="W285" s="20">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="X285" s="17" t="s">
         <v>554</v>
@@ -21781,7 +21781,7 @@
         <v>1</v>
       </c>
       <c r="W286" s="20">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="X286" s="17" t="s">
         <v>555</v>
@@ -21849,7 +21849,7 @@
         <v>1</v>
       </c>
       <c r="W287" s="20">
-        <v>50000</v>
+        <v>7500</v>
       </c>
       <c r="X287" s="17" t="s">
         <v>556</v>
@@ -21917,7 +21917,7 @@
         <v>1</v>
       </c>
       <c r="W288" s="20">
-        <v>75000</v>
+        <v>10000</v>
       </c>
       <c r="X288" s="17" t="s">
         <v>557</v>
@@ -21985,7 +21985,7 @@
         <v>1</v>
       </c>
       <c r="W289" s="20">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="X289" s="17" t="s">
         <v>558</v>
@@ -22053,7 +22053,7 @@
         <v>1</v>
       </c>
       <c r="W290" s="20">
-        <v>125000</v>
+        <v>30000</v>
       </c>
       <c r="X290" s="2" t="s">
         <v>559</v>
@@ -22121,7 +22121,7 @@
         <v>1</v>
       </c>
       <c r="W291" s="20">
-        <v>150000</v>
+        <v>40000</v>
       </c>
       <c r="X291" s="2" t="s">
         <v>560</v>
@@ -22189,7 +22189,7 @@
         <v>1</v>
       </c>
       <c r="W292" s="20">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="X292" s="2" t="s">
         <v>561</v>
@@ -22257,7 +22257,7 @@
         <v>1</v>
       </c>
       <c r="W293" s="20">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="X293" s="2" t="s">
         <v>562</v>
@@ -22325,7 +22325,7 @@
         <v>1</v>
       </c>
       <c r="W294" s="20">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="X294" s="2" t="s">
         <v>563</v>
@@ -22393,7 +22393,7 @@
         <v>1</v>
       </c>
       <c r="W295" s="20">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="X295" s="2" t="s">
         <v>564</v>
@@ -22461,7 +22461,7 @@
         <v>1</v>
       </c>
       <c r="W296" s="20">
-        <v>50000</v>
+        <v>7500</v>
       </c>
       <c r="X296" s="2" t="s">
         <v>565</v>
@@ -22529,7 +22529,7 @@
         <v>1</v>
       </c>
       <c r="W297" s="20">
-        <v>75000</v>
+        <v>10000</v>
       </c>
       <c r="X297" s="2" t="s">
         <v>566</v>
@@ -22597,7 +22597,7 @@
         <v>1</v>
       </c>
       <c r="W298" s="20">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="X298" s="2" t="s">
         <v>567</v>
@@ -22665,7 +22665,7 @@
         <v>1</v>
       </c>
       <c r="W299" s="20">
-        <v>125000</v>
+        <v>30000</v>
       </c>
       <c r="X299" s="2" t="s">
         <v>568</v>
@@ -22733,7 +22733,7 @@
         <v>1</v>
       </c>
       <c r="W300" s="20">
-        <v>150000</v>
+        <v>40000</v>
       </c>
       <c r="X300" s="2" t="s">
         <v>569</v>
@@ -22801,7 +22801,7 @@
         <v>1</v>
       </c>
       <c r="W301" s="20">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="X301" s="2" t="s">
         <v>570</v>
@@ -22869,7 +22869,7 @@
         <v>1</v>
       </c>
       <c r="W302" s="20">
-        <v>10000</v>
+        <v>2500</v>
       </c>
       <c r="X302" s="2" t="s">
         <v>571</v>
@@ -22937,7 +22937,7 @@
         <v>1</v>
       </c>
       <c r="W303" s="20">
-        <v>20000</v>
+        <v>3500</v>
       </c>
       <c r="X303" s="2" t="s">
         <v>572</v>
@@ -23005,7 +23005,7 @@
         <v>1</v>
       </c>
       <c r="W304" s="20">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="X304" s="2" t="s">
         <v>573</v>
@@ -23073,7 +23073,7 @@
         <v>1</v>
       </c>
       <c r="W305" s="20">
-        <v>50000</v>
+        <v>7500</v>
       </c>
       <c r="X305" s="2" t="s">
         <v>574</v>
@@ -23141,7 +23141,7 @@
         <v>1</v>
       </c>
       <c r="W306" s="20">
-        <v>75000</v>
+        <v>10000</v>
       </c>
       <c r="X306" s="2" t="s">
         <v>575</v>
@@ -23209,7 +23209,7 @@
         <v>1</v>
       </c>
       <c r="W307" s="20">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="X307" s="2" t="s">
         <v>576</v>
@@ -23277,7 +23277,7 @@
         <v>1</v>
       </c>
       <c r="W308" s="20">
-        <v>125000</v>
+        <v>30000</v>
       </c>
       <c r="X308" s="2" t="s">
         <v>577</v>
@@ -23345,7 +23345,7 @@
         <v>1</v>
       </c>
       <c r="W309" s="20">
-        <v>150000</v>
+        <v>40000</v>
       </c>
       <c r="X309" s="2" t="s">
         <v>578</v>
@@ -23413,7 +23413,7 @@
         <v>1</v>
       </c>
       <c r="W310" s="20">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="X310" s="2" t="s">
         <v>579</v>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17788C3F-B333-4833-9B0A-74D21B2FD8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6538A3B-C20E-4CCD-A306-A3E8D28DB9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="611">
   <si>
     <t>#</t>
   </si>
@@ -2264,6 +2264,96 @@
   <si>
     <t>初级治愈药水</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗:风灵之盔</t>
+  </si>
+  <si>
+    <t>史诗:神谕之盔</t>
+  </si>
+  <si>
+    <t>史诗:永恒之盔</t>
+  </si>
+  <si>
+    <t>史诗:风灵之手</t>
+  </si>
+  <si>
+    <t>史诗:神谕之手</t>
+  </si>
+  <si>
+    <t>史诗:永恒之手</t>
+  </si>
+  <si>
+    <t>史诗:风灵之带</t>
+  </si>
+  <si>
+    <t>史诗:神谕之带</t>
+  </si>
+  <si>
+    <t>史诗:永恒之带</t>
+  </si>
+  <si>
+    <t>史诗:风灵之靴</t>
+  </si>
+  <si>
+    <t>史诗:神谕之靴</t>
+  </si>
+  <si>
+    <t>史诗:永恒之靴</t>
+  </si>
+  <si>
+    <t>史诗:风灵之腿</t>
+  </si>
+  <si>
+    <t>史诗:神谕之腿</t>
+  </si>
+  <si>
+    <t>史诗:永恒之腿</t>
+  </si>
+  <si>
+    <t>史诗:炙热之链</t>
+  </si>
+  <si>
+    <t>史诗:炙热之戒</t>
+  </si>
+  <si>
+    <t>史诗:炙热之灵</t>
+  </si>
+  <si>
+    <t>史诗:炙热之符</t>
+  </si>
+  <si>
+    <t>史诗:炙热之剑</t>
+  </si>
+  <si>
+    <t>史诗:炙热战刃</t>
+  </si>
+  <si>
+    <t>史诗:炙热之杖</t>
+  </si>
+  <si>
+    <t>史诗:炙热之书</t>
+  </si>
+  <si>
+    <t>史诗:风灵之甲</t>
+  </si>
+  <si>
+    <t>史诗:神谕之甲</t>
+  </si>
+  <si>
+    <t>史诗:永恒之甲</t>
+  </si>
+  <si>
+    <t>10020001;200@10025010;200@10010085;1000@10025008;20@10025009;10@10000143;35</t>
+  </si>
+  <si>
+    <t>10020001;350@10025010;350@10010085;2000@10025008;20@10025009;10@10000143;50</t>
+  </si>
+  <si>
+    <t>10020001;500@10025010;500@10010085;5000@10025008;20@10025009;10@10000143;100</t>
+  </si>
+  <si>
+    <t>10020001;300@10025010;300@10010085;3000@10025008;20@10025009;10@10000143;70</t>
   </si>
 </sst>
 </file>
@@ -2416,7 +2506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2456,6 +2546,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2530,7 +2626,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2634,6 +2730,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2942,11 +3041,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X1080"/>
+  <dimension ref="C1:X1079"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V280" sqref="V280"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W318" sqref="W318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -23419,240 +23518,1787 @@
         <v>579</v>
       </c>
     </row>
-    <row r="311" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E311" s="2"/>
-      <c r="G311" s="2"/>
-      <c r="H311" s="2"/>
-      <c r="I311" s="2"/>
-    </row>
-    <row r="312" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E312" s="2"/>
-      <c r="G312" s="2"/>
-      <c r="H312" s="2"/>
-      <c r="I312" s="2"/>
-    </row>
-    <row r="313" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E313" s="2"/>
-      <c r="G313" s="2"/>
-      <c r="H313" s="2"/>
-      <c r="I313" s="2"/>
-    </row>
-    <row r="314" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E314" s="2"/>
-      <c r="G314" s="2"/>
-      <c r="H314" s="2"/>
-      <c r="I314" s="2"/>
-    </row>
-    <row r="315" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E315" s="2"/>
-      <c r="G315" s="2"/>
-      <c r="H315" s="2"/>
-      <c r="I315" s="2"/>
-    </row>
-    <row r="316" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E316" s="2"/>
-      <c r="G316" s="2"/>
-      <c r="H316" s="2"/>
-      <c r="I316" s="2"/>
-    </row>
-    <row r="317" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E317" s="2"/>
-      <c r="G317" s="2"/>
-      <c r="H317" s="2"/>
-      <c r="I317" s="2"/>
-    </row>
-    <row r="318" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="E318" s="2"/>
-      <c r="G318" s="2"/>
-      <c r="H318" s="2"/>
-      <c r="I318" s="2"/>
-    </row>
-    <row r="319" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="E319" s="2"/>
-      <c r="G319" s="2"/>
-      <c r="H319" s="2"/>
-      <c r="I319" s="2"/>
-    </row>
-    <row r="320" spans="3:24" x14ac:dyDescent="0.3">
-      <c r="E320" s="2"/>
-      <c r="G320" s="2"/>
-      <c r="H320" s="2"/>
-      <c r="I320" s="2"/>
-    </row>
-    <row r="321" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E321" s="2"/>
-      <c r="G321" s="2"/>
-      <c r="H321" s="2"/>
-      <c r="I321" s="2"/>
-    </row>
-    <row r="322" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E322" s="2"/>
-      <c r="G322" s="2"/>
-      <c r="H322" s="2"/>
-      <c r="I322" s="2"/>
-    </row>
-    <row r="323" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E323" s="2"/>
-      <c r="G323" s="2"/>
-      <c r="H323" s="2"/>
-      <c r="I323" s="2"/>
-    </row>
-    <row r="324" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E324" s="2"/>
-      <c r="G324" s="2"/>
-      <c r="H324" s="2"/>
-      <c r="I324" s="2"/>
-    </row>
-    <row r="325" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E325" s="2"/>
-      <c r="G325" s="2"/>
-      <c r="H325" s="2"/>
-      <c r="I325" s="2"/>
-    </row>
-    <row r="326" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E326" s="2"/>
-      <c r="G326" s="2"/>
-      <c r="H326" s="2"/>
-      <c r="I326" s="2"/>
-    </row>
-    <row r="327" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E327" s="2"/>
-      <c r="G327" s="2"/>
-      <c r="H327" s="2"/>
-      <c r="I327" s="2"/>
-    </row>
-    <row r="328" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E328" s="2"/>
-      <c r="G328" s="2"/>
-      <c r="H328" s="2"/>
-      <c r="I328" s="2"/>
-    </row>
-    <row r="329" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E329" s="2"/>
-      <c r="G329" s="2"/>
-      <c r="H329" s="2"/>
-      <c r="I329" s="2"/>
-    </row>
-    <row r="330" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E330" s="2"/>
-      <c r="G330" s="2"/>
-      <c r="H330" s="2"/>
-      <c r="I330" s="2"/>
-    </row>
-    <row r="331" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E331" s="2"/>
-      <c r="G331" s="2"/>
-      <c r="H331" s="2"/>
-      <c r="I331" s="2"/>
-    </row>
-    <row r="332" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E332" s="2"/>
-      <c r="G332" s="2"/>
-      <c r="H332" s="2"/>
-      <c r="I332" s="2"/>
-    </row>
-    <row r="333" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E333" s="2"/>
-      <c r="G333" s="2"/>
-      <c r="H333" s="2"/>
-      <c r="I333" s="2"/>
-    </row>
-    <row r="334" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E334" s="2"/>
-      <c r="G334" s="2"/>
-      <c r="H334" s="2"/>
-      <c r="I334" s="2"/>
-    </row>
-    <row r="335" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E335" s="2"/>
-      <c r="G335" s="2"/>
-      <c r="H335" s="2"/>
-      <c r="I335" s="2"/>
-    </row>
-    <row r="336" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E336" s="2"/>
-      <c r="G336" s="2"/>
-      <c r="H336" s="2"/>
-      <c r="I336" s="2"/>
-    </row>
-    <row r="337" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E337" s="2"/>
-      <c r="G337" s="2"/>
-      <c r="H337" s="2"/>
-      <c r="I337" s="2"/>
-    </row>
-    <row r="338" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E338" s="2"/>
-      <c r="G338" s="2"/>
-      <c r="H338" s="2"/>
-      <c r="I338" s="2"/>
-    </row>
-    <row r="339" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E339" s="2"/>
-      <c r="G339" s="2"/>
-      <c r="H339" s="2"/>
-      <c r="I339" s="2"/>
-    </row>
-    <row r="340" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E340" s="2"/>
-      <c r="G340" s="2"/>
-      <c r="H340" s="2"/>
-      <c r="I340" s="2"/>
-    </row>
-    <row r="341" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E341" s="2"/>
-      <c r="G341" s="2"/>
-      <c r="H341" s="2"/>
-      <c r="I341" s="2"/>
-    </row>
-    <row r="342" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E342" s="2"/>
-      <c r="G342" s="2"/>
-      <c r="H342" s="2"/>
-      <c r="I342" s="2"/>
-    </row>
-    <row r="343" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E343" s="2"/>
-      <c r="G343" s="2"/>
-      <c r="H343" s="2"/>
-      <c r="I343" s="2"/>
-    </row>
-    <row r="344" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E344" s="2"/>
-      <c r="G344" s="2"/>
-      <c r="H344" s="2"/>
-      <c r="I344" s="2"/>
-    </row>
-    <row r="345" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E345" s="2"/>
-      <c r="G345" s="2"/>
-      <c r="H345" s="2"/>
-      <c r="I345" s="2"/>
-    </row>
-    <row r="346" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E346" s="2"/>
-      <c r="G346" s="2"/>
-      <c r="H346" s="2"/>
-      <c r="I346" s="2"/>
-    </row>
-    <row r="347" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E347" s="2"/>
-      <c r="G347" s="2"/>
-      <c r="H347" s="2"/>
-      <c r="I347" s="2"/>
-    </row>
-    <row r="348" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E348" s="2"/>
-      <c r="G348" s="2"/>
-      <c r="H348" s="2"/>
-      <c r="I348" s="2"/>
-    </row>
-    <row r="349" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E349" s="2"/>
-      <c r="G349" s="2"/>
-      <c r="H349" s="2"/>
-      <c r="I349" s="2"/>
-    </row>
+    <row r="311" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C311" s="1">
+        <v>5000001</v>
+      </c>
+      <c r="D311" s="39" t="s">
+        <v>581</v>
+      </c>
+      <c r="E311" s="1">
+        <v>5</v>
+      </c>
+      <c r="F311" s="39">
+        <v>15601001</v>
+      </c>
+      <c r="G311" s="39">
+        <v>55</v>
+      </c>
+      <c r="H311" s="1">
+        <v>0</v>
+      </c>
+      <c r="I311" s="1">
+        <v>0</v>
+      </c>
+      <c r="J311" s="1">
+        <v>0</v>
+      </c>
+      <c r="K311" s="1">
+        <v>1</v>
+      </c>
+      <c r="L311" s="1">
+        <v>1</v>
+      </c>
+      <c r="M311" s="1">
+        <v>0</v>
+      </c>
+      <c r="N311" s="1">
+        <v>0</v>
+      </c>
+      <c r="O311" s="1">
+        <v>1</v>
+      </c>
+      <c r="P311" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q311" s="1">
+        <v>1</v>
+      </c>
+      <c r="R311" s="1">
+        <v>0</v>
+      </c>
+      <c r="S311" s="1">
+        <v>0</v>
+      </c>
+      <c r="T311" s="1">
+        <v>0</v>
+      </c>
+      <c r="U311" s="1">
+        <v>0</v>
+      </c>
+      <c r="V311" s="1">
+        <v>1</v>
+      </c>
+      <c r="W311" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X311" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="312" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C312" s="1">
+        <v>5000002</v>
+      </c>
+      <c r="D312" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="E312" s="1">
+        <v>5</v>
+      </c>
+      <c r="F312" s="39">
+        <v>15601002</v>
+      </c>
+      <c r="G312" s="39">
+        <v>55</v>
+      </c>
+      <c r="H312" s="1">
+        <v>0</v>
+      </c>
+      <c r="I312" s="1">
+        <v>0</v>
+      </c>
+      <c r="J312" s="1">
+        <v>0</v>
+      </c>
+      <c r="K312" s="1">
+        <v>1</v>
+      </c>
+      <c r="L312" s="1">
+        <v>1</v>
+      </c>
+      <c r="M312" s="1">
+        <v>0</v>
+      </c>
+      <c r="N312" s="1">
+        <v>0</v>
+      </c>
+      <c r="O312" s="1">
+        <v>1</v>
+      </c>
+      <c r="P312" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q312" s="1">
+        <v>1</v>
+      </c>
+      <c r="R312" s="1">
+        <v>0</v>
+      </c>
+      <c r="S312" s="1">
+        <v>0</v>
+      </c>
+      <c r="T312" s="1">
+        <v>0</v>
+      </c>
+      <c r="U312" s="1">
+        <v>0</v>
+      </c>
+      <c r="V312" s="1">
+        <v>1</v>
+      </c>
+      <c r="W312" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X312" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="313" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C313" s="1">
+        <v>5000003</v>
+      </c>
+      <c r="D313" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="E313" s="1">
+        <v>5</v>
+      </c>
+      <c r="F313" s="39">
+        <v>15601003</v>
+      </c>
+      <c r="G313" s="39">
+        <v>55</v>
+      </c>
+      <c r="H313" s="1">
+        <v>0</v>
+      </c>
+      <c r="I313" s="1">
+        <v>0</v>
+      </c>
+      <c r="J313" s="1">
+        <v>0</v>
+      </c>
+      <c r="K313" s="1">
+        <v>1</v>
+      </c>
+      <c r="L313" s="1">
+        <v>1</v>
+      </c>
+      <c r="M313" s="1">
+        <v>0</v>
+      </c>
+      <c r="N313" s="1">
+        <v>0</v>
+      </c>
+      <c r="O313" s="1">
+        <v>1</v>
+      </c>
+      <c r="P313" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q313" s="1">
+        <v>1</v>
+      </c>
+      <c r="R313" s="1">
+        <v>0</v>
+      </c>
+      <c r="S313" s="1">
+        <v>0</v>
+      </c>
+      <c r="T313" s="1">
+        <v>0</v>
+      </c>
+      <c r="U313" s="1">
+        <v>0</v>
+      </c>
+      <c r="V313" s="1">
+        <v>1</v>
+      </c>
+      <c r="W313" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X313" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="314" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C314" s="1">
+        <v>5000011</v>
+      </c>
+      <c r="D314" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="E314" s="1">
+        <v>5</v>
+      </c>
+      <c r="F314" s="39">
+        <v>15602001</v>
+      </c>
+      <c r="G314" s="39">
+        <v>55</v>
+      </c>
+      <c r="H314" s="1">
+        <v>0</v>
+      </c>
+      <c r="I314" s="1">
+        <v>0</v>
+      </c>
+      <c r="J314" s="1">
+        <v>0</v>
+      </c>
+      <c r="K314" s="1">
+        <v>1</v>
+      </c>
+      <c r="L314" s="1">
+        <v>1</v>
+      </c>
+      <c r="M314" s="1">
+        <v>0</v>
+      </c>
+      <c r="N314" s="1">
+        <v>0</v>
+      </c>
+      <c r="O314" s="1">
+        <v>1</v>
+      </c>
+      <c r="P314" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q314" s="1">
+        <v>1</v>
+      </c>
+      <c r="R314" s="1">
+        <v>0</v>
+      </c>
+      <c r="S314" s="1">
+        <v>0</v>
+      </c>
+      <c r="T314" s="1">
+        <v>0</v>
+      </c>
+      <c r="U314" s="1">
+        <v>0</v>
+      </c>
+      <c r="V314" s="1">
+        <v>1</v>
+      </c>
+      <c r="W314" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X314" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="315" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C315" s="1">
+        <v>5000012</v>
+      </c>
+      <c r="D315" s="39" t="s">
+        <v>585</v>
+      </c>
+      <c r="E315" s="1">
+        <v>5</v>
+      </c>
+      <c r="F315" s="39">
+        <v>15602002</v>
+      </c>
+      <c r="G315" s="39">
+        <v>55</v>
+      </c>
+      <c r="H315" s="1">
+        <v>0</v>
+      </c>
+      <c r="I315" s="1">
+        <v>0</v>
+      </c>
+      <c r="J315" s="1">
+        <v>0</v>
+      </c>
+      <c r="K315" s="1">
+        <v>1</v>
+      </c>
+      <c r="L315" s="1">
+        <v>1</v>
+      </c>
+      <c r="M315" s="1">
+        <v>0</v>
+      </c>
+      <c r="N315" s="1">
+        <v>0</v>
+      </c>
+      <c r="O315" s="1">
+        <v>1</v>
+      </c>
+      <c r="P315" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q315" s="1">
+        <v>1</v>
+      </c>
+      <c r="R315" s="1">
+        <v>0</v>
+      </c>
+      <c r="S315" s="1">
+        <v>0</v>
+      </c>
+      <c r="T315" s="1">
+        <v>0</v>
+      </c>
+      <c r="U315" s="1">
+        <v>0</v>
+      </c>
+      <c r="V315" s="1">
+        <v>1</v>
+      </c>
+      <c r="W315" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X315" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="316" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C316" s="1">
+        <v>5000013</v>
+      </c>
+      <c r="D316" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="E316" s="1">
+        <v>5</v>
+      </c>
+      <c r="F316" s="39">
+        <v>15602003</v>
+      </c>
+      <c r="G316" s="39">
+        <v>55</v>
+      </c>
+      <c r="H316" s="1">
+        <v>0</v>
+      </c>
+      <c r="I316" s="1">
+        <v>0</v>
+      </c>
+      <c r="J316" s="1">
+        <v>0</v>
+      </c>
+      <c r="K316" s="1">
+        <v>1</v>
+      </c>
+      <c r="L316" s="1">
+        <v>1</v>
+      </c>
+      <c r="M316" s="1">
+        <v>0</v>
+      </c>
+      <c r="N316" s="1">
+        <v>0</v>
+      </c>
+      <c r="O316" s="1">
+        <v>1</v>
+      </c>
+      <c r="P316" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q316" s="1">
+        <v>1</v>
+      </c>
+      <c r="R316" s="1">
+        <v>0</v>
+      </c>
+      <c r="S316" s="1">
+        <v>0</v>
+      </c>
+      <c r="T316" s="1">
+        <v>0</v>
+      </c>
+      <c r="U316" s="1">
+        <v>0</v>
+      </c>
+      <c r="V316" s="1">
+        <v>1</v>
+      </c>
+      <c r="W316" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X316" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="317" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C317" s="1">
+        <v>5000021</v>
+      </c>
+      <c r="D317" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="E317" s="1">
+        <v>5</v>
+      </c>
+      <c r="F317" s="39">
+        <v>15603001</v>
+      </c>
+      <c r="G317" s="39">
+        <v>55</v>
+      </c>
+      <c r="H317" s="1">
+        <v>0</v>
+      </c>
+      <c r="I317" s="1">
+        <v>0</v>
+      </c>
+      <c r="J317" s="1">
+        <v>0</v>
+      </c>
+      <c r="K317" s="1">
+        <v>1</v>
+      </c>
+      <c r="L317" s="1">
+        <v>1</v>
+      </c>
+      <c r="M317" s="1">
+        <v>0</v>
+      </c>
+      <c r="N317" s="1">
+        <v>0</v>
+      </c>
+      <c r="O317" s="1">
+        <v>1</v>
+      </c>
+      <c r="P317" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q317" s="1">
+        <v>1</v>
+      </c>
+      <c r="R317" s="1">
+        <v>0</v>
+      </c>
+      <c r="S317" s="1">
+        <v>0</v>
+      </c>
+      <c r="T317" s="1">
+        <v>0</v>
+      </c>
+      <c r="U317" s="1">
+        <v>0</v>
+      </c>
+      <c r="V317" s="1">
+        <v>1</v>
+      </c>
+      <c r="W317" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X317" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="318" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C318" s="1">
+        <v>5000022</v>
+      </c>
+      <c r="D318" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="E318" s="1">
+        <v>5</v>
+      </c>
+      <c r="F318" s="39">
+        <v>15603002</v>
+      </c>
+      <c r="G318" s="39">
+        <v>55</v>
+      </c>
+      <c r="H318" s="1">
+        <v>0</v>
+      </c>
+      <c r="I318" s="1">
+        <v>0</v>
+      </c>
+      <c r="J318" s="1">
+        <v>0</v>
+      </c>
+      <c r="K318" s="1">
+        <v>1</v>
+      </c>
+      <c r="L318" s="1">
+        <v>1</v>
+      </c>
+      <c r="M318" s="1">
+        <v>0</v>
+      </c>
+      <c r="N318" s="1">
+        <v>0</v>
+      </c>
+      <c r="O318" s="1">
+        <v>1</v>
+      </c>
+      <c r="P318" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q318" s="1">
+        <v>1</v>
+      </c>
+      <c r="R318" s="1">
+        <v>0</v>
+      </c>
+      <c r="S318" s="1">
+        <v>0</v>
+      </c>
+      <c r="T318" s="1">
+        <v>0</v>
+      </c>
+      <c r="U318" s="1">
+        <v>0</v>
+      </c>
+      <c r="V318" s="1">
+        <v>1</v>
+      </c>
+      <c r="W318" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X318" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="319" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C319" s="1">
+        <v>5000023</v>
+      </c>
+      <c r="D319" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="E319" s="1">
+        <v>5</v>
+      </c>
+      <c r="F319" s="39">
+        <v>15603003</v>
+      </c>
+      <c r="G319" s="39">
+        <v>55</v>
+      </c>
+      <c r="H319" s="1">
+        <v>0</v>
+      </c>
+      <c r="I319" s="1">
+        <v>0</v>
+      </c>
+      <c r="J319" s="1">
+        <v>0</v>
+      </c>
+      <c r="K319" s="1">
+        <v>1</v>
+      </c>
+      <c r="L319" s="1">
+        <v>1</v>
+      </c>
+      <c r="M319" s="1">
+        <v>0</v>
+      </c>
+      <c r="N319" s="1">
+        <v>0</v>
+      </c>
+      <c r="O319" s="1">
+        <v>1</v>
+      </c>
+      <c r="P319" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q319" s="1">
+        <v>1</v>
+      </c>
+      <c r="R319" s="1">
+        <v>0</v>
+      </c>
+      <c r="S319" s="1">
+        <v>0</v>
+      </c>
+      <c r="T319" s="1">
+        <v>0</v>
+      </c>
+      <c r="U319" s="1">
+        <v>0</v>
+      </c>
+      <c r="V319" s="1">
+        <v>1</v>
+      </c>
+      <c r="W319" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X319" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="320" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C320" s="1">
+        <v>5000031</v>
+      </c>
+      <c r="D320" s="39" t="s">
+        <v>590</v>
+      </c>
+      <c r="E320" s="1">
+        <v>5</v>
+      </c>
+      <c r="F320" s="39">
+        <v>15604001</v>
+      </c>
+      <c r="G320" s="39">
+        <v>55</v>
+      </c>
+      <c r="H320" s="1">
+        <v>0</v>
+      </c>
+      <c r="I320" s="1">
+        <v>0</v>
+      </c>
+      <c r="J320" s="1">
+        <v>0</v>
+      </c>
+      <c r="K320" s="1">
+        <v>1</v>
+      </c>
+      <c r="L320" s="1">
+        <v>1</v>
+      </c>
+      <c r="M320" s="1">
+        <v>0</v>
+      </c>
+      <c r="N320" s="1">
+        <v>0</v>
+      </c>
+      <c r="O320" s="1">
+        <v>1</v>
+      </c>
+      <c r="P320" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q320" s="1">
+        <v>1</v>
+      </c>
+      <c r="R320" s="1">
+        <v>0</v>
+      </c>
+      <c r="S320" s="1">
+        <v>0</v>
+      </c>
+      <c r="T320" s="1">
+        <v>0</v>
+      </c>
+      <c r="U320" s="1">
+        <v>0</v>
+      </c>
+      <c r="V320" s="1">
+        <v>1</v>
+      </c>
+      <c r="W320" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X320" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="321" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C321" s="1">
+        <v>5000032</v>
+      </c>
+      <c r="D321" s="39" t="s">
+        <v>591</v>
+      </c>
+      <c r="E321" s="1">
+        <v>5</v>
+      </c>
+      <c r="F321" s="39">
+        <v>15604002</v>
+      </c>
+      <c r="G321" s="39">
+        <v>55</v>
+      </c>
+      <c r="H321" s="1">
+        <v>0</v>
+      </c>
+      <c r="I321" s="1">
+        <v>0</v>
+      </c>
+      <c r="J321" s="1">
+        <v>0</v>
+      </c>
+      <c r="K321" s="1">
+        <v>1</v>
+      </c>
+      <c r="L321" s="1">
+        <v>1</v>
+      </c>
+      <c r="M321" s="1">
+        <v>0</v>
+      </c>
+      <c r="N321" s="1">
+        <v>0</v>
+      </c>
+      <c r="O321" s="1">
+        <v>1</v>
+      </c>
+      <c r="P321" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q321" s="1">
+        <v>1</v>
+      </c>
+      <c r="R321" s="1">
+        <v>0</v>
+      </c>
+      <c r="S321" s="1">
+        <v>0</v>
+      </c>
+      <c r="T321" s="1">
+        <v>0</v>
+      </c>
+      <c r="U321" s="1">
+        <v>0</v>
+      </c>
+      <c r="V321" s="1">
+        <v>1</v>
+      </c>
+      <c r="W321" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X321" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="322" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C322" s="1">
+        <v>5000033</v>
+      </c>
+      <c r="D322" s="39" t="s">
+        <v>592</v>
+      </c>
+      <c r="E322" s="1">
+        <v>5</v>
+      </c>
+      <c r="F322" s="39">
+        <v>15604003</v>
+      </c>
+      <c r="G322" s="39">
+        <v>55</v>
+      </c>
+      <c r="H322" s="1">
+        <v>0</v>
+      </c>
+      <c r="I322" s="1">
+        <v>0</v>
+      </c>
+      <c r="J322" s="1">
+        <v>0</v>
+      </c>
+      <c r="K322" s="1">
+        <v>1</v>
+      </c>
+      <c r="L322" s="1">
+        <v>1</v>
+      </c>
+      <c r="M322" s="1">
+        <v>0</v>
+      </c>
+      <c r="N322" s="1">
+        <v>0</v>
+      </c>
+      <c r="O322" s="1">
+        <v>1</v>
+      </c>
+      <c r="P322" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q322" s="1">
+        <v>1</v>
+      </c>
+      <c r="R322" s="1">
+        <v>0</v>
+      </c>
+      <c r="S322" s="1">
+        <v>0</v>
+      </c>
+      <c r="T322" s="1">
+        <v>0</v>
+      </c>
+      <c r="U322" s="1">
+        <v>0</v>
+      </c>
+      <c r="V322" s="1">
+        <v>1</v>
+      </c>
+      <c r="W322" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X322" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="323" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C323" s="1">
+        <v>5000041</v>
+      </c>
+      <c r="D323" s="39" t="s">
+        <v>593</v>
+      </c>
+      <c r="E323" s="1">
+        <v>5</v>
+      </c>
+      <c r="F323" s="39">
+        <v>15605001</v>
+      </c>
+      <c r="G323" s="39">
+        <v>55</v>
+      </c>
+      <c r="H323" s="1">
+        <v>0</v>
+      </c>
+      <c r="I323" s="1">
+        <v>0</v>
+      </c>
+      <c r="J323" s="1">
+        <v>0</v>
+      </c>
+      <c r="K323" s="1">
+        <v>1</v>
+      </c>
+      <c r="L323" s="1">
+        <v>1</v>
+      </c>
+      <c r="M323" s="1">
+        <v>0</v>
+      </c>
+      <c r="N323" s="1">
+        <v>0</v>
+      </c>
+      <c r="O323" s="1">
+        <v>1</v>
+      </c>
+      <c r="P323" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q323" s="1">
+        <v>1</v>
+      </c>
+      <c r="R323" s="1">
+        <v>0</v>
+      </c>
+      <c r="S323" s="1">
+        <v>0</v>
+      </c>
+      <c r="T323" s="1">
+        <v>0</v>
+      </c>
+      <c r="U323" s="1">
+        <v>0</v>
+      </c>
+      <c r="V323" s="1">
+        <v>1</v>
+      </c>
+      <c r="W323" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X323" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="324" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C324" s="1">
+        <v>5000042</v>
+      </c>
+      <c r="D324" s="39" t="s">
+        <v>594</v>
+      </c>
+      <c r="E324" s="1">
+        <v>5</v>
+      </c>
+      <c r="F324" s="39">
+        <v>15605002</v>
+      </c>
+      <c r="G324" s="39">
+        <v>55</v>
+      </c>
+      <c r="H324" s="1">
+        <v>0</v>
+      </c>
+      <c r="I324" s="1">
+        <v>0</v>
+      </c>
+      <c r="J324" s="1">
+        <v>0</v>
+      </c>
+      <c r="K324" s="1">
+        <v>1</v>
+      </c>
+      <c r="L324" s="1">
+        <v>1</v>
+      </c>
+      <c r="M324" s="1">
+        <v>0</v>
+      </c>
+      <c r="N324" s="1">
+        <v>0</v>
+      </c>
+      <c r="O324" s="1">
+        <v>1</v>
+      </c>
+      <c r="P324" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q324" s="1">
+        <v>1</v>
+      </c>
+      <c r="R324" s="1">
+        <v>0</v>
+      </c>
+      <c r="S324" s="1">
+        <v>0</v>
+      </c>
+      <c r="T324" s="1">
+        <v>0</v>
+      </c>
+      <c r="U324" s="1">
+        <v>0</v>
+      </c>
+      <c r="V324" s="1">
+        <v>1</v>
+      </c>
+      <c r="W324" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X324" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="325" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C325" s="1">
+        <v>5000043</v>
+      </c>
+      <c r="D325" s="39" t="s">
+        <v>595</v>
+      </c>
+      <c r="E325" s="1">
+        <v>5</v>
+      </c>
+      <c r="F325" s="39">
+        <v>15605003</v>
+      </c>
+      <c r="G325" s="39">
+        <v>55</v>
+      </c>
+      <c r="H325" s="1">
+        <v>0</v>
+      </c>
+      <c r="I325" s="1">
+        <v>0</v>
+      </c>
+      <c r="J325" s="1">
+        <v>0</v>
+      </c>
+      <c r="K325" s="1">
+        <v>1</v>
+      </c>
+      <c r="L325" s="1">
+        <v>1</v>
+      </c>
+      <c r="M325" s="1">
+        <v>0</v>
+      </c>
+      <c r="N325" s="1">
+        <v>0</v>
+      </c>
+      <c r="O325" s="1">
+        <v>1</v>
+      </c>
+      <c r="P325" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q325" s="1">
+        <v>1</v>
+      </c>
+      <c r="R325" s="1">
+        <v>0</v>
+      </c>
+      <c r="S325" s="1">
+        <v>0</v>
+      </c>
+      <c r="T325" s="1">
+        <v>0</v>
+      </c>
+      <c r="U325" s="1">
+        <v>0</v>
+      </c>
+      <c r="V325" s="1">
+        <v>1</v>
+      </c>
+      <c r="W325" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X325" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="326" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C326" s="1">
+        <v>5000051</v>
+      </c>
+      <c r="D326" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="E326" s="1">
+        <v>5</v>
+      </c>
+      <c r="F326" s="39">
+        <v>15606001</v>
+      </c>
+      <c r="G326" s="39">
+        <v>55</v>
+      </c>
+      <c r="H326" s="1">
+        <v>0</v>
+      </c>
+      <c r="I326" s="1">
+        <v>0</v>
+      </c>
+      <c r="J326" s="1">
+        <v>0</v>
+      </c>
+      <c r="K326" s="1">
+        <v>1</v>
+      </c>
+      <c r="L326" s="1">
+        <v>1</v>
+      </c>
+      <c r="M326" s="1">
+        <v>0</v>
+      </c>
+      <c r="N326" s="1">
+        <v>0</v>
+      </c>
+      <c r="O326" s="1">
+        <v>1</v>
+      </c>
+      <c r="P326" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q326" s="1">
+        <v>1</v>
+      </c>
+      <c r="R326" s="1">
+        <v>0</v>
+      </c>
+      <c r="S326" s="1">
+        <v>0</v>
+      </c>
+      <c r="T326" s="1">
+        <v>0</v>
+      </c>
+      <c r="U326" s="1">
+        <v>0</v>
+      </c>
+      <c r="V326" s="1">
+        <v>1</v>
+      </c>
+      <c r="W326" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X326" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="327" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C327" s="1">
+        <v>5000052</v>
+      </c>
+      <c r="D327" s="39" t="s">
+        <v>597</v>
+      </c>
+      <c r="E327" s="1">
+        <v>5</v>
+      </c>
+      <c r="F327" s="39">
+        <v>15607001</v>
+      </c>
+      <c r="G327" s="39">
+        <v>55</v>
+      </c>
+      <c r="H327" s="1">
+        <v>0</v>
+      </c>
+      <c r="I327" s="1">
+        <v>0</v>
+      </c>
+      <c r="J327" s="1">
+        <v>0</v>
+      </c>
+      <c r="K327" s="1">
+        <v>1</v>
+      </c>
+      <c r="L327" s="1">
+        <v>1</v>
+      </c>
+      <c r="M327" s="1">
+        <v>0</v>
+      </c>
+      <c r="N327" s="1">
+        <v>0</v>
+      </c>
+      <c r="O327" s="1">
+        <v>1</v>
+      </c>
+      <c r="P327" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q327" s="1">
+        <v>1</v>
+      </c>
+      <c r="R327" s="1">
+        <v>0</v>
+      </c>
+      <c r="S327" s="1">
+        <v>0</v>
+      </c>
+      <c r="T327" s="1">
+        <v>0</v>
+      </c>
+      <c r="U327" s="1">
+        <v>0</v>
+      </c>
+      <c r="V327" s="1">
+        <v>1</v>
+      </c>
+      <c r="W327" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X327" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="328" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C328" s="1">
+        <v>5000061</v>
+      </c>
+      <c r="D328" s="39" t="s">
+        <v>598</v>
+      </c>
+      <c r="E328" s="1">
+        <v>5</v>
+      </c>
+      <c r="F328" s="39">
+        <v>15608001</v>
+      </c>
+      <c r="G328" s="39">
+        <v>55</v>
+      </c>
+      <c r="H328" s="1">
+        <v>0</v>
+      </c>
+      <c r="I328" s="1">
+        <v>0</v>
+      </c>
+      <c r="J328" s="1">
+        <v>0</v>
+      </c>
+      <c r="K328" s="1">
+        <v>1</v>
+      </c>
+      <c r="L328" s="1">
+        <v>1</v>
+      </c>
+      <c r="M328" s="1">
+        <v>0</v>
+      </c>
+      <c r="N328" s="1">
+        <v>0</v>
+      </c>
+      <c r="O328" s="1">
+        <v>1</v>
+      </c>
+      <c r="P328" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q328" s="1">
+        <v>1</v>
+      </c>
+      <c r="R328" s="1">
+        <v>0</v>
+      </c>
+      <c r="S328" s="1">
+        <v>0</v>
+      </c>
+      <c r="T328" s="1">
+        <v>0</v>
+      </c>
+      <c r="U328" s="1">
+        <v>0</v>
+      </c>
+      <c r="V328" s="1">
+        <v>1</v>
+      </c>
+      <c r="W328" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X328" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="329" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C329" s="1">
+        <v>5000062</v>
+      </c>
+      <c r="D329" s="39" t="s">
+        <v>599</v>
+      </c>
+      <c r="E329" s="1">
+        <v>5</v>
+      </c>
+      <c r="F329" s="39">
+        <v>15609001</v>
+      </c>
+      <c r="G329" s="39">
+        <v>55</v>
+      </c>
+      <c r="H329" s="1">
+        <v>0</v>
+      </c>
+      <c r="I329" s="1">
+        <v>0</v>
+      </c>
+      <c r="J329" s="1">
+        <v>0</v>
+      </c>
+      <c r="K329" s="1">
+        <v>1</v>
+      </c>
+      <c r="L329" s="1">
+        <v>1</v>
+      </c>
+      <c r="M329" s="1">
+        <v>0</v>
+      </c>
+      <c r="N329" s="1">
+        <v>0</v>
+      </c>
+      <c r="O329" s="1">
+        <v>1</v>
+      </c>
+      <c r="P329" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q329" s="1">
+        <v>1</v>
+      </c>
+      <c r="R329" s="1">
+        <v>0</v>
+      </c>
+      <c r="S329" s="1">
+        <v>0</v>
+      </c>
+      <c r="T329" s="1">
+        <v>0</v>
+      </c>
+      <c r="U329" s="1">
+        <v>0</v>
+      </c>
+      <c r="V329" s="1">
+        <v>1</v>
+      </c>
+      <c r="W329" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X329" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="330" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C330" s="1">
+        <v>5000071</v>
+      </c>
+      <c r="D330" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="E330" s="1">
+        <v>5</v>
+      </c>
+      <c r="F330" s="39">
+        <v>15610001</v>
+      </c>
+      <c r="G330" s="39">
+        <v>55</v>
+      </c>
+      <c r="H330" s="1">
+        <v>0</v>
+      </c>
+      <c r="I330" s="1">
+        <v>0</v>
+      </c>
+      <c r="J330" s="1">
+        <v>0</v>
+      </c>
+      <c r="K330" s="1">
+        <v>1</v>
+      </c>
+      <c r="L330" s="1">
+        <v>1</v>
+      </c>
+      <c r="M330" s="1">
+        <v>0</v>
+      </c>
+      <c r="N330" s="1">
+        <v>0</v>
+      </c>
+      <c r="O330" s="1">
+        <v>1</v>
+      </c>
+      <c r="P330" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q330" s="1">
+        <v>1</v>
+      </c>
+      <c r="R330" s="1">
+        <v>0</v>
+      </c>
+      <c r="S330" s="1">
+        <v>0</v>
+      </c>
+      <c r="T330" s="1">
+        <v>0</v>
+      </c>
+      <c r="U330" s="1">
+        <v>0</v>
+      </c>
+      <c r="V330" s="1">
+        <v>1</v>
+      </c>
+      <c r="W330" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X330" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="331" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C331" s="1">
+        <v>5000072</v>
+      </c>
+      <c r="D331" s="39" t="s">
+        <v>601</v>
+      </c>
+      <c r="E331" s="1">
+        <v>5</v>
+      </c>
+      <c r="F331" s="39">
+        <v>15610002</v>
+      </c>
+      <c r="G331" s="39">
+        <v>55</v>
+      </c>
+      <c r="H331" s="1">
+        <v>0</v>
+      </c>
+      <c r="I331" s="1">
+        <v>0</v>
+      </c>
+      <c r="J331" s="1">
+        <v>0</v>
+      </c>
+      <c r="K331" s="1">
+        <v>1</v>
+      </c>
+      <c r="L331" s="1">
+        <v>1</v>
+      </c>
+      <c r="M331" s="1">
+        <v>0</v>
+      </c>
+      <c r="N331" s="1">
+        <v>0</v>
+      </c>
+      <c r="O331" s="1">
+        <v>1</v>
+      </c>
+      <c r="P331" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q331" s="1">
+        <v>1</v>
+      </c>
+      <c r="R331" s="1">
+        <v>0</v>
+      </c>
+      <c r="S331" s="1">
+        <v>0</v>
+      </c>
+      <c r="T331" s="1">
+        <v>0</v>
+      </c>
+      <c r="U331" s="1">
+        <v>0</v>
+      </c>
+      <c r="V331" s="1">
+        <v>1</v>
+      </c>
+      <c r="W331" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X331" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="332" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C332" s="1">
+        <v>5000081</v>
+      </c>
+      <c r="D332" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="E332" s="1">
+        <v>5</v>
+      </c>
+      <c r="F332" s="8">
+        <v>15610101</v>
+      </c>
+      <c r="G332" s="39">
+        <v>55</v>
+      </c>
+      <c r="H332" s="1">
+        <v>0</v>
+      </c>
+      <c r="I332" s="1">
+        <v>0</v>
+      </c>
+      <c r="J332" s="1">
+        <v>0</v>
+      </c>
+      <c r="K332" s="1">
+        <v>1</v>
+      </c>
+      <c r="L332" s="1">
+        <v>1</v>
+      </c>
+      <c r="M332" s="1">
+        <v>0</v>
+      </c>
+      <c r="N332" s="1">
+        <v>0</v>
+      </c>
+      <c r="O332" s="1">
+        <v>1</v>
+      </c>
+      <c r="P332" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q332" s="1">
+        <v>1</v>
+      </c>
+      <c r="R332" s="1">
+        <v>0</v>
+      </c>
+      <c r="S332" s="1">
+        <v>0</v>
+      </c>
+      <c r="T332" s="1">
+        <v>0</v>
+      </c>
+      <c r="U332" s="1">
+        <v>0</v>
+      </c>
+      <c r="V332" s="1">
+        <v>1</v>
+      </c>
+      <c r="W332" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X332" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="333" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C333" s="1">
+        <v>5000082</v>
+      </c>
+      <c r="D333" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="E333" s="1">
+        <v>5</v>
+      </c>
+      <c r="F333" s="8">
+        <v>15610102</v>
+      </c>
+      <c r="G333" s="39">
+        <v>55</v>
+      </c>
+      <c r="H333" s="1">
+        <v>0</v>
+      </c>
+      <c r="I333" s="1">
+        <v>0</v>
+      </c>
+      <c r="J333" s="1">
+        <v>0</v>
+      </c>
+      <c r="K333" s="1">
+        <v>1</v>
+      </c>
+      <c r="L333" s="1">
+        <v>1</v>
+      </c>
+      <c r="M333" s="1">
+        <v>0</v>
+      </c>
+      <c r="N333" s="1">
+        <v>0</v>
+      </c>
+      <c r="O333" s="1">
+        <v>1</v>
+      </c>
+      <c r="P333" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q333" s="1">
+        <v>1</v>
+      </c>
+      <c r="R333" s="1">
+        <v>0</v>
+      </c>
+      <c r="S333" s="1">
+        <v>0</v>
+      </c>
+      <c r="T333" s="1">
+        <v>0</v>
+      </c>
+      <c r="U333" s="1">
+        <v>0</v>
+      </c>
+      <c r="V333" s="1">
+        <v>1</v>
+      </c>
+      <c r="W333" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X333" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="334" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C334" s="1">
+        <v>5000091</v>
+      </c>
+      <c r="D334" s="39" t="s">
+        <v>604</v>
+      </c>
+      <c r="E334" s="1">
+        <v>5</v>
+      </c>
+      <c r="F334" s="39">
+        <v>15611001</v>
+      </c>
+      <c r="G334" s="39">
+        <v>55</v>
+      </c>
+      <c r="H334" s="1">
+        <v>0</v>
+      </c>
+      <c r="I334" s="1">
+        <v>0</v>
+      </c>
+      <c r="J334" s="1">
+        <v>0</v>
+      </c>
+      <c r="K334" s="1">
+        <v>1</v>
+      </c>
+      <c r="L334" s="1">
+        <v>1</v>
+      </c>
+      <c r="M334" s="1">
+        <v>0</v>
+      </c>
+      <c r="N334" s="1">
+        <v>0</v>
+      </c>
+      <c r="O334" s="1">
+        <v>1</v>
+      </c>
+      <c r="P334" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q334" s="1">
+        <v>1</v>
+      </c>
+      <c r="R334" s="1">
+        <v>0</v>
+      </c>
+      <c r="S334" s="1">
+        <v>0</v>
+      </c>
+      <c r="T334" s="1">
+        <v>0</v>
+      </c>
+      <c r="U334" s="1">
+        <v>0</v>
+      </c>
+      <c r="V334" s="1">
+        <v>1</v>
+      </c>
+      <c r="W334" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X334" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="335" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C335" s="1">
+        <v>5000092</v>
+      </c>
+      <c r="D335" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="E335" s="1">
+        <v>5</v>
+      </c>
+      <c r="F335" s="39">
+        <v>15611002</v>
+      </c>
+      <c r="G335" s="39">
+        <v>55</v>
+      </c>
+      <c r="H335" s="1">
+        <v>0</v>
+      </c>
+      <c r="I335" s="1">
+        <v>0</v>
+      </c>
+      <c r="J335" s="1">
+        <v>0</v>
+      </c>
+      <c r="K335" s="1">
+        <v>1</v>
+      </c>
+      <c r="L335" s="1">
+        <v>1</v>
+      </c>
+      <c r="M335" s="1">
+        <v>0</v>
+      </c>
+      <c r="N335" s="1">
+        <v>0</v>
+      </c>
+      <c r="O335" s="1">
+        <v>1</v>
+      </c>
+      <c r="P335" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q335" s="1">
+        <v>1</v>
+      </c>
+      <c r="R335" s="1">
+        <v>0</v>
+      </c>
+      <c r="S335" s="1">
+        <v>0</v>
+      </c>
+      <c r="T335" s="1">
+        <v>0</v>
+      </c>
+      <c r="U335" s="1">
+        <v>0</v>
+      </c>
+      <c r="V335" s="1">
+        <v>1</v>
+      </c>
+      <c r="W335" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X335" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="336" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C336" s="1">
+        <v>5000093</v>
+      </c>
+      <c r="D336" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="E336" s="1">
+        <v>5</v>
+      </c>
+      <c r="F336" s="39">
+        <v>15611003</v>
+      </c>
+      <c r="G336" s="39">
+        <v>55</v>
+      </c>
+      <c r="H336" s="1">
+        <v>0</v>
+      </c>
+      <c r="I336" s="1">
+        <v>0</v>
+      </c>
+      <c r="J336" s="1">
+        <v>0</v>
+      </c>
+      <c r="K336" s="1">
+        <v>1</v>
+      </c>
+      <c r="L336" s="1">
+        <v>1</v>
+      </c>
+      <c r="M336" s="1">
+        <v>0</v>
+      </c>
+      <c r="N336" s="1">
+        <v>0</v>
+      </c>
+      <c r="O336" s="1">
+        <v>1</v>
+      </c>
+      <c r="P336" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q336" s="1">
+        <v>1</v>
+      </c>
+      <c r="R336" s="1">
+        <v>0</v>
+      </c>
+      <c r="S336" s="1">
+        <v>0</v>
+      </c>
+      <c r="T336" s="1">
+        <v>0</v>
+      </c>
+      <c r="U336" s="1">
+        <v>0</v>
+      </c>
+      <c r="V336" s="1">
+        <v>1</v>
+      </c>
+      <c r="W336" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="X336" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="337" spans="5:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" spans="5:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" spans="5:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" spans="5:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" spans="5:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" spans="5:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" spans="5:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" spans="5:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" spans="5:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" spans="5:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" spans="5:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" spans="5:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" spans="5:9" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="350" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E350" s="2"/>
       <c r="G350" s="2"/>
@@ -28032,12 +29678,6 @@
       <c r="G1079" s="2"/>
       <c r="H1079" s="2"/>
       <c r="I1079" s="2"/>
-    </row>
-    <row r="1080" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E1080" s="2"/>
-      <c r="G1080" s="2"/>
-      <c r="H1080" s="2"/>
-      <c r="I1080" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6538A3B-C20E-4CCD-A306-A3E8D28DB9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CABC69-1978-4BEF-ABB1-FF37EC5620E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipMakeProto" sheetId="1" r:id="rId1"/>
@@ -414,12 +414,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="W3" authorId="0" shapeId="0" xr:uid="{182E236E-E91D-45CB-83A1-1D3448F70A2B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单位:秒  86400 一天</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="614">
   <si>
     <t>#</t>
   </si>
@@ -2354,6 +2380,18 @@
   </si>
   <si>
     <t>10020001;300@10025010;300@10010085;3000@10025008;20@10025009;10@10000143;70</t>
+  </si>
+  <si>
+    <t>制造冷却时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeTime</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3041,11 +3079,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X1079"/>
+  <dimension ref="C1:Y1079"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W318" sqref="W318"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3069,20 +3107,20 @@
     <col min="19" max="19" width="13.25" style="2" customWidth="1"/>
     <col min="20" max="20" width="13" style="2" customWidth="1"/>
     <col min="21" max="21" width="17.875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="21.375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="21" style="2" customWidth="1"/>
-    <col min="24" max="24" width="48.25" style="2" customWidth="1"/>
-    <col min="25" max="25" width="13.5" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="2"/>
+    <col min="22" max="23" width="21.375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="21" style="2" customWidth="1"/>
+    <col min="25" max="25" width="48.25" style="2" customWidth="1"/>
+    <col min="26" max="26" width="13.5" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3144,13 +3182,16 @@
         <v>19</v>
       </c>
       <c r="W3" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="X3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3210,13 +3251,16 @@
         <v>33</v>
       </c>
       <c r="W4" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="X4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3276,13 +3320,16 @@
         <v>36</v>
       </c>
       <c r="W5" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="X5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="3:24" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="10">
         <v>10001</v>
       </c>
@@ -3344,11 +3391,14 @@
       <c r="W6" s="13">
         <v>0</v>
       </c>
-      <c r="X6" s="14" t="s">
+      <c r="X6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="3:24" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="10">
         <v>10002</v>
       </c>
@@ -3410,11 +3460,14 @@
       <c r="W7" s="13">
         <v>0</v>
       </c>
-      <c r="X7" s="14" t="s">
+      <c r="X7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="3:24" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="10">
         <v>10003</v>
       </c>
@@ -3476,11 +3529,14 @@
       <c r="W8" s="13">
         <v>0</v>
       </c>
-      <c r="X8" s="14" t="s">
+      <c r="X8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="3:24" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="10">
         <v>10004</v>
       </c>
@@ -3542,11 +3598,14 @@
       <c r="W9" s="13">
         <v>0</v>
       </c>
-      <c r="X9" s="14" t="s">
+      <c r="X9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="14" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="3:24" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="10">
         <v>10005</v>
       </c>
@@ -3608,11 +3667,14 @@
       <c r="W10" s="13">
         <v>0</v>
       </c>
-      <c r="X10" s="14" t="s">
+      <c r="X10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="10">
         <v>10006</v>
       </c>
@@ -3674,11 +3736,14 @@
       <c r="W11" s="13">
         <v>0</v>
       </c>
-      <c r="X11" s="15" t="s">
+      <c r="X11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="10">
         <v>10007</v>
       </c>
@@ -3740,11 +3805,14 @@
       <c r="W12" s="13">
         <v>0</v>
       </c>
-      <c r="X12" s="15" t="s">
+      <c r="X12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="10">
         <v>10008</v>
       </c>
@@ -3806,11 +3874,14 @@
       <c r="W13" s="13">
         <v>0</v>
       </c>
-      <c r="X13" s="15" t="s">
+      <c r="X13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="10">
         <v>10009</v>
       </c>
@@ -3872,11 +3943,14 @@
       <c r="W14" s="13">
         <v>0</v>
       </c>
-      <c r="X14" s="15" t="s">
+      <c r="X14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="10">
         <v>12001</v>
       </c>
@@ -3938,11 +4012,14 @@
       <c r="W15" s="13">
         <v>0</v>
       </c>
-      <c r="X15" s="15" t="s">
+      <c r="X15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="10">
         <v>12002</v>
       </c>
@@ -4004,11 +4081,14 @@
       <c r="W16" s="13">
         <v>0</v>
       </c>
-      <c r="X16" s="15" t="s">
+      <c r="X16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="10">
         <v>12003</v>
       </c>
@@ -4070,11 +4150,14 @@
       <c r="W17" s="13">
         <v>0</v>
       </c>
-      <c r="X17" s="15" t="s">
+      <c r="X17" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="10">
         <v>12004</v>
       </c>
@@ -4136,11 +4219,14 @@
       <c r="W18" s="13">
         <v>0</v>
       </c>
-      <c r="X18" s="15" t="s">
+      <c r="X18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="19" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="10">
         <v>12005</v>
       </c>
@@ -4202,11 +4288,14 @@
       <c r="W19" s="13">
         <v>0</v>
       </c>
-      <c r="X19" s="15" t="s">
+      <c r="X19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="15" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="10">
         <v>12006</v>
       </c>
@@ -4268,11 +4357,14 @@
       <c r="W20" s="13">
         <v>0</v>
       </c>
-      <c r="X20" s="15" t="s">
+      <c r="X20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="10">
         <v>12007</v>
       </c>
@@ -4334,11 +4426,14 @@
       <c r="W21" s="13">
         <v>0</v>
       </c>
-      <c r="X21" s="15" t="s">
+      <c r="X21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="10">
         <v>12008</v>
       </c>
@@ -4400,11 +4495,14 @@
       <c r="W22" s="13">
         <v>0</v>
       </c>
-      <c r="X22" s="15" t="s">
+      <c r="X22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="10">
         <v>12009</v>
       </c>
@@ -4466,11 +4564,14 @@
       <c r="W23" s="13">
         <v>0</v>
       </c>
-      <c r="X23" s="15" t="s">
+      <c r="X23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="10">
         <v>12010</v>
       </c>
@@ -4532,11 +4633,14 @@
       <c r="W24" s="13">
         <v>0</v>
       </c>
-      <c r="X24" s="15" t="s">
+      <c r="X24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="10">
         <v>12011</v>
       </c>
@@ -4598,11 +4702,14 @@
       <c r="W25" s="13">
         <v>0</v>
       </c>
-      <c r="X25" s="15" t="s">
+      <c r="X25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="10">
         <v>12012</v>
       </c>
@@ -4664,11 +4771,14 @@
       <c r="W26" s="13">
         <v>0</v>
       </c>
-      <c r="X26" s="15" t="s">
+      <c r="X26" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="10">
         <v>13001</v>
       </c>
@@ -4730,11 +4840,14 @@
       <c r="W27" s="13">
         <v>0</v>
       </c>
-      <c r="X27" s="15" t="s">
+      <c r="X27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="10">
         <v>13002</v>
       </c>
@@ -4796,11 +4909,14 @@
       <c r="W28" s="13">
         <v>0</v>
       </c>
-      <c r="X28" s="15" t="s">
+      <c r="X28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="10">
         <v>13003</v>
       </c>
@@ -4862,11 +4978,14 @@
       <c r="W29" s="13">
         <v>0</v>
       </c>
-      <c r="X29" s="15" t="s">
+      <c r="X29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="10">
         <v>13004</v>
       </c>
@@ -4928,11 +5047,14 @@
       <c r="W30" s="13">
         <v>0</v>
       </c>
-      <c r="X30" s="15" t="s">
+      <c r="X30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="10">
         <v>13005</v>
       </c>
@@ -4994,11 +5116,14 @@
       <c r="W31" s="13">
         <v>0</v>
       </c>
-      <c r="X31" s="15" t="s">
+      <c r="X31" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="10">
         <v>13006</v>
       </c>
@@ -5060,11 +5185,14 @@
       <c r="W32" s="13">
         <v>0</v>
       </c>
-      <c r="X32" s="15" t="s">
+      <c r="X32" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="10">
         <v>13007</v>
       </c>
@@ -5126,11 +5254,14 @@
       <c r="W33" s="13">
         <v>0</v>
       </c>
-      <c r="X33" s="15" t="s">
+      <c r="X33" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="10">
         <v>13008</v>
       </c>
@@ -5192,11 +5323,14 @@
       <c r="W34" s="13">
         <v>0</v>
       </c>
-      <c r="X34" s="15" t="s">
+      <c r="X34" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="10">
         <v>13009</v>
       </c>
@@ -5258,11 +5392,14 @@
       <c r="W35" s="13">
         <v>0</v>
       </c>
-      <c r="X35" s="15" t="s">
+      <c r="X35" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="10">
         <v>13010</v>
       </c>
@@ -5324,11 +5461,14 @@
       <c r="W36" s="13">
         <v>0</v>
       </c>
-      <c r="X36" s="15" t="s">
+      <c r="X36" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="10">
         <v>13011</v>
       </c>
@@ -5390,11 +5530,14 @@
       <c r="W37" s="13">
         <v>0</v>
       </c>
-      <c r="X37" s="15" t="s">
+      <c r="X37" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="10">
         <v>14001</v>
       </c>
@@ -5456,11 +5599,14 @@
       <c r="W38" s="13">
         <v>0</v>
       </c>
-      <c r="X38" s="15" t="s">
+      <c r="X38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="10">
         <v>14002</v>
       </c>
@@ -5522,11 +5668,14 @@
       <c r="W39" s="13">
         <v>0</v>
       </c>
-      <c r="X39" s="15" t="s">
+      <c r="X39" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="10">
         <v>14003</v>
       </c>
@@ -5588,11 +5737,14 @@
       <c r="W40" s="13">
         <v>0</v>
       </c>
-      <c r="X40" s="15" t="s">
+      <c r="X40" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="10">
         <v>14004</v>
       </c>
@@ -5654,11 +5806,14 @@
       <c r="W41" s="13">
         <v>0</v>
       </c>
-      <c r="X41" s="15" t="s">
+      <c r="X41" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="10">
         <v>14005</v>
       </c>
@@ -5720,11 +5875,14 @@
       <c r="W42" s="13">
         <v>0</v>
       </c>
-      <c r="X42" s="15" t="s">
+      <c r="X42" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="10">
         <v>14006</v>
       </c>
@@ -5786,11 +5944,14 @@
       <c r="W43" s="13">
         <v>0</v>
       </c>
-      <c r="X43" s="15" t="s">
+      <c r="X43" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="44" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="10">
         <v>14007</v>
       </c>
@@ -5852,11 +6013,14 @@
       <c r="W44" s="13">
         <v>0</v>
       </c>
-      <c r="X44" s="15" t="s">
+      <c r="X44" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="10">
         <v>14008</v>
       </c>
@@ -5918,11 +6082,14 @@
       <c r="W45" s="13">
         <v>0</v>
       </c>
-      <c r="X45" s="15" t="s">
+      <c r="X45" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="10">
         <v>14009</v>
       </c>
@@ -5984,11 +6151,14 @@
       <c r="W46" s="13">
         <v>0</v>
       </c>
-      <c r="X46" s="15" t="s">
+      <c r="X46" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="15" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="10">
         <v>14010</v>
       </c>
@@ -6050,11 +6220,14 @@
       <c r="W47" s="13">
         <v>0</v>
       </c>
-      <c r="X47" s="15" t="s">
+      <c r="X47" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="15" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="10">
         <v>14011</v>
       </c>
@@ -6116,11 +6289,14 @@
       <c r="W48" s="13">
         <v>0</v>
       </c>
-      <c r="X48" s="15" t="s">
+      <c r="X48" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="10">
         <v>14012</v>
       </c>
@@ -6182,11 +6358,14 @@
       <c r="W49" s="13">
         <v>0</v>
       </c>
-      <c r="X49" s="15" t="s">
+      <c r="X49" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="15" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="10">
         <v>14013</v>
       </c>
@@ -6248,11 +6427,14 @@
       <c r="W50" s="13">
         <v>0</v>
       </c>
-      <c r="X50" s="15" t="s">
+      <c r="X50" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="15" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="10">
         <v>14014</v>
       </c>
@@ -6314,11 +6496,14 @@
       <c r="W51" s="13">
         <v>0</v>
       </c>
-      <c r="X51" s="15" t="s">
+      <c r="X51" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="15" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="10">
         <v>15001</v>
       </c>
@@ -6380,11 +6565,14 @@
       <c r="W52" s="13">
         <v>0</v>
       </c>
-      <c r="X52" s="15" t="s">
+      <c r="X52" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="10">
         <v>15002</v>
       </c>
@@ -6446,11 +6634,14 @@
       <c r="W53" s="13">
         <v>0</v>
       </c>
-      <c r="X53" s="15" t="s">
+      <c r="X53" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="10">
         <v>15003</v>
       </c>
@@ -6512,11 +6703,14 @@
       <c r="W54" s="13">
         <v>0</v>
       </c>
-      <c r="X54" s="15" t="s">
+      <c r="X54" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="10">
         <v>15004</v>
       </c>
@@ -6578,11 +6772,14 @@
       <c r="W55" s="13">
         <v>0</v>
       </c>
-      <c r="X55" s="15" t="s">
+      <c r="X55" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="10">
         <v>15005</v>
       </c>
@@ -6644,11 +6841,14 @@
       <c r="W56" s="13">
         <v>0</v>
       </c>
-      <c r="X56" s="15" t="s">
+      <c r="X56" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="10">
         <v>15006</v>
       </c>
@@ -6710,11 +6910,14 @@
       <c r="W57" s="13">
         <v>0</v>
       </c>
-      <c r="X57" s="15" t="s">
+      <c r="X57" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="10">
         <v>15007</v>
       </c>
@@ -6776,11 +6979,14 @@
       <c r="W58" s="13">
         <v>0</v>
       </c>
-      <c r="X58" s="15" t="s">
+      <c r="X58" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="10">
         <v>15008</v>
       </c>
@@ -6842,11 +7048,14 @@
       <c r="W59" s="13">
         <v>0</v>
       </c>
-      <c r="X59" s="15" t="s">
+      <c r="X59" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="10">
         <v>15021</v>
       </c>
@@ -6908,11 +7117,14 @@
       <c r="W60" s="13">
         <v>0</v>
       </c>
-      <c r="X60" s="15" t="s">
+      <c r="X60" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="10">
         <v>15022</v>
       </c>
@@ -6974,11 +7186,14 @@
       <c r="W61" s="13">
         <v>0</v>
       </c>
-      <c r="X61" s="15" t="s">
+      <c r="X61" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="10">
         <v>15023</v>
       </c>
@@ -7040,11 +7255,14 @@
       <c r="W62" s="13">
         <v>0</v>
       </c>
-      <c r="X62" s="15" t="s">
+      <c r="X62" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="10">
         <v>15024</v>
       </c>
@@ -7106,11 +7324,14 @@
       <c r="W63" s="13">
         <v>0</v>
       </c>
-      <c r="X63" s="15" t="s">
+      <c r="X63" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="15" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="10">
         <v>15025</v>
       </c>
@@ -7172,11 +7393,14 @@
       <c r="W64" s="13">
         <v>0</v>
       </c>
-      <c r="X64" s="15" t="s">
+      <c r="X64" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="10">
         <v>15026</v>
       </c>
@@ -7238,11 +7462,14 @@
       <c r="W65" s="13">
         <v>0</v>
       </c>
-      <c r="X65" s="15" t="s">
+      <c r="X65" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="66" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="10">
         <v>15027</v>
       </c>
@@ -7304,11 +7531,14 @@
       <c r="W66" s="13">
         <v>0</v>
       </c>
-      <c r="X66" s="15" t="s">
+      <c r="X66" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="67" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="10">
         <v>15028</v>
       </c>
@@ -7370,11 +7600,14 @@
       <c r="W67" s="13">
         <v>0</v>
       </c>
-      <c r="X67" s="15" t="s">
+      <c r="X67" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="10">
         <v>15029</v>
       </c>
@@ -7436,11 +7669,14 @@
       <c r="W68" s="13">
         <v>0</v>
       </c>
-      <c r="X68" s="15" t="s">
+      <c r="X68" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="69" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="10">
         <v>15030</v>
       </c>
@@ -7502,11 +7738,14 @@
       <c r="W69" s="13">
         <v>0</v>
       </c>
-      <c r="X69" s="15" t="s">
+      <c r="X69" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="10">
         <v>15031</v>
       </c>
@@ -7568,11 +7807,14 @@
       <c r="W70" s="13">
         <v>0</v>
       </c>
-      <c r="X70" s="15" t="s">
+      <c r="X70" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="10">
         <v>15032</v>
       </c>
@@ -7634,11 +7876,14 @@
       <c r="W71" s="13">
         <v>0</v>
       </c>
-      <c r="X71" s="15" t="s">
+      <c r="X71" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C72" s="18">
         <v>100101</v>
       </c>
@@ -7697,14 +7942,17 @@
       <c r="V72" s="20">
         <v>1</v>
       </c>
-      <c r="W72" s="20">
-        <v>0</v>
-      </c>
-      <c r="X72" s="21" t="s">
+      <c r="W72" s="13">
+        <v>0</v>
+      </c>
+      <c r="X72" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="21" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="73" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C73" s="18">
         <v>100102</v>
       </c>
@@ -7763,14 +8011,17 @@
       <c r="V73" s="20">
         <v>1</v>
       </c>
-      <c r="W73" s="20">
-        <v>0</v>
-      </c>
-      <c r="X73" s="21" t="s">
+      <c r="W73" s="13">
+        <v>0</v>
+      </c>
+      <c r="X73" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="21" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="74" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C74" s="18">
         <v>100103</v>
       </c>
@@ -7829,14 +8080,17 @@
       <c r="V74" s="20">
         <v>1</v>
       </c>
-      <c r="W74" s="20">
-        <v>0</v>
-      </c>
-      <c r="X74" s="21" t="s">
+      <c r="W74" s="13">
+        <v>0</v>
+      </c>
+      <c r="X74" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="21" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="75" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C75" s="18">
         <v>100104</v>
       </c>
@@ -7895,14 +8149,17 @@
       <c r="V75" s="20">
         <v>1</v>
       </c>
-      <c r="W75" s="20">
-        <v>0</v>
-      </c>
-      <c r="X75" s="21" t="s">
+      <c r="W75" s="13">
+        <v>0</v>
+      </c>
+      <c r="X75" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="21" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="76" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C76" s="18">
         <v>100105</v>
       </c>
@@ -7961,14 +8218,17 @@
       <c r="V76" s="20">
         <v>1</v>
       </c>
-      <c r="W76" s="20">
-        <v>0</v>
-      </c>
-      <c r="X76" s="22" t="s">
+      <c r="W76" s="13">
+        <v>0</v>
+      </c>
+      <c r="X76" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="22" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="77" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C77" s="18">
         <v>100106</v>
       </c>
@@ -8027,14 +8287,17 @@
       <c r="V77" s="20">
         <v>1</v>
       </c>
-      <c r="W77" s="20">
-        <v>0</v>
-      </c>
-      <c r="X77" s="22" t="s">
+      <c r="W77" s="13">
+        <v>0</v>
+      </c>
+      <c r="X77" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="22" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="78" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C78" s="18">
         <v>100107</v>
       </c>
@@ -8093,14 +8356,17 @@
       <c r="V78" s="20">
         <v>1</v>
       </c>
-      <c r="W78" s="20">
-        <v>0</v>
-      </c>
-      <c r="X78" s="22" t="s">
+      <c r="W78" s="13">
+        <v>0</v>
+      </c>
+      <c r="X78" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="22" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="79" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C79" s="18">
         <v>100108</v>
       </c>
@@ -8159,14 +8425,17 @@
       <c r="V79" s="20">
         <v>1</v>
       </c>
-      <c r="W79" s="20">
-        <v>0</v>
-      </c>
-      <c r="X79" s="22" t="s">
+      <c r="W79" s="13">
+        <v>0</v>
+      </c>
+      <c r="X79" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="22" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="80" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C80" s="18">
         <v>100109</v>
       </c>
@@ -8225,14 +8494,17 @@
       <c r="V80" s="20">
         <v>1</v>
       </c>
-      <c r="W80" s="20">
-        <v>0</v>
-      </c>
-      <c r="X80" s="22" t="s">
+      <c r="W80" s="13">
+        <v>0</v>
+      </c>
+      <c r="X80" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="22" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="81" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C81" s="18">
         <v>100110</v>
       </c>
@@ -8291,14 +8563,17 @@
       <c r="V81" s="20">
         <v>1</v>
       </c>
-      <c r="W81" s="20">
-        <v>0</v>
-      </c>
-      <c r="X81" s="22" t="s">
+      <c r="W81" s="13">
+        <v>0</v>
+      </c>
+      <c r="X81" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="22" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C82" s="18">
         <v>100111</v>
       </c>
@@ -8357,14 +8632,17 @@
       <c r="V82" s="20">
         <v>1</v>
       </c>
-      <c r="W82" s="20">
-        <v>0</v>
-      </c>
-      <c r="X82" s="22" t="s">
+      <c r="W82" s="13">
+        <v>0</v>
+      </c>
+      <c r="X82" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="22" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="83" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C83" s="18">
         <v>100112</v>
       </c>
@@ -8423,14 +8701,17 @@
       <c r="V83" s="20">
         <v>1</v>
       </c>
-      <c r="W83" s="20">
-        <v>0</v>
-      </c>
-      <c r="X83" s="22" t="s">
+      <c r="W83" s="13">
+        <v>0</v>
+      </c>
+      <c r="X83" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="22" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="84" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C84" s="18">
         <v>100113</v>
       </c>
@@ -8489,14 +8770,17 @@
       <c r="V84" s="20">
         <v>1</v>
       </c>
-      <c r="W84" s="20">
-        <v>0</v>
-      </c>
-      <c r="X84" s="22" t="s">
+      <c r="W84" s="13">
+        <v>0</v>
+      </c>
+      <c r="X84" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="22" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="85" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C85" s="18">
         <v>100114</v>
       </c>
@@ -8555,14 +8839,17 @@
       <c r="V85" s="20">
         <v>1</v>
       </c>
-      <c r="W85" s="20">
-        <v>0</v>
-      </c>
-      <c r="X85" s="22" t="s">
+      <c r="W85" s="13">
+        <v>0</v>
+      </c>
+      <c r="X85" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="22" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="86" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C86" s="18">
         <v>100115</v>
       </c>
@@ -8621,14 +8908,17 @@
       <c r="V86" s="20">
         <v>1</v>
       </c>
-      <c r="W86" s="20">
-        <v>0</v>
-      </c>
-      <c r="X86" s="22" t="s">
+      <c r="W86" s="13">
+        <v>0</v>
+      </c>
+      <c r="X86" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="22" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="87" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C87" s="18">
         <v>100116</v>
       </c>
@@ -8687,14 +8977,17 @@
       <c r="V87" s="20">
         <v>1</v>
       </c>
-      <c r="W87" s="20">
-        <v>0</v>
-      </c>
-      <c r="X87" s="22" t="s">
+      <c r="W87" s="13">
+        <v>0</v>
+      </c>
+      <c r="X87" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="22" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="88" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C88" s="18">
         <v>100117</v>
       </c>
@@ -8753,14 +9046,17 @@
       <c r="V88" s="20">
         <v>1</v>
       </c>
-      <c r="W88" s="20">
-        <v>0</v>
-      </c>
-      <c r="X88" s="22" t="s">
+      <c r="W88" s="13">
+        <v>0</v>
+      </c>
+      <c r="X88" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="22" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="89" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C89" s="18">
         <v>100118</v>
       </c>
@@ -8819,14 +9115,17 @@
       <c r="V89" s="20">
         <v>1</v>
       </c>
-      <c r="W89" s="20">
-        <v>0</v>
-      </c>
-      <c r="X89" s="22" t="s">
+      <c r="W89" s="13">
+        <v>0</v>
+      </c>
+      <c r="X89" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="22" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="90" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C90" s="18">
         <v>100119</v>
       </c>
@@ -8885,14 +9184,17 @@
       <c r="V90" s="20">
         <v>1</v>
       </c>
-      <c r="W90" s="20">
-        <v>0</v>
-      </c>
-      <c r="X90" s="22" t="s">
+      <c r="W90" s="13">
+        <v>0</v>
+      </c>
+      <c r="X90" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="22" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="91" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C91" s="18">
         <v>100120</v>
       </c>
@@ -8951,14 +9253,17 @@
       <c r="V91" s="20">
         <v>1</v>
       </c>
-      <c r="W91" s="20">
-        <v>0</v>
-      </c>
-      <c r="X91" s="22" t="s">
+      <c r="W91" s="13">
+        <v>0</v>
+      </c>
+      <c r="X91" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="22" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="92" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C92" s="18">
         <v>100121</v>
       </c>
@@ -9017,14 +9322,17 @@
       <c r="V92" s="20">
         <v>1</v>
       </c>
-      <c r="W92" s="20">
-        <v>0</v>
-      </c>
-      <c r="X92" s="22" t="s">
+      <c r="W92" s="13">
+        <v>0</v>
+      </c>
+      <c r="X92" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="22" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="93" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C93" s="18">
         <v>100122</v>
       </c>
@@ -9083,14 +9391,17 @@
       <c r="V93" s="20">
         <v>1</v>
       </c>
-      <c r="W93" s="20">
-        <v>0</v>
-      </c>
-      <c r="X93" s="23" t="s">
+      <c r="W93" s="13">
+        <v>0</v>
+      </c>
+      <c r="X93" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="23" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C94" s="18">
         <v>100123</v>
       </c>
@@ -9149,14 +9460,17 @@
       <c r="V94" s="20">
         <v>1</v>
       </c>
-      <c r="W94" s="20">
-        <v>0</v>
-      </c>
-      <c r="X94" s="23" t="s">
+      <c r="W94" s="13">
+        <v>0</v>
+      </c>
+      <c r="X94" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="23" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="95" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C95" s="18">
         <v>100124</v>
       </c>
@@ -9215,14 +9529,17 @@
       <c r="V95" s="20">
         <v>1</v>
       </c>
-      <c r="W95" s="20">
-        <v>0</v>
-      </c>
-      <c r="X95" s="23" t="s">
+      <c r="W95" s="13">
+        <v>0</v>
+      </c>
+      <c r="X95" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="23" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="96" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C96" s="18">
         <v>100125</v>
       </c>
@@ -9281,14 +9598,17 @@
       <c r="V96" s="20">
         <v>1</v>
       </c>
-      <c r="W96" s="20">
-        <v>0</v>
-      </c>
-      <c r="X96" s="22" t="s">
+      <c r="W96" s="13">
+        <v>0</v>
+      </c>
+      <c r="X96" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="22" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="97" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C97" s="18">
         <v>100126</v>
       </c>
@@ -9347,14 +9667,17 @@
       <c r="V97" s="20">
         <v>1</v>
       </c>
-      <c r="W97" s="20">
-        <v>0</v>
-      </c>
-      <c r="X97" s="22" t="s">
+      <c r="W97" s="13">
+        <v>0</v>
+      </c>
+      <c r="X97" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="22" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="98" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C98" s="36">
         <v>100151</v>
       </c>
@@ -9413,14 +9736,17 @@
       <c r="V98" s="32">
         <v>1</v>
       </c>
-      <c r="W98" s="32">
-        <v>0</v>
-      </c>
-      <c r="X98" s="34" t="s">
+      <c r="W98" s="13">
+        <v>0</v>
+      </c>
+      <c r="X98" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="34" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C99" s="36">
         <v>100152</v>
       </c>
@@ -9479,14 +9805,17 @@
       <c r="V99" s="32">
         <v>1</v>
       </c>
-      <c r="W99" s="32">
-        <v>0</v>
-      </c>
-      <c r="X99" s="34" t="s">
+      <c r="W99" s="13">
+        <v>0</v>
+      </c>
+      <c r="X99" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="34" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="100" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C100" s="36">
         <v>100153</v>
       </c>
@@ -9545,14 +9874,17 @@
       <c r="V100" s="32">
         <v>1</v>
       </c>
-      <c r="W100" s="32">
-        <v>0</v>
-      </c>
-      <c r="X100" s="34" t="s">
+      <c r="W100" s="13">
+        <v>0</v>
+      </c>
+      <c r="X100" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="34" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="101" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C101" s="36">
         <v>100154</v>
       </c>
@@ -9611,14 +9943,17 @@
       <c r="V101" s="32">
         <v>1</v>
       </c>
-      <c r="W101" s="32">
-        <v>0</v>
-      </c>
-      <c r="X101" s="34" t="s">
+      <c r="W101" s="13">
+        <v>0</v>
+      </c>
+      <c r="X101" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="34" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="102" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C102" s="36">
         <v>100155</v>
       </c>
@@ -9677,14 +10012,17 @@
       <c r="V102" s="32">
         <v>1</v>
       </c>
-      <c r="W102" s="32">
-        <v>0</v>
-      </c>
-      <c r="X102" s="34" t="s">
+      <c r="W102" s="13">
+        <v>0</v>
+      </c>
+      <c r="X102" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="34" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="103" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C103" s="36">
         <v>100156</v>
       </c>
@@ -9743,14 +10081,17 @@
       <c r="V103" s="32">
         <v>1</v>
       </c>
-      <c r="W103" s="32">
-        <v>0</v>
-      </c>
-      <c r="X103" s="34" t="s">
+      <c r="W103" s="13">
+        <v>0</v>
+      </c>
+      <c r="X103" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="34" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="104" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C104" s="36">
         <v>100157</v>
       </c>
@@ -9809,14 +10150,17 @@
       <c r="V104" s="32">
         <v>1</v>
       </c>
-      <c r="W104" s="32">
-        <v>0</v>
-      </c>
-      <c r="X104" s="34" t="s">
+      <c r="W104" s="13">
+        <v>0</v>
+      </c>
+      <c r="X104" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="34" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="105" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C105" s="36">
         <v>100158</v>
       </c>
@@ -9875,14 +10219,17 @@
       <c r="V105" s="32">
         <v>1</v>
       </c>
-      <c r="W105" s="32">
-        <v>0</v>
-      </c>
-      <c r="X105" s="34" t="s">
+      <c r="W105" s="13">
+        <v>0</v>
+      </c>
+      <c r="X105" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="34" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="106" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C106" s="18">
         <v>100201</v>
       </c>
@@ -9941,14 +10288,17 @@
       <c r="V106" s="20">
         <v>1</v>
       </c>
-      <c r="W106" s="20">
-        <v>0</v>
-      </c>
-      <c r="X106" s="23" t="s">
+      <c r="W106" s="13">
+        <v>0</v>
+      </c>
+      <c r="X106" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="23" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="107" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C107" s="18">
         <v>100202</v>
       </c>
@@ -10007,14 +10357,17 @@
       <c r="V107" s="20">
         <v>1</v>
       </c>
-      <c r="W107" s="20">
-        <v>0</v>
-      </c>
-      <c r="X107" s="23" t="s">
+      <c r="W107" s="13">
+        <v>0</v>
+      </c>
+      <c r="X107" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="23" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="108" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C108" s="18">
         <v>100203</v>
       </c>
@@ -10073,14 +10426,17 @@
       <c r="V108" s="20">
         <v>1</v>
       </c>
-      <c r="W108" s="20">
-        <v>0</v>
-      </c>
-      <c r="X108" s="23" t="s">
+      <c r="W108" s="13">
+        <v>0</v>
+      </c>
+      <c r="X108" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="23" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="109" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C109" s="18">
         <v>100204</v>
       </c>
@@ -10139,14 +10495,17 @@
       <c r="V109" s="20">
         <v>1</v>
       </c>
-      <c r="W109" s="20">
-        <v>0</v>
-      </c>
-      <c r="X109" s="23" t="s">
+      <c r="W109" s="13">
+        <v>0</v>
+      </c>
+      <c r="X109" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="23" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="110" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C110" s="18">
         <v>100205</v>
       </c>
@@ -10205,14 +10564,17 @@
       <c r="V110" s="20">
         <v>1</v>
       </c>
-      <c r="W110" s="20">
-        <v>0</v>
-      </c>
-      <c r="X110" s="23" t="s">
+      <c r="W110" s="13">
+        <v>0</v>
+      </c>
+      <c r="X110" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="23" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="111" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C111" s="18">
         <v>100206</v>
       </c>
@@ -10271,14 +10633,17 @@
       <c r="V111" s="20">
         <v>1</v>
       </c>
-      <c r="W111" s="20">
-        <v>0</v>
-      </c>
-      <c r="X111" s="23" t="s">
+      <c r="W111" s="13">
+        <v>0</v>
+      </c>
+      <c r="X111" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="23" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="112" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C112" s="18">
         <v>100207</v>
       </c>
@@ -10337,14 +10702,17 @@
       <c r="V112" s="20">
         <v>1</v>
       </c>
-      <c r="W112" s="20">
-        <v>0</v>
-      </c>
-      <c r="X112" s="23" t="s">
+      <c r="W112" s="13">
+        <v>0</v>
+      </c>
+      <c r="X112" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="23" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="113" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C113" s="18">
         <v>100208</v>
       </c>
@@ -10403,14 +10771,17 @@
       <c r="V113" s="20">
         <v>1</v>
       </c>
-      <c r="W113" s="20">
-        <v>0</v>
-      </c>
-      <c r="X113" s="23" t="s">
+      <c r="W113" s="13">
+        <v>0</v>
+      </c>
+      <c r="X113" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="23" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="114" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C114" s="18">
         <v>100209</v>
       </c>
@@ -10469,14 +10840,17 @@
       <c r="V114" s="20">
         <v>1</v>
       </c>
-      <c r="W114" s="20">
-        <v>0</v>
-      </c>
-      <c r="X114" s="23" t="s">
+      <c r="W114" s="13">
+        <v>0</v>
+      </c>
+      <c r="X114" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="23" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="115" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C115" s="18">
         <v>100210</v>
       </c>
@@ -10535,14 +10909,17 @@
       <c r="V115" s="20">
         <v>1</v>
       </c>
-      <c r="W115" s="20">
-        <v>0</v>
-      </c>
-      <c r="X115" s="23" t="s">
+      <c r="W115" s="13">
+        <v>0</v>
+      </c>
+      <c r="X115" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="23" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="116" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C116" s="18">
         <v>100211</v>
       </c>
@@ -10601,14 +10978,17 @@
       <c r="V116" s="20">
         <v>1</v>
       </c>
-      <c r="W116" s="20">
-        <v>0</v>
-      </c>
-      <c r="X116" s="23" t="s">
+      <c r="W116" s="13">
+        <v>0</v>
+      </c>
+      <c r="X116" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y116" s="23" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="117" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C117" s="18">
         <v>100212</v>
       </c>
@@ -10667,14 +11047,17 @@
       <c r="V117" s="20">
         <v>1</v>
       </c>
-      <c r="W117" s="20">
-        <v>0</v>
-      </c>
-      <c r="X117" s="23" t="s">
+      <c r="W117" s="13">
+        <v>0</v>
+      </c>
+      <c r="X117" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y117" s="23" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="118" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C118" s="18">
         <v>100213</v>
       </c>
@@ -10733,14 +11116,17 @@
       <c r="V118" s="20">
         <v>1</v>
       </c>
-      <c r="W118" s="20">
-        <v>0</v>
-      </c>
-      <c r="X118" s="23" t="s">
+      <c r="W118" s="13">
+        <v>0</v>
+      </c>
+      <c r="X118" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y118" s="23" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="119" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C119" s="18">
         <v>100214</v>
       </c>
@@ -10799,14 +11185,17 @@
       <c r="V119" s="20">
         <v>1</v>
       </c>
-      <c r="W119" s="20">
-        <v>0</v>
-      </c>
-      <c r="X119" s="23" t="s">
+      <c r="W119" s="13">
+        <v>0</v>
+      </c>
+      <c r="X119" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y119" s="23" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="120" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C120" s="18">
         <v>100215</v>
       </c>
@@ -10865,14 +11254,17 @@
       <c r="V120" s="20">
         <v>1</v>
       </c>
-      <c r="W120" s="20">
-        <v>0</v>
-      </c>
-      <c r="X120" s="23" t="s">
+      <c r="W120" s="13">
+        <v>0</v>
+      </c>
+      <c r="X120" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y120" s="23" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="121" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C121" s="18">
         <v>100216</v>
       </c>
@@ -10931,14 +11323,17 @@
       <c r="V121" s="20">
         <v>1</v>
       </c>
-      <c r="W121" s="20">
-        <v>0</v>
-      </c>
-      <c r="X121" s="23" t="s">
+      <c r="W121" s="13">
+        <v>0</v>
+      </c>
+      <c r="X121" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y121" s="23" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="122" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C122" s="18">
         <v>100217</v>
       </c>
@@ -10997,14 +11392,17 @@
       <c r="V122" s="20">
         <v>1</v>
       </c>
-      <c r="W122" s="20">
-        <v>0</v>
-      </c>
-      <c r="X122" s="23" t="s">
+      <c r="W122" s="13">
+        <v>0</v>
+      </c>
+      <c r="X122" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y122" s="23" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="123" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C123" s="18">
         <v>100218</v>
       </c>
@@ -11063,14 +11461,17 @@
       <c r="V123" s="20">
         <v>1</v>
       </c>
-      <c r="W123" s="20">
-        <v>0</v>
-      </c>
-      <c r="X123" s="23" t="s">
+      <c r="W123" s="13">
+        <v>0</v>
+      </c>
+      <c r="X123" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y123" s="23" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="124" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C124" s="18">
         <v>100219</v>
       </c>
@@ -11129,14 +11530,17 @@
       <c r="V124" s="20">
         <v>1</v>
       </c>
-      <c r="W124" s="20">
-        <v>0</v>
-      </c>
-      <c r="X124" s="23" t="s">
+      <c r="W124" s="13">
+        <v>0</v>
+      </c>
+      <c r="X124" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y124" s="23" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="125" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C125" s="18">
         <v>100220</v>
       </c>
@@ -11195,14 +11599,17 @@
       <c r="V125" s="20">
         <v>1</v>
       </c>
-      <c r="W125" s="20">
-        <v>0</v>
-      </c>
-      <c r="X125" s="23" t="s">
+      <c r="W125" s="13">
+        <v>0</v>
+      </c>
+      <c r="X125" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y125" s="23" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="126" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C126" s="18">
         <v>100221</v>
       </c>
@@ -11261,14 +11668,17 @@
       <c r="V126" s="20">
         <v>1</v>
       </c>
-      <c r="W126" s="20">
-        <v>0</v>
-      </c>
-      <c r="X126" s="23" t="s">
+      <c r="W126" s="13">
+        <v>0</v>
+      </c>
+      <c r="X126" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y126" s="23" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="127" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C127" s="18">
         <v>100222</v>
       </c>
@@ -11327,14 +11737,17 @@
       <c r="V127" s="20">
         <v>1</v>
       </c>
-      <c r="W127" s="20">
-        <v>0</v>
-      </c>
-      <c r="X127" s="23" t="s">
+      <c r="W127" s="13">
+        <v>0</v>
+      </c>
+      <c r="X127" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y127" s="23" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="128" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C128" s="18">
         <v>100223</v>
       </c>
@@ -11393,14 +11806,17 @@
       <c r="V128" s="20">
         <v>1</v>
       </c>
-      <c r="W128" s="20">
-        <v>0</v>
-      </c>
-      <c r="X128" s="23" t="s">
+      <c r="W128" s="13">
+        <v>0</v>
+      </c>
+      <c r="X128" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="23" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="129" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C129" s="18">
         <v>100224</v>
       </c>
@@ -11459,14 +11875,17 @@
       <c r="V129" s="20">
         <v>1</v>
       </c>
-      <c r="W129" s="20">
-        <v>0</v>
-      </c>
-      <c r="X129" s="23" t="s">
+      <c r="W129" s="13">
+        <v>0</v>
+      </c>
+      <c r="X129" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="23" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="130" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C130" s="18">
         <v>100225</v>
       </c>
@@ -11525,14 +11944,17 @@
       <c r="V130" s="20">
         <v>1</v>
       </c>
-      <c r="W130" s="20">
-        <v>0</v>
-      </c>
-      <c r="X130" s="23" t="s">
+      <c r="W130" s="13">
+        <v>0</v>
+      </c>
+      <c r="X130" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y130" s="23" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="131" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C131" s="18">
         <v>100226</v>
       </c>
@@ -11591,14 +12013,17 @@
       <c r="V131" s="20">
         <v>1</v>
       </c>
-      <c r="W131" s="20">
-        <v>0</v>
-      </c>
-      <c r="X131" s="23" t="s">
+      <c r="W131" s="13">
+        <v>0</v>
+      </c>
+      <c r="X131" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y131" s="23" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="132" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C132" s="37">
         <v>100251</v>
       </c>
@@ -11657,14 +12082,17 @@
       <c r="V132" s="20">
         <v>1</v>
       </c>
-      <c r="W132" s="20">
-        <v>0</v>
-      </c>
-      <c r="X132" s="34" t="s">
+      <c r="W132" s="13">
+        <v>0</v>
+      </c>
+      <c r="X132" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y132" s="34" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="133" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C133" s="37">
         <v>100252</v>
       </c>
@@ -11723,14 +12151,17 @@
       <c r="V133" s="20">
         <v>1</v>
       </c>
-      <c r="W133" s="20">
-        <v>0</v>
-      </c>
-      <c r="X133" s="34" t="s">
+      <c r="W133" s="13">
+        <v>0</v>
+      </c>
+      <c r="X133" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y133" s="34" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="134" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C134" s="37">
         <v>100253</v>
       </c>
@@ -11789,14 +12220,17 @@
       <c r="V134" s="20">
         <v>1</v>
       </c>
-      <c r="W134" s="20">
-        <v>0</v>
-      </c>
-      <c r="X134" s="34" t="s">
+      <c r="W134" s="13">
+        <v>0</v>
+      </c>
+      <c r="X134" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="34" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="135" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C135" s="37">
         <v>100254</v>
       </c>
@@ -11855,14 +12289,17 @@
       <c r="V135" s="20">
         <v>1</v>
       </c>
-      <c r="W135" s="20">
-        <v>0</v>
-      </c>
-      <c r="X135" s="34" t="s">
+      <c r="W135" s="13">
+        <v>0</v>
+      </c>
+      <c r="X135" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="34" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="136" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C136" s="37">
         <v>100255</v>
       </c>
@@ -11921,14 +12358,17 @@
       <c r="V136" s="20">
         <v>1</v>
       </c>
-      <c r="W136" s="20">
-        <v>0</v>
-      </c>
-      <c r="X136" s="34" t="s">
+      <c r="W136" s="13">
+        <v>0</v>
+      </c>
+      <c r="X136" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y136" s="34" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="137" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C137" s="37">
         <v>100256</v>
       </c>
@@ -11987,14 +12427,17 @@
       <c r="V137" s="20">
         <v>1</v>
       </c>
-      <c r="W137" s="20">
-        <v>0</v>
-      </c>
-      <c r="X137" s="34" t="s">
+      <c r="W137" s="13">
+        <v>0</v>
+      </c>
+      <c r="X137" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y137" s="34" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="138" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C138" s="37">
         <v>100257</v>
       </c>
@@ -12053,14 +12496,17 @@
       <c r="V138" s="20">
         <v>1</v>
       </c>
-      <c r="W138" s="20">
-        <v>0</v>
-      </c>
-      <c r="X138" s="34" t="s">
+      <c r="W138" s="13">
+        <v>0</v>
+      </c>
+      <c r="X138" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y138" s="34" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="139" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C139" s="37">
         <v>100258</v>
       </c>
@@ -12119,14 +12565,17 @@
       <c r="V139" s="20">
         <v>1</v>
       </c>
-      <c r="W139" s="20">
-        <v>0</v>
-      </c>
-      <c r="X139" s="34" t="s">
+      <c r="W139" s="13">
+        <v>0</v>
+      </c>
+      <c r="X139" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y139" s="34" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="140" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C140" s="18">
         <v>100301</v>
       </c>
@@ -12185,14 +12634,17 @@
       <c r="V140" s="20">
         <v>1</v>
       </c>
-      <c r="W140" s="20">
-        <v>0</v>
-      </c>
-      <c r="X140" s="23" t="s">
+      <c r="W140" s="13">
+        <v>0</v>
+      </c>
+      <c r="X140" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y140" s="23" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="141" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C141" s="18">
         <v>100302</v>
       </c>
@@ -12251,14 +12703,17 @@
       <c r="V141" s="20">
         <v>1</v>
       </c>
-      <c r="W141" s="20">
-        <v>0</v>
-      </c>
-      <c r="X141" s="23" t="s">
+      <c r="W141" s="13">
+        <v>0</v>
+      </c>
+      <c r="X141" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y141" s="23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="142" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C142" s="18">
         <v>100303</v>
       </c>
@@ -12317,14 +12772,17 @@
       <c r="V142" s="20">
         <v>1</v>
       </c>
-      <c r="W142" s="20">
-        <v>0</v>
-      </c>
-      <c r="X142" s="23" t="s">
+      <c r="W142" s="13">
+        <v>0</v>
+      </c>
+      <c r="X142" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y142" s="23" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="143" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C143" s="18">
         <v>100304</v>
       </c>
@@ -12383,14 +12841,17 @@
       <c r="V143" s="20">
         <v>1</v>
       </c>
-      <c r="W143" s="20">
-        <v>0</v>
-      </c>
-      <c r="X143" s="23" t="s">
+      <c r="W143" s="13">
+        <v>0</v>
+      </c>
+      <c r="X143" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y143" s="23" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="144" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C144" s="18">
         <v>100305</v>
       </c>
@@ -12449,14 +12910,17 @@
       <c r="V144" s="20">
         <v>1</v>
       </c>
-      <c r="W144" s="20">
-        <v>0</v>
-      </c>
-      <c r="X144" s="23" t="s">
+      <c r="W144" s="13">
+        <v>0</v>
+      </c>
+      <c r="X144" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y144" s="23" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="145" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C145" s="18">
         <v>100306</v>
       </c>
@@ -12515,14 +12979,17 @@
       <c r="V145" s="20">
         <v>1</v>
       </c>
-      <c r="W145" s="20">
-        <v>0</v>
-      </c>
-      <c r="X145" s="23" t="s">
+      <c r="W145" s="13">
+        <v>0</v>
+      </c>
+      <c r="X145" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y145" s="23" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="146" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C146" s="18">
         <v>100307</v>
       </c>
@@ -12581,14 +13048,17 @@
       <c r="V146" s="20">
         <v>1</v>
       </c>
-      <c r="W146" s="20">
-        <v>0</v>
-      </c>
-      <c r="X146" s="23" t="s">
+      <c r="W146" s="13">
+        <v>0</v>
+      </c>
+      <c r="X146" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y146" s="23" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="147" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C147" s="18">
         <v>100308</v>
       </c>
@@ -12647,14 +13117,17 @@
       <c r="V147" s="20">
         <v>1</v>
       </c>
-      <c r="W147" s="20">
-        <v>0</v>
-      </c>
-      <c r="X147" s="23" t="s">
+      <c r="W147" s="13">
+        <v>0</v>
+      </c>
+      <c r="X147" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y147" s="23" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="148" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C148" s="18">
         <v>100309</v>
       </c>
@@ -12713,14 +13186,17 @@
       <c r="V148" s="20">
         <v>1</v>
       </c>
-      <c r="W148" s="20">
-        <v>0</v>
-      </c>
-      <c r="X148" s="23" t="s">
+      <c r="W148" s="13">
+        <v>0</v>
+      </c>
+      <c r="X148" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y148" s="23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="149" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C149" s="18">
         <v>100310</v>
       </c>
@@ -12779,14 +13255,17 @@
       <c r="V149" s="20">
         <v>1</v>
       </c>
-      <c r="W149" s="20">
-        <v>0</v>
-      </c>
-      <c r="X149" s="23" t="s">
+      <c r="W149" s="13">
+        <v>0</v>
+      </c>
+      <c r="X149" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y149" s="23" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="150" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C150" s="18">
         <v>100311</v>
       </c>
@@ -12845,14 +13324,17 @@
       <c r="V150" s="20">
         <v>1</v>
       </c>
-      <c r="W150" s="20">
-        <v>0</v>
-      </c>
-      <c r="X150" s="23" t="s">
+      <c r="W150" s="13">
+        <v>0</v>
+      </c>
+      <c r="X150" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y150" s="23" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="151" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C151" s="18">
         <v>100312</v>
       </c>
@@ -12911,14 +13393,17 @@
       <c r="V151" s="20">
         <v>1</v>
       </c>
-      <c r="W151" s="20">
-        <v>0</v>
-      </c>
-      <c r="X151" s="23" t="s">
+      <c r="W151" s="13">
+        <v>0</v>
+      </c>
+      <c r="X151" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y151" s="23" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="152" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C152" s="18">
         <v>100313</v>
       </c>
@@ -12977,14 +13462,17 @@
       <c r="V152" s="20">
         <v>1</v>
       </c>
-      <c r="W152" s="20">
-        <v>0</v>
-      </c>
-      <c r="X152" s="23" t="s">
+      <c r="W152" s="13">
+        <v>0</v>
+      </c>
+      <c r="X152" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y152" s="23" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="153" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C153" s="18">
         <v>100314</v>
       </c>
@@ -13043,14 +13531,17 @@
       <c r="V153" s="20">
         <v>1</v>
       </c>
-      <c r="W153" s="20">
-        <v>0</v>
-      </c>
-      <c r="X153" s="23" t="s">
+      <c r="W153" s="13">
+        <v>0</v>
+      </c>
+      <c r="X153" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y153" s="23" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="154" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C154" s="18">
         <v>100315</v>
       </c>
@@ -13109,14 +13600,17 @@
       <c r="V154" s="20">
         <v>1</v>
       </c>
-      <c r="W154" s="20">
-        <v>0</v>
-      </c>
-      <c r="X154" s="23" t="s">
+      <c r="W154" s="13">
+        <v>0</v>
+      </c>
+      <c r="X154" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y154" s="23" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="155" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C155" s="18">
         <v>100316</v>
       </c>
@@ -13175,14 +13669,17 @@
       <c r="V155" s="20">
         <v>1</v>
       </c>
-      <c r="W155" s="20">
-        <v>0</v>
-      </c>
-      <c r="X155" s="23" t="s">
+      <c r="W155" s="13">
+        <v>0</v>
+      </c>
+      <c r="X155" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y155" s="23" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="156" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C156" s="18">
         <v>100317</v>
       </c>
@@ -13241,14 +13738,17 @@
       <c r="V156" s="20">
         <v>1</v>
       </c>
-      <c r="W156" s="20">
-        <v>0</v>
-      </c>
-      <c r="X156" s="23" t="s">
+      <c r="W156" s="13">
+        <v>0</v>
+      </c>
+      <c r="X156" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y156" s="23" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="157" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C157" s="18">
         <v>100318</v>
       </c>
@@ -13307,14 +13807,17 @@
       <c r="V157" s="20">
         <v>1</v>
       </c>
-      <c r="W157" s="20">
-        <v>0</v>
-      </c>
-      <c r="X157" s="23" t="s">
+      <c r="W157" s="13">
+        <v>0</v>
+      </c>
+      <c r="X157" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y157" s="23" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="158" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C158" s="18">
         <v>100319</v>
       </c>
@@ -13373,14 +13876,17 @@
       <c r="V158" s="20">
         <v>1</v>
       </c>
-      <c r="W158" s="20">
-        <v>0</v>
-      </c>
-      <c r="X158" s="23" t="s">
+      <c r="W158" s="13">
+        <v>0</v>
+      </c>
+      <c r="X158" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y158" s="23" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="159" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C159" s="18">
         <v>100320</v>
       </c>
@@ -13439,14 +13945,17 @@
       <c r="V159" s="20">
         <v>1</v>
       </c>
-      <c r="W159" s="20">
-        <v>0</v>
-      </c>
-      <c r="X159" s="23" t="s">
+      <c r="W159" s="13">
+        <v>0</v>
+      </c>
+      <c r="X159" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y159" s="23" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="160" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C160" s="18">
         <v>100321</v>
       </c>
@@ -13505,14 +14014,17 @@
       <c r="V160" s="20">
         <v>1</v>
       </c>
-      <c r="W160" s="20">
-        <v>0</v>
-      </c>
-      <c r="X160" s="23" t="s">
+      <c r="W160" s="13">
+        <v>0</v>
+      </c>
+      <c r="X160" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y160" s="23" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="161" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C161" s="18">
         <v>100322</v>
       </c>
@@ -13571,14 +14083,17 @@
       <c r="V161" s="20">
         <v>1</v>
       </c>
-      <c r="W161" s="20">
-        <v>0</v>
-      </c>
-      <c r="X161" s="23" t="s">
+      <c r="W161" s="13">
+        <v>0</v>
+      </c>
+      <c r="X161" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y161" s="23" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="162" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C162" s="18">
         <v>100323</v>
       </c>
@@ -13637,14 +14152,17 @@
       <c r="V162" s="20">
         <v>1</v>
       </c>
-      <c r="W162" s="20">
-        <v>0</v>
-      </c>
-      <c r="X162" s="23" t="s">
+      <c r="W162" s="13">
+        <v>0</v>
+      </c>
+      <c r="X162" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y162" s="23" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="163" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C163" s="18">
         <v>100324</v>
       </c>
@@ -13703,14 +14221,17 @@
       <c r="V163" s="20">
         <v>1</v>
       </c>
-      <c r="W163" s="20">
-        <v>0</v>
-      </c>
-      <c r="X163" s="23" t="s">
+      <c r="W163" s="13">
+        <v>0</v>
+      </c>
+      <c r="X163" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y163" s="23" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="164" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C164" s="18">
         <v>100325</v>
       </c>
@@ -13769,14 +14290,17 @@
       <c r="V164" s="20">
         <v>1</v>
       </c>
-      <c r="W164" s="20">
-        <v>0</v>
-      </c>
-      <c r="X164" s="23" t="s">
+      <c r="W164" s="13">
+        <v>0</v>
+      </c>
+      <c r="X164" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y164" s="23" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="165" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C165" s="18">
         <v>100326</v>
       </c>
@@ -13835,14 +14359,17 @@
       <c r="V165" s="20">
         <v>1</v>
       </c>
-      <c r="W165" s="20">
-        <v>0</v>
-      </c>
-      <c r="X165" s="23" t="s">
+      <c r="W165" s="13">
+        <v>0</v>
+      </c>
+      <c r="X165" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y165" s="23" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="166" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C166" s="37">
         <v>100351</v>
       </c>
@@ -13901,14 +14428,17 @@
       <c r="V166" s="20">
         <v>1</v>
       </c>
-      <c r="W166" s="20">
-        <v>0</v>
-      </c>
-      <c r="X166" s="34" t="s">
+      <c r="W166" s="13">
+        <v>0</v>
+      </c>
+      <c r="X166" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y166" s="34" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="167" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C167" s="37">
         <v>100352</v>
       </c>
@@ -13967,14 +14497,17 @@
       <c r="V167" s="20">
         <v>1</v>
       </c>
-      <c r="W167" s="20">
-        <v>0</v>
-      </c>
-      <c r="X167" s="34" t="s">
+      <c r="W167" s="13">
+        <v>0</v>
+      </c>
+      <c r="X167" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y167" s="34" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="168" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C168" s="37">
         <v>100353</v>
       </c>
@@ -14033,14 +14566,17 @@
       <c r="V168" s="20">
         <v>1</v>
       </c>
-      <c r="W168" s="20">
-        <v>0</v>
-      </c>
-      <c r="X168" s="34" t="s">
+      <c r="W168" s="13">
+        <v>0</v>
+      </c>
+      <c r="X168" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y168" s="34" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="169" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C169" s="37">
         <v>100354</v>
       </c>
@@ -14099,14 +14635,17 @@
       <c r="V169" s="20">
         <v>1</v>
       </c>
-      <c r="W169" s="20">
-        <v>0</v>
-      </c>
-      <c r="X169" s="34" t="s">
+      <c r="W169" s="13">
+        <v>0</v>
+      </c>
+      <c r="X169" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y169" s="34" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="170" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C170" s="37">
         <v>100355</v>
       </c>
@@ -14165,14 +14704,17 @@
       <c r="V170" s="20">
         <v>1</v>
       </c>
-      <c r="W170" s="20">
-        <v>0</v>
-      </c>
-      <c r="X170" s="34" t="s">
+      <c r="W170" s="13">
+        <v>0</v>
+      </c>
+      <c r="X170" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y170" s="34" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="171" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C171" s="37">
         <v>100356</v>
       </c>
@@ -14231,14 +14773,17 @@
       <c r="V171" s="20">
         <v>1</v>
       </c>
-      <c r="W171" s="20">
-        <v>0</v>
-      </c>
-      <c r="X171" s="34" t="s">
+      <c r="W171" s="13">
+        <v>0</v>
+      </c>
+      <c r="X171" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y171" s="34" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="172" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C172" s="37">
         <v>100357</v>
       </c>
@@ -14297,14 +14842,17 @@
       <c r="V172" s="20">
         <v>1</v>
       </c>
-      <c r="W172" s="20">
-        <v>0</v>
-      </c>
-      <c r="X172" s="34" t="s">
+      <c r="W172" s="13">
+        <v>0</v>
+      </c>
+      <c r="X172" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y172" s="34" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="173" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C173" s="37">
         <v>100358</v>
       </c>
@@ -14363,14 +14911,17 @@
       <c r="V173" s="20">
         <v>1</v>
       </c>
-      <c r="W173" s="20">
-        <v>0</v>
-      </c>
-      <c r="X173" s="34" t="s">
+      <c r="W173" s="13">
+        <v>0</v>
+      </c>
+      <c r="X173" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y173" s="34" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="174" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C174" s="18">
         <v>100401</v>
       </c>
@@ -14429,14 +14980,17 @@
       <c r="V174" s="20">
         <v>1</v>
       </c>
-      <c r="W174" s="20">
-        <v>0</v>
-      </c>
-      <c r="X174" s="23" t="s">
+      <c r="W174" s="13">
+        <v>0</v>
+      </c>
+      <c r="X174" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y174" s="23" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="175" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C175" s="18">
         <v>100402</v>
       </c>
@@ -14495,14 +15049,17 @@
       <c r="V175" s="20">
         <v>1</v>
       </c>
-      <c r="W175" s="20">
-        <v>0</v>
-      </c>
-      <c r="X175" s="23" t="s">
+      <c r="W175" s="13">
+        <v>0</v>
+      </c>
+      <c r="X175" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y175" s="23" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="176" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C176" s="18">
         <v>100403</v>
       </c>
@@ -14561,14 +15118,17 @@
       <c r="V176" s="20">
         <v>1</v>
       </c>
-      <c r="W176" s="20">
-        <v>0</v>
-      </c>
-      <c r="X176" s="23" t="s">
+      <c r="W176" s="13">
+        <v>0</v>
+      </c>
+      <c r="X176" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y176" s="23" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="177" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C177" s="18">
         <v>100404</v>
       </c>
@@ -14627,14 +15187,17 @@
       <c r="V177" s="20">
         <v>1</v>
       </c>
-      <c r="W177" s="20">
-        <v>0</v>
-      </c>
-      <c r="X177" s="23" t="s">
+      <c r="W177" s="13">
+        <v>0</v>
+      </c>
+      <c r="X177" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y177" s="23" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="178" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C178" s="18">
         <v>100405</v>
       </c>
@@ -14693,14 +15256,17 @@
       <c r="V178" s="20">
         <v>1</v>
       </c>
-      <c r="W178" s="20">
-        <v>0</v>
-      </c>
-      <c r="X178" s="23" t="s">
+      <c r="W178" s="13">
+        <v>0</v>
+      </c>
+      <c r="X178" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y178" s="23" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="179" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C179" s="18">
         <v>100406</v>
       </c>
@@ -14759,14 +15325,17 @@
       <c r="V179" s="20">
         <v>1</v>
       </c>
-      <c r="W179" s="20">
-        <v>0</v>
-      </c>
-      <c r="X179" s="23" t="s">
+      <c r="W179" s="13">
+        <v>0</v>
+      </c>
+      <c r="X179" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y179" s="23" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="180" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C180" s="18">
         <v>100407</v>
       </c>
@@ -14825,14 +15394,17 @@
       <c r="V180" s="20">
         <v>1</v>
       </c>
-      <c r="W180" s="20">
-        <v>0</v>
-      </c>
-      <c r="X180" s="23" t="s">
+      <c r="W180" s="13">
+        <v>0</v>
+      </c>
+      <c r="X180" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y180" s="23" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="181" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C181" s="18">
         <v>100408</v>
       </c>
@@ -14891,14 +15463,17 @@
       <c r="V181" s="20">
         <v>1</v>
       </c>
-      <c r="W181" s="20">
-        <v>0</v>
-      </c>
-      <c r="X181" s="23" t="s">
+      <c r="W181" s="13">
+        <v>0</v>
+      </c>
+      <c r="X181" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y181" s="23" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="182" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C182" s="18">
         <v>100409</v>
       </c>
@@ -14957,14 +15532,17 @@
       <c r="V182" s="20">
         <v>1</v>
       </c>
-      <c r="W182" s="20">
-        <v>0</v>
-      </c>
-      <c r="X182" s="23" t="s">
+      <c r="W182" s="13">
+        <v>0</v>
+      </c>
+      <c r="X182" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y182" s="23" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C183" s="18">
         <v>100410</v>
       </c>
@@ -15023,14 +15601,17 @@
       <c r="V183" s="20">
         <v>1</v>
       </c>
-      <c r="W183" s="20">
-        <v>0</v>
-      </c>
-      <c r="X183" s="23" t="s">
+      <c r="W183" s="13">
+        <v>0</v>
+      </c>
+      <c r="X183" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y183" s="23" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="184" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C184" s="18">
         <v>100411</v>
       </c>
@@ -15089,14 +15670,17 @@
       <c r="V184" s="20">
         <v>1</v>
       </c>
-      <c r="W184" s="20">
-        <v>0</v>
-      </c>
-      <c r="X184" s="23" t="s">
+      <c r="W184" s="13">
+        <v>0</v>
+      </c>
+      <c r="X184" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y184" s="23" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="185" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C185" s="18">
         <v>100412</v>
       </c>
@@ -15155,14 +15739,17 @@
       <c r="V185" s="20">
         <v>1</v>
       </c>
-      <c r="W185" s="20">
-        <v>0</v>
-      </c>
-      <c r="X185" s="23" t="s">
+      <c r="W185" s="13">
+        <v>0</v>
+      </c>
+      <c r="X185" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y185" s="23" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="186" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C186" s="18">
         <v>100413</v>
       </c>
@@ -15221,14 +15808,17 @@
       <c r="V186" s="20">
         <v>1</v>
       </c>
-      <c r="W186" s="20">
-        <v>0</v>
-      </c>
-      <c r="X186" s="23" t="s">
+      <c r="W186" s="13">
+        <v>0</v>
+      </c>
+      <c r="X186" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y186" s="23" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="187" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C187" s="18">
         <v>100414</v>
       </c>
@@ -15287,14 +15877,17 @@
       <c r="V187" s="20">
         <v>1</v>
       </c>
-      <c r="W187" s="20">
-        <v>0</v>
-      </c>
-      <c r="X187" s="23" t="s">
+      <c r="W187" s="13">
+        <v>0</v>
+      </c>
+      <c r="X187" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y187" s="23" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="188" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C188" s="18">
         <v>100415</v>
       </c>
@@ -15353,14 +15946,17 @@
       <c r="V188" s="20">
         <v>1</v>
       </c>
-      <c r="W188" s="20">
-        <v>0</v>
-      </c>
-      <c r="X188" s="23" t="s">
+      <c r="W188" s="13">
+        <v>0</v>
+      </c>
+      <c r="X188" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y188" s="23" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="189" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C189" s="18">
         <v>100416</v>
       </c>
@@ -15419,14 +16015,17 @@
       <c r="V189" s="20">
         <v>1</v>
       </c>
-      <c r="W189" s="20">
-        <v>0</v>
-      </c>
-      <c r="X189" s="23" t="s">
+      <c r="W189" s="13">
+        <v>0</v>
+      </c>
+      <c r="X189" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y189" s="23" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="190" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C190" s="18">
         <v>100417</v>
       </c>
@@ -15485,14 +16084,17 @@
       <c r="V190" s="20">
         <v>1</v>
       </c>
-      <c r="W190" s="20">
-        <v>0</v>
-      </c>
-      <c r="X190" s="23" t="s">
+      <c r="W190" s="13">
+        <v>0</v>
+      </c>
+      <c r="X190" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y190" s="23" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="191" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C191" s="18">
         <v>100418</v>
       </c>
@@ -15551,14 +16153,17 @@
       <c r="V191" s="20">
         <v>1</v>
       </c>
-      <c r="W191" s="20">
-        <v>0</v>
-      </c>
-      <c r="X191" s="23" t="s">
+      <c r="W191" s="13">
+        <v>0</v>
+      </c>
+      <c r="X191" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y191" s="23" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="192" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C192" s="18">
         <v>100419</v>
       </c>
@@ -15617,14 +16222,17 @@
       <c r="V192" s="20">
         <v>1</v>
       </c>
-      <c r="W192" s="20">
-        <v>0</v>
-      </c>
-      <c r="X192" s="23" t="s">
+      <c r="W192" s="13">
+        <v>0</v>
+      </c>
+      <c r="X192" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y192" s="23" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="193" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C193" s="18">
         <v>100420</v>
       </c>
@@ -15683,14 +16291,17 @@
       <c r="V193" s="20">
         <v>1</v>
       </c>
-      <c r="W193" s="20">
-        <v>0</v>
-      </c>
-      <c r="X193" s="23" t="s">
+      <c r="W193" s="13">
+        <v>0</v>
+      </c>
+      <c r="X193" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y193" s="23" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="194" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C194" s="18">
         <v>100421</v>
       </c>
@@ -15749,14 +16360,17 @@
       <c r="V194" s="20">
         <v>1</v>
       </c>
-      <c r="W194" s="20">
-        <v>0</v>
-      </c>
-      <c r="X194" s="23" t="s">
+      <c r="W194" s="13">
+        <v>0</v>
+      </c>
+      <c r="X194" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y194" s="23" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="195" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C195" s="18">
         <v>100422</v>
       </c>
@@ -15815,14 +16429,17 @@
       <c r="V195" s="20">
         <v>1</v>
       </c>
-      <c r="W195" s="20">
-        <v>0</v>
-      </c>
-      <c r="X195" s="23" t="s">
+      <c r="W195" s="13">
+        <v>0</v>
+      </c>
+      <c r="X195" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y195" s="23" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="196" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C196" s="18">
         <v>100423</v>
       </c>
@@ -15881,14 +16498,17 @@
       <c r="V196" s="20">
         <v>1</v>
       </c>
-      <c r="W196" s="20">
-        <v>0</v>
-      </c>
-      <c r="X196" s="23" t="s">
+      <c r="W196" s="13">
+        <v>0</v>
+      </c>
+      <c r="X196" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y196" s="23" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="197" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C197" s="18">
         <v>100424</v>
       </c>
@@ -15947,14 +16567,17 @@
       <c r="V197" s="20">
         <v>1</v>
       </c>
-      <c r="W197" s="20">
-        <v>0</v>
-      </c>
-      <c r="X197" s="23" t="s">
+      <c r="W197" s="13">
+        <v>0</v>
+      </c>
+      <c r="X197" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y197" s="23" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="198" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C198" s="18">
         <v>100425</v>
       </c>
@@ -16013,14 +16636,17 @@
       <c r="V198" s="20">
         <v>1</v>
       </c>
-      <c r="W198" s="20">
-        <v>0</v>
-      </c>
-      <c r="X198" s="23" t="s">
+      <c r="W198" s="13">
+        <v>0</v>
+      </c>
+      <c r="X198" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y198" s="23" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="199" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C199" s="18">
         <v>100426</v>
       </c>
@@ -16079,14 +16705,17 @@
       <c r="V199" s="20">
         <v>1</v>
       </c>
-      <c r="W199" s="20">
-        <v>0</v>
-      </c>
-      <c r="X199" s="23" t="s">
+      <c r="W199" s="13">
+        <v>0</v>
+      </c>
+      <c r="X199" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y199" s="23" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="200" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C200" s="37">
         <v>100451</v>
       </c>
@@ -16145,14 +16774,17 @@
       <c r="V200" s="20">
         <v>1</v>
       </c>
-      <c r="W200" s="20">
-        <v>0</v>
-      </c>
-      <c r="X200" s="34" t="s">
+      <c r="W200" s="13">
+        <v>0</v>
+      </c>
+      <c r="X200" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y200" s="34" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="201" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C201" s="37">
         <v>100452</v>
       </c>
@@ -16211,14 +16843,17 @@
       <c r="V201" s="20">
         <v>1</v>
       </c>
-      <c r="W201" s="20">
-        <v>0</v>
-      </c>
-      <c r="X201" s="34" t="s">
+      <c r="W201" s="13">
+        <v>0</v>
+      </c>
+      <c r="X201" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y201" s="34" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="202" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C202" s="37">
         <v>100453</v>
       </c>
@@ -16277,14 +16912,17 @@
       <c r="V202" s="20">
         <v>1</v>
       </c>
-      <c r="W202" s="20">
-        <v>0</v>
-      </c>
-      <c r="X202" s="34" t="s">
+      <c r="W202" s="13">
+        <v>0</v>
+      </c>
+      <c r="X202" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y202" s="34" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="203" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C203" s="37">
         <v>100454</v>
       </c>
@@ -16343,14 +16981,17 @@
       <c r="V203" s="20">
         <v>1</v>
       </c>
-      <c r="W203" s="20">
-        <v>0</v>
-      </c>
-      <c r="X203" s="34" t="s">
+      <c r="W203" s="13">
+        <v>0</v>
+      </c>
+      <c r="X203" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y203" s="34" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="204" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C204" s="37">
         <v>100455</v>
       </c>
@@ -16409,14 +17050,17 @@
       <c r="V204" s="20">
         <v>1</v>
       </c>
-      <c r="W204" s="20">
-        <v>0</v>
-      </c>
-      <c r="X204" s="34" t="s">
+      <c r="W204" s="13">
+        <v>0</v>
+      </c>
+      <c r="X204" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y204" s="34" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="205" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C205" s="37">
         <v>100456</v>
       </c>
@@ -16475,14 +17119,17 @@
       <c r="V205" s="20">
         <v>1</v>
       </c>
-      <c r="W205" s="20">
-        <v>0</v>
-      </c>
-      <c r="X205" s="34" t="s">
+      <c r="W205" s="13">
+        <v>0</v>
+      </c>
+      <c r="X205" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y205" s="34" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="206" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C206" s="37">
         <v>100457</v>
       </c>
@@ -16541,14 +17188,17 @@
       <c r="V206" s="20">
         <v>1</v>
       </c>
-      <c r="W206" s="20">
-        <v>0</v>
-      </c>
-      <c r="X206" s="34" t="s">
+      <c r="W206" s="13">
+        <v>0</v>
+      </c>
+      <c r="X206" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y206" s="34" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="207" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C207" s="37">
         <v>100458</v>
       </c>
@@ -16607,14 +17257,17 @@
       <c r="V207" s="20">
         <v>1</v>
       </c>
-      <c r="W207" s="20">
-        <v>0</v>
-      </c>
-      <c r="X207" s="34" t="s">
+      <c r="W207" s="13">
+        <v>0</v>
+      </c>
+      <c r="X207" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y207" s="34" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="208" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C208" s="18">
         <v>100501</v>
       </c>
@@ -16674,14 +17327,17 @@
       <c r="V208" s="20">
         <v>1</v>
       </c>
-      <c r="W208" s="20">
-        <v>0</v>
-      </c>
-      <c r="X208" s="23" t="s">
+      <c r="W208" s="13">
+        <v>0</v>
+      </c>
+      <c r="X208" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y208" s="23" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="209" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C209" s="18">
         <v>100502</v>
       </c>
@@ -16741,14 +17397,17 @@
       <c r="V209" s="20">
         <v>1</v>
       </c>
-      <c r="W209" s="20">
-        <v>0</v>
-      </c>
-      <c r="X209" s="23" t="s">
+      <c r="W209" s="13">
+        <v>0</v>
+      </c>
+      <c r="X209" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y209" s="23" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="210" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C210" s="18">
         <v>100503</v>
       </c>
@@ -16808,14 +17467,17 @@
       <c r="V210" s="20">
         <v>1</v>
       </c>
-      <c r="W210" s="20">
-        <v>0</v>
-      </c>
-      <c r="X210" s="23" t="s">
+      <c r="W210" s="13">
+        <v>0</v>
+      </c>
+      <c r="X210" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y210" s="23" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="211" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C211" s="18">
         <v>100504</v>
       </c>
@@ -16875,14 +17537,17 @@
       <c r="V211" s="20">
         <v>1</v>
       </c>
-      <c r="W211" s="20">
-        <v>0</v>
-      </c>
-      <c r="X211" s="23" t="s">
+      <c r="W211" s="13">
+        <v>0</v>
+      </c>
+      <c r="X211" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y211" s="23" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="212" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C212" s="18">
         <v>100505</v>
       </c>
@@ -16942,14 +17607,17 @@
       <c r="V212" s="20">
         <v>1</v>
       </c>
-      <c r="W212" s="20">
-        <v>0</v>
-      </c>
-      <c r="X212" s="23" t="s">
+      <c r="W212" s="13">
+        <v>0</v>
+      </c>
+      <c r="X212" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y212" s="23" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="213" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C213" s="18">
         <v>100506</v>
       </c>
@@ -17009,14 +17677,17 @@
       <c r="V213" s="20">
         <v>1</v>
       </c>
-      <c r="W213" s="20">
-        <v>0</v>
-      </c>
-      <c r="X213" s="23" t="s">
+      <c r="W213" s="13">
+        <v>0</v>
+      </c>
+      <c r="X213" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y213" s="23" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="214" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C214" s="18">
         <v>100507</v>
       </c>
@@ -17076,14 +17747,17 @@
       <c r="V214" s="20">
         <v>1</v>
       </c>
-      <c r="W214" s="20">
-        <v>0</v>
-      </c>
-      <c r="X214" s="23" t="s">
+      <c r="W214" s="13">
+        <v>0</v>
+      </c>
+      <c r="X214" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y214" s="23" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="215" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C215" s="18">
         <v>100508</v>
       </c>
@@ -17143,14 +17817,17 @@
       <c r="V215" s="20">
         <v>1</v>
       </c>
-      <c r="W215" s="20">
-        <v>0</v>
-      </c>
-      <c r="X215" s="23" t="s">
+      <c r="W215" s="13">
+        <v>0</v>
+      </c>
+      <c r="X215" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y215" s="23" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="216" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C216" s="18">
         <v>100509</v>
       </c>
@@ -17210,14 +17887,17 @@
       <c r="V216" s="20">
         <v>1</v>
       </c>
-      <c r="W216" s="20">
-        <v>0</v>
-      </c>
-      <c r="X216" s="23" t="s">
+      <c r="W216" s="13">
+        <v>0</v>
+      </c>
+      <c r="X216" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y216" s="23" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="217" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C217" s="18">
         <v>100510</v>
       </c>
@@ -17277,14 +17957,17 @@
       <c r="V217" s="20">
         <v>1</v>
       </c>
-      <c r="W217" s="20">
-        <v>0</v>
-      </c>
-      <c r="X217" s="23" t="s">
+      <c r="W217" s="13">
+        <v>0</v>
+      </c>
+      <c r="X217" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y217" s="23" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="218" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C218" s="18">
         <v>100511</v>
       </c>
@@ -17344,14 +18027,17 @@
       <c r="V218" s="20">
         <v>1</v>
       </c>
-      <c r="W218" s="20">
-        <v>0</v>
-      </c>
-      <c r="X218" s="23" t="s">
+      <c r="W218" s="13">
+        <v>0</v>
+      </c>
+      <c r="X218" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y218" s="23" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="219" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C219" s="18">
         <v>100512</v>
       </c>
@@ -17411,14 +18097,17 @@
       <c r="V219" s="20">
         <v>1</v>
       </c>
-      <c r="W219" s="20">
-        <v>0</v>
-      </c>
-      <c r="X219" s="23" t="s">
+      <c r="W219" s="13">
+        <v>0</v>
+      </c>
+      <c r="X219" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y219" s="23" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="220" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C220" s="18">
         <v>100513</v>
       </c>
@@ -17478,14 +18167,17 @@
       <c r="V220" s="20">
         <v>1</v>
       </c>
-      <c r="W220" s="20">
-        <v>0</v>
-      </c>
-      <c r="X220" s="23" t="s">
+      <c r="W220" s="13">
+        <v>0</v>
+      </c>
+      <c r="X220" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y220" s="23" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="221" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C221" s="18">
         <v>100514</v>
       </c>
@@ -17545,14 +18237,17 @@
       <c r="V221" s="20">
         <v>1</v>
       </c>
-      <c r="W221" s="20">
-        <v>0</v>
-      </c>
-      <c r="X221" s="23" t="s">
+      <c r="W221" s="13">
+        <v>0</v>
+      </c>
+      <c r="X221" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y221" s="23" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="222" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C222" s="18">
         <v>100515</v>
       </c>
@@ -17612,14 +18307,17 @@
       <c r="V222" s="20">
         <v>1</v>
       </c>
-      <c r="W222" s="20">
-        <v>0</v>
-      </c>
-      <c r="X222" s="23" t="s">
+      <c r="W222" s="13">
+        <v>0</v>
+      </c>
+      <c r="X222" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y222" s="23" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="223" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C223" s="18">
         <v>100516</v>
       </c>
@@ -17679,14 +18377,17 @@
       <c r="V223" s="20">
         <v>1</v>
       </c>
-      <c r="W223" s="20">
-        <v>0</v>
-      </c>
-      <c r="X223" s="23" t="s">
+      <c r="W223" s="13">
+        <v>0</v>
+      </c>
+      <c r="X223" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y223" s="23" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="224" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C224" s="18">
         <v>100517</v>
       </c>
@@ -17746,14 +18447,17 @@
       <c r="V224" s="20">
         <v>1</v>
       </c>
-      <c r="W224" s="20">
-        <v>0</v>
-      </c>
-      <c r="X224" s="23" t="s">
+      <c r="W224" s="13">
+        <v>0</v>
+      </c>
+      <c r="X224" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y224" s="23" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="225" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C225" s="18">
         <v>100518</v>
       </c>
@@ -17813,14 +18517,17 @@
       <c r="V225" s="20">
         <v>1</v>
       </c>
-      <c r="W225" s="20">
-        <v>0</v>
-      </c>
-      <c r="X225" s="23" t="s">
+      <c r="W225" s="13">
+        <v>0</v>
+      </c>
+      <c r="X225" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y225" s="23" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="226" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C226" s="18">
         <v>100519</v>
       </c>
@@ -17880,14 +18587,17 @@
       <c r="V226" s="20">
         <v>1</v>
       </c>
-      <c r="W226" s="20">
-        <v>0</v>
-      </c>
-      <c r="X226" s="23" t="s">
+      <c r="W226" s="13">
+        <v>0</v>
+      </c>
+      <c r="X226" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y226" s="23" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="227" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C227" s="18">
         <v>100520</v>
       </c>
@@ -17947,14 +18657,17 @@
       <c r="V227" s="20">
         <v>1</v>
       </c>
-      <c r="W227" s="20">
-        <v>0</v>
-      </c>
-      <c r="X227" s="23" t="s">
+      <c r="W227" s="13">
+        <v>0</v>
+      </c>
+      <c r="X227" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y227" s="23" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="228" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C228" s="18">
         <v>100521</v>
       </c>
@@ -18014,14 +18727,17 @@
       <c r="V228" s="20">
         <v>1</v>
       </c>
-      <c r="W228" s="20">
-        <v>0</v>
-      </c>
-      <c r="X228" s="23" t="s">
+      <c r="W228" s="13">
+        <v>0</v>
+      </c>
+      <c r="X228" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y228" s="23" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="229" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C229" s="18">
         <v>100522</v>
       </c>
@@ -18081,14 +18797,17 @@
       <c r="V229" s="20">
         <v>1</v>
       </c>
-      <c r="W229" s="20">
-        <v>0</v>
-      </c>
-      <c r="X229" s="23" t="s">
+      <c r="W229" s="13">
+        <v>0</v>
+      </c>
+      <c r="X229" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y229" s="23" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="230" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C230" s="18">
         <v>100523</v>
       </c>
@@ -18148,14 +18867,17 @@
       <c r="V230" s="20">
         <v>1</v>
       </c>
-      <c r="W230" s="20">
-        <v>0</v>
-      </c>
-      <c r="X230" s="23" t="s">
+      <c r="W230" s="13">
+        <v>0</v>
+      </c>
+      <c r="X230" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y230" s="23" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="231" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C231" s="18">
         <v>100524</v>
       </c>
@@ -18215,14 +18937,17 @@
       <c r="V231" s="20">
         <v>1</v>
       </c>
-      <c r="W231" s="20">
-        <v>0</v>
-      </c>
-      <c r="X231" s="23" t="s">
+      <c r="W231" s="13">
+        <v>0</v>
+      </c>
+      <c r="X231" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y231" s="23" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="232" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C232" s="18">
         <v>100525</v>
       </c>
@@ -18282,14 +19007,17 @@
       <c r="V232" s="20">
         <v>1</v>
       </c>
-      <c r="W232" s="20">
-        <v>0</v>
-      </c>
-      <c r="X232" s="23" t="s">
+      <c r="W232" s="13">
+        <v>0</v>
+      </c>
+      <c r="X232" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y232" s="23" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="233" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C233" s="18">
         <v>100526</v>
       </c>
@@ -18349,14 +19077,17 @@
       <c r="V233" s="20">
         <v>1</v>
       </c>
-      <c r="W233" s="20">
-        <v>0</v>
-      </c>
-      <c r="X233" s="23" t="s">
+      <c r="W233" s="13">
+        <v>0</v>
+      </c>
+      <c r="X233" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y233" s="23" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="234" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C234" s="37">
         <v>100551</v>
       </c>
@@ -18416,14 +19147,17 @@
       <c r="V234" s="20">
         <v>1</v>
       </c>
-      <c r="W234" s="20">
-        <v>0</v>
-      </c>
-      <c r="X234" s="23" t="s">
+      <c r="W234" s="13">
+        <v>0</v>
+      </c>
+      <c r="X234" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y234" s="23" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="235" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C235" s="37">
         <v>100552</v>
       </c>
@@ -18483,14 +19217,17 @@
       <c r="V235" s="20">
         <v>1</v>
       </c>
-      <c r="W235" s="20">
-        <v>0</v>
-      </c>
-      <c r="X235" s="23" t="s">
+      <c r="W235" s="13">
+        <v>0</v>
+      </c>
+      <c r="X235" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y235" s="23" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="236" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C236" s="37">
         <v>100553</v>
       </c>
@@ -18550,14 +19287,17 @@
       <c r="V236" s="20">
         <v>1</v>
       </c>
-      <c r="W236" s="20">
-        <v>0</v>
-      </c>
-      <c r="X236" s="34" t="s">
+      <c r="W236" s="13">
+        <v>0</v>
+      </c>
+      <c r="X236" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y236" s="34" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="237" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C237" s="37">
         <v>100554</v>
       </c>
@@ -18617,14 +19357,17 @@
       <c r="V237" s="20">
         <v>1</v>
       </c>
-      <c r="W237" s="20">
-        <v>0</v>
-      </c>
-      <c r="X237" s="34" t="s">
+      <c r="W237" s="13">
+        <v>0</v>
+      </c>
+      <c r="X237" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y237" s="34" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="238" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C238" s="37">
         <v>100555</v>
       </c>
@@ -18684,14 +19427,17 @@
       <c r="V238" s="20">
         <v>1</v>
       </c>
-      <c r="W238" s="20">
-        <v>0</v>
-      </c>
-      <c r="X238" s="34" t="s">
+      <c r="W238" s="13">
+        <v>0</v>
+      </c>
+      <c r="X238" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y238" s="34" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="239" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C239" s="37">
         <v>100556</v>
       </c>
@@ -18751,14 +19497,17 @@
       <c r="V239" s="20">
         <v>1</v>
       </c>
-      <c r="W239" s="20">
-        <v>0</v>
-      </c>
-      <c r="X239" s="34" t="s">
+      <c r="W239" s="13">
+        <v>0</v>
+      </c>
+      <c r="X239" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y239" s="34" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="240" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C240" s="37">
         <v>100557</v>
       </c>
@@ -18818,14 +19567,17 @@
       <c r="V240" s="20">
         <v>1</v>
       </c>
-      <c r="W240" s="20">
-        <v>0</v>
-      </c>
-      <c r="X240" s="34" t="s">
+      <c r="W240" s="13">
+        <v>0</v>
+      </c>
+      <c r="X240" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y240" s="34" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="241" spans="3:24" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="3:25" s="35" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C241" s="37">
         <v>100558</v>
       </c>
@@ -18885,14 +19637,17 @@
       <c r="V241" s="20">
         <v>1</v>
       </c>
-      <c r="W241" s="20">
-        <v>0</v>
-      </c>
-      <c r="X241" s="34" t="s">
+      <c r="W241" s="13">
+        <v>0</v>
+      </c>
+      <c r="X241" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y241" s="34" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="242" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C242" s="18">
         <v>200001</v>
       </c>
@@ -18951,14 +19706,17 @@
       <c r="V242" s="20">
         <v>1</v>
       </c>
-      <c r="W242" s="20">
-        <v>0</v>
-      </c>
-      <c r="X242" s="23" t="s">
+      <c r="W242" s="13">
+        <v>0</v>
+      </c>
+      <c r="X242" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y242" s="23" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="243" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C243" s="18">
         <v>200002</v>
       </c>
@@ -19017,14 +19775,17 @@
       <c r="V243" s="20">
         <v>1</v>
       </c>
-      <c r="W243" s="20">
-        <v>0</v>
-      </c>
-      <c r="X243" s="23" t="s">
+      <c r="W243" s="13">
+        <v>0</v>
+      </c>
+      <c r="X243" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y243" s="23" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="244" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C244" s="18">
         <v>200003</v>
       </c>
@@ -19083,14 +19844,17 @@
       <c r="V244" s="20">
         <v>1</v>
       </c>
-      <c r="W244" s="20">
-        <v>0</v>
-      </c>
-      <c r="X244" s="23" t="s">
+      <c r="W244" s="13">
+        <v>0</v>
+      </c>
+      <c r="X244" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y244" s="23" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="245" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C245" s="18">
         <v>200004</v>
       </c>
@@ -19149,14 +19913,17 @@
       <c r="V245" s="20">
         <v>1</v>
       </c>
-      <c r="W245" s="20">
-        <v>0</v>
-      </c>
-      <c r="X245" s="23" t="s">
+      <c r="W245" s="13">
+        <v>0</v>
+      </c>
+      <c r="X245" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y245" s="23" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="246" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C246" s="18">
         <v>200005</v>
       </c>
@@ -19215,14 +19982,17 @@
       <c r="V246" s="20">
         <v>1</v>
       </c>
-      <c r="W246" s="20">
-        <v>0</v>
-      </c>
-      <c r="X246" s="23" t="s">
+      <c r="W246" s="13">
+        <v>0</v>
+      </c>
+      <c r="X246" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y246" s="23" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="247" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C247" s="18">
         <v>200006</v>
       </c>
@@ -19281,14 +20051,17 @@
       <c r="V247" s="20">
         <v>1</v>
       </c>
-      <c r="W247" s="20">
-        <v>0</v>
-      </c>
-      <c r="X247" s="23" t="s">
+      <c r="W247" s="13">
+        <v>0</v>
+      </c>
+      <c r="X247" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y247" s="23" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="248" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C248" s="18">
         <v>200007</v>
       </c>
@@ -19347,14 +20120,17 @@
       <c r="V248" s="20">
         <v>1</v>
       </c>
-      <c r="W248" s="20">
-        <v>0</v>
-      </c>
-      <c r="X248" s="23" t="s">
+      <c r="W248" s="13">
+        <v>0</v>
+      </c>
+      <c r="X248" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y248" s="23" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="249" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C249" s="18">
         <v>200008</v>
       </c>
@@ -19413,14 +20189,17 @@
       <c r="V249" s="20">
         <v>1</v>
       </c>
-      <c r="W249" s="20">
-        <v>0</v>
-      </c>
-      <c r="X249" s="23" t="s">
+      <c r="W249" s="13">
+        <v>0</v>
+      </c>
+      <c r="X249" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y249" s="23" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="250" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C250" s="18">
         <v>200009</v>
       </c>
@@ -19479,14 +20258,17 @@
       <c r="V250" s="20">
         <v>1</v>
       </c>
-      <c r="W250" s="20">
-        <v>0</v>
-      </c>
-      <c r="X250" s="23" t="s">
+      <c r="W250" s="13">
+        <v>0</v>
+      </c>
+      <c r="X250" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y250" s="23" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="251" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C251" s="18">
         <v>200010</v>
       </c>
@@ -19545,14 +20327,17 @@
       <c r="V251" s="20">
         <v>1</v>
       </c>
-      <c r="W251" s="20">
-        <v>0</v>
-      </c>
-      <c r="X251" s="23" t="s">
+      <c r="W251" s="13">
+        <v>0</v>
+      </c>
+      <c r="X251" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y251" s="23" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="252" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C252" s="18">
         <v>200011</v>
       </c>
@@ -19611,14 +20396,17 @@
       <c r="V252" s="20">
         <v>1</v>
       </c>
-      <c r="W252" s="20">
-        <v>0</v>
-      </c>
-      <c r="X252" s="23" t="s">
+      <c r="W252" s="13">
+        <v>0</v>
+      </c>
+      <c r="X252" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y252" s="23" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="253" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C253" s="18">
         <v>200012</v>
       </c>
@@ -19677,14 +20465,17 @@
       <c r="V253" s="20">
         <v>1</v>
       </c>
-      <c r="W253" s="20">
-        <v>0</v>
-      </c>
-      <c r="X253" s="23" t="s">
+      <c r="W253" s="13">
+        <v>0</v>
+      </c>
+      <c r="X253" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y253" s="23" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="254" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C254" s="18">
         <v>200013</v>
       </c>
@@ -19743,14 +20534,17 @@
       <c r="V254" s="20">
         <v>1</v>
       </c>
-      <c r="W254" s="20">
-        <v>0</v>
-      </c>
-      <c r="X254" s="23" t="s">
+      <c r="W254" s="13">
+        <v>0</v>
+      </c>
+      <c r="X254" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y254" s="23" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="255" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C255" s="18">
         <v>200014</v>
       </c>
@@ -19809,14 +20603,17 @@
       <c r="V255" s="20">
         <v>1</v>
       </c>
-      <c r="W255" s="20">
-        <v>0</v>
-      </c>
-      <c r="X255" s="23" t="s">
+      <c r="W255" s="13">
+        <v>0</v>
+      </c>
+      <c r="X255" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y255" s="23" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="256" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C256" s="18">
         <v>200015</v>
       </c>
@@ -19875,14 +20672,17 @@
       <c r="V256" s="20">
         <v>1</v>
       </c>
-      <c r="W256" s="20">
-        <v>0</v>
-      </c>
-      <c r="X256" s="23" t="s">
+      <c r="W256" s="13">
+        <v>0</v>
+      </c>
+      <c r="X256" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y256" s="23" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="257" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C257" s="18">
         <v>200016</v>
       </c>
@@ -19941,14 +20741,17 @@
       <c r="V257" s="20">
         <v>1</v>
       </c>
-      <c r="W257" s="20">
-        <v>0</v>
-      </c>
-      <c r="X257" s="23" t="s">
+      <c r="W257" s="13">
+        <v>0</v>
+      </c>
+      <c r="X257" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y257" s="23" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="258" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C258" s="18">
         <v>200017</v>
       </c>
@@ -20007,14 +20810,17 @@
       <c r="V258" s="20">
         <v>1</v>
       </c>
-      <c r="W258" s="20">
-        <v>0</v>
-      </c>
-      <c r="X258" s="23" t="s">
+      <c r="W258" s="13">
+        <v>0</v>
+      </c>
+      <c r="X258" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y258" s="23" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="259" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C259" s="18">
         <v>200018</v>
       </c>
@@ -20073,14 +20879,17 @@
       <c r="V259" s="20">
         <v>1</v>
       </c>
-      <c r="W259" s="20">
-        <v>0</v>
-      </c>
-      <c r="X259" s="23" t="s">
+      <c r="W259" s="13">
+        <v>0</v>
+      </c>
+      <c r="X259" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y259" s="23" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="260" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C260" s="18">
         <v>200019</v>
       </c>
@@ -20139,14 +20948,17 @@
       <c r="V260" s="20">
         <v>1</v>
       </c>
-      <c r="W260" s="20">
-        <v>0</v>
-      </c>
-      <c r="X260" s="23" t="s">
+      <c r="W260" s="13">
+        <v>0</v>
+      </c>
+      <c r="X260" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y260" s="23" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="261" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C261" s="18">
         <v>200020</v>
       </c>
@@ -20205,14 +21017,17 @@
       <c r="V261" s="20">
         <v>1</v>
       </c>
-      <c r="W261" s="20">
-        <v>0</v>
-      </c>
-      <c r="X261" s="23" t="s">
+      <c r="W261" s="13">
+        <v>0</v>
+      </c>
+      <c r="X261" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y261" s="23" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="262" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C262" s="18">
         <v>200021</v>
       </c>
@@ -20271,14 +21086,17 @@
       <c r="V262" s="20">
         <v>1</v>
       </c>
-      <c r="W262" s="20">
-        <v>0</v>
-      </c>
-      <c r="X262" s="23" t="s">
+      <c r="W262" s="13">
+        <v>0</v>
+      </c>
+      <c r="X262" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y262" s="23" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="263" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C263" s="18">
         <v>200022</v>
       </c>
@@ -20337,14 +21155,17 @@
       <c r="V263" s="20">
         <v>1</v>
       </c>
-      <c r="W263" s="20">
-        <v>0</v>
-      </c>
-      <c r="X263" s="23" t="s">
+      <c r="W263" s="13">
+        <v>0</v>
+      </c>
+      <c r="X263" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y263" s="23" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="264" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C264" s="18">
         <v>200023</v>
       </c>
@@ -20403,14 +21224,17 @@
       <c r="V264" s="20">
         <v>1</v>
       </c>
-      <c r="W264" s="20">
-        <v>0</v>
-      </c>
-      <c r="X264" s="23" t="s">
+      <c r="W264" s="13">
+        <v>0</v>
+      </c>
+      <c r="X264" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y264" s="23" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="265" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C265" s="18">
         <v>200024</v>
       </c>
@@ -20469,14 +21293,17 @@
       <c r="V265" s="20">
         <v>1</v>
       </c>
-      <c r="W265" s="20">
-        <v>0</v>
-      </c>
-      <c r="X265" s="23" t="s">
+      <c r="W265" s="13">
+        <v>0</v>
+      </c>
+      <c r="X265" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y265" s="23" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="266" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C266" s="18">
         <v>200025</v>
       </c>
@@ -20535,14 +21362,17 @@
       <c r="V266" s="20">
         <v>1</v>
       </c>
-      <c r="W266" s="20">
-        <v>0</v>
-      </c>
-      <c r="X266" s="23" t="s">
+      <c r="W266" s="13">
+        <v>0</v>
+      </c>
+      <c r="X266" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y266" s="23" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="267" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C267" s="18">
         <v>200026</v>
       </c>
@@ -20601,14 +21431,17 @@
       <c r="V267" s="20">
         <v>1</v>
       </c>
-      <c r="W267" s="20">
-        <v>0</v>
-      </c>
-      <c r="X267" s="23" t="s">
+      <c r="W267" s="13">
+        <v>0</v>
+      </c>
+      <c r="X267" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y267" s="23" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="268" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C268" s="18">
         <v>200027</v>
       </c>
@@ -20667,14 +21500,17 @@
       <c r="V268" s="20">
         <v>1</v>
       </c>
-      <c r="W268" s="20">
-        <v>0</v>
-      </c>
-      <c r="X268" s="23" t="s">
+      <c r="W268" s="13">
+        <v>0</v>
+      </c>
+      <c r="X268" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y268" s="23" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="269" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C269" s="18">
         <v>200028</v>
       </c>
@@ -20733,14 +21569,17 @@
       <c r="V269" s="20">
         <v>1</v>
       </c>
-      <c r="W269" s="20">
-        <v>0</v>
-      </c>
-      <c r="X269" s="23" t="s">
+      <c r="W269" s="13">
+        <v>0</v>
+      </c>
+      <c r="X269" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y269" s="23" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="270" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C270" s="18">
         <v>200029</v>
       </c>
@@ -20799,14 +21638,17 @@
       <c r="V270" s="20">
         <v>1</v>
       </c>
-      <c r="W270" s="20">
-        <v>0</v>
-      </c>
-      <c r="X270" s="23" t="s">
+      <c r="W270" s="13">
+        <v>0</v>
+      </c>
+      <c r="X270" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y270" s="23" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="271" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C271" s="18">
         <v>200030</v>
       </c>
@@ -20865,14 +21707,17 @@
       <c r="V271" s="20">
         <v>1</v>
       </c>
-      <c r="W271" s="20">
-        <v>0</v>
-      </c>
-      <c r="X271" s="23" t="s">
+      <c r="W271" s="13">
+        <v>0</v>
+      </c>
+      <c r="X271" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y271" s="23" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="272" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C272" s="18">
         <v>300001</v>
       </c>
@@ -20931,14 +21776,17 @@
       <c r="V272" s="20">
         <v>1</v>
       </c>
-      <c r="W272" s="20">
-        <v>0</v>
-      </c>
-      <c r="X272" s="23" t="s">
+      <c r="W272" s="13">
+        <v>0</v>
+      </c>
+      <c r="X272" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y272" s="23" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="273" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C273" s="18">
         <v>300002</v>
       </c>
@@ -20997,14 +21845,17 @@
       <c r="V273" s="20">
         <v>1</v>
       </c>
-      <c r="W273" s="20">
-        <v>0</v>
-      </c>
-      <c r="X273" s="23" t="s">
+      <c r="W273" s="13">
+        <v>0</v>
+      </c>
+      <c r="X273" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y273" s="23" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="274" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C274" s="18">
         <v>300003</v>
       </c>
@@ -21063,14 +21914,17 @@
       <c r="V274" s="20">
         <v>1</v>
       </c>
-      <c r="W274" s="20">
-        <v>0</v>
-      </c>
-      <c r="X274" s="23" t="s">
+      <c r="W274" s="13">
+        <v>0</v>
+      </c>
+      <c r="X274" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y274" s="23" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="275" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C275" s="38">
         <v>4000101</v>
       </c>
@@ -21131,14 +21985,17 @@
       <c r="V275" s="18">
         <v>1</v>
       </c>
-      <c r="W275" s="20">
+      <c r="W275" s="13">
+        <v>0</v>
+      </c>
+      <c r="X275" s="20">
         <v>2500</v>
       </c>
-      <c r="X275" s="17" t="s">
+      <c r="Y275" s="17" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="276" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C276" s="38">
         <v>4000102</v>
       </c>
@@ -21199,14 +22056,17 @@
       <c r="V276" s="18">
         <v>1</v>
       </c>
-      <c r="W276" s="20">
+      <c r="W276" s="13">
+        <v>0</v>
+      </c>
+      <c r="X276" s="20">
         <v>3500</v>
       </c>
-      <c r="X276" s="17" t="s">
+      <c r="Y276" s="17" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="277" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C277" s="38">
         <v>4000103</v>
       </c>
@@ -21267,14 +22127,17 @@
       <c r="V277" s="18">
         <v>1</v>
       </c>
-      <c r="W277" s="20">
+      <c r="W277" s="13">
+        <v>0</v>
+      </c>
+      <c r="X277" s="20">
         <v>5000</v>
       </c>
-      <c r="X277" s="17" t="s">
+      <c r="Y277" s="17" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="278" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C278" s="38">
         <v>4000104</v>
       </c>
@@ -21335,14 +22198,17 @@
       <c r="V278" s="18">
         <v>1</v>
       </c>
-      <c r="W278" s="20">
+      <c r="W278" s="13">
+        <v>0</v>
+      </c>
+      <c r="X278" s="20">
         <v>7500</v>
       </c>
-      <c r="X278" s="17" t="s">
+      <c r="Y278" s="17" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="279" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C279" s="38">
         <v>4000105</v>
       </c>
@@ -21403,14 +22269,17 @@
       <c r="V279" s="18">
         <v>1</v>
       </c>
-      <c r="W279" s="20">
+      <c r="W279" s="13">
+        <v>0</v>
+      </c>
+      <c r="X279" s="20">
         <v>10000</v>
       </c>
-      <c r="X279" s="17" t="s">
+      <c r="Y279" s="17" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="280" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C280" s="38">
         <v>4000106</v>
       </c>
@@ -21471,14 +22340,17 @@
       <c r="V280" s="18">
         <v>1</v>
       </c>
-      <c r="W280" s="20">
+      <c r="W280" s="13">
+        <v>0</v>
+      </c>
+      <c r="X280" s="20">
         <v>20000</v>
       </c>
-      <c r="X280" s="17" t="s">
+      <c r="Y280" s="17" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="281" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C281" s="38">
         <v>4000107</v>
       </c>
@@ -21539,14 +22411,17 @@
       <c r="V281" s="18">
         <v>1</v>
       </c>
-      <c r="W281" s="20">
+      <c r="W281" s="13">
+        <v>0</v>
+      </c>
+      <c r="X281" s="20">
         <v>30000</v>
       </c>
-      <c r="X281" s="17" t="s">
+      <c r="Y281" s="17" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="282" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C282" s="38">
         <v>4000108</v>
       </c>
@@ -21607,14 +22482,17 @@
       <c r="V282" s="18">
         <v>1</v>
       </c>
-      <c r="W282" s="20">
+      <c r="W282" s="13">
+        <v>0</v>
+      </c>
+      <c r="X282" s="20">
         <v>40000</v>
       </c>
-      <c r="X282" s="17" t="s">
+      <c r="Y282" s="17" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="283" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C283" s="38">
         <v>4000109</v>
       </c>
@@ -21675,14 +22553,17 @@
       <c r="V283" s="18">
         <v>1</v>
       </c>
-      <c r="W283" s="20">
+      <c r="W283" s="13">
+        <v>0</v>
+      </c>
+      <c r="X283" s="20">
         <v>50000</v>
       </c>
-      <c r="X283" s="17" t="s">
+      <c r="Y283" s="17" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="284" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C284" s="38">
         <v>4000201</v>
       </c>
@@ -21743,14 +22624,17 @@
       <c r="V284" s="18">
         <v>1</v>
       </c>
-      <c r="W284" s="20">
+      <c r="W284" s="13">
+        <v>0</v>
+      </c>
+      <c r="X284" s="20">
         <v>2500</v>
       </c>
-      <c r="X284" s="17" t="s">
+      <c r="Y284" s="17" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="285" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C285" s="38">
         <v>4000202</v>
       </c>
@@ -21811,14 +22695,17 @@
       <c r="V285" s="18">
         <v>1</v>
       </c>
-      <c r="W285" s="20">
+      <c r="W285" s="13">
+        <v>0</v>
+      </c>
+      <c r="X285" s="20">
         <v>3500</v>
       </c>
-      <c r="X285" s="17" t="s">
+      <c r="Y285" s="17" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="286" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C286" s="38">
         <v>4000203</v>
       </c>
@@ -21879,14 +22766,17 @@
       <c r="V286" s="18">
         <v>1</v>
       </c>
-      <c r="W286" s="20">
+      <c r="W286" s="13">
+        <v>0</v>
+      </c>
+      <c r="X286" s="20">
         <v>5000</v>
       </c>
-      <c r="X286" s="17" t="s">
+      <c r="Y286" s="17" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="287" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C287" s="38">
         <v>4000204</v>
       </c>
@@ -21947,14 +22837,17 @@
       <c r="V287" s="18">
         <v>1</v>
       </c>
-      <c r="W287" s="20">
+      <c r="W287" s="13">
+        <v>0</v>
+      </c>
+      <c r="X287" s="20">
         <v>7500</v>
       </c>
-      <c r="X287" s="17" t="s">
+      <c r="Y287" s="17" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="288" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C288" s="38">
         <v>4000205</v>
       </c>
@@ -22015,14 +22908,17 @@
       <c r="V288" s="18">
         <v>1</v>
       </c>
-      <c r="W288" s="20">
+      <c r="W288" s="13">
+        <v>0</v>
+      </c>
+      <c r="X288" s="20">
         <v>10000</v>
       </c>
-      <c r="X288" s="17" t="s">
+      <c r="Y288" s="17" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="289" spans="3:24" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="3:25" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C289" s="38">
         <v>4000206</v>
       </c>
@@ -22083,14 +22979,17 @@
       <c r="V289" s="18">
         <v>1</v>
       </c>
-      <c r="W289" s="20">
+      <c r="W289" s="13">
+        <v>0</v>
+      </c>
+      <c r="X289" s="20">
         <v>20000</v>
       </c>
-      <c r="X289" s="17" t="s">
+      <c r="Y289" s="17" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="290" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C290" s="38">
         <v>4000207</v>
       </c>
@@ -22151,14 +23050,17 @@
       <c r="V290" s="18">
         <v>1</v>
       </c>
-      <c r="W290" s="20">
+      <c r="W290" s="13">
+        <v>0</v>
+      </c>
+      <c r="X290" s="20">
         <v>30000</v>
       </c>
-      <c r="X290" s="2" t="s">
+      <c r="Y290" s="2" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="291" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C291" s="38">
         <v>4000208</v>
       </c>
@@ -22219,14 +23121,17 @@
       <c r="V291" s="18">
         <v>1</v>
       </c>
-      <c r="W291" s="20">
+      <c r="W291" s="13">
+        <v>0</v>
+      </c>
+      <c r="X291" s="20">
         <v>40000</v>
       </c>
-      <c r="X291" s="2" t="s">
+      <c r="Y291" s="2" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="292" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C292" s="38">
         <v>4000209</v>
       </c>
@@ -22287,14 +23192,17 @@
       <c r="V292" s="18">
         <v>1</v>
       </c>
-      <c r="W292" s="20">
+      <c r="W292" s="13">
+        <v>0</v>
+      </c>
+      <c r="X292" s="20">
         <v>50000</v>
       </c>
-      <c r="X292" s="2" t="s">
+      <c r="Y292" s="2" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="293" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C293" s="38">
         <v>4000301</v>
       </c>
@@ -22355,14 +23263,17 @@
       <c r="V293" s="18">
         <v>1</v>
       </c>
-      <c r="W293" s="20">
+      <c r="W293" s="13">
+        <v>0</v>
+      </c>
+      <c r="X293" s="20">
         <v>2500</v>
       </c>
-      <c r="X293" s="2" t="s">
+      <c r="Y293" s="2" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="294" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C294" s="38">
         <v>4000302</v>
       </c>
@@ -22423,14 +23334,17 @@
       <c r="V294" s="18">
         <v>1</v>
       </c>
-      <c r="W294" s="20">
+      <c r="W294" s="13">
+        <v>0</v>
+      </c>
+      <c r="X294" s="20">
         <v>3500</v>
       </c>
-      <c r="X294" s="2" t="s">
+      <c r="Y294" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="295" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C295" s="38">
         <v>4000303</v>
       </c>
@@ -22491,14 +23405,17 @@
       <c r="V295" s="18">
         <v>1</v>
       </c>
-      <c r="W295" s="20">
+      <c r="W295" s="13">
+        <v>0</v>
+      </c>
+      <c r="X295" s="20">
         <v>5000</v>
       </c>
-      <c r="X295" s="2" t="s">
+      <c r="Y295" s="2" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="296" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C296" s="38">
         <v>4000304</v>
       </c>
@@ -22559,14 +23476,17 @@
       <c r="V296" s="18">
         <v>1</v>
       </c>
-      <c r="W296" s="20">
+      <c r="W296" s="13">
+        <v>0</v>
+      </c>
+      <c r="X296" s="20">
         <v>7500</v>
       </c>
-      <c r="X296" s="2" t="s">
+      <c r="Y296" s="2" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="297" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C297" s="38">
         <v>4000305</v>
       </c>
@@ -22627,14 +23547,17 @@
       <c r="V297" s="18">
         <v>1</v>
       </c>
-      <c r="W297" s="20">
+      <c r="W297" s="13">
+        <v>0</v>
+      </c>
+      <c r="X297" s="20">
         <v>10000</v>
       </c>
-      <c r="X297" s="2" t="s">
+      <c r="Y297" s="2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="298" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C298" s="38">
         <v>4000306</v>
       </c>
@@ -22695,14 +23618,17 @@
       <c r="V298" s="18">
         <v>1</v>
       </c>
-      <c r="W298" s="20">
+      <c r="W298" s="13">
+        <v>0</v>
+      </c>
+      <c r="X298" s="20">
         <v>20000</v>
       </c>
-      <c r="X298" s="2" t="s">
+      <c r="Y298" s="2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="299" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C299" s="38">
         <v>4000307</v>
       </c>
@@ -22763,14 +23689,17 @@
       <c r="V299" s="18">
         <v>1</v>
       </c>
-      <c r="W299" s="20">
+      <c r="W299" s="13">
+        <v>0</v>
+      </c>
+      <c r="X299" s="20">
         <v>30000</v>
       </c>
-      <c r="X299" s="2" t="s">
+      <c r="Y299" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="300" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C300" s="38">
         <v>4000308</v>
       </c>
@@ -22831,14 +23760,17 @@
       <c r="V300" s="18">
         <v>1</v>
       </c>
-      <c r="W300" s="20">
+      <c r="W300" s="13">
+        <v>0</v>
+      </c>
+      <c r="X300" s="20">
         <v>40000</v>
       </c>
-      <c r="X300" s="2" t="s">
+      <c r="Y300" s="2" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="301" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C301" s="38">
         <v>4000309</v>
       </c>
@@ -22899,14 +23831,17 @@
       <c r="V301" s="18">
         <v>1</v>
       </c>
-      <c r="W301" s="20">
+      <c r="W301" s="13">
+        <v>0</v>
+      </c>
+      <c r="X301" s="20">
         <v>50000</v>
       </c>
-      <c r="X301" s="2" t="s">
+      <c r="Y301" s="2" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="302" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C302" s="38">
         <v>4000401</v>
       </c>
@@ -22967,14 +23902,17 @@
       <c r="V302" s="18">
         <v>1</v>
       </c>
-      <c r="W302" s="20">
+      <c r="W302" s="13">
+        <v>0</v>
+      </c>
+      <c r="X302" s="20">
         <v>2500</v>
       </c>
-      <c r="X302" s="2" t="s">
+      <c r="Y302" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="303" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C303" s="38">
         <v>4000402</v>
       </c>
@@ -23035,14 +23973,17 @@
       <c r="V303" s="18">
         <v>1</v>
       </c>
-      <c r="W303" s="20">
+      <c r="W303" s="13">
+        <v>0</v>
+      </c>
+      <c r="X303" s="20">
         <v>3500</v>
       </c>
-      <c r="X303" s="2" t="s">
+      <c r="Y303" s="2" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="304" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C304" s="38">
         <v>4000403</v>
       </c>
@@ -23103,14 +24044,17 @@
       <c r="V304" s="18">
         <v>1</v>
       </c>
-      <c r="W304" s="20">
+      <c r="W304" s="13">
+        <v>0</v>
+      </c>
+      <c r="X304" s="20">
         <v>5000</v>
       </c>
-      <c r="X304" s="2" t="s">
+      <c r="Y304" s="2" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="305" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C305" s="38">
         <v>4000404</v>
       </c>
@@ -23171,14 +24115,17 @@
       <c r="V305" s="18">
         <v>1</v>
       </c>
-      <c r="W305" s="20">
+      <c r="W305" s="13">
+        <v>0</v>
+      </c>
+      <c r="X305" s="20">
         <v>7500</v>
       </c>
-      <c r="X305" s="2" t="s">
+      <c r="Y305" s="2" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="306" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C306" s="38">
         <v>4000405</v>
       </c>
@@ -23239,14 +24186,17 @@
       <c r="V306" s="18">
         <v>1</v>
       </c>
-      <c r="W306" s="20">
+      <c r="W306" s="13">
+        <v>0</v>
+      </c>
+      <c r="X306" s="20">
         <v>10000</v>
       </c>
-      <c r="X306" s="2" t="s">
+      <c r="Y306" s="2" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="307" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C307" s="38">
         <v>4000406</v>
       </c>
@@ -23307,14 +24257,17 @@
       <c r="V307" s="18">
         <v>1</v>
       </c>
-      <c r="W307" s="20">
+      <c r="W307" s="13">
+        <v>0</v>
+      </c>
+      <c r="X307" s="20">
         <v>20000</v>
       </c>
-      <c r="X307" s="2" t="s">
+      <c r="Y307" s="2" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="308" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C308" s="38">
         <v>4000407</v>
       </c>
@@ -23375,14 +24328,17 @@
       <c r="V308" s="18">
         <v>1</v>
       </c>
-      <c r="W308" s="20">
+      <c r="W308" s="13">
+        <v>0</v>
+      </c>
+      <c r="X308" s="20">
         <v>30000</v>
       </c>
-      <c r="X308" s="2" t="s">
+      <c r="Y308" s="2" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="309" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C309" s="38">
         <v>4000408</v>
       </c>
@@ -23443,14 +24399,17 @@
       <c r="V309" s="18">
         <v>1</v>
       </c>
-      <c r="W309" s="20">
+      <c r="W309" s="13">
+        <v>0</v>
+      </c>
+      <c r="X309" s="20">
         <v>40000</v>
       </c>
-      <c r="X309" s="2" t="s">
+      <c r="Y309" s="2" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="310" spans="3:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="3:25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C310" s="38">
         <v>4000409</v>
       </c>
@@ -23511,14 +24470,17 @@
       <c r="V310" s="18">
         <v>1</v>
       </c>
-      <c r="W310" s="20">
+      <c r="W310" s="13">
+        <v>0</v>
+      </c>
+      <c r="X310" s="20">
         <v>50000</v>
       </c>
-      <c r="X310" s="2" t="s">
+      <c r="Y310" s="2" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="311" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C311" s="1">
         <v>5000001</v>
       </c>
@@ -23579,14 +24541,17 @@
       <c r="V311" s="1">
         <v>1</v>
       </c>
-      <c r="W311" s="1">
+      <c r="W311" s="13">
+        <v>0</v>
+      </c>
+      <c r="X311" s="1">
         <v>1000000</v>
       </c>
-      <c r="X311" s="1" t="s">
+      <c r="Y311" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="312" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C312" s="1">
         <v>5000002</v>
       </c>
@@ -23647,14 +24612,17 @@
       <c r="V312" s="1">
         <v>1</v>
       </c>
-      <c r="W312" s="1">
+      <c r="W312" s="13">
+        <v>0</v>
+      </c>
+      <c r="X312" s="1">
         <v>1000000</v>
       </c>
-      <c r="X312" s="1" t="s">
+      <c r="Y312" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="313" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C313" s="1">
         <v>5000003</v>
       </c>
@@ -23715,14 +24683,17 @@
       <c r="V313" s="1">
         <v>1</v>
       </c>
-      <c r="W313" s="1">
+      <c r="W313" s="13">
+        <v>0</v>
+      </c>
+      <c r="X313" s="1">
         <v>1000000</v>
       </c>
-      <c r="X313" s="1" t="s">
+      <c r="Y313" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="314" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C314" s="1">
         <v>5000011</v>
       </c>
@@ -23783,14 +24754,17 @@
       <c r="V314" s="1">
         <v>1</v>
       </c>
-      <c r="W314" s="1">
+      <c r="W314" s="13">
+        <v>0</v>
+      </c>
+      <c r="X314" s="1">
         <v>1000000</v>
       </c>
-      <c r="X314" s="1" t="s">
+      <c r="Y314" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="315" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C315" s="1">
         <v>5000012</v>
       </c>
@@ -23851,14 +24825,17 @@
       <c r="V315" s="1">
         <v>1</v>
       </c>
-      <c r="W315" s="1">
+      <c r="W315" s="13">
+        <v>0</v>
+      </c>
+      <c r="X315" s="1">
         <v>1000000</v>
       </c>
-      <c r="X315" s="1" t="s">
+      <c r="Y315" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="316" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C316" s="1">
         <v>5000013</v>
       </c>
@@ -23919,14 +24896,17 @@
       <c r="V316" s="1">
         <v>1</v>
       </c>
-      <c r="W316" s="1">
+      <c r="W316" s="13">
+        <v>0</v>
+      </c>
+      <c r="X316" s="1">
         <v>1000000</v>
       </c>
-      <c r="X316" s="1" t="s">
+      <c r="Y316" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="317" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C317" s="1">
         <v>5000021</v>
       </c>
@@ -23987,14 +24967,17 @@
       <c r="V317" s="1">
         <v>1</v>
       </c>
-      <c r="W317" s="1">
+      <c r="W317" s="13">
+        <v>0</v>
+      </c>
+      <c r="X317" s="1">
         <v>1000000</v>
       </c>
-      <c r="X317" s="1" t="s">
+      <c r="Y317" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="318" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C318" s="1">
         <v>5000022</v>
       </c>
@@ -24055,14 +25038,17 @@
       <c r="V318" s="1">
         <v>1</v>
       </c>
-      <c r="W318" s="1">
+      <c r="W318" s="13">
+        <v>0</v>
+      </c>
+      <c r="X318" s="1">
         <v>1000000</v>
       </c>
-      <c r="X318" s="1" t="s">
+      <c r="Y318" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="319" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C319" s="1">
         <v>5000023</v>
       </c>
@@ -24123,14 +25109,17 @@
       <c r="V319" s="1">
         <v>1</v>
       </c>
-      <c r="W319" s="1">
+      <c r="W319" s="13">
+        <v>0</v>
+      </c>
+      <c r="X319" s="1">
         <v>1000000</v>
       </c>
-      <c r="X319" s="1" t="s">
+      <c r="Y319" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="320" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C320" s="1">
         <v>5000031</v>
       </c>
@@ -24191,14 +25180,17 @@
       <c r="V320" s="1">
         <v>1</v>
       </c>
-      <c r="W320" s="1">
+      <c r="W320" s="13">
+        <v>0</v>
+      </c>
+      <c r="X320" s="1">
         <v>1000000</v>
       </c>
-      <c r="X320" s="1" t="s">
+      <c r="Y320" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="321" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C321" s="1">
         <v>5000032</v>
       </c>
@@ -24259,14 +25251,17 @@
       <c r="V321" s="1">
         <v>1</v>
       </c>
-      <c r="W321" s="1">
+      <c r="W321" s="13">
+        <v>0</v>
+      </c>
+      <c r="X321" s="1">
         <v>1000000</v>
       </c>
-      <c r="X321" s="1" t="s">
+      <c r="Y321" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="322" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C322" s="1">
         <v>5000033</v>
       </c>
@@ -24327,14 +25322,17 @@
       <c r="V322" s="1">
         <v>1</v>
       </c>
-      <c r="W322" s="1">
+      <c r="W322" s="13">
+        <v>0</v>
+      </c>
+      <c r="X322" s="1">
         <v>1000000</v>
       </c>
-      <c r="X322" s="1" t="s">
+      <c r="Y322" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="323" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C323" s="1">
         <v>5000041</v>
       </c>
@@ -24395,14 +25393,17 @@
       <c r="V323" s="1">
         <v>1</v>
       </c>
-      <c r="W323" s="1">
+      <c r="W323" s="13">
+        <v>0</v>
+      </c>
+      <c r="X323" s="1">
         <v>1000000</v>
       </c>
-      <c r="X323" s="1" t="s">
+      <c r="Y323" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="324" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C324" s="1">
         <v>5000042</v>
       </c>
@@ -24463,14 +25464,17 @@
       <c r="V324" s="1">
         <v>1</v>
       </c>
-      <c r="W324" s="1">
+      <c r="W324" s="13">
+        <v>0</v>
+      </c>
+      <c r="X324" s="1">
         <v>1000000</v>
       </c>
-      <c r="X324" s="1" t="s">
+      <c r="Y324" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="325" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C325" s="1">
         <v>5000043</v>
       </c>
@@ -24531,14 +25535,17 @@
       <c r="V325" s="1">
         <v>1</v>
       </c>
-      <c r="W325" s="1">
+      <c r="W325" s="13">
+        <v>0</v>
+      </c>
+      <c r="X325" s="1">
         <v>1000000</v>
       </c>
-      <c r="X325" s="1" t="s">
+      <c r="Y325" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="326" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C326" s="1">
         <v>5000051</v>
       </c>
@@ -24599,14 +25606,17 @@
       <c r="V326" s="1">
         <v>1</v>
       </c>
-      <c r="W326" s="1">
+      <c r="W326" s="13">
+        <v>0</v>
+      </c>
+      <c r="X326" s="1">
         <v>1000000</v>
       </c>
-      <c r="X326" s="1" t="s">
+      <c r="Y326" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="327" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C327" s="1">
         <v>5000052</v>
       </c>
@@ -24667,14 +25677,17 @@
       <c r="V327" s="1">
         <v>1</v>
       </c>
-      <c r="W327" s="1">
+      <c r="W327" s="13">
+        <v>0</v>
+      </c>
+      <c r="X327" s="1">
         <v>1000000</v>
       </c>
-      <c r="X327" s="1" t="s">
+      <c r="Y327" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="328" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="328" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C328" s="1">
         <v>5000061</v>
       </c>
@@ -24735,14 +25748,17 @@
       <c r="V328" s="1">
         <v>1</v>
       </c>
-      <c r="W328" s="1">
+      <c r="W328" s="13">
+        <v>0</v>
+      </c>
+      <c r="X328" s="1">
         <v>1000000</v>
       </c>
-      <c r="X328" s="1" t="s">
+      <c r="Y328" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="329" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C329" s="1">
         <v>5000062</v>
       </c>
@@ -24803,14 +25819,17 @@
       <c r="V329" s="1">
         <v>1</v>
       </c>
-      <c r="W329" s="1">
+      <c r="W329" s="13">
+        <v>0</v>
+      </c>
+      <c r="X329" s="1">
         <v>1000000</v>
       </c>
-      <c r="X329" s="1" t="s">
+      <c r="Y329" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="330" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C330" s="1">
         <v>5000071</v>
       </c>
@@ -24871,14 +25890,17 @@
       <c r="V330" s="1">
         <v>1</v>
       </c>
-      <c r="W330" s="1">
+      <c r="W330" s="13">
+        <v>0</v>
+      </c>
+      <c r="X330" s="1">
         <v>1000000</v>
       </c>
-      <c r="X330" s="1" t="s">
+      <c r="Y330" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="331" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C331" s="1">
         <v>5000072</v>
       </c>
@@ -24939,14 +25961,17 @@
       <c r="V331" s="1">
         <v>1</v>
       </c>
-      <c r="W331" s="1">
+      <c r="W331" s="13">
+        <v>0</v>
+      </c>
+      <c r="X331" s="1">
         <v>1000000</v>
       </c>
-      <c r="X331" s="1" t="s">
+      <c r="Y331" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="332" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C332" s="1">
         <v>5000081</v>
       </c>
@@ -25007,14 +26032,17 @@
       <c r="V332" s="1">
         <v>1</v>
       </c>
-      <c r="W332" s="1">
+      <c r="W332" s="13">
+        <v>0</v>
+      </c>
+      <c r="X332" s="1">
         <v>1000000</v>
       </c>
-      <c r="X332" s="1" t="s">
+      <c r="Y332" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="333" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C333" s="1">
         <v>5000082</v>
       </c>
@@ -25075,14 +26103,17 @@
       <c r="V333" s="1">
         <v>1</v>
       </c>
-      <c r="W333" s="1">
+      <c r="W333" s="13">
+        <v>0</v>
+      </c>
+      <c r="X333" s="1">
         <v>1000000</v>
       </c>
-      <c r="X333" s="1" t="s">
+      <c r="Y333" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="334" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C334" s="1">
         <v>5000091</v>
       </c>
@@ -25143,14 +26174,17 @@
       <c r="V334" s="1">
         <v>1</v>
       </c>
-      <c r="W334" s="1">
+      <c r="W334" s="13">
+        <v>0</v>
+      </c>
+      <c r="X334" s="1">
         <v>1000000</v>
       </c>
-      <c r="X334" s="1" t="s">
+      <c r="Y334" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="335" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C335" s="1">
         <v>5000092</v>
       </c>
@@ -25211,14 +26245,17 @@
       <c r="V335" s="1">
         <v>1</v>
       </c>
-      <c r="W335" s="1">
+      <c r="W335" s="13">
+        <v>0</v>
+      </c>
+      <c r="X335" s="1">
         <v>1000000</v>
       </c>
-      <c r="X335" s="1" t="s">
+      <c r="Y335" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="336" spans="3:24" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="3:25" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C336" s="1">
         <v>5000093</v>
       </c>
@@ -25279,10 +26316,13 @@
       <c r="V336" s="1">
         <v>1</v>
       </c>
-      <c r="W336" s="1">
+      <c r="W336" s="13">
+        <v>0</v>
+      </c>
+      <c r="X336" s="1">
         <v>1000000</v>
       </c>
-      <c r="X336" s="1" t="s">
+      <c r="Y336" s="1" t="s">
         <v>610</v>
       </c>
     </row>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78B809A-19F6-4DD3-9788-7B6010FDAC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6966CE0E-32A2-40CE-AC5C-569060A20D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipMakeProto" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EquipMakeProto!$G$1:$G$1075</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -474,7 +477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="744">
   <si>
     <t>#</t>
   </si>
@@ -2644,7 +2647,222 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>10020001;20@10000147;20</t>
+    <t>金丝魔线</t>
+  </si>
+  <si>
+    <t>天蓝魔线</t>
+  </si>
+  <si>
+    <t>金丝魔环</t>
+  </si>
+  <si>
+    <t>天蓝魔环</t>
+  </si>
+  <si>
+    <t>金色魔线</t>
+  </si>
+  <si>
+    <t>碧蓝魔线</t>
+  </si>
+  <si>
+    <t>金色魔环</t>
+  </si>
+  <si>
+    <t>碧蓝魔环</t>
+  </si>
+  <si>
+    <t>辉煌魔线</t>
+  </si>
+  <si>
+    <t>闪光魔线</t>
+  </si>
+  <si>
+    <t>辉煌魔环</t>
+  </si>
+  <si>
+    <t>闪光魔环</t>
+  </si>
+  <si>
+    <t>智力之石</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量之石</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂之石</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼之石</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>光灵之石</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇猛之石</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10020001;100@10000144;10@10021010;100@10021008;2</t>
+  </si>
+  <si>
+    <t>10020001;150@10000144;15@10023010;150@10023008;2</t>
+  </si>
+  <si>
+    <t>10020001;200@10000144;20@10025010;200@10025008;2</t>
+  </si>
+  <si>
+    <t>10020001;100@10000145;10@10021010;100@10021008;2</t>
+  </si>
+  <si>
+    <t>10020001;150@10000145;15@10023010;150@10023008;2</t>
+  </si>
+  <si>
+    <t>10020001;200@10000145;20@10025010;200@10025008;2</t>
+  </si>
+  <si>
+    <t>10020001;200@10000146;20@10021010;200@10021008;3@10021009</t>
+  </si>
+  <si>
+    <t>10020001;300@10000146;30@10023010;300@10023008;3@10023009</t>
+  </si>
+  <si>
+    <t>10020001;400@10000146;40@10025010;400@10025008;3@10025009</t>
+  </si>
+  <si>
+    <t>10020001;200@10000147;30@10021003;60@10021008;2@10021009</t>
+  </si>
+  <si>
+    <t>10020001;200@10000147;30@10021006;60@10021008;2@10021009</t>
+  </si>
+  <si>
+    <t>10020001;200@10000147;30@10021007;60@10021008;3@10021009</t>
+  </si>
+  <si>
+    <t>10020001;200@10000147;30@10021007;60@10021008;2@10021009</t>
+  </si>
+  <si>
+    <t>10020001;250@10000147;40@10021003;80@10023008;2@10023009</t>
+  </si>
+  <si>
+    <t>10020001;250@10000147;40@10021006;80@10023008;2@10023009</t>
+  </si>
+  <si>
+    <t>10020001;250@10000147;40@10021007;80@10023008;2@10023009</t>
+  </si>
+  <si>
+    <t>10020001;300@10000147;40@10021003;100@10025008;2@10025009</t>
+  </si>
+  <si>
+    <t>10020001;300@10000147;40@10021006;100@10025008;2@10025009</t>
+  </si>
+  <si>
+    <t>10020001;300@10000147;40@10021007;100@10025008;2@10025009</t>
+  </si>
+  <si>
+    <t>10020001;50@10000147;10@10021001;30@10021008;1</t>
+  </si>
+  <si>
+    <t>10020001;50@10000147;10@10021002;30@10021008;1</t>
+  </si>
+  <si>
+    <t>10020001;50@10000147;10@10021005;30@10021008;1</t>
+  </si>
+  <si>
+    <t>10020001;50@10000147;10@10021006;30@10021008;1</t>
+  </si>
+  <si>
+    <t>10020001;50@10000147;10@10021004;30@10021008;1</t>
+  </si>
+  <si>
+    <t>10020001;50@10000147;10@10021003;30@10021008;1</t>
+  </si>
+  <si>
+    <t>10020001;75@10000147;15@10021001;40@10023008;1</t>
+  </si>
+  <si>
+    <t>10020001;75@10000147;15@10021002;40@10023008;1</t>
+  </si>
+  <si>
+    <t>10020001;75@10000147;15@10021005;40@10023008;1</t>
+  </si>
+  <si>
+    <t>10020001;75@10000147;15@10021006;40@10023008;1</t>
+  </si>
+  <si>
+    <t>10020001;75@10000147;15@10021004;40@10023008;1</t>
+  </si>
+  <si>
+    <t>10020001;75@10000147;15@10021003;40@10023008;1</t>
+  </si>
+  <si>
+    <t>10020001;100@10000147;20@10021001;50@10025008;1</t>
+  </si>
+  <si>
+    <t>10020001;100@10000147;20@10021002;50@10025008;1</t>
+  </si>
+  <si>
+    <t>10020001;100@10000147;20@10021005;50@10025008;1</t>
+  </si>
+  <si>
+    <t>10020001;100@10000147;20@10021006;50@10025008;1</t>
+  </si>
+  <si>
+    <t>10020001;100@10000147;20@10021004;50@10025008;1</t>
+  </si>
+  <si>
+    <t>10020001;100@10000147;20@10021003;50@10025008;1</t>
+  </si>
+  <si>
+    <t>磨刀石:暴击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨刀石:命中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨刀石:闪避</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>磨刀石:韧性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精钢磨刀石:韧性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锋利磨刀石:韧性</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精钢磨刀石:闪避</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锋利磨刀石:闪避</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精钢磨刀石:命中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锋利磨刀石:命中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锋利磨刀石:暴击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精钢磨刀石:暴击</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2652,7 +2870,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2797,6 +3015,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2918,7 +3143,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3034,6 +3259,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3342,11 +3573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:Z1078"/>
+  <dimension ref="C1:Z1075"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z395" sqref="Z395"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G332" sqref="G332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -20054,7 +20285,7 @@
         <v>3</v>
       </c>
       <c r="F234" s="37">
-        <v>15501002</v>
+        <v>15506003</v>
       </c>
       <c r="G234" s="42">
         <v>0</v>
@@ -20127,7 +20358,7 @@
         <v>1</v>
       </c>
       <c r="F235" s="37">
-        <v>15501004</v>
+        <v>15510011</v>
       </c>
       <c r="G235" s="42">
         <v>0</v>
@@ -20200,7 +20431,7 @@
         <v>1</v>
       </c>
       <c r="F236" s="37">
-        <v>15501006</v>
+        <v>15510012</v>
       </c>
       <c r="G236" s="42">
         <v>0</v>
@@ -20273,7 +20504,7 @@
         <v>1</v>
       </c>
       <c r="F237" s="37">
-        <v>15502002</v>
+        <v>15510121</v>
       </c>
       <c r="G237" s="42">
         <v>0</v>
@@ -20346,7 +20577,7 @@
         <v>1</v>
       </c>
       <c r="F238" s="37">
-        <v>15502004</v>
+        <v>15510122</v>
       </c>
       <c r="G238" s="42">
         <v>0</v>
@@ -20419,7 +20650,7 @@
         <v>2</v>
       </c>
       <c r="F239" s="37">
-        <v>15502006</v>
+        <v>15511011</v>
       </c>
       <c r="G239" s="42">
         <v>0</v>
@@ -20492,7 +20723,7 @@
         <v>2</v>
       </c>
       <c r="F240" s="37">
-        <v>15503002</v>
+        <v>15511012</v>
       </c>
       <c r="G240" s="42">
         <v>0</v>
@@ -20565,7 +20796,7 @@
         <v>2</v>
       </c>
       <c r="F241" s="37">
-        <v>15503004</v>
+        <v>15511013</v>
       </c>
       <c r="G241" s="42">
         <v>0</v>
@@ -27608,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="H337" s="39">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I337" s="1">
         <v>0</v>
@@ -27659,10 +27890,10 @@
         <v>0</v>
       </c>
       <c r="Y337" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z337" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z337" s="43" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="338" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27682,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="H338" s="39">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="I338" s="1">
         <v>0</v>
@@ -27733,10 +27964,10 @@
         <v>0</v>
       </c>
       <c r="Y338" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z338" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z338" s="43" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="339" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27756,7 +27987,7 @@
         <v>1</v>
       </c>
       <c r="H339" s="39">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I339" s="1">
         <v>0</v>
@@ -27807,10 +28038,10 @@
         <v>0</v>
       </c>
       <c r="Y339" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z339" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z339" s="43" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="340" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27831,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="H340" s="39">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="I340" s="1">
         <v>0</v>
@@ -27882,10 +28113,10 @@
         <v>0</v>
       </c>
       <c r="Y340" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z340" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z340" s="43" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="341" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27906,7 +28137,7 @@
         <v>0</v>
       </c>
       <c r="H341" s="39">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I341" s="1">
         <v>0</v>
@@ -27957,10 +28188,10 @@
         <v>0</v>
       </c>
       <c r="Y341" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z341" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z341" s="43" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="342" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27981,7 +28212,7 @@
         <v>1</v>
       </c>
       <c r="H342" s="39">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I342" s="1">
         <v>0</v>
@@ -28032,10 +28263,10 @@
         <v>0</v>
       </c>
       <c r="Y342" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z342" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z342" s="43" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="343" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28056,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="H343" s="39">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="I343" s="1">
         <v>0</v>
@@ -28107,10 +28338,10 @@
         <v>0</v>
       </c>
       <c r="Y343" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z343" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z343" s="43" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="344" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28131,7 +28362,7 @@
         <v>0</v>
       </c>
       <c r="H344" s="39">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="I344" s="1">
         <v>0</v>
@@ -28182,10 +28413,10 @@
         <v>0</v>
       </c>
       <c r="Y344" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z344" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z344" s="43" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="345" spans="3:26" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -28206,7 +28437,7 @@
         <v>1</v>
       </c>
       <c r="H345" s="39">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I345" s="1">
         <v>0</v>
@@ -28257,10 +28488,10 @@
         <v>0</v>
       </c>
       <c r="Y345" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z345" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z345" s="43" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="346" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28280,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="H346" s="39">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="I346" s="1">
         <v>0</v>
@@ -28331,10 +28562,10 @@
         <v>0</v>
       </c>
       <c r="Y346" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z346" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z346" s="43" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="347" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28354,7 +28585,7 @@
         <v>0</v>
       </c>
       <c r="H347" s="39">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="I347" s="1">
         <v>0</v>
@@ -28405,10 +28636,10 @@
         <v>0</v>
       </c>
       <c r="Y347" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z347" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z347" s="43" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="348" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28428,7 +28659,7 @@
         <v>0</v>
       </c>
       <c r="H348" s="39">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="I348" s="1">
         <v>0</v>
@@ -28479,10 +28710,10 @@
         <v>0</v>
       </c>
       <c r="Y348" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z348" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z348" s="43" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="349" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28502,7 +28733,7 @@
         <v>1</v>
       </c>
       <c r="H349" s="39">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I349" s="1">
         <v>0</v>
@@ -28553,10 +28784,10 @@
         <v>0</v>
       </c>
       <c r="Y349" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z349" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z349" s="43" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="350" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28576,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="H350" s="39">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I350" s="1">
         <v>0</v>
@@ -28627,10 +28858,10 @@
         <v>0</v>
       </c>
       <c r="Y350" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z350" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z350" s="43" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="351" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28650,7 +28881,7 @@
         <v>0</v>
       </c>
       <c r="H351" s="39">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I351" s="1">
         <v>0</v>
@@ -28701,10 +28932,10 @@
         <v>0</v>
       </c>
       <c r="Y351" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z351" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z351" s="43" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="352" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28724,7 +28955,7 @@
         <v>0</v>
       </c>
       <c r="H352" s="39">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="I352" s="1">
         <v>0</v>
@@ -28775,10 +29006,10 @@
         <v>0</v>
       </c>
       <c r="Y352" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z352" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z352" s="43" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="353" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28798,7 +29029,7 @@
         <v>1</v>
       </c>
       <c r="H353" s="39">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I353" s="1">
         <v>0</v>
@@ -28849,10 +29080,10 @@
         <v>0</v>
       </c>
       <c r="Y353" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z353" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z353" s="43" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="354" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28872,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="H354" s="39">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="I354" s="1">
         <v>0</v>
@@ -28923,10 +29154,10 @@
         <v>0</v>
       </c>
       <c r="Y354" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z354" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z354" s="43" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="355" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28946,7 +29177,7 @@
         <v>0</v>
       </c>
       <c r="H355" s="39">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I355" s="1">
         <v>0</v>
@@ -28997,10 +29228,10 @@
         <v>0</v>
       </c>
       <c r="Y355" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z355" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z355" s="43" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="356" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29020,7 +29251,7 @@
         <v>1</v>
       </c>
       <c r="H356" s="39">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="I356" s="1">
         <v>0</v>
@@ -29071,10 +29302,10 @@
         <v>0</v>
       </c>
       <c r="Y356" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z356" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z356" s="43" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="357" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29094,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="H357" s="39">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I357" s="1">
         <v>0</v>
@@ -29145,10 +29376,10 @@
         <v>0</v>
       </c>
       <c r="Y357" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z357" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z357" s="43" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="358" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29168,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="H358" s="39">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I358" s="1">
         <v>0</v>
@@ -29219,10 +29450,10 @@
         <v>0</v>
       </c>
       <c r="Y358" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z358" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z358" s="43" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="359" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29242,7 +29473,7 @@
         <v>1</v>
       </c>
       <c r="H359" s="39">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I359" s="1">
         <v>0</v>
@@ -29293,10 +29524,10 @@
         <v>0</v>
       </c>
       <c r="Y359" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z359" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z359" s="43" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="360" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29316,7 +29547,7 @@
         <v>0</v>
       </c>
       <c r="H360" s="39">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I360" s="1">
         <v>0</v>
@@ -29367,10 +29598,10 @@
         <v>0</v>
       </c>
       <c r="Y360" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z360" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z360" s="43" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="361" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29390,7 +29621,7 @@
         <v>0</v>
       </c>
       <c r="H361" s="39">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I361" s="1">
         <v>0</v>
@@ -29441,10 +29672,10 @@
         <v>0</v>
       </c>
       <c r="Y361" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z361" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z361" s="43" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="362" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29464,7 +29695,7 @@
         <v>1</v>
       </c>
       <c r="H362" s="39">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I362" s="1">
         <v>0</v>
@@ -29515,10 +29746,10 @@
         <v>0</v>
       </c>
       <c r="Y362" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z362" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z362" s="43" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="363" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29538,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="H363" s="39">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="I363" s="1">
         <v>0</v>
@@ -29589,10 +29820,10 @@
         <v>0</v>
       </c>
       <c r="Y363" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z363" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z363" s="43" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="364" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29612,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H364" s="39">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I364" s="1">
         <v>0</v>
@@ -29663,10 +29894,10 @@
         <v>0</v>
       </c>
       <c r="Y364" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z364" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z364" s="43" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="365" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29686,7 +29917,7 @@
         <v>1</v>
       </c>
       <c r="H365" s="39">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I365" s="1">
         <v>0</v>
@@ -29737,10 +29968,10 @@
         <v>0</v>
       </c>
       <c r="Y365" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z365" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z365" s="43" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="366" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29760,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="H366" s="39">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I366" s="1">
         <v>0</v>
@@ -29811,10 +30042,10 @@
         <v>0</v>
       </c>
       <c r="Y366" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z366" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z366" s="43" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="367" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29834,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="H367" s="39">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I367" s="1">
         <v>0</v>
@@ -29885,10 +30116,10 @@
         <v>0</v>
       </c>
       <c r="Y367" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z367" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z367" s="43" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="368" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29908,7 +30139,7 @@
         <v>0</v>
       </c>
       <c r="H368" s="39">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I368" s="1">
         <v>0</v>
@@ -29959,10 +30190,10 @@
         <v>0</v>
       </c>
       <c r="Y368" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z368" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z368" s="43" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="369" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29982,7 +30213,7 @@
         <v>1</v>
       </c>
       <c r="H369" s="39">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I369" s="1">
         <v>0</v>
@@ -30033,10 +30264,10 @@
         <v>0</v>
       </c>
       <c r="Y369" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z369" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z369" s="43" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="370" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30056,7 +30287,7 @@
         <v>0</v>
       </c>
       <c r="H370" s="39">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I370" s="1">
         <v>0</v>
@@ -30107,10 +30338,10 @@
         <v>0</v>
       </c>
       <c r="Y370" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z370" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z370" s="43" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="371" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30130,7 +30361,7 @@
         <v>0</v>
       </c>
       <c r="H371" s="39">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I371" s="1">
         <v>0</v>
@@ -30181,10 +30412,10 @@
         <v>0</v>
       </c>
       <c r="Y371" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z371" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z371" s="43" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="372" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30204,7 +30435,7 @@
         <v>0</v>
       </c>
       <c r="H372" s="39">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I372" s="1">
         <v>0</v>
@@ -30255,10 +30486,10 @@
         <v>0</v>
       </c>
       <c r="Y372" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z372" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z372" s="43" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="373" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30278,7 +30509,7 @@
         <v>1</v>
       </c>
       <c r="H373" s="39">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I373" s="1">
         <v>0</v>
@@ -30329,10 +30560,10 @@
         <v>0</v>
       </c>
       <c r="Y373" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z373" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z373" s="43" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="374" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30352,7 +30583,7 @@
         <v>0</v>
       </c>
       <c r="H374" s="39">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I374" s="1">
         <v>0</v>
@@ -30403,10 +30634,10 @@
         <v>0</v>
       </c>
       <c r="Y374" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z374" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z374" s="43" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="375" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30426,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="H375" s="39">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I375" s="1">
         <v>0</v>
@@ -30477,10 +30708,10 @@
         <v>0</v>
       </c>
       <c r="Y375" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z375" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z375" s="43" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="376" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30500,7 +30731,7 @@
         <v>1</v>
       </c>
       <c r="H376" s="39">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I376" s="1">
         <v>0</v>
@@ -30551,10 +30782,10 @@
         <v>0</v>
       </c>
       <c r="Y376" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z376" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z376" s="43" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="377" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30574,7 +30805,8 @@
         <v>0</v>
       </c>
       <c r="H377" s="39">
-        <v>55</v>
+        <f>H357+20</f>
+        <v>50</v>
       </c>
       <c r="I377" s="1">
         <v>0</v>
@@ -30625,10 +30857,10 @@
         <v>0</v>
       </c>
       <c r="Y377" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z377" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z377" s="43" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="378" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30648,7 +30880,8 @@
         <v>0</v>
       </c>
       <c r="H378" s="39">
-        <v>55</v>
+        <f t="shared" ref="H378:H394" si="2">H358+20</f>
+        <v>60</v>
       </c>
       <c r="I378" s="1">
         <v>0</v>
@@ -30699,10 +30932,10 @@
         <v>0</v>
       </c>
       <c r="Y378" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z378" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z378" s="43" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="379" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30722,7 +30955,8 @@
         <v>1</v>
       </c>
       <c r="H379" s="39">
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="I379" s="1">
         <v>0</v>
@@ -30773,10 +31007,10 @@
         <v>0</v>
       </c>
       <c r="Y379" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z379" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z379" s="43" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="380" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30796,7 +31030,8 @@
         <v>0</v>
       </c>
       <c r="H380" s="39">
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>52</v>
       </c>
       <c r="I380" s="1">
         <v>0</v>
@@ -30847,10 +31082,10 @@
         <v>0</v>
       </c>
       <c r="Y380" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z380" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z380" s="43" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="381" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30870,7 +31105,7 @@
         <v>0</v>
       </c>
       <c r="H381" s="39">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I381" s="1">
         <v>0</v>
@@ -30921,10 +31156,10 @@
         <v>0</v>
       </c>
       <c r="Y381" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z381" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z381" s="43" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="382" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30944,7 +31179,8 @@
         <v>1</v>
       </c>
       <c r="H382" s="39">
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="I382" s="1">
         <v>0</v>
@@ -30995,10 +31231,10 @@
         <v>0</v>
       </c>
       <c r="Y382" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z382" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z382" s="43" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="383" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31018,7 +31254,8 @@
         <v>0</v>
       </c>
       <c r="H383" s="39">
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
       <c r="I383" s="1">
         <v>0</v>
@@ -31069,10 +31306,10 @@
         <v>0</v>
       </c>
       <c r="Y383" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z383" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z383" s="43" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="384" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31092,7 +31329,7 @@
         <v>0</v>
       </c>
       <c r="H384" s="39">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I384" s="1">
         <v>0</v>
@@ -31143,10 +31380,10 @@
         <v>0</v>
       </c>
       <c r="Y384" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z384" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z384" s="43" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="385" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31166,7 +31403,8 @@
         <v>1</v>
       </c>
       <c r="H385" s="39">
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="I385" s="1">
         <v>0</v>
@@ -31217,10 +31455,10 @@
         <v>0</v>
       </c>
       <c r="Y385" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z385" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z385" s="43" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="386" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31240,7 +31478,8 @@
         <v>0</v>
       </c>
       <c r="H386" s="39">
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
       </c>
       <c r="I386" s="1">
         <v>0</v>
@@ -31291,10 +31530,10 @@
         <v>0</v>
       </c>
       <c r="Y386" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z386" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z386" s="43" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="387" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31314,7 +31553,7 @@
         <v>0</v>
       </c>
       <c r="H387" s="39">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I387" s="1">
         <v>0</v>
@@ -31365,10 +31604,10 @@
         <v>0</v>
       </c>
       <c r="Y387" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z387" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z387" s="43" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="388" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31388,7 +31627,7 @@
         <v>0</v>
       </c>
       <c r="H388" s="39">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I388" s="1">
         <v>0</v>
@@ -31439,10 +31678,10 @@
         <v>0</v>
       </c>
       <c r="Y388" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z388" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z388" s="43" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="389" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31462,7 +31701,8 @@
         <v>1</v>
       </c>
       <c r="H389" s="39">
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="I389" s="1">
         <v>0</v>
@@ -31513,10 +31753,10 @@
         <v>0</v>
       </c>
       <c r="Y389" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z389" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z389" s="43" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="390" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31536,7 +31776,8 @@
         <v>0</v>
       </c>
       <c r="H390" s="39">
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
       <c r="I390" s="1">
         <v>0</v>
@@ -31587,10 +31828,10 @@
         <v>0</v>
       </c>
       <c r="Y390" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z390" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z390" s="43" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="391" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31610,7 +31851,7 @@
         <v>0</v>
       </c>
       <c r="H391" s="39">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I391" s="1">
         <v>0</v>
@@ -31661,10 +31902,10 @@
         <v>0</v>
       </c>
       <c r="Y391" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z391" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z391" s="43" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="392" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31735,10 +31976,10 @@
         <v>0</v>
       </c>
       <c r="Y392" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z392" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z392" s="43" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="393" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31758,7 +31999,8 @@
         <v>1</v>
       </c>
       <c r="H393" s="39">
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="I393" s="1">
         <v>0</v>
@@ -31809,10 +32051,10 @@
         <v>0</v>
       </c>
       <c r="Y393" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z393" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z393" s="43" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="394" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31832,7 +32074,8 @@
         <v>0</v>
       </c>
       <c r="H394" s="39">
-        <v>55</v>
+        <f t="shared" si="2"/>
+        <v>59</v>
       </c>
       <c r="I394" s="1">
         <v>0</v>
@@ -31883,10 +32126,10 @@
         <v>0</v>
       </c>
       <c r="Y394" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z394" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z394" s="43" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="395" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31957,10 +32200,10 @@
         <v>0</v>
       </c>
       <c r="Y395" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z395" s="1" t="s">
-        <v>677</v>
+        <v>0</v>
+      </c>
+      <c r="Z395" s="43" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="396" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31980,7 +32223,7 @@
         <v>1</v>
       </c>
       <c r="H396" s="39">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I396" s="1">
         <v>0</v>
@@ -32031,249 +32274,2276 @@
         <v>0</v>
       </c>
       <c r="Y396" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="Z396" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z396" s="43" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="397" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C397" s="40">
+        <v>7101001</v>
+      </c>
+      <c r="D397" s="41" t="s">
+        <v>732</v>
+      </c>
+      <c r="E397" s="1">
+        <v>1</v>
+      </c>
+      <c r="F397" s="40">
+        <v>10070101</v>
+      </c>
+      <c r="G397" s="1">
+        <v>0</v>
+      </c>
+      <c r="H397" s="39">
+        <v>10</v>
+      </c>
+      <c r="I397" s="1">
+        <v>0</v>
+      </c>
+      <c r="J397" s="1">
+        <v>0</v>
+      </c>
+      <c r="K397" s="1">
+        <v>0</v>
+      </c>
+      <c r="L397" s="1">
+        <v>1</v>
+      </c>
+      <c r="M397" s="1">
+        <v>1</v>
+      </c>
+      <c r="N397" s="1">
+        <v>0</v>
+      </c>
+      <c r="O397" s="1">
+        <v>0</v>
+      </c>
+      <c r="P397" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q397" s="1">
+        <v>1</v>
+      </c>
+      <c r="R397" s="1">
+        <v>1</v>
+      </c>
+      <c r="S397" s="1">
+        <v>0</v>
+      </c>
+      <c r="T397" s="1">
+        <v>0</v>
+      </c>
+      <c r="U397" s="1">
+        <v>0</v>
+      </c>
+      <c r="V397" s="1">
+        <v>0</v>
+      </c>
+      <c r="W397" s="1">
+        <v>1</v>
+      </c>
+      <c r="X397" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y397" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z397" s="43" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="398" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C398" s="40">
+        <v>7101002</v>
+      </c>
+      <c r="D398" s="41" t="s">
+        <v>733</v>
+      </c>
+      <c r="E398" s="1">
+        <v>1</v>
+      </c>
+      <c r="F398" s="40">
+        <v>10070102</v>
+      </c>
+      <c r="G398" s="1">
+        <v>0</v>
+      </c>
+      <c r="H398" s="1">
+        <v>12</v>
+      </c>
+      <c r="I398" s="1">
+        <v>0</v>
+      </c>
+      <c r="J398" s="1">
+        <v>0</v>
+      </c>
+      <c r="K398" s="1">
+        <v>0</v>
+      </c>
+      <c r="L398" s="1">
+        <v>1</v>
+      </c>
+      <c r="M398" s="1">
+        <v>1</v>
+      </c>
+      <c r="N398" s="1">
+        <v>0</v>
+      </c>
+      <c r="O398" s="1">
+        <v>0</v>
+      </c>
+      <c r="P398" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q398" s="1">
+        <v>1</v>
+      </c>
+      <c r="R398" s="1">
+        <v>1</v>
+      </c>
+      <c r="S398" s="1">
+        <v>0</v>
+      </c>
+      <c r="T398" s="1">
+        <v>0</v>
+      </c>
+      <c r="U398" s="1">
+        <v>0</v>
+      </c>
+      <c r="V398" s="1">
+        <v>0</v>
+      </c>
+      <c r="W398" s="1">
+        <v>1</v>
+      </c>
+      <c r="X398" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y398" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z398" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="399" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C399" s="40">
+        <v>7101003</v>
+      </c>
+      <c r="D399" s="41" t="s">
+        <v>734</v>
+      </c>
+      <c r="E399" s="1">
+        <v>1</v>
+      </c>
+      <c r="F399" s="40">
+        <v>10070103</v>
+      </c>
+      <c r="G399" s="1">
+        <v>0</v>
+      </c>
+      <c r="H399" s="1">
+        <v>14</v>
+      </c>
+      <c r="I399" s="1">
+        <v>0</v>
+      </c>
+      <c r="J399" s="1">
+        <v>0</v>
+      </c>
+      <c r="K399" s="1">
+        <v>0</v>
+      </c>
+      <c r="L399" s="1">
+        <v>1</v>
+      </c>
+      <c r="M399" s="1">
+        <v>1</v>
+      </c>
+      <c r="N399" s="1">
+        <v>0</v>
+      </c>
+      <c r="O399" s="1">
+        <v>0</v>
+      </c>
+      <c r="P399" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q399" s="1">
+        <v>1</v>
+      </c>
+      <c r="R399" s="1">
+        <v>1</v>
+      </c>
+      <c r="S399" s="1">
+        <v>0</v>
+      </c>
+      <c r="T399" s="1">
+        <v>0</v>
+      </c>
+      <c r="U399" s="1">
+        <v>0</v>
+      </c>
+      <c r="V399" s="1">
+        <v>0</v>
+      </c>
+      <c r="W399" s="1">
+        <v>1</v>
+      </c>
+      <c r="X399" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y399" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z399" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="400" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C400" s="40">
+        <v>7101004</v>
+      </c>
+      <c r="D400" s="41" t="s">
+        <v>735</v>
+      </c>
+      <c r="E400" s="1">
+        <v>1</v>
+      </c>
+      <c r="F400" s="40">
+        <v>10070104</v>
+      </c>
+      <c r="G400" s="1">
+        <v>0</v>
+      </c>
+      <c r="H400" s="1">
+        <v>16</v>
+      </c>
+      <c r="I400" s="1">
+        <v>0</v>
+      </c>
+      <c r="J400" s="1">
+        <v>0</v>
+      </c>
+      <c r="K400" s="1">
+        <v>0</v>
+      </c>
+      <c r="L400" s="1">
+        <v>1</v>
+      </c>
+      <c r="M400" s="1">
+        <v>1</v>
+      </c>
+      <c r="N400" s="1">
+        <v>0</v>
+      </c>
+      <c r="O400" s="1">
+        <v>0</v>
+      </c>
+      <c r="P400" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q400" s="1">
+        <v>1</v>
+      </c>
+      <c r="R400" s="1">
+        <v>1</v>
+      </c>
+      <c r="S400" s="1">
+        <v>0</v>
+      </c>
+      <c r="T400" s="1">
+        <v>0</v>
+      </c>
+      <c r="U400" s="1">
+        <v>0</v>
+      </c>
+      <c r="V400" s="1">
+        <v>0</v>
+      </c>
+      <c r="W400" s="1">
+        <v>1</v>
+      </c>
+      <c r="X400" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y400" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z400" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="401" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C401" s="40">
+        <v>7102001</v>
+      </c>
+      <c r="D401" s="41" t="s">
+        <v>743</v>
+      </c>
+      <c r="E401" s="1">
+        <v>1</v>
+      </c>
+      <c r="F401" s="40">
+        <v>10070201</v>
+      </c>
+      <c r="G401" s="1">
+        <v>1</v>
+      </c>
+      <c r="H401" s="1">
+        <v>30</v>
+      </c>
+      <c r="I401" s="1">
+        <v>0</v>
+      </c>
+      <c r="J401" s="1">
+        <v>0</v>
+      </c>
+      <c r="K401" s="1">
+        <v>0</v>
+      </c>
+      <c r="L401" s="1">
+        <v>1</v>
+      </c>
+      <c r="M401" s="1">
+        <v>1</v>
+      </c>
+      <c r="N401" s="1">
+        <v>0</v>
+      </c>
+      <c r="O401" s="1">
+        <v>0</v>
+      </c>
+      <c r="P401" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q401" s="1">
+        <v>1</v>
+      </c>
+      <c r="R401" s="1">
+        <v>1</v>
+      </c>
+      <c r="S401" s="1">
+        <v>0</v>
+      </c>
+      <c r="T401" s="1">
+        <v>0</v>
+      </c>
+      <c r="U401" s="1">
+        <v>0</v>
+      </c>
+      <c r="V401" s="1">
+        <v>0</v>
+      </c>
+      <c r="W401" s="1">
+        <v>1</v>
+      </c>
+      <c r="X401" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y401" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z401" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="402" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C402" s="40">
+        <v>7102002</v>
+      </c>
+      <c r="D402" s="41" t="s">
+        <v>740</v>
+      </c>
+      <c r="E402" s="1">
+        <v>1</v>
+      </c>
+      <c r="F402" s="40">
+        <v>10070202</v>
+      </c>
+      <c r="G402" s="1">
+        <v>1</v>
+      </c>
+      <c r="H402" s="1">
+        <v>30</v>
+      </c>
+      <c r="I402" s="1">
+        <v>0</v>
+      </c>
+      <c r="J402" s="1">
+        <v>0</v>
+      </c>
+      <c r="K402" s="1">
+        <v>0</v>
+      </c>
+      <c r="L402" s="1">
+        <v>1</v>
+      </c>
+      <c r="M402" s="1">
+        <v>1</v>
+      </c>
+      <c r="N402" s="1">
+        <v>0</v>
+      </c>
+      <c r="O402" s="1">
+        <v>0</v>
+      </c>
+      <c r="P402" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q402" s="1">
+        <v>1</v>
+      </c>
+      <c r="R402" s="1">
+        <v>1</v>
+      </c>
+      <c r="S402" s="1">
+        <v>0</v>
+      </c>
+      <c r="T402" s="1">
+        <v>0</v>
+      </c>
+      <c r="U402" s="1">
+        <v>0</v>
+      </c>
+      <c r="V402" s="1">
+        <v>0</v>
+      </c>
+      <c r="W402" s="1">
+        <v>1</v>
+      </c>
+      <c r="X402" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y402" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z402" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="403" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C403" s="40">
+        <v>7102003</v>
+      </c>
+      <c r="D403" s="41" t="s">
+        <v>738</v>
+      </c>
+      <c r="E403" s="1">
+        <v>1</v>
+      </c>
+      <c r="F403" s="40">
+        <v>10070203</v>
+      </c>
+      <c r="G403" s="1">
+        <v>1</v>
+      </c>
+      <c r="H403" s="1">
+        <v>30</v>
+      </c>
+      <c r="I403" s="1">
+        <v>0</v>
+      </c>
+      <c r="J403" s="1">
+        <v>0</v>
+      </c>
+      <c r="K403" s="1">
+        <v>0</v>
+      </c>
+      <c r="L403" s="1">
+        <v>1</v>
+      </c>
+      <c r="M403" s="1">
+        <v>1</v>
+      </c>
+      <c r="N403" s="1">
+        <v>0</v>
+      </c>
+      <c r="O403" s="1">
+        <v>0</v>
+      </c>
+      <c r="P403" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q403" s="1">
+        <v>1</v>
+      </c>
+      <c r="R403" s="1">
+        <v>1</v>
+      </c>
+      <c r="S403" s="1">
+        <v>0</v>
+      </c>
+      <c r="T403" s="1">
+        <v>0</v>
+      </c>
+      <c r="U403" s="1">
+        <v>0</v>
+      </c>
+      <c r="V403" s="1">
+        <v>0</v>
+      </c>
+      <c r="W403" s="1">
+        <v>1</v>
+      </c>
+      <c r="X403" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y403" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z403" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="404" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C404" s="40">
+        <v>7102004</v>
+      </c>
+      <c r="D404" s="41" t="s">
+        <v>736</v>
+      </c>
+      <c r="E404" s="1">
+        <v>1</v>
+      </c>
+      <c r="F404" s="40">
+        <v>10070204</v>
+      </c>
+      <c r="G404" s="1">
+        <v>1</v>
+      </c>
+      <c r="H404" s="1">
+        <v>30</v>
+      </c>
+      <c r="I404" s="1">
+        <v>0</v>
+      </c>
+      <c r="J404" s="1">
+        <v>0</v>
+      </c>
+      <c r="K404" s="1">
+        <v>0</v>
+      </c>
+      <c r="L404" s="1">
+        <v>1</v>
+      </c>
+      <c r="M404" s="1">
+        <v>1</v>
+      </c>
+      <c r="N404" s="1">
+        <v>0</v>
+      </c>
+      <c r="O404" s="1">
+        <v>0</v>
+      </c>
+      <c r="P404" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q404" s="1">
+        <v>1</v>
+      </c>
+      <c r="R404" s="1">
+        <v>1</v>
+      </c>
+      <c r="S404" s="1">
+        <v>0</v>
+      </c>
+      <c r="T404" s="1">
+        <v>0</v>
+      </c>
+      <c r="U404" s="1">
+        <v>0</v>
+      </c>
+      <c r="V404" s="1">
+        <v>0</v>
+      </c>
+      <c r="W404" s="1">
+        <v>1</v>
+      </c>
+      <c r="X404" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y404" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z404" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="405" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C405" s="40">
+        <v>7103001</v>
+      </c>
+      <c r="D405" s="41" t="s">
+        <v>742</v>
+      </c>
+      <c r="E405" s="1">
+        <v>1</v>
+      </c>
+      <c r="F405" s="40">
+        <v>10070301</v>
+      </c>
+      <c r="G405" s="1">
+        <v>1</v>
+      </c>
+      <c r="H405" s="1">
+        <v>50</v>
+      </c>
+      <c r="I405" s="1">
+        <v>0</v>
+      </c>
+      <c r="J405" s="1">
+        <v>0</v>
+      </c>
+      <c r="K405" s="1">
+        <v>0</v>
+      </c>
+      <c r="L405" s="1">
+        <v>1</v>
+      </c>
+      <c r="M405" s="1">
+        <v>1</v>
+      </c>
+      <c r="N405" s="1">
+        <v>0</v>
+      </c>
+      <c r="O405" s="1">
+        <v>0</v>
+      </c>
+      <c r="P405" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q405" s="1">
+        <v>1</v>
+      </c>
+      <c r="R405" s="1">
+        <v>1</v>
+      </c>
+      <c r="S405" s="1">
+        <v>0</v>
+      </c>
+      <c r="T405" s="1">
+        <v>0</v>
+      </c>
+      <c r="U405" s="1">
+        <v>0</v>
+      </c>
+      <c r="V405" s="1">
+        <v>0</v>
+      </c>
+      <c r="W405" s="1">
+        <v>1</v>
+      </c>
+      <c r="X405" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y405" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z405" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="406" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C406" s="40">
+        <v>7103002</v>
+      </c>
+      <c r="D406" s="41" t="s">
+        <v>741</v>
+      </c>
+      <c r="E406" s="1">
+        <v>1</v>
+      </c>
+      <c r="F406" s="40">
+        <v>10070302</v>
+      </c>
+      <c r="G406" s="1">
+        <v>1</v>
+      </c>
+      <c r="H406" s="1">
+        <v>50</v>
+      </c>
+      <c r="I406" s="1">
+        <v>0</v>
+      </c>
+      <c r="J406" s="1">
+        <v>0</v>
+      </c>
+      <c r="K406" s="1">
+        <v>0</v>
+      </c>
+      <c r="L406" s="1">
+        <v>1</v>
+      </c>
+      <c r="M406" s="1">
+        <v>1</v>
+      </c>
+      <c r="N406" s="1">
+        <v>0</v>
+      </c>
+      <c r="O406" s="1">
+        <v>0</v>
+      </c>
+      <c r="P406" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q406" s="1">
+        <v>1</v>
+      </c>
+      <c r="R406" s="1">
+        <v>1</v>
+      </c>
+      <c r="S406" s="1">
+        <v>0</v>
+      </c>
+      <c r="T406" s="1">
+        <v>0</v>
+      </c>
+      <c r="U406" s="1">
+        <v>0</v>
+      </c>
+      <c r="V406" s="1">
+        <v>0</v>
+      </c>
+      <c r="W406" s="1">
+        <v>1</v>
+      </c>
+      <c r="X406" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y406" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z406" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="407" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C407" s="40">
+        <v>7103003</v>
+      </c>
+      <c r="D407" s="41" t="s">
+        <v>739</v>
+      </c>
+      <c r="E407" s="1">
+        <v>1</v>
+      </c>
+      <c r="F407" s="40">
+        <v>10070303</v>
+      </c>
+      <c r="G407" s="1">
+        <v>1</v>
+      </c>
+      <c r="H407" s="1">
+        <v>50</v>
+      </c>
+      <c r="I407" s="1">
+        <v>0</v>
+      </c>
+      <c r="J407" s="1">
+        <v>0</v>
+      </c>
+      <c r="K407" s="1">
+        <v>0</v>
+      </c>
+      <c r="L407" s="1">
+        <v>1</v>
+      </c>
+      <c r="M407" s="1">
+        <v>1</v>
+      </c>
+      <c r="N407" s="1">
+        <v>0</v>
+      </c>
+      <c r="O407" s="1">
+        <v>0</v>
+      </c>
+      <c r="P407" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q407" s="1">
+        <v>1</v>
+      </c>
+      <c r="R407" s="1">
+        <v>1</v>
+      </c>
+      <c r="S407" s="1">
+        <v>0</v>
+      </c>
+      <c r="T407" s="1">
+        <v>0</v>
+      </c>
+      <c r="U407" s="1">
+        <v>0</v>
+      </c>
+      <c r="V407" s="1">
+        <v>0</v>
+      </c>
+      <c r="W407" s="1">
+        <v>1</v>
+      </c>
+      <c r="X407" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y407" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z407" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="408" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C408" s="40">
+        <v>7103004</v>
+      </c>
+      <c r="D408" s="41" t="s">
+        <v>737</v>
+      </c>
+      <c r="E408" s="1">
+        <v>1</v>
+      </c>
+      <c r="F408" s="40">
+        <v>10070304</v>
+      </c>
+      <c r="G408" s="1">
+        <v>1</v>
+      </c>
+      <c r="H408" s="1">
+        <v>50</v>
+      </c>
+      <c r="I408" s="1">
+        <v>0</v>
+      </c>
+      <c r="J408" s="1">
+        <v>0</v>
+      </c>
+      <c r="K408" s="1">
+        <v>0</v>
+      </c>
+      <c r="L408" s="1">
+        <v>1</v>
+      </c>
+      <c r="M408" s="1">
+        <v>1</v>
+      </c>
+      <c r="N408" s="1">
+        <v>0</v>
+      </c>
+      <c r="O408" s="1">
+        <v>0</v>
+      </c>
+      <c r="P408" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q408" s="1">
+        <v>1</v>
+      </c>
+      <c r="R408" s="1">
+        <v>1</v>
+      </c>
+      <c r="S408" s="1">
+        <v>0</v>
+      </c>
+      <c r="T408" s="1">
+        <v>0</v>
+      </c>
+      <c r="U408" s="1">
+        <v>0</v>
+      </c>
+      <c r="V408" s="1">
+        <v>0</v>
+      </c>
+      <c r="W408" s="1">
+        <v>1</v>
+      </c>
+      <c r="X408" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y408" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z408" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="409" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C409" s="40">
+        <v>7201001</v>
+      </c>
+      <c r="D409" s="44" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="397" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E397" s="2"/>
-      <c r="G397" s="1"/>
-      <c r="K397" s="1"/>
-      <c r="L397" s="1"/>
-      <c r="M397" s="1"/>
-      <c r="N397" s="1"/>
-      <c r="O397" s="1"/>
-      <c r="P397" s="1"/>
-      <c r="Q397" s="1"/>
-      <c r="R397" s="1"/>
-      <c r="S397" s="1"/>
-      <c r="T397" s="1"/>
-      <c r="U397" s="1"/>
-      <c r="V397" s="1"/>
-      <c r="W397" s="1"/>
-      <c r="X397" s="13"/>
-      <c r="Y397" s="1"/>
-    </row>
-    <row r="398" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E398" s="2"/>
-      <c r="G398" s="1"/>
-      <c r="K398" s="1"/>
-      <c r="L398" s="1"/>
-      <c r="M398" s="1"/>
-      <c r="N398" s="1"/>
-      <c r="O398" s="1"/>
-      <c r="P398" s="1"/>
-      <c r="Q398" s="1"/>
-      <c r="R398" s="1"/>
-      <c r="S398" s="1"/>
-      <c r="T398" s="1"/>
-      <c r="U398" s="1"/>
-      <c r="V398" s="1"/>
-      <c r="W398" s="1"/>
-      <c r="X398" s="13"/>
-      <c r="Y398" s="1"/>
-    </row>
-    <row r="399" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E399" s="2"/>
-      <c r="H399" s="2"/>
-      <c r="I399" s="2"/>
-      <c r="J399" s="2"/>
-    </row>
-    <row r="400" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="E400" s="2"/>
-      <c r="H400" s="2"/>
-      <c r="I400" s="2"/>
-      <c r="J400" s="2"/>
-    </row>
-    <row r="401" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E401" s="2"/>
-      <c r="H401" s="2"/>
-      <c r="I401" s="2"/>
-      <c r="J401" s="2"/>
-    </row>
-    <row r="402" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E402" s="2"/>
-      <c r="H402" s="2"/>
-      <c r="I402" s="2"/>
-      <c r="J402" s="2"/>
-    </row>
-    <row r="403" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E403" s="2"/>
-      <c r="H403" s="2"/>
-      <c r="I403" s="2"/>
-      <c r="J403" s="2"/>
-    </row>
-    <row r="404" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E404" s="2"/>
-      <c r="H404" s="2"/>
-      <c r="I404" s="2"/>
-      <c r="J404" s="2"/>
-    </row>
-    <row r="405" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E405" s="2"/>
-      <c r="H405" s="2"/>
-      <c r="I405" s="2"/>
-      <c r="J405" s="2"/>
-    </row>
-    <row r="406" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E406" s="2"/>
-      <c r="H406" s="2"/>
-      <c r="I406" s="2"/>
-      <c r="J406" s="2"/>
-    </row>
-    <row r="407" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E407" s="2"/>
-      <c r="H407" s="2"/>
-      <c r="I407" s="2"/>
-      <c r="J407" s="2"/>
-    </row>
-    <row r="408" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E408" s="2"/>
-      <c r="H408" s="2"/>
-      <c r="I408" s="2"/>
-      <c r="J408" s="2"/>
-    </row>
-    <row r="409" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E409" s="2"/>
-      <c r="H409" s="2"/>
-      <c r="I409" s="2"/>
-      <c r="J409" s="2"/>
-    </row>
-    <row r="410" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E410" s="2"/>
-      <c r="H410" s="2"/>
-      <c r="I410" s="2"/>
-      <c r="J410" s="2"/>
-    </row>
-    <row r="411" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E411" s="2"/>
-      <c r="H411" s="2"/>
-      <c r="I411" s="2"/>
-      <c r="J411" s="2"/>
-    </row>
-    <row r="412" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E412" s="2"/>
-      <c r="H412" s="2"/>
-      <c r="I412" s="2"/>
-      <c r="J412" s="2"/>
-    </row>
-    <row r="413" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E413" s="2"/>
-      <c r="H413" s="2"/>
-      <c r="I413" s="2"/>
-      <c r="J413" s="2"/>
-    </row>
-    <row r="414" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E414" s="2"/>
-      <c r="H414" s="2"/>
-      <c r="I414" s="2"/>
-      <c r="J414" s="2"/>
-    </row>
-    <row r="415" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E415" s="2"/>
-      <c r="H415" s="2"/>
-      <c r="I415" s="2"/>
-      <c r="J415" s="2"/>
-    </row>
-    <row r="416" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E416" s="2"/>
-      <c r="H416" s="2"/>
-      <c r="I416" s="2"/>
-      <c r="J416" s="2"/>
-    </row>
-    <row r="417" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E417" s="2"/>
-      <c r="H417" s="2"/>
-      <c r="I417" s="2"/>
-      <c r="J417" s="2"/>
-    </row>
-    <row r="418" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E418" s="2"/>
-      <c r="H418" s="2"/>
-      <c r="I418" s="2"/>
-      <c r="J418" s="2"/>
-    </row>
-    <row r="419" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E419" s="2"/>
-      <c r="H419" s="2"/>
-      <c r="I419" s="2"/>
-      <c r="J419" s="2"/>
-    </row>
-    <row r="420" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E420" s="2"/>
-      <c r="H420" s="2"/>
-      <c r="I420" s="2"/>
-      <c r="J420" s="2"/>
-    </row>
-    <row r="421" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E421" s="2"/>
-      <c r="H421" s="2"/>
-      <c r="I421" s="2"/>
-      <c r="J421" s="2"/>
-    </row>
-    <row r="422" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E422" s="2"/>
-      <c r="H422" s="2"/>
-      <c r="I422" s="2"/>
-      <c r="J422" s="2"/>
-    </row>
-    <row r="423" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E423" s="2"/>
-      <c r="H423" s="2"/>
-      <c r="I423" s="2"/>
-      <c r="J423" s="2"/>
-    </row>
-    <row r="424" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E424" s="2"/>
-      <c r="H424" s="2"/>
-      <c r="I424" s="2"/>
-      <c r="J424" s="2"/>
-    </row>
-    <row r="425" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E425" s="2"/>
-      <c r="H425" s="2"/>
-      <c r="I425" s="2"/>
-      <c r="J425" s="2"/>
-    </row>
-    <row r="426" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E426" s="2"/>
-      <c r="H426" s="2"/>
-      <c r="I426" s="2"/>
-      <c r="J426" s="2"/>
-    </row>
-    <row r="427" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E409" s="1">
+        <v>2</v>
+      </c>
+      <c r="F409" s="40">
+        <v>10080101</v>
+      </c>
+      <c r="G409" s="1">
+        <v>0</v>
+      </c>
+      <c r="H409" s="39">
+        <v>10</v>
+      </c>
+      <c r="I409" s="1">
+        <v>0</v>
+      </c>
+      <c r="J409" s="1">
+        <v>0</v>
+      </c>
+      <c r="K409" s="1">
+        <v>0</v>
+      </c>
+      <c r="L409" s="1">
+        <v>1</v>
+      </c>
+      <c r="M409" s="1">
+        <v>1</v>
+      </c>
+      <c r="N409" s="1">
+        <v>0</v>
+      </c>
+      <c r="O409" s="1">
+        <v>0</v>
+      </c>
+      <c r="P409" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q409" s="1">
+        <v>1</v>
+      </c>
+      <c r="R409" s="1">
+        <v>1</v>
+      </c>
+      <c r="S409" s="1">
+        <v>0</v>
+      </c>
+      <c r="T409" s="1">
+        <v>0</v>
+      </c>
+      <c r="U409" s="1">
+        <v>0</v>
+      </c>
+      <c r="V409" s="1">
+        <v>0</v>
+      </c>
+      <c r="W409" s="1">
+        <v>1</v>
+      </c>
+      <c r="X409" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y409" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z409" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="410" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C410" s="40">
+        <v>7201002</v>
+      </c>
+      <c r="D410" s="44" t="s">
+        <v>678</v>
+      </c>
+      <c r="E410" s="1">
+        <v>2</v>
+      </c>
+      <c r="F410" s="40">
+        <v>10080102</v>
+      </c>
+      <c r="G410" s="1">
+        <v>0</v>
+      </c>
+      <c r="H410" s="1">
+        <v>12</v>
+      </c>
+      <c r="I410" s="1">
+        <v>0</v>
+      </c>
+      <c r="J410" s="1">
+        <v>0</v>
+      </c>
+      <c r="K410" s="1">
+        <v>0</v>
+      </c>
+      <c r="L410" s="1">
+        <v>1</v>
+      </c>
+      <c r="M410" s="1">
+        <v>1</v>
+      </c>
+      <c r="N410" s="1">
+        <v>0</v>
+      </c>
+      <c r="O410" s="1">
+        <v>0</v>
+      </c>
+      <c r="P410" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q410" s="1">
+        <v>1</v>
+      </c>
+      <c r="R410" s="1">
+        <v>1</v>
+      </c>
+      <c r="S410" s="1">
+        <v>0</v>
+      </c>
+      <c r="T410" s="1">
+        <v>0</v>
+      </c>
+      <c r="U410" s="1">
+        <v>0</v>
+      </c>
+      <c r="V410" s="1">
+        <v>0</v>
+      </c>
+      <c r="W410" s="1">
+        <v>1</v>
+      </c>
+      <c r="X410" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y410" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z410" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="411" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C411" s="40">
+        <v>7201003</v>
+      </c>
+      <c r="D411" s="44" t="s">
+        <v>679</v>
+      </c>
+      <c r="E411" s="1">
+        <v>2</v>
+      </c>
+      <c r="F411" s="40">
+        <v>10080103</v>
+      </c>
+      <c r="G411" s="1">
+        <v>0</v>
+      </c>
+      <c r="H411" s="1">
+        <v>14</v>
+      </c>
+      <c r="I411" s="1">
+        <v>0</v>
+      </c>
+      <c r="J411" s="1">
+        <v>0</v>
+      </c>
+      <c r="K411" s="1">
+        <v>0</v>
+      </c>
+      <c r="L411" s="1">
+        <v>1</v>
+      </c>
+      <c r="M411" s="1">
+        <v>1</v>
+      </c>
+      <c r="N411" s="1">
+        <v>0</v>
+      </c>
+      <c r="O411" s="1">
+        <v>0</v>
+      </c>
+      <c r="P411" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q411" s="1">
+        <v>1</v>
+      </c>
+      <c r="R411" s="1">
+        <v>1</v>
+      </c>
+      <c r="S411" s="1">
+        <v>0</v>
+      </c>
+      <c r="T411" s="1">
+        <v>0</v>
+      </c>
+      <c r="U411" s="1">
+        <v>0</v>
+      </c>
+      <c r="V411" s="1">
+        <v>0</v>
+      </c>
+      <c r="W411" s="1">
+        <v>1</v>
+      </c>
+      <c r="X411" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y411" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z411" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="412" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C412" s="40">
+        <v>7201004</v>
+      </c>
+      <c r="D412" s="44" t="s">
+        <v>680</v>
+      </c>
+      <c r="E412" s="1">
+        <v>2</v>
+      </c>
+      <c r="F412" s="40">
+        <v>10080104</v>
+      </c>
+      <c r="G412" s="1">
+        <v>0</v>
+      </c>
+      <c r="H412" s="1">
+        <v>16</v>
+      </c>
+      <c r="I412" s="1">
+        <v>0</v>
+      </c>
+      <c r="J412" s="1">
+        <v>0</v>
+      </c>
+      <c r="K412" s="1">
+        <v>0</v>
+      </c>
+      <c r="L412" s="1">
+        <v>1</v>
+      </c>
+      <c r="M412" s="1">
+        <v>1</v>
+      </c>
+      <c r="N412" s="1">
+        <v>0</v>
+      </c>
+      <c r="O412" s="1">
+        <v>0</v>
+      </c>
+      <c r="P412" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q412" s="1">
+        <v>1</v>
+      </c>
+      <c r="R412" s="1">
+        <v>1</v>
+      </c>
+      <c r="S412" s="1">
+        <v>0</v>
+      </c>
+      <c r="T412" s="1">
+        <v>0</v>
+      </c>
+      <c r="U412" s="1">
+        <v>0</v>
+      </c>
+      <c r="V412" s="1">
+        <v>0</v>
+      </c>
+      <c r="W412" s="1">
+        <v>1</v>
+      </c>
+      <c r="X412" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y412" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z412" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="413" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C413" s="40">
+        <v>7202001</v>
+      </c>
+      <c r="D413" s="44" t="s">
+        <v>681</v>
+      </c>
+      <c r="E413" s="1">
+        <v>2</v>
+      </c>
+      <c r="F413" s="40">
+        <v>10080201</v>
+      </c>
+      <c r="G413" s="1">
+        <v>1</v>
+      </c>
+      <c r="H413" s="1">
+        <v>30</v>
+      </c>
+      <c r="I413" s="1">
+        <v>0</v>
+      </c>
+      <c r="J413" s="1">
+        <v>0</v>
+      </c>
+      <c r="K413" s="1">
+        <v>0</v>
+      </c>
+      <c r="L413" s="1">
+        <v>1</v>
+      </c>
+      <c r="M413" s="1">
+        <v>1</v>
+      </c>
+      <c r="N413" s="1">
+        <v>0</v>
+      </c>
+      <c r="O413" s="1">
+        <v>0</v>
+      </c>
+      <c r="P413" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q413" s="1">
+        <v>1</v>
+      </c>
+      <c r="R413" s="1">
+        <v>1</v>
+      </c>
+      <c r="S413" s="1">
+        <v>0</v>
+      </c>
+      <c r="T413" s="1">
+        <v>0</v>
+      </c>
+      <c r="U413" s="1">
+        <v>0</v>
+      </c>
+      <c r="V413" s="1">
+        <v>0</v>
+      </c>
+      <c r="W413" s="1">
+        <v>1</v>
+      </c>
+      <c r="X413" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y413" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z413" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="414" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C414" s="40">
+        <v>7202002</v>
+      </c>
+      <c r="D414" s="44" t="s">
+        <v>682</v>
+      </c>
+      <c r="E414" s="1">
+        <v>2</v>
+      </c>
+      <c r="F414" s="40">
+        <v>10080202</v>
+      </c>
+      <c r="G414" s="1">
+        <v>1</v>
+      </c>
+      <c r="H414" s="1">
+        <v>30</v>
+      </c>
+      <c r="I414" s="1">
+        <v>0</v>
+      </c>
+      <c r="J414" s="1">
+        <v>0</v>
+      </c>
+      <c r="K414" s="1">
+        <v>0</v>
+      </c>
+      <c r="L414" s="1">
+        <v>1</v>
+      </c>
+      <c r="M414" s="1">
+        <v>1</v>
+      </c>
+      <c r="N414" s="1">
+        <v>0</v>
+      </c>
+      <c r="O414" s="1">
+        <v>0</v>
+      </c>
+      <c r="P414" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q414" s="1">
+        <v>1</v>
+      </c>
+      <c r="R414" s="1">
+        <v>1</v>
+      </c>
+      <c r="S414" s="1">
+        <v>0</v>
+      </c>
+      <c r="T414" s="1">
+        <v>0</v>
+      </c>
+      <c r="U414" s="1">
+        <v>0</v>
+      </c>
+      <c r="V414" s="1">
+        <v>0</v>
+      </c>
+      <c r="W414" s="1">
+        <v>1</v>
+      </c>
+      <c r="X414" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y414" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z414" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="415" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C415" s="40">
+        <v>7202003</v>
+      </c>
+      <c r="D415" s="44" t="s">
+        <v>683</v>
+      </c>
+      <c r="E415" s="1">
+        <v>2</v>
+      </c>
+      <c r="F415" s="40">
+        <v>10080203</v>
+      </c>
+      <c r="G415" s="1">
+        <v>1</v>
+      </c>
+      <c r="H415" s="1">
+        <v>30</v>
+      </c>
+      <c r="I415" s="1">
+        <v>0</v>
+      </c>
+      <c r="J415" s="1">
+        <v>0</v>
+      </c>
+      <c r="K415" s="1">
+        <v>0</v>
+      </c>
+      <c r="L415" s="1">
+        <v>1</v>
+      </c>
+      <c r="M415" s="1">
+        <v>1</v>
+      </c>
+      <c r="N415" s="1">
+        <v>0</v>
+      </c>
+      <c r="O415" s="1">
+        <v>0</v>
+      </c>
+      <c r="P415" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q415" s="1">
+        <v>1</v>
+      </c>
+      <c r="R415" s="1">
+        <v>1</v>
+      </c>
+      <c r="S415" s="1">
+        <v>0</v>
+      </c>
+      <c r="T415" s="1">
+        <v>0</v>
+      </c>
+      <c r="U415" s="1">
+        <v>0</v>
+      </c>
+      <c r="V415" s="1">
+        <v>0</v>
+      </c>
+      <c r="W415" s="1">
+        <v>1</v>
+      </c>
+      <c r="X415" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y415" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z415" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="416" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C416" s="40">
+        <v>7202004</v>
+      </c>
+      <c r="D416" s="44" t="s">
+        <v>684</v>
+      </c>
+      <c r="E416" s="1">
+        <v>2</v>
+      </c>
+      <c r="F416" s="40">
+        <v>10080204</v>
+      </c>
+      <c r="G416" s="1">
+        <v>1</v>
+      </c>
+      <c r="H416" s="1">
+        <v>30</v>
+      </c>
+      <c r="I416" s="1">
+        <v>0</v>
+      </c>
+      <c r="J416" s="1">
+        <v>0</v>
+      </c>
+      <c r="K416" s="1">
+        <v>0</v>
+      </c>
+      <c r="L416" s="1">
+        <v>1</v>
+      </c>
+      <c r="M416" s="1">
+        <v>1</v>
+      </c>
+      <c r="N416" s="1">
+        <v>0</v>
+      </c>
+      <c r="O416" s="1">
+        <v>0</v>
+      </c>
+      <c r="P416" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q416" s="1">
+        <v>1</v>
+      </c>
+      <c r="R416" s="1">
+        <v>1</v>
+      </c>
+      <c r="S416" s="1">
+        <v>0</v>
+      </c>
+      <c r="T416" s="1">
+        <v>0</v>
+      </c>
+      <c r="U416" s="1">
+        <v>0</v>
+      </c>
+      <c r="V416" s="1">
+        <v>0</v>
+      </c>
+      <c r="W416" s="1">
+        <v>1</v>
+      </c>
+      <c r="X416" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y416" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z416" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="417" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C417" s="40">
+        <v>7203001</v>
+      </c>
+      <c r="D417" s="44" t="s">
+        <v>685</v>
+      </c>
+      <c r="E417" s="1">
+        <v>2</v>
+      </c>
+      <c r="F417" s="40">
+        <v>10080301</v>
+      </c>
+      <c r="G417" s="1">
+        <v>1</v>
+      </c>
+      <c r="H417" s="1">
+        <v>50</v>
+      </c>
+      <c r="I417" s="1">
+        <v>0</v>
+      </c>
+      <c r="J417" s="1">
+        <v>0</v>
+      </c>
+      <c r="K417" s="1">
+        <v>0</v>
+      </c>
+      <c r="L417" s="1">
+        <v>1</v>
+      </c>
+      <c r="M417" s="1">
+        <v>1</v>
+      </c>
+      <c r="N417" s="1">
+        <v>0</v>
+      </c>
+      <c r="O417" s="1">
+        <v>0</v>
+      </c>
+      <c r="P417" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q417" s="1">
+        <v>1</v>
+      </c>
+      <c r="R417" s="1">
+        <v>1</v>
+      </c>
+      <c r="S417" s="1">
+        <v>0</v>
+      </c>
+      <c r="T417" s="1">
+        <v>0</v>
+      </c>
+      <c r="U417" s="1">
+        <v>0</v>
+      </c>
+      <c r="V417" s="1">
+        <v>0</v>
+      </c>
+      <c r="W417" s="1">
+        <v>1</v>
+      </c>
+      <c r="X417" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y417" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z417" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="418" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C418" s="40">
+        <v>7203002</v>
+      </c>
+      <c r="D418" s="44" t="s">
+        <v>686</v>
+      </c>
+      <c r="E418" s="1">
+        <v>2</v>
+      </c>
+      <c r="F418" s="40">
+        <v>10080302</v>
+      </c>
+      <c r="G418" s="1">
+        <v>1</v>
+      </c>
+      <c r="H418" s="1">
+        <v>50</v>
+      </c>
+      <c r="I418" s="1">
+        <v>0</v>
+      </c>
+      <c r="J418" s="1">
+        <v>0</v>
+      </c>
+      <c r="K418" s="1">
+        <v>0</v>
+      </c>
+      <c r="L418" s="1">
+        <v>1</v>
+      </c>
+      <c r="M418" s="1">
+        <v>1</v>
+      </c>
+      <c r="N418" s="1">
+        <v>0</v>
+      </c>
+      <c r="O418" s="1">
+        <v>0</v>
+      </c>
+      <c r="P418" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q418" s="1">
+        <v>1</v>
+      </c>
+      <c r="R418" s="1">
+        <v>1</v>
+      </c>
+      <c r="S418" s="1">
+        <v>0</v>
+      </c>
+      <c r="T418" s="1">
+        <v>0</v>
+      </c>
+      <c r="U418" s="1">
+        <v>0</v>
+      </c>
+      <c r="V418" s="1">
+        <v>0</v>
+      </c>
+      <c r="W418" s="1">
+        <v>1</v>
+      </c>
+      <c r="X418" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y418" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z418" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="419" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C419" s="40">
+        <v>7203003</v>
+      </c>
+      <c r="D419" s="44" t="s">
+        <v>687</v>
+      </c>
+      <c r="E419" s="1">
+        <v>2</v>
+      </c>
+      <c r="F419" s="40">
+        <v>10080303</v>
+      </c>
+      <c r="G419" s="1">
+        <v>1</v>
+      </c>
+      <c r="H419" s="1">
+        <v>50</v>
+      </c>
+      <c r="I419" s="1">
+        <v>0</v>
+      </c>
+      <c r="J419" s="1">
+        <v>0</v>
+      </c>
+      <c r="K419" s="1">
+        <v>0</v>
+      </c>
+      <c r="L419" s="1">
+        <v>1</v>
+      </c>
+      <c r="M419" s="1">
+        <v>1</v>
+      </c>
+      <c r="N419" s="1">
+        <v>0</v>
+      </c>
+      <c r="O419" s="1">
+        <v>0</v>
+      </c>
+      <c r="P419" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q419" s="1">
+        <v>1</v>
+      </c>
+      <c r="R419" s="1">
+        <v>1</v>
+      </c>
+      <c r="S419" s="1">
+        <v>0</v>
+      </c>
+      <c r="T419" s="1">
+        <v>0</v>
+      </c>
+      <c r="U419" s="1">
+        <v>0</v>
+      </c>
+      <c r="V419" s="1">
+        <v>0</v>
+      </c>
+      <c r="W419" s="1">
+        <v>1</v>
+      </c>
+      <c r="X419" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y419" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z419" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="420" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C420" s="40">
+        <v>7203004</v>
+      </c>
+      <c r="D420" s="44" t="s">
+        <v>688</v>
+      </c>
+      <c r="E420" s="1">
+        <v>2</v>
+      </c>
+      <c r="F420" s="40">
+        <v>10080304</v>
+      </c>
+      <c r="G420" s="1">
+        <v>1</v>
+      </c>
+      <c r="H420" s="1">
+        <v>50</v>
+      </c>
+      <c r="I420" s="1">
+        <v>0</v>
+      </c>
+      <c r="J420" s="1">
+        <v>0</v>
+      </c>
+      <c r="K420" s="1">
+        <v>0</v>
+      </c>
+      <c r="L420" s="1">
+        <v>1</v>
+      </c>
+      <c r="M420" s="1">
+        <v>1</v>
+      </c>
+      <c r="N420" s="1">
+        <v>0</v>
+      </c>
+      <c r="O420" s="1">
+        <v>0</v>
+      </c>
+      <c r="P420" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q420" s="1">
+        <v>1</v>
+      </c>
+      <c r="R420" s="1">
+        <v>1</v>
+      </c>
+      <c r="S420" s="1">
+        <v>0</v>
+      </c>
+      <c r="T420" s="1">
+        <v>0</v>
+      </c>
+      <c r="U420" s="1">
+        <v>0</v>
+      </c>
+      <c r="V420" s="1">
+        <v>0</v>
+      </c>
+      <c r="W420" s="1">
+        <v>1</v>
+      </c>
+      <c r="X420" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y420" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z420" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="421" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C421" s="40">
+        <v>7301001</v>
+      </c>
+      <c r="D421" s="44" t="s">
+        <v>689</v>
+      </c>
+      <c r="E421" s="1">
+        <v>3</v>
+      </c>
+      <c r="F421" s="40">
+        <v>10090101</v>
+      </c>
+      <c r="G421" s="1">
+        <v>0</v>
+      </c>
+      <c r="H421" s="2">
+        <v>12</v>
+      </c>
+      <c r="I421" s="1">
+        <v>0</v>
+      </c>
+      <c r="J421" s="1">
+        <v>0</v>
+      </c>
+      <c r="K421" s="1">
+        <v>0</v>
+      </c>
+      <c r="L421" s="1">
+        <v>1</v>
+      </c>
+      <c r="M421" s="1">
+        <v>1</v>
+      </c>
+      <c r="N421" s="1">
+        <v>0</v>
+      </c>
+      <c r="O421" s="1">
+        <v>0</v>
+      </c>
+      <c r="P421" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q421" s="1">
+        <v>1</v>
+      </c>
+      <c r="R421" s="1">
+        <v>1</v>
+      </c>
+      <c r="S421" s="1">
+        <v>0</v>
+      </c>
+      <c r="T421" s="1">
+        <v>0</v>
+      </c>
+      <c r="U421" s="1">
+        <v>0</v>
+      </c>
+      <c r="V421" s="1">
+        <v>0</v>
+      </c>
+      <c r="W421" s="1">
+        <v>1</v>
+      </c>
+      <c r="X421" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y421" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z421" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="422" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C422" s="40">
+        <v>7301002</v>
+      </c>
+      <c r="D422" s="44" t="s">
+        <v>690</v>
+      </c>
+      <c r="E422" s="1">
+        <v>3</v>
+      </c>
+      <c r="F422" s="40">
+        <v>10090102</v>
+      </c>
+      <c r="G422" s="1">
+        <v>0</v>
+      </c>
+      <c r="H422" s="2">
+        <v>15</v>
+      </c>
+      <c r="I422" s="1">
+        <v>0</v>
+      </c>
+      <c r="J422" s="1">
+        <v>0</v>
+      </c>
+      <c r="K422" s="1">
+        <v>0</v>
+      </c>
+      <c r="L422" s="1">
+        <v>1</v>
+      </c>
+      <c r="M422" s="1">
+        <v>1</v>
+      </c>
+      <c r="N422" s="1">
+        <v>0</v>
+      </c>
+      <c r="O422" s="1">
+        <v>0</v>
+      </c>
+      <c r="P422" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q422" s="1">
+        <v>1</v>
+      </c>
+      <c r="R422" s="1">
+        <v>1</v>
+      </c>
+      <c r="S422" s="1">
+        <v>0</v>
+      </c>
+      <c r="T422" s="1">
+        <v>0</v>
+      </c>
+      <c r="U422" s="1">
+        <v>0</v>
+      </c>
+      <c r="V422" s="1">
+        <v>0</v>
+      </c>
+      <c r="W422" s="1">
+        <v>1</v>
+      </c>
+      <c r="X422" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y422" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z422" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="423" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C423" s="40">
+        <v>7302001</v>
+      </c>
+      <c r="D423" s="44" t="s">
+        <v>691</v>
+      </c>
+      <c r="E423" s="1">
+        <v>3</v>
+      </c>
+      <c r="F423" s="40">
+        <v>10090201</v>
+      </c>
+      <c r="G423" s="1">
+        <v>1</v>
+      </c>
+      <c r="H423" s="2">
+        <v>30</v>
+      </c>
+      <c r="I423" s="1">
+        <v>0</v>
+      </c>
+      <c r="J423" s="1">
+        <v>0</v>
+      </c>
+      <c r="K423" s="1">
+        <v>0</v>
+      </c>
+      <c r="L423" s="1">
+        <v>1</v>
+      </c>
+      <c r="M423" s="1">
+        <v>1</v>
+      </c>
+      <c r="N423" s="1">
+        <v>0</v>
+      </c>
+      <c r="O423" s="1">
+        <v>0</v>
+      </c>
+      <c r="P423" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q423" s="1">
+        <v>1</v>
+      </c>
+      <c r="R423" s="1">
+        <v>1</v>
+      </c>
+      <c r="S423" s="1">
+        <v>0</v>
+      </c>
+      <c r="T423" s="1">
+        <v>0</v>
+      </c>
+      <c r="U423" s="1">
+        <v>0</v>
+      </c>
+      <c r="V423" s="1">
+        <v>0</v>
+      </c>
+      <c r="W423" s="1">
+        <v>1</v>
+      </c>
+      <c r="X423" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y423" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z423" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="424" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C424" s="40">
+        <v>7302002</v>
+      </c>
+      <c r="D424" s="44" t="s">
+        <v>692</v>
+      </c>
+      <c r="E424" s="1">
+        <v>3</v>
+      </c>
+      <c r="F424" s="40">
+        <v>10090202</v>
+      </c>
+      <c r="G424" s="1">
+        <v>1</v>
+      </c>
+      <c r="H424" s="2">
+        <v>30</v>
+      </c>
+      <c r="I424" s="1">
+        <v>0</v>
+      </c>
+      <c r="J424" s="1">
+        <v>0</v>
+      </c>
+      <c r="K424" s="1">
+        <v>0</v>
+      </c>
+      <c r="L424" s="1">
+        <v>1</v>
+      </c>
+      <c r="M424" s="1">
+        <v>1</v>
+      </c>
+      <c r="N424" s="1">
+        <v>0</v>
+      </c>
+      <c r="O424" s="1">
+        <v>0</v>
+      </c>
+      <c r="P424" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q424" s="1">
+        <v>1</v>
+      </c>
+      <c r="R424" s="1">
+        <v>1</v>
+      </c>
+      <c r="S424" s="1">
+        <v>0</v>
+      </c>
+      <c r="T424" s="1">
+        <v>0</v>
+      </c>
+      <c r="U424" s="1">
+        <v>0</v>
+      </c>
+      <c r="V424" s="1">
+        <v>0</v>
+      </c>
+      <c r="W424" s="1">
+        <v>1</v>
+      </c>
+      <c r="X424" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y424" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z424" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="425" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C425" s="40">
+        <v>7303001</v>
+      </c>
+      <c r="D425" s="44" t="s">
+        <v>693</v>
+      </c>
+      <c r="E425" s="1">
+        <v>3</v>
+      </c>
+      <c r="F425" s="40">
+        <v>10090301</v>
+      </c>
+      <c r="G425" s="1">
+        <v>1</v>
+      </c>
+      <c r="H425" s="2">
+        <v>50</v>
+      </c>
+      <c r="I425" s="1">
+        <v>0</v>
+      </c>
+      <c r="J425" s="1">
+        <v>0</v>
+      </c>
+      <c r="K425" s="1">
+        <v>0</v>
+      </c>
+      <c r="L425" s="1">
+        <v>1</v>
+      </c>
+      <c r="M425" s="1">
+        <v>1</v>
+      </c>
+      <c r="N425" s="1">
+        <v>0</v>
+      </c>
+      <c r="O425" s="1">
+        <v>0</v>
+      </c>
+      <c r="P425" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q425" s="1">
+        <v>1</v>
+      </c>
+      <c r="R425" s="1">
+        <v>1</v>
+      </c>
+      <c r="S425" s="1">
+        <v>0</v>
+      </c>
+      <c r="T425" s="1">
+        <v>0</v>
+      </c>
+      <c r="U425" s="1">
+        <v>0</v>
+      </c>
+      <c r="V425" s="1">
+        <v>0</v>
+      </c>
+      <c r="W425" s="1">
+        <v>1</v>
+      </c>
+      <c r="X425" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y425" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z425" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="426" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C426" s="40">
+        <v>7303002</v>
+      </c>
+      <c r="D426" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="E426" s="1">
+        <v>3</v>
+      </c>
+      <c r="F426" s="40">
+        <v>10090302</v>
+      </c>
+      <c r="G426" s="1">
+        <v>1</v>
+      </c>
+      <c r="H426" s="2">
+        <v>50</v>
+      </c>
+      <c r="I426" s="1">
+        <v>0</v>
+      </c>
+      <c r="J426" s="1">
+        <v>0</v>
+      </c>
+      <c r="K426" s="1">
+        <v>0</v>
+      </c>
+      <c r="L426" s="1">
+        <v>1</v>
+      </c>
+      <c r="M426" s="1">
+        <v>1</v>
+      </c>
+      <c r="N426" s="1">
+        <v>0</v>
+      </c>
+      <c r="O426" s="1">
+        <v>0</v>
+      </c>
+      <c r="P426" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q426" s="1">
+        <v>1</v>
+      </c>
+      <c r="R426" s="1">
+        <v>1</v>
+      </c>
+      <c r="S426" s="1">
+        <v>0</v>
+      </c>
+      <c r="T426" s="1">
+        <v>0</v>
+      </c>
+      <c r="U426" s="1">
+        <v>0</v>
+      </c>
+      <c r="V426" s="1">
+        <v>0</v>
+      </c>
+      <c r="W426" s="1">
+        <v>1</v>
+      </c>
+      <c r="X426" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y426" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z426" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="427" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E427" s="2"/>
       <c r="H427" s="2"/>
-      <c r="I427" s="2"/>
-      <c r="J427" s="2"/>
-    </row>
-    <row r="428" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K427" s="1"/>
+      <c r="L427" s="1"/>
+      <c r="M427" s="1"/>
+      <c r="N427" s="1"/>
+      <c r="O427" s="1"/>
+      <c r="P427" s="1"/>
+      <c r="Q427" s="1"/>
+      <c r="R427" s="1"/>
+      <c r="S427" s="1"/>
+      <c r="T427" s="1"/>
+      <c r="U427" s="1"/>
+      <c r="V427" s="1"/>
+      <c r="W427" s="1"/>
+      <c r="X427" s="13"/>
+      <c r="Y427" s="1"/>
+    </row>
+    <row r="428" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E428" s="2"/>
       <c r="H428" s="2"/>
       <c r="I428" s="2"/>
       <c r="J428" s="2"/>
     </row>
-    <row r="429" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="429" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E429" s="2"/>
       <c r="H429" s="2"/>
       <c r="I429" s="2"/>
       <c r="J429" s="2"/>
     </row>
-    <row r="430" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="430" spans="3:26" x14ac:dyDescent="0.3">
       <c r="E430" s="2"/>
       <c r="H430" s="2"/>
       <c r="I430" s="2"/>
       <c r="J430" s="2"/>
     </row>
-    <row r="431" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="431" spans="3:26" x14ac:dyDescent="0.3">
       <c r="E431" s="2"/>
       <c r="H431" s="2"/>
       <c r="I431" s="2"/>
       <c r="J431" s="2"/>
     </row>
-    <row r="432" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="432" spans="3:26" x14ac:dyDescent="0.3">
       <c r="E432" s="2"/>
       <c r="H432" s="2"/>
       <c r="I432" s="2"/>
@@ -36137,25 +38407,8 @@
       <c r="I1075" s="2"/>
       <c r="J1075" s="2"/>
     </row>
-    <row r="1076" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E1076" s="2"/>
-      <c r="H1076" s="2"/>
-      <c r="I1076" s="2"/>
-      <c r="J1076" s="2"/>
-    </row>
-    <row r="1077" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E1077" s="2"/>
-      <c r="H1077" s="2"/>
-      <c r="I1077" s="2"/>
-      <c r="J1077" s="2"/>
-    </row>
-    <row r="1078" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E1078" s="2"/>
-      <c r="H1078" s="2"/>
-      <c r="I1078" s="2"/>
-      <c r="J1078" s="2"/>
-    </row>
   </sheetData>
+  <autoFilter ref="G1:G1075" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6966CE0E-32A2-40CE-AC5C-569060A20D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B36169-E58E-4AC6-8499-5D44952C5D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2734,36 +2734,6 @@
     <t>10020001;400@10000146;40@10025010;400@10025008;3@10025009</t>
   </si>
   <si>
-    <t>10020001;200@10000147;30@10021003;60@10021008;2@10021009</t>
-  </si>
-  <si>
-    <t>10020001;200@10000147;30@10021006;60@10021008;2@10021009</t>
-  </si>
-  <si>
-    <t>10020001;200@10000147;30@10021007;60@10021008;3@10021009</t>
-  </si>
-  <si>
-    <t>10020001;200@10000147;30@10021007;60@10021008;2@10021009</t>
-  </si>
-  <si>
-    <t>10020001;250@10000147;40@10021003;80@10023008;2@10023009</t>
-  </si>
-  <si>
-    <t>10020001;250@10000147;40@10021006;80@10023008;2@10023009</t>
-  </si>
-  <si>
-    <t>10020001;250@10000147;40@10021007;80@10023008;2@10023009</t>
-  </si>
-  <si>
-    <t>10020001;300@10000147;40@10021003;100@10025008;2@10025009</t>
-  </si>
-  <si>
-    <t>10020001;300@10000147;40@10021006;100@10025008;2@10025009</t>
-  </si>
-  <si>
-    <t>10020001;300@10000147;40@10021007;100@10025008;2@10025009</t>
-  </si>
-  <si>
     <t>10020001;50@10000147;10@10021001;30@10021008;1</t>
   </si>
   <si>
@@ -2864,6 +2834,36 @@
   <si>
     <t>精钢磨刀石:暴击</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10020001;300@10000147;40@10021003;100@10025008;2@10025009;1</t>
+  </si>
+  <si>
+    <t>10020001;300@10000147;40@10021006;100@10025008;2@10025009;1</t>
+  </si>
+  <si>
+    <t>10020001;300@10000147;40@10021007;100@10025008;2@10025009;1</t>
+  </si>
+  <si>
+    <t>10020001;250@10000147;40@10021003;80@10023008;2@10023009;1</t>
+  </si>
+  <si>
+    <t>10020001;250@10000147;40@10021006;80@10023008;2@10023009;1</t>
+  </si>
+  <si>
+    <t>10020001;250@10000147;40@10021007;80@10023008;2@10023009;1</t>
+  </si>
+  <si>
+    <t>10020001;200@10000147;30@10021003;60@10021008;2@10021009;1</t>
+  </si>
+  <si>
+    <t>10020001;200@10000147;30@10021006;60@10021008;2@10021009;1</t>
+  </si>
+  <si>
+    <t>10020001;200@10000147;30@10021007;60@10021008;3@10021009;1</t>
+  </si>
+  <si>
+    <t>10020001;200@10000147;30@10021007;60@10021008;2@10021009;1</t>
   </si>
 </sst>
 </file>
@@ -3575,9 +3575,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Z1075"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G332" sqref="G332"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z352" sqref="Z352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -27893,7 +27893,7 @@
         <v>0</v>
       </c>
       <c r="Z337" s="43" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
     </row>
     <row r="338" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27967,7 +27967,7 @@
         <v>0</v>
       </c>
       <c r="Z338" s="43" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="339" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28041,7 +28041,7 @@
         <v>0</v>
       </c>
       <c r="Z339" s="43" t="s">
-        <v>704</v>
+        <v>740</v>
       </c>
     </row>
     <row r="340" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28116,7 +28116,7 @@
         <v>0</v>
       </c>
       <c r="Z340" s="43" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
     </row>
     <row r="341" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28191,7 +28191,7 @@
         <v>0</v>
       </c>
       <c r="Z341" s="43" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="342" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="Z342" s="43" t="s">
-        <v>705</v>
+        <v>741</v>
       </c>
     </row>
     <row r="343" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="Z343" s="43" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="344" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28416,7 +28416,7 @@
         <v>0</v>
       </c>
       <c r="Z344" s="43" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="345" spans="3:26" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="Z345" s="43" t="s">
-        <v>706</v>
+        <v>742</v>
       </c>
     </row>
     <row r="346" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28565,7 +28565,7 @@
         <v>0</v>
       </c>
       <c r="Z346" s="43" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="347" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28639,7 +28639,7 @@
         <v>0</v>
       </c>
       <c r="Z347" s="43" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="348" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28713,7 +28713,7 @@
         <v>0</v>
       </c>
       <c r="Z348" s="43" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="349" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28787,7 +28787,7 @@
         <v>0</v>
       </c>
       <c r="Z349" s="43" t="s">
-        <v>707</v>
+        <v>743</v>
       </c>
     </row>
     <row r="350" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="Z350" s="43" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="351" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28935,7 +28935,7 @@
         <v>0</v>
       </c>
       <c r="Z351" s="43" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="352" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29009,7 +29009,7 @@
         <v>0</v>
       </c>
       <c r="Z352" s="43" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="353" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="Z353" s="43" t="s">
-        <v>707</v>
+        <v>743</v>
       </c>
     </row>
     <row r="354" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29157,7 +29157,7 @@
         <v>0</v>
       </c>
       <c r="Z354" s="43" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="355" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29231,7 +29231,7 @@
         <v>0</v>
       </c>
       <c r="Z355" s="43" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="356" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29305,7 +29305,7 @@
         <v>0</v>
       </c>
       <c r="Z356" s="43" t="s">
-        <v>707</v>
+        <v>743</v>
       </c>
     </row>
     <row r="357" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29379,7 +29379,7 @@
         <v>0</v>
       </c>
       <c r="Z357" s="43" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="358" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29453,7 +29453,7 @@
         <v>0</v>
       </c>
       <c r="Z358" s="43" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="359" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="Z359" s="43" t="s">
-        <v>708</v>
+        <v>737</v>
       </c>
     </row>
     <row r="360" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29601,7 +29601,7 @@
         <v>0</v>
       </c>
       <c r="Z360" s="43" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="361" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29675,7 +29675,7 @@
         <v>0</v>
       </c>
       <c r="Z361" s="43" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="362" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="Z362" s="43" t="s">
-        <v>709</v>
+        <v>738</v>
       </c>
     </row>
     <row r="363" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29823,7 +29823,7 @@
         <v>0</v>
       </c>
       <c r="Z363" s="43" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="364" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29897,7 +29897,7 @@
         <v>0</v>
       </c>
       <c r="Z364" s="43" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="365" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29971,7 +29971,7 @@
         <v>0</v>
       </c>
       <c r="Z365" s="43" t="s">
-        <v>710</v>
+        <v>739</v>
       </c>
     </row>
     <row r="366" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="Z366" s="43" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="367" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30119,7 +30119,7 @@
         <v>0</v>
       </c>
       <c r="Z367" s="43" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="368" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30193,7 +30193,7 @@
         <v>0</v>
       </c>
       <c r="Z368" s="43" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="369" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30267,7 +30267,7 @@
         <v>0</v>
       </c>
       <c r="Z369" s="43" t="s">
-        <v>710</v>
+        <v>739</v>
       </c>
     </row>
     <row r="370" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30341,7 +30341,7 @@
         <v>0</v>
       </c>
       <c r="Z370" s="43" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="371" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30415,7 +30415,7 @@
         <v>0</v>
       </c>
       <c r="Z371" s="43" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="372" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30489,7 +30489,7 @@
         <v>0</v>
       </c>
       <c r="Z372" s="43" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="373" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30563,7 +30563,7 @@
         <v>0</v>
       </c>
       <c r="Z373" s="43" t="s">
-        <v>710</v>
+        <v>739</v>
       </c>
     </row>
     <row r="374" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30637,7 +30637,7 @@
         <v>0</v>
       </c>
       <c r="Z374" s="43" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="375" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="Z375" s="43" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="376" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="Z376" s="43" t="s">
-        <v>710</v>
+        <v>739</v>
       </c>
     </row>
     <row r="377" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30860,7 +30860,7 @@
         <v>0</v>
       </c>
       <c r="Z377" s="43" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="378" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30935,7 +30935,7 @@
         <v>0</v>
       </c>
       <c r="Z378" s="43" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="379" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31010,7 +31010,7 @@
         <v>0</v>
       </c>
       <c r="Z379" s="43" t="s">
-        <v>711</v>
+        <v>734</v>
       </c>
     </row>
     <row r="380" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31085,7 +31085,7 @@
         <v>0</v>
       </c>
       <c r="Z380" s="43" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="381" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31159,7 +31159,7 @@
         <v>0</v>
       </c>
       <c r="Z381" s="43" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="382" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31234,7 +31234,7 @@
         <v>0</v>
       </c>
       <c r="Z382" s="43" t="s">
-        <v>712</v>
+        <v>735</v>
       </c>
     </row>
     <row r="383" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31309,7 +31309,7 @@
         <v>0</v>
       </c>
       <c r="Z383" s="43" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="384" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31383,7 +31383,7 @@
         <v>0</v>
       </c>
       <c r="Z384" s="43" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="385" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31458,7 +31458,7 @@
         <v>0</v>
       </c>
       <c r="Z385" s="43" t="s">
-        <v>713</v>
+        <v>736</v>
       </c>
     </row>
     <row r="386" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31533,7 +31533,7 @@
         <v>0</v>
       </c>
       <c r="Z386" s="43" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="387" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31607,7 +31607,7 @@
         <v>0</v>
       </c>
       <c r="Z387" s="43" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="388" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31681,7 +31681,7 @@
         <v>0</v>
       </c>
       <c r="Z388" s="43" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="389" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31756,7 +31756,7 @@
         <v>0</v>
       </c>
       <c r="Z389" s="43" t="s">
-        <v>713</v>
+        <v>736</v>
       </c>
     </row>
     <row r="390" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="Z390" s="43" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="391" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31905,7 +31905,7 @@
         <v>0</v>
       </c>
       <c r="Z391" s="43" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="392" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31979,7 +31979,7 @@
         <v>0</v>
       </c>
       <c r="Z392" s="43" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="393" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32054,7 +32054,7 @@
         <v>0</v>
       </c>
       <c r="Z393" s="43" t="s">
-        <v>713</v>
+        <v>736</v>
       </c>
     </row>
     <row r="394" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32129,7 +32129,7 @@
         <v>0</v>
       </c>
       <c r="Z394" s="43" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
     </row>
     <row r="395" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32203,7 +32203,7 @@
         <v>0</v>
       </c>
       <c r="Z395" s="43" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="396" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32277,7 +32277,7 @@
         <v>0</v>
       </c>
       <c r="Z396" s="43" t="s">
-        <v>713</v>
+        <v>736</v>
       </c>
     </row>
     <row r="397" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32285,7 +32285,7 @@
         <v>7101001</v>
       </c>
       <c r="D397" s="41" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="E397" s="1">
         <v>1</v>
@@ -32359,7 +32359,7 @@
         <v>7101002</v>
       </c>
       <c r="D398" s="41" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E398" s="1">
         <v>1</v>
@@ -32433,7 +32433,7 @@
         <v>7101003</v>
       </c>
       <c r="D399" s="41" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="E399" s="1">
         <v>1</v>
@@ -32507,7 +32507,7 @@
         <v>7101004</v>
       </c>
       <c r="D400" s="41" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E400" s="1">
         <v>1</v>
@@ -32581,7 +32581,7 @@
         <v>7102001</v>
       </c>
       <c r="D401" s="41" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="E401" s="1">
         <v>1</v>
@@ -32655,7 +32655,7 @@
         <v>7102002</v>
       </c>
       <c r="D402" s="41" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="E402" s="1">
         <v>1</v>
@@ -32729,7 +32729,7 @@
         <v>7102003</v>
       </c>
       <c r="D403" s="41" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="E403" s="1">
         <v>1</v>
@@ -32803,7 +32803,7 @@
         <v>7102004</v>
       </c>
       <c r="D404" s="41" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="E404" s="1">
         <v>1</v>
@@ -32877,7 +32877,7 @@
         <v>7103001</v>
       </c>
       <c r="D405" s="41" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="E405" s="1">
         <v>1</v>
@@ -32951,7 +32951,7 @@
         <v>7103002</v>
       </c>
       <c r="D406" s="41" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="E406" s="1">
         <v>1</v>
@@ -33025,7 +33025,7 @@
         <v>7103003</v>
       </c>
       <c r="D407" s="41" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="E407" s="1">
         <v>1</v>
@@ -33099,7 +33099,7 @@
         <v>7103004</v>
       </c>
       <c r="D408" s="41" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="E408" s="1">
         <v>1</v>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B36169-E58E-4AC6-8499-5D44952C5D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C69063-F333-41FB-8D30-3C91EBD88973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="747">
   <si>
     <t>#</t>
   </si>
@@ -2864,6 +2864,18 @@
   </si>
   <si>
     <t>10020001;200@10000147;30@10021007;60@10021008;2@10021009;1</t>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3575,9 +3587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Z1075"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z352" sqref="Z352"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U391" sqref="U391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3588,11 +3600,11 @@
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="12.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="12.375" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="22.375" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="12.625" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="15.75" style="2" customWidth="1"/>
     <col min="16" max="16" width="12.625" style="2" customWidth="1"/>
     <col min="17" max="17" width="14.125" style="2" customWidth="1"/>
@@ -20912,7 +20924,7 @@
         <v>200</v>
       </c>
       <c r="U242" s="13" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
       <c r="V242" s="20">
         <v>1</v>
@@ -20984,7 +20996,7 @@
         <v>200</v>
       </c>
       <c r="U243" s="13" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
       <c r="V243" s="20">
         <v>1</v>
@@ -21056,7 +21068,7 @@
         <v>200</v>
       </c>
       <c r="U244" s="13" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
       <c r="V244" s="20">
         <v>1</v>
@@ -21128,7 +21140,7 @@
         <v>200</v>
       </c>
       <c r="U245" s="13" t="s">
-        <v>408</v>
+        <v>745</v>
       </c>
       <c r="V245" s="20">
         <v>1</v>
@@ -21200,7 +21212,7 @@
         <v>200</v>
       </c>
       <c r="U246" s="13" t="s">
-        <v>408</v>
+        <v>745</v>
       </c>
       <c r="V246" s="20">
         <v>1</v>
@@ -21272,7 +21284,7 @@
         <v>200</v>
       </c>
       <c r="U247" s="13" t="s">
-        <v>408</v>
+        <v>745</v>
       </c>
       <c r="V247" s="20">
         <v>1</v>
@@ -21344,7 +21356,7 @@
         <v>200</v>
       </c>
       <c r="U248" s="13" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
       <c r="V248" s="20">
         <v>1</v>
@@ -21416,7 +21428,7 @@
         <v>200</v>
       </c>
       <c r="U249" s="13" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
       <c r="V249" s="20">
         <v>1</v>
@@ -21488,7 +21500,7 @@
         <v>200</v>
       </c>
       <c r="U250" s="13" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
       <c r="V250" s="20">
         <v>1</v>
@@ -21560,7 +21572,7 @@
         <v>200</v>
       </c>
       <c r="U251" s="13" t="s">
-        <v>408</v>
+        <v>745</v>
       </c>
       <c r="V251" s="20">
         <v>1</v>
@@ -21632,7 +21644,7 @@
         <v>200</v>
       </c>
       <c r="U252" s="13" t="s">
-        <v>408</v>
+        <v>745</v>
       </c>
       <c r="V252" s="20">
         <v>1</v>
@@ -21704,7 +21716,7 @@
         <v>200</v>
       </c>
       <c r="U253" s="13" t="s">
-        <v>408</v>
+        <v>745</v>
       </c>
       <c r="V253" s="20">
         <v>1</v>
@@ -21776,7 +21788,7 @@
         <v>300</v>
       </c>
       <c r="U254" s="13" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
       <c r="V254" s="20">
         <v>1</v>
@@ -21848,7 +21860,7 @@
         <v>300</v>
       </c>
       <c r="U255" s="13" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
       <c r="V255" s="20">
         <v>1</v>
@@ -21920,7 +21932,7 @@
         <v>300</v>
       </c>
       <c r="U256" s="13" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
       <c r="V256" s="20">
         <v>1</v>
@@ -21992,7 +22004,7 @@
         <v>300</v>
       </c>
       <c r="U257" s="13" t="s">
-        <v>408</v>
+        <v>745</v>
       </c>
       <c r="V257" s="20">
         <v>1</v>
@@ -22064,7 +22076,7 @@
         <v>300</v>
       </c>
       <c r="U258" s="13" t="s">
-        <v>408</v>
+        <v>745</v>
       </c>
       <c r="V258" s="20">
         <v>1</v>
@@ -22136,7 +22148,7 @@
         <v>300</v>
       </c>
       <c r="U259" s="13" t="s">
-        <v>408</v>
+        <v>745</v>
       </c>
       <c r="V259" s="20">
         <v>1</v>
@@ -22208,7 +22220,7 @@
         <v>400</v>
       </c>
       <c r="U260" s="13" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
       <c r="V260" s="20">
         <v>1</v>
@@ -22280,7 +22292,7 @@
         <v>400</v>
       </c>
       <c r="U261" s="13" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
       <c r="V261" s="20">
         <v>1</v>
@@ -22352,7 +22364,7 @@
         <v>400</v>
       </c>
       <c r="U262" s="13" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
       <c r="V262" s="20">
         <v>1</v>
@@ -22424,7 +22436,7 @@
         <v>400</v>
       </c>
       <c r="U263" s="13" t="s">
-        <v>408</v>
+        <v>745</v>
       </c>
       <c r="V263" s="20">
         <v>1</v>
@@ -22496,7 +22508,7 @@
         <v>400</v>
       </c>
       <c r="U264" s="13" t="s">
-        <v>408</v>
+        <v>745</v>
       </c>
       <c r="V264" s="20">
         <v>1</v>
@@ -22568,7 +22580,7 @@
         <v>400</v>
       </c>
       <c r="U265" s="13" t="s">
-        <v>408</v>
+        <v>745</v>
       </c>
       <c r="V265" s="20">
         <v>1</v>
@@ -22640,7 +22652,7 @@
         <v>500</v>
       </c>
       <c r="U266" s="13" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
       <c r="V266" s="20">
         <v>1</v>
@@ -22712,7 +22724,7 @@
         <v>500</v>
       </c>
       <c r="U267" s="13" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
       <c r="V267" s="20">
         <v>1</v>
@@ -22784,7 +22796,7 @@
         <v>500</v>
       </c>
       <c r="U268" s="13" t="s">
-        <v>408</v>
+        <v>746</v>
       </c>
       <c r="V268" s="20">
         <v>1</v>
@@ -22856,7 +22868,7 @@
         <v>500</v>
       </c>
       <c r="U269" s="13" t="s">
-        <v>408</v>
+        <v>745</v>
       </c>
       <c r="V269" s="20">
         <v>1</v>
@@ -22928,7 +22940,7 @@
         <v>500</v>
       </c>
       <c r="U270" s="13" t="s">
-        <v>408</v>
+        <v>745</v>
       </c>
       <c r="V270" s="20">
         <v>1</v>
@@ -23000,7 +23012,7 @@
         <v>500</v>
       </c>
       <c r="U271" s="13" t="s">
-        <v>408</v>
+        <v>745</v>
       </c>
       <c r="V271" s="20">
         <v>1</v>
@@ -23072,7 +23084,7 @@
         <v>200</v>
       </c>
       <c r="U272" s="13" t="s">
-        <v>408</v>
+        <v>744</v>
       </c>
       <c r="V272" s="20">
         <v>1</v>
@@ -23144,7 +23156,7 @@
         <v>200</v>
       </c>
       <c r="U273" s="13" t="s">
-        <v>408</v>
+        <v>744</v>
       </c>
       <c r="V273" s="20">
         <v>1</v>
@@ -23216,7 +23228,7 @@
         <v>200</v>
       </c>
       <c r="U274" s="13" t="s">
-        <v>408</v>
+        <v>744</v>
       </c>
       <c r="V274" s="20">
         <v>1</v>
@@ -27872,13 +27884,14 @@
         <v>1</v>
       </c>
       <c r="S337" s="1">
+        <f>S357-150</f>
         <v>0</v>
       </c>
       <c r="T337" s="1">
-        <v>0</v>
-      </c>
-      <c r="U337" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U337" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V337" s="1">
         <v>0</v>
@@ -27946,13 +27959,14 @@
         <v>1</v>
       </c>
       <c r="S338" s="1">
-        <v>0</v>
+        <f t="shared" ref="S338:S355" si="1">S358-150</f>
+        <v>100</v>
       </c>
       <c r="T338" s="1">
-        <v>0</v>
-      </c>
-      <c r="U338" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U338" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V338" s="1">
         <v>0</v>
@@ -28023,10 +28037,10 @@
         <v>0</v>
       </c>
       <c r="T339" s="1">
-        <v>0</v>
-      </c>
-      <c r="U339" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U339" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V339" s="1">
         <v>0</v>
@@ -28095,13 +28109,14 @@
         <v>1</v>
       </c>
       <c r="S340" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="T340" s="1">
-        <v>0</v>
-      </c>
-      <c r="U340" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U340" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V340" s="1">
         <v>0</v>
@@ -28121,7 +28136,7 @@
     </row>
     <row r="341" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C341" s="40">
-        <f t="shared" ref="C341:C345" si="1">C338+1000</f>
+        <f t="shared" ref="C341:C345" si="2">C338+1000</f>
         <v>6102002</v>
       </c>
       <c r="D341" s="41" t="s">
@@ -28170,13 +28185,14 @@
         <v>1</v>
       </c>
       <c r="S341" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>110</v>
       </c>
       <c r="T341" s="1">
-        <v>0</v>
-      </c>
-      <c r="U341" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U341" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V341" s="1">
         <v>0</v>
@@ -28196,7 +28212,7 @@
     </row>
     <row r="342" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C342" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6102003</v>
       </c>
       <c r="D342" s="41" t="s">
@@ -28248,10 +28264,10 @@
         <v>0</v>
       </c>
       <c r="T342" s="1">
-        <v>0</v>
-      </c>
-      <c r="U342" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U342" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V342" s="1">
         <v>0</v>
@@ -28271,7 +28287,7 @@
     </row>
     <row r="343" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C343" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6103001</v>
       </c>
       <c r="D343" s="41" t="s">
@@ -28320,13 +28336,14 @@
         <v>1</v>
       </c>
       <c r="S343" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="T343" s="1">
-        <v>0</v>
-      </c>
-      <c r="U343" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U343" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V343" s="1">
         <v>0</v>
@@ -28346,7 +28363,7 @@
     </row>
     <row r="344" spans="3:26" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C344" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6103002</v>
       </c>
       <c r="D344" s="41" t="s">
@@ -28395,13 +28412,14 @@
         <v>1</v>
       </c>
       <c r="S344" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="T344" s="1">
-        <v>0</v>
-      </c>
-      <c r="U344" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U344" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V344" s="1">
         <v>0</v>
@@ -28421,7 +28439,7 @@
     </row>
     <row r="345" spans="3:26" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C345" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6103003</v>
       </c>
       <c r="D345" s="41" t="s">
@@ -28473,10 +28491,10 @@
         <v>0</v>
       </c>
       <c r="T345" s="1">
-        <v>0</v>
-      </c>
-      <c r="U345" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U345" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V345" s="1">
         <v>0</v>
@@ -28544,13 +28562,14 @@
         <v>1</v>
       </c>
       <c r="S346" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="T346" s="1">
-        <v>0</v>
-      </c>
-      <c r="U346" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U346" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V346" s="1">
         <v>0</v>
@@ -28618,13 +28637,14 @@
         <v>1</v>
       </c>
       <c r="S347" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="T347" s="1">
-        <v>0</v>
-      </c>
-      <c r="U347" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U347" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V347" s="1">
         <v>0</v>
@@ -28692,13 +28712,14 @@
         <v>1</v>
       </c>
       <c r="S348" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="T348" s="1">
-        <v>0</v>
-      </c>
-      <c r="U348" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U348" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V348" s="1">
         <v>0</v>
@@ -28769,10 +28790,10 @@
         <v>0</v>
       </c>
       <c r="T349" s="1">
-        <v>0</v>
-      </c>
-      <c r="U349" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U349" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V349" s="1">
         <v>0</v>
@@ -28840,13 +28861,14 @@
         <v>1</v>
       </c>
       <c r="S350" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="T350" s="1">
-        <v>0</v>
-      </c>
-      <c r="U350" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U350" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V350" s="1">
         <v>0</v>
@@ -28914,13 +28936,14 @@
         <v>1</v>
       </c>
       <c r="S351" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="T351" s="1">
-        <v>0</v>
-      </c>
-      <c r="U351" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U351" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V351" s="1">
         <v>0</v>
@@ -28988,13 +29011,14 @@
         <v>1</v>
       </c>
       <c r="S352" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>90</v>
       </c>
       <c r="T352" s="1">
-        <v>0</v>
-      </c>
-      <c r="U352" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U352" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V352" s="1">
         <v>0</v>
@@ -29065,10 +29089,10 @@
         <v>0</v>
       </c>
       <c r="T353" s="1">
-        <v>0</v>
-      </c>
-      <c r="U353" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U353" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V353" s="1">
         <v>0</v>
@@ -29136,13 +29160,14 @@
         <v>1</v>
       </c>
       <c r="S354" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
       <c r="T354" s="1">
-        <v>0</v>
-      </c>
-      <c r="U354" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U354" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V354" s="1">
         <v>0</v>
@@ -29210,13 +29235,14 @@
         <v>1</v>
       </c>
       <c r="S355" s="1">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="T355" s="1">
-        <v>0</v>
-      </c>
-      <c r="U355" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U355" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V355" s="1">
         <v>0</v>
@@ -29287,10 +29313,10 @@
         <v>0</v>
       </c>
       <c r="T356" s="1">
-        <v>0</v>
-      </c>
-      <c r="U356" s="1">
-        <v>0</v>
+        <v>175</v>
+      </c>
+      <c r="U356" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V356" s="1">
         <v>0</v>
@@ -29358,13 +29384,13 @@
         <v>1</v>
       </c>
       <c r="S357" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="T357" s="1">
-        <v>0</v>
-      </c>
-      <c r="U357" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U357" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V357" s="1">
         <v>0</v>
@@ -29432,13 +29458,13 @@
         <v>1</v>
       </c>
       <c r="S358" s="1">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="T358" s="1">
-        <v>0</v>
-      </c>
-      <c r="U358" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U358" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V358" s="1">
         <v>0</v>
@@ -29509,10 +29535,10 @@
         <v>0</v>
       </c>
       <c r="T359" s="1">
-        <v>0</v>
-      </c>
-      <c r="U359" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U359" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V359" s="1">
         <v>0</v>
@@ -29580,13 +29606,13 @@
         <v>1</v>
       </c>
       <c r="S360" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="T360" s="1">
-        <v>0</v>
-      </c>
-      <c r="U360" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U360" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V360" s="1">
         <v>0</v>
@@ -29654,13 +29680,13 @@
         <v>1</v>
       </c>
       <c r="S361" s="1">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="T361" s="1">
-        <v>0</v>
-      </c>
-      <c r="U361" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U361" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V361" s="1">
         <v>0</v>
@@ -29731,10 +29757,10 @@
         <v>0</v>
       </c>
       <c r="T362" s="1">
-        <v>0</v>
-      </c>
-      <c r="U362" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U362" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V362" s="1">
         <v>0</v>
@@ -29802,13 +29828,13 @@
         <v>1</v>
       </c>
       <c r="S363" s="1">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="T363" s="1">
-        <v>0</v>
-      </c>
-      <c r="U363" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U363" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V363" s="1">
         <v>0</v>
@@ -29876,13 +29902,13 @@
         <v>1</v>
       </c>
       <c r="S364" s="1">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="T364" s="1">
-        <v>0</v>
-      </c>
-      <c r="U364" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U364" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V364" s="1">
         <v>0</v>
@@ -29953,10 +29979,10 @@
         <v>0</v>
       </c>
       <c r="T365" s="1">
-        <v>0</v>
-      </c>
-      <c r="U365" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U365" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V365" s="1">
         <v>0</v>
@@ -30024,13 +30050,13 @@
         <v>1</v>
       </c>
       <c r="S366" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="T366" s="1">
-        <v>0</v>
-      </c>
-      <c r="U366" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U366" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V366" s="1">
         <v>0</v>
@@ -30098,13 +30124,13 @@
         <v>1</v>
       </c>
       <c r="S367" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="T367" s="1">
-        <v>0</v>
-      </c>
-      <c r="U367" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U367" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V367" s="1">
         <v>0</v>
@@ -30172,13 +30198,13 @@
         <v>1</v>
       </c>
       <c r="S368" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="T368" s="1">
-        <v>0</v>
-      </c>
-      <c r="U368" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U368" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V368" s="1">
         <v>0</v>
@@ -30249,10 +30275,10 @@
         <v>0</v>
       </c>
       <c r="T369" s="1">
-        <v>0</v>
-      </c>
-      <c r="U369" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U369" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V369" s="1">
         <v>0</v>
@@ -30320,13 +30346,13 @@
         <v>1</v>
       </c>
       <c r="S370" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="T370" s="1">
-        <v>0</v>
-      </c>
-      <c r="U370" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U370" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V370" s="1">
         <v>0</v>
@@ -30394,13 +30420,13 @@
         <v>1</v>
       </c>
       <c r="S371" s="1">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="T371" s="1">
-        <v>0</v>
-      </c>
-      <c r="U371" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U371" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V371" s="1">
         <v>0</v>
@@ -30468,13 +30494,13 @@
         <v>1</v>
       </c>
       <c r="S372" s="1">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="T372" s="1">
-        <v>0</v>
-      </c>
-      <c r="U372" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U372" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V372" s="1">
         <v>0</v>
@@ -30545,10 +30571,10 @@
         <v>0</v>
       </c>
       <c r="T373" s="1">
-        <v>0</v>
-      </c>
-      <c r="U373" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U373" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V373" s="1">
         <v>0</v>
@@ -30616,13 +30642,13 @@
         <v>1</v>
       </c>
       <c r="S374" s="1">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="T374" s="1">
-        <v>0</v>
-      </c>
-      <c r="U374" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U374" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V374" s="1">
         <v>0</v>
@@ -30690,13 +30716,13 @@
         <v>1</v>
       </c>
       <c r="S375" s="1">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="T375" s="1">
-        <v>0</v>
-      </c>
-      <c r="U375" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U375" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V375" s="1">
         <v>0</v>
@@ -30767,10 +30793,10 @@
         <v>0</v>
       </c>
       <c r="T376" s="1">
-        <v>0</v>
-      </c>
-      <c r="U376" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U376" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V376" s="1">
         <v>0</v>
@@ -30839,13 +30865,13 @@
         <v>1</v>
       </c>
       <c r="S377" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T377" s="1">
-        <v>0</v>
-      </c>
-      <c r="U377" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U377" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V377" s="1">
         <v>0</v>
@@ -30880,7 +30906,7 @@
         <v>0</v>
       </c>
       <c r="H378" s="39">
-        <f t="shared" ref="H378:H394" si="2">H358+20</f>
+        <f t="shared" ref="H378:H394" si="3">H358+20</f>
         <v>60</v>
       </c>
       <c r="I378" s="1">
@@ -30914,13 +30940,13 @@
         <v>1</v>
       </c>
       <c r="S378" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T378" s="1">
-        <v>0</v>
-      </c>
-      <c r="U378" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U378" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V378" s="1">
         <v>0</v>
@@ -30955,7 +30981,7 @@
         <v>1</v>
       </c>
       <c r="H379" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="I379" s="1">
@@ -30992,10 +31018,10 @@
         <v>0</v>
       </c>
       <c r="T379" s="1">
-        <v>0</v>
-      </c>
-      <c r="U379" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U379" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V379" s="1">
         <v>0</v>
@@ -31030,7 +31056,7 @@
         <v>0</v>
       </c>
       <c r="H380" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="I380" s="1">
@@ -31064,13 +31090,13 @@
         <v>1</v>
       </c>
       <c r="S380" s="1">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="T380" s="1">
-        <v>0</v>
-      </c>
-      <c r="U380" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U380" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V380" s="1">
         <v>0</v>
@@ -31138,13 +31164,13 @@
         <v>1</v>
       </c>
       <c r="S381" s="1">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="T381" s="1">
-        <v>0</v>
-      </c>
-      <c r="U381" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U381" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V381" s="1">
         <v>0</v>
@@ -31179,7 +31205,7 @@
         <v>1</v>
       </c>
       <c r="H382" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="I382" s="1">
@@ -31216,10 +31242,10 @@
         <v>0</v>
       </c>
       <c r="T382" s="1">
-        <v>0</v>
-      </c>
-      <c r="U382" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U382" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V382" s="1">
         <v>0</v>
@@ -31254,7 +31280,7 @@
         <v>0</v>
       </c>
       <c r="H383" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="I383" s="1">
@@ -31288,13 +31314,13 @@
         <v>1</v>
       </c>
       <c r="S383" s="1">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="T383" s="1">
-        <v>0</v>
-      </c>
-      <c r="U383" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U383" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V383" s="1">
         <v>0</v>
@@ -31362,13 +31388,13 @@
         <v>1</v>
       </c>
       <c r="S384" s="1">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="T384" s="1">
-        <v>0</v>
-      </c>
-      <c r="U384" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U384" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V384" s="1">
         <v>0</v>
@@ -31403,7 +31429,7 @@
         <v>1</v>
       </c>
       <c r="H385" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="I385" s="1">
@@ -31440,10 +31466,10 @@
         <v>0</v>
       </c>
       <c r="T385" s="1">
-        <v>0</v>
-      </c>
-      <c r="U385" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U385" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V385" s="1">
         <v>0</v>
@@ -31478,7 +31504,7 @@
         <v>0</v>
       </c>
       <c r="H386" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="I386" s="1">
@@ -31512,13 +31538,13 @@
         <v>1</v>
       </c>
       <c r="S386" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="T386" s="1">
-        <v>0</v>
-      </c>
-      <c r="U386" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U386" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V386" s="1">
         <v>0</v>
@@ -31586,13 +31612,13 @@
         <v>1</v>
       </c>
       <c r="S387" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="T387" s="1">
-        <v>0</v>
-      </c>
-      <c r="U387" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U387" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V387" s="1">
         <v>0</v>
@@ -31660,13 +31686,13 @@
         <v>1</v>
       </c>
       <c r="S388" s="1">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="T388" s="1">
-        <v>0</v>
-      </c>
-      <c r="U388" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U388" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V388" s="1">
         <v>0</v>
@@ -31701,7 +31727,7 @@
         <v>1</v>
       </c>
       <c r="H389" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="I389" s="1">
@@ -31738,10 +31764,10 @@
         <v>0</v>
       </c>
       <c r="T389" s="1">
-        <v>0</v>
-      </c>
-      <c r="U389" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U389" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V389" s="1">
         <v>0</v>
@@ -31776,7 +31802,7 @@
         <v>0</v>
       </c>
       <c r="H390" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="I390" s="1">
@@ -31810,13 +31836,13 @@
         <v>1</v>
       </c>
       <c r="S390" s="1">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="T390" s="1">
-        <v>0</v>
-      </c>
-      <c r="U390" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U390" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V390" s="1">
         <v>0</v>
@@ -31884,13 +31910,13 @@
         <v>1</v>
       </c>
       <c r="S391" s="1">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="T391" s="1">
-        <v>0</v>
-      </c>
-      <c r="U391" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U391" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V391" s="1">
         <v>0</v>
@@ -31958,13 +31984,13 @@
         <v>1</v>
       </c>
       <c r="S392" s="1">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="T392" s="1">
-        <v>0</v>
-      </c>
-      <c r="U392" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U392" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V392" s="1">
         <v>0</v>
@@ -31999,7 +32025,7 @@
         <v>1</v>
       </c>
       <c r="H393" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="I393" s="1">
@@ -32036,10 +32062,10 @@
         <v>0</v>
       </c>
       <c r="T393" s="1">
-        <v>0</v>
-      </c>
-      <c r="U393" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U393" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V393" s="1">
         <v>0</v>
@@ -32074,7 +32100,7 @@
         <v>0</v>
       </c>
       <c r="H394" s="39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="I394" s="1">
@@ -32108,13 +32134,13 @@
         <v>1</v>
       </c>
       <c r="S394" s="1">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="T394" s="1">
-        <v>0</v>
-      </c>
-      <c r="U394" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U394" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V394" s="1">
         <v>0</v>
@@ -32182,13 +32208,13 @@
         <v>1</v>
       </c>
       <c r="S395" s="1">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="T395" s="1">
-        <v>0</v>
-      </c>
-      <c r="U395" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U395" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V395" s="1">
         <v>0</v>
@@ -33221,10 +33247,10 @@
         <v>0</v>
       </c>
       <c r="T409" s="1">
-        <v>0</v>
-      </c>
-      <c r="U409" s="1">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="U409" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V409" s="1">
         <v>0</v>
@@ -33295,10 +33321,10 @@
         <v>0</v>
       </c>
       <c r="T410" s="1">
-        <v>0</v>
-      </c>
-      <c r="U410" s="1">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="U410" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V410" s="1">
         <v>0</v>
@@ -33369,10 +33395,10 @@
         <v>0</v>
       </c>
       <c r="T411" s="1">
-        <v>0</v>
-      </c>
-      <c r="U411" s="1">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="U411" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V411" s="1">
         <v>0</v>
@@ -33443,10 +33469,10 @@
         <v>0</v>
       </c>
       <c r="T412" s="1">
-        <v>0</v>
-      </c>
-      <c r="U412" s="1">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="U412" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V412" s="1">
         <v>0</v>
@@ -33517,10 +33543,10 @@
         <v>0</v>
       </c>
       <c r="T413" s="1">
-        <v>0</v>
-      </c>
-      <c r="U413" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U413" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V413" s="1">
         <v>0</v>
@@ -33591,10 +33617,10 @@
         <v>0</v>
       </c>
       <c r="T414" s="1">
-        <v>0</v>
-      </c>
-      <c r="U414" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U414" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V414" s="1">
         <v>0</v>
@@ -33665,10 +33691,10 @@
         <v>0</v>
       </c>
       <c r="T415" s="1">
-        <v>0</v>
-      </c>
-      <c r="U415" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U415" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V415" s="1">
         <v>0</v>
@@ -33739,10 +33765,10 @@
         <v>0</v>
       </c>
       <c r="T416" s="1">
-        <v>0</v>
-      </c>
-      <c r="U416" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U416" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V416" s="1">
         <v>0</v>
@@ -33813,10 +33839,10 @@
         <v>0</v>
       </c>
       <c r="T417" s="1">
-        <v>0</v>
-      </c>
-      <c r="U417" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U417" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V417" s="1">
         <v>0</v>
@@ -33887,10 +33913,10 @@
         <v>0</v>
       </c>
       <c r="T418" s="1">
-        <v>0</v>
-      </c>
-      <c r="U418" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U418" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V418" s="1">
         <v>0</v>
@@ -33961,10 +33987,10 @@
         <v>0</v>
       </c>
       <c r="T419" s="1">
-        <v>0</v>
-      </c>
-      <c r="U419" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U419" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V419" s="1">
         <v>0</v>
@@ -34035,10 +34061,10 @@
         <v>0</v>
       </c>
       <c r="T420" s="1">
-        <v>0</v>
-      </c>
-      <c r="U420" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U420" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="V420" s="1">
         <v>0</v>
@@ -34109,10 +34135,10 @@
         <v>0</v>
       </c>
       <c r="T421" s="1">
-        <v>0</v>
-      </c>
-      <c r="U421" s="1">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="U421" s="1" t="s">
+        <v>745</v>
       </c>
       <c r="V421" s="1">
         <v>0</v>
@@ -34183,10 +34209,10 @@
         <v>0</v>
       </c>
       <c r="T422" s="1">
-        <v>0</v>
-      </c>
-      <c r="U422" s="1">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="U422" s="1" t="s">
+        <v>745</v>
       </c>
       <c r="V422" s="1">
         <v>0</v>
@@ -34257,10 +34283,10 @@
         <v>0</v>
       </c>
       <c r="T423" s="1">
-        <v>0</v>
-      </c>
-      <c r="U423" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U423" s="1" t="s">
+        <v>745</v>
       </c>
       <c r="V423" s="1">
         <v>0</v>
@@ -34331,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="T424" s="1">
-        <v>0</v>
-      </c>
-      <c r="U424" s="1">
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="U424" s="1" t="s">
+        <v>745</v>
       </c>
       <c r="V424" s="1">
         <v>0</v>
@@ -34405,10 +34431,10 @@
         <v>0</v>
       </c>
       <c r="T425" s="1">
-        <v>0</v>
-      </c>
-      <c r="U425" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U425" s="1" t="s">
+        <v>745</v>
       </c>
       <c r="V425" s="1">
         <v>0</v>
@@ -34479,10 +34505,10 @@
         <v>0</v>
       </c>
       <c r="T426" s="1">
-        <v>0</v>
-      </c>
-      <c r="U426" s="1">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U426" s="1" t="s">
+        <v>745</v>
       </c>
       <c r="V426" s="1">
         <v>0</v>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C69063-F333-41FB-8D30-3C91EBD88973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E38F98F-207A-4C51-BAC9-7BB9F87F2154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3587,9 +3587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Z1075"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U391" sqref="U391"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X414" sqref="X414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -10531,7 +10531,7 @@
         <v>1</v>
       </c>
       <c r="X98" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y98" s="32">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>1</v>
       </c>
       <c r="X99" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y99" s="32">
         <v>0</v>
@@ -10675,7 +10675,7 @@
         <v>1</v>
       </c>
       <c r="X100" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y100" s="32">
         <v>0</v>
@@ -10747,7 +10747,7 @@
         <v>1</v>
       </c>
       <c r="X101" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y101" s="32">
         <v>0</v>
@@ -10819,7 +10819,7 @@
         <v>1</v>
       </c>
       <c r="X102" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y102" s="32">
         <v>0</v>
@@ -10891,7 +10891,7 @@
         <v>1</v>
       </c>
       <c r="X103" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y103" s="32">
         <v>0</v>
@@ -10963,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="X104" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y104" s="32">
         <v>0</v>
@@ -11035,7 +11035,7 @@
         <v>1</v>
       </c>
       <c r="X105" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y105" s="32">
         <v>0</v>
@@ -12979,7 +12979,7 @@
         <v>1</v>
       </c>
       <c r="X132" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y132" s="20">
         <v>0</v>
@@ -13051,7 +13051,7 @@
         <v>1</v>
       </c>
       <c r="X133" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y133" s="20">
         <v>0</v>
@@ -13123,7 +13123,7 @@
         <v>1</v>
       </c>
       <c r="X134" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y134" s="20">
         <v>0</v>
@@ -13195,7 +13195,7 @@
         <v>1</v>
       </c>
       <c r="X135" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y135" s="20">
         <v>0</v>
@@ -13267,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="X136" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y136" s="20">
         <v>0</v>
@@ -13339,7 +13339,7 @@
         <v>1</v>
       </c>
       <c r="X137" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y137" s="20">
         <v>0</v>
@@ -13411,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="X138" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y138" s="20">
         <v>0</v>
@@ -13483,7 +13483,7 @@
         <v>1</v>
       </c>
       <c r="X139" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y139" s="20">
         <v>0</v>
@@ -15427,7 +15427,7 @@
         <v>1</v>
       </c>
       <c r="X166" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y166" s="20">
         <v>0</v>
@@ -15499,7 +15499,7 @@
         <v>1</v>
       </c>
       <c r="X167" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y167" s="20">
         <v>0</v>
@@ -15571,7 +15571,7 @@
         <v>1</v>
       </c>
       <c r="X168" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y168" s="20">
         <v>0</v>
@@ -15643,7 +15643,7 @@
         <v>1</v>
       </c>
       <c r="X169" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y169" s="20">
         <v>0</v>
@@ -15715,7 +15715,7 @@
         <v>1</v>
       </c>
       <c r="X170" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y170" s="20">
         <v>0</v>
@@ -15787,7 +15787,7 @@
         <v>1</v>
       </c>
       <c r="X171" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y171" s="20">
         <v>0</v>
@@ -15859,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="X172" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y172" s="20">
         <v>0</v>
@@ -15931,7 +15931,7 @@
         <v>1</v>
       </c>
       <c r="X173" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y173" s="20">
         <v>0</v>
@@ -17875,7 +17875,7 @@
         <v>1</v>
       </c>
       <c r="X200" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y200" s="20">
         <v>0</v>
@@ -17947,7 +17947,7 @@
         <v>1</v>
       </c>
       <c r="X201" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y201" s="20">
         <v>0</v>
@@ -18019,7 +18019,7 @@
         <v>1</v>
       </c>
       <c r="X202" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y202" s="20">
         <v>0</v>
@@ -18091,7 +18091,7 @@
         <v>1</v>
       </c>
       <c r="X203" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y203" s="20">
         <v>0</v>
@@ -18163,7 +18163,7 @@
         <v>1</v>
       </c>
       <c r="X204" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y204" s="20">
         <v>0</v>
@@ -18235,7 +18235,7 @@
         <v>1</v>
       </c>
       <c r="X205" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y205" s="20">
         <v>0</v>
@@ -18307,7 +18307,7 @@
         <v>1</v>
       </c>
       <c r="X206" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y206" s="20">
         <v>0</v>
@@ -18379,7 +18379,7 @@
         <v>1</v>
       </c>
       <c r="X207" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y207" s="20">
         <v>0</v>
@@ -20350,7 +20350,7 @@
         <v>1</v>
       </c>
       <c r="X234" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y234" s="20">
         <v>0</v>
@@ -20423,7 +20423,7 @@
         <v>1</v>
       </c>
       <c r="X235" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y235" s="20">
         <v>0</v>
@@ -20496,7 +20496,7 @@
         <v>1</v>
       </c>
       <c r="X236" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y236" s="20">
         <v>0</v>
@@ -20569,7 +20569,7 @@
         <v>1</v>
       </c>
       <c r="X237" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y237" s="20">
         <v>0</v>
@@ -20642,7 +20642,7 @@
         <v>1</v>
       </c>
       <c r="X238" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y238" s="20">
         <v>0</v>
@@ -20715,7 +20715,7 @@
         <v>1</v>
       </c>
       <c r="X239" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y239" s="20">
         <v>0</v>
@@ -20788,7 +20788,7 @@
         <v>1</v>
       </c>
       <c r="X240" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y240" s="20">
         <v>0</v>
@@ -20861,7 +20861,7 @@
         <v>1</v>
       </c>
       <c r="X241" s="13">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="Y241" s="20">
         <v>0</v>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E38F98F-207A-4C51-BAC9-7BB9F87F2154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5079C18D-3077-43FD-AC18-EB31828E855E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3587,9 +3587,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Z1075"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X414" sqref="X414"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H127" sqref="H127:K127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -3600,11 +3600,11 @@
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="12.375" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="22.375" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="12.625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="2" customWidth="1"/>
+    <col min="13" max="14" width="12.625" style="2" customWidth="1"/>
     <col min="15" max="15" width="15.75" style="2" customWidth="1"/>
     <col min="16" max="16" width="12.625" style="2" customWidth="1"/>
     <col min="17" max="17" width="14.125" style="2" customWidth="1"/>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49FB492-4F69-4371-A496-FD8706642E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25FCC76-B98B-454C-8B6A-F4A3A3FF5E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipMakeProto" sheetId="1" r:id="rId1"/>
@@ -70,6 +70,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">锻造类型
@@ -87,6 +88,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">裁缝类型
@@ -104,6 +106,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">炼金类型
@@ -121,6 +124,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">宝石类型
@@ -130,6 +134,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">5.神器类型
@@ -139,6 +144,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>6.附魔类型</t>
@@ -152,6 +158,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -160,6 +167,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -169,6 +177,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">0 训练师学习
@@ -178,6 +187,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1 道具图纸学习</t>
@@ -191,6 +201,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -199,6 +210,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -208,6 +220,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">低于学习等级5级以上不显示再学习列表中
@@ -239,6 +252,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>超过此等级无法制造此道具，</t>
@@ -255,6 +269,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>表示没有限制</t>
@@ -285,6 +300,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>达到此值后将不在增长</t>
@@ -315,6 +331,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>支持</t>
@@ -331,6 +348,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>，</t>
@@ -347,6 +365,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">好
@@ -356,6 +375,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">例如：
@@ -373,6 +393,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>表示加</t>
@@ -389,6 +410,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">点
@@ -406,6 +428,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>表示随机加</t>
@@ -422,6 +445,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>点</t>
@@ -452,6 +476,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>表示在熟练度转换概率生效值上进行转换，此值表示增加</t>
@@ -468,6 +493,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>概率</t>
@@ -481,6 +507,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -489,6 +516,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -498,6 +526,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>单位:秒  86400 一天</t>
@@ -600,6 +629,7 @@
         <sz val="10"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>L</t>
@@ -609,6 +639,7 @@
         <sz val="10"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>earnLv</t>
@@ -659,6 +690,7 @@
         <sz val="10"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ProficiencyStartPro</t>
@@ -668,6 +700,7 @@
         <sz val="10"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Value</t>
@@ -679,6 +712,7 @@
         <sz val="10"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Proficiency</t>
@@ -688,6 +722,7 @@
         <sz val="10"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Pro</t>
@@ -697,6 +732,7 @@
         <sz val="10"/>
         <color theme="0"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>Value</t>
@@ -2964,12 +3000,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2977,12 +3015,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2990,6 +3030,7 @@
       <sz val="10"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2997,12 +3038,14 @@
       <sz val="9"/>
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3010,12 +3053,14 @@
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3023,18 +3068,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3042,6 +3090,7 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3058,12 +3107,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3648,9 +3699,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Z1102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A438" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N449" sqref="N449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -8694,7 +8745,9 @@
       <c r="N72" s="18">
         <v>0.1</v>
       </c>
-      <c r="O72" s="30"/>
+      <c r="O72" s="30">
+        <v>1</v>
+      </c>
       <c r="P72" s="30">
         <v>1</v>
       </c>
@@ -8766,7 +8819,9 @@
       <c r="N73" s="18">
         <v>0.1</v>
       </c>
-      <c r="O73" s="30"/>
+      <c r="O73" s="30">
+        <v>1</v>
+      </c>
       <c r="P73" s="30">
         <v>1</v>
       </c>
@@ -8838,7 +8893,9 @@
       <c r="N74" s="18">
         <v>0.1</v>
       </c>
-      <c r="O74" s="30"/>
+      <c r="O74" s="30">
+        <v>1</v>
+      </c>
       <c r="P74" s="30">
         <v>1</v>
       </c>
@@ -8910,7 +8967,9 @@
       <c r="N75" s="18">
         <v>0.1</v>
       </c>
-      <c r="O75" s="30"/>
+      <c r="O75" s="30">
+        <v>1</v>
+      </c>
       <c r="P75" s="30">
         <v>1</v>
       </c>
@@ -8982,7 +9041,9 @@
       <c r="N76" s="18">
         <v>0.1</v>
       </c>
-      <c r="O76" s="30"/>
+      <c r="O76" s="30">
+        <v>1</v>
+      </c>
       <c r="P76" s="30">
         <v>1</v>
       </c>
@@ -9054,7 +9115,9 @@
       <c r="N77" s="18">
         <v>0.1</v>
       </c>
-      <c r="O77" s="30"/>
+      <c r="O77" s="30">
+        <v>1</v>
+      </c>
       <c r="P77" s="30">
         <v>1</v>
       </c>
@@ -9126,7 +9189,9 @@
       <c r="N78" s="18">
         <v>0.1</v>
       </c>
-      <c r="O78" s="30"/>
+      <c r="O78" s="30">
+        <v>1</v>
+      </c>
       <c r="P78" s="30">
         <v>1</v>
       </c>
@@ -9198,7 +9263,9 @@
       <c r="N79" s="18">
         <v>0.1</v>
       </c>
-      <c r="O79" s="30"/>
+      <c r="O79" s="30">
+        <v>1</v>
+      </c>
       <c r="P79" s="30">
         <v>1</v>
       </c>
@@ -9270,7 +9337,9 @@
       <c r="N80" s="18">
         <v>0.1</v>
       </c>
-      <c r="O80" s="30"/>
+      <c r="O80" s="30">
+        <v>1</v>
+      </c>
       <c r="P80" s="30">
         <v>1</v>
       </c>
@@ -9342,7 +9411,9 @@
       <c r="N81" s="18">
         <v>0.1</v>
       </c>
-      <c r="O81" s="30"/>
+      <c r="O81" s="30">
+        <v>1</v>
+      </c>
       <c r="P81" s="30">
         <v>1</v>
       </c>
@@ -9414,7 +9485,9 @@
       <c r="N82" s="18">
         <v>0.1</v>
       </c>
-      <c r="O82" s="30"/>
+      <c r="O82" s="30">
+        <v>1</v>
+      </c>
       <c r="P82" s="30">
         <v>1</v>
       </c>
@@ -9486,7 +9559,9 @@
       <c r="N83" s="18">
         <v>0.1</v>
       </c>
-      <c r="O83" s="30"/>
+      <c r="O83" s="30">
+        <v>1</v>
+      </c>
       <c r="P83" s="30">
         <v>1</v>
       </c>
@@ -9558,7 +9633,9 @@
       <c r="N84" s="18">
         <v>0.1</v>
       </c>
-      <c r="O84" s="30"/>
+      <c r="O84" s="30">
+        <v>1</v>
+      </c>
       <c r="P84" s="30">
         <v>1</v>
       </c>
@@ -9630,7 +9707,9 @@
       <c r="N85" s="18">
         <v>0.1</v>
       </c>
-      <c r="O85" s="30"/>
+      <c r="O85" s="30">
+        <v>1</v>
+      </c>
       <c r="P85" s="30">
         <v>1</v>
       </c>
@@ -9702,7 +9781,9 @@
       <c r="N86" s="18">
         <v>0.1</v>
       </c>
-      <c r="O86" s="30"/>
+      <c r="O86" s="30">
+        <v>1</v>
+      </c>
       <c r="P86" s="30">
         <v>1</v>
       </c>
@@ -9774,7 +9855,9 @@
       <c r="N87" s="18">
         <v>0.1</v>
       </c>
-      <c r="O87" s="30"/>
+      <c r="O87" s="30">
+        <v>1</v>
+      </c>
       <c r="P87" s="30">
         <v>1</v>
       </c>
@@ -9846,7 +9929,9 @@
       <c r="N88" s="18">
         <v>0.1</v>
       </c>
-      <c r="O88" s="30"/>
+      <c r="O88" s="30">
+        <v>1</v>
+      </c>
       <c r="P88" s="30">
         <v>1</v>
       </c>
@@ -9918,7 +10003,9 @@
       <c r="N89" s="18">
         <v>0.1</v>
       </c>
-      <c r="O89" s="30"/>
+      <c r="O89" s="30">
+        <v>1</v>
+      </c>
       <c r="P89" s="30">
         <v>1</v>
       </c>
@@ -9990,7 +10077,9 @@
       <c r="N90" s="18">
         <v>0.1</v>
       </c>
-      <c r="O90" s="30"/>
+      <c r="O90" s="30">
+        <v>1</v>
+      </c>
       <c r="P90" s="30">
         <v>1</v>
       </c>
@@ -10062,7 +10151,9 @@
       <c r="N91" s="18">
         <v>0.1</v>
       </c>
-      <c r="O91" s="30"/>
+      <c r="O91" s="30">
+        <v>1</v>
+      </c>
       <c r="P91" s="30">
         <v>1</v>
       </c>
@@ -10134,7 +10225,9 @@
       <c r="N92" s="18">
         <v>0.1</v>
       </c>
-      <c r="O92" s="30"/>
+      <c r="O92" s="30">
+        <v>1</v>
+      </c>
       <c r="P92" s="30">
         <v>1</v>
       </c>
@@ -10206,7 +10299,9 @@
       <c r="N93" s="18">
         <v>0.1</v>
       </c>
-      <c r="O93" s="30"/>
+      <c r="O93" s="30">
+        <v>1</v>
+      </c>
       <c r="P93" s="30">
         <v>1</v>
       </c>
@@ -10278,7 +10373,9 @@
       <c r="N94" s="18">
         <v>0.1</v>
       </c>
-      <c r="O94" s="30"/>
+      <c r="O94" s="30">
+        <v>1</v>
+      </c>
       <c r="P94" s="30">
         <v>1</v>
       </c>
@@ -10350,7 +10447,9 @@
       <c r="N95" s="18">
         <v>0.1</v>
       </c>
-      <c r="O95" s="30"/>
+      <c r="O95" s="30">
+        <v>1</v>
+      </c>
       <c r="P95" s="30">
         <v>1</v>
       </c>
@@ -10422,7 +10521,9 @@
       <c r="N96" s="18">
         <v>0.1</v>
       </c>
-      <c r="O96" s="30"/>
+      <c r="O96" s="30">
+        <v>1</v>
+      </c>
       <c r="P96" s="30">
         <v>1</v>
       </c>
@@ -10494,7 +10595,9 @@
       <c r="N97" s="18">
         <v>0.1</v>
       </c>
-      <c r="O97" s="30"/>
+      <c r="O97" s="30">
+        <v>1</v>
+      </c>
       <c r="P97" s="30">
         <v>1</v>
       </c>
@@ -10566,7 +10669,9 @@
       <c r="N98" s="32">
         <v>0.1</v>
       </c>
-      <c r="O98" s="31"/>
+      <c r="O98" s="30">
+        <v>1</v>
+      </c>
       <c r="P98" s="31">
         <v>1</v>
       </c>
@@ -10638,7 +10743,9 @@
       <c r="N99" s="32">
         <v>0.1</v>
       </c>
-      <c r="O99" s="31"/>
+      <c r="O99" s="30">
+        <v>1</v>
+      </c>
       <c r="P99" s="31">
         <v>1</v>
       </c>
@@ -10710,7 +10817,9 @@
       <c r="N100" s="32">
         <v>0.1</v>
       </c>
-      <c r="O100" s="31"/>
+      <c r="O100" s="30">
+        <v>1</v>
+      </c>
       <c r="P100" s="31">
         <v>1</v>
       </c>
@@ -10782,7 +10891,9 @@
       <c r="N101" s="32">
         <v>0.1</v>
       </c>
-      <c r="O101" s="31"/>
+      <c r="O101" s="30">
+        <v>1</v>
+      </c>
       <c r="P101" s="31">
         <v>1</v>
       </c>
@@ -10854,7 +10965,9 @@
       <c r="N102" s="32">
         <v>0.1</v>
       </c>
-      <c r="O102" s="31"/>
+      <c r="O102" s="30">
+        <v>1</v>
+      </c>
       <c r="P102" s="31">
         <v>1</v>
       </c>
@@ -10926,7 +11039,9 @@
       <c r="N103" s="32">
         <v>0.1</v>
       </c>
-      <c r="O103" s="31"/>
+      <c r="O103" s="30">
+        <v>1</v>
+      </c>
       <c r="P103" s="31">
         <v>1</v>
       </c>
@@ -10998,7 +11113,9 @@
       <c r="N104" s="32">
         <v>0.1</v>
       </c>
-      <c r="O104" s="31"/>
+      <c r="O104" s="30">
+        <v>1</v>
+      </c>
       <c r="P104" s="31">
         <v>1</v>
       </c>
@@ -11070,7 +11187,9 @@
       <c r="N105" s="32">
         <v>0.1</v>
       </c>
-      <c r="O105" s="31"/>
+      <c r="O105" s="30">
+        <v>1</v>
+      </c>
       <c r="P105" s="31">
         <v>1</v>
       </c>
@@ -11142,7 +11261,9 @@
       <c r="N106" s="18">
         <v>0.1</v>
       </c>
-      <c r="O106" s="30"/>
+      <c r="O106" s="30">
+        <v>1</v>
+      </c>
       <c r="P106" s="30">
         <v>1</v>
       </c>
@@ -11215,7 +11336,9 @@
       <c r="N107" s="18">
         <v>0.1</v>
       </c>
-      <c r="O107" s="30"/>
+      <c r="O107" s="30">
+        <v>1</v>
+      </c>
       <c r="P107" s="30">
         <v>1</v>
       </c>
@@ -11288,7 +11411,9 @@
       <c r="N108" s="18">
         <v>0.1</v>
       </c>
-      <c r="O108" s="30"/>
+      <c r="O108" s="30">
+        <v>1</v>
+      </c>
       <c r="P108" s="30">
         <v>1</v>
       </c>
@@ -11361,7 +11486,9 @@
       <c r="N109" s="18">
         <v>0.1</v>
       </c>
-      <c r="O109" s="30"/>
+      <c r="O109" s="30">
+        <v>1</v>
+      </c>
       <c r="P109" s="30">
         <v>1</v>
       </c>
@@ -11434,7 +11561,9 @@
       <c r="N110" s="18">
         <v>0.1</v>
       </c>
-      <c r="O110" s="30"/>
+      <c r="O110" s="30">
+        <v>1</v>
+      </c>
       <c r="P110" s="30">
         <v>1</v>
       </c>
@@ -11507,7 +11636,9 @@
       <c r="N111" s="18">
         <v>0.1</v>
       </c>
-      <c r="O111" s="30"/>
+      <c r="O111" s="30">
+        <v>1</v>
+      </c>
       <c r="P111" s="30">
         <v>1</v>
       </c>
@@ -11580,7 +11711,9 @@
       <c r="N112" s="18">
         <v>0.1</v>
       </c>
-      <c r="O112" s="30"/>
+      <c r="O112" s="30">
+        <v>1</v>
+      </c>
       <c r="P112" s="30">
         <v>1</v>
       </c>
@@ -11653,7 +11786,9 @@
       <c r="N113" s="18">
         <v>0.1</v>
       </c>
-      <c r="O113" s="30"/>
+      <c r="O113" s="30">
+        <v>1</v>
+      </c>
       <c r="P113" s="30">
         <v>1</v>
       </c>
@@ -11726,7 +11861,9 @@
       <c r="N114" s="18">
         <v>0.1</v>
       </c>
-      <c r="O114" s="30"/>
+      <c r="O114" s="30">
+        <v>1</v>
+      </c>
       <c r="P114" s="30">
         <v>1</v>
       </c>
@@ -11799,7 +11936,9 @@
       <c r="N115" s="18">
         <v>0.1</v>
       </c>
-      <c r="O115" s="30"/>
+      <c r="O115" s="30">
+        <v>1</v>
+      </c>
       <c r="P115" s="30">
         <v>1</v>
       </c>
@@ -11872,7 +12011,9 @@
       <c r="N116" s="18">
         <v>0.1</v>
       </c>
-      <c r="O116" s="30"/>
+      <c r="O116" s="30">
+        <v>1</v>
+      </c>
       <c r="P116" s="30">
         <v>1</v>
       </c>
@@ -11945,7 +12086,9 @@
       <c r="N117" s="18">
         <v>0.1</v>
       </c>
-      <c r="O117" s="30"/>
+      <c r="O117" s="30">
+        <v>1</v>
+      </c>
       <c r="P117" s="30">
         <v>1</v>
       </c>
@@ -12018,7 +12161,9 @@
       <c r="N118" s="18">
         <v>0.1</v>
       </c>
-      <c r="O118" s="30"/>
+      <c r="O118" s="30">
+        <v>1</v>
+      </c>
       <c r="P118" s="30">
         <v>1</v>
       </c>
@@ -12091,7 +12236,9 @@
       <c r="N119" s="18">
         <v>0.1</v>
       </c>
-      <c r="O119" s="30"/>
+      <c r="O119" s="30">
+        <v>1</v>
+      </c>
       <c r="P119" s="30">
         <v>1</v>
       </c>
@@ -12164,7 +12311,9 @@
       <c r="N120" s="18">
         <v>0.1</v>
       </c>
-      <c r="O120" s="30"/>
+      <c r="O120" s="30">
+        <v>1</v>
+      </c>
       <c r="P120" s="30">
         <v>1</v>
       </c>
@@ -12237,7 +12386,9 @@
       <c r="N121" s="18">
         <v>0.1</v>
       </c>
-      <c r="O121" s="30"/>
+      <c r="O121" s="30">
+        <v>1</v>
+      </c>
       <c r="P121" s="30">
         <v>1</v>
       </c>
@@ -12310,7 +12461,9 @@
       <c r="N122" s="18">
         <v>0.1</v>
       </c>
-      <c r="O122" s="30"/>
+      <c r="O122" s="30">
+        <v>1</v>
+      </c>
       <c r="P122" s="30">
         <v>1</v>
       </c>
@@ -12383,7 +12536,9 @@
       <c r="N123" s="18">
         <v>0.1</v>
       </c>
-      <c r="O123" s="30"/>
+      <c r="O123" s="30">
+        <v>1</v>
+      </c>
       <c r="P123" s="30">
         <v>1</v>
       </c>
@@ -12456,7 +12611,9 @@
       <c r="N124" s="18">
         <v>0.1</v>
       </c>
-      <c r="O124" s="30"/>
+      <c r="O124" s="30">
+        <v>1</v>
+      </c>
       <c r="P124" s="30">
         <v>1</v>
       </c>
@@ -12529,7 +12686,9 @@
       <c r="N125" s="18">
         <v>0.1</v>
       </c>
-      <c r="O125" s="30"/>
+      <c r="O125" s="30">
+        <v>1</v>
+      </c>
       <c r="P125" s="30">
         <v>1</v>
       </c>
@@ -12602,7 +12761,9 @@
       <c r="N126" s="18">
         <v>0.1</v>
       </c>
-      <c r="O126" s="30"/>
+      <c r="O126" s="30">
+        <v>1</v>
+      </c>
       <c r="P126" s="30">
         <v>1</v>
       </c>
@@ -12675,7 +12836,9 @@
       <c r="N127" s="18">
         <v>0.1</v>
       </c>
-      <c r="O127" s="30"/>
+      <c r="O127" s="30">
+        <v>1</v>
+      </c>
       <c r="P127" s="30">
         <v>1</v>
       </c>
@@ -12748,7 +12911,9 @@
       <c r="N128" s="18">
         <v>0.1</v>
       </c>
-      <c r="O128" s="30"/>
+      <c r="O128" s="30">
+        <v>1</v>
+      </c>
       <c r="P128" s="30">
         <v>1</v>
       </c>
@@ -12821,7 +12986,9 @@
       <c r="N129" s="18">
         <v>0.1</v>
       </c>
-      <c r="O129" s="30"/>
+      <c r="O129" s="30">
+        <v>1</v>
+      </c>
       <c r="P129" s="30">
         <v>1</v>
       </c>
@@ -12894,7 +13061,9 @@
       <c r="N130" s="18">
         <v>0.1</v>
       </c>
-      <c r="O130" s="30"/>
+      <c r="O130" s="30">
+        <v>1</v>
+      </c>
       <c r="P130" s="30">
         <v>1</v>
       </c>
@@ -12967,7 +13136,9 @@
       <c r="N131" s="18">
         <v>0.1</v>
       </c>
-      <c r="O131" s="30"/>
+      <c r="O131" s="30">
+        <v>1</v>
+      </c>
       <c r="P131" s="30">
         <v>1</v>
       </c>
@@ -13040,7 +13211,9 @@
       <c r="N132" s="18">
         <v>0.1</v>
       </c>
-      <c r="O132" s="30"/>
+      <c r="O132" s="30">
+        <v>1</v>
+      </c>
       <c r="P132" s="30">
         <v>1</v>
       </c>
@@ -13113,7 +13286,9 @@
       <c r="N133" s="18">
         <v>0.1</v>
       </c>
-      <c r="O133" s="30"/>
+      <c r="O133" s="30">
+        <v>1</v>
+      </c>
       <c r="P133" s="30">
         <v>1</v>
       </c>
@@ -13186,7 +13361,9 @@
       <c r="N134" s="18">
         <v>0.1</v>
       </c>
-      <c r="O134" s="30"/>
+      <c r="O134" s="30">
+        <v>1</v>
+      </c>
       <c r="P134" s="30">
         <v>1</v>
       </c>
@@ -13259,7 +13436,9 @@
       <c r="N135" s="18">
         <v>0.1</v>
       </c>
-      <c r="O135" s="30"/>
+      <c r="O135" s="30">
+        <v>1</v>
+      </c>
       <c r="P135" s="30">
         <v>1</v>
       </c>
@@ -13332,7 +13511,9 @@
       <c r="N136" s="18">
         <v>0.1</v>
       </c>
-      <c r="O136" s="30"/>
+      <c r="O136" s="30">
+        <v>1</v>
+      </c>
       <c r="P136" s="30">
         <v>1</v>
       </c>
@@ -13405,7 +13586,9 @@
       <c r="N137" s="18">
         <v>0.1</v>
       </c>
-      <c r="O137" s="30"/>
+      <c r="O137" s="30">
+        <v>1</v>
+      </c>
       <c r="P137" s="30">
         <v>1</v>
       </c>
@@ -13478,7 +13661,9 @@
       <c r="N138" s="18">
         <v>0.1</v>
       </c>
-      <c r="O138" s="30"/>
+      <c r="O138" s="30">
+        <v>1</v>
+      </c>
       <c r="P138" s="30">
         <v>1</v>
       </c>
@@ -13551,7 +13736,9 @@
       <c r="N139" s="18">
         <v>0.1</v>
       </c>
-      <c r="O139" s="30"/>
+      <c r="O139" s="30">
+        <v>1</v>
+      </c>
       <c r="P139" s="30">
         <v>1</v>
       </c>
@@ -13624,7 +13811,9 @@
       <c r="N140" s="18">
         <v>0.1</v>
       </c>
-      <c r="O140" s="30"/>
+      <c r="O140" s="30">
+        <v>1</v>
+      </c>
       <c r="P140" s="30">
         <v>1</v>
       </c>
@@ -13697,7 +13886,9 @@
       <c r="N141" s="18">
         <v>0.1</v>
       </c>
-      <c r="O141" s="30"/>
+      <c r="O141" s="30">
+        <v>1</v>
+      </c>
       <c r="P141" s="30">
         <v>1</v>
       </c>
@@ -13770,7 +13961,9 @@
       <c r="N142" s="18">
         <v>0.1</v>
       </c>
-      <c r="O142" s="30"/>
+      <c r="O142" s="30">
+        <v>1</v>
+      </c>
       <c r="P142" s="30">
         <v>1</v>
       </c>
@@ -13843,7 +14036,9 @@
       <c r="N143" s="18">
         <v>0.1</v>
       </c>
-      <c r="O143" s="30"/>
+      <c r="O143" s="30">
+        <v>1</v>
+      </c>
       <c r="P143" s="30">
         <v>1</v>
       </c>
@@ -13916,7 +14111,9 @@
       <c r="N144" s="18">
         <v>0.1</v>
       </c>
-      <c r="O144" s="30"/>
+      <c r="O144" s="30">
+        <v>1</v>
+      </c>
       <c r="P144" s="30">
         <v>1</v>
       </c>
@@ -13989,7 +14186,9 @@
       <c r="N145" s="18">
         <v>0.1</v>
       </c>
-      <c r="O145" s="30"/>
+      <c r="O145" s="30">
+        <v>1</v>
+      </c>
       <c r="P145" s="30">
         <v>1</v>
       </c>
@@ -14062,7 +14261,9 @@
       <c r="N146" s="18">
         <v>0.1</v>
       </c>
-      <c r="O146" s="30"/>
+      <c r="O146" s="30">
+        <v>1</v>
+      </c>
       <c r="P146" s="30">
         <v>1</v>
       </c>
@@ -14135,7 +14336,9 @@
       <c r="N147" s="18">
         <v>0.1</v>
       </c>
-      <c r="O147" s="30"/>
+      <c r="O147" s="30">
+        <v>1</v>
+      </c>
       <c r="P147" s="30">
         <v>1</v>
       </c>
@@ -14208,7 +14411,9 @@
       <c r="N148" s="18">
         <v>0.1</v>
       </c>
-      <c r="O148" s="30"/>
+      <c r="O148" s="30">
+        <v>1</v>
+      </c>
       <c r="P148" s="30">
         <v>1</v>
       </c>
@@ -14281,7 +14486,9 @@
       <c r="N149" s="18">
         <v>0.1</v>
       </c>
-      <c r="O149" s="30"/>
+      <c r="O149" s="30">
+        <v>1</v>
+      </c>
       <c r="P149" s="30">
         <v>1</v>
       </c>
@@ -14354,7 +14561,9 @@
       <c r="N150" s="18">
         <v>0.1</v>
       </c>
-      <c r="O150" s="30"/>
+      <c r="O150" s="30">
+        <v>1</v>
+      </c>
       <c r="P150" s="30">
         <v>1</v>
       </c>
@@ -14427,7 +14636,9 @@
       <c r="N151" s="18">
         <v>0.1</v>
       </c>
-      <c r="O151" s="30"/>
+      <c r="O151" s="30">
+        <v>1</v>
+      </c>
       <c r="P151" s="30">
         <v>1</v>
       </c>
@@ -14500,7 +14711,9 @@
       <c r="N152" s="18">
         <v>0.1</v>
       </c>
-      <c r="O152" s="30"/>
+      <c r="O152" s="30">
+        <v>1</v>
+      </c>
       <c r="P152" s="30">
         <v>1</v>
       </c>
@@ -14573,7 +14786,9 @@
       <c r="N153" s="18">
         <v>0.1</v>
       </c>
-      <c r="O153" s="30"/>
+      <c r="O153" s="30">
+        <v>1</v>
+      </c>
       <c r="P153" s="30">
         <v>1</v>
       </c>
@@ -14646,7 +14861,9 @@
       <c r="N154" s="18">
         <v>0.1</v>
       </c>
-      <c r="O154" s="30"/>
+      <c r="O154" s="30">
+        <v>1</v>
+      </c>
       <c r="P154" s="30">
         <v>1</v>
       </c>
@@ -14719,7 +14936,9 @@
       <c r="N155" s="18">
         <v>0.1</v>
       </c>
-      <c r="O155" s="30"/>
+      <c r="O155" s="30">
+        <v>1</v>
+      </c>
       <c r="P155" s="30">
         <v>1</v>
       </c>
@@ -14792,7 +15011,9 @@
       <c r="N156" s="18">
         <v>0.1</v>
       </c>
-      <c r="O156" s="30"/>
+      <c r="O156" s="30">
+        <v>1</v>
+      </c>
       <c r="P156" s="30">
         <v>1</v>
       </c>
@@ -14865,7 +15086,9 @@
       <c r="N157" s="18">
         <v>0.1</v>
       </c>
-      <c r="O157" s="30"/>
+      <c r="O157" s="30">
+        <v>1</v>
+      </c>
       <c r="P157" s="30">
         <v>1</v>
       </c>
@@ -14938,7 +15161,9 @@
       <c r="N158" s="18">
         <v>0.1</v>
       </c>
-      <c r="O158" s="30"/>
+      <c r="O158" s="30">
+        <v>1</v>
+      </c>
       <c r="P158" s="30">
         <v>1</v>
       </c>
@@ -15011,7 +15236,9 @@
       <c r="N159" s="18">
         <v>0.1</v>
       </c>
-      <c r="O159" s="30"/>
+      <c r="O159" s="30">
+        <v>1</v>
+      </c>
       <c r="P159" s="30">
         <v>1</v>
       </c>
@@ -15084,7 +15311,9 @@
       <c r="N160" s="18">
         <v>0.1</v>
       </c>
-      <c r="O160" s="30"/>
+      <c r="O160" s="30">
+        <v>1</v>
+      </c>
       <c r="P160" s="30">
         <v>1</v>
       </c>
@@ -15157,7 +15386,9 @@
       <c r="N161" s="18">
         <v>0.1</v>
       </c>
-      <c r="O161" s="30"/>
+      <c r="O161" s="30">
+        <v>1</v>
+      </c>
       <c r="P161" s="30">
         <v>1</v>
       </c>
@@ -15230,7 +15461,9 @@
       <c r="N162" s="18">
         <v>0.1</v>
       </c>
-      <c r="O162" s="30"/>
+      <c r="O162" s="30">
+        <v>1</v>
+      </c>
       <c r="P162" s="30">
         <v>1</v>
       </c>
@@ -15303,7 +15536,9 @@
       <c r="N163" s="18">
         <v>0.1</v>
       </c>
-      <c r="O163" s="30"/>
+      <c r="O163" s="30">
+        <v>1</v>
+      </c>
       <c r="P163" s="30">
         <v>1</v>
       </c>
@@ -15376,7 +15611,9 @@
       <c r="N164" s="18">
         <v>0.1</v>
       </c>
-      <c r="O164" s="30"/>
+      <c r="O164" s="30">
+        <v>1</v>
+      </c>
       <c r="P164" s="30">
         <v>1</v>
       </c>
@@ -15449,7 +15686,9 @@
       <c r="N165" s="18">
         <v>0.1</v>
       </c>
-      <c r="O165" s="30"/>
+      <c r="O165" s="30">
+        <v>1</v>
+      </c>
       <c r="P165" s="30">
         <v>1</v>
       </c>
@@ -15522,7 +15761,9 @@
       <c r="N166" s="18">
         <v>0.1</v>
       </c>
-      <c r="O166" s="30"/>
+      <c r="O166" s="30">
+        <v>1</v>
+      </c>
       <c r="P166" s="30">
         <v>1</v>
       </c>
@@ -15595,7 +15836,9 @@
       <c r="N167" s="18">
         <v>0.1</v>
       </c>
-      <c r="O167" s="30"/>
+      <c r="O167" s="30">
+        <v>1</v>
+      </c>
       <c r="P167" s="30">
         <v>1</v>
       </c>
@@ -15668,7 +15911,9 @@
       <c r="N168" s="18">
         <v>0.1</v>
       </c>
-      <c r="O168" s="30"/>
+      <c r="O168" s="30">
+        <v>1</v>
+      </c>
       <c r="P168" s="30">
         <v>1</v>
       </c>
@@ -15741,7 +15986,9 @@
       <c r="N169" s="18">
         <v>0.1</v>
       </c>
-      <c r="O169" s="30"/>
+      <c r="O169" s="30">
+        <v>1</v>
+      </c>
       <c r="P169" s="30">
         <v>1</v>
       </c>
@@ -15814,7 +16061,9 @@
       <c r="N170" s="18">
         <v>0.1</v>
       </c>
-      <c r="O170" s="30"/>
+      <c r="O170" s="30">
+        <v>1</v>
+      </c>
       <c r="P170" s="30">
         <v>1</v>
       </c>
@@ -15887,7 +16136,9 @@
       <c r="N171" s="18">
         <v>0.1</v>
       </c>
-      <c r="O171" s="30"/>
+      <c r="O171" s="30">
+        <v>1</v>
+      </c>
       <c r="P171" s="30">
         <v>1</v>
       </c>
@@ -15960,7 +16211,9 @@
       <c r="N172" s="18">
         <v>0.1</v>
       </c>
-      <c r="O172" s="30"/>
+      <c r="O172" s="30">
+        <v>1</v>
+      </c>
       <c r="P172" s="30">
         <v>1</v>
       </c>
@@ -16033,7 +16286,9 @@
       <c r="N173" s="18">
         <v>0.1</v>
       </c>
-      <c r="O173" s="30"/>
+      <c r="O173" s="30">
+        <v>1</v>
+      </c>
       <c r="P173" s="30">
         <v>1</v>
       </c>
@@ -16106,7 +16361,9 @@
       <c r="N174" s="18">
         <v>0.1</v>
       </c>
-      <c r="O174" s="30"/>
+      <c r="O174" s="30">
+        <v>1</v>
+      </c>
       <c r="P174" s="30">
         <v>1</v>
       </c>
@@ -16179,7 +16436,9 @@
       <c r="N175" s="18">
         <v>0.1</v>
       </c>
-      <c r="O175" s="30"/>
+      <c r="O175" s="30">
+        <v>1</v>
+      </c>
       <c r="P175" s="30">
         <v>1</v>
       </c>
@@ -16252,7 +16511,9 @@
       <c r="N176" s="18">
         <v>0.1</v>
       </c>
-      <c r="O176" s="30"/>
+      <c r="O176" s="30">
+        <v>1</v>
+      </c>
       <c r="P176" s="30">
         <v>1</v>
       </c>
@@ -16325,7 +16586,9 @@
       <c r="N177" s="18">
         <v>0.1</v>
       </c>
-      <c r="O177" s="30"/>
+      <c r="O177" s="30">
+        <v>1</v>
+      </c>
       <c r="P177" s="30">
         <v>1</v>
       </c>
@@ -16398,7 +16661,9 @@
       <c r="N178" s="18">
         <v>0.1</v>
       </c>
-      <c r="O178" s="30"/>
+      <c r="O178" s="30">
+        <v>1</v>
+      </c>
       <c r="P178" s="30">
         <v>1</v>
       </c>
@@ -16471,7 +16736,9 @@
       <c r="N179" s="18">
         <v>0.1</v>
       </c>
-      <c r="O179" s="30"/>
+      <c r="O179" s="30">
+        <v>1</v>
+      </c>
       <c r="P179" s="30">
         <v>1</v>
       </c>
@@ -16544,7 +16811,9 @@
       <c r="N180" s="18">
         <v>0.1</v>
       </c>
-      <c r="O180" s="30"/>
+      <c r="O180" s="30">
+        <v>1</v>
+      </c>
       <c r="P180" s="30">
         <v>1</v>
       </c>
@@ -16617,7 +16886,9 @@
       <c r="N181" s="18">
         <v>0.1</v>
       </c>
-      <c r="O181" s="30"/>
+      <c r="O181" s="30">
+        <v>1</v>
+      </c>
       <c r="P181" s="30">
         <v>1</v>
       </c>
@@ -16690,7 +16961,9 @@
       <c r="N182" s="18">
         <v>0.1</v>
       </c>
-      <c r="O182" s="30"/>
+      <c r="O182" s="30">
+        <v>1</v>
+      </c>
       <c r="P182" s="30">
         <v>1</v>
       </c>
@@ -16763,7 +17036,9 @@
       <c r="N183" s="18">
         <v>0.1</v>
       </c>
-      <c r="O183" s="30"/>
+      <c r="O183" s="30">
+        <v>1</v>
+      </c>
       <c r="P183" s="30">
         <v>1</v>
       </c>
@@ -16836,7 +17111,9 @@
       <c r="N184" s="18">
         <v>0.1</v>
       </c>
-      <c r="O184" s="30"/>
+      <c r="O184" s="30">
+        <v>1</v>
+      </c>
       <c r="P184" s="30">
         <v>1</v>
       </c>
@@ -16909,7 +17186,9 @@
       <c r="N185" s="18">
         <v>0.1</v>
       </c>
-      <c r="O185" s="30"/>
+      <c r="O185" s="30">
+        <v>1</v>
+      </c>
       <c r="P185" s="30">
         <v>1</v>
       </c>
@@ -16982,7 +17261,9 @@
       <c r="N186" s="18">
         <v>0.1</v>
       </c>
-      <c r="O186" s="30"/>
+      <c r="O186" s="30">
+        <v>1</v>
+      </c>
       <c r="P186" s="30">
         <v>1</v>
       </c>
@@ -17055,7 +17336,9 @@
       <c r="N187" s="18">
         <v>0.1</v>
       </c>
-      <c r="O187" s="30"/>
+      <c r="O187" s="30">
+        <v>1</v>
+      </c>
       <c r="P187" s="30">
         <v>1</v>
       </c>
@@ -17128,7 +17411,9 @@
       <c r="N188" s="18">
         <v>0.1</v>
       </c>
-      <c r="O188" s="30"/>
+      <c r="O188" s="30">
+        <v>1</v>
+      </c>
       <c r="P188" s="30">
         <v>1</v>
       </c>
@@ -17201,7 +17486,9 @@
       <c r="N189" s="18">
         <v>0.1</v>
       </c>
-      <c r="O189" s="30"/>
+      <c r="O189" s="30">
+        <v>1</v>
+      </c>
       <c r="P189" s="30">
         <v>1</v>
       </c>
@@ -17274,7 +17561,9 @@
       <c r="N190" s="18">
         <v>0.1</v>
       </c>
-      <c r="O190" s="30"/>
+      <c r="O190" s="30">
+        <v>1</v>
+      </c>
       <c r="P190" s="30">
         <v>1</v>
       </c>
@@ -17347,7 +17636,9 @@
       <c r="N191" s="18">
         <v>0.1</v>
       </c>
-      <c r="O191" s="30"/>
+      <c r="O191" s="30">
+        <v>1</v>
+      </c>
       <c r="P191" s="30">
         <v>1</v>
       </c>
@@ -17420,7 +17711,9 @@
       <c r="N192" s="18">
         <v>0.1</v>
       </c>
-      <c r="O192" s="30"/>
+      <c r="O192" s="30">
+        <v>1</v>
+      </c>
       <c r="P192" s="30">
         <v>1</v>
       </c>
@@ -17493,7 +17786,9 @@
       <c r="N193" s="18">
         <v>0.1</v>
       </c>
-      <c r="O193" s="30"/>
+      <c r="O193" s="30">
+        <v>1</v>
+      </c>
       <c r="P193" s="30">
         <v>1</v>
       </c>
@@ -17566,7 +17861,9 @@
       <c r="N194" s="18">
         <v>0.1</v>
       </c>
-      <c r="O194" s="30"/>
+      <c r="O194" s="30">
+        <v>1</v>
+      </c>
       <c r="P194" s="30">
         <v>1</v>
       </c>
@@ -17639,7 +17936,9 @@
       <c r="N195" s="18">
         <v>0.1</v>
       </c>
-      <c r="O195" s="30"/>
+      <c r="O195" s="30">
+        <v>1</v>
+      </c>
       <c r="P195" s="30">
         <v>1</v>
       </c>
@@ -17712,7 +18011,9 @@
       <c r="N196" s="18">
         <v>0.1</v>
       </c>
-      <c r="O196" s="30"/>
+      <c r="O196" s="30">
+        <v>1</v>
+      </c>
       <c r="P196" s="30">
         <v>1</v>
       </c>
@@ -17785,7 +18086,9 @@
       <c r="N197" s="18">
         <v>0.1</v>
       </c>
-      <c r="O197" s="30"/>
+      <c r="O197" s="30">
+        <v>1</v>
+      </c>
       <c r="P197" s="30">
         <v>1</v>
       </c>
@@ -17858,7 +18161,9 @@
       <c r="N198" s="18">
         <v>0.1</v>
       </c>
-      <c r="O198" s="30"/>
+      <c r="O198" s="30">
+        <v>1</v>
+      </c>
       <c r="P198" s="30">
         <v>1</v>
       </c>
@@ -17931,7 +18236,9 @@
       <c r="N199" s="18">
         <v>0.1</v>
       </c>
-      <c r="O199" s="30"/>
+      <c r="O199" s="30">
+        <v>1</v>
+      </c>
       <c r="P199" s="30">
         <v>1</v>
       </c>
@@ -18004,7 +18311,9 @@
       <c r="N200" s="18">
         <v>0.1</v>
       </c>
-      <c r="O200" s="30"/>
+      <c r="O200" s="30">
+        <v>1</v>
+      </c>
       <c r="P200" s="30">
         <v>1</v>
       </c>
@@ -18077,7 +18386,9 @@
       <c r="N201" s="18">
         <v>0.1</v>
       </c>
-      <c r="O201" s="30"/>
+      <c r="O201" s="30">
+        <v>1</v>
+      </c>
       <c r="P201" s="30">
         <v>1</v>
       </c>
@@ -18150,7 +18461,9 @@
       <c r="N202" s="18">
         <v>0.1</v>
       </c>
-      <c r="O202" s="30"/>
+      <c r="O202" s="30">
+        <v>1</v>
+      </c>
       <c r="P202" s="30">
         <v>1</v>
       </c>
@@ -18223,7 +18536,9 @@
       <c r="N203" s="18">
         <v>0.1</v>
       </c>
-      <c r="O203" s="30"/>
+      <c r="O203" s="30">
+        <v>1</v>
+      </c>
       <c r="P203" s="30">
         <v>1</v>
       </c>
@@ -18296,7 +18611,9 @@
       <c r="N204" s="18">
         <v>0.1</v>
       </c>
-      <c r="O204" s="30"/>
+      <c r="O204" s="30">
+        <v>1</v>
+      </c>
       <c r="P204" s="30">
         <v>1</v>
       </c>
@@ -18369,7 +18686,9 @@
       <c r="N205" s="18">
         <v>0.1</v>
       </c>
-      <c r="O205" s="30"/>
+      <c r="O205" s="30">
+        <v>1</v>
+      </c>
       <c r="P205" s="30">
         <v>1</v>
       </c>
@@ -18442,7 +18761,9 @@
       <c r="N206" s="18">
         <v>0.1</v>
       </c>
-      <c r="O206" s="30"/>
+      <c r="O206" s="30">
+        <v>1</v>
+      </c>
       <c r="P206" s="30">
         <v>1</v>
       </c>
@@ -18515,7 +18836,9 @@
       <c r="N207" s="18">
         <v>0.1</v>
       </c>
-      <c r="O207" s="30"/>
+      <c r="O207" s="30">
+        <v>1</v>
+      </c>
       <c r="P207" s="30">
         <v>1</v>
       </c>
@@ -18589,7 +18912,9 @@
       <c r="N208" s="18">
         <v>0.1</v>
       </c>
-      <c r="O208" s="30"/>
+      <c r="O208" s="30">
+        <v>1</v>
+      </c>
       <c r="P208" s="30">
         <v>1</v>
       </c>
@@ -18663,7 +18988,9 @@
       <c r="N209" s="18">
         <v>0.1</v>
       </c>
-      <c r="O209" s="30"/>
+      <c r="O209" s="30">
+        <v>1</v>
+      </c>
       <c r="P209" s="30">
         <v>1</v>
       </c>
@@ -18737,7 +19064,9 @@
       <c r="N210" s="18">
         <v>0.1</v>
       </c>
-      <c r="O210" s="30"/>
+      <c r="O210" s="30">
+        <v>1</v>
+      </c>
       <c r="P210" s="30">
         <v>1</v>
       </c>
@@ -18811,7 +19140,9 @@
       <c r="N211" s="18">
         <v>0.1</v>
       </c>
-      <c r="O211" s="30"/>
+      <c r="O211" s="30">
+        <v>1</v>
+      </c>
       <c r="P211" s="30">
         <v>1</v>
       </c>
@@ -18885,7 +19216,9 @@
       <c r="N212" s="18">
         <v>0.1</v>
       </c>
-      <c r="O212" s="30"/>
+      <c r="O212" s="30">
+        <v>1</v>
+      </c>
       <c r="P212" s="30">
         <v>1</v>
       </c>
@@ -18959,7 +19292,9 @@
       <c r="N213" s="18">
         <v>0.1</v>
       </c>
-      <c r="O213" s="30"/>
+      <c r="O213" s="30">
+        <v>1</v>
+      </c>
       <c r="P213" s="30">
         <v>1</v>
       </c>
@@ -19033,7 +19368,9 @@
       <c r="N214" s="18">
         <v>0.1</v>
       </c>
-      <c r="O214" s="30"/>
+      <c r="O214" s="30">
+        <v>1</v>
+      </c>
       <c r="P214" s="30">
         <v>1</v>
       </c>
@@ -19107,7 +19444,9 @@
       <c r="N215" s="18">
         <v>0.1</v>
       </c>
-      <c r="O215" s="30"/>
+      <c r="O215" s="30">
+        <v>1</v>
+      </c>
       <c r="P215" s="30">
         <v>1</v>
       </c>
@@ -19181,7 +19520,9 @@
       <c r="N216" s="18">
         <v>0.1</v>
       </c>
-      <c r="O216" s="30"/>
+      <c r="O216" s="30">
+        <v>1</v>
+      </c>
       <c r="P216" s="30">
         <v>1</v>
       </c>
@@ -19255,7 +19596,9 @@
       <c r="N217" s="18">
         <v>0.1</v>
       </c>
-      <c r="O217" s="30"/>
+      <c r="O217" s="30">
+        <v>1</v>
+      </c>
       <c r="P217" s="30">
         <v>1</v>
       </c>
@@ -19329,7 +19672,9 @@
       <c r="N218" s="18">
         <v>0.1</v>
       </c>
-      <c r="O218" s="30"/>
+      <c r="O218" s="30">
+        <v>1</v>
+      </c>
       <c r="P218" s="30">
         <v>1</v>
       </c>
@@ -19403,7 +19748,9 @@
       <c r="N219" s="18">
         <v>0.1</v>
       </c>
-      <c r="O219" s="30"/>
+      <c r="O219" s="30">
+        <v>1</v>
+      </c>
       <c r="P219" s="30">
         <v>1</v>
       </c>
@@ -19477,7 +19824,9 @@
       <c r="N220" s="18">
         <v>0.1</v>
       </c>
-      <c r="O220" s="30"/>
+      <c r="O220" s="30">
+        <v>1</v>
+      </c>
       <c r="P220" s="30">
         <v>1</v>
       </c>
@@ -19551,7 +19900,9 @@
       <c r="N221" s="18">
         <v>0.1</v>
       </c>
-      <c r="O221" s="30"/>
+      <c r="O221" s="30">
+        <v>1</v>
+      </c>
       <c r="P221" s="30">
         <v>1</v>
       </c>
@@ -19625,7 +19976,9 @@
       <c r="N222" s="18">
         <v>0.1</v>
       </c>
-      <c r="O222" s="30"/>
+      <c r="O222" s="30">
+        <v>1</v>
+      </c>
       <c r="P222" s="30">
         <v>1</v>
       </c>
@@ -19699,7 +20052,9 @@
       <c r="N223" s="18">
         <v>0.1</v>
       </c>
-      <c r="O223" s="30"/>
+      <c r="O223" s="30">
+        <v>1</v>
+      </c>
       <c r="P223" s="30">
         <v>1</v>
       </c>
@@ -19773,7 +20128,9 @@
       <c r="N224" s="18">
         <v>0.1</v>
       </c>
-      <c r="O224" s="30"/>
+      <c r="O224" s="30">
+        <v>1</v>
+      </c>
       <c r="P224" s="30">
         <v>1</v>
       </c>
@@ -19847,7 +20204,9 @@
       <c r="N225" s="18">
         <v>0.1</v>
       </c>
-      <c r="O225" s="30"/>
+      <c r="O225" s="30">
+        <v>1</v>
+      </c>
       <c r="P225" s="30">
         <v>1</v>
       </c>
@@ -19921,7 +20280,9 @@
       <c r="N226" s="18">
         <v>0.1</v>
       </c>
-      <c r="O226" s="30"/>
+      <c r="O226" s="30">
+        <v>1</v>
+      </c>
       <c r="P226" s="30">
         <v>1</v>
       </c>
@@ -19995,7 +20356,9 @@
       <c r="N227" s="18">
         <v>0.1</v>
       </c>
-      <c r="O227" s="30"/>
+      <c r="O227" s="30">
+        <v>1</v>
+      </c>
       <c r="P227" s="30">
         <v>1</v>
       </c>
@@ -20069,7 +20432,9 @@
       <c r="N228" s="18">
         <v>0.1</v>
       </c>
-      <c r="O228" s="30"/>
+      <c r="O228" s="30">
+        <v>1</v>
+      </c>
       <c r="P228" s="30">
         <v>1</v>
       </c>
@@ -20143,7 +20508,9 @@
       <c r="N229" s="18">
         <v>0.1</v>
       </c>
-      <c r="O229" s="30"/>
+      <c r="O229" s="30">
+        <v>1</v>
+      </c>
       <c r="P229" s="30">
         <v>1</v>
       </c>
@@ -20217,7 +20584,9 @@
       <c r="N230" s="18">
         <v>0.1</v>
       </c>
-      <c r="O230" s="30"/>
+      <c r="O230" s="30">
+        <v>1</v>
+      </c>
       <c r="P230" s="30">
         <v>1</v>
       </c>
@@ -20291,7 +20660,9 @@
       <c r="N231" s="18">
         <v>0.1</v>
       </c>
-      <c r="O231" s="30"/>
+      <c r="O231" s="30">
+        <v>1</v>
+      </c>
       <c r="P231" s="30">
         <v>1</v>
       </c>
@@ -20365,7 +20736,9 @@
       <c r="N232" s="18">
         <v>0.1</v>
       </c>
-      <c r="O232" s="30"/>
+      <c r="O232" s="30">
+        <v>1</v>
+      </c>
       <c r="P232" s="30">
         <v>1</v>
       </c>
@@ -20439,7 +20812,9 @@
       <c r="N233" s="18">
         <v>0.1</v>
       </c>
-      <c r="O233" s="30"/>
+      <c r="O233" s="30">
+        <v>1</v>
+      </c>
       <c r="P233" s="30">
         <v>1</v>
       </c>
@@ -20513,7 +20888,9 @@
       <c r="N234" s="18">
         <v>0.1</v>
       </c>
-      <c r="O234" s="30"/>
+      <c r="O234" s="30">
+        <v>1</v>
+      </c>
       <c r="P234" s="30">
         <v>1</v>
       </c>
@@ -20587,7 +20964,9 @@
       <c r="N235" s="18">
         <v>0.1</v>
       </c>
-      <c r="O235" s="30"/>
+      <c r="O235" s="30">
+        <v>1</v>
+      </c>
       <c r="P235" s="30">
         <v>1</v>
       </c>
@@ -20661,7 +21040,9 @@
       <c r="N236" s="18">
         <v>0.1</v>
       </c>
-      <c r="O236" s="30"/>
+      <c r="O236" s="30">
+        <v>1</v>
+      </c>
       <c r="P236" s="30">
         <v>1</v>
       </c>
@@ -20735,7 +21116,9 @@
       <c r="N237" s="18">
         <v>0.1</v>
       </c>
-      <c r="O237" s="30"/>
+      <c r="O237" s="30">
+        <v>1</v>
+      </c>
       <c r="P237" s="30">
         <v>1</v>
       </c>
@@ -20809,7 +21192,9 @@
       <c r="N238" s="18">
         <v>0.1</v>
       </c>
-      <c r="O238" s="30"/>
+      <c r="O238" s="30">
+        <v>1</v>
+      </c>
       <c r="P238" s="30">
         <v>1</v>
       </c>
@@ -20883,7 +21268,9 @@
       <c r="N239" s="18">
         <v>0.1</v>
       </c>
-      <c r="O239" s="30"/>
+      <c r="O239" s="30">
+        <v>1</v>
+      </c>
       <c r="P239" s="30">
         <v>1</v>
       </c>
@@ -20957,7 +21344,9 @@
       <c r="N240" s="18">
         <v>0.1</v>
       </c>
-      <c r="O240" s="30"/>
+      <c r="O240" s="30">
+        <v>1</v>
+      </c>
       <c r="P240" s="30">
         <v>1</v>
       </c>
@@ -21031,7 +21420,9 @@
       <c r="N241" s="18">
         <v>0.1</v>
       </c>
-      <c r="O241" s="30"/>
+      <c r="O241" s="30">
+        <v>1</v>
+      </c>
       <c r="P241" s="30">
         <v>1</v>
       </c>
@@ -21104,7 +21495,9 @@
       <c r="N242" s="18">
         <v>0.02</v>
       </c>
-      <c r="O242" s="30"/>
+      <c r="O242" s="30">
+        <v>0</v>
+      </c>
       <c r="P242" s="30">
         <v>1</v>
       </c>
@@ -21176,7 +21569,9 @@
       <c r="N243" s="18">
         <v>0.02</v>
       </c>
-      <c r="O243" s="30"/>
+      <c r="O243" s="30">
+        <v>0</v>
+      </c>
       <c r="P243" s="30">
         <v>1</v>
       </c>
@@ -21248,7 +21643,9 @@
       <c r="N244" s="18">
         <v>0.02</v>
       </c>
-      <c r="O244" s="30"/>
+      <c r="O244" s="30">
+        <v>0</v>
+      </c>
       <c r="P244" s="30">
         <v>1</v>
       </c>
@@ -21320,7 +21717,9 @@
       <c r="N245" s="18">
         <v>0.02</v>
       </c>
-      <c r="O245" s="30"/>
+      <c r="O245" s="30">
+        <v>0</v>
+      </c>
       <c r="P245" s="30">
         <v>1</v>
       </c>
@@ -21392,7 +21791,9 @@
       <c r="N246" s="18">
         <v>0.02</v>
       </c>
-      <c r="O246" s="30"/>
+      <c r="O246" s="30">
+        <v>0</v>
+      </c>
       <c r="P246" s="30">
         <v>1</v>
       </c>
@@ -21464,7 +21865,9 @@
       <c r="N247" s="18">
         <v>0.02</v>
       </c>
-      <c r="O247" s="30"/>
+      <c r="O247" s="30">
+        <v>0</v>
+      </c>
       <c r="P247" s="30">
         <v>1</v>
       </c>
@@ -21536,7 +21939,9 @@
       <c r="N248" s="18">
         <v>0.02</v>
       </c>
-      <c r="O248" s="30"/>
+      <c r="O248" s="30">
+        <v>0</v>
+      </c>
       <c r="P248" s="30">
         <v>1</v>
       </c>
@@ -21608,7 +22013,9 @@
       <c r="N249" s="18">
         <v>0.02</v>
       </c>
-      <c r="O249" s="30"/>
+      <c r="O249" s="30">
+        <v>0</v>
+      </c>
       <c r="P249" s="30">
         <v>1</v>
       </c>
@@ -21680,7 +22087,9 @@
       <c r="N250" s="18">
         <v>0.02</v>
       </c>
-      <c r="O250" s="30"/>
+      <c r="O250" s="30">
+        <v>0</v>
+      </c>
       <c r="P250" s="30">
         <v>1</v>
       </c>
@@ -21752,7 +22161,9 @@
       <c r="N251" s="18">
         <v>0.02</v>
       </c>
-      <c r="O251" s="30"/>
+      <c r="O251" s="30">
+        <v>0</v>
+      </c>
       <c r="P251" s="30">
         <v>1</v>
       </c>
@@ -21824,7 +22235,9 @@
       <c r="N252" s="18">
         <v>0.02</v>
       </c>
-      <c r="O252" s="30"/>
+      <c r="O252" s="30">
+        <v>0</v>
+      </c>
       <c r="P252" s="30">
         <v>1</v>
       </c>
@@ -21896,7 +22309,9 @@
       <c r="N253" s="18">
         <v>0.02</v>
       </c>
-      <c r="O253" s="30"/>
+      <c r="O253" s="30">
+        <v>0</v>
+      </c>
       <c r="P253" s="30">
         <v>1</v>
       </c>
@@ -21968,7 +22383,9 @@
       <c r="N254" s="18">
         <v>0.02</v>
       </c>
-      <c r="O254" s="30"/>
+      <c r="O254" s="30">
+        <v>0</v>
+      </c>
       <c r="P254" s="30">
         <v>1</v>
       </c>
@@ -22040,7 +22457,9 @@
       <c r="N255" s="18">
         <v>0.02</v>
       </c>
-      <c r="O255" s="30"/>
+      <c r="O255" s="30">
+        <v>0</v>
+      </c>
       <c r="P255" s="30">
         <v>1</v>
       </c>
@@ -22113,7 +22532,9 @@
       <c r="N256" s="18">
         <v>0.02</v>
       </c>
-      <c r="O256" s="30"/>
+      <c r="O256" s="30">
+        <v>0</v>
+      </c>
       <c r="P256" s="30">
         <v>1</v>
       </c>
@@ -22186,7 +22607,9 @@
       <c r="N257" s="18">
         <v>0.02</v>
       </c>
-      <c r="O257" s="30"/>
+      <c r="O257" s="30">
+        <v>0</v>
+      </c>
       <c r="P257" s="30">
         <v>1</v>
       </c>
@@ -22259,7 +22682,9 @@
       <c r="N258" s="18">
         <v>0.02</v>
       </c>
-      <c r="O258" s="30"/>
+      <c r="O258" s="30">
+        <v>0</v>
+      </c>
       <c r="P258" s="30">
         <v>1</v>
       </c>
@@ -22332,7 +22757,9 @@
       <c r="N259" s="18">
         <v>0.02</v>
       </c>
-      <c r="O259" s="30"/>
+      <c r="O259" s="30">
+        <v>0</v>
+      </c>
       <c r="P259" s="30">
         <v>1</v>
       </c>
@@ -22405,7 +22832,9 @@
       <c r="N260" s="18">
         <v>0.02</v>
       </c>
-      <c r="O260" s="30"/>
+      <c r="O260" s="30">
+        <v>0</v>
+      </c>
       <c r="P260" s="30">
         <v>1</v>
       </c>
@@ -22478,7 +22907,9 @@
       <c r="N261" s="18">
         <v>0.02</v>
       </c>
-      <c r="O261" s="30"/>
+      <c r="O261" s="30">
+        <v>0</v>
+      </c>
       <c r="P261" s="30">
         <v>1</v>
       </c>
@@ -22551,7 +22982,9 @@
       <c r="N262" s="18">
         <v>0.02</v>
       </c>
-      <c r="O262" s="30"/>
+      <c r="O262" s="30">
+        <v>0</v>
+      </c>
       <c r="P262" s="30">
         <v>1</v>
       </c>
@@ -22624,7 +23057,9 @@
       <c r="N263" s="18">
         <v>0.02</v>
       </c>
-      <c r="O263" s="30"/>
+      <c r="O263" s="30">
+        <v>0</v>
+      </c>
       <c r="P263" s="30">
         <v>1</v>
       </c>
@@ -22697,7 +23132,9 @@
       <c r="N264" s="18">
         <v>0.02</v>
       </c>
-      <c r="O264" s="30"/>
+      <c r="O264" s="30">
+        <v>0</v>
+      </c>
       <c r="P264" s="30">
         <v>1</v>
       </c>
@@ -22770,7 +23207,9 @@
       <c r="N265" s="18">
         <v>0.02</v>
       </c>
-      <c r="O265" s="30"/>
+      <c r="O265" s="30">
+        <v>0</v>
+      </c>
       <c r="P265" s="30">
         <v>1</v>
       </c>
@@ -22843,7 +23282,9 @@
       <c r="N266" s="18">
         <v>0.02</v>
       </c>
-      <c r="O266" s="30"/>
+      <c r="O266" s="30">
+        <v>0</v>
+      </c>
       <c r="P266" s="30">
         <v>1</v>
       </c>
@@ -22916,7 +23357,9 @@
       <c r="N267" s="18">
         <v>0.02</v>
       </c>
-      <c r="O267" s="30"/>
+      <c r="O267" s="30">
+        <v>0</v>
+      </c>
       <c r="P267" s="30">
         <v>1</v>
       </c>
@@ -22989,7 +23432,9 @@
       <c r="N268" s="18">
         <v>0.02</v>
       </c>
-      <c r="O268" s="30"/>
+      <c r="O268" s="30">
+        <v>0</v>
+      </c>
       <c r="P268" s="30">
         <v>1</v>
       </c>
@@ -23062,7 +23507,9 @@
       <c r="N269" s="18">
         <v>0.02</v>
       </c>
-      <c r="O269" s="30"/>
+      <c r="O269" s="30">
+        <v>0</v>
+      </c>
       <c r="P269" s="30">
         <v>1</v>
       </c>
@@ -23135,7 +23582,9 @@
       <c r="N270" s="18">
         <v>0.02</v>
       </c>
-      <c r="O270" s="30"/>
+      <c r="O270" s="30">
+        <v>0</v>
+      </c>
       <c r="P270" s="30">
         <v>1</v>
       </c>
@@ -23208,7 +23657,9 @@
       <c r="N271" s="18">
         <v>0.02</v>
       </c>
-      <c r="O271" s="30"/>
+      <c r="O271" s="30">
+        <v>0</v>
+      </c>
       <c r="P271" s="30">
         <v>1</v>
       </c>
@@ -23261,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="H272" s="22">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="I272" s="22">
         <v>500000</v>
@@ -23281,7 +23732,9 @@
       <c r="N272" s="18">
         <v>0.02</v>
       </c>
-      <c r="O272" s="30"/>
+      <c r="O272" s="30">
+        <v>0</v>
+      </c>
       <c r="P272" s="30">
         <v>1</v>
       </c>
@@ -23333,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="H273" s="22">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="I273" s="22">
         <v>500000</v>
@@ -23353,7 +23806,9 @@
       <c r="N273" s="18">
         <v>0.02</v>
       </c>
-      <c r="O273" s="30"/>
+      <c r="O273" s="30">
+        <v>0</v>
+      </c>
       <c r="P273" s="30">
         <v>1</v>
       </c>
@@ -23405,7 +23860,7 @@
         <v>0</v>
       </c>
       <c r="H274" s="22">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="I274" s="22">
         <v>500000</v>
@@ -23425,7 +23880,9 @@
       <c r="N274" s="18">
         <v>0.02</v>
       </c>
-      <c r="O274" s="30"/>
+      <c r="O274" s="30">
+        <v>0</v>
+      </c>
       <c r="P274" s="30">
         <v>1</v>
       </c>
@@ -23477,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="H275" s="22">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="I275" s="22">
         <v>500000</v>
@@ -23497,7 +23954,9 @@
       <c r="N275" s="18">
         <v>0.02</v>
       </c>
-      <c r="O275" s="30"/>
+      <c r="O275" s="30">
+        <v>0</v>
+      </c>
       <c r="P275" s="30">
         <v>1</v>
       </c>
@@ -23549,7 +24008,7 @@
         <v>0</v>
       </c>
       <c r="H276" s="22">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="I276" s="22">
         <v>500000</v>
@@ -23569,7 +24028,9 @@
       <c r="N276" s="18">
         <v>0.02</v>
       </c>
-      <c r="O276" s="30"/>
+      <c r="O276" s="30">
+        <v>0</v>
+      </c>
       <c r="P276" s="30">
         <v>1</v>
       </c>
@@ -23601,7 +24062,7 @@
         <v>0</v>
       </c>
       <c r="Z276" s="45" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="277" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23622,7 +24083,7 @@
         <v>0</v>
       </c>
       <c r="H277" s="22">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="I277" s="22">
         <v>500000</v>
@@ -23642,7 +24103,9 @@
       <c r="N277" s="18">
         <v>0.02</v>
       </c>
-      <c r="O277" s="30"/>
+      <c r="O277" s="30">
+        <v>0</v>
+      </c>
       <c r="P277" s="30">
         <v>1</v>
       </c>
@@ -23695,7 +24158,7 @@
         <v>0</v>
       </c>
       <c r="H278" s="22">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I278" s="22">
         <v>500000</v>
@@ -23715,7 +24178,9 @@
       <c r="N278" s="18">
         <v>0.02</v>
       </c>
-      <c r="O278" s="30"/>
+      <c r="O278" s="30">
+        <v>0</v>
+      </c>
       <c r="P278" s="30">
         <v>1</v>
       </c>
@@ -23768,7 +24233,7 @@
         <v>0</v>
       </c>
       <c r="H279" s="22">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I279" s="22">
         <v>500000</v>
@@ -23788,7 +24253,9 @@
       <c r="N279" s="18">
         <v>0.02</v>
       </c>
-      <c r="O279" s="30"/>
+      <c r="O279" s="30">
+        <v>0</v>
+      </c>
       <c r="P279" s="30">
         <v>1</v>
       </c>
@@ -23841,7 +24308,7 @@
         <v>0</v>
       </c>
       <c r="H280" s="22">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="I280" s="22">
         <v>500000</v>
@@ -23861,7 +24328,9 @@
       <c r="N280" s="18">
         <v>0.02</v>
       </c>
-      <c r="O280" s="30"/>
+      <c r="O280" s="30">
+        <v>0</v>
+      </c>
       <c r="P280" s="30">
         <v>1</v>
       </c>
@@ -23914,7 +24383,7 @@
         <v>0</v>
       </c>
       <c r="H281" s="22">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="I281" s="22">
         <v>500000</v>
@@ -23934,7 +24403,9 @@
       <c r="N281" s="18">
         <v>0.02</v>
       </c>
-      <c r="O281" s="30"/>
+      <c r="O281" s="30">
+        <v>0</v>
+      </c>
       <c r="P281" s="30">
         <v>1</v>
       </c>
@@ -23987,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H282" s="22">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="I282" s="22">
         <v>500000</v>
@@ -24007,7 +24478,9 @@
       <c r="N282" s="18">
         <v>0.02</v>
       </c>
-      <c r="O282" s="30"/>
+      <c r="O282" s="30">
+        <v>0</v>
+      </c>
       <c r="P282" s="30">
         <v>1</v>
       </c>
@@ -24060,7 +24533,7 @@
         <v>0</v>
       </c>
       <c r="H283" s="22">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="I283" s="22">
         <v>500000</v>
@@ -24080,7 +24553,9 @@
       <c r="N283" s="18">
         <v>0.02</v>
       </c>
-      <c r="O283" s="30"/>
+      <c r="O283" s="30">
+        <v>0</v>
+      </c>
       <c r="P283" s="30">
         <v>1</v>
       </c>
@@ -24133,7 +24608,7 @@
         <v>0</v>
       </c>
       <c r="H284" s="22">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="I284" s="22">
         <v>500000</v>
@@ -24153,7 +24628,9 @@
       <c r="N284" s="18">
         <v>0.02</v>
       </c>
-      <c r="O284" s="30"/>
+      <c r="O284" s="30">
+        <v>0</v>
+      </c>
       <c r="P284" s="30">
         <v>1</v>
       </c>
@@ -24206,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="H285" s="22">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="I285" s="22">
         <v>500000</v>
@@ -24226,7 +24703,9 @@
       <c r="N285" s="18">
         <v>0.02</v>
       </c>
-      <c r="O285" s="30"/>
+      <c r="O285" s="30">
+        <v>0</v>
+      </c>
       <c r="P285" s="30">
         <v>1</v>
       </c>
@@ -24279,7 +24758,7 @@
         <v>0</v>
       </c>
       <c r="H286" s="22">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="I286" s="22">
         <v>500000</v>
@@ -24299,7 +24778,9 @@
       <c r="N286" s="18">
         <v>0.02</v>
       </c>
-      <c r="O286" s="30"/>
+      <c r="O286" s="30">
+        <v>0</v>
+      </c>
       <c r="P286" s="30">
         <v>1</v>
       </c>
@@ -24331,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="Z286" s="45" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="287" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24352,7 +24833,7 @@
         <v>0</v>
       </c>
       <c r="H287" s="22">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="I287" s="22">
         <v>500000</v>
@@ -24372,7 +24853,9 @@
       <c r="N287" s="18">
         <v>0.02</v>
       </c>
-      <c r="O287" s="30"/>
+      <c r="O287" s="30">
+        <v>0</v>
+      </c>
       <c r="P287" s="30">
         <v>1</v>
       </c>
@@ -24409,7 +24892,7 @@
     </row>
     <row r="288" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C288" s="22">
-        <f t="shared" ref="B288:C297" si="8">C283+100</f>
+        <f t="shared" ref="C288:C296" si="8">C283+100</f>
         <v>200402</v>
       </c>
       <c r="D288" s="47" t="s">
@@ -24425,7 +24908,7 @@
         <v>0</v>
       </c>
       <c r="H288" s="22">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="I288" s="22">
         <v>500000</v>
@@ -24445,7 +24928,9 @@
       <c r="N288" s="18">
         <v>0.02</v>
       </c>
-      <c r="O288" s="30"/>
+      <c r="O288" s="30">
+        <v>0</v>
+      </c>
       <c r="P288" s="30">
         <v>1</v>
       </c>
@@ -24498,7 +24983,7 @@
         <v>0</v>
       </c>
       <c r="H289" s="22">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I289" s="22">
         <v>500000</v>
@@ -24518,7 +25003,9 @@
       <c r="N289" s="18">
         <v>0.02</v>
       </c>
-      <c r="O289" s="30"/>
+      <c r="O289" s="30">
+        <v>0</v>
+      </c>
       <c r="P289" s="30">
         <v>1</v>
       </c>
@@ -24571,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="H290" s="22">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="I290" s="22">
         <v>500000</v>
@@ -24591,7 +25078,9 @@
       <c r="N290" s="18">
         <v>0.02</v>
       </c>
-      <c r="O290" s="30"/>
+      <c r="O290" s="30">
+        <v>0</v>
+      </c>
       <c r="P290" s="30">
         <v>1</v>
       </c>
@@ -24644,7 +25133,7 @@
         <v>0</v>
       </c>
       <c r="H291" s="22">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="I291" s="22">
         <v>500000</v>
@@ -24664,7 +25153,9 @@
       <c r="N291" s="18">
         <v>0.02</v>
       </c>
-      <c r="O291" s="30"/>
+      <c r="O291" s="30">
+        <v>0</v>
+      </c>
       <c r="P291" s="30">
         <v>1</v>
       </c>
@@ -24696,7 +25187,7 @@
         <v>0</v>
       </c>
       <c r="Z291" s="45" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="292" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24717,7 +25208,7 @@
         <v>0</v>
       </c>
       <c r="H292" s="22">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="I292" s="22">
         <v>500000</v>
@@ -24737,7 +25228,9 @@
       <c r="N292" s="18">
         <v>0.02</v>
       </c>
-      <c r="O292" s="30"/>
+      <c r="O292" s="30">
+        <v>0</v>
+      </c>
       <c r="P292" s="30">
         <v>1</v>
       </c>
@@ -24790,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="H293" s="22">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="I293" s="22">
         <v>500000</v>
@@ -24810,7 +25303,9 @@
       <c r="N293" s="18">
         <v>0.02</v>
       </c>
-      <c r="O293" s="30"/>
+      <c r="O293" s="30">
+        <v>0</v>
+      </c>
       <c r="P293" s="30">
         <v>1</v>
       </c>
@@ -24863,7 +25358,7 @@
         <v>0</v>
       </c>
       <c r="H294" s="22">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="I294" s="22">
         <v>500000</v>
@@ -24883,7 +25378,9 @@
       <c r="N294" s="18">
         <v>0.02</v>
       </c>
-      <c r="O294" s="30"/>
+      <c r="O294" s="30">
+        <v>0</v>
+      </c>
       <c r="P294" s="30">
         <v>1</v>
       </c>
@@ -24936,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="H295" s="22">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="I295" s="22">
         <v>500000</v>
@@ -24956,7 +25453,9 @@
       <c r="N295" s="18">
         <v>0.02</v>
       </c>
-      <c r="O295" s="30"/>
+      <c r="O295" s="30">
+        <v>0</v>
+      </c>
       <c r="P295" s="30">
         <v>1</v>
       </c>
@@ -25009,7 +25508,7 @@
         <v>0</v>
       </c>
       <c r="H296" s="22">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="I296" s="22">
         <v>500000</v>
@@ -25029,7 +25528,9 @@
       <c r="N296" s="18">
         <v>0.02</v>
       </c>
-      <c r="O296" s="30"/>
+      <c r="O296" s="30">
+        <v>0</v>
+      </c>
       <c r="P296" s="30">
         <v>1</v>
       </c>
@@ -25081,7 +25582,7 @@
         <v>0</v>
       </c>
       <c r="H297" s="22">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="I297" s="22">
         <v>500000</v>
@@ -25101,7 +25602,9 @@
       <c r="N297" s="18">
         <v>0.02</v>
       </c>
-      <c r="O297" s="30"/>
+      <c r="O297" s="30">
+        <v>0</v>
+      </c>
       <c r="P297" s="30">
         <v>1</v>
       </c>
@@ -25153,7 +25656,7 @@
         <v>0</v>
       </c>
       <c r="H298" s="22">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I298" s="22">
         <v>500000</v>
@@ -25173,7 +25676,9 @@
       <c r="N298" s="18">
         <v>0.02</v>
       </c>
-      <c r="O298" s="30"/>
+      <c r="O298" s="30">
+        <v>0</v>
+      </c>
       <c r="P298" s="30">
         <v>1</v>
       </c>
@@ -25243,9 +25748,11 @@
         <v>1</v>
       </c>
       <c r="N299" s="18">
-        <v>0.02</v>
-      </c>
-      <c r="O299" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="O299" s="30">
+        <v>0</v>
+      </c>
       <c r="P299" s="30">
         <v>1</v>
       </c>
@@ -25315,9 +25822,11 @@
         <v>1</v>
       </c>
       <c r="N300" s="18">
-        <v>0.02</v>
-      </c>
-      <c r="O300" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="O300" s="30">
+        <v>0</v>
+      </c>
       <c r="P300" s="30">
         <v>1</v>
       </c>
@@ -25387,9 +25896,11 @@
         <v>1</v>
       </c>
       <c r="N301" s="18">
-        <v>0.02</v>
-      </c>
-      <c r="O301" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="O301" s="30">
+        <v>0</v>
+      </c>
       <c r="P301" s="30">
         <v>1</v>
       </c>
@@ -28126,7 +28637,7 @@
         <v>0</v>
       </c>
       <c r="O338" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P338" s="4">
         <v>1</v>
@@ -28200,7 +28711,7 @@
         <v>0</v>
       </c>
       <c r="O339" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P339" s="4">
         <v>1</v>
@@ -28274,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="O340" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P340" s="4">
         <v>1</v>
@@ -28348,7 +28859,7 @@
         <v>0</v>
       </c>
       <c r="O341" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P341" s="4">
         <v>1</v>
@@ -28422,7 +28933,7 @@
         <v>0</v>
       </c>
       <c r="O342" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P342" s="4">
         <v>1</v>
@@ -28496,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="O343" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P343" s="4">
         <v>1</v>
@@ -28570,7 +29081,7 @@
         <v>0</v>
       </c>
       <c r="O344" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P344" s="4">
         <v>1</v>
@@ -28644,7 +29155,7 @@
         <v>0</v>
       </c>
       <c r="O345" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P345" s="4">
         <v>1</v>
@@ -28718,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="O346" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P346" s="4">
         <v>1</v>
@@ -28792,7 +29303,7 @@
         <v>0</v>
       </c>
       <c r="O347" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P347" s="4">
         <v>1</v>
@@ -28866,7 +29377,7 @@
         <v>0</v>
       </c>
       <c r="O348" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P348" s="4">
         <v>1</v>
@@ -28940,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="O349" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P349" s="4">
         <v>1</v>
@@ -29014,7 +29525,7 @@
         <v>0</v>
       </c>
       <c r="O350" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P350" s="4">
         <v>1</v>
@@ -29088,7 +29599,7 @@
         <v>0</v>
       </c>
       <c r="O351" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P351" s="4">
         <v>1</v>
@@ -29162,7 +29673,7 @@
         <v>0</v>
       </c>
       <c r="O352" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P352" s="4">
         <v>1</v>
@@ -29236,7 +29747,7 @@
         <v>0</v>
       </c>
       <c r="O353" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P353" s="4">
         <v>1</v>
@@ -29310,7 +29821,7 @@
         <v>0</v>
       </c>
       <c r="O354" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P354" s="4">
         <v>1</v>
@@ -29384,7 +29895,7 @@
         <v>0</v>
       </c>
       <c r="O355" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P355" s="4">
         <v>1</v>
@@ -29458,7 +29969,7 @@
         <v>0</v>
       </c>
       <c r="O356" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P356" s="4">
         <v>1</v>
@@ -29532,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="O357" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P357" s="4">
         <v>1</v>
@@ -29606,7 +30117,7 @@
         <v>0</v>
       </c>
       <c r="O358" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P358" s="4">
         <v>1</v>
@@ -29680,7 +30191,7 @@
         <v>0</v>
       </c>
       <c r="O359" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P359" s="4">
         <v>1</v>
@@ -29754,7 +30265,7 @@
         <v>0</v>
       </c>
       <c r="O360" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P360" s="4">
         <v>1</v>
@@ -29828,7 +30339,7 @@
         <v>0</v>
       </c>
       <c r="O361" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P361" s="4">
         <v>1</v>
@@ -29902,7 +30413,7 @@
         <v>0</v>
       </c>
       <c r="O362" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P362" s="4">
         <v>1</v>
@@ -29976,7 +30487,7 @@
         <v>0</v>
       </c>
       <c r="O363" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P363" s="4">
         <v>1</v>
@@ -30047,7 +30558,7 @@
         <v>1</v>
       </c>
       <c r="N364" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O364" s="4">
         <v>0</v>
@@ -30122,7 +30633,7 @@
         <v>1</v>
       </c>
       <c r="N365" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O365" s="4">
         <v>0</v>
@@ -30197,7 +30708,7 @@
         <v>1</v>
       </c>
       <c r="N366" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O366" s="4">
         <v>0</v>
@@ -30272,7 +30783,7 @@
         <v>1</v>
       </c>
       <c r="N367" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O367" s="4">
         <v>0</v>
@@ -30348,7 +30859,7 @@
         <v>1</v>
       </c>
       <c r="N368" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O368" s="4">
         <v>0</v>
@@ -30424,7 +30935,7 @@
         <v>1</v>
       </c>
       <c r="N369" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O369" s="4">
         <v>0</v>
@@ -30499,7 +31010,7 @@
         <v>1</v>
       </c>
       <c r="N370" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O370" s="4">
         <v>0</v>
@@ -30575,7 +31086,7 @@
         <v>1</v>
       </c>
       <c r="N371" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O371" s="4">
         <v>0</v>
@@ -30651,7 +31162,7 @@
         <v>1</v>
       </c>
       <c r="N372" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O372" s="4">
         <v>0</v>
@@ -30725,7 +31236,7 @@
         <v>1</v>
       </c>
       <c r="N373" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O373" s="4">
         <v>0</v>
@@ -30800,7 +31311,7 @@
         <v>1</v>
       </c>
       <c r="N374" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O374" s="4">
         <v>0</v>
@@ -30875,7 +31386,7 @@
         <v>1</v>
       </c>
       <c r="N375" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O375" s="4">
         <v>0</v>
@@ -30950,7 +31461,7 @@
         <v>1</v>
       </c>
       <c r="N376" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O376" s="4">
         <v>0</v>
@@ -31024,7 +31535,7 @@
         <v>1</v>
       </c>
       <c r="N377" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O377" s="4">
         <v>0</v>
@@ -31099,7 +31610,7 @@
         <v>1</v>
       </c>
       <c r="N378" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O378" s="4">
         <v>0</v>
@@ -31174,7 +31685,7 @@
         <v>1</v>
       </c>
       <c r="N379" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O379" s="4">
         <v>0</v>
@@ -31249,7 +31760,7 @@
         <v>1</v>
       </c>
       <c r="N380" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O380" s="4">
         <v>0</v>
@@ -31323,7 +31834,7 @@
         <v>1</v>
       </c>
       <c r="N381" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O381" s="4">
         <v>0</v>
@@ -31398,7 +31909,7 @@
         <v>1</v>
       </c>
       <c r="N382" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O382" s="4">
         <v>0</v>
@@ -31473,7 +31984,7 @@
         <v>1</v>
       </c>
       <c r="N383" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O383" s="4">
         <v>0</v>
@@ -31547,7 +32058,7 @@
         <v>1</v>
       </c>
       <c r="N384" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O384" s="4">
         <v>0</v>
@@ -31621,7 +32132,7 @@
         <v>1</v>
       </c>
       <c r="N385" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O385" s="4">
         <v>0</v>
@@ -31695,7 +32206,7 @@
         <v>1</v>
       </c>
       <c r="N386" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O386" s="4">
         <v>0</v>
@@ -31769,7 +32280,7 @@
         <v>1</v>
       </c>
       <c r="N387" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O387" s="4">
         <v>0</v>
@@ -31843,7 +32354,7 @@
         <v>1</v>
       </c>
       <c r="N388" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O388" s="4">
         <v>0</v>
@@ -31917,7 +32428,7 @@
         <v>1</v>
       </c>
       <c r="N389" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O389" s="4">
         <v>0</v>
@@ -31991,7 +32502,7 @@
         <v>1</v>
       </c>
       <c r="N390" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O390" s="4">
         <v>0</v>
@@ -32065,7 +32576,7 @@
         <v>1</v>
       </c>
       <c r="N391" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O391" s="4">
         <v>0</v>
@@ -32139,7 +32650,7 @@
         <v>1</v>
       </c>
       <c r="N392" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O392" s="4">
         <v>0</v>
@@ -32213,7 +32724,7 @@
         <v>1</v>
       </c>
       <c r="N393" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O393" s="4">
         <v>0</v>
@@ -32287,7 +32798,7 @@
         <v>1</v>
       </c>
       <c r="N394" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O394" s="4">
         <v>0</v>
@@ -32361,7 +32872,7 @@
         <v>1</v>
       </c>
       <c r="N395" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O395" s="4">
         <v>0</v>
@@ -32435,7 +32946,7 @@
         <v>1</v>
       </c>
       <c r="N396" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O396" s="4">
         <v>0</v>
@@ -32509,7 +33020,7 @@
         <v>1</v>
       </c>
       <c r="N397" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O397" s="4">
         <v>0</v>
@@ -32583,7 +33094,7 @@
         <v>1</v>
       </c>
       <c r="N398" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O398" s="4">
         <v>0</v>
@@ -32657,7 +33168,7 @@
         <v>1</v>
       </c>
       <c r="N399" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O399" s="4">
         <v>0</v>
@@ -32731,7 +33242,7 @@
         <v>1</v>
       </c>
       <c r="N400" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O400" s="4">
         <v>0</v>
@@ -32805,7 +33316,7 @@
         <v>1</v>
       </c>
       <c r="N401" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O401" s="4">
         <v>0</v>
@@ -32879,7 +33390,7 @@
         <v>1</v>
       </c>
       <c r="N402" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O402" s="4">
         <v>0</v>
@@ -32953,7 +33464,7 @@
         <v>1</v>
       </c>
       <c r="N403" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O403" s="4">
         <v>0</v>
@@ -33028,7 +33539,7 @@
         <v>1</v>
       </c>
       <c r="N404" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O404" s="4">
         <v>0</v>
@@ -33103,7 +33614,7 @@
         <v>1</v>
       </c>
       <c r="N405" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O405" s="4">
         <v>0</v>
@@ -33178,7 +33689,7 @@
         <v>1</v>
       </c>
       <c r="N406" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O406" s="4">
         <v>0</v>
@@ -33253,7 +33764,7 @@
         <v>1</v>
       </c>
       <c r="N407" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O407" s="4">
         <v>0</v>
@@ -33327,7 +33838,7 @@
         <v>1</v>
       </c>
       <c r="N408" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O408" s="4">
         <v>0</v>
@@ -33402,7 +33913,7 @@
         <v>1</v>
       </c>
       <c r="N409" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O409" s="4">
         <v>0</v>
@@ -33477,7 +33988,7 @@
         <v>1</v>
       </c>
       <c r="N410" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O410" s="4">
         <v>0</v>
@@ -33551,7 +34062,7 @@
         <v>1</v>
       </c>
       <c r="N411" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O411" s="4">
         <v>0</v>
@@ -33626,7 +34137,7 @@
         <v>1</v>
       </c>
       <c r="N412" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O412" s="4">
         <v>0</v>
@@ -33701,7 +34212,7 @@
         <v>1</v>
       </c>
       <c r="N413" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O413" s="4">
         <v>0</v>
@@ -33775,7 +34286,7 @@
         <v>1</v>
       </c>
       <c r="N414" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O414" s="4">
         <v>0</v>
@@ -33849,7 +34360,7 @@
         <v>1</v>
       </c>
       <c r="N415" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O415" s="4">
         <v>0</v>
@@ -33924,7 +34435,7 @@
         <v>1</v>
       </c>
       <c r="N416" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O416" s="4">
         <v>0</v>
@@ -33999,7 +34510,7 @@
         <v>1</v>
       </c>
       <c r="N417" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O417" s="4">
         <v>0</v>
@@ -34073,7 +34584,7 @@
         <v>1</v>
       </c>
       <c r="N418" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O418" s="4">
         <v>0</v>
@@ -34147,7 +34658,7 @@
         <v>1</v>
       </c>
       <c r="N419" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O419" s="4">
         <v>0</v>
@@ -34222,7 +34733,7 @@
         <v>1</v>
       </c>
       <c r="N420" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O420" s="4">
         <v>0</v>
@@ -34297,7 +34808,7 @@
         <v>1</v>
       </c>
       <c r="N421" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O421" s="4">
         <v>0</v>
@@ -34371,7 +34882,7 @@
         <v>1</v>
       </c>
       <c r="N422" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O422" s="4">
         <v>0</v>
@@ -34445,7 +34956,7 @@
         <v>1</v>
       </c>
       <c r="N423" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O423" s="4">
         <v>0</v>
@@ -34519,7 +35030,7 @@
         <v>1</v>
       </c>
       <c r="N424" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O424" s="4">
         <v>0</v>
@@ -34593,7 +35104,7 @@
         <v>1</v>
       </c>
       <c r="N425" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O425" s="4">
         <v>0</v>
@@ -34667,7 +35178,7 @@
         <v>1</v>
       </c>
       <c r="N426" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O426" s="4">
         <v>0</v>
@@ -34741,7 +35252,7 @@
         <v>1</v>
       </c>
       <c r="N427" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O427" s="4">
         <v>0</v>
@@ -34815,7 +35326,7 @@
         <v>1</v>
       </c>
       <c r="N428" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O428" s="4">
         <v>0</v>
@@ -34890,7 +35401,7 @@
         <v>1</v>
       </c>
       <c r="N429" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O429" s="4">
         <v>0</v>
@@ -34965,7 +35476,7 @@
         <v>1</v>
       </c>
       <c r="N430" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O430" s="4">
         <v>0</v>
@@ -35040,7 +35551,7 @@
         <v>1</v>
       </c>
       <c r="N431" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O431" s="4">
         <v>0</v>
@@ -35115,7 +35626,7 @@
         <v>1</v>
       </c>
       <c r="N432" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O432" s="4">
         <v>0</v>
@@ -35190,7 +35701,7 @@
         <v>1</v>
       </c>
       <c r="N433" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O433" s="4">
         <v>0</v>
@@ -35265,7 +35776,7 @@
         <v>1</v>
       </c>
       <c r="N434" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O434" s="4">
         <v>0</v>
@@ -35340,7 +35851,7 @@
         <v>1</v>
       </c>
       <c r="N435" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O435" s="4">
         <v>0</v>
@@ -35415,7 +35926,7 @@
         <v>1</v>
       </c>
       <c r="N436" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O436" s="4">
         <v>0</v>
@@ -35489,7 +36000,7 @@
         <v>1</v>
       </c>
       <c r="N437" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O437" s="4">
         <v>0</v>
@@ -35563,7 +36074,7 @@
         <v>1</v>
       </c>
       <c r="N438" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O438" s="4">
         <v>0</v>
@@ -35637,7 +36148,7 @@
         <v>1</v>
       </c>
       <c r="N439" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O439" s="4">
         <v>0</v>
@@ -35711,7 +36222,7 @@
         <v>1</v>
       </c>
       <c r="N440" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O440" s="4">
         <v>0</v>
@@ -35786,7 +36297,7 @@
         <v>1</v>
       </c>
       <c r="N441" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O441" s="4">
         <v>0</v>
@@ -35861,7 +36372,7 @@
         <v>1</v>
       </c>
       <c r="N442" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O442" s="4">
         <v>0</v>
@@ -35936,7 +36447,7 @@
         <v>1</v>
       </c>
       <c r="N443" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O443" s="4">
         <v>0</v>
@@ -36011,7 +36522,7 @@
         <v>1</v>
       </c>
       <c r="N444" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O444" s="4">
         <v>0</v>
@@ -36086,7 +36597,7 @@
         <v>1</v>
       </c>
       <c r="N445" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O445" s="4">
         <v>0</v>
@@ -36161,7 +36672,7 @@
         <v>1</v>
       </c>
       <c r="N446" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O446" s="4">
         <v>0</v>
@@ -36236,7 +36747,7 @@
         <v>1</v>
       </c>
       <c r="N447" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O447" s="4">
         <v>0</v>
@@ -36311,10 +36822,10 @@
         <v>1</v>
       </c>
       <c r="N448" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O448" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P448" s="4">
         <v>1</v>
@@ -36385,10 +36896,10 @@
         <v>1</v>
       </c>
       <c r="N449" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O449" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P449" s="4">
         <v>1</v>
@@ -36459,10 +36970,10 @@
         <v>1</v>
       </c>
       <c r="N450" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O450" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P450" s="4">
         <v>1</v>
@@ -36533,10 +37044,10 @@
         <v>1</v>
       </c>
       <c r="N451" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O451" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P451" s="4">
         <v>1</v>
@@ -36607,10 +37118,10 @@
         <v>1</v>
       </c>
       <c r="N452" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O452" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P452" s="4">
         <v>1</v>
@@ -36681,10 +37192,10 @@
         <v>1</v>
       </c>
       <c r="N453" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O453" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P453" s="4">
         <v>1</v>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -493,7 +493,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788">
   <si>
     <t>#</t>
   </si>
@@ -1239,9 +1239,6 @@
     <t>传承:新月神链</t>
   </si>
   <si>
-    <t>10,20</t>
-  </si>
-  <si>
     <t>10020001;200@10021010;200@14060004;1@10021008;20@10021009;10@10000143;6</t>
   </si>
   <si>
@@ -2932,7 +2929,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3001,13 +2998,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3015,7 +3005,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3030,7 +3097,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3053,14 +3128,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3068,84 +3135,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3208,25 +3198,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3238,145 +3234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3389,6 +3247,138 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3458,17 +3448,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3503,22 +3487,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3527,7 +3506,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3549,9 +3528,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3561,10 +3551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3573,16 +3563,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3591,119 +3581,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4171,9 +4161,9 @@
   <dimension ref="C1:Z1102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Z85" sqref="Z85"/>
+      <selection pane="bottomLeft" activeCell="W103" sqref="W103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11159,23 +11149,23 @@
       <c r="T98" s="30">
         <v>120</v>
       </c>
-      <c r="U98" s="32" t="s">
+      <c r="U98" s="32">
+        <v>0</v>
+      </c>
+      <c r="V98" s="31">
+        <v>1</v>
+      </c>
+      <c r="W98" s="31">
+        <v>1</v>
+      </c>
+      <c r="X98" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="31">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="35" t="s">
         <v>228</v>
-      </c>
-      <c r="V98" s="31">
-        <v>1</v>
-      </c>
-      <c r="W98" s="31">
-        <v>1</v>
-      </c>
-      <c r="X98" s="18">
-        <v>86400</v>
-      </c>
-      <c r="Y98" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z98" s="35" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="99" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -11183,7 +11173,7 @@
         <v>100152</v>
       </c>
       <c r="D99" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E99" s="28">
         <v>5</v>
@@ -11233,8 +11223,8 @@
       <c r="T99" s="30">
         <v>120</v>
       </c>
-      <c r="U99" s="32" t="s">
-        <v>228</v>
+      <c r="U99" s="32">
+        <v>0</v>
       </c>
       <c r="V99" s="31">
         <v>1</v>
@@ -11243,13 +11233,13 @@
         <v>1</v>
       </c>
       <c r="X99" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y99" s="31">
         <v>0</v>
       </c>
       <c r="Z99" s="35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -11257,7 +11247,7 @@
         <v>100153</v>
       </c>
       <c r="D100" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E100" s="28">
         <v>5</v>
@@ -11307,8 +11297,8 @@
       <c r="T100" s="30">
         <v>120</v>
       </c>
-      <c r="U100" s="32" t="s">
-        <v>228</v>
+      <c r="U100" s="32">
+        <v>0</v>
       </c>
       <c r="V100" s="31">
         <v>1</v>
@@ -11317,13 +11307,13 @@
         <v>1</v>
       </c>
       <c r="X100" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="31">
         <v>0</v>
       </c>
       <c r="Z100" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -11331,7 +11321,7 @@
         <v>100154</v>
       </c>
       <c r="D101" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E101" s="28">
         <v>5</v>
@@ -11381,8 +11371,8 @@
       <c r="T101" s="30">
         <v>120</v>
       </c>
-      <c r="U101" s="32" t="s">
-        <v>228</v>
+      <c r="U101" s="32">
+        <v>0</v>
       </c>
       <c r="V101" s="31">
         <v>1</v>
@@ -11391,13 +11381,13 @@
         <v>1</v>
       </c>
       <c r="X101" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y101" s="31">
         <v>0</v>
       </c>
       <c r="Z101" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="102" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -11405,7 +11395,7 @@
         <v>100155</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E102" s="28">
         <v>5</v>
@@ -11455,8 +11445,8 @@
       <c r="T102" s="30">
         <v>120</v>
       </c>
-      <c r="U102" s="32" t="s">
-        <v>228</v>
+      <c r="U102" s="32">
+        <v>0</v>
       </c>
       <c r="V102" s="31">
         <v>1</v>
@@ -11465,13 +11455,13 @@
         <v>1</v>
       </c>
       <c r="X102" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="31">
         <v>0</v>
       </c>
       <c r="Z102" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="103" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -11479,7 +11469,7 @@
         <v>100156</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E103" s="28">
         <v>5</v>
@@ -11529,8 +11519,8 @@
       <c r="T103" s="30">
         <v>120</v>
       </c>
-      <c r="U103" s="32" t="s">
-        <v>228</v>
+      <c r="U103" s="32">
+        <v>0</v>
       </c>
       <c r="V103" s="31">
         <v>1</v>
@@ -11539,13 +11529,13 @@
         <v>1</v>
       </c>
       <c r="X103" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y103" s="31">
         <v>0</v>
       </c>
       <c r="Z103" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -11553,7 +11543,7 @@
         <v>100157</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E104" s="28">
         <v>5</v>
@@ -11603,8 +11593,8 @@
       <c r="T104" s="30">
         <v>120</v>
       </c>
-      <c r="U104" s="32" t="s">
-        <v>228</v>
+      <c r="U104" s="32">
+        <v>0</v>
       </c>
       <c r="V104" s="31">
         <v>1</v>
@@ -11613,13 +11603,13 @@
         <v>1</v>
       </c>
       <c r="X104" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y104" s="31">
         <v>0</v>
       </c>
       <c r="Z104" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="105" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -11627,7 +11617,7 @@
         <v>100158</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E105" s="28">
         <v>5</v>
@@ -11677,8 +11667,8 @@
       <c r="T105" s="30">
         <v>120</v>
       </c>
-      <c r="U105" s="32" t="s">
-        <v>228</v>
+      <c r="U105" s="32">
+        <v>0</v>
       </c>
       <c r="V105" s="31">
         <v>1</v>
@@ -11687,13 +11677,13 @@
         <v>1</v>
       </c>
       <c r="X105" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y105" s="31">
         <v>0</v>
       </c>
       <c r="Z105" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -11701,7 +11691,7 @@
         <v>100201</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E106" s="22">
         <v>2</v>
@@ -11768,7 +11758,7 @@
         <v>0</v>
       </c>
       <c r="Z106" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="107" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -11776,7 +11766,7 @@
         <v>100202</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E107" s="22">
         <v>2</v>
@@ -11843,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="Z107" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="108" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -11851,7 +11841,7 @@
         <v>100203</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E108" s="22">
         <v>2</v>
@@ -11918,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="Z108" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="109" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -11926,7 +11916,7 @@
         <v>100204</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E109" s="22">
         <v>2</v>
@@ -11993,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="Z109" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -12001,7 +11991,7 @@
         <v>100205</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E110" s="22">
         <v>2</v>
@@ -12068,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="Z110" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -12076,7 +12066,7 @@
         <v>100206</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E111" s="22">
         <v>2</v>
@@ -12143,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="Z111" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -12151,7 +12141,7 @@
         <v>100207</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E112" s="22">
         <v>2</v>
@@ -12218,7 +12208,7 @@
         <v>0</v>
       </c>
       <c r="Z112" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -12226,7 +12216,7 @@
         <v>100208</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E113" s="22">
         <v>2</v>
@@ -12293,7 +12283,7 @@
         <v>0</v>
       </c>
       <c r="Z113" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="114" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -12301,7 +12291,7 @@
         <v>100209</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E114" s="22">
         <v>2</v>
@@ -12368,7 +12358,7 @@
         <v>0</v>
       </c>
       <c r="Z114" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="115" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -12376,7 +12366,7 @@
         <v>100210</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E115" s="22">
         <v>2</v>
@@ -12443,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="Z115" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -12451,7 +12441,7 @@
         <v>100211</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E116" s="22">
         <v>2</v>
@@ -12518,7 +12508,7 @@
         <v>0</v>
       </c>
       <c r="Z116" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -12526,7 +12516,7 @@
         <v>100212</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E117" s="22">
         <v>2</v>
@@ -12593,7 +12583,7 @@
         <v>0</v>
       </c>
       <c r="Z117" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -12601,7 +12591,7 @@
         <v>100213</v>
       </c>
       <c r="D118" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E118" s="22">
         <v>2</v>
@@ -12668,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="Z118" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="119" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -12676,7 +12666,7 @@
         <v>100214</v>
       </c>
       <c r="D119" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E119" s="22">
         <v>2</v>
@@ -12743,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="Z119" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -12751,7 +12741,7 @@
         <v>100215</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E120" s="22">
         <v>2</v>
@@ -12818,7 +12808,7 @@
         <v>0</v>
       </c>
       <c r="Z120" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -12826,7 +12816,7 @@
         <v>100216</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E121" s="22">
         <v>3</v>
@@ -12893,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="Z121" s="34" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -12901,7 +12891,7 @@
         <v>100217</v>
       </c>
       <c r="D122" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E122" s="22">
         <v>3</v>
@@ -12968,7 +12958,7 @@
         <v>0</v>
       </c>
       <c r="Z122" s="34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="123" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -12976,7 +12966,7 @@
         <v>100218</v>
       </c>
       <c r="D123" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E123" s="22">
         <v>1</v>
@@ -13043,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="Z123" s="34" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="124" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -13051,7 +13041,7 @@
         <v>100219</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E124" s="22">
         <v>1</v>
@@ -13118,7 +13108,7 @@
         <v>0</v>
       </c>
       <c r="Z124" s="34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -13126,7 +13116,7 @@
         <v>100220</v>
       </c>
       <c r="D125" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E125" s="22">
         <v>1</v>
@@ -13193,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="Z125" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="126" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -13201,7 +13191,7 @@
         <v>100221</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E126" s="22">
         <v>1</v>
@@ -13268,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="Z126" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="127" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -13276,7 +13266,7 @@
         <v>100222</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E127" s="22">
         <v>2</v>
@@ -13343,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="Z127" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -13351,7 +13341,7 @@
         <v>100223</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E128" s="22">
         <v>2</v>
@@ -13418,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="Z128" s="34" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -13426,7 +13416,7 @@
         <v>100224</v>
       </c>
       <c r="D129" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E129" s="22">
         <v>2</v>
@@ -13493,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="Z129" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -13501,7 +13491,7 @@
         <v>100225</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E130" s="22">
         <v>1</v>
@@ -13568,7 +13558,7 @@
         <v>0</v>
       </c>
       <c r="Z130" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="131" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -13576,7 +13566,7 @@
         <v>100226</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E131" s="22">
         <v>1</v>
@@ -13643,7 +13633,7 @@
         <v>0</v>
       </c>
       <c r="Z131" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="132" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -13651,7 +13641,7 @@
         <v>100251</v>
       </c>
       <c r="D132" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E132" s="28">
         <v>5</v>
@@ -13702,8 +13692,8 @@
       <c r="T132" s="30">
         <v>220</v>
       </c>
-      <c r="U132" s="32" t="s">
-        <v>228</v>
+      <c r="U132" s="32">
+        <v>0</v>
       </c>
       <c r="V132" s="30">
         <v>1</v>
@@ -13712,13 +13702,13 @@
         <v>1</v>
       </c>
       <c r="X132" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y132" s="30">
         <v>0</v>
       </c>
       <c r="Z132" s="35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="133" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -13726,7 +13716,7 @@
         <v>100252</v>
       </c>
       <c r="D133" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E133" s="28">
         <v>5</v>
@@ -13777,8 +13767,8 @@
       <c r="T133" s="30">
         <v>220</v>
       </c>
-      <c r="U133" s="32" t="s">
-        <v>228</v>
+      <c r="U133" s="32">
+        <v>0</v>
       </c>
       <c r="V133" s="30">
         <v>1</v>
@@ -13787,13 +13777,13 @@
         <v>1</v>
       </c>
       <c r="X133" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y133" s="30">
         <v>0</v>
       </c>
       <c r="Z133" s="35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="134" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -13801,7 +13791,7 @@
         <v>100253</v>
       </c>
       <c r="D134" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E134" s="28">
         <v>5</v>
@@ -13852,8 +13842,8 @@
       <c r="T134" s="30">
         <v>220</v>
       </c>
-      <c r="U134" s="32" t="s">
-        <v>228</v>
+      <c r="U134" s="32">
+        <v>0</v>
       </c>
       <c r="V134" s="30">
         <v>1</v>
@@ -13862,13 +13852,13 @@
         <v>1</v>
       </c>
       <c r="X134" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y134" s="30">
         <v>0</v>
       </c>
       <c r="Z134" s="35" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="135" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -13876,7 +13866,7 @@
         <v>100254</v>
       </c>
       <c r="D135" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E135" s="28">
         <v>5</v>
@@ -13927,8 +13917,8 @@
       <c r="T135" s="30">
         <v>220</v>
       </c>
-      <c r="U135" s="32" t="s">
-        <v>228</v>
+      <c r="U135" s="32">
+        <v>0</v>
       </c>
       <c r="V135" s="30">
         <v>1</v>
@@ -13937,13 +13927,13 @@
         <v>1</v>
       </c>
       <c r="X135" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y135" s="30">
         <v>0</v>
       </c>
       <c r="Z135" s="35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="136" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -13951,7 +13941,7 @@
         <v>100255</v>
       </c>
       <c r="D136" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E136" s="28">
         <v>5</v>
@@ -14002,8 +13992,8 @@
       <c r="T136" s="30">
         <v>220</v>
       </c>
-      <c r="U136" s="32" t="s">
-        <v>228</v>
+      <c r="U136" s="32">
+        <v>0</v>
       </c>
       <c r="V136" s="30">
         <v>1</v>
@@ -14012,13 +14002,13 @@
         <v>1</v>
       </c>
       <c r="X136" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y136" s="30">
         <v>0</v>
       </c>
       <c r="Z136" s="35" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="137" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -14026,7 +14016,7 @@
         <v>100256</v>
       </c>
       <c r="D137" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E137" s="28">
         <v>5</v>
@@ -14077,8 +14067,8 @@
       <c r="T137" s="30">
         <v>220</v>
       </c>
-      <c r="U137" s="32" t="s">
-        <v>228</v>
+      <c r="U137" s="32">
+        <v>0</v>
       </c>
       <c r="V137" s="30">
         <v>1</v>
@@ -14087,13 +14077,13 @@
         <v>1</v>
       </c>
       <c r="X137" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y137" s="30">
         <v>0</v>
       </c>
       <c r="Z137" s="35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="138" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -14101,7 +14091,7 @@
         <v>100257</v>
       </c>
       <c r="D138" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E138" s="28">
         <v>5</v>
@@ -14152,8 +14142,8 @@
       <c r="T138" s="30">
         <v>220</v>
       </c>
-      <c r="U138" s="32" t="s">
-        <v>228</v>
+      <c r="U138" s="32">
+        <v>0</v>
       </c>
       <c r="V138" s="30">
         <v>1</v>
@@ -14162,13 +14152,13 @@
         <v>1</v>
       </c>
       <c r="X138" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y138" s="30">
         <v>0</v>
       </c>
       <c r="Z138" s="35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="139" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -14176,7 +14166,7 @@
         <v>100258</v>
       </c>
       <c r="D139" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E139" s="28">
         <v>5</v>
@@ -14227,8 +14217,8 @@
       <c r="T139" s="30">
         <v>220</v>
       </c>
-      <c r="U139" s="32" t="s">
-        <v>228</v>
+      <c r="U139" s="32">
+        <v>0</v>
       </c>
       <c r="V139" s="30">
         <v>1</v>
@@ -14237,13 +14227,13 @@
         <v>1</v>
       </c>
       <c r="X139" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y139" s="30">
         <v>0</v>
       </c>
       <c r="Z139" s="35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="140" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -14251,7 +14241,7 @@
         <v>100301</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E140" s="22">
         <v>2</v>
@@ -14318,7 +14308,7 @@
         <v>0</v>
       </c>
       <c r="Z140" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -14326,7 +14316,7 @@
         <v>100302</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E141" s="22">
         <v>2</v>
@@ -14393,7 +14383,7 @@
         <v>0</v>
       </c>
       <c r="Z141" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -14401,7 +14391,7 @@
         <v>100303</v>
       </c>
       <c r="D142" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E142" s="22">
         <v>2</v>
@@ -14468,7 +14458,7 @@
         <v>0</v>
       </c>
       <c r="Z142" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="143" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -14476,7 +14466,7 @@
         <v>100304</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E143" s="22">
         <v>2</v>
@@ -14543,7 +14533,7 @@
         <v>0</v>
       </c>
       <c r="Z143" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -14551,7 +14541,7 @@
         <v>100305</v>
       </c>
       <c r="D144" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E144" s="22">
         <v>2</v>
@@ -14618,7 +14608,7 @@
         <v>0</v>
       </c>
       <c r="Z144" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="145" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -14626,7 +14616,7 @@
         <v>100306</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E145" s="22">
         <v>2</v>
@@ -14693,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="Z145" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="146" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -14701,7 +14691,7 @@
         <v>100307</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E146" s="22">
         <v>2</v>
@@ -14768,7 +14758,7 @@
         <v>0</v>
       </c>
       <c r="Z146" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="147" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -14776,7 +14766,7 @@
         <v>100308</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E147" s="22">
         <v>2</v>
@@ -14843,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="Z147" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="148" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -14851,7 +14841,7 @@
         <v>100309</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E148" s="22">
         <v>2</v>
@@ -14918,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="Z148" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -14926,7 +14916,7 @@
         <v>100310</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E149" s="22">
         <v>2</v>
@@ -14993,7 +14983,7 @@
         <v>0</v>
       </c>
       <c r="Z149" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="150" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -15001,7 +14991,7 @@
         <v>100311</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E150" s="22">
         <v>2</v>
@@ -15068,7 +15058,7 @@
         <v>0</v>
       </c>
       <c r="Z150" s="34" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="151" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -15076,7 +15066,7 @@
         <v>100312</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E151" s="22">
         <v>2</v>
@@ -15143,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="Z151" s="34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="152" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -15151,7 +15141,7 @@
         <v>100313</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E152" s="22">
         <v>2</v>
@@ -15218,7 +15208,7 @@
         <v>0</v>
       </c>
       <c r="Z152" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="153" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -15226,7 +15216,7 @@
         <v>100314</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E153" s="22">
         <v>2</v>
@@ -15293,7 +15283,7 @@
         <v>0</v>
       </c>
       <c r="Z153" s="34" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="154" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -15301,7 +15291,7 @@
         <v>100315</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E154" s="22">
         <v>2</v>
@@ -15368,7 +15358,7 @@
         <v>0</v>
       </c>
       <c r="Z154" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="155" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -15376,7 +15366,7 @@
         <v>100316</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E155" s="22">
         <v>3</v>
@@ -15443,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="Z155" s="34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="156" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -15451,7 +15441,7 @@
         <v>100317</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E156" s="22">
         <v>3</v>
@@ -15518,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="Z156" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="157" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -15526,7 +15516,7 @@
         <v>100318</v>
       </c>
       <c r="D157" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E157" s="22">
         <v>1</v>
@@ -15593,7 +15583,7 @@
         <v>0</v>
       </c>
       <c r="Z157" s="34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="158" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -15601,7 +15591,7 @@
         <v>100319</v>
       </c>
       <c r="D158" s="22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E158" s="22">
         <v>1</v>
@@ -15668,7 +15658,7 @@
         <v>0</v>
       </c>
       <c r="Z158" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="159" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -15676,7 +15666,7 @@
         <v>100320</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E159" s="22">
         <v>1</v>
@@ -15743,7 +15733,7 @@
         <v>0</v>
       </c>
       <c r="Z159" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="160" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -15751,7 +15741,7 @@
         <v>100321</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E160" s="22">
         <v>1</v>
@@ -15818,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="Z160" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="161" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -15826,7 +15816,7 @@
         <v>100322</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E161" s="22">
         <v>2</v>
@@ -15893,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="Z161" s="34" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="162" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -15901,7 +15891,7 @@
         <v>100323</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E162" s="22">
         <v>2</v>
@@ -15968,7 +15958,7 @@
         <v>0</v>
       </c>
       <c r="Z162" s="34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="163" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -15976,7 +15966,7 @@
         <v>100324</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E163" s="22">
         <v>2</v>
@@ -16043,7 +16033,7 @@
         <v>0</v>
       </c>
       <c r="Z163" s="34" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="164" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -16051,7 +16041,7 @@
         <v>100325</v>
       </c>
       <c r="D164" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E164" s="22">
         <v>1</v>
@@ -16118,7 +16108,7 @@
         <v>0</v>
       </c>
       <c r="Z164" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="165" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -16126,7 +16116,7 @@
         <v>100326</v>
       </c>
       <c r="D165" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E165" s="22">
         <v>1</v>
@@ -16193,7 +16183,7 @@
         <v>0</v>
       </c>
       <c r="Z165" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="166" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -16201,7 +16191,7 @@
         <v>100351</v>
       </c>
       <c r="D166" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E166" s="28">
         <v>5</v>
@@ -16252,8 +16242,8 @@
       <c r="T166" s="30">
         <v>320</v>
       </c>
-      <c r="U166" s="32" t="s">
-        <v>228</v>
+      <c r="U166" s="32">
+        <v>0</v>
       </c>
       <c r="V166" s="30">
         <v>1</v>
@@ -16262,13 +16252,13 @@
         <v>1</v>
       </c>
       <c r="X166" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y166" s="30">
         <v>0</v>
       </c>
       <c r="Z166" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="167" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -16276,7 +16266,7 @@
         <v>100352</v>
       </c>
       <c r="D167" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E167" s="28">
         <v>5</v>
@@ -16327,8 +16317,8 @@
       <c r="T167" s="30">
         <v>320</v>
       </c>
-      <c r="U167" s="32" t="s">
-        <v>228</v>
+      <c r="U167" s="32">
+        <v>0</v>
       </c>
       <c r="V167" s="30">
         <v>1</v>
@@ -16337,13 +16327,13 @@
         <v>1</v>
       </c>
       <c r="X167" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y167" s="30">
         <v>0</v>
       </c>
       <c r="Z167" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="168" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -16351,7 +16341,7 @@
         <v>100353</v>
       </c>
       <c r="D168" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E168" s="28">
         <v>5</v>
@@ -16402,8 +16392,8 @@
       <c r="T168" s="30">
         <v>320</v>
       </c>
-      <c r="U168" s="32" t="s">
-        <v>228</v>
+      <c r="U168" s="32">
+        <v>0</v>
       </c>
       <c r="V168" s="30">
         <v>1</v>
@@ -16412,13 +16402,13 @@
         <v>1</v>
       </c>
       <c r="X168" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y168" s="30">
         <v>0</v>
       </c>
       <c r="Z168" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="169" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -16426,7 +16416,7 @@
         <v>100354</v>
       </c>
       <c r="D169" s="27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E169" s="28">
         <v>5</v>
@@ -16477,8 +16467,8 @@
       <c r="T169" s="30">
         <v>320</v>
       </c>
-      <c r="U169" s="32" t="s">
-        <v>228</v>
+      <c r="U169" s="32">
+        <v>0</v>
       </c>
       <c r="V169" s="30">
         <v>1</v>
@@ -16487,13 +16477,13 @@
         <v>1</v>
       </c>
       <c r="X169" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y169" s="30">
         <v>0</v>
       </c>
       <c r="Z169" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="170" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -16501,7 +16491,7 @@
         <v>100355</v>
       </c>
       <c r="D170" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E170" s="28">
         <v>5</v>
@@ -16552,8 +16542,8 @@
       <c r="T170" s="30">
         <v>320</v>
       </c>
-      <c r="U170" s="32" t="s">
-        <v>228</v>
+      <c r="U170" s="32">
+        <v>0</v>
       </c>
       <c r="V170" s="30">
         <v>1</v>
@@ -16562,13 +16552,13 @@
         <v>1</v>
       </c>
       <c r="X170" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y170" s="30">
         <v>0</v>
       </c>
       <c r="Z170" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="171" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -16576,7 +16566,7 @@
         <v>100356</v>
       </c>
       <c r="D171" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E171" s="28">
         <v>5</v>
@@ -16627,8 +16617,8 @@
       <c r="T171" s="30">
         <v>320</v>
       </c>
-      <c r="U171" s="32" t="s">
-        <v>228</v>
+      <c r="U171" s="32">
+        <v>0</v>
       </c>
       <c r="V171" s="30">
         <v>1</v>
@@ -16637,13 +16627,13 @@
         <v>1</v>
       </c>
       <c r="X171" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y171" s="30">
         <v>0</v>
       </c>
       <c r="Z171" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="172" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -16651,7 +16641,7 @@
         <v>100357</v>
       </c>
       <c r="D172" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E172" s="28">
         <v>5</v>
@@ -16702,8 +16692,8 @@
       <c r="T172" s="30">
         <v>320</v>
       </c>
-      <c r="U172" s="32" t="s">
-        <v>228</v>
+      <c r="U172" s="32">
+        <v>0</v>
       </c>
       <c r="V172" s="30">
         <v>1</v>
@@ -16712,13 +16702,13 @@
         <v>1</v>
       </c>
       <c r="X172" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y172" s="30">
         <v>0</v>
       </c>
       <c r="Z172" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="173" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -16726,7 +16716,7 @@
         <v>100358</v>
       </c>
       <c r="D173" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E173" s="28">
         <v>5</v>
@@ -16777,8 +16767,8 @@
       <c r="T173" s="30">
         <v>320</v>
       </c>
-      <c r="U173" s="32" t="s">
-        <v>228</v>
+      <c r="U173" s="32">
+        <v>0</v>
       </c>
       <c r="V173" s="30">
         <v>1</v>
@@ -16787,13 +16777,13 @@
         <v>1</v>
       </c>
       <c r="X173" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y173" s="30">
         <v>0</v>
       </c>
       <c r="Z173" s="35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="174" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -16801,7 +16791,7 @@
         <v>100401</v>
       </c>
       <c r="D174" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E174" s="22">
         <v>2</v>
@@ -16868,7 +16858,7 @@
         <v>0</v>
       </c>
       <c r="Z174" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="175" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -16876,7 +16866,7 @@
         <v>100402</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E175" s="22">
         <v>2</v>
@@ -16943,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="Z175" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="176" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -16951,7 +16941,7 @@
         <v>100403</v>
       </c>
       <c r="D176" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E176" s="22">
         <v>2</v>
@@ -17018,7 +17008,7 @@
         <v>0</v>
       </c>
       <c r="Z176" s="34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="177" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -17026,7 +17016,7 @@
         <v>100404</v>
       </c>
       <c r="D177" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E177" s="22">
         <v>2</v>
@@ -17093,7 +17083,7 @@
         <v>0</v>
       </c>
       <c r="Z177" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="178" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -17101,7 +17091,7 @@
         <v>100405</v>
       </c>
       <c r="D178" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E178" s="22">
         <v>2</v>
@@ -17168,7 +17158,7 @@
         <v>0</v>
       </c>
       <c r="Z178" s="34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="179" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -17176,7 +17166,7 @@
         <v>100406</v>
       </c>
       <c r="D179" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E179" s="22">
         <v>2</v>
@@ -17243,7 +17233,7 @@
         <v>0</v>
       </c>
       <c r="Z179" s="34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -17251,7 +17241,7 @@
         <v>100407</v>
       </c>
       <c r="D180" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E180" s="22">
         <v>2</v>
@@ -17318,7 +17308,7 @@
         <v>0</v>
       </c>
       <c r="Z180" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="181" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -17326,7 +17316,7 @@
         <v>100408</v>
       </c>
       <c r="D181" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E181" s="22">
         <v>2</v>
@@ -17393,7 +17383,7 @@
         <v>0</v>
       </c>
       <c r="Z181" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="182" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -17401,7 +17391,7 @@
         <v>100409</v>
       </c>
       <c r="D182" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E182" s="22">
         <v>2</v>
@@ -17468,7 +17458,7 @@
         <v>0</v>
       </c>
       <c r="Z182" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="183" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -17476,7 +17466,7 @@
         <v>100410</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E183" s="22">
         <v>2</v>
@@ -17543,7 +17533,7 @@
         <v>0</v>
       </c>
       <c r="Z183" s="34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="184" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -17551,7 +17541,7 @@
         <v>100411</v>
       </c>
       <c r="D184" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E184" s="22">
         <v>2</v>
@@ -17618,7 +17608,7 @@
         <v>0</v>
       </c>
       <c r="Z184" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="185" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -17626,7 +17616,7 @@
         <v>100412</v>
       </c>
       <c r="D185" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E185" s="22">
         <v>2</v>
@@ -17693,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="Z185" s="34" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="186" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -17701,7 +17691,7 @@
         <v>100413</v>
       </c>
       <c r="D186" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E186" s="22">
         <v>2</v>
@@ -17768,7 +17758,7 @@
         <v>0</v>
       </c>
       <c r="Z186" s="34" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="187" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -17776,7 +17766,7 @@
         <v>100414</v>
       </c>
       <c r="D187" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E187" s="22">
         <v>2</v>
@@ -17843,7 +17833,7 @@
         <v>0</v>
       </c>
       <c r="Z187" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="188" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -17851,7 +17841,7 @@
         <v>100415</v>
       </c>
       <c r="D188" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E188" s="22">
         <v>2</v>
@@ -17918,7 +17908,7 @@
         <v>0</v>
       </c>
       <c r="Z188" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="189" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -17926,7 +17916,7 @@
         <v>100416</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E189" s="22">
         <v>3</v>
@@ -17993,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="Z189" s="34" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="190" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -18001,7 +17991,7 @@
         <v>100417</v>
       </c>
       <c r="D190" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E190" s="22">
         <v>3</v>
@@ -18068,7 +18058,7 @@
         <v>0</v>
       </c>
       <c r="Z190" s="34" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="191" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -18076,7 +18066,7 @@
         <v>100418</v>
       </c>
       <c r="D191" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E191" s="22">
         <v>1</v>
@@ -18143,7 +18133,7 @@
         <v>0</v>
       </c>
       <c r="Z191" s="34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="192" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -18151,7 +18141,7 @@
         <v>100419</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E192" s="22">
         <v>1</v>
@@ -18218,7 +18208,7 @@
         <v>0</v>
       </c>
       <c r="Z192" s="34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="193" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -18226,7 +18216,7 @@
         <v>100420</v>
       </c>
       <c r="D193" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E193" s="22">
         <v>1</v>
@@ -18293,7 +18283,7 @@
         <v>0</v>
       </c>
       <c r="Z193" s="34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="194" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -18301,7 +18291,7 @@
         <v>100421</v>
       </c>
       <c r="D194" s="29" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E194" s="22">
         <v>1</v>
@@ -18368,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="Z194" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="195" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -18376,7 +18366,7 @@
         <v>100422</v>
       </c>
       <c r="D195" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E195" s="22">
         <v>2</v>
@@ -18443,7 +18433,7 @@
         <v>0</v>
       </c>
       <c r="Z195" s="34" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="196" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -18451,7 +18441,7 @@
         <v>100423</v>
       </c>
       <c r="D196" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E196" s="22">
         <v>2</v>
@@ -18518,7 +18508,7 @@
         <v>0</v>
       </c>
       <c r="Z196" s="34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="197" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -18526,7 +18516,7 @@
         <v>100424</v>
       </c>
       <c r="D197" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E197" s="22">
         <v>2</v>
@@ -18593,7 +18583,7 @@
         <v>0</v>
       </c>
       <c r="Z197" s="34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="198" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -18601,7 +18591,7 @@
         <v>100425</v>
       </c>
       <c r="D198" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E198" s="22">
         <v>1</v>
@@ -18668,7 +18658,7 @@
         <v>0</v>
       </c>
       <c r="Z198" s="34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="199" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -18676,7 +18666,7 @@
         <v>100426</v>
       </c>
       <c r="D199" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E199" s="22">
         <v>1</v>
@@ -18743,7 +18733,7 @@
         <v>0</v>
       </c>
       <c r="Z199" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="200" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -18751,7 +18741,7 @@
         <v>100451</v>
       </c>
       <c r="D200" s="27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E200" s="28">
         <v>5</v>
@@ -18802,8 +18792,8 @@
       <c r="T200" s="30">
         <v>420</v>
       </c>
-      <c r="U200" s="18" t="s">
-        <v>185</v>
+      <c r="U200" s="18">
+        <v>0</v>
       </c>
       <c r="V200" s="30">
         <v>1</v>
@@ -18812,13 +18802,13 @@
         <v>1</v>
       </c>
       <c r="X200" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y200" s="30">
         <v>0</v>
       </c>
       <c r="Z200" s="35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="201" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -18826,7 +18816,7 @@
         <v>100452</v>
       </c>
       <c r="D201" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E201" s="28">
         <v>5</v>
@@ -18877,8 +18867,8 @@
       <c r="T201" s="30">
         <v>420</v>
       </c>
-      <c r="U201" s="18" t="s">
-        <v>185</v>
+      <c r="U201" s="18">
+        <v>0</v>
       </c>
       <c r="V201" s="30">
         <v>1</v>
@@ -18887,13 +18877,13 @@
         <v>1</v>
       </c>
       <c r="X201" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y201" s="30">
         <v>0</v>
       </c>
       <c r="Z201" s="35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="202" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -18901,7 +18891,7 @@
         <v>100453</v>
       </c>
       <c r="D202" s="27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E202" s="28">
         <v>5</v>
@@ -18952,8 +18942,8 @@
       <c r="T202" s="30">
         <v>420</v>
       </c>
-      <c r="U202" s="18" t="s">
-        <v>185</v>
+      <c r="U202" s="18">
+        <v>0</v>
       </c>
       <c r="V202" s="30">
         <v>1</v>
@@ -18962,13 +18952,13 @@
         <v>1</v>
       </c>
       <c r="X202" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y202" s="30">
         <v>0</v>
       </c>
       <c r="Z202" s="35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="203" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -18976,7 +18966,7 @@
         <v>100454</v>
       </c>
       <c r="D203" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E203" s="28">
         <v>5</v>
@@ -19027,8 +19017,8 @@
       <c r="T203" s="30">
         <v>420</v>
       </c>
-      <c r="U203" s="18" t="s">
-        <v>185</v>
+      <c r="U203" s="18">
+        <v>0</v>
       </c>
       <c r="V203" s="30">
         <v>1</v>
@@ -19037,13 +19027,13 @@
         <v>1</v>
       </c>
       <c r="X203" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y203" s="30">
         <v>0</v>
       </c>
       <c r="Z203" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="204" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -19051,7 +19041,7 @@
         <v>100455</v>
       </c>
       <c r="D204" s="27" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E204" s="28">
         <v>5</v>
@@ -19102,8 +19092,8 @@
       <c r="T204" s="30">
         <v>420</v>
       </c>
-      <c r="U204" s="18" t="s">
-        <v>185</v>
+      <c r="U204" s="18">
+        <v>0</v>
       </c>
       <c r="V204" s="30">
         <v>1</v>
@@ -19112,13 +19102,13 @@
         <v>1</v>
       </c>
       <c r="X204" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y204" s="30">
         <v>0</v>
       </c>
       <c r="Z204" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="205" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -19126,7 +19116,7 @@
         <v>100456</v>
       </c>
       <c r="D205" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E205" s="28">
         <v>5</v>
@@ -19177,8 +19167,8 @@
       <c r="T205" s="30">
         <v>420</v>
       </c>
-      <c r="U205" s="18" t="s">
-        <v>185</v>
+      <c r="U205" s="18">
+        <v>0</v>
       </c>
       <c r="V205" s="30">
         <v>1</v>
@@ -19187,13 +19177,13 @@
         <v>1</v>
       </c>
       <c r="X205" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y205" s="30">
         <v>0</v>
       </c>
       <c r="Z205" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="206" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -19201,7 +19191,7 @@
         <v>100457</v>
       </c>
       <c r="D206" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E206" s="28">
         <v>5</v>
@@ -19252,8 +19242,8 @@
       <c r="T206" s="30">
         <v>420</v>
       </c>
-      <c r="U206" s="18" t="s">
-        <v>185</v>
+      <c r="U206" s="18">
+        <v>0</v>
       </c>
       <c r="V206" s="30">
         <v>1</v>
@@ -19262,13 +19252,13 @@
         <v>1</v>
       </c>
       <c r="X206" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y206" s="30">
         <v>0</v>
       </c>
       <c r="Z206" s="35" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="207" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -19276,7 +19266,7 @@
         <v>100458</v>
       </c>
       <c r="D207" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E207" s="28">
         <v>5</v>
@@ -19327,8 +19317,8 @@
       <c r="T207" s="30">
         <v>420</v>
       </c>
-      <c r="U207" s="18" t="s">
-        <v>185</v>
+      <c r="U207" s="18">
+        <v>0</v>
       </c>
       <c r="V207" s="30">
         <v>1</v>
@@ -19337,13 +19327,13 @@
         <v>1</v>
       </c>
       <c r="X207" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y207" s="30">
         <v>0</v>
       </c>
       <c r="Z207" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="208" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -19351,7 +19341,7 @@
         <v>100501</v>
       </c>
       <c r="D208" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E208" s="22">
         <v>2</v>
@@ -19419,7 +19409,7 @@
         <v>0</v>
       </c>
       <c r="Z208" s="34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="209" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -19427,7 +19417,7 @@
         <v>100502</v>
       </c>
       <c r="D209" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E209" s="22">
         <v>2</v>
@@ -19495,7 +19485,7 @@
         <v>0</v>
       </c>
       <c r="Z209" s="34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="210" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -19503,7 +19493,7 @@
         <v>100503</v>
       </c>
       <c r="D210" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E210" s="22">
         <v>2</v>
@@ -19571,7 +19561,7 @@
         <v>0</v>
       </c>
       <c r="Z210" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="211" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -19579,7 +19569,7 @@
         <v>100504</v>
       </c>
       <c r="D211" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E211" s="22">
         <v>2</v>
@@ -19647,7 +19637,7 @@
         <v>0</v>
       </c>
       <c r="Z211" s="34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="212" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -19655,7 +19645,7 @@
         <v>100505</v>
       </c>
       <c r="D212" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E212" s="22">
         <v>2</v>
@@ -19723,7 +19713,7 @@
         <v>0</v>
       </c>
       <c r="Z212" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="213" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -19731,7 +19721,7 @@
         <v>100506</v>
       </c>
       <c r="D213" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E213" s="22">
         <v>2</v>
@@ -19799,7 +19789,7 @@
         <v>0</v>
       </c>
       <c r="Z213" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="214" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -19807,7 +19797,7 @@
         <v>100507</v>
       </c>
       <c r="D214" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E214" s="22">
         <v>2</v>
@@ -19875,7 +19865,7 @@
         <v>0</v>
       </c>
       <c r="Z214" s="34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="215" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -19883,7 +19873,7 @@
         <v>100508</v>
       </c>
       <c r="D215" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E215" s="22">
         <v>2</v>
@@ -19951,7 +19941,7 @@
         <v>0</v>
       </c>
       <c r="Z215" s="34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="216" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -19959,7 +19949,7 @@
         <v>100509</v>
       </c>
       <c r="D216" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E216" s="22">
         <v>2</v>
@@ -20027,7 +20017,7 @@
         <v>0</v>
       </c>
       <c r="Z216" s="34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="217" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -20035,7 +20025,7 @@
         <v>100510</v>
       </c>
       <c r="D217" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E217" s="22">
         <v>2</v>
@@ -20103,7 +20093,7 @@
         <v>0</v>
       </c>
       <c r="Z217" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="218" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -20111,7 +20101,7 @@
         <v>100511</v>
       </c>
       <c r="D218" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E218" s="22">
         <v>2</v>
@@ -20179,7 +20169,7 @@
         <v>0</v>
       </c>
       <c r="Z218" s="34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="219" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -20187,7 +20177,7 @@
         <v>100512</v>
       </c>
       <c r="D219" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E219" s="22">
         <v>2</v>
@@ -20255,7 +20245,7 @@
         <v>0</v>
       </c>
       <c r="Z219" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="220" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -20263,7 +20253,7 @@
         <v>100513</v>
       </c>
       <c r="D220" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E220" s="22">
         <v>2</v>
@@ -20331,7 +20321,7 @@
         <v>0</v>
       </c>
       <c r="Z220" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="221" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -20339,7 +20329,7 @@
         <v>100514</v>
       </c>
       <c r="D221" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E221" s="22">
         <v>2</v>
@@ -20407,7 +20397,7 @@
         <v>0</v>
       </c>
       <c r="Z221" s="34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="222" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -20415,7 +20405,7 @@
         <v>100515</v>
       </c>
       <c r="D222" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E222" s="22">
         <v>2</v>
@@ -20483,7 +20473,7 @@
         <v>0</v>
       </c>
       <c r="Z222" s="34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="223" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -20491,7 +20481,7 @@
         <v>100516</v>
       </c>
       <c r="D223" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E223" s="22">
         <v>3</v>
@@ -20559,7 +20549,7 @@
         <v>0</v>
       </c>
       <c r="Z223" s="34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="224" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -20567,7 +20557,7 @@
         <v>100517</v>
       </c>
       <c r="D224" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E224" s="22">
         <v>3</v>
@@ -20635,7 +20625,7 @@
         <v>0</v>
       </c>
       <c r="Z224" s="34" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="225" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -20643,7 +20633,7 @@
         <v>100518</v>
       </c>
       <c r="D225" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E225" s="22">
         <v>1</v>
@@ -20711,7 +20701,7 @@
         <v>0</v>
       </c>
       <c r="Z225" s="34" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="226" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -20719,7 +20709,7 @@
         <v>100519</v>
       </c>
       <c r="D226" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E226" s="22">
         <v>1</v>
@@ -20787,7 +20777,7 @@
         <v>0</v>
       </c>
       <c r="Z226" s="34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="227" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -20795,7 +20785,7 @@
         <v>100520</v>
       </c>
       <c r="D227" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E227" s="22">
         <v>1</v>
@@ -20863,7 +20853,7 @@
         <v>0</v>
       </c>
       <c r="Z227" s="34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="228" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -20871,7 +20861,7 @@
         <v>100521</v>
       </c>
       <c r="D228" s="29" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E228" s="22">
         <v>1</v>
@@ -20939,7 +20929,7 @@
         <v>0</v>
       </c>
       <c r="Z228" s="34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -20947,7 +20937,7 @@
         <v>100522</v>
       </c>
       <c r="D229" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E229" s="22">
         <v>2</v>
@@ -21015,7 +21005,7 @@
         <v>0</v>
       </c>
       <c r="Z229" s="34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="230" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -21023,7 +21013,7 @@
         <v>100523</v>
       </c>
       <c r="D230" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E230" s="22">
         <v>2</v>
@@ -21091,7 +21081,7 @@
         <v>0</v>
       </c>
       <c r="Z230" s="34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="231" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -21099,7 +21089,7 @@
         <v>100524</v>
       </c>
       <c r="D231" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E231" s="22">
         <v>2</v>
@@ -21167,7 +21157,7 @@
         <v>0</v>
       </c>
       <c r="Z231" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="232" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -21175,7 +21165,7 @@
         <v>100525</v>
       </c>
       <c r="D232" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E232" s="22">
         <v>1</v>
@@ -21243,7 +21233,7 @@
         <v>0</v>
       </c>
       <c r="Z232" s="34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="233" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -21251,7 +21241,7 @@
         <v>100526</v>
       </c>
       <c r="D233" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E233" s="22">
         <v>1</v>
@@ -21319,7 +21309,7 @@
         <v>0</v>
       </c>
       <c r="Z233" s="34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="234" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -21327,7 +21317,7 @@
         <v>100551</v>
       </c>
       <c r="D234" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E234" s="28">
         <v>5</v>
@@ -21379,8 +21369,8 @@
       <c r="T234" s="30">
         <v>500</v>
       </c>
-      <c r="U234" s="32" t="s">
-        <v>228</v>
+      <c r="U234" s="32">
+        <v>0</v>
       </c>
       <c r="V234" s="30">
         <v>1</v>
@@ -21389,13 +21379,13 @@
         <v>1</v>
       </c>
       <c r="X234" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y234" s="30">
         <v>0</v>
       </c>
       <c r="Z234" s="34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="235" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -21403,7 +21393,7 @@
         <v>100552</v>
       </c>
       <c r="D235" s="27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E235" s="28">
         <v>5</v>
@@ -21455,8 +21445,8 @@
       <c r="T235" s="30">
         <v>500</v>
       </c>
-      <c r="U235" s="32" t="s">
-        <v>228</v>
+      <c r="U235" s="32">
+        <v>0</v>
       </c>
       <c r="V235" s="30">
         <v>1</v>
@@ -21465,13 +21455,13 @@
         <v>1</v>
       </c>
       <c r="X235" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y235" s="30">
         <v>0</v>
       </c>
       <c r="Z235" s="34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="236" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -21479,7 +21469,7 @@
         <v>100553</v>
       </c>
       <c r="D236" s="27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E236" s="28">
         <v>5</v>
@@ -21531,8 +21521,8 @@
       <c r="T236" s="30">
         <v>500</v>
       </c>
-      <c r="U236" s="32" t="s">
-        <v>228</v>
+      <c r="U236" s="32">
+        <v>0</v>
       </c>
       <c r="V236" s="30">
         <v>1</v>
@@ -21541,13 +21531,13 @@
         <v>1</v>
       </c>
       <c r="X236" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y236" s="30">
         <v>0</v>
       </c>
       <c r="Z236" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="237" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -21555,7 +21545,7 @@
         <v>100554</v>
       </c>
       <c r="D237" s="27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E237" s="28">
         <v>5</v>
@@ -21607,8 +21597,8 @@
       <c r="T237" s="30">
         <v>500</v>
       </c>
-      <c r="U237" s="32" t="s">
-        <v>228</v>
+      <c r="U237" s="32">
+        <v>0</v>
       </c>
       <c r="V237" s="30">
         <v>1</v>
@@ -21617,13 +21607,13 @@
         <v>1</v>
       </c>
       <c r="X237" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y237" s="30">
         <v>0</v>
       </c>
       <c r="Z237" s="35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="238" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -21631,7 +21621,7 @@
         <v>100555</v>
       </c>
       <c r="D238" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E238" s="28">
         <v>5</v>
@@ -21683,8 +21673,8 @@
       <c r="T238" s="30">
         <v>500</v>
       </c>
-      <c r="U238" s="32" t="s">
-        <v>228</v>
+      <c r="U238" s="32">
+        <v>0</v>
       </c>
       <c r="V238" s="30">
         <v>1</v>
@@ -21693,13 +21683,13 @@
         <v>1</v>
       </c>
       <c r="X238" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y238" s="30">
         <v>0</v>
       </c>
       <c r="Z238" s="35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="239" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -21707,7 +21697,7 @@
         <v>100556</v>
       </c>
       <c r="D239" s="27" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E239" s="28">
         <v>5</v>
@@ -21759,8 +21749,8 @@
       <c r="T239" s="30">
         <v>500</v>
       </c>
-      <c r="U239" s="32" t="s">
-        <v>228</v>
+      <c r="U239" s="32">
+        <v>0</v>
       </c>
       <c r="V239" s="30">
         <v>1</v>
@@ -21769,13 +21759,13 @@
         <v>1</v>
       </c>
       <c r="X239" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y239" s="30">
         <v>0</v>
       </c>
       <c r="Z239" s="35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="240" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -21783,7 +21773,7 @@
         <v>100557</v>
       </c>
       <c r="D240" s="27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E240" s="28">
         <v>5</v>
@@ -21835,8 +21825,8 @@
       <c r="T240" s="30">
         <v>500</v>
       </c>
-      <c r="U240" s="32" t="s">
-        <v>228</v>
+      <c r="U240" s="32">
+        <v>0</v>
       </c>
       <c r="V240" s="30">
         <v>1</v>
@@ -21845,13 +21835,13 @@
         <v>1</v>
       </c>
       <c r="X240" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y240" s="30">
         <v>0</v>
       </c>
       <c r="Z240" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="241" s="3" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -21859,7 +21849,7 @@
         <v>100558</v>
       </c>
       <c r="D241" s="27" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E241" s="28">
         <v>5</v>
@@ -21911,8 +21901,8 @@
       <c r="T241" s="30">
         <v>500</v>
       </c>
-      <c r="U241" s="32" t="s">
-        <v>228</v>
+      <c r="U241" s="32">
+        <v>0</v>
       </c>
       <c r="V241" s="30">
         <v>1</v>
@@ -21921,13 +21911,13 @@
         <v>1</v>
       </c>
       <c r="X241" s="18">
-        <v>86400</v>
+        <v>0</v>
       </c>
       <c r="Y241" s="30">
         <v>0</v>
       </c>
       <c r="Z241" s="35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="242" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -21935,7 +21925,7 @@
         <v>200001</v>
       </c>
       <c r="D242" s="29" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E242" s="22">
         <v>3</v>
@@ -21986,22 +21976,22 @@
         <v>75</v>
       </c>
       <c r="U242" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="V242" s="30">
+        <v>1</v>
+      </c>
+      <c r="W242" s="30">
+        <v>1</v>
+      </c>
+      <c r="X242" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y242" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z242" s="34" t="s">
         <v>450</v>
-      </c>
-      <c r="V242" s="30">
-        <v>1</v>
-      </c>
-      <c r="W242" s="30">
-        <v>1</v>
-      </c>
-      <c r="X242" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y242" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z242" s="34" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="243" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -22009,7 +21999,7 @@
         <v>200002</v>
       </c>
       <c r="D243" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E243" s="22">
         <v>3</v>
@@ -22060,22 +22050,22 @@
         <v>120</v>
       </c>
       <c r="U243" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="V243" s="30">
+        <v>1</v>
+      </c>
+      <c r="W243" s="30">
+        <v>1</v>
+      </c>
+      <c r="X243" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y243" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z243" s="34" t="s">
         <v>453</v>
-      </c>
-      <c r="V243" s="30">
-        <v>1</v>
-      </c>
-      <c r="W243" s="30">
-        <v>1</v>
-      </c>
-      <c r="X243" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y243" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z243" s="34" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="244" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -22083,7 +22073,7 @@
         <v>200003</v>
       </c>
       <c r="D244" s="29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E244" s="22">
         <v>3</v>
@@ -22134,7 +22124,7 @@
         <v>120</v>
       </c>
       <c r="U244" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V244" s="30">
         <v>1</v>
@@ -22149,7 +22139,7 @@
         <v>0</v>
       </c>
       <c r="Z244" s="34" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="245" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -22157,7 +22147,7 @@
         <v>200004</v>
       </c>
       <c r="D245" s="29" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E245" s="22">
         <v>3</v>
@@ -22208,22 +22198,22 @@
         <v>120</v>
       </c>
       <c r="U245" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="V245" s="30">
+        <v>1</v>
+      </c>
+      <c r="W245" s="30">
+        <v>1</v>
+      </c>
+      <c r="X245" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y245" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z245" s="34" t="s">
         <v>458</v>
-      </c>
-      <c r="V245" s="30">
-        <v>1</v>
-      </c>
-      <c r="W245" s="30">
-        <v>1</v>
-      </c>
-      <c r="X245" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y245" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z245" s="34" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="246" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -22231,7 +22221,7 @@
         <v>200005</v>
       </c>
       <c r="D246" s="29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E246" s="22">
         <v>3</v>
@@ -22282,7 +22272,7 @@
         <v>120</v>
       </c>
       <c r="U246" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V246" s="30">
         <v>1</v>
@@ -22297,7 +22287,7 @@
         <v>0</v>
       </c>
       <c r="Z246" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="247" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -22305,7 +22295,7 @@
         <v>200006</v>
       </c>
       <c r="D247" s="29" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E247" s="22">
         <v>3</v>
@@ -22356,7 +22346,7 @@
         <v>120</v>
       </c>
       <c r="U247" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V247" s="30">
         <v>1</v>
@@ -22371,7 +22361,7 @@
         <v>0</v>
       </c>
       <c r="Z247" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="248" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -22379,7 +22369,7 @@
         <v>200007</v>
       </c>
       <c r="D248" s="29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E248" s="22">
         <v>3</v>
@@ -22430,22 +22420,22 @@
         <v>200</v>
       </c>
       <c r="U248" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="V248" s="30">
+        <v>1</v>
+      </c>
+      <c r="W248" s="30">
+        <v>1</v>
+      </c>
+      <c r="X248" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y248" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z248" s="34" t="s">
         <v>450</v>
-      </c>
-      <c r="V248" s="30">
-        <v>1</v>
-      </c>
-      <c r="W248" s="30">
-        <v>1</v>
-      </c>
-      <c r="X248" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y248" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z248" s="34" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="249" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -22453,7 +22443,7 @@
         <v>200008</v>
       </c>
       <c r="D249" s="29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E249" s="22">
         <v>3</v>
@@ -22504,7 +22494,7 @@
         <v>220</v>
       </c>
       <c r="U249" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V249" s="30">
         <v>1</v>
@@ -22519,7 +22509,7 @@
         <v>0</v>
       </c>
       <c r="Z249" s="34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -22527,7 +22517,7 @@
         <v>200009</v>
       </c>
       <c r="D250" s="29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E250" s="22">
         <v>3</v>
@@ -22578,7 +22568,7 @@
         <v>220</v>
       </c>
       <c r="U250" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V250" s="30">
         <v>1</v>
@@ -22593,7 +22583,7 @@
         <v>0</v>
       </c>
       <c r="Z250" s="34" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="251" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -22601,7 +22591,7 @@
         <v>200010</v>
       </c>
       <c r="D251" s="29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E251" s="22">
         <v>3</v>
@@ -22652,7 +22642,7 @@
         <v>220</v>
       </c>
       <c r="U251" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V251" s="30">
         <v>1</v>
@@ -22667,7 +22657,7 @@
         <v>0</v>
       </c>
       <c r="Z251" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="252" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -22675,7 +22665,7 @@
         <v>200011</v>
       </c>
       <c r="D252" s="29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E252" s="22">
         <v>3</v>
@@ -22726,7 +22716,7 @@
         <v>220</v>
       </c>
       <c r="U252" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V252" s="30">
         <v>1</v>
@@ -22741,7 +22731,7 @@
         <v>0</v>
       </c>
       <c r="Z252" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="253" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -22749,7 +22739,7 @@
         <v>200012</v>
       </c>
       <c r="D253" s="29" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E253" s="22">
         <v>3</v>
@@ -22800,7 +22790,7 @@
         <v>220</v>
       </c>
       <c r="U253" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V253" s="30">
         <v>1</v>
@@ -22815,7 +22805,7 @@
         <v>0</v>
       </c>
       <c r="Z253" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="254" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -22823,7 +22813,7 @@
         <v>200013</v>
       </c>
       <c r="D254" s="29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E254" s="22">
         <v>3</v>
@@ -22874,7 +22864,7 @@
         <v>275</v>
       </c>
       <c r="U254" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="V254" s="30">
         <v>1</v>
@@ -22889,7 +22879,7 @@
         <v>0</v>
       </c>
       <c r="Z254" s="34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="255" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -22897,7 +22887,7 @@
         <v>200014</v>
       </c>
       <c r="D255" s="29" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E255" s="22">
         <v>3</v>
@@ -22949,7 +22939,7 @@
         <v>320</v>
       </c>
       <c r="U255" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V255" s="30">
         <v>1</v>
@@ -22964,7 +22954,7 @@
         <v>0</v>
       </c>
       <c r="Z255" s="34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="256" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -22972,7 +22962,7 @@
         <v>200015</v>
       </c>
       <c r="D256" s="29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E256" s="22">
         <v>3</v>
@@ -23024,7 +23014,7 @@
         <v>320</v>
       </c>
       <c r="U256" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V256" s="30">
         <v>1</v>
@@ -23039,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="Z256" s="34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="257" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -23047,7 +23037,7 @@
         <v>200016</v>
       </c>
       <c r="D257" s="29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E257" s="22">
         <v>3</v>
@@ -23099,7 +23089,7 @@
         <v>320</v>
       </c>
       <c r="U257" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V257" s="30">
         <v>1</v>
@@ -23114,7 +23104,7 @@
         <v>0</v>
       </c>
       <c r="Z257" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="258" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -23122,7 +23112,7 @@
         <v>200017</v>
       </c>
       <c r="D258" s="29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E258" s="22">
         <v>3</v>
@@ -23174,7 +23164,7 @@
         <v>320</v>
       </c>
       <c r="U258" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V258" s="30">
         <v>1</v>
@@ -23189,7 +23179,7 @@
         <v>0</v>
       </c>
       <c r="Z258" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="259" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -23197,7 +23187,7 @@
         <v>200018</v>
       </c>
       <c r="D259" s="29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E259" s="22">
         <v>3</v>
@@ -23249,7 +23239,7 @@
         <v>320</v>
       </c>
       <c r="U259" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V259" s="30">
         <v>1</v>
@@ -23264,7 +23254,7 @@
         <v>0</v>
       </c>
       <c r="Z259" s="34" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="260" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -23272,7 +23262,7 @@
         <v>200019</v>
       </c>
       <c r="D260" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E260" s="22">
         <v>3</v>
@@ -23324,7 +23314,7 @@
         <v>375</v>
       </c>
       <c r="U260" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="V260" s="30">
         <v>1</v>
@@ -23339,7 +23329,7 @@
         <v>0</v>
       </c>
       <c r="Z260" s="34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="261" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -23347,7 +23337,7 @@
         <v>200020</v>
       </c>
       <c r="D261" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E261" s="22">
         <v>3</v>
@@ -23399,7 +23389,7 @@
         <v>420</v>
       </c>
       <c r="U261" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V261" s="30">
         <v>1</v>
@@ -23414,7 +23404,7 @@
         <v>0</v>
       </c>
       <c r="Z261" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="262" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -23422,7 +23412,7 @@
         <v>200021</v>
       </c>
       <c r="D262" s="29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E262" s="22">
         <v>3</v>
@@ -23474,7 +23464,7 @@
         <v>420</v>
       </c>
       <c r="U262" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V262" s="30">
         <v>1</v>
@@ -23489,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="Z262" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="263" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -23497,7 +23487,7 @@
         <v>200022</v>
       </c>
       <c r="D263" s="29" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E263" s="22">
         <v>3</v>
@@ -23549,7 +23539,7 @@
         <v>420</v>
       </c>
       <c r="U263" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V263" s="30">
         <v>1</v>
@@ -23564,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="Z263" s="34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="264" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -23572,7 +23562,7 @@
         <v>200023</v>
       </c>
       <c r="D264" s="29" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E264" s="22">
         <v>3</v>
@@ -23624,7 +23614,7 @@
         <v>420</v>
       </c>
       <c r="U264" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V264" s="30">
         <v>1</v>
@@ -23639,7 +23629,7 @@
         <v>0</v>
       </c>
       <c r="Z264" s="34" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="265" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -23647,7 +23637,7 @@
         <v>200024</v>
       </c>
       <c r="D265" s="29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E265" s="22">
         <v>3</v>
@@ -23699,7 +23689,7 @@
         <v>420</v>
       </c>
       <c r="U265" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V265" s="30">
         <v>1</v>
@@ -23714,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="Z265" s="34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="266" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -23722,7 +23712,7 @@
         <v>200025</v>
       </c>
       <c r="D266" s="29" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E266" s="22">
         <v>3</v>
@@ -23774,7 +23764,7 @@
         <v>450</v>
       </c>
       <c r="U266" s="18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="V266" s="30">
         <v>1</v>
@@ -23789,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="Z266" s="34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="267" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -23797,7 +23787,7 @@
         <v>200026</v>
       </c>
       <c r="D267" s="29" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E267" s="22">
         <v>3</v>
@@ -23849,7 +23839,7 @@
         <v>500</v>
       </c>
       <c r="U267" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V267" s="30">
         <v>1</v>
@@ -23864,7 +23854,7 @@
         <v>0</v>
       </c>
       <c r="Z267" s="34" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="268" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -23872,7 +23862,7 @@
         <v>200027</v>
       </c>
       <c r="D268" s="29" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E268" s="22">
         <v>3</v>
@@ -23924,7 +23914,7 @@
         <v>500</v>
       </c>
       <c r="U268" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V268" s="30">
         <v>1</v>
@@ -23939,7 +23929,7 @@
         <v>0</v>
       </c>
       <c r="Z268" s="34" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="269" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -23947,7 +23937,7 @@
         <v>200028</v>
       </c>
       <c r="D269" s="29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E269" s="22">
         <v>3</v>
@@ -23999,7 +23989,7 @@
         <v>500</v>
       </c>
       <c r="U269" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V269" s="30">
         <v>1</v>
@@ -24014,7 +24004,7 @@
         <v>0</v>
       </c>
       <c r="Z269" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="270" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -24022,7 +24012,7 @@
         <v>200029</v>
       </c>
       <c r="D270" s="29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E270" s="22">
         <v>3</v>
@@ -24074,7 +24064,7 @@
         <v>500</v>
       </c>
       <c r="U270" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V270" s="30">
         <v>1</v>
@@ -24089,7 +24079,7 @@
         <v>0</v>
       </c>
       <c r="Z270" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="271" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -24097,7 +24087,7 @@
         <v>200030</v>
       </c>
       <c r="D271" s="29" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E271" s="22">
         <v>3</v>
@@ -24149,7 +24139,7 @@
         <v>500</v>
       </c>
       <c r="U271" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V271" s="30">
         <v>1</v>
@@ -24164,7 +24154,7 @@
         <v>0</v>
       </c>
       <c r="Z271" s="34" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="272" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -24172,7 +24162,7 @@
         <v>200101</v>
       </c>
       <c r="D272" s="36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E272" s="22">
         <v>3</v>
@@ -24223,7 +24213,7 @@
         <v>120</v>
       </c>
       <c r="U272" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V272" s="30">
         <v>1</v>
@@ -24238,7 +24228,7 @@
         <v>0</v>
       </c>
       <c r="Z272" s="34" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="273" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -24246,7 +24236,7 @@
         <v>200102</v>
       </c>
       <c r="D273" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E273" s="22">
         <v>3</v>
@@ -24297,7 +24287,7 @@
         <v>120</v>
       </c>
       <c r="U273" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V273" s="30">
         <v>1</v>
@@ -24312,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="Z273" s="34" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="274" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -24320,7 +24310,7 @@
         <v>200103</v>
       </c>
       <c r="D274" s="36" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E274" s="22">
         <v>3</v>
@@ -24371,7 +24361,7 @@
         <v>120</v>
       </c>
       <c r="U274" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V274" s="30">
         <v>1</v>
@@ -24386,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="Z274" s="34" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="275" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -24394,7 +24384,7 @@
         <v>200104</v>
       </c>
       <c r="D275" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E275" s="22">
         <v>3</v>
@@ -24445,7 +24435,7 @@
         <v>120</v>
       </c>
       <c r="U275" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V275" s="30">
         <v>1</v>
@@ -24460,7 +24450,7 @@
         <v>0</v>
       </c>
       <c r="Z275" s="34" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="276" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -24468,7 +24458,7 @@
         <v>200105</v>
       </c>
       <c r="D276" s="36" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E276" s="22">
         <v>3</v>
@@ -24519,7 +24509,7 @@
         <v>120</v>
       </c>
       <c r="U276" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V276" s="30">
         <v>1</v>
@@ -24534,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="Z276" s="34" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="277" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -24543,7 +24533,7 @@
         <v>200201</v>
       </c>
       <c r="D277" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E277" s="22">
         <v>3</v>
@@ -24594,7 +24584,7 @@
         <v>220</v>
       </c>
       <c r="U277" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V277" s="30">
         <v>1</v>
@@ -24609,7 +24599,7 @@
         <v>0</v>
       </c>
       <c r="Z277" s="34" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="278" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -24618,7 +24608,7 @@
         <v>200202</v>
       </c>
       <c r="D278" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E278" s="22">
         <v>3</v>
@@ -24669,7 +24659,7 @@
         <v>220</v>
       </c>
       <c r="U278" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V278" s="30">
         <v>1</v>
@@ -24684,7 +24674,7 @@
         <v>0</v>
       </c>
       <c r="Z278" s="34" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="279" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -24693,7 +24683,7 @@
         <v>200203</v>
       </c>
       <c r="D279" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E279" s="22">
         <v>3</v>
@@ -24744,7 +24734,7 @@
         <v>220</v>
       </c>
       <c r="U279" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V279" s="30">
         <v>1</v>
@@ -24759,7 +24749,7 @@
         <v>0</v>
       </c>
       <c r="Z279" s="34" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="280" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -24768,7 +24758,7 @@
         <v>200204</v>
       </c>
       <c r="D280" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E280" s="22">
         <v>3</v>
@@ -24819,7 +24809,7 @@
         <v>220</v>
       </c>
       <c r="U280" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V280" s="30">
         <v>1</v>
@@ -24834,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="Z280" s="34" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="281" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -24843,7 +24833,7 @@
         <v>200205</v>
       </c>
       <c r="D281" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E281" s="22">
         <v>3</v>
@@ -24894,7 +24884,7 @@
         <v>220</v>
       </c>
       <c r="U281" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V281" s="30">
         <v>1</v>
@@ -24909,7 +24899,7 @@
         <v>0</v>
       </c>
       <c r="Z281" s="34" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="282" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -24918,7 +24908,7 @@
         <v>200301</v>
       </c>
       <c r="D282" s="36" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E282" s="22">
         <v>3</v>
@@ -24969,7 +24959,7 @@
         <v>320</v>
       </c>
       <c r="U282" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V282" s="30">
         <v>1</v>
@@ -24984,7 +24974,7 @@
         <v>0</v>
       </c>
       <c r="Z282" s="34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="283" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -24993,7 +24983,7 @@
         <v>200302</v>
       </c>
       <c r="D283" s="36" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E283" s="22">
         <v>3</v>
@@ -25044,7 +25034,7 @@
         <v>320</v>
       </c>
       <c r="U283" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V283" s="30">
         <v>1</v>
@@ -25059,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="Z283" s="34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="284" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -25068,7 +25058,7 @@
         <v>200303</v>
       </c>
       <c r="D284" s="36" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E284" s="22">
         <v>3</v>
@@ -25119,7 +25109,7 @@
         <v>320</v>
       </c>
       <c r="U284" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V284" s="30">
         <v>1</v>
@@ -25134,7 +25124,7 @@
         <v>0</v>
       </c>
       <c r="Z284" s="34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="285" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -25143,7 +25133,7 @@
         <v>200304</v>
       </c>
       <c r="D285" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E285" s="22">
         <v>3</v>
@@ -25194,7 +25184,7 @@
         <v>320</v>
       </c>
       <c r="U285" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V285" s="30">
         <v>1</v>
@@ -25209,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="Z285" s="34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="286" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -25218,7 +25208,7 @@
         <v>200305</v>
       </c>
       <c r="D286" s="36" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E286" s="22">
         <v>3</v>
@@ -25269,7 +25259,7 @@
         <v>320</v>
       </c>
       <c r="U286" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V286" s="30">
         <v>1</v>
@@ -25284,7 +25274,7 @@
         <v>0</v>
       </c>
       <c r="Z286" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="287" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -25293,7 +25283,7 @@
         <v>200401</v>
       </c>
       <c r="D287" s="36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E287" s="22">
         <v>3</v>
@@ -25344,7 +25334,7 @@
         <v>420</v>
       </c>
       <c r="U287" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V287" s="30">
         <v>1</v>
@@ -25359,7 +25349,7 @@
         <v>0</v>
       </c>
       <c r="Z287" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="288" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -25368,7 +25358,7 @@
         <v>200402</v>
       </c>
       <c r="D288" s="36" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E288" s="22">
         <v>3</v>
@@ -25419,7 +25409,7 @@
         <v>420</v>
       </c>
       <c r="U288" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V288" s="30">
         <v>1</v>
@@ -25434,7 +25424,7 @@
         <v>0</v>
       </c>
       <c r="Z288" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="289" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -25443,7 +25433,7 @@
         <v>200403</v>
       </c>
       <c r="D289" s="36" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E289" s="22">
         <v>3</v>
@@ -25494,7 +25484,7 @@
         <v>420</v>
       </c>
       <c r="U289" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V289" s="30">
         <v>1</v>
@@ -25509,7 +25499,7 @@
         <v>0</v>
       </c>
       <c r="Z289" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="290" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -25518,7 +25508,7 @@
         <v>200404</v>
       </c>
       <c r="D290" s="36" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E290" s="22">
         <v>3</v>
@@ -25569,7 +25559,7 @@
         <v>420</v>
       </c>
       <c r="U290" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V290" s="30">
         <v>1</v>
@@ -25584,7 +25574,7 @@
         <v>0</v>
       </c>
       <c r="Z290" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="291" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -25593,7 +25583,7 @@
         <v>200405</v>
       </c>
       <c r="D291" s="36" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E291" s="22">
         <v>3</v>
@@ -25644,7 +25634,7 @@
         <v>420</v>
       </c>
       <c r="U291" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V291" s="30">
         <v>1</v>
@@ -25659,7 +25649,7 @@
         <v>0</v>
       </c>
       <c r="Z291" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="292" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -25668,7 +25658,7 @@
         <v>200501</v>
       </c>
       <c r="D292" s="36" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E292" s="22">
         <v>3</v>
@@ -25719,7 +25709,7 @@
         <v>500</v>
       </c>
       <c r="U292" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V292" s="30">
         <v>1</v>
@@ -25734,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="Z292" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="293" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -25743,7 +25733,7 @@
         <v>200502</v>
       </c>
       <c r="D293" s="36" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E293" s="22">
         <v>3</v>
@@ -25794,7 +25784,7 @@
         <v>500</v>
       </c>
       <c r="U293" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V293" s="30">
         <v>1</v>
@@ -25809,7 +25799,7 @@
         <v>0</v>
       </c>
       <c r="Z293" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="294" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -25818,7 +25808,7 @@
         <v>200503</v>
       </c>
       <c r="D294" s="36" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E294" s="22">
         <v>3</v>
@@ -25869,7 +25859,7 @@
         <v>500</v>
       </c>
       <c r="U294" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V294" s="30">
         <v>1</v>
@@ -25884,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="Z294" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="295" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -25893,7 +25883,7 @@
         <v>200504</v>
       </c>
       <c r="D295" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E295" s="22">
         <v>3</v>
@@ -25944,7 +25934,7 @@
         <v>500</v>
       </c>
       <c r="U295" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V295" s="30">
         <v>1</v>
@@ -25959,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="Z295" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="296" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -25968,7 +25958,7 @@
         <v>200505</v>
       </c>
       <c r="D296" s="36" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E296" s="22">
         <v>3</v>
@@ -26019,7 +26009,7 @@
         <v>500</v>
       </c>
       <c r="U296" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V296" s="30">
         <v>1</v>
@@ -26034,7 +26024,7 @@
         <v>0</v>
       </c>
       <c r="Z296" s="34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="297" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -26042,7 +26032,7 @@
         <v>201001</v>
       </c>
       <c r="D297" s="36" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E297" s="22">
         <v>3</v>
@@ -26093,7 +26083,7 @@
         <v>200</v>
       </c>
       <c r="U297" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V297" s="30">
         <v>1</v>
@@ -26108,7 +26098,7 @@
         <v>0</v>
       </c>
       <c r="Z297" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="298" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -26116,7 +26106,7 @@
         <v>201002</v>
       </c>
       <c r="D298" s="36" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E298" s="22">
         <v>3</v>
@@ -26167,7 +26157,7 @@
         <v>200</v>
       </c>
       <c r="U298" s="18" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="V298" s="30">
         <v>1</v>
@@ -26182,7 +26172,7 @@
         <v>0</v>
       </c>
       <c r="Z298" s="34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="299" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -26190,7 +26180,7 @@
         <v>300001</v>
       </c>
       <c r="D299" s="29" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E299" s="22">
         <v>1</v>
@@ -26241,7 +26231,7 @@
         <v>200</v>
       </c>
       <c r="U299" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V299" s="30">
         <v>1</v>
@@ -26256,7 +26246,7 @@
         <v>0</v>
       </c>
       <c r="Z299" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="300" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -26264,7 +26254,7 @@
         <v>300002</v>
       </c>
       <c r="D300" s="29" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E300" s="22">
         <v>1</v>
@@ -26315,7 +26305,7 @@
         <v>200</v>
       </c>
       <c r="U300" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V300" s="30">
         <v>1</v>
@@ -26330,7 +26320,7 @@
         <v>0</v>
       </c>
       <c r="Z300" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="301" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -26338,7 +26328,7 @@
         <v>300003</v>
       </c>
       <c r="D301" s="29" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E301" s="22">
         <v>1</v>
@@ -26389,7 +26379,7 @@
         <v>200</v>
       </c>
       <c r="U301" s="18" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V301" s="30">
         <v>1</v>
@@ -26404,7 +26394,7 @@
         <v>0</v>
       </c>
       <c r="Z301" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="302" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -26412,7 +26402,7 @@
         <v>4000101</v>
       </c>
       <c r="D302" s="37" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E302" s="22">
         <v>4</v>
@@ -26478,7 +26468,7 @@
         <v>2500</v>
       </c>
       <c r="Z302" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="303" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -26486,7 +26476,7 @@
         <v>4000102</v>
       </c>
       <c r="D303" s="37" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E303" s="22">
         <v>4</v>
@@ -26552,7 +26542,7 @@
         <v>3500</v>
       </c>
       <c r="Z303" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="304" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -26560,7 +26550,7 @@
         <v>4000103</v>
       </c>
       <c r="D304" s="37" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E304" s="22">
         <v>4</v>
@@ -26626,7 +26616,7 @@
         <v>5000</v>
       </c>
       <c r="Z304" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="305" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -26634,7 +26624,7 @@
         <v>4000104</v>
       </c>
       <c r="D305" s="37" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E305" s="22">
         <v>4</v>
@@ -26700,7 +26690,7 @@
         <v>7500</v>
       </c>
       <c r="Z305" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="306" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -26708,7 +26698,7 @@
         <v>4000105</v>
       </c>
       <c r="D306" s="37" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E306" s="22">
         <v>4</v>
@@ -26774,7 +26764,7 @@
         <v>10000</v>
       </c>
       <c r="Z306" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="307" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -26782,7 +26772,7 @@
         <v>4000106</v>
       </c>
       <c r="D307" s="37" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E307" s="22">
         <v>4</v>
@@ -26848,7 +26838,7 @@
         <v>20000</v>
       </c>
       <c r="Z307" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="308" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -26856,7 +26846,7 @@
         <v>4000107</v>
       </c>
       <c r="D308" s="37" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E308" s="22">
         <v>4</v>
@@ -26922,7 +26912,7 @@
         <v>30000</v>
       </c>
       <c r="Z308" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="309" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -26930,7 +26920,7 @@
         <v>4000108</v>
       </c>
       <c r="D309" s="37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E309" s="22">
         <v>4</v>
@@ -26996,7 +26986,7 @@
         <v>40000</v>
       </c>
       <c r="Z309" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="310" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -27004,7 +26994,7 @@
         <v>4000109</v>
       </c>
       <c r="D310" s="37" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E310" s="22">
         <v>4</v>
@@ -27070,7 +27060,7 @@
         <v>50000</v>
       </c>
       <c r="Z310" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="311" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -27078,7 +27068,7 @@
         <v>4000201</v>
       </c>
       <c r="D311" s="37" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E311" s="22">
         <v>4</v>
@@ -27144,7 +27134,7 @@
         <v>2500</v>
       </c>
       <c r="Z311" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="312" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -27152,7 +27142,7 @@
         <v>4000202</v>
       </c>
       <c r="D312" s="37" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E312" s="22">
         <v>4</v>
@@ -27218,7 +27208,7 @@
         <v>3500</v>
       </c>
       <c r="Z312" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="313" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -27226,7 +27216,7 @@
         <v>4000203</v>
       </c>
       <c r="D313" s="37" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E313" s="22">
         <v>4</v>
@@ -27292,7 +27282,7 @@
         <v>5000</v>
       </c>
       <c r="Z313" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="314" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -27300,7 +27290,7 @@
         <v>4000204</v>
       </c>
       <c r="D314" s="37" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E314" s="22">
         <v>4</v>
@@ -27366,7 +27356,7 @@
         <v>7500</v>
       </c>
       <c r="Z314" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="315" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -27374,7 +27364,7 @@
         <v>4000205</v>
       </c>
       <c r="D315" s="37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E315" s="22">
         <v>4</v>
@@ -27440,7 +27430,7 @@
         <v>10000</v>
       </c>
       <c r="Z315" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="316" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -27448,7 +27438,7 @@
         <v>4000206</v>
       </c>
       <c r="D316" s="37" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E316" s="22">
         <v>4</v>
@@ -27514,7 +27504,7 @@
         <v>20000</v>
       </c>
       <c r="Z316" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="317" ht="20.1" customHeight="1" spans="3:26">
@@ -27522,7 +27512,7 @@
         <v>4000207</v>
       </c>
       <c r="D317" s="37" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E317" s="22">
         <v>4</v>
@@ -27588,7 +27578,7 @@
         <v>30000</v>
       </c>
       <c r="Z317" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="318" ht="20.1" customHeight="1" spans="3:26">
@@ -27596,7 +27586,7 @@
         <v>4000208</v>
       </c>
       <c r="D318" s="37" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E318" s="22">
         <v>4</v>
@@ -27662,7 +27652,7 @@
         <v>40000</v>
       </c>
       <c r="Z318" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="319" ht="20.1" customHeight="1" spans="3:26">
@@ -27670,7 +27660,7 @@
         <v>4000209</v>
       </c>
       <c r="D319" s="37" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E319" s="22">
         <v>4</v>
@@ -27736,7 +27726,7 @@
         <v>50000</v>
       </c>
       <c r="Z319" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="320" ht="20.1" customHeight="1" spans="3:26">
@@ -27744,7 +27734,7 @@
         <v>4000301</v>
       </c>
       <c r="D320" s="37" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E320" s="22">
         <v>4</v>
@@ -27810,7 +27800,7 @@
         <v>2500</v>
       </c>
       <c r="Z320" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="321" ht="20.1" customHeight="1" spans="3:26">
@@ -27818,7 +27808,7 @@
         <v>4000302</v>
       </c>
       <c r="D321" s="37" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E321" s="22">
         <v>4</v>
@@ -27884,7 +27874,7 @@
         <v>3500</v>
       </c>
       <c r="Z321" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="322" ht="20.1" customHeight="1" spans="3:26">
@@ -27892,7 +27882,7 @@
         <v>4000303</v>
       </c>
       <c r="D322" s="37" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E322" s="22">
         <v>4</v>
@@ -27958,7 +27948,7 @@
         <v>5000</v>
       </c>
       <c r="Z322" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="323" ht="20.1" customHeight="1" spans="3:26">
@@ -27966,7 +27956,7 @@
         <v>4000304</v>
       </c>
       <c r="D323" s="37" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E323" s="22">
         <v>4</v>
@@ -28032,7 +28022,7 @@
         <v>7500</v>
       </c>
       <c r="Z323" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="324" ht="20.1" customHeight="1" spans="3:26">
@@ -28040,7 +28030,7 @@
         <v>4000305</v>
       </c>
       <c r="D324" s="37" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E324" s="22">
         <v>4</v>
@@ -28106,7 +28096,7 @@
         <v>10000</v>
       </c>
       <c r="Z324" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="325" ht="20.1" customHeight="1" spans="3:26">
@@ -28114,7 +28104,7 @@
         <v>4000306</v>
       </c>
       <c r="D325" s="37" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E325" s="22">
         <v>4</v>
@@ -28180,7 +28170,7 @@
         <v>20000</v>
       </c>
       <c r="Z325" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="326" ht="20.1" customHeight="1" spans="3:26">
@@ -28188,7 +28178,7 @@
         <v>4000307</v>
       </c>
       <c r="D326" s="37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E326" s="22">
         <v>4</v>
@@ -28254,7 +28244,7 @@
         <v>30000</v>
       </c>
       <c r="Z326" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="327" ht="20.1" customHeight="1" spans="3:26">
@@ -28262,7 +28252,7 @@
         <v>4000308</v>
       </c>
       <c r="D327" s="37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E327" s="22">
         <v>4</v>
@@ -28328,7 +28318,7 @@
         <v>40000</v>
       </c>
       <c r="Z327" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="328" ht="20.1" customHeight="1" spans="3:26">
@@ -28336,7 +28326,7 @@
         <v>4000309</v>
       </c>
       <c r="D328" s="37" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E328" s="22">
         <v>4</v>
@@ -28402,7 +28392,7 @@
         <v>50000</v>
       </c>
       <c r="Z328" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="329" ht="20.1" customHeight="1" spans="3:26">
@@ -28410,7 +28400,7 @@
         <v>4000401</v>
       </c>
       <c r="D329" s="37" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E329" s="22">
         <v>4</v>
@@ -28476,7 +28466,7 @@
         <v>2500</v>
       </c>
       <c r="Z329" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="330" ht="20.1" customHeight="1" spans="3:26">
@@ -28484,7 +28474,7 @@
         <v>4000402</v>
       </c>
       <c r="D330" s="37" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E330" s="22">
         <v>4</v>
@@ -28550,7 +28540,7 @@
         <v>3500</v>
       </c>
       <c r="Z330" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="331" ht="20.1" customHeight="1" spans="3:26">
@@ -28558,7 +28548,7 @@
         <v>4000403</v>
       </c>
       <c r="D331" s="37" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E331" s="22">
         <v>4</v>
@@ -28624,7 +28614,7 @@
         <v>5000</v>
       </c>
       <c r="Z331" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="332" ht="20.1" customHeight="1" spans="3:26">
@@ -28632,7 +28622,7 @@
         <v>4000404</v>
       </c>
       <c r="D332" s="37" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E332" s="22">
         <v>4</v>
@@ -28698,7 +28688,7 @@
         <v>7500</v>
       </c>
       <c r="Z332" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="333" ht="20.1" customHeight="1" spans="3:26">
@@ -28706,7 +28696,7 @@
         <v>4000405</v>
       </c>
       <c r="D333" s="37" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E333" s="22">
         <v>4</v>
@@ -28772,7 +28762,7 @@
         <v>10000</v>
       </c>
       <c r="Z333" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="334" ht="20.1" customHeight="1" spans="3:26">
@@ -28780,7 +28770,7 @@
         <v>4000406</v>
       </c>
       <c r="D334" s="37" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E334" s="22">
         <v>4</v>
@@ -28846,7 +28836,7 @@
         <v>20000</v>
       </c>
       <c r="Z334" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="335" ht="20.1" customHeight="1" spans="3:26">
@@ -28854,7 +28844,7 @@
         <v>4000407</v>
       </c>
       <c r="D335" s="37" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E335" s="22">
         <v>4</v>
@@ -28920,7 +28910,7 @@
         <v>30000</v>
       </c>
       <c r="Z335" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="336" ht="20.1" customHeight="1" spans="3:26">
@@ -28928,7 +28918,7 @@
         <v>4000408</v>
       </c>
       <c r="D336" s="37" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E336" s="22">
         <v>4</v>
@@ -28994,7 +28984,7 @@
         <v>40000</v>
       </c>
       <c r="Z336" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="337" ht="20.1" customHeight="1" spans="3:26">
@@ -29002,7 +28992,7 @@
         <v>4000409</v>
       </c>
       <c r="D337" s="37" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E337" s="22">
         <v>4</v>
@@ -29068,7 +29058,7 @@
         <v>50000</v>
       </c>
       <c r="Z337" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="338" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -29076,7 +29066,7 @@
         <v>5000001</v>
       </c>
       <c r="D338" s="38" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E338" s="4">
         <v>5</v>
@@ -29142,7 +29132,7 @@
         <v>1000000</v>
       </c>
       <c r="Z338" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="339" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -29150,7 +29140,7 @@
         <v>5000002</v>
       </c>
       <c r="D339" s="38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E339" s="4">
         <v>5</v>
@@ -29216,7 +29206,7 @@
         <v>1000000</v>
       </c>
       <c r="Z339" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="340" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -29224,7 +29214,7 @@
         <v>5000003</v>
       </c>
       <c r="D340" s="38" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E340" s="4">
         <v>5</v>
@@ -29290,7 +29280,7 @@
         <v>1000000</v>
       </c>
       <c r="Z340" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="341" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -29298,7 +29288,7 @@
         <v>5000011</v>
       </c>
       <c r="D341" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E341" s="4">
         <v>5</v>
@@ -29364,7 +29354,7 @@
         <v>1000000</v>
       </c>
       <c r="Z341" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="342" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -29372,7 +29362,7 @@
         <v>5000012</v>
       </c>
       <c r="D342" s="38" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E342" s="4">
         <v>5</v>
@@ -29438,7 +29428,7 @@
         <v>1000000</v>
       </c>
       <c r="Z342" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="343" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -29446,7 +29436,7 @@
         <v>5000013</v>
       </c>
       <c r="D343" s="38" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E343" s="4">
         <v>5</v>
@@ -29512,7 +29502,7 @@
         <v>1000000</v>
       </c>
       <c r="Z343" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="344" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -29520,7 +29510,7 @@
         <v>5000021</v>
       </c>
       <c r="D344" s="38" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E344" s="4">
         <v>5</v>
@@ -29586,7 +29576,7 @@
         <v>1000000</v>
       </c>
       <c r="Z344" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="345" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -29594,7 +29584,7 @@
         <v>5000022</v>
       </c>
       <c r="D345" s="38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E345" s="4">
         <v>5</v>
@@ -29660,7 +29650,7 @@
         <v>1000000</v>
       </c>
       <c r="Z345" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="346" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -29668,7 +29658,7 @@
         <v>5000023</v>
       </c>
       <c r="D346" s="38" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E346" s="4">
         <v>5</v>
@@ -29734,7 +29724,7 @@
         <v>1000000</v>
       </c>
       <c r="Z346" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="347" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -29742,7 +29732,7 @@
         <v>5000031</v>
       </c>
       <c r="D347" s="38" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E347" s="4">
         <v>5</v>
@@ -29808,7 +29798,7 @@
         <v>1000000</v>
       </c>
       <c r="Z347" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="348" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -29816,7 +29806,7 @@
         <v>5000032</v>
       </c>
       <c r="D348" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E348" s="4">
         <v>5</v>
@@ -29882,7 +29872,7 @@
         <v>1000000</v>
       </c>
       <c r="Z348" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="349" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -29890,7 +29880,7 @@
         <v>5000033</v>
       </c>
       <c r="D349" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E349" s="4">
         <v>5</v>
@@ -29956,7 +29946,7 @@
         <v>1000000</v>
       </c>
       <c r="Z349" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="350" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -29964,7 +29954,7 @@
         <v>5000041</v>
       </c>
       <c r="D350" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E350" s="4">
         <v>5</v>
@@ -30030,7 +30020,7 @@
         <v>1000000</v>
       </c>
       <c r="Z350" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="351" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -30038,7 +30028,7 @@
         <v>5000042</v>
       </c>
       <c r="D351" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E351" s="4">
         <v>5</v>
@@ -30104,7 +30094,7 @@
         <v>1000000</v>
       </c>
       <c r="Z351" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="352" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -30112,7 +30102,7 @@
         <v>5000043</v>
       </c>
       <c r="D352" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E352" s="4">
         <v>5</v>
@@ -30178,7 +30168,7 @@
         <v>1000000</v>
       </c>
       <c r="Z352" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="353" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -30186,7 +30176,7 @@
         <v>5000051</v>
       </c>
       <c r="D353" s="38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E353" s="4">
         <v>5</v>
@@ -30252,7 +30242,7 @@
         <v>1000000</v>
       </c>
       <c r="Z353" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="354" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -30260,7 +30250,7 @@
         <v>5000052</v>
       </c>
       <c r="D354" s="38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E354" s="4">
         <v>5</v>
@@ -30326,7 +30316,7 @@
         <v>1000000</v>
       </c>
       <c r="Z354" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="355" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -30334,7 +30324,7 @@
         <v>5000061</v>
       </c>
       <c r="D355" s="38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E355" s="4">
         <v>5</v>
@@ -30400,7 +30390,7 @@
         <v>1000000</v>
       </c>
       <c r="Z355" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="356" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -30408,7 +30398,7 @@
         <v>5000062</v>
       </c>
       <c r="D356" s="38" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E356" s="4">
         <v>5</v>
@@ -30474,7 +30464,7 @@
         <v>1000000</v>
       </c>
       <c r="Z356" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="357" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -30482,7 +30472,7 @@
         <v>5000071</v>
       </c>
       <c r="D357" s="38" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E357" s="4">
         <v>5</v>
@@ -30548,7 +30538,7 @@
         <v>1000000</v>
       </c>
       <c r="Z357" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="358" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -30556,7 +30546,7 @@
         <v>5000072</v>
       </c>
       <c r="D358" s="38" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E358" s="4">
         <v>5</v>
@@ -30622,7 +30612,7 @@
         <v>1000000</v>
       </c>
       <c r="Z358" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="359" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -30630,7 +30620,7 @@
         <v>5000081</v>
       </c>
       <c r="D359" s="24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E359" s="4">
         <v>5</v>
@@ -30696,7 +30686,7 @@
         <v>1000000</v>
       </c>
       <c r="Z359" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="360" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -30704,7 +30694,7 @@
         <v>5000082</v>
       </c>
       <c r="D360" s="24" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E360" s="4">
         <v>5</v>
@@ -30770,7 +30760,7 @@
         <v>1000000</v>
       </c>
       <c r="Z360" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="361" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -30778,7 +30768,7 @@
         <v>5000091</v>
       </c>
       <c r="D361" s="38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E361" s="4">
         <v>5</v>
@@ -30844,7 +30834,7 @@
         <v>1000000</v>
       </c>
       <c r="Z361" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="362" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -30852,7 +30842,7 @@
         <v>5000092</v>
       </c>
       <c r="D362" s="38" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E362" s="4">
         <v>5</v>
@@ -30918,7 +30908,7 @@
         <v>1000000</v>
       </c>
       <c r="Z362" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="363" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -30926,7 +30916,7 @@
         <v>5000093</v>
       </c>
       <c r="D363" s="38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E363" s="4">
         <v>5</v>
@@ -30992,7 +30982,7 @@
         <v>1000000</v>
       </c>
       <c r="Z363" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="364" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -31000,7 +30990,7 @@
         <v>6101001</v>
       </c>
       <c r="D364" s="40" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E364" s="4">
         <v>6</v>
@@ -31052,7 +31042,7 @@
         <v>175</v>
       </c>
       <c r="U364" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V364" s="4">
         <v>0</v>
@@ -31067,7 +31057,7 @@
         <v>0</v>
       </c>
       <c r="Z364" s="41" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="365" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -31075,7 +31065,7 @@
         <v>6101002</v>
       </c>
       <c r="D365" s="40" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E365" s="4">
         <v>6</v>
@@ -31127,7 +31117,7 @@
         <v>175</v>
       </c>
       <c r="U365" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V365" s="4">
         <v>0</v>
@@ -31142,7 +31132,7 @@
         <v>0</v>
       </c>
       <c r="Z365" s="41" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="366" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -31150,7 +31140,7 @@
         <v>6101003</v>
       </c>
       <c r="D366" s="40" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E366" s="4">
         <v>6</v>
@@ -31201,7 +31191,7 @@
         <v>175</v>
       </c>
       <c r="U366" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V366" s="4">
         <v>0</v>
@@ -31216,7 +31206,7 @@
         <v>0</v>
       </c>
       <c r="Z366" s="41" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="367" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -31225,7 +31215,7 @@
         <v>6102001</v>
       </c>
       <c r="D367" s="40" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E367" s="4">
         <v>6</v>
@@ -31277,7 +31267,7 @@
         <v>175</v>
       </c>
       <c r="U367" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V367" s="4">
         <v>0</v>
@@ -31292,7 +31282,7 @@
         <v>0</v>
       </c>
       <c r="Z367" s="41" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="368" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -31301,7 +31291,7 @@
         <v>6102002</v>
       </c>
       <c r="D368" s="40" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E368" s="4">
         <v>6</v>
@@ -31353,7 +31343,7 @@
         <v>175</v>
       </c>
       <c r="U368" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V368" s="4">
         <v>0</v>
@@ -31368,7 +31358,7 @@
         <v>0</v>
       </c>
       <c r="Z368" s="41" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="369" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -31377,7 +31367,7 @@
         <v>6102003</v>
       </c>
       <c r="D369" s="40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E369" s="4">
         <v>6</v>
@@ -31428,7 +31418,7 @@
         <v>175</v>
       </c>
       <c r="U369" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V369" s="4">
         <v>0</v>
@@ -31443,7 +31433,7 @@
         <v>0</v>
       </c>
       <c r="Z369" s="41" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="370" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -31452,7 +31442,7 @@
         <v>6103001</v>
       </c>
       <c r="D370" s="40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E370" s="4">
         <v>6</v>
@@ -31504,7 +31494,7 @@
         <v>175</v>
       </c>
       <c r="U370" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V370" s="4">
         <v>0</v>
@@ -31519,7 +31509,7 @@
         <v>0</v>
       </c>
       <c r="Z370" s="41" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="371" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -31528,7 +31518,7 @@
         <v>6103002</v>
       </c>
       <c r="D371" s="40" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E371" s="4">
         <v>6</v>
@@ -31580,7 +31570,7 @@
         <v>175</v>
       </c>
       <c r="U371" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V371" s="4">
         <v>0</v>
@@ -31595,7 +31585,7 @@
         <v>0</v>
       </c>
       <c r="Z371" s="41" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="372" s="4" customFormat="1" ht="19.5" customHeight="1" spans="3:26">
@@ -31604,7 +31594,7 @@
         <v>6103003</v>
       </c>
       <c r="D372" s="40" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E372" s="4">
         <v>6</v>
@@ -31655,7 +31645,7 @@
         <v>175</v>
       </c>
       <c r="U372" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V372" s="4">
         <v>0</v>
@@ -31670,7 +31660,7 @@
         <v>0</v>
       </c>
       <c r="Z372" s="41" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="373" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -31678,7 +31668,7 @@
         <v>6104001</v>
       </c>
       <c r="D373" s="40" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E373" s="4">
         <v>6</v>
@@ -31730,7 +31720,7 @@
         <v>175</v>
       </c>
       <c r="U373" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V373" s="4">
         <v>0</v>
@@ -31745,7 +31735,7 @@
         <v>0</v>
       </c>
       <c r="Z373" s="41" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="374" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -31753,7 +31743,7 @@
         <v>6104002</v>
       </c>
       <c r="D374" s="40" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E374" s="4">
         <v>6</v>
@@ -31805,7 +31795,7 @@
         <v>175</v>
       </c>
       <c r="U374" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V374" s="4">
         <v>0</v>
@@ -31820,7 +31810,7 @@
         <v>0</v>
       </c>
       <c r="Z374" s="41" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="375" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -31828,7 +31818,7 @@
         <v>6104003</v>
       </c>
       <c r="D375" s="40" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E375" s="4">
         <v>6</v>
@@ -31880,7 +31870,7 @@
         <v>175</v>
       </c>
       <c r="U375" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V375" s="4">
         <v>0</v>
@@ -31895,7 +31885,7 @@
         <v>0</v>
       </c>
       <c r="Z375" s="41" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="376" ht="20.1" customHeight="1" spans="3:26">
@@ -31903,7 +31893,7 @@
         <v>6104004</v>
       </c>
       <c r="D376" s="40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E376" s="4">
         <v>6</v>
@@ -31954,7 +31944,7 @@
         <v>175</v>
       </c>
       <c r="U376" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V376" s="4">
         <v>0</v>
@@ -31969,7 +31959,7 @@
         <v>0</v>
       </c>
       <c r="Z376" s="41" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="377" ht="20.1" customHeight="1" spans="3:26">
@@ -31977,7 +31967,7 @@
         <v>6105001</v>
       </c>
       <c r="D377" s="40" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E377" s="4">
         <v>6</v>
@@ -32029,7 +32019,7 @@
         <v>175</v>
       </c>
       <c r="U377" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V377" s="4">
         <v>0</v>
@@ -32044,7 +32034,7 @@
         <v>0</v>
       </c>
       <c r="Z377" s="41" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="378" ht="20.1" customHeight="1" spans="3:26">
@@ -32052,7 +32042,7 @@
         <v>6105002</v>
       </c>
       <c r="D378" s="40" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E378" s="4">
         <v>6</v>
@@ -32104,7 +32094,7 @@
         <v>175</v>
       </c>
       <c r="U378" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V378" s="4">
         <v>0</v>
@@ -32119,7 +32109,7 @@
         <v>0</v>
       </c>
       <c r="Z378" s="41" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="379" ht="20.1" customHeight="1" spans="3:26">
@@ -32127,7 +32117,7 @@
         <v>6105003</v>
       </c>
       <c r="D379" s="40" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E379" s="4">
         <v>6</v>
@@ -32179,7 +32169,7 @@
         <v>175</v>
       </c>
       <c r="U379" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V379" s="4">
         <v>0</v>
@@ -32194,7 +32184,7 @@
         <v>0</v>
       </c>
       <c r="Z379" s="41" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="380" ht="20.1" customHeight="1" spans="3:26">
@@ -32202,7 +32192,7 @@
         <v>6105004</v>
       </c>
       <c r="D380" s="40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E380" s="4">
         <v>6</v>
@@ -32253,7 +32243,7 @@
         <v>175</v>
       </c>
       <c r="U380" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V380" s="4">
         <v>0</v>
@@ -32268,7 +32258,7 @@
         <v>0</v>
       </c>
       <c r="Z380" s="41" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="381" ht="20.1" customHeight="1" spans="3:26">
@@ -32276,7 +32266,7 @@
         <v>6106001</v>
       </c>
       <c r="D381" s="40" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E381" s="4">
         <v>6</v>
@@ -32328,7 +32318,7 @@
         <v>175</v>
       </c>
       <c r="U381" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V381" s="4">
         <v>0</v>
@@ -32343,7 +32333,7 @@
         <v>0</v>
       </c>
       <c r="Z381" s="41" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="382" ht="20.1" customHeight="1" spans="3:26">
@@ -32351,7 +32341,7 @@
         <v>6106002</v>
       </c>
       <c r="D382" s="40" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E382" s="4">
         <v>6</v>
@@ -32403,7 +32393,7 @@
         <v>175</v>
       </c>
       <c r="U382" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V382" s="4">
         <v>0</v>
@@ -32418,7 +32408,7 @@
         <v>0</v>
       </c>
       <c r="Z382" s="41" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="383" ht="20.1" customHeight="1" spans="3:26">
@@ -32426,7 +32416,7 @@
         <v>6106003</v>
       </c>
       <c r="D383" s="40" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E383" s="4">
         <v>6</v>
@@ -32477,7 +32467,7 @@
         <v>175</v>
       </c>
       <c r="U383" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V383" s="4">
         <v>0</v>
@@ -32492,7 +32482,7 @@
         <v>0</v>
       </c>
       <c r="Z383" s="41" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="384" ht="20.1" customHeight="1" spans="3:26">
@@ -32500,7 +32490,7 @@
         <v>6201001</v>
       </c>
       <c r="D384" s="40" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E384" s="4">
         <v>6</v>
@@ -32551,7 +32541,7 @@
         <v>350</v>
       </c>
       <c r="U384" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V384" s="4">
         <v>0</v>
@@ -32566,7 +32556,7 @@
         <v>0</v>
       </c>
       <c r="Z384" s="41" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="385" ht="20.1" customHeight="1" spans="3:26">
@@ -32574,7 +32564,7 @@
         <v>6201002</v>
       </c>
       <c r="D385" s="40" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E385" s="4">
         <v>6</v>
@@ -32625,7 +32615,7 @@
         <v>350</v>
       </c>
       <c r="U385" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V385" s="4">
         <v>0</v>
@@ -32640,7 +32630,7 @@
         <v>0</v>
       </c>
       <c r="Z385" s="41" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="386" ht="20.1" customHeight="1" spans="3:26">
@@ -32648,7 +32638,7 @@
         <v>6201003</v>
       </c>
       <c r="D386" s="40" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E386" s="4">
         <v>6</v>
@@ -32699,7 +32689,7 @@
         <v>350</v>
       </c>
       <c r="U386" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V386" s="4">
         <v>0</v>
@@ -32714,7 +32704,7 @@
         <v>0</v>
       </c>
       <c r="Z386" s="41" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="387" ht="20.1" customHeight="1" spans="3:26">
@@ -32722,7 +32712,7 @@
         <v>6202001</v>
       </c>
       <c r="D387" s="40" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E387" s="4">
         <v>6</v>
@@ -32773,7 +32763,7 @@
         <v>350</v>
       </c>
       <c r="U387" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V387" s="4">
         <v>0</v>
@@ -32788,7 +32778,7 @@
         <v>0</v>
       </c>
       <c r="Z387" s="41" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="388" ht="20.1" customHeight="1" spans="3:26">
@@ -32796,7 +32786,7 @@
         <v>6202002</v>
       </c>
       <c r="D388" s="40" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E388" s="4">
         <v>6</v>
@@ -32847,7 +32837,7 @@
         <v>350</v>
       </c>
       <c r="U388" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V388" s="4">
         <v>0</v>
@@ -32862,7 +32852,7 @@
         <v>0</v>
       </c>
       <c r="Z388" s="41" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="389" ht="20.1" customHeight="1" spans="3:26">
@@ -32870,7 +32860,7 @@
         <v>6202003</v>
       </c>
       <c r="D389" s="40" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E389" s="4">
         <v>6</v>
@@ -32921,7 +32911,7 @@
         <v>350</v>
       </c>
       <c r="U389" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V389" s="4">
         <v>0</v>
@@ -32936,7 +32926,7 @@
         <v>0</v>
       </c>
       <c r="Z389" s="41" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="390" ht="20.1" customHeight="1" spans="3:26">
@@ -32944,7 +32934,7 @@
         <v>6203001</v>
       </c>
       <c r="D390" s="40" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E390" s="4">
         <v>6</v>
@@ -32995,7 +32985,7 @@
         <v>350</v>
       </c>
       <c r="U390" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V390" s="4">
         <v>0</v>
@@ -33010,7 +33000,7 @@
         <v>0</v>
       </c>
       <c r="Z390" s="41" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="391" ht="20.1" customHeight="1" spans="3:26">
@@ -33018,7 +33008,7 @@
         <v>6203002</v>
       </c>
       <c r="D391" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E391" s="4">
         <v>6</v>
@@ -33069,7 +33059,7 @@
         <v>350</v>
       </c>
       <c r="U391" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V391" s="4">
         <v>0</v>
@@ -33084,7 +33074,7 @@
         <v>0</v>
       </c>
       <c r="Z391" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="392" ht="20.1" customHeight="1" spans="3:26">
@@ -33092,7 +33082,7 @@
         <v>6203003</v>
       </c>
       <c r="D392" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E392" s="4">
         <v>6</v>
@@ -33143,7 +33133,7 @@
         <v>350</v>
       </c>
       <c r="U392" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V392" s="4">
         <v>0</v>
@@ -33158,7 +33148,7 @@
         <v>0</v>
       </c>
       <c r="Z392" s="41" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="393" ht="20.1" customHeight="1" spans="3:26">
@@ -33166,7 +33156,7 @@
         <v>6204001</v>
       </c>
       <c r="D393" s="40" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E393" s="4">
         <v>6</v>
@@ -33217,7 +33207,7 @@
         <v>350</v>
       </c>
       <c r="U393" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V393" s="4">
         <v>0</v>
@@ -33232,7 +33222,7 @@
         <v>0</v>
       </c>
       <c r="Z393" s="41" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="394" ht="20.1" customHeight="1" spans="3:26">
@@ -33240,7 +33230,7 @@
         <v>6204002</v>
       </c>
       <c r="D394" s="40" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E394" s="4">
         <v>6</v>
@@ -33291,7 +33281,7 @@
         <v>350</v>
       </c>
       <c r="U394" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V394" s="4">
         <v>0</v>
@@ -33306,7 +33296,7 @@
         <v>0</v>
       </c>
       <c r="Z394" s="41" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="395" ht="20.1" customHeight="1" spans="3:26">
@@ -33314,7 +33304,7 @@
         <v>6204003</v>
       </c>
       <c r="D395" s="40" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E395" s="4">
         <v>6</v>
@@ -33365,7 +33355,7 @@
         <v>350</v>
       </c>
       <c r="U395" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V395" s="4">
         <v>0</v>
@@ -33380,7 +33370,7 @@
         <v>0</v>
       </c>
       <c r="Z395" s="41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="396" ht="20.1" customHeight="1" spans="3:26">
@@ -33388,7 +33378,7 @@
         <v>6204004</v>
       </c>
       <c r="D396" s="40" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E396" s="4">
         <v>6</v>
@@ -33439,7 +33429,7 @@
         <v>350</v>
       </c>
       <c r="U396" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V396" s="4">
         <v>0</v>
@@ -33454,7 +33444,7 @@
         <v>0</v>
       </c>
       <c r="Z396" s="41" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="397" ht="20.1" customHeight="1" spans="3:26">
@@ -33462,7 +33452,7 @@
         <v>6205001</v>
       </c>
       <c r="D397" s="40" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E397" s="4">
         <v>6</v>
@@ -33513,7 +33503,7 @@
         <v>350</v>
       </c>
       <c r="U397" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V397" s="4">
         <v>0</v>
@@ -33528,7 +33518,7 @@
         <v>0</v>
       </c>
       <c r="Z397" s="41" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="398" ht="20.1" customHeight="1" spans="3:26">
@@ -33536,7 +33526,7 @@
         <v>6205002</v>
       </c>
       <c r="D398" s="40" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E398" s="4">
         <v>6</v>
@@ -33587,7 +33577,7 @@
         <v>350</v>
       </c>
       <c r="U398" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V398" s="4">
         <v>0</v>
@@ -33602,7 +33592,7 @@
         <v>0</v>
       </c>
       <c r="Z398" s="41" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="399" ht="20.1" customHeight="1" spans="3:26">
@@ -33610,7 +33600,7 @@
         <v>6205003</v>
       </c>
       <c r="D399" s="40" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E399" s="4">
         <v>6</v>
@@ -33661,7 +33651,7 @@
         <v>350</v>
       </c>
       <c r="U399" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V399" s="4">
         <v>0</v>
@@ -33676,7 +33666,7 @@
         <v>0</v>
       </c>
       <c r="Z399" s="41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="400" ht="20.1" customHeight="1" spans="3:26">
@@ -33684,7 +33674,7 @@
         <v>6205004</v>
       </c>
       <c r="D400" s="40" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E400" s="4">
         <v>6</v>
@@ -33735,7 +33725,7 @@
         <v>350</v>
       </c>
       <c r="U400" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V400" s="4">
         <v>0</v>
@@ -33750,7 +33740,7 @@
         <v>0</v>
       </c>
       <c r="Z400" s="41" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="401" ht="20.1" customHeight="1" spans="3:26">
@@ -33758,7 +33748,7 @@
         <v>6206001</v>
       </c>
       <c r="D401" s="40" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E401" s="4">
         <v>6</v>
@@ -33809,7 +33799,7 @@
         <v>350</v>
       </c>
       <c r="U401" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V401" s="4">
         <v>0</v>
@@ -33824,7 +33814,7 @@
         <v>0</v>
       </c>
       <c r="Z401" s="41" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="402" ht="20.1" customHeight="1" spans="3:26">
@@ -33832,7 +33822,7 @@
         <v>6206002</v>
       </c>
       <c r="D402" s="40" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E402" s="4">
         <v>6</v>
@@ -33883,7 +33873,7 @@
         <v>350</v>
       </c>
       <c r="U402" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V402" s="4">
         <v>0</v>
@@ -33898,7 +33888,7 @@
         <v>0</v>
       </c>
       <c r="Z402" s="41" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="403" ht="20.1" customHeight="1" spans="3:26">
@@ -33906,7 +33896,7 @@
         <v>6206003</v>
       </c>
       <c r="D403" s="40" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E403" s="4">
         <v>6</v>
@@ -33957,7 +33947,7 @@
         <v>350</v>
       </c>
       <c r="U403" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V403" s="4">
         <v>0</v>
@@ -33972,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="Z403" s="41" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="404" ht="20.1" customHeight="1" spans="3:26">
@@ -33980,7 +33970,7 @@
         <v>6301001</v>
       </c>
       <c r="D404" s="40" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E404" s="4">
         <v>6</v>
@@ -34032,7 +34022,7 @@
         <v>500</v>
       </c>
       <c r="U404" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V404" s="4">
         <v>0</v>
@@ -34047,7 +34037,7 @@
         <v>0</v>
       </c>
       <c r="Z404" s="41" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="405" ht="20.1" customHeight="1" spans="3:26">
@@ -34055,7 +34045,7 @@
         <v>6301002</v>
       </c>
       <c r="D405" s="40" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E405" s="4">
         <v>6</v>
@@ -34107,7 +34097,7 @@
         <v>500</v>
       </c>
       <c r="U405" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V405" s="4">
         <v>0</v>
@@ -34122,7 +34112,7 @@
         <v>0</v>
       </c>
       <c r="Z405" s="41" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="406" ht="20.1" customHeight="1" spans="3:26">
@@ -34130,7 +34120,7 @@
         <v>6301003</v>
       </c>
       <c r="D406" s="40" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E406" s="4">
         <v>6</v>
@@ -34182,7 +34172,7 @@
         <v>500</v>
       </c>
       <c r="U406" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V406" s="4">
         <v>0</v>
@@ -34197,7 +34187,7 @@
         <v>0</v>
       </c>
       <c r="Z406" s="41" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="407" ht="20.1" customHeight="1" spans="3:26">
@@ -34205,7 +34195,7 @@
         <v>6302001</v>
       </c>
       <c r="D407" s="40" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E407" s="4">
         <v>6</v>
@@ -34257,7 +34247,7 @@
         <v>500</v>
       </c>
       <c r="U407" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V407" s="4">
         <v>0</v>
@@ -34272,7 +34262,7 @@
         <v>0</v>
       </c>
       <c r="Z407" s="41" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="408" ht="20.1" customHeight="1" spans="3:26">
@@ -34280,7 +34270,7 @@
         <v>6302002</v>
       </c>
       <c r="D408" s="40" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E408" s="4">
         <v>6</v>
@@ -34331,7 +34321,7 @@
         <v>500</v>
       </c>
       <c r="U408" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V408" s="4">
         <v>0</v>
@@ -34346,7 +34336,7 @@
         <v>0</v>
       </c>
       <c r="Z408" s="41" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="409" ht="20.1" customHeight="1" spans="3:26">
@@ -34354,7 +34344,7 @@
         <v>6302003</v>
       </c>
       <c r="D409" s="40" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E409" s="4">
         <v>6</v>
@@ -34406,7 +34396,7 @@
         <v>500</v>
       </c>
       <c r="U409" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V409" s="4">
         <v>0</v>
@@ -34421,7 +34411,7 @@
         <v>0</v>
       </c>
       <c r="Z409" s="41" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="410" ht="20.1" customHeight="1" spans="3:26">
@@ -34429,7 +34419,7 @@
         <v>6303001</v>
       </c>
       <c r="D410" s="40" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E410" s="4">
         <v>6</v>
@@ -34481,7 +34471,7 @@
         <v>500</v>
       </c>
       <c r="U410" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V410" s="4">
         <v>0</v>
@@ -34496,7 +34486,7 @@
         <v>0</v>
       </c>
       <c r="Z410" s="41" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="411" ht="20.1" customHeight="1" spans="3:26">
@@ -34504,7 +34494,7 @@
         <v>6303002</v>
       </c>
       <c r="D411" s="40" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E411" s="4">
         <v>6</v>
@@ -34555,7 +34545,7 @@
         <v>500</v>
       </c>
       <c r="U411" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V411" s="4">
         <v>0</v>
@@ -34570,7 +34560,7 @@
         <v>0</v>
       </c>
       <c r="Z411" s="41" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="412" ht="20.1" customHeight="1" spans="3:26">
@@ -34578,7 +34568,7 @@
         <v>6303003</v>
       </c>
       <c r="D412" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E412" s="4">
         <v>6</v>
@@ -34630,7 +34620,7 @@
         <v>500</v>
       </c>
       <c r="U412" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V412" s="4">
         <v>0</v>
@@ -34645,7 +34635,7 @@
         <v>0</v>
       </c>
       <c r="Z412" s="41" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="413" ht="20.1" customHeight="1" spans="3:26">
@@ -34653,7 +34643,7 @@
         <v>6304001</v>
       </c>
       <c r="D413" s="40" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E413" s="4">
         <v>6</v>
@@ -34705,7 +34695,7 @@
         <v>500</v>
       </c>
       <c r="U413" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V413" s="4">
         <v>0</v>
@@ -34720,7 +34710,7 @@
         <v>0</v>
       </c>
       <c r="Z413" s="41" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="414" ht="20.1" customHeight="1" spans="3:26">
@@ -34728,7 +34718,7 @@
         <v>6304002</v>
       </c>
       <c r="D414" s="40" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E414" s="4">
         <v>6</v>
@@ -34779,7 +34769,7 @@
         <v>500</v>
       </c>
       <c r="U414" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V414" s="4">
         <v>0</v>
@@ -34794,7 +34784,7 @@
         <v>0</v>
       </c>
       <c r="Z414" s="41" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="415" ht="20.1" customHeight="1" spans="3:26">
@@ -34802,7 +34792,7 @@
         <v>6304003</v>
       </c>
       <c r="D415" s="40" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E415" s="4">
         <v>6</v>
@@ -34853,7 +34843,7 @@
         <v>500</v>
       </c>
       <c r="U415" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V415" s="4">
         <v>0</v>
@@ -34868,7 +34858,7 @@
         <v>0</v>
       </c>
       <c r="Z415" s="41" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="416" ht="20.1" customHeight="1" spans="3:26">
@@ -34876,7 +34866,7 @@
         <v>6304004</v>
       </c>
       <c r="D416" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E416" s="4">
         <v>6</v>
@@ -34928,7 +34918,7 @@
         <v>500</v>
       </c>
       <c r="U416" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V416" s="4">
         <v>0</v>
@@ -34943,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="Z416" s="41" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="417" ht="20.1" customHeight="1" spans="3:26">
@@ -34951,7 +34941,7 @@
         <v>6305001</v>
       </c>
       <c r="D417" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E417" s="4">
         <v>6</v>
@@ -35003,7 +34993,7 @@
         <v>500</v>
       </c>
       <c r="U417" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V417" s="4">
         <v>0</v>
@@ -35018,7 +35008,7 @@
         <v>0</v>
       </c>
       <c r="Z417" s="41" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="418" ht="20.1" customHeight="1" spans="3:26">
@@ -35026,7 +35016,7 @@
         <v>6305002</v>
       </c>
       <c r="D418" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E418" s="4">
         <v>6</v>
@@ -35077,7 +35067,7 @@
         <v>500</v>
       </c>
       <c r="U418" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V418" s="4">
         <v>0</v>
@@ -35092,7 +35082,7 @@
         <v>0</v>
       </c>
       <c r="Z418" s="41" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="419" ht="20.1" customHeight="1" spans="3:26">
@@ -35100,7 +35090,7 @@
         <v>6305003</v>
       </c>
       <c r="D419" s="40" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E419" s="4">
         <v>6</v>
@@ -35151,7 +35141,7 @@
         <v>500</v>
       </c>
       <c r="U419" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V419" s="4">
         <v>0</v>
@@ -35166,7 +35156,7 @@
         <v>0</v>
       </c>
       <c r="Z419" s="41" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="420" ht="20.1" customHeight="1" spans="3:26">
@@ -35174,7 +35164,7 @@
         <v>6305004</v>
       </c>
       <c r="D420" s="40" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E420" s="4">
         <v>6</v>
@@ -35226,7 +35216,7 @@
         <v>500</v>
       </c>
       <c r="U420" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V420" s="4">
         <v>0</v>
@@ -35241,7 +35231,7 @@
         <v>0</v>
       </c>
       <c r="Z420" s="41" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="421" ht="20.1" customHeight="1" spans="3:26">
@@ -35249,7 +35239,7 @@
         <v>6306001</v>
       </c>
       <c r="D421" s="40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E421" s="4">
         <v>6</v>
@@ -35301,7 +35291,7 @@
         <v>500</v>
       </c>
       <c r="U421" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V421" s="4">
         <v>0</v>
@@ -35316,7 +35306,7 @@
         <v>0</v>
       </c>
       <c r="Z421" s="41" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="422" ht="20.1" customHeight="1" spans="3:26">
@@ -35324,7 +35314,7 @@
         <v>6306002</v>
       </c>
       <c r="D422" s="40" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E422" s="4">
         <v>6</v>
@@ -35375,7 +35365,7 @@
         <v>500</v>
       </c>
       <c r="U422" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V422" s="4">
         <v>0</v>
@@ -35390,7 +35380,7 @@
         <v>0</v>
       </c>
       <c r="Z422" s="41" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="423" ht="20.1" customHeight="1" spans="3:26">
@@ -35398,7 +35388,7 @@
         <v>6306003</v>
       </c>
       <c r="D423" s="40" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E423" s="4">
         <v>6</v>
@@ -35449,7 +35439,7 @@
         <v>500</v>
       </c>
       <c r="U423" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V423" s="4">
         <v>0</v>
@@ -35464,7 +35454,7 @@
         <v>0</v>
       </c>
       <c r="Z423" s="41" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="424" s="4" customFormat="1" ht="20.1" customHeight="1" spans="3:26">
@@ -35472,7 +35462,7 @@
         <v>7101001</v>
       </c>
       <c r="D424" s="40" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E424" s="4">
         <v>1</v>
@@ -35523,7 +35513,7 @@
         <v>0</v>
       </c>
       <c r="U424" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V424" s="4">
         <v>0</v>
@@ -35538,7 +35528,7 @@
         <v>0</v>
       </c>
       <c r="Z424" s="41" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="425" ht="20.1" customHeight="1" spans="3:26">
@@ -35546,7 +35536,7 @@
         <v>7101002</v>
       </c>
       <c r="D425" s="40" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E425" s="4">
         <v>1</v>
@@ -35597,7 +35587,7 @@
         <v>0</v>
       </c>
       <c r="U425" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V425" s="4">
         <v>0</v>
@@ -35612,7 +35602,7 @@
         <v>0</v>
       </c>
       <c r="Z425" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="426" ht="20.1" customHeight="1" spans="3:26">
@@ -35620,7 +35610,7 @@
         <v>7101003</v>
       </c>
       <c r="D426" s="40" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E426" s="4">
         <v>1</v>
@@ -35671,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="U426" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V426" s="4">
         <v>0</v>
@@ -35686,7 +35676,7 @@
         <v>0</v>
       </c>
       <c r="Z426" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="427" ht="20.1" customHeight="1" spans="3:26">
@@ -35694,7 +35684,7 @@
         <v>7101004</v>
       </c>
       <c r="D427" s="40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E427" s="4">
         <v>1</v>
@@ -35745,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="U427" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V427" s="4">
         <v>0</v>
@@ -35760,7 +35750,7 @@
         <v>0</v>
       </c>
       <c r="Z427" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="428" ht="20.1" customHeight="1" spans="3:26">
@@ -35768,7 +35758,7 @@
         <v>7102001</v>
       </c>
       <c r="D428" s="40" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E428" s="4">
         <v>1</v>
@@ -35820,7 +35810,7 @@
         <v>0</v>
       </c>
       <c r="U428" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V428" s="4">
         <v>0</v>
@@ -35835,7 +35825,7 @@
         <v>0</v>
       </c>
       <c r="Z428" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="429" ht="20.1" customHeight="1" spans="3:26">
@@ -35843,7 +35833,7 @@
         <v>7102002</v>
       </c>
       <c r="D429" s="40" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E429" s="4">
         <v>1</v>
@@ -35895,7 +35885,7 @@
         <v>0</v>
       </c>
       <c r="U429" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V429" s="4">
         <v>0</v>
@@ -35910,7 +35900,7 @@
         <v>0</v>
       </c>
       <c r="Z429" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="430" ht="20.1" customHeight="1" spans="3:26">
@@ -35918,7 +35908,7 @@
         <v>7102003</v>
       </c>
       <c r="D430" s="40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E430" s="4">
         <v>1</v>
@@ -35970,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="U430" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V430" s="4">
         <v>0</v>
@@ -35985,7 +35975,7 @@
         <v>0</v>
       </c>
       <c r="Z430" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="431" ht="20.1" customHeight="1" spans="3:26">
@@ -35993,7 +35983,7 @@
         <v>7102004</v>
       </c>
       <c r="D431" s="40" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E431" s="4">
         <v>1</v>
@@ -36045,7 +36035,7 @@
         <v>0</v>
       </c>
       <c r="U431" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V431" s="4">
         <v>0</v>
@@ -36060,7 +36050,7 @@
         <v>0</v>
       </c>
       <c r="Z431" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="432" ht="20.1" customHeight="1" spans="3:26">
@@ -36068,7 +36058,7 @@
         <v>7103001</v>
       </c>
       <c r="D432" s="40" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E432" s="4">
         <v>1</v>
@@ -36120,7 +36110,7 @@
         <v>0</v>
       </c>
       <c r="U432" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V432" s="4">
         <v>0</v>
@@ -36135,7 +36125,7 @@
         <v>0</v>
       </c>
       <c r="Z432" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="433" ht="20.1" customHeight="1" spans="3:26">
@@ -36143,7 +36133,7 @@
         <v>7103002</v>
       </c>
       <c r="D433" s="40" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E433" s="4">
         <v>1</v>
@@ -36195,7 +36185,7 @@
         <v>0</v>
       </c>
       <c r="U433" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V433" s="4">
         <v>0</v>
@@ -36210,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="Z433" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="434" ht="20.1" customHeight="1" spans="3:26">
@@ -36218,7 +36208,7 @@
         <v>7103003</v>
       </c>
       <c r="D434" s="40" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E434" s="4">
         <v>1</v>
@@ -36270,7 +36260,7 @@
         <v>0</v>
       </c>
       <c r="U434" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V434" s="4">
         <v>0</v>
@@ -36285,7 +36275,7 @@
         <v>0</v>
       </c>
       <c r="Z434" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="435" ht="20.1" customHeight="1" spans="3:26">
@@ -36293,7 +36283,7 @@
         <v>7103004</v>
       </c>
       <c r="D435" s="40" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E435" s="4">
         <v>1</v>
@@ -36345,7 +36335,7 @@
         <v>0</v>
       </c>
       <c r="U435" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V435" s="4">
         <v>0</v>
@@ -36360,7 +36350,7 @@
         <v>0</v>
       </c>
       <c r="Z435" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="436" ht="20.1" customHeight="1" spans="3:26">
@@ -36368,7 +36358,7 @@
         <v>7201001</v>
       </c>
       <c r="D436" s="36" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E436" s="4">
         <v>2</v>
@@ -36419,7 +36409,7 @@
         <v>200</v>
       </c>
       <c r="U436" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V436" s="4">
         <v>0</v>
@@ -36434,7 +36424,7 @@
         <v>0</v>
       </c>
       <c r="Z436" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="437" ht="20.1" customHeight="1" spans="3:26">
@@ -36442,7 +36432,7 @@
         <v>7201002</v>
       </c>
       <c r="D437" s="36" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E437" s="4">
         <v>2</v>
@@ -36493,7 +36483,7 @@
         <v>200</v>
       </c>
       <c r="U437" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V437" s="4">
         <v>0</v>
@@ -36508,7 +36498,7 @@
         <v>0</v>
       </c>
       <c r="Z437" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="438" ht="20.1" customHeight="1" spans="3:26">
@@ -36516,7 +36506,7 @@
         <v>7201003</v>
       </c>
       <c r="D438" s="36" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E438" s="4">
         <v>2</v>
@@ -36567,7 +36557,7 @@
         <v>200</v>
       </c>
       <c r="U438" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V438" s="4">
         <v>0</v>
@@ -36582,7 +36572,7 @@
         <v>0</v>
       </c>
       <c r="Z438" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="439" ht="20.1" customHeight="1" spans="3:26">
@@ -36590,7 +36580,7 @@
         <v>7201004</v>
       </c>
       <c r="D439" s="36" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E439" s="4">
         <v>2</v>
@@ -36641,7 +36631,7 @@
         <v>200</v>
       </c>
       <c r="U439" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V439" s="4">
         <v>0</v>
@@ -36656,7 +36646,7 @@
         <v>0</v>
       </c>
       <c r="Z439" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="440" ht="20.1" customHeight="1" spans="3:26">
@@ -36664,7 +36654,7 @@
         <v>7202001</v>
       </c>
       <c r="D440" s="36" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E440" s="4">
         <v>2</v>
@@ -36716,7 +36706,7 @@
         <v>350</v>
       </c>
       <c r="U440" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V440" s="4">
         <v>0</v>
@@ -36731,7 +36721,7 @@
         <v>0</v>
       </c>
       <c r="Z440" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="441" ht="20.1" customHeight="1" spans="3:26">
@@ -36739,7 +36729,7 @@
         <v>7202002</v>
       </c>
       <c r="D441" s="36" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E441" s="4">
         <v>2</v>
@@ -36791,7 +36781,7 @@
         <v>350</v>
       </c>
       <c r="U441" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V441" s="4">
         <v>0</v>
@@ -36806,7 +36796,7 @@
         <v>0</v>
       </c>
       <c r="Z441" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="442" ht="20.1" customHeight="1" spans="3:26">
@@ -36814,7 +36804,7 @@
         <v>7202003</v>
       </c>
       <c r="D442" s="36" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E442" s="4">
         <v>2</v>
@@ -36866,7 +36856,7 @@
         <v>350</v>
       </c>
       <c r="U442" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V442" s="4">
         <v>0</v>
@@ -36881,7 +36871,7 @@
         <v>0</v>
       </c>
       <c r="Z442" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="443" ht="20.1" customHeight="1" spans="3:26">
@@ -36889,7 +36879,7 @@
         <v>7202004</v>
       </c>
       <c r="D443" s="36" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E443" s="4">
         <v>2</v>
@@ -36941,7 +36931,7 @@
         <v>350</v>
       </c>
       <c r="U443" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V443" s="4">
         <v>0</v>
@@ -36956,7 +36946,7 @@
         <v>0</v>
       </c>
       <c r="Z443" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="444" ht="20.1" customHeight="1" spans="3:26">
@@ -36964,7 +36954,7 @@
         <v>7203001</v>
       </c>
       <c r="D444" s="36" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E444" s="4">
         <v>2</v>
@@ -37016,7 +37006,7 @@
         <v>500</v>
       </c>
       <c r="U444" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V444" s="4">
         <v>0</v>
@@ -37031,7 +37021,7 @@
         <v>0</v>
       </c>
       <c r="Z444" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="445" ht="20.1" customHeight="1" spans="3:26">
@@ -37039,7 +37029,7 @@
         <v>7203002</v>
       </c>
       <c r="D445" s="36" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E445" s="4">
         <v>2</v>
@@ -37091,7 +37081,7 @@
         <v>500</v>
       </c>
       <c r="U445" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V445" s="4">
         <v>0</v>
@@ -37106,7 +37096,7 @@
         <v>0</v>
       </c>
       <c r="Z445" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="446" ht="20.1" customHeight="1" spans="3:26">
@@ -37114,7 +37104,7 @@
         <v>7203003</v>
       </c>
       <c r="D446" s="36" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E446" s="4">
         <v>2</v>
@@ -37166,7 +37156,7 @@
         <v>500</v>
       </c>
       <c r="U446" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V446" s="4">
         <v>0</v>
@@ -37181,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="Z446" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="447" ht="20.1" customHeight="1" spans="3:26">
@@ -37189,7 +37179,7 @@
         <v>7203004</v>
       </c>
       <c r="D447" s="36" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E447" s="4">
         <v>2</v>
@@ -37241,7 +37231,7 @@
         <v>500</v>
       </c>
       <c r="U447" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V447" s="4">
         <v>0</v>
@@ -37256,7 +37246,7 @@
         <v>0</v>
       </c>
       <c r="Z447" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="448" ht="20.1" customHeight="1" spans="3:26">
@@ -37264,7 +37254,7 @@
         <v>7301001</v>
       </c>
       <c r="D448" s="36" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E448" s="4">
         <v>3</v>
@@ -37330,7 +37320,7 @@
         <v>0</v>
       </c>
       <c r="Z448" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="449" ht="20.1" customHeight="1" spans="3:26">
@@ -37338,7 +37328,7 @@
         <v>7301002</v>
       </c>
       <c r="D449" s="36" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E449" s="4">
         <v>3</v>
@@ -37404,7 +37394,7 @@
         <v>0</v>
       </c>
       <c r="Z449" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="450" ht="20.1" customHeight="1" spans="3:26">
@@ -37412,7 +37402,7 @@
         <v>7302001</v>
       </c>
       <c r="D450" s="36" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E450" s="4">
         <v>3</v>
@@ -37478,7 +37468,7 @@
         <v>0</v>
       </c>
       <c r="Z450" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="451" ht="20.1" customHeight="1" spans="3:26">
@@ -37486,7 +37476,7 @@
         <v>7302002</v>
       </c>
       <c r="D451" s="36" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E451" s="4">
         <v>3</v>
@@ -37552,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="Z451" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="452" ht="20.1" customHeight="1" spans="3:26">
@@ -37560,7 +37550,7 @@
         <v>7303001</v>
       </c>
       <c r="D452" s="36" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E452" s="4">
         <v>3</v>
@@ -37626,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="Z452" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="453" ht="20.1" customHeight="1" spans="3:26">
@@ -37634,7 +37624,7 @@
         <v>7303002</v>
       </c>
       <c r="D453" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E453" s="4">
         <v>3</v>
@@ -37700,7 +37690,7 @@
         <v>0</v>
       </c>
       <c r="Z453" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="454" ht="20.1" customHeight="1" spans="5:25">

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E50706A-82E9-49D3-8E41-3987034736E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFC4B92-EC18-492F-8FDB-CFEB0E70CF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30600" yWindow="2070" windowWidth="23730" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipMakeProto" sheetId="1" r:id="rId1"/>
@@ -3634,9 +3634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Z1102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W306" sqref="W306"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H450" sqref="H450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -11284,7 +11284,7 @@
         <v>3</v>
       </c>
       <c r="S107" s="30">
-        <f t="shared" ref="S107:S170" si="0">S73+100</f>
+        <f t="shared" ref="S107:S165" si="0">S73+100</f>
         <v>100</v>
       </c>
       <c r="T107" s="30">
@@ -16293,7 +16293,7 @@
         <v>3</v>
       </c>
       <c r="S174" s="30">
-        <f t="shared" ref="S171:S234" si="1">S140+100</f>
+        <f t="shared" ref="S174:S233" si="1">S140+100</f>
         <v>300</v>
       </c>
       <c r="T174" s="30">
@@ -36706,7 +36706,7 @@
       <c r="G448" s="4">
         <v>0</v>
       </c>
-      <c r="H448" s="5">
+      <c r="H448" s="4">
         <v>12</v>
       </c>
       <c r="I448" s="4">
@@ -36780,7 +36780,7 @@
       <c r="G449" s="4">
         <v>0</v>
       </c>
-      <c r="H449" s="5">
+      <c r="H449" s="4">
         <v>15</v>
       </c>
       <c r="I449" s="4">
@@ -36854,7 +36854,7 @@
       <c r="G450" s="4">
         <v>1</v>
       </c>
-      <c r="H450" s="5">
+      <c r="H450" s="4">
         <v>30</v>
       </c>
       <c r="I450" s="4">
@@ -36928,7 +36928,7 @@
       <c r="G451" s="4">
         <v>1</v>
       </c>
-      <c r="H451" s="5">
+      <c r="H451" s="4">
         <v>30</v>
       </c>
       <c r="I451" s="4">
@@ -37002,7 +37002,7 @@
       <c r="G452" s="4">
         <v>1</v>
       </c>
-      <c r="H452" s="5">
+      <c r="H452" s="4">
         <v>50</v>
       </c>
       <c r="I452" s="4">
@@ -37076,7 +37076,7 @@
       <c r="G453" s="4">
         <v>1</v>
       </c>
-      <c r="H453" s="5">
+      <c r="H453" s="4">
         <v>50</v>
       </c>
       <c r="I453" s="4">

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFC4B92-EC18-492F-8FDB-CFEB0E70CF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45E2EBE-EAFD-4029-9FA7-B9FD11167381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="2070" windowWidth="23730" windowHeight="12510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipMakeProto" sheetId="1" r:id="rId1"/>
@@ -1896,51 +1896,27 @@
     <t>传承:力量的召唤</t>
   </si>
   <si>
-    <t>10020001;200@10025010;200@15406002;1@10025008;20@10025009;10@10000143;6</t>
-  </si>
-  <si>
     <t>传承:圣焰之剑</t>
   </si>
   <si>
-    <t>10020001;200@10025010;200@15410002;1@10025008;20@10025009;10@10000143;6</t>
-  </si>
-  <si>
     <t>传承:远古王者之刃</t>
   </si>
   <si>
-    <t>10020001;200@10025010;200@15410004;1@10025008;20@10025009;10@10000143;6</t>
-  </si>
-  <si>
     <t>传承:天堂的权杖</t>
   </si>
   <si>
-    <t>10020001;200@10025010;200@15410102;1@10025008;20@10025009;10@10000143;6</t>
-  </si>
-  <si>
     <t>传承:时光能量魔法</t>
   </si>
   <si>
-    <t>10020001;200@10025010;200@15410104;1@10025008;20@10025009;10@10000143;6</t>
-  </si>
-  <si>
     <t>传承:噩梦裁决者</t>
   </si>
   <si>
-    <t>10020001;200@10025010;200@15411002;1@10025008;30@10025009;15@10000143;10</t>
-  </si>
-  <si>
     <t>传承:祝福者外衣</t>
   </si>
   <si>
-    <t>10020001;200@10025010;200@15411004;1@10025008;30@10025009;15@10000143;10</t>
-  </si>
-  <si>
     <t>传承:怒之烈焰</t>
   </si>
   <si>
-    <t>10020001;200@10025010;200@15411006;1@10025008;30@10025009;15@10000143;10</t>
-  </si>
-  <si>
     <t>初级治愈药水</t>
   </si>
   <si>
@@ -2959,6 +2935,30 @@
   </si>
   <si>
     <t>勇猛之石</t>
+  </si>
+  <si>
+    <t>10020001;200@10025010;200@15506002;1@10025008;20@10025009;10@10000143;6</t>
+  </si>
+  <si>
+    <t>10020001;200@10025010;200@15510002;1@10025008;20@10025009;10@10000143;6</t>
+  </si>
+  <si>
+    <t>10020001;200@10025010;200@15510004;1@10025008;20@10025009;10@10000143;6</t>
+  </si>
+  <si>
+    <t>10020001;200@10025010;200@15510102;1@10025008;20@10025009;10@10000143;6</t>
+  </si>
+  <si>
+    <t>10020001;200@10025010;200@15510104;1@10025008;20@10025009;10@10000143;6</t>
+  </si>
+  <si>
+    <t>10020001;200@10025010;200@15511002;1@10025008;30@10025009;15@10000143;10</t>
+  </si>
+  <si>
+    <t>10020001;200@10025010;200@15511004;1@10025008;30@10025009;15@10000143;10</t>
+  </si>
+  <si>
+    <t>10020001;200@10025010;200@15511006;1@10025008;30@10025009;15@10000143;10</t>
   </si>
 </sst>
 </file>
@@ -3634,9 +3634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Z1102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A445" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H450" sqref="H450"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y237" sqref="Y237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -20833,7 +20833,7 @@
         <v>0</v>
       </c>
       <c r="Z234" s="34" t="s">
-        <v>433</v>
+        <v>780</v>
       </c>
     </row>
     <row r="235" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20841,7 +20841,7 @@
         <v>100552</v>
       </c>
       <c r="D235" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E235" s="28">
         <v>5</v>
@@ -20908,7 +20908,7 @@
         <v>0</v>
       </c>
       <c r="Z235" s="34" t="s">
-        <v>435</v>
+        <v>781</v>
       </c>
     </row>
     <row r="236" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20916,7 +20916,7 @@
         <v>100553</v>
       </c>
       <c r="D236" s="27" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E236" s="28">
         <v>5</v>
@@ -20983,7 +20983,7 @@
         <v>0</v>
       </c>
       <c r="Z236" s="35" t="s">
-        <v>437</v>
+        <v>782</v>
       </c>
     </row>
     <row r="237" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20991,7 +20991,7 @@
         <v>100554</v>
       </c>
       <c r="D237" s="27" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E237" s="28">
         <v>5</v>
@@ -21058,7 +21058,7 @@
         <v>0</v>
       </c>
       <c r="Z237" s="35" t="s">
-        <v>439</v>
+        <v>783</v>
       </c>
     </row>
     <row r="238" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21066,7 +21066,7 @@
         <v>100555</v>
       </c>
       <c r="D238" s="27" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E238" s="28">
         <v>5</v>
@@ -21133,7 +21133,7 @@
         <v>0</v>
       </c>
       <c r="Z238" s="35" t="s">
-        <v>441</v>
+        <v>784</v>
       </c>
     </row>
     <row r="239" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21141,7 +21141,7 @@
         <v>100556</v>
       </c>
       <c r="D239" s="27" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E239" s="28">
         <v>5</v>
@@ -21208,7 +21208,7 @@
         <v>0</v>
       </c>
       <c r="Z239" s="35" t="s">
-        <v>443</v>
+        <v>785</v>
       </c>
     </row>
     <row r="240" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21216,7 +21216,7 @@
         <v>100557</v>
       </c>
       <c r="D240" s="27" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E240" s="28">
         <v>5</v>
@@ -21283,7 +21283,7 @@
         <v>0</v>
       </c>
       <c r="Z240" s="35" t="s">
-        <v>445</v>
+        <v>786</v>
       </c>
     </row>
     <row r="241" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21291,7 +21291,7 @@
         <v>100558</v>
       </c>
       <c r="D241" s="27" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E241" s="28">
         <v>5</v>
@@ -21358,7 +21358,7 @@
         <v>0</v>
       </c>
       <c r="Z241" s="35" t="s">
-        <v>447</v>
+        <v>787</v>
       </c>
     </row>
     <row r="242" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21366,7 +21366,7 @@
         <v>200001</v>
       </c>
       <c r="D242" s="29" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="E242" s="22">
         <v>3</v>
@@ -21417,7 +21417,7 @@
         <v>75</v>
       </c>
       <c r="U242" s="18" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="V242" s="30">
         <v>1</v>
@@ -21432,7 +21432,7 @@
         <v>0</v>
       </c>
       <c r="Z242" s="34" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="243" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21440,7 +21440,7 @@
         <v>200002</v>
       </c>
       <c r="D243" s="29" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E243" s="22">
         <v>3</v>
@@ -21491,7 +21491,7 @@
         <v>120</v>
       </c>
       <c r="U243" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V243" s="30">
         <v>1</v>
@@ -21506,7 +21506,7 @@
         <v>0</v>
       </c>
       <c r="Z243" s="34" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="244" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21514,7 +21514,7 @@
         <v>200003</v>
       </c>
       <c r="D244" s="29" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E244" s="22">
         <v>3</v>
@@ -21565,7 +21565,7 @@
         <v>120</v>
       </c>
       <c r="U244" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V244" s="30">
         <v>1</v>
@@ -21580,7 +21580,7 @@
         <v>0</v>
       </c>
       <c r="Z244" s="34" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="245" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21588,7 +21588,7 @@
         <v>200004</v>
       </c>
       <c r="D245" s="29" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E245" s="22">
         <v>3</v>
@@ -21639,7 +21639,7 @@
         <v>120</v>
       </c>
       <c r="U245" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V245" s="30">
         <v>1</v>
@@ -21654,7 +21654,7 @@
         <v>0</v>
       </c>
       <c r="Z245" s="34" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="246" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21662,7 +21662,7 @@
         <v>200005</v>
       </c>
       <c r="D246" s="29" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E246" s="22">
         <v>3</v>
@@ -21713,7 +21713,7 @@
         <v>120</v>
       </c>
       <c r="U246" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V246" s="30">
         <v>1</v>
@@ -21728,7 +21728,7 @@
         <v>0</v>
       </c>
       <c r="Z246" s="34" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="247" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21736,7 +21736,7 @@
         <v>200006</v>
       </c>
       <c r="D247" s="29" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="E247" s="22">
         <v>3</v>
@@ -21787,7 +21787,7 @@
         <v>120</v>
       </c>
       <c r="U247" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V247" s="30">
         <v>1</v>
@@ -21802,7 +21802,7 @@
         <v>0</v>
       </c>
       <c r="Z247" s="34" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="248" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21810,7 +21810,7 @@
         <v>200007</v>
       </c>
       <c r="D248" s="29" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E248" s="22">
         <v>3</v>
@@ -21861,7 +21861,7 @@
         <v>200</v>
       </c>
       <c r="U248" s="18" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="V248" s="30">
         <v>1</v>
@@ -21876,7 +21876,7 @@
         <v>0</v>
       </c>
       <c r="Z248" s="34" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="249" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21884,7 +21884,7 @@
         <v>200008</v>
       </c>
       <c r="D249" s="29" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E249" s="22">
         <v>3</v>
@@ -21935,7 +21935,7 @@
         <v>220</v>
       </c>
       <c r="U249" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V249" s="30">
         <v>1</v>
@@ -21950,7 +21950,7 @@
         <v>0</v>
       </c>
       <c r="Z249" s="34" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="250" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21958,7 +21958,7 @@
         <v>200009</v>
       </c>
       <c r="D250" s="29" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E250" s="22">
         <v>3</v>
@@ -22009,7 +22009,7 @@
         <v>220</v>
       </c>
       <c r="U250" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V250" s="30">
         <v>1</v>
@@ -22024,7 +22024,7 @@
         <v>0</v>
       </c>
       <c r="Z250" s="34" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="251" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22032,7 +22032,7 @@
         <v>200010</v>
       </c>
       <c r="D251" s="29" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E251" s="22">
         <v>3</v>
@@ -22083,7 +22083,7 @@
         <v>220</v>
       </c>
       <c r="U251" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V251" s="30">
         <v>1</v>
@@ -22098,7 +22098,7 @@
         <v>0</v>
       </c>
       <c r="Z251" s="34" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="252" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22106,7 +22106,7 @@
         <v>200011</v>
       </c>
       <c r="D252" s="29" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E252" s="22">
         <v>3</v>
@@ -22157,7 +22157,7 @@
         <v>220</v>
       </c>
       <c r="U252" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V252" s="30">
         <v>1</v>
@@ -22172,7 +22172,7 @@
         <v>0</v>
       </c>
       <c r="Z252" s="34" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="253" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22180,7 +22180,7 @@
         <v>200012</v>
       </c>
       <c r="D253" s="29" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="E253" s="22">
         <v>3</v>
@@ -22231,7 +22231,7 @@
         <v>220</v>
       </c>
       <c r="U253" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V253" s="30">
         <v>1</v>
@@ -22246,7 +22246,7 @@
         <v>0</v>
       </c>
       <c r="Z253" s="34" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="254" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22254,7 +22254,7 @@
         <v>200013</v>
       </c>
       <c r="D254" s="29" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E254" s="22">
         <v>3</v>
@@ -22305,7 +22305,7 @@
         <v>275</v>
       </c>
       <c r="U254" s="18" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="V254" s="30">
         <v>1</v>
@@ -22320,7 +22320,7 @@
         <v>0</v>
       </c>
       <c r="Z254" s="34" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="255" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22328,7 +22328,7 @@
         <v>200014</v>
       </c>
       <c r="D255" s="29" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E255" s="22">
         <v>3</v>
@@ -22380,7 +22380,7 @@
         <v>320</v>
       </c>
       <c r="U255" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V255" s="30">
         <v>1</v>
@@ -22395,7 +22395,7 @@
         <v>0</v>
       </c>
       <c r="Z255" s="34" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="256" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22403,7 +22403,7 @@
         <v>200015</v>
       </c>
       <c r="D256" s="29" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E256" s="22">
         <v>3</v>
@@ -22455,7 +22455,7 @@
         <v>320</v>
       </c>
       <c r="U256" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V256" s="30">
         <v>1</v>
@@ -22470,7 +22470,7 @@
         <v>0</v>
       </c>
       <c r="Z256" s="34" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="257" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22478,7 +22478,7 @@
         <v>200016</v>
       </c>
       <c r="D257" s="29" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E257" s="22">
         <v>3</v>
@@ -22530,7 +22530,7 @@
         <v>320</v>
       </c>
       <c r="U257" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V257" s="30">
         <v>1</v>
@@ -22545,7 +22545,7 @@
         <v>0</v>
       </c>
       <c r="Z257" s="34" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="258" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22553,7 +22553,7 @@
         <v>200017</v>
       </c>
       <c r="D258" s="29" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E258" s="22">
         <v>3</v>
@@ -22605,7 +22605,7 @@
         <v>320</v>
       </c>
       <c r="U258" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V258" s="30">
         <v>1</v>
@@ -22620,7 +22620,7 @@
         <v>0</v>
       </c>
       <c r="Z258" s="34" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="259" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22628,7 +22628,7 @@
         <v>200018</v>
       </c>
       <c r="D259" s="29" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="E259" s="22">
         <v>3</v>
@@ -22680,7 +22680,7 @@
         <v>320</v>
       </c>
       <c r="U259" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V259" s="30">
         <v>1</v>
@@ -22695,7 +22695,7 @@
         <v>0</v>
       </c>
       <c r="Z259" s="34" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="260" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22703,7 +22703,7 @@
         <v>200019</v>
       </c>
       <c r="D260" s="29" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E260" s="22">
         <v>3</v>
@@ -22755,7 +22755,7 @@
         <v>375</v>
       </c>
       <c r="U260" s="18" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="V260" s="30">
         <v>1</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="Z260" s="34" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="261" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22778,7 +22778,7 @@
         <v>200020</v>
       </c>
       <c r="D261" s="29" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E261" s="22">
         <v>3</v>
@@ -22830,7 +22830,7 @@
         <v>420</v>
       </c>
       <c r="U261" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V261" s="30">
         <v>1</v>
@@ -22845,7 +22845,7 @@
         <v>0</v>
       </c>
       <c r="Z261" s="34" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="262" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22853,7 +22853,7 @@
         <v>200021</v>
       </c>
       <c r="D262" s="29" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E262" s="22">
         <v>3</v>
@@ -22905,7 +22905,7 @@
         <v>420</v>
       </c>
       <c r="U262" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V262" s="30">
         <v>1</v>
@@ -22920,7 +22920,7 @@
         <v>0</v>
       </c>
       <c r="Z262" s="34" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="263" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22928,7 +22928,7 @@
         <v>200022</v>
       </c>
       <c r="D263" s="29" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E263" s="22">
         <v>3</v>
@@ -22980,7 +22980,7 @@
         <v>420</v>
       </c>
       <c r="U263" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V263" s="30">
         <v>1</v>
@@ -22995,7 +22995,7 @@
         <v>0</v>
       </c>
       <c r="Z263" s="34" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="264" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23003,7 +23003,7 @@
         <v>200023</v>
       </c>
       <c r="D264" s="29" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E264" s="22">
         <v>3</v>
@@ -23055,7 +23055,7 @@
         <v>420</v>
       </c>
       <c r="U264" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V264" s="30">
         <v>1</v>
@@ -23070,7 +23070,7 @@
         <v>0</v>
       </c>
       <c r="Z264" s="34" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="265" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23078,7 +23078,7 @@
         <v>200024</v>
       </c>
       <c r="D265" s="29" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E265" s="22">
         <v>3</v>
@@ -23130,7 +23130,7 @@
         <v>420</v>
       </c>
       <c r="U265" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V265" s="30">
         <v>1</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="Z265" s="34" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="266" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23153,7 +23153,7 @@
         <v>200025</v>
       </c>
       <c r="D266" s="29" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="E266" s="22">
         <v>3</v>
@@ -23205,7 +23205,7 @@
         <v>450</v>
       </c>
       <c r="U266" s="18" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="V266" s="30">
         <v>1</v>
@@ -23220,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="Z266" s="34" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="267" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23228,7 +23228,7 @@
         <v>200026</v>
       </c>
       <c r="D267" s="29" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E267" s="22">
         <v>3</v>
@@ -23280,7 +23280,7 @@
         <v>500</v>
       </c>
       <c r="U267" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V267" s="30">
         <v>1</v>
@@ -23295,7 +23295,7 @@
         <v>0</v>
       </c>
       <c r="Z267" s="34" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="268" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23303,7 +23303,7 @@
         <v>200027</v>
       </c>
       <c r="D268" s="29" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="E268" s="22">
         <v>3</v>
@@ -23355,7 +23355,7 @@
         <v>500</v>
       </c>
       <c r="U268" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V268" s="30">
         <v>1</v>
@@ -23370,7 +23370,7 @@
         <v>0</v>
       </c>
       <c r="Z268" s="34" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="269" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23378,7 +23378,7 @@
         <v>200028</v>
       </c>
       <c r="D269" s="29" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="E269" s="22">
         <v>3</v>
@@ -23430,7 +23430,7 @@
         <v>500</v>
       </c>
       <c r="U269" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V269" s="30">
         <v>1</v>
@@ -23445,7 +23445,7 @@
         <v>0</v>
       </c>
       <c r="Z269" s="34" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="270" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23453,7 +23453,7 @@
         <v>200029</v>
       </c>
       <c r="D270" s="29" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E270" s="22">
         <v>3</v>
@@ -23505,7 +23505,7 @@
         <v>500</v>
       </c>
       <c r="U270" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V270" s="30">
         <v>1</v>
@@ -23520,7 +23520,7 @@
         <v>0</v>
       </c>
       <c r="Z270" s="34" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="271" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23528,7 +23528,7 @@
         <v>200030</v>
       </c>
       <c r="D271" s="29" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="E271" s="22">
         <v>3</v>
@@ -23580,7 +23580,7 @@
         <v>500</v>
       </c>
       <c r="U271" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V271" s="30">
         <v>1</v>
@@ -23595,7 +23595,7 @@
         <v>0</v>
       </c>
       <c r="Z271" s="34" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="272" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23603,7 +23603,7 @@
         <v>200101</v>
       </c>
       <c r="D272" s="36" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="E272" s="22">
         <v>3</v>
@@ -23654,7 +23654,7 @@
         <v>120</v>
       </c>
       <c r="U272" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V272" s="30">
         <v>1</v>
@@ -23669,7 +23669,7 @@
         <v>0</v>
       </c>
       <c r="Z272" s="34" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="273" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23677,7 +23677,7 @@
         <v>200102</v>
       </c>
       <c r="D273" s="36" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="E273" s="22">
         <v>3</v>
@@ -23728,7 +23728,7 @@
         <v>120</v>
       </c>
       <c r="U273" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V273" s="30">
         <v>1</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="Z273" s="34" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="274" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23751,7 +23751,7 @@
         <v>200103</v>
       </c>
       <c r="D274" s="36" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="E274" s="22">
         <v>3</v>
@@ -23802,7 +23802,7 @@
         <v>120</v>
       </c>
       <c r="U274" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V274" s="30">
         <v>1</v>
@@ -23817,7 +23817,7 @@
         <v>0</v>
       </c>
       <c r="Z274" s="34" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="275" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23825,7 +23825,7 @@
         <v>200104</v>
       </c>
       <c r="D275" s="36" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E275" s="22">
         <v>3</v>
@@ -23876,7 +23876,7 @@
         <v>120</v>
       </c>
       <c r="U275" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V275" s="30">
         <v>1</v>
@@ -23891,7 +23891,7 @@
         <v>0</v>
       </c>
       <c r="Z275" s="34" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="276" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23899,7 +23899,7 @@
         <v>200105</v>
       </c>
       <c r="D276" s="36" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="E276" s="22">
         <v>3</v>
@@ -23950,7 +23950,7 @@
         <v>120</v>
       </c>
       <c r="U276" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V276" s="30">
         <v>1</v>
@@ -23965,7 +23965,7 @@
         <v>0</v>
       </c>
       <c r="Z276" s="34" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="277" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23974,7 +23974,7 @@
         <v>200201</v>
       </c>
       <c r="D277" s="24" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="E277" s="22">
         <v>3</v>
@@ -24025,7 +24025,7 @@
         <v>220</v>
       </c>
       <c r="U277" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V277" s="30">
         <v>1</v>
@@ -24040,7 +24040,7 @@
         <v>0</v>
       </c>
       <c r="Z277" s="34" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="278" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24049,7 +24049,7 @@
         <v>200202</v>
       </c>
       <c r="D278" s="24" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="E278" s="22">
         <v>3</v>
@@ -24100,7 +24100,7 @@
         <v>220</v>
       </c>
       <c r="U278" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V278" s="30">
         <v>1</v>
@@ -24115,7 +24115,7 @@
         <v>0</v>
       </c>
       <c r="Z278" s="34" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="279" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24124,7 +24124,7 @@
         <v>200203</v>
       </c>
       <c r="D279" s="24" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="E279" s="22">
         <v>3</v>
@@ -24175,7 +24175,7 @@
         <v>220</v>
       </c>
       <c r="U279" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V279" s="30">
         <v>1</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="Z279" s="34" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="280" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24199,7 +24199,7 @@
         <v>200204</v>
       </c>
       <c r="D280" s="24" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E280" s="22">
         <v>3</v>
@@ -24250,7 +24250,7 @@
         <v>220</v>
       </c>
       <c r="U280" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V280" s="30">
         <v>1</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="Z280" s="34" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="281" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24274,7 +24274,7 @@
         <v>200205</v>
       </c>
       <c r="D281" s="24" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="E281" s="22">
         <v>3</v>
@@ -24325,7 +24325,7 @@
         <v>220</v>
       </c>
       <c r="U281" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V281" s="30">
         <v>1</v>
@@ -24340,7 +24340,7 @@
         <v>0</v>
       </c>
       <c r="Z281" s="34" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="282" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24349,7 +24349,7 @@
         <v>200301</v>
       </c>
       <c r="D282" s="36" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="E282" s="22">
         <v>3</v>
@@ -24400,7 +24400,7 @@
         <v>320</v>
       </c>
       <c r="U282" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V282" s="30">
         <v>1</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="Z282" s="34" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="283" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24424,7 +24424,7 @@
         <v>200302</v>
       </c>
       <c r="D283" s="36" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E283" s="22">
         <v>3</v>
@@ -24475,7 +24475,7 @@
         <v>320</v>
       </c>
       <c r="U283" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V283" s="30">
         <v>1</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="Z283" s="34" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="284" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24499,7 +24499,7 @@
         <v>200303</v>
       </c>
       <c r="D284" s="36" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="E284" s="22">
         <v>3</v>
@@ -24550,7 +24550,7 @@
         <v>320</v>
       </c>
       <c r="U284" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V284" s="30">
         <v>1</v>
@@ -24565,7 +24565,7 @@
         <v>0</v>
       </c>
       <c r="Z284" s="34" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="285" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24574,7 +24574,7 @@
         <v>200304</v>
       </c>
       <c r="D285" s="36" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="E285" s="22">
         <v>3</v>
@@ -24625,7 +24625,7 @@
         <v>320</v>
       </c>
       <c r="U285" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V285" s="30">
         <v>1</v>
@@ -24640,7 +24640,7 @@
         <v>0</v>
       </c>
       <c r="Z285" s="34" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="286" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24649,7 +24649,7 @@
         <v>200305</v>
       </c>
       <c r="D286" s="36" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="E286" s="22">
         <v>3</v>
@@ -24700,7 +24700,7 @@
         <v>320</v>
       </c>
       <c r="U286" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V286" s="30">
         <v>1</v>
@@ -24715,7 +24715,7 @@
         <v>0</v>
       </c>
       <c r="Z286" s="34" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="287" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24724,7 +24724,7 @@
         <v>200401</v>
       </c>
       <c r="D287" s="36" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="E287" s="22">
         <v>3</v>
@@ -24775,7 +24775,7 @@
         <v>420</v>
       </c>
       <c r="U287" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V287" s="30">
         <v>1</v>
@@ -24790,7 +24790,7 @@
         <v>0</v>
       </c>
       <c r="Z287" s="34" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="288" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24799,7 +24799,7 @@
         <v>200402</v>
       </c>
       <c r="D288" s="36" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E288" s="22">
         <v>3</v>
@@ -24850,7 +24850,7 @@
         <v>420</v>
       </c>
       <c r="U288" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V288" s="30">
         <v>1</v>
@@ -24865,7 +24865,7 @@
         <v>0</v>
       </c>
       <c r="Z288" s="34" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="289" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24874,7 +24874,7 @@
         <v>200403</v>
       </c>
       <c r="D289" s="36" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="E289" s="22">
         <v>3</v>
@@ -24925,7 +24925,7 @@
         <v>420</v>
       </c>
       <c r="U289" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V289" s="30">
         <v>1</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="Z289" s="34" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="290" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24949,7 +24949,7 @@
         <v>200404</v>
       </c>
       <c r="D290" s="36" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="E290" s="22">
         <v>3</v>
@@ -25000,7 +25000,7 @@
         <v>420</v>
       </c>
       <c r="U290" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V290" s="30">
         <v>1</v>
@@ -25015,7 +25015,7 @@
         <v>0</v>
       </c>
       <c r="Z290" s="34" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="291" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25024,7 +25024,7 @@
         <v>200405</v>
       </c>
       <c r="D291" s="36" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="E291" s="22">
         <v>3</v>
@@ -25075,7 +25075,7 @@
         <v>420</v>
       </c>
       <c r="U291" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V291" s="30">
         <v>1</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="Z291" s="34" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="292" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25099,7 +25099,7 @@
         <v>200501</v>
       </c>
       <c r="D292" s="36" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="E292" s="22">
         <v>3</v>
@@ -25150,7 +25150,7 @@
         <v>500</v>
       </c>
       <c r="U292" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V292" s="30">
         <v>1</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="Z292" s="34" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="293" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25174,7 +25174,7 @@
         <v>200502</v>
       </c>
       <c r="D293" s="36" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="E293" s="22">
         <v>3</v>
@@ -25225,7 +25225,7 @@
         <v>500</v>
       </c>
       <c r="U293" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V293" s="30">
         <v>1</v>
@@ -25240,7 +25240,7 @@
         <v>0</v>
       </c>
       <c r="Z293" s="34" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="294" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25249,7 +25249,7 @@
         <v>200503</v>
       </c>
       <c r="D294" s="36" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="E294" s="22">
         <v>3</v>
@@ -25300,7 +25300,7 @@
         <v>500</v>
       </c>
       <c r="U294" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V294" s="30">
         <v>1</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="Z294" s="34" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="295" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25324,7 +25324,7 @@
         <v>200504</v>
       </c>
       <c r="D295" s="36" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="E295" s="22">
         <v>3</v>
@@ -25375,7 +25375,7 @@
         <v>500</v>
       </c>
       <c r="U295" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V295" s="30">
         <v>1</v>
@@ -25390,7 +25390,7 @@
         <v>0</v>
       </c>
       <c r="Z295" s="34" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="296" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25399,7 +25399,7 @@
         <v>200505</v>
       </c>
       <c r="D296" s="36" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="E296" s="22">
         <v>3</v>
@@ -25450,7 +25450,7 @@
         <v>500</v>
       </c>
       <c r="U296" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V296" s="30">
         <v>1</v>
@@ -25465,7 +25465,7 @@
         <v>0</v>
       </c>
       <c r="Z296" s="34" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="297" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25473,7 +25473,7 @@
         <v>201001</v>
       </c>
       <c r="D297" s="36" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="E297" s="22">
         <v>3</v>
@@ -25524,7 +25524,7 @@
         <v>200</v>
       </c>
       <c r="U297" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V297" s="30">
         <v>1</v>
@@ -25539,7 +25539,7 @@
         <v>0</v>
       </c>
       <c r="Z297" s="34" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="298" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25547,7 +25547,7 @@
         <v>201002</v>
       </c>
       <c r="D298" s="36" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="E298" s="22">
         <v>3</v>
@@ -25598,7 +25598,7 @@
         <v>200</v>
       </c>
       <c r="U298" s="18" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="V298" s="30">
         <v>1</v>
@@ -25613,7 +25613,7 @@
         <v>0</v>
       </c>
       <c r="Z298" s="34" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="299" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25621,7 +25621,7 @@
         <v>300001</v>
       </c>
       <c r="D299" s="29" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="E299" s="22">
         <v>1</v>
@@ -25672,7 +25672,7 @@
         <v>200</v>
       </c>
       <c r="U299" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V299" s="30">
         <v>1</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="Z299" s="34" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="300" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25695,7 +25695,7 @@
         <v>300002</v>
       </c>
       <c r="D300" s="29" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E300" s="22">
         <v>1</v>
@@ -25746,7 +25746,7 @@
         <v>200</v>
       </c>
       <c r="U300" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V300" s="30">
         <v>1</v>
@@ -25761,7 +25761,7 @@
         <v>0</v>
       </c>
       <c r="Z300" s="34" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="301" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25769,7 +25769,7 @@
         <v>300003</v>
       </c>
       <c r="D301" s="29" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="E301" s="22">
         <v>1</v>
@@ -25820,7 +25820,7 @@
         <v>200</v>
       </c>
       <c r="U301" s="18" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V301" s="30">
         <v>1</v>
@@ -25835,7 +25835,7 @@
         <v>0</v>
       </c>
       <c r="Z301" s="34" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="302" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25843,7 +25843,7 @@
         <v>4000101</v>
       </c>
       <c r="D302" s="37" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E302" s="22">
         <v>4</v>
@@ -25909,7 +25909,7 @@
         <v>2500</v>
       </c>
       <c r="Z302" s="2" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="303" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25917,7 +25917,7 @@
         <v>4000102</v>
       </c>
       <c r="D303" s="37" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E303" s="22">
         <v>4</v>
@@ -25983,7 +25983,7 @@
         <v>3500</v>
       </c>
       <c r="Z303" s="2" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="304" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -25991,7 +25991,7 @@
         <v>4000103</v>
       </c>
       <c r="D304" s="37" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="E304" s="22">
         <v>4</v>
@@ -26057,7 +26057,7 @@
         <v>5000</v>
       </c>
       <c r="Z304" s="2" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="305" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -26065,7 +26065,7 @@
         <v>4000104</v>
       </c>
       <c r="D305" s="37" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E305" s="22">
         <v>4</v>
@@ -26131,7 +26131,7 @@
         <v>7500</v>
       </c>
       <c r="Z305" s="2" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="306" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -26139,7 +26139,7 @@
         <v>4000105</v>
       </c>
       <c r="D306" s="37" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="E306" s="22">
         <v>4</v>
@@ -26205,7 +26205,7 @@
         <v>10000</v>
       </c>
       <c r="Z306" s="2" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="307" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -26213,7 +26213,7 @@
         <v>4000106</v>
       </c>
       <c r="D307" s="37" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E307" s="22">
         <v>4</v>
@@ -26279,7 +26279,7 @@
         <v>20000</v>
       </c>
       <c r="Z307" s="2" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="308" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -26287,7 +26287,7 @@
         <v>4000107</v>
       </c>
       <c r="D308" s="37" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="E308" s="22">
         <v>4</v>
@@ -26353,7 +26353,7 @@
         <v>30000</v>
       </c>
       <c r="Z308" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="309" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -26361,7 +26361,7 @@
         <v>4000108</v>
       </c>
       <c r="D309" s="37" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E309" s="22">
         <v>4</v>
@@ -26427,7 +26427,7 @@
         <v>40000</v>
       </c>
       <c r="Z309" s="2" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="310" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -26435,7 +26435,7 @@
         <v>4000109</v>
       </c>
       <c r="D310" s="37" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="E310" s="22">
         <v>4</v>
@@ -26501,7 +26501,7 @@
         <v>50000</v>
       </c>
       <c r="Z310" s="2" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="311" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -26509,7 +26509,7 @@
         <v>4000201</v>
       </c>
       <c r="D311" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="E311" s="22">
         <v>4</v>
@@ -26575,7 +26575,7 @@
         <v>2500</v>
       </c>
       <c r="Z311" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="312" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -26583,7 +26583,7 @@
         <v>4000202</v>
       </c>
       <c r="D312" s="37" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="E312" s="22">
         <v>4</v>
@@ -26649,7 +26649,7 @@
         <v>3500</v>
       </c>
       <c r="Z312" s="2" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="313" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -26657,7 +26657,7 @@
         <v>4000203</v>
       </c>
       <c r="D313" s="37" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="E313" s="22">
         <v>4</v>
@@ -26723,7 +26723,7 @@
         <v>5000</v>
       </c>
       <c r="Z313" s="2" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="314" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -26731,7 +26731,7 @@
         <v>4000204</v>
       </c>
       <c r="D314" s="37" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E314" s="22">
         <v>4</v>
@@ -26797,7 +26797,7 @@
         <v>7500</v>
       </c>
       <c r="Z314" s="2" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="315" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -26805,7 +26805,7 @@
         <v>4000205</v>
       </c>
       <c r="D315" s="37" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E315" s="22">
         <v>4</v>
@@ -26871,7 +26871,7 @@
         <v>10000</v>
       </c>
       <c r="Z315" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="316" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -26879,7 +26879,7 @@
         <v>4000206</v>
       </c>
       <c r="D316" s="37" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="E316" s="22">
         <v>4</v>
@@ -26945,7 +26945,7 @@
         <v>20000</v>
       </c>
       <c r="Z316" s="2" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="317" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -26953,7 +26953,7 @@
         <v>4000207</v>
       </c>
       <c r="D317" s="37" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="E317" s="22">
         <v>4</v>
@@ -27019,7 +27019,7 @@
         <v>30000</v>
       </c>
       <c r="Z317" s="5" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="318" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -27027,7 +27027,7 @@
         <v>4000208</v>
       </c>
       <c r="D318" s="37" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="E318" s="22">
         <v>4</v>
@@ -27093,7 +27093,7 @@
         <v>40000</v>
       </c>
       <c r="Z318" s="5" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="319" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -27101,7 +27101,7 @@
         <v>4000209</v>
       </c>
       <c r="D319" s="37" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="E319" s="22">
         <v>4</v>
@@ -27167,7 +27167,7 @@
         <v>50000</v>
       </c>
       <c r="Z319" s="5" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="320" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -27175,7 +27175,7 @@
         <v>4000301</v>
       </c>
       <c r="D320" s="37" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="E320" s="22">
         <v>4</v>
@@ -27241,7 +27241,7 @@
         <v>2500</v>
       </c>
       <c r="Z320" s="5" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="321" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -27249,7 +27249,7 @@
         <v>4000302</v>
       </c>
       <c r="D321" s="37" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="E321" s="22">
         <v>4</v>
@@ -27315,7 +27315,7 @@
         <v>3500</v>
       </c>
       <c r="Z321" s="5" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="322" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -27323,7 +27323,7 @@
         <v>4000303</v>
       </c>
       <c r="D322" s="37" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="E322" s="22">
         <v>4</v>
@@ -27389,7 +27389,7 @@
         <v>5000</v>
       </c>
       <c r="Z322" s="5" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="323" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -27397,7 +27397,7 @@
         <v>4000304</v>
       </c>
       <c r="D323" s="37" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="E323" s="22">
         <v>4</v>
@@ -27463,7 +27463,7 @@
         <v>7500</v>
       </c>
       <c r="Z323" s="5" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="324" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -27471,7 +27471,7 @@
         <v>4000305</v>
       </c>
       <c r="D324" s="37" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="E324" s="22">
         <v>4</v>
@@ -27537,7 +27537,7 @@
         <v>10000</v>
       </c>
       <c r="Z324" s="5" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="325" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -27545,7 +27545,7 @@
         <v>4000306</v>
       </c>
       <c r="D325" s="37" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="E325" s="22">
         <v>4</v>
@@ -27611,7 +27611,7 @@
         <v>20000</v>
       </c>
       <c r="Z325" s="5" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="326" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -27619,7 +27619,7 @@
         <v>4000307</v>
       </c>
       <c r="D326" s="37" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E326" s="22">
         <v>4</v>
@@ -27685,7 +27685,7 @@
         <v>30000</v>
       </c>
       <c r="Z326" s="5" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="327" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -27693,7 +27693,7 @@
         <v>4000308</v>
       </c>
       <c r="D327" s="37" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E327" s="22">
         <v>4</v>
@@ -27759,7 +27759,7 @@
         <v>40000</v>
       </c>
       <c r="Z327" s="5" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="328" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -27767,7 +27767,7 @@
         <v>4000309</v>
       </c>
       <c r="D328" s="37" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="E328" s="22">
         <v>4</v>
@@ -27833,7 +27833,7 @@
         <v>50000</v>
       </c>
       <c r="Z328" s="5" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="329" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -27841,7 +27841,7 @@
         <v>4000401</v>
       </c>
       <c r="D329" s="37" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="E329" s="22">
         <v>4</v>
@@ -27907,7 +27907,7 @@
         <v>2500</v>
       </c>
       <c r="Z329" s="5" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="330" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -27915,7 +27915,7 @@
         <v>4000402</v>
       </c>
       <c r="D330" s="37" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E330" s="22">
         <v>4</v>
@@ -27981,7 +27981,7 @@
         <v>3500</v>
       </c>
       <c r="Z330" s="5" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="331" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -27989,7 +27989,7 @@
         <v>4000403</v>
       </c>
       <c r="D331" s="37" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="E331" s="22">
         <v>4</v>
@@ -28055,7 +28055,7 @@
         <v>5000</v>
       </c>
       <c r="Z331" s="5" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="332" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -28063,7 +28063,7 @@
         <v>4000404</v>
       </c>
       <c r="D332" s="37" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E332" s="22">
         <v>4</v>
@@ -28129,7 +28129,7 @@
         <v>7500</v>
       </c>
       <c r="Z332" s="5" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="333" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -28137,7 +28137,7 @@
         <v>4000405</v>
       </c>
       <c r="D333" s="37" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="E333" s="22">
         <v>4</v>
@@ -28203,7 +28203,7 @@
         <v>10000</v>
       </c>
       <c r="Z333" s="5" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="334" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -28211,7 +28211,7 @@
         <v>4000406</v>
       </c>
       <c r="D334" s="37" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E334" s="22">
         <v>4</v>
@@ -28277,7 +28277,7 @@
         <v>20000</v>
       </c>
       <c r="Z334" s="5" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="335" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -28285,7 +28285,7 @@
         <v>4000407</v>
       </c>
       <c r="D335" s="37" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E335" s="22">
         <v>4</v>
@@ -28351,7 +28351,7 @@
         <v>30000</v>
       </c>
       <c r="Z335" s="5" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="336" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -28359,7 +28359,7 @@
         <v>4000408</v>
       </c>
       <c r="D336" s="37" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E336" s="22">
         <v>4</v>
@@ -28425,7 +28425,7 @@
         <v>40000</v>
       </c>
       <c r="Z336" s="5" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="337" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -28433,7 +28433,7 @@
         <v>4000409</v>
       </c>
       <c r="D337" s="37" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="E337" s="22">
         <v>4</v>
@@ -28499,7 +28499,7 @@
         <v>50000</v>
       </c>
       <c r="Z337" s="5" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="338" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28507,7 +28507,7 @@
         <v>5000001</v>
       </c>
       <c r="D338" s="38" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="E338" s="4">
         <v>5</v>
@@ -28573,7 +28573,7 @@
         <v>1000000</v>
       </c>
       <c r="Z338" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="339" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28581,7 +28581,7 @@
         <v>5000002</v>
       </c>
       <c r="D339" s="38" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E339" s="4">
         <v>5</v>
@@ -28647,7 +28647,7 @@
         <v>1000000</v>
       </c>
       <c r="Z339" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="340" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28655,7 +28655,7 @@
         <v>5000003</v>
       </c>
       <c r="D340" s="38" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E340" s="4">
         <v>5</v>
@@ -28721,7 +28721,7 @@
         <v>1000000</v>
       </c>
       <c r="Z340" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="341" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28729,7 +28729,7 @@
         <v>5000011</v>
       </c>
       <c r="D341" s="38" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="E341" s="4">
         <v>5</v>
@@ -28795,7 +28795,7 @@
         <v>1000000</v>
       </c>
       <c r="Z341" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="342" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28803,7 +28803,7 @@
         <v>5000012</v>
       </c>
       <c r="D342" s="38" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="E342" s="4">
         <v>5</v>
@@ -28869,7 +28869,7 @@
         <v>1000000</v>
       </c>
       <c r="Z342" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="343" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28877,7 +28877,7 @@
         <v>5000013</v>
       </c>
       <c r="D343" s="38" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="E343" s="4">
         <v>5</v>
@@ -28943,7 +28943,7 @@
         <v>1000000</v>
       </c>
       <c r="Z343" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="344" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28951,7 +28951,7 @@
         <v>5000021</v>
       </c>
       <c r="D344" s="38" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="E344" s="4">
         <v>5</v>
@@ -29017,7 +29017,7 @@
         <v>1000000</v>
       </c>
       <c r="Z344" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="345" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29025,7 +29025,7 @@
         <v>5000022</v>
       </c>
       <c r="D345" s="38" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="E345" s="4">
         <v>5</v>
@@ -29091,7 +29091,7 @@
         <v>1000000</v>
       </c>
       <c r="Z345" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="346" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29099,7 +29099,7 @@
         <v>5000023</v>
       </c>
       <c r="D346" s="38" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="E346" s="4">
         <v>5</v>
@@ -29165,7 +29165,7 @@
         <v>1000000</v>
       </c>
       <c r="Z346" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="347" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29173,7 +29173,7 @@
         <v>5000031</v>
       </c>
       <c r="D347" s="38" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="E347" s="4">
         <v>5</v>
@@ -29239,7 +29239,7 @@
         <v>1000000</v>
       </c>
       <c r="Z347" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="348" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29247,7 +29247,7 @@
         <v>5000032</v>
       </c>
       <c r="D348" s="38" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="E348" s="4">
         <v>5</v>
@@ -29313,7 +29313,7 @@
         <v>1000000</v>
       </c>
       <c r="Z348" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="349" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29321,7 +29321,7 @@
         <v>5000033</v>
       </c>
       <c r="D349" s="38" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="E349" s="4">
         <v>5</v>
@@ -29387,7 +29387,7 @@
         <v>1000000</v>
       </c>
       <c r="Z349" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="350" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29395,7 +29395,7 @@
         <v>5000041</v>
       </c>
       <c r="D350" s="38" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E350" s="4">
         <v>5</v>
@@ -29461,7 +29461,7 @@
         <v>1000000</v>
       </c>
       <c r="Z350" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="351" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29469,7 +29469,7 @@
         <v>5000042</v>
       </c>
       <c r="D351" s="38" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="E351" s="4">
         <v>5</v>
@@ -29535,7 +29535,7 @@
         <v>1000000</v>
       </c>
       <c r="Z351" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="352" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29543,7 +29543,7 @@
         <v>5000043</v>
       </c>
       <c r="D352" s="38" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="E352" s="4">
         <v>5</v>
@@ -29609,7 +29609,7 @@
         <v>1000000</v>
       </c>
       <c r="Z352" s="4" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="353" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29617,7 +29617,7 @@
         <v>5000051</v>
       </c>
       <c r="D353" s="38" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="E353" s="4">
         <v>5</v>
@@ -29683,7 +29683,7 @@
         <v>1000000</v>
       </c>
       <c r="Z353" s="4" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="354" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29691,7 +29691,7 @@
         <v>5000052</v>
       </c>
       <c r="D354" s="38" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="E354" s="4">
         <v>5</v>
@@ -29757,7 +29757,7 @@
         <v>1000000</v>
       </c>
       <c r="Z354" s="4" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="355" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29765,7 +29765,7 @@
         <v>5000061</v>
       </c>
       <c r="D355" s="38" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="E355" s="4">
         <v>5</v>
@@ -29831,7 +29831,7 @@
         <v>1000000</v>
       </c>
       <c r="Z355" s="4" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="356" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29839,7 +29839,7 @@
         <v>5000062</v>
       </c>
       <c r="D356" s="38" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="E356" s="4">
         <v>5</v>
@@ -29905,7 +29905,7 @@
         <v>1000000</v>
       </c>
       <c r="Z356" s="4" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="357" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29913,7 +29913,7 @@
         <v>5000071</v>
       </c>
       <c r="D357" s="38" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="E357" s="4">
         <v>5</v>
@@ -29979,7 +29979,7 @@
         <v>1000000</v>
       </c>
       <c r="Z357" s="4" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="358" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29987,7 +29987,7 @@
         <v>5000072</v>
       </c>
       <c r="D358" s="38" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="E358" s="4">
         <v>5</v>
@@ -30053,7 +30053,7 @@
         <v>1000000</v>
       </c>
       <c r="Z358" s="4" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="359" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30061,7 +30061,7 @@
         <v>5000081</v>
       </c>
       <c r="D359" s="24" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="E359" s="4">
         <v>5</v>
@@ -30127,7 +30127,7 @@
         <v>1000000</v>
       </c>
       <c r="Z359" s="4" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="360" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30135,7 +30135,7 @@
         <v>5000082</v>
       </c>
       <c r="D360" s="24" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="E360" s="4">
         <v>5</v>
@@ -30201,7 +30201,7 @@
         <v>1000000</v>
       </c>
       <c r="Z360" s="4" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="361" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30209,7 +30209,7 @@
         <v>5000091</v>
       </c>
       <c r="D361" s="38" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="E361" s="4">
         <v>5</v>
@@ -30275,7 +30275,7 @@
         <v>1000000</v>
       </c>
       <c r="Z361" s="4" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="362" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30283,7 +30283,7 @@
         <v>5000092</v>
       </c>
       <c r="D362" s="38" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="E362" s="4">
         <v>5</v>
@@ -30349,7 +30349,7 @@
         <v>1000000</v>
       </c>
       <c r="Z362" s="4" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="363" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30357,7 +30357,7 @@
         <v>5000093</v>
       </c>
       <c r="D363" s="38" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E363" s="4">
         <v>5</v>
@@ -30423,7 +30423,7 @@
         <v>1000000</v>
       </c>
       <c r="Z363" s="4" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="364" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30431,7 +30431,7 @@
         <v>6101001</v>
       </c>
       <c r="D364" s="40" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="E364" s="4">
         <v>6</v>
@@ -30483,7 +30483,7 @@
         <v>175</v>
       </c>
       <c r="U364" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V364" s="4">
         <v>0</v>
@@ -30498,7 +30498,7 @@
         <v>0</v>
       </c>
       <c r="Z364" s="41" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="365" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30506,7 +30506,7 @@
         <v>6101002</v>
       </c>
       <c r="D365" s="40" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="E365" s="4">
         <v>6</v>
@@ -30558,7 +30558,7 @@
         <v>175</v>
       </c>
       <c r="U365" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V365" s="4">
         <v>0</v>
@@ -30573,7 +30573,7 @@
         <v>0</v>
       </c>
       <c r="Z365" s="41" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="366" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30581,7 +30581,7 @@
         <v>6101003</v>
       </c>
       <c r="D366" s="40" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="E366" s="4">
         <v>6</v>
@@ -30632,7 +30632,7 @@
         <v>175</v>
       </c>
       <c r="U366" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V366" s="4">
         <v>0</v>
@@ -30647,7 +30647,7 @@
         <v>0</v>
       </c>
       <c r="Z366" s="41" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="367" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30656,7 +30656,7 @@
         <v>6102001</v>
       </c>
       <c r="D367" s="40" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="E367" s="4">
         <v>6</v>
@@ -30708,7 +30708,7 @@
         <v>175</v>
       </c>
       <c r="U367" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V367" s="4">
         <v>0</v>
@@ -30723,7 +30723,7 @@
         <v>0</v>
       </c>
       <c r="Z367" s="41" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="368" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30732,7 +30732,7 @@
         <v>6102002</v>
       </c>
       <c r="D368" s="40" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="E368" s="4">
         <v>6</v>
@@ -30784,7 +30784,7 @@
         <v>175</v>
       </c>
       <c r="U368" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V368" s="4">
         <v>0</v>
@@ -30799,7 +30799,7 @@
         <v>0</v>
       </c>
       <c r="Z368" s="41" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="369" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30808,7 +30808,7 @@
         <v>6102003</v>
       </c>
       <c r="D369" s="40" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="E369" s="4">
         <v>6</v>
@@ -30859,7 +30859,7 @@
         <v>175</v>
       </c>
       <c r="U369" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V369" s="4">
         <v>0</v>
@@ -30874,7 +30874,7 @@
         <v>0</v>
       </c>
       <c r="Z369" s="41" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="370" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30883,7 +30883,7 @@
         <v>6103001</v>
       </c>
       <c r="D370" s="40" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="E370" s="4">
         <v>6</v>
@@ -30935,7 +30935,7 @@
         <v>175</v>
       </c>
       <c r="U370" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V370" s="4">
         <v>0</v>
@@ -30950,7 +30950,7 @@
         <v>0</v>
       </c>
       <c r="Z370" s="41" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="371" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30959,7 +30959,7 @@
         <v>6103002</v>
       </c>
       <c r="D371" s="40" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="E371" s="4">
         <v>6</v>
@@ -31011,7 +31011,7 @@
         <v>175</v>
       </c>
       <c r="U371" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V371" s="4">
         <v>0</v>
@@ -31026,7 +31026,7 @@
         <v>0</v>
       </c>
       <c r="Z371" s="41" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="372" spans="3:26" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -31035,7 +31035,7 @@
         <v>6103003</v>
       </c>
       <c r="D372" s="40" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="E372" s="4">
         <v>6</v>
@@ -31086,7 +31086,7 @@
         <v>175</v>
       </c>
       <c r="U372" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V372" s="4">
         <v>0</v>
@@ -31101,7 +31101,7 @@
         <v>0</v>
       </c>
       <c r="Z372" s="41" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="373" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31109,7 +31109,7 @@
         <v>6104001</v>
       </c>
       <c r="D373" s="40" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="E373" s="4">
         <v>6</v>
@@ -31161,7 +31161,7 @@
         <v>175</v>
       </c>
       <c r="U373" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V373" s="4">
         <v>0</v>
@@ -31176,7 +31176,7 @@
         <v>0</v>
       </c>
       <c r="Z373" s="41" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="374" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31184,7 +31184,7 @@
         <v>6104002</v>
       </c>
       <c r="D374" s="40" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="E374" s="4">
         <v>6</v>
@@ -31236,7 +31236,7 @@
         <v>175</v>
       </c>
       <c r="U374" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V374" s="4">
         <v>0</v>
@@ -31251,7 +31251,7 @@
         <v>0</v>
       </c>
       <c r="Z374" s="41" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="375" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31259,7 +31259,7 @@
         <v>6104003</v>
       </c>
       <c r="D375" s="40" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E375" s="4">
         <v>6</v>
@@ -31311,7 +31311,7 @@
         <v>175</v>
       </c>
       <c r="U375" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V375" s="4">
         <v>0</v>
@@ -31326,7 +31326,7 @@
         <v>0</v>
       </c>
       <c r="Z375" s="41" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="376" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31334,7 +31334,7 @@
         <v>6104004</v>
       </c>
       <c r="D376" s="40" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="E376" s="4">
         <v>6</v>
@@ -31385,7 +31385,7 @@
         <v>175</v>
       </c>
       <c r="U376" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V376" s="4">
         <v>0</v>
@@ -31400,7 +31400,7 @@
         <v>0</v>
       </c>
       <c r="Z376" s="41" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="377" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31408,7 +31408,7 @@
         <v>6105001</v>
       </c>
       <c r="D377" s="40" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="E377" s="4">
         <v>6</v>
@@ -31460,7 +31460,7 @@
         <v>175</v>
       </c>
       <c r="U377" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V377" s="4">
         <v>0</v>
@@ -31475,7 +31475,7 @@
         <v>0</v>
       </c>
       <c r="Z377" s="41" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="378" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31483,7 +31483,7 @@
         <v>6105002</v>
       </c>
       <c r="D378" s="40" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="E378" s="4">
         <v>6</v>
@@ -31535,7 +31535,7 @@
         <v>175</v>
       </c>
       <c r="U378" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V378" s="4">
         <v>0</v>
@@ -31550,7 +31550,7 @@
         <v>0</v>
       </c>
       <c r="Z378" s="41" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="379" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31558,7 +31558,7 @@
         <v>6105003</v>
       </c>
       <c r="D379" s="40" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="E379" s="4">
         <v>6</v>
@@ -31610,7 +31610,7 @@
         <v>175</v>
       </c>
       <c r="U379" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V379" s="4">
         <v>0</v>
@@ -31625,7 +31625,7 @@
         <v>0</v>
       </c>
       <c r="Z379" s="41" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="380" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31633,7 +31633,7 @@
         <v>6105004</v>
       </c>
       <c r="D380" s="40" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="E380" s="4">
         <v>6</v>
@@ -31684,7 +31684,7 @@
         <v>175</v>
       </c>
       <c r="U380" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V380" s="4">
         <v>0</v>
@@ -31699,7 +31699,7 @@
         <v>0</v>
       </c>
       <c r="Z380" s="41" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="381" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31707,7 +31707,7 @@
         <v>6106001</v>
       </c>
       <c r="D381" s="40" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="E381" s="4">
         <v>6</v>
@@ -31759,7 +31759,7 @@
         <v>175</v>
       </c>
       <c r="U381" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V381" s="4">
         <v>0</v>
@@ -31774,7 +31774,7 @@
         <v>0</v>
       </c>
       <c r="Z381" s="41" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="382" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31782,7 +31782,7 @@
         <v>6106002</v>
       </c>
       <c r="D382" s="40" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="E382" s="4">
         <v>6</v>
@@ -31834,7 +31834,7 @@
         <v>175</v>
       </c>
       <c r="U382" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V382" s="4">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>0</v>
       </c>
       <c r="Z382" s="41" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="383" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31857,7 +31857,7 @@
         <v>6106003</v>
       </c>
       <c r="D383" s="40" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="E383" s="4">
         <v>6</v>
@@ -31908,7 +31908,7 @@
         <v>175</v>
       </c>
       <c r="U383" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V383" s="4">
         <v>0</v>
@@ -31923,7 +31923,7 @@
         <v>0</v>
       </c>
       <c r="Z383" s="41" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="384" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31931,7 +31931,7 @@
         <v>6201001</v>
       </c>
       <c r="D384" s="40" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="E384" s="4">
         <v>6</v>
@@ -31982,7 +31982,7 @@
         <v>350</v>
       </c>
       <c r="U384" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V384" s="4">
         <v>0</v>
@@ -31997,7 +31997,7 @@
         <v>0</v>
       </c>
       <c r="Z384" s="41" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="385" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32005,7 +32005,7 @@
         <v>6201002</v>
       </c>
       <c r="D385" s="40" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="E385" s="4">
         <v>6</v>
@@ -32056,7 +32056,7 @@
         <v>350</v>
       </c>
       <c r="U385" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V385" s="4">
         <v>0</v>
@@ -32071,7 +32071,7 @@
         <v>0</v>
       </c>
       <c r="Z385" s="41" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="386" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32079,7 +32079,7 @@
         <v>6201003</v>
       </c>
       <c r="D386" s="40" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="E386" s="4">
         <v>6</v>
@@ -32130,7 +32130,7 @@
         <v>350</v>
       </c>
       <c r="U386" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V386" s="4">
         <v>0</v>
@@ -32145,7 +32145,7 @@
         <v>0</v>
       </c>
       <c r="Z386" s="41" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="387" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32153,7 +32153,7 @@
         <v>6202001</v>
       </c>
       <c r="D387" s="40" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="E387" s="4">
         <v>6</v>
@@ -32204,7 +32204,7 @@
         <v>350</v>
       </c>
       <c r="U387" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V387" s="4">
         <v>0</v>
@@ -32219,7 +32219,7 @@
         <v>0</v>
       </c>
       <c r="Z387" s="41" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="388" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32227,7 +32227,7 @@
         <v>6202002</v>
       </c>
       <c r="D388" s="40" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="E388" s="4">
         <v>6</v>
@@ -32278,7 +32278,7 @@
         <v>350</v>
       </c>
       <c r="U388" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V388" s="4">
         <v>0</v>
@@ -32293,7 +32293,7 @@
         <v>0</v>
       </c>
       <c r="Z388" s="41" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="389" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32301,7 +32301,7 @@
         <v>6202003</v>
       </c>
       <c r="D389" s="40" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="E389" s="4">
         <v>6</v>
@@ -32352,7 +32352,7 @@
         <v>350</v>
       </c>
       <c r="U389" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V389" s="4">
         <v>0</v>
@@ -32367,7 +32367,7 @@
         <v>0</v>
       </c>
       <c r="Z389" s="41" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="390" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32375,7 +32375,7 @@
         <v>6203001</v>
       </c>
       <c r="D390" s="40" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="E390" s="4">
         <v>6</v>
@@ -32426,7 +32426,7 @@
         <v>350</v>
       </c>
       <c r="U390" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V390" s="4">
         <v>0</v>
@@ -32441,7 +32441,7 @@
         <v>0</v>
       </c>
       <c r="Z390" s="41" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="391" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32449,7 +32449,7 @@
         <v>6203002</v>
       </c>
       <c r="D391" s="40" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="E391" s="4">
         <v>6</v>
@@ -32500,7 +32500,7 @@
         <v>350</v>
       </c>
       <c r="U391" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V391" s="4">
         <v>0</v>
@@ -32515,7 +32515,7 @@
         <v>0</v>
       </c>
       <c r="Z391" s="41" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="392" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32523,7 +32523,7 @@
         <v>6203003</v>
       </c>
       <c r="D392" s="40" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="E392" s="4">
         <v>6</v>
@@ -32574,7 +32574,7 @@
         <v>350</v>
       </c>
       <c r="U392" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V392" s="4">
         <v>0</v>
@@ -32589,7 +32589,7 @@
         <v>0</v>
       </c>
       <c r="Z392" s="41" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="393" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32597,7 +32597,7 @@
         <v>6204001</v>
       </c>
       <c r="D393" s="40" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="E393" s="4">
         <v>6</v>
@@ -32648,7 +32648,7 @@
         <v>350</v>
       </c>
       <c r="U393" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V393" s="4">
         <v>0</v>
@@ -32663,7 +32663,7 @@
         <v>0</v>
       </c>
       <c r="Z393" s="41" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="394" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32671,7 +32671,7 @@
         <v>6204002</v>
       </c>
       <c r="D394" s="40" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="E394" s="4">
         <v>6</v>
@@ -32722,7 +32722,7 @@
         <v>350</v>
       </c>
       <c r="U394" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V394" s="4">
         <v>0</v>
@@ -32737,7 +32737,7 @@
         <v>0</v>
       </c>
       <c r="Z394" s="41" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="395" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32745,7 +32745,7 @@
         <v>6204003</v>
       </c>
       <c r="D395" s="40" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="E395" s="4">
         <v>6</v>
@@ -32796,7 +32796,7 @@
         <v>350</v>
       </c>
       <c r="U395" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V395" s="4">
         <v>0</v>
@@ -32811,7 +32811,7 @@
         <v>0</v>
       </c>
       <c r="Z395" s="41" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="396" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32819,7 +32819,7 @@
         <v>6204004</v>
       </c>
       <c r="D396" s="40" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="E396" s="4">
         <v>6</v>
@@ -32870,7 +32870,7 @@
         <v>350</v>
       </c>
       <c r="U396" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V396" s="4">
         <v>0</v>
@@ -32885,7 +32885,7 @@
         <v>0</v>
       </c>
       <c r="Z396" s="41" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="397" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32893,7 +32893,7 @@
         <v>6205001</v>
       </c>
       <c r="D397" s="40" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="E397" s="4">
         <v>6</v>
@@ -32944,7 +32944,7 @@
         <v>350</v>
       </c>
       <c r="U397" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V397" s="4">
         <v>0</v>
@@ -32959,7 +32959,7 @@
         <v>0</v>
       </c>
       <c r="Z397" s="41" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="398" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32967,7 +32967,7 @@
         <v>6205002</v>
       </c>
       <c r="D398" s="40" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="E398" s="4">
         <v>6</v>
@@ -33018,7 +33018,7 @@
         <v>350</v>
       </c>
       <c r="U398" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V398" s="4">
         <v>0</v>
@@ -33033,7 +33033,7 @@
         <v>0</v>
       </c>
       <c r="Z398" s="41" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="399" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33041,7 +33041,7 @@
         <v>6205003</v>
       </c>
       <c r="D399" s="40" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="E399" s="4">
         <v>6</v>
@@ -33092,7 +33092,7 @@
         <v>350</v>
       </c>
       <c r="U399" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V399" s="4">
         <v>0</v>
@@ -33107,7 +33107,7 @@
         <v>0</v>
       </c>
       <c r="Z399" s="41" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="400" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33115,7 +33115,7 @@
         <v>6205004</v>
       </c>
       <c r="D400" s="40" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="E400" s="4">
         <v>6</v>
@@ -33166,7 +33166,7 @@
         <v>350</v>
       </c>
       <c r="U400" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V400" s="4">
         <v>0</v>
@@ -33181,7 +33181,7 @@
         <v>0</v>
       </c>
       <c r="Z400" s="41" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="401" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33189,7 +33189,7 @@
         <v>6206001</v>
       </c>
       <c r="D401" s="40" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="E401" s="4">
         <v>6</v>
@@ -33240,7 +33240,7 @@
         <v>350</v>
       </c>
       <c r="U401" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V401" s="4">
         <v>0</v>
@@ -33255,7 +33255,7 @@
         <v>0</v>
       </c>
       <c r="Z401" s="41" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="402" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33263,7 +33263,7 @@
         <v>6206002</v>
       </c>
       <c r="D402" s="40" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="E402" s="4">
         <v>6</v>
@@ -33314,7 +33314,7 @@
         <v>350</v>
       </c>
       <c r="U402" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V402" s="4">
         <v>0</v>
@@ -33329,7 +33329,7 @@
         <v>0</v>
       </c>
       <c r="Z402" s="41" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="403" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33337,7 +33337,7 @@
         <v>6206003</v>
       </c>
       <c r="D403" s="40" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="E403" s="4">
         <v>6</v>
@@ -33388,7 +33388,7 @@
         <v>350</v>
       </c>
       <c r="U403" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V403" s="4">
         <v>0</v>
@@ -33403,7 +33403,7 @@
         <v>0</v>
       </c>
       <c r="Z403" s="41" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="404" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33411,7 +33411,7 @@
         <v>6301001</v>
       </c>
       <c r="D404" s="40" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="E404" s="4">
         <v>6</v>
@@ -33463,7 +33463,7 @@
         <v>500</v>
       </c>
       <c r="U404" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V404" s="4">
         <v>0</v>
@@ -33478,7 +33478,7 @@
         <v>0</v>
       </c>
       <c r="Z404" s="41" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="405" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33486,7 +33486,7 @@
         <v>6301002</v>
       </c>
       <c r="D405" s="40" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="E405" s="4">
         <v>6</v>
@@ -33538,7 +33538,7 @@
         <v>500</v>
       </c>
       <c r="U405" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V405" s="4">
         <v>0</v>
@@ -33553,7 +33553,7 @@
         <v>0</v>
       </c>
       <c r="Z405" s="41" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="406" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33561,7 +33561,7 @@
         <v>6301003</v>
       </c>
       <c r="D406" s="40" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="E406" s="4">
         <v>6</v>
@@ -33613,7 +33613,7 @@
         <v>500</v>
       </c>
       <c r="U406" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V406" s="4">
         <v>0</v>
@@ -33628,7 +33628,7 @@
         <v>0</v>
       </c>
       <c r="Z406" s="41" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="407" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33636,7 +33636,7 @@
         <v>6302001</v>
       </c>
       <c r="D407" s="40" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="E407" s="4">
         <v>6</v>
@@ -33688,7 +33688,7 @@
         <v>500</v>
       </c>
       <c r="U407" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V407" s="4">
         <v>0</v>
@@ -33703,7 +33703,7 @@
         <v>0</v>
       </c>
       <c r="Z407" s="41" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="408" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33711,7 +33711,7 @@
         <v>6302002</v>
       </c>
       <c r="D408" s="40" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="E408" s="4">
         <v>6</v>
@@ -33762,7 +33762,7 @@
         <v>500</v>
       </c>
       <c r="U408" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V408" s="4">
         <v>0</v>
@@ -33777,7 +33777,7 @@
         <v>0</v>
       </c>
       <c r="Z408" s="41" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="409" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33785,7 +33785,7 @@
         <v>6302003</v>
       </c>
       <c r="D409" s="40" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="E409" s="4">
         <v>6</v>
@@ -33837,7 +33837,7 @@
         <v>500</v>
       </c>
       <c r="U409" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V409" s="4">
         <v>0</v>
@@ -33852,7 +33852,7 @@
         <v>0</v>
       </c>
       <c r="Z409" s="41" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="410" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33860,7 +33860,7 @@
         <v>6303001</v>
       </c>
       <c r="D410" s="40" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="E410" s="4">
         <v>6</v>
@@ -33912,7 +33912,7 @@
         <v>500</v>
       </c>
       <c r="U410" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V410" s="4">
         <v>0</v>
@@ -33927,7 +33927,7 @@
         <v>0</v>
       </c>
       <c r="Z410" s="41" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="411" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33935,7 +33935,7 @@
         <v>6303002</v>
       </c>
       <c r="D411" s="40" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="E411" s="4">
         <v>6</v>
@@ -33986,7 +33986,7 @@
         <v>500</v>
       </c>
       <c r="U411" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V411" s="4">
         <v>0</v>
@@ -34001,7 +34001,7 @@
         <v>0</v>
       </c>
       <c r="Z411" s="41" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="412" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34009,7 +34009,7 @@
         <v>6303003</v>
       </c>
       <c r="D412" s="40" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="E412" s="4">
         <v>6</v>
@@ -34061,7 +34061,7 @@
         <v>500</v>
       </c>
       <c r="U412" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V412" s="4">
         <v>0</v>
@@ -34076,7 +34076,7 @@
         <v>0</v>
       </c>
       <c r="Z412" s="41" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="413" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34084,7 +34084,7 @@
         <v>6304001</v>
       </c>
       <c r="D413" s="40" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="E413" s="4">
         <v>6</v>
@@ -34136,7 +34136,7 @@
         <v>500</v>
       </c>
       <c r="U413" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V413" s="4">
         <v>0</v>
@@ -34151,7 +34151,7 @@
         <v>0</v>
       </c>
       <c r="Z413" s="41" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="414" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34159,7 +34159,7 @@
         <v>6304002</v>
       </c>
       <c r="D414" s="40" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="E414" s="4">
         <v>6</v>
@@ -34210,7 +34210,7 @@
         <v>500</v>
       </c>
       <c r="U414" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V414" s="4">
         <v>0</v>
@@ -34225,7 +34225,7 @@
         <v>0</v>
       </c>
       <c r="Z414" s="41" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="415" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34233,7 +34233,7 @@
         <v>6304003</v>
       </c>
       <c r="D415" s="40" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="E415" s="4">
         <v>6</v>
@@ -34284,7 +34284,7 @@
         <v>500</v>
       </c>
       <c r="U415" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V415" s="4">
         <v>0</v>
@@ -34299,7 +34299,7 @@
         <v>0</v>
       </c>
       <c r="Z415" s="41" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="416" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34307,7 +34307,7 @@
         <v>6304004</v>
       </c>
       <c r="D416" s="40" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="E416" s="4">
         <v>6</v>
@@ -34359,7 +34359,7 @@
         <v>500</v>
       </c>
       <c r="U416" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V416" s="4">
         <v>0</v>
@@ -34374,7 +34374,7 @@
         <v>0</v>
       </c>
       <c r="Z416" s="41" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="417" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34382,7 +34382,7 @@
         <v>6305001</v>
       </c>
       <c r="D417" s="40" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E417" s="4">
         <v>6</v>
@@ -34434,7 +34434,7 @@
         <v>500</v>
       </c>
       <c r="U417" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V417" s="4">
         <v>0</v>
@@ -34449,7 +34449,7 @@
         <v>0</v>
       </c>
       <c r="Z417" s="41" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="418" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34457,7 +34457,7 @@
         <v>6305002</v>
       </c>
       <c r="D418" s="40" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="E418" s="4">
         <v>6</v>
@@ -34508,7 +34508,7 @@
         <v>500</v>
       </c>
       <c r="U418" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V418" s="4">
         <v>0</v>
@@ -34523,7 +34523,7 @@
         <v>0</v>
       </c>
       <c r="Z418" s="41" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="419" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34531,7 +34531,7 @@
         <v>6305003</v>
       </c>
       <c r="D419" s="40" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="E419" s="4">
         <v>6</v>
@@ -34582,7 +34582,7 @@
         <v>500</v>
       </c>
       <c r="U419" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V419" s="4">
         <v>0</v>
@@ -34597,7 +34597,7 @@
         <v>0</v>
       </c>
       <c r="Z419" s="41" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="420" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34605,7 +34605,7 @@
         <v>6305004</v>
       </c>
       <c r="D420" s="40" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="E420" s="4">
         <v>6</v>
@@ -34657,7 +34657,7 @@
         <v>500</v>
       </c>
       <c r="U420" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V420" s="4">
         <v>0</v>
@@ -34672,7 +34672,7 @@
         <v>0</v>
       </c>
       <c r="Z420" s="41" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="421" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34680,7 +34680,7 @@
         <v>6306001</v>
       </c>
       <c r="D421" s="40" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="E421" s="4">
         <v>6</v>
@@ -34732,7 +34732,7 @@
         <v>500</v>
       </c>
       <c r="U421" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V421" s="4">
         <v>0</v>
@@ -34747,7 +34747,7 @@
         <v>0</v>
       </c>
       <c r="Z421" s="41" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="422" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34755,7 +34755,7 @@
         <v>6306002</v>
       </c>
       <c r="D422" s="40" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="E422" s="4">
         <v>6</v>
@@ -34806,7 +34806,7 @@
         <v>500</v>
       </c>
       <c r="U422" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V422" s="4">
         <v>0</v>
@@ -34821,7 +34821,7 @@
         <v>0</v>
       </c>
       <c r="Z422" s="41" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="423" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34829,7 +34829,7 @@
         <v>6306003</v>
       </c>
       <c r="D423" s="40" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="E423" s="4">
         <v>6</v>
@@ -34880,7 +34880,7 @@
         <v>500</v>
       </c>
       <c r="U423" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V423" s="4">
         <v>0</v>
@@ -34895,7 +34895,7 @@
         <v>0</v>
       </c>
       <c r="Z423" s="41" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="424" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34903,7 +34903,7 @@
         <v>7101001</v>
       </c>
       <c r="D424" s="40" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="E424" s="4">
         <v>1</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="U424" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V424" s="4">
         <v>0</v>
@@ -34969,7 +34969,7 @@
         <v>0</v>
       </c>
       <c r="Z424" s="41" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="425" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34977,7 +34977,7 @@
         <v>7101002</v>
       </c>
       <c r="D425" s="40" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="E425" s="4">
         <v>1</v>
@@ -35028,7 +35028,7 @@
         <v>0</v>
       </c>
       <c r="U425" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V425" s="4">
         <v>0</v>
@@ -35043,7 +35043,7 @@
         <v>0</v>
       </c>
       <c r="Z425" s="5" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="426" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35051,7 +35051,7 @@
         <v>7101003</v>
       </c>
       <c r="D426" s="40" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="E426" s="4">
         <v>1</v>
@@ -35102,7 +35102,7 @@
         <v>0</v>
       </c>
       <c r="U426" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V426" s="4">
         <v>0</v>
@@ -35117,7 +35117,7 @@
         <v>0</v>
       </c>
       <c r="Z426" s="5" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="427" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35125,7 +35125,7 @@
         <v>7101004</v>
       </c>
       <c r="D427" s="40" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="E427" s="4">
         <v>1</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="U427" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V427" s="4">
         <v>0</v>
@@ -35191,7 +35191,7 @@
         <v>0</v>
       </c>
       <c r="Z427" s="5" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="428" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35199,7 +35199,7 @@
         <v>7102001</v>
       </c>
       <c r="D428" s="40" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="E428" s="4">
         <v>1</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="U428" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V428" s="4">
         <v>0</v>
@@ -35266,7 +35266,7 @@
         <v>0</v>
       </c>
       <c r="Z428" s="5" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="429" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35274,7 +35274,7 @@
         <v>7102002</v>
       </c>
       <c r="D429" s="40" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="E429" s="4">
         <v>1</v>
@@ -35326,7 +35326,7 @@
         <v>0</v>
       </c>
       <c r="U429" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V429" s="4">
         <v>0</v>
@@ -35341,7 +35341,7 @@
         <v>0</v>
       </c>
       <c r="Z429" s="5" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="430" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35349,7 +35349,7 @@
         <v>7102003</v>
       </c>
       <c r="D430" s="40" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="E430" s="4">
         <v>1</v>
@@ -35401,7 +35401,7 @@
         <v>0</v>
       </c>
       <c r="U430" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V430" s="4">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>0</v>
       </c>
       <c r="Z430" s="5" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="431" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35424,7 +35424,7 @@
         <v>7102004</v>
       </c>
       <c r="D431" s="40" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="E431" s="4">
         <v>1</v>
@@ -35476,7 +35476,7 @@
         <v>0</v>
       </c>
       <c r="U431" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V431" s="4">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="Z431" s="5" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="432" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35499,7 +35499,7 @@
         <v>7103001</v>
       </c>
       <c r="D432" s="40" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="E432" s="4">
         <v>1</v>
@@ -35551,7 +35551,7 @@
         <v>0</v>
       </c>
       <c r="U432" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V432" s="4">
         <v>0</v>
@@ -35566,7 +35566,7 @@
         <v>0</v>
       </c>
       <c r="Z432" s="5" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="433" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35574,7 +35574,7 @@
         <v>7103002</v>
       </c>
       <c r="D433" s="40" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="E433" s="4">
         <v>1</v>
@@ -35626,7 +35626,7 @@
         <v>0</v>
       </c>
       <c r="U433" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V433" s="4">
         <v>0</v>
@@ -35641,7 +35641,7 @@
         <v>0</v>
       </c>
       <c r="Z433" s="5" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="434" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35649,7 +35649,7 @@
         <v>7103003</v>
       </c>
       <c r="D434" s="40" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="E434" s="4">
         <v>1</v>
@@ -35701,7 +35701,7 @@
         <v>0</v>
       </c>
       <c r="U434" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V434" s="4">
         <v>0</v>
@@ -35716,7 +35716,7 @@
         <v>0</v>
       </c>
       <c r="Z434" s="5" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="435" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35724,7 +35724,7 @@
         <v>7103004</v>
       </c>
       <c r="D435" s="40" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="E435" s="4">
         <v>1</v>
@@ -35776,7 +35776,7 @@
         <v>0</v>
       </c>
       <c r="U435" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V435" s="4">
         <v>0</v>
@@ -35791,7 +35791,7 @@
         <v>0</v>
       </c>
       <c r="Z435" s="5" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="436" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35799,7 +35799,7 @@
         <v>7201001</v>
       </c>
       <c r="D436" s="36" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="E436" s="4">
         <v>2</v>
@@ -35850,7 +35850,7 @@
         <v>200</v>
       </c>
       <c r="U436" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V436" s="4">
         <v>0</v>
@@ -35865,7 +35865,7 @@
         <v>0</v>
       </c>
       <c r="Z436" s="5" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
     </row>
     <row r="437" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35873,7 +35873,7 @@
         <v>7201002</v>
       </c>
       <c r="D437" s="36" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="E437" s="4">
         <v>2</v>
@@ -35924,7 +35924,7 @@
         <v>200</v>
       </c>
       <c r="U437" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V437" s="4">
         <v>0</v>
@@ -35939,7 +35939,7 @@
         <v>0</v>
       </c>
       <c r="Z437" s="5" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
     </row>
     <row r="438" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35947,7 +35947,7 @@
         <v>7201003</v>
       </c>
       <c r="D438" s="36" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="E438" s="4">
         <v>2</v>
@@ -35998,7 +35998,7 @@
         <v>200</v>
       </c>
       <c r="U438" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V438" s="4">
         <v>0</v>
@@ -36013,7 +36013,7 @@
         <v>0</v>
       </c>
       <c r="Z438" s="5" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
     </row>
     <row r="439" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36021,7 +36021,7 @@
         <v>7201004</v>
       </c>
       <c r="D439" s="36" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="E439" s="4">
         <v>2</v>
@@ -36072,7 +36072,7 @@
         <v>200</v>
       </c>
       <c r="U439" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V439" s="4">
         <v>0</v>
@@ -36087,7 +36087,7 @@
         <v>0</v>
       </c>
       <c r="Z439" s="5" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
     </row>
     <row r="440" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36095,7 +36095,7 @@
         <v>7202001</v>
       </c>
       <c r="D440" s="36" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="E440" s="4">
         <v>2</v>
@@ -36147,7 +36147,7 @@
         <v>350</v>
       </c>
       <c r="U440" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V440" s="4">
         <v>0</v>
@@ -36162,7 +36162,7 @@
         <v>0</v>
       </c>
       <c r="Z440" s="5" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="441" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36170,7 +36170,7 @@
         <v>7202002</v>
       </c>
       <c r="D441" s="36" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="E441" s="4">
         <v>2</v>
@@ -36222,7 +36222,7 @@
         <v>350</v>
       </c>
       <c r="U441" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V441" s="4">
         <v>0</v>
@@ -36237,7 +36237,7 @@
         <v>0</v>
       </c>
       <c r="Z441" s="5" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="442" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36245,7 +36245,7 @@
         <v>7202003</v>
       </c>
       <c r="D442" s="36" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="E442" s="4">
         <v>2</v>
@@ -36297,7 +36297,7 @@
         <v>350</v>
       </c>
       <c r="U442" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V442" s="4">
         <v>0</v>
@@ -36312,7 +36312,7 @@
         <v>0</v>
       </c>
       <c r="Z442" s="5" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="443" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36320,7 +36320,7 @@
         <v>7202004</v>
       </c>
       <c r="D443" s="36" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="E443" s="4">
         <v>2</v>
@@ -36372,7 +36372,7 @@
         <v>350</v>
       </c>
       <c r="U443" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V443" s="4">
         <v>0</v>
@@ -36387,7 +36387,7 @@
         <v>0</v>
       </c>
       <c r="Z443" s="5" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="444" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36395,7 +36395,7 @@
         <v>7203001</v>
       </c>
       <c r="D444" s="36" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="E444" s="4">
         <v>2</v>
@@ -36447,7 +36447,7 @@
         <v>500</v>
       </c>
       <c r="U444" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V444" s="4">
         <v>0</v>
@@ -36462,7 +36462,7 @@
         <v>0</v>
       </c>
       <c r="Z444" s="5" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="445" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36470,7 +36470,7 @@
         <v>7203002</v>
       </c>
       <c r="D445" s="36" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="E445" s="4">
         <v>2</v>
@@ -36522,7 +36522,7 @@
         <v>500</v>
       </c>
       <c r="U445" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V445" s="4">
         <v>0</v>
@@ -36537,7 +36537,7 @@
         <v>0</v>
       </c>
       <c r="Z445" s="5" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="446" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36545,7 +36545,7 @@
         <v>7203003</v>
       </c>
       <c r="D446" s="36" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="E446" s="4">
         <v>2</v>
@@ -36597,7 +36597,7 @@
         <v>500</v>
       </c>
       <c r="U446" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V446" s="4">
         <v>0</v>
@@ -36612,7 +36612,7 @@
         <v>0</v>
       </c>
       <c r="Z446" s="5" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="447" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36620,7 +36620,7 @@
         <v>7203004</v>
       </c>
       <c r="D447" s="36" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="E447" s="4">
         <v>2</v>
@@ -36672,7 +36672,7 @@
         <v>500</v>
       </c>
       <c r="U447" s="4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="V447" s="4">
         <v>0</v>
@@ -36687,7 +36687,7 @@
         <v>0</v>
       </c>
       <c r="Z447" s="5" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="448" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36695,7 +36695,7 @@
         <v>7301001</v>
       </c>
       <c r="D448" s="36" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="E448" s="4">
         <v>3</v>
@@ -36761,7 +36761,7 @@
         <v>0</v>
       </c>
       <c r="Z448" s="5" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="449" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36769,7 +36769,7 @@
         <v>7301002</v>
       </c>
       <c r="D449" s="36" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="E449" s="4">
         <v>3</v>
@@ -36835,7 +36835,7 @@
         <v>0</v>
       </c>
       <c r="Z449" s="5" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="450" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36843,7 +36843,7 @@
         <v>7302001</v>
       </c>
       <c r="D450" s="36" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="E450" s="4">
         <v>3</v>
@@ -36909,7 +36909,7 @@
         <v>0</v>
       </c>
       <c r="Z450" s="5" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="451" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36917,7 +36917,7 @@
         <v>7302002</v>
       </c>
       <c r="D451" s="36" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="E451" s="4">
         <v>3</v>
@@ -36983,7 +36983,7 @@
         <v>0</v>
       </c>
       <c r="Z451" s="5" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="452" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36991,7 +36991,7 @@
         <v>7303001</v>
       </c>
       <c r="D452" s="36" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="E452" s="4">
         <v>3</v>
@@ -37057,7 +37057,7 @@
         <v>0</v>
       </c>
       <c r="Z452" s="5" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
     </row>
     <row r="453" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37065,7 +37065,7 @@
         <v>7303002</v>
       </c>
       <c r="D453" s="36" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="E453" s="4">
         <v>3</v>
@@ -37131,7 +37131,7 @@
         <v>0</v>
       </c>
       <c r="Z453" s="5" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
     </row>
     <row r="454" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45E2EBE-EAFD-4029-9FA7-B9FD11167381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771958B0-DD9F-4B17-AADC-7FAD3B3F4BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipMakeProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EquipMakeProto!$G$1:$G$1102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EquipMakeProto!$G$1:$G$1105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -528,7 +528,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="794">
   <si>
     <t>#</t>
   </si>
@@ -2960,12 +2960,36 @@
   <si>
     <t>10020001;200@10025010;200@15511006;1@10025008;30@10025009;15@10000143;10</t>
   </si>
+  <si>
+    <t>初级生肖袋子</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级生肖袋子</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级生肖袋子</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010037;10</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010037;30</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010037;100</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3082,6 +3106,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -3208,7 +3240,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3325,6 +3357,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3632,11 +3667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:Z1102"/>
+  <dimension ref="C1:Z1105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y237" sqref="Y237"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z366" sqref="Y364:Z366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -30427,179 +30462,177 @@
       </c>
     </row>
     <row r="364" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C364" s="39">
-        <v>6101001</v>
-      </c>
-      <c r="D364" s="40" t="s">
-        <v>647</v>
+      <c r="C364" s="4">
+        <v>5001001</v>
+      </c>
+      <c r="D364" s="43" t="s">
+        <v>788</v>
       </c>
       <c r="E364" s="4">
-        <v>6</v>
-      </c>
-      <c r="F364" s="39">
-        <v>10101101</v>
-      </c>
-      <c r="G364" s="4">
+        <v>5</v>
+      </c>
+      <c r="F364" s="13">
+        <v>10010051</v>
+      </c>
+      <c r="G364" s="14">
         <v>0</v>
       </c>
       <c r="H364" s="38">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I364" s="4">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J364" s="4">
+        <v>0</v>
+      </c>
+      <c r="K364" s="4">
+        <v>0</v>
+      </c>
+      <c r="L364" s="4">
+        <v>1</v>
+      </c>
+      <c r="M364" s="4">
+        <v>1</v>
+      </c>
+      <c r="N364" s="4">
+        <v>0</v>
+      </c>
+      <c r="O364" s="4">
+        <v>1</v>
+      </c>
+      <c r="P364" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q364" s="4">
+        <v>1</v>
+      </c>
+      <c r="R364" s="4">
+        <v>1</v>
+      </c>
+      <c r="S364" s="4">
+        <v>0</v>
+      </c>
+      <c r="T364" s="4">
+        <v>0</v>
+      </c>
+      <c r="U364" s="4">
+        <v>0</v>
+      </c>
+      <c r="V364" s="4">
+        <v>0</v>
+      </c>
+      <c r="W364" s="4">
+        <v>1</v>
+      </c>
+      <c r="X364" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y364" s="4">
+        <v>50000</v>
+      </c>
+      <c r="Z364" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="365" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C365" s="4">
+        <v>5001002</v>
+      </c>
+      <c r="D365" s="43" t="s">
+        <v>789</v>
+      </c>
+      <c r="E365" s="4">
         <v>5</v>
       </c>
-      <c r="K364" s="4">
-        <v>0</v>
-      </c>
-      <c r="L364" s="4">
-        <v>1</v>
-      </c>
-      <c r="M364" s="4">
-        <v>1</v>
-      </c>
-      <c r="N364" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="O364" s="4">
-        <v>0</v>
-      </c>
-      <c r="P364" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q364" s="4">
-        <v>1</v>
-      </c>
-      <c r="R364" s="4">
-        <v>1</v>
-      </c>
-      <c r="S364" s="4">
-        <f>S384-150</f>
-        <v>0</v>
-      </c>
-      <c r="T364" s="4">
-        <v>175</v>
-      </c>
-      <c r="U364" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="V364" s="4">
-        <v>0</v>
-      </c>
-      <c r="W364" s="4">
-        <v>1</v>
-      </c>
-      <c r="X364" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y364" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z364" s="41" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="365" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C365" s="39">
-        <v>6101002</v>
-      </c>
-      <c r="D365" s="40" t="s">
-        <v>649</v>
-      </c>
-      <c r="E365" s="4">
-        <v>6</v>
-      </c>
-      <c r="F365" s="39">
-        <v>10101102</v>
-      </c>
-      <c r="G365" s="4">
+      <c r="F365" s="13">
+        <v>10010052</v>
+      </c>
+      <c r="G365" s="14">
         <v>0</v>
       </c>
       <c r="H365" s="38">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="I365" s="4">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J365" s="4">
+        <v>0</v>
+      </c>
+      <c r="K365" s="4">
+        <v>0</v>
+      </c>
+      <c r="L365" s="4">
+        <v>1</v>
+      </c>
+      <c r="M365" s="4">
+        <v>1</v>
+      </c>
+      <c r="N365" s="4">
+        <v>0</v>
+      </c>
+      <c r="O365" s="4">
+        <v>1</v>
+      </c>
+      <c r="P365" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q365" s="4">
+        <v>1</v>
+      </c>
+      <c r="R365" s="4">
+        <v>1</v>
+      </c>
+      <c r="S365" s="4">
+        <v>0</v>
+      </c>
+      <c r="T365" s="4">
+        <v>0</v>
+      </c>
+      <c r="U365" s="4">
+        <v>0</v>
+      </c>
+      <c r="V365" s="4">
+        <v>0</v>
+      </c>
+      <c r="W365" s="4">
+        <v>1</v>
+      </c>
+      <c r="X365" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y365" s="4">
+        <v>100000</v>
+      </c>
+      <c r="Z365" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="366" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C366" s="4">
+        <v>5001003</v>
+      </c>
+      <c r="D366" s="43" t="s">
+        <v>790</v>
+      </c>
+      <c r="E366" s="4">
         <v>5</v>
       </c>
-      <c r="K365" s="4">
-        <v>0</v>
-      </c>
-      <c r="L365" s="4">
-        <v>1</v>
-      </c>
-      <c r="M365" s="4">
-        <v>1</v>
-      </c>
-      <c r="N365" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="O365" s="4">
-        <v>0</v>
-      </c>
-      <c r="P365" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q365" s="4">
-        <v>1</v>
-      </c>
-      <c r="R365" s="4">
-        <v>1</v>
-      </c>
-      <c r="S365" s="4">
-        <f t="shared" ref="S365:S382" si="8">S385-150</f>
-        <v>100</v>
-      </c>
-      <c r="T365" s="4">
-        <v>175</v>
-      </c>
-      <c r="U365" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="V365" s="4">
-        <v>0</v>
-      </c>
-      <c r="W365" s="4">
-        <v>1</v>
-      </c>
-      <c r="X365" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y365" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z365" s="41" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="366" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C366" s="39">
-        <v>6101003</v>
-      </c>
-      <c r="D366" s="40" t="s">
-        <v>651</v>
-      </c>
-      <c r="E366" s="4">
-        <v>6</v>
-      </c>
-      <c r="F366" s="39">
-        <v>10101103</v>
-      </c>
-      <c r="G366" s="4">
-        <v>1</v>
+      <c r="F366" s="13">
+        <v>10010053</v>
+      </c>
+      <c r="G366" s="14">
+        <v>0</v>
       </c>
       <c r="H366" s="38">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I366" s="4">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J366" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K366" s="4">
         <v>0</v>
@@ -30611,10 +30644,10 @@
         <v>1</v>
       </c>
       <c r="N366" s="4">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O366" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P366" s="4">
         <v>1</v>
@@ -30629,10 +30662,10 @@
         <v>0</v>
       </c>
       <c r="T366" s="4">
-        <v>175</v>
-      </c>
-      <c r="U366" s="4" t="s">
-        <v>449</v>
+        <v>0</v>
+      </c>
+      <c r="U366" s="4">
+        <v>0</v>
       </c>
       <c r="V366" s="4">
         <v>0</v>
@@ -30644,31 +30677,30 @@
         <v>0</v>
       </c>
       <c r="Y366" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z366" s="41" t="s">
-        <v>652</v>
+        <v>300000</v>
+      </c>
+      <c r="Z366" s="4" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="367" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C367" s="39">
-        <f>C364+1000</f>
-        <v>6102001</v>
+        <v>6101001</v>
       </c>
       <c r="D367" s="40" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E367" s="4">
         <v>6</v>
       </c>
       <c r="F367" s="39">
-        <v>10101201</v>
+        <v>10101101</v>
       </c>
       <c r="G367" s="4">
         <v>0</v>
       </c>
       <c r="H367" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I367" s="4">
         <v>5000</v>
@@ -30701,1359 +30733,1362 @@
         <v>1</v>
       </c>
       <c r="S367" s="4">
+        <f>S387-150</f>
+        <v>0</v>
+      </c>
+      <c r="T367" s="4">
+        <v>175</v>
+      </c>
+      <c r="U367" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="V367" s="4">
+        <v>0</v>
+      </c>
+      <c r="W367" s="4">
+        <v>1</v>
+      </c>
+      <c r="X367" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y367" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z367" s="41" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="368" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C368" s="39">
+        <v>6101002</v>
+      </c>
+      <c r="D368" s="40" t="s">
+        <v>649</v>
+      </c>
+      <c r="E368" s="4">
+        <v>6</v>
+      </c>
+      <c r="F368" s="39">
+        <v>10101102</v>
+      </c>
+      <c r="G368" s="4">
+        <v>0</v>
+      </c>
+      <c r="H368" s="38">
+        <v>11</v>
+      </c>
+      <c r="I368" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J368" s="4">
+        <v>5</v>
+      </c>
+      <c r="K368" s="4">
+        <v>0</v>
+      </c>
+      <c r="L368" s="4">
+        <v>1</v>
+      </c>
+      <c r="M368" s="4">
+        <v>1</v>
+      </c>
+      <c r="N368" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O368" s="4">
+        <v>0</v>
+      </c>
+      <c r="P368" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q368" s="4">
+        <v>1</v>
+      </c>
+      <c r="R368" s="4">
+        <v>1</v>
+      </c>
+      <c r="S368" s="4">
+        <f t="shared" ref="S368:S385" si="8">S388-150</f>
+        <v>100</v>
+      </c>
+      <c r="T368" s="4">
+        <v>175</v>
+      </c>
+      <c r="U368" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="V368" s="4">
+        <v>0</v>
+      </c>
+      <c r="W368" s="4">
+        <v>1</v>
+      </c>
+      <c r="X368" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y368" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z368" s="41" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="369" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C369" s="39">
+        <v>6101003</v>
+      </c>
+      <c r="D369" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="E369" s="4">
+        <v>6</v>
+      </c>
+      <c r="F369" s="39">
+        <v>10101103</v>
+      </c>
+      <c r="G369" s="4">
+        <v>1</v>
+      </c>
+      <c r="H369" s="38">
+        <v>1</v>
+      </c>
+      <c r="I369" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J369" s="4">
+        <v>5</v>
+      </c>
+      <c r="K369" s="4">
+        <v>0</v>
+      </c>
+      <c r="L369" s="4">
+        <v>1</v>
+      </c>
+      <c r="M369" s="4">
+        <v>1</v>
+      </c>
+      <c r="N369" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O369" s="4">
+        <v>0</v>
+      </c>
+      <c r="P369" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q369" s="4">
+        <v>1</v>
+      </c>
+      <c r="R369" s="4">
+        <v>1</v>
+      </c>
+      <c r="S369" s="4">
+        <v>0</v>
+      </c>
+      <c r="T369" s="4">
+        <v>175</v>
+      </c>
+      <c r="U369" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="V369" s="4">
+        <v>0</v>
+      </c>
+      <c r="W369" s="4">
+        <v>1</v>
+      </c>
+      <c r="X369" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y369" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z369" s="41" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="370" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C370" s="39">
+        <f>C367+1000</f>
+        <v>6102001</v>
+      </c>
+      <c r="D370" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="E370" s="4">
+        <v>6</v>
+      </c>
+      <c r="F370" s="39">
+        <v>10101201</v>
+      </c>
+      <c r="G370" s="4">
+        <v>0</v>
+      </c>
+      <c r="H370" s="38">
+        <v>3</v>
+      </c>
+      <c r="I370" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J370" s="4">
+        <v>5</v>
+      </c>
+      <c r="K370" s="4">
+        <v>0</v>
+      </c>
+      <c r="L370" s="4">
+        <v>1</v>
+      </c>
+      <c r="M370" s="4">
+        <v>1</v>
+      </c>
+      <c r="N370" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O370" s="4">
+        <v>0</v>
+      </c>
+      <c r="P370" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q370" s="4">
+        <v>1</v>
+      </c>
+      <c r="R370" s="4">
+        <v>1</v>
+      </c>
+      <c r="S370" s="4">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="T367" s="4">
+      <c r="T370" s="4">
         <v>175</v>
       </c>
-      <c r="U367" s="4" t="s">
+      <c r="U370" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V367" s="4">
-        <v>0</v>
-      </c>
-      <c r="W367" s="4">
-        <v>1</v>
-      </c>
-      <c r="X367" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y367" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z367" s="41" t="s">
+      <c r="V370" s="4">
+        <v>0</v>
+      </c>
+      <c r="W370" s="4">
+        <v>1</v>
+      </c>
+      <c r="X370" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y370" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z370" s="41" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="368" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C368" s="39">
-        <f t="shared" ref="C368:C372" si="9">C365+1000</f>
+    <row r="371" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C371" s="39">
+        <f t="shared" ref="C371:C375" si="9">C368+1000</f>
         <v>6102002</v>
       </c>
-      <c r="D368" s="40" t="s">
+      <c r="D371" s="40" t="s">
         <v>654</v>
       </c>
-      <c r="E368" s="4">
+      <c r="E371" s="4">
         <v>6</v>
       </c>
-      <c r="F368" s="39">
+      <c r="F371" s="39">
         <v>10101202</v>
       </c>
-      <c r="G368" s="4">
-        <v>0</v>
-      </c>
-      <c r="H368" s="38">
+      <c r="G371" s="4">
+        <v>0</v>
+      </c>
+      <c r="H371" s="38">
         <v>12</v>
       </c>
-      <c r="I368" s="4">
+      <c r="I371" s="4">
         <v>5000</v>
       </c>
-      <c r="J368" s="4">
+      <c r="J371" s="4">
         <v>5</v>
       </c>
-      <c r="K368" s="4">
-        <v>0</v>
-      </c>
-      <c r="L368" s="4">
-        <v>1</v>
-      </c>
-      <c r="M368" s="4">
-        <v>1</v>
-      </c>
-      <c r="N368" s="4">
+      <c r="K371" s="4">
+        <v>0</v>
+      </c>
+      <c r="L371" s="4">
+        <v>1</v>
+      </c>
+      <c r="M371" s="4">
+        <v>1</v>
+      </c>
+      <c r="N371" s="4">
         <v>0.02</v>
       </c>
-      <c r="O368" s="4">
-        <v>0</v>
-      </c>
-      <c r="P368" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q368" s="4">
-        <v>1</v>
-      </c>
-      <c r="R368" s="4">
-        <v>1</v>
-      </c>
-      <c r="S368" s="4">
+      <c r="O371" s="4">
+        <v>0</v>
+      </c>
+      <c r="P371" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q371" s="4">
+        <v>1</v>
+      </c>
+      <c r="R371" s="4">
+        <v>1</v>
+      </c>
+      <c r="S371" s="4">
         <f t="shared" si="8"/>
         <v>110</v>
       </c>
-      <c r="T368" s="4">
+      <c r="T371" s="4">
         <v>175</v>
       </c>
-      <c r="U368" s="4" t="s">
+      <c r="U371" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V368" s="4">
-        <v>0</v>
-      </c>
-      <c r="W368" s="4">
-        <v>1</v>
-      </c>
-      <c r="X368" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y368" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z368" s="41" t="s">
+      <c r="V371" s="4">
+        <v>0</v>
+      </c>
+      <c r="W371" s="4">
+        <v>1</v>
+      </c>
+      <c r="X371" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y371" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z371" s="41" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="369" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C369" s="39">
+    <row r="372" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C372" s="39">
         <f t="shared" si="9"/>
         <v>6102003</v>
       </c>
-      <c r="D369" s="40" t="s">
+      <c r="D372" s="40" t="s">
         <v>656</v>
       </c>
-      <c r="E369" s="4">
+      <c r="E372" s="4">
         <v>6</v>
       </c>
-      <c r="F369" s="39">
+      <c r="F372" s="39">
         <v>10101203</v>
       </c>
-      <c r="G369" s="4">
-        <v>1</v>
-      </c>
-      <c r="H369" s="38">
-        <v>1</v>
-      </c>
-      <c r="I369" s="4">
+      <c r="G372" s="4">
+        <v>1</v>
+      </c>
+      <c r="H372" s="38">
+        <v>1</v>
+      </c>
+      <c r="I372" s="4">
         <v>5000</v>
       </c>
-      <c r="J369" s="4">
+      <c r="J372" s="4">
         <v>5</v>
       </c>
-      <c r="K369" s="4">
-        <v>0</v>
-      </c>
-      <c r="L369" s="4">
-        <v>1</v>
-      </c>
-      <c r="M369" s="4">
-        <v>1</v>
-      </c>
-      <c r="N369" s="4">
+      <c r="K372" s="4">
+        <v>0</v>
+      </c>
+      <c r="L372" s="4">
+        <v>1</v>
+      </c>
+      <c r="M372" s="4">
+        <v>1</v>
+      </c>
+      <c r="N372" s="4">
         <v>0.02</v>
       </c>
-      <c r="O369" s="4">
-        <v>0</v>
-      </c>
-      <c r="P369" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q369" s="4">
-        <v>1</v>
-      </c>
-      <c r="R369" s="4">
-        <v>1</v>
-      </c>
-      <c r="S369" s="4">
-        <v>0</v>
-      </c>
-      <c r="T369" s="4">
+      <c r="O372" s="4">
+        <v>0</v>
+      </c>
+      <c r="P372" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q372" s="4">
+        <v>1</v>
+      </c>
+      <c r="R372" s="4">
+        <v>1</v>
+      </c>
+      <c r="S372" s="4">
+        <v>0</v>
+      </c>
+      <c r="T372" s="4">
         <v>175</v>
       </c>
-      <c r="U369" s="4" t="s">
+      <c r="U372" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V369" s="4">
-        <v>0</v>
-      </c>
-      <c r="W369" s="4">
-        <v>1</v>
-      </c>
-      <c r="X369" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y369" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z369" s="41" t="s">
+      <c r="V372" s="4">
+        <v>0</v>
+      </c>
+      <c r="W372" s="4">
+        <v>1</v>
+      </c>
+      <c r="X372" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y372" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z372" s="41" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="370" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C370" s="39">
+    <row r="373" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C373" s="39">
         <f t="shared" si="9"/>
         <v>6103001</v>
       </c>
-      <c r="D370" s="40" t="s">
+      <c r="D373" s="40" t="s">
         <v>658</v>
       </c>
-      <c r="E370" s="4">
+      <c r="E373" s="4">
         <v>6</v>
       </c>
-      <c r="F370" s="39">
+      <c r="F373" s="39">
         <v>10101301</v>
       </c>
-      <c r="G370" s="4">
-        <v>0</v>
-      </c>
-      <c r="H370" s="38">
+      <c r="G373" s="4">
+        <v>0</v>
+      </c>
+      <c r="H373" s="38">
         <v>5</v>
       </c>
-      <c r="I370" s="4">
+      <c r="I373" s="4">
         <v>5000</v>
       </c>
-      <c r="J370" s="4">
+      <c r="J373" s="4">
         <v>5</v>
       </c>
-      <c r="K370" s="4">
-        <v>0</v>
-      </c>
-      <c r="L370" s="4">
-        <v>1</v>
-      </c>
-      <c r="M370" s="4">
-        <v>1</v>
-      </c>
-      <c r="N370" s="4">
+      <c r="K373" s="4">
+        <v>0</v>
+      </c>
+      <c r="L373" s="4">
+        <v>1</v>
+      </c>
+      <c r="M373" s="4">
+        <v>1</v>
+      </c>
+      <c r="N373" s="4">
         <v>0.02</v>
       </c>
-      <c r="O370" s="4">
-        <v>0</v>
-      </c>
-      <c r="P370" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q370" s="4">
-        <v>1</v>
-      </c>
-      <c r="R370" s="4">
-        <v>1</v>
-      </c>
-      <c r="S370" s="4">
+      <c r="O373" s="4">
+        <v>0</v>
+      </c>
+      <c r="P373" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q373" s="4">
+        <v>1</v>
+      </c>
+      <c r="R373" s="4">
+        <v>1</v>
+      </c>
+      <c r="S373" s="4">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="T370" s="4">
+      <c r="T373" s="4">
         <v>175</v>
       </c>
-      <c r="U370" s="4" t="s">
+      <c r="U373" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V370" s="4">
-        <v>0</v>
-      </c>
-      <c r="W370" s="4">
-        <v>1</v>
-      </c>
-      <c r="X370" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y370" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z370" s="41" t="s">
+      <c r="V373" s="4">
+        <v>0</v>
+      </c>
+      <c r="W373" s="4">
+        <v>1</v>
+      </c>
+      <c r="X373" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y373" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z373" s="41" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="371" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C371" s="39">
+    <row r="374" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C374" s="39">
         <f t="shared" si="9"/>
         <v>6103002</v>
       </c>
-      <c r="D371" s="40" t="s">
+      <c r="D374" s="40" t="s">
         <v>660</v>
       </c>
-      <c r="E371" s="4">
+      <c r="E374" s="4">
         <v>6</v>
       </c>
-      <c r="F371" s="39">
+      <c r="F374" s="39">
         <v>10101302</v>
       </c>
-      <c r="G371" s="4">
-        <v>0</v>
-      </c>
-      <c r="H371" s="38">
+      <c r="G374" s="4">
+        <v>0</v>
+      </c>
+      <c r="H374" s="38">
         <v>13</v>
       </c>
-      <c r="I371" s="4">
+      <c r="I374" s="4">
         <v>5000</v>
       </c>
-      <c r="J371" s="4">
+      <c r="J374" s="4">
         <v>5</v>
       </c>
-      <c r="K371" s="4">
-        <v>0</v>
-      </c>
-      <c r="L371" s="4">
-        <v>1</v>
-      </c>
-      <c r="M371" s="4">
-        <v>1</v>
-      </c>
-      <c r="N371" s="4">
+      <c r="K374" s="4">
+        <v>0</v>
+      </c>
+      <c r="L374" s="4">
+        <v>1</v>
+      </c>
+      <c r="M374" s="4">
+        <v>1</v>
+      </c>
+      <c r="N374" s="4">
         <v>0.02</v>
       </c>
-      <c r="O371" s="4">
-        <v>0</v>
-      </c>
-      <c r="P371" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q371" s="4">
-        <v>1</v>
-      </c>
-      <c r="R371" s="4">
-        <v>1</v>
-      </c>
-      <c r="S371" s="4">
+      <c r="O374" s="4">
+        <v>0</v>
+      </c>
+      <c r="P374" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q374" s="4">
+        <v>1</v>
+      </c>
+      <c r="R374" s="4">
+        <v>1</v>
+      </c>
+      <c r="S374" s="4">
         <f t="shared" si="8"/>
         <v>120</v>
       </c>
-      <c r="T371" s="4">
+      <c r="T374" s="4">
         <v>175</v>
       </c>
-      <c r="U371" s="4" t="s">
+      <c r="U374" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V371" s="4">
-        <v>0</v>
-      </c>
-      <c r="W371" s="4">
-        <v>1</v>
-      </c>
-      <c r="X371" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y371" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z371" s="41" t="s">
+      <c r="V374" s="4">
+        <v>0</v>
+      </c>
+      <c r="W374" s="4">
+        <v>1</v>
+      </c>
+      <c r="X374" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y374" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z374" s="41" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="372" spans="3:26" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C372" s="39">
+    <row r="375" spans="3:26" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C375" s="39">
         <f t="shared" si="9"/>
         <v>6103003</v>
       </c>
-      <c r="D372" s="40" t="s">
+      <c r="D375" s="40" t="s">
         <v>662</v>
       </c>
-      <c r="E372" s="4">
+      <c r="E375" s="4">
         <v>6</v>
       </c>
-      <c r="F372" s="39">
+      <c r="F375" s="39">
         <v>10101303</v>
       </c>
-      <c r="G372" s="4">
-        <v>1</v>
-      </c>
-      <c r="H372" s="38">
-        <v>1</v>
-      </c>
-      <c r="I372" s="4">
+      <c r="G375" s="4">
+        <v>1</v>
+      </c>
+      <c r="H375" s="38">
+        <v>1</v>
+      </c>
+      <c r="I375" s="4">
         <v>5000</v>
       </c>
-      <c r="J372" s="4">
+      <c r="J375" s="4">
         <v>5</v>
       </c>
-      <c r="K372" s="4">
-        <v>0</v>
-      </c>
-      <c r="L372" s="4">
-        <v>1</v>
-      </c>
-      <c r="M372" s="4">
-        <v>1</v>
-      </c>
-      <c r="N372" s="4">
+      <c r="K375" s="4">
+        <v>0</v>
+      </c>
+      <c r="L375" s="4">
+        <v>1</v>
+      </c>
+      <c r="M375" s="4">
+        <v>1</v>
+      </c>
+      <c r="N375" s="4">
         <v>0.02</v>
       </c>
-      <c r="O372" s="4">
-        <v>0</v>
-      </c>
-      <c r="P372" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q372" s="4">
-        <v>1</v>
-      </c>
-      <c r="R372" s="4">
-        <v>1</v>
-      </c>
-      <c r="S372" s="4">
-        <v>0</v>
-      </c>
-      <c r="T372" s="4">
+      <c r="O375" s="4">
+        <v>0</v>
+      </c>
+      <c r="P375" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q375" s="4">
+        <v>1</v>
+      </c>
+      <c r="R375" s="4">
+        <v>1</v>
+      </c>
+      <c r="S375" s="4">
+        <v>0</v>
+      </c>
+      <c r="T375" s="4">
         <v>175</v>
       </c>
-      <c r="U372" s="4" t="s">
+      <c r="U375" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V372" s="4">
-        <v>0</v>
-      </c>
-      <c r="W372" s="4">
-        <v>1</v>
-      </c>
-      <c r="X372" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y372" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z372" s="41" t="s">
+      <c r="V375" s="4">
+        <v>0</v>
+      </c>
+      <c r="W375" s="4">
+        <v>1</v>
+      </c>
+      <c r="X375" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y375" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z375" s="41" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="373" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C373" s="39">
+    <row r="376" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C376" s="39">
         <v>6104001</v>
       </c>
-      <c r="D373" s="40" t="s">
+      <c r="D376" s="40" t="s">
         <v>664</v>
       </c>
-      <c r="E373" s="4">
+      <c r="E376" s="4">
         <v>6</v>
       </c>
-      <c r="F373" s="39">
+      <c r="F376" s="39">
         <v>10101401</v>
       </c>
-      <c r="G373" s="4">
-        <v>0</v>
-      </c>
-      <c r="H373" s="38">
+      <c r="G376" s="4">
+        <v>0</v>
+      </c>
+      <c r="H376" s="38">
         <v>7</v>
       </c>
-      <c r="I373" s="4">
+      <c r="I376" s="4">
         <v>5000</v>
       </c>
-      <c r="J373" s="4">
+      <c r="J376" s="4">
         <v>5</v>
       </c>
-      <c r="K373" s="4">
-        <v>0</v>
-      </c>
-      <c r="L373" s="4">
-        <v>1</v>
-      </c>
-      <c r="M373" s="4">
-        <v>1</v>
-      </c>
-      <c r="N373" s="4">
+      <c r="K376" s="4">
+        <v>0</v>
+      </c>
+      <c r="L376" s="4">
+        <v>1</v>
+      </c>
+      <c r="M376" s="4">
+        <v>1</v>
+      </c>
+      <c r="N376" s="4">
         <v>0.02</v>
       </c>
-      <c r="O373" s="4">
-        <v>0</v>
-      </c>
-      <c r="P373" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q373" s="4">
-        <v>1</v>
-      </c>
-      <c r="R373" s="4">
-        <v>1</v>
-      </c>
-      <c r="S373" s="4">
+      <c r="O376" s="4">
+        <v>0</v>
+      </c>
+      <c r="P376" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q376" s="4">
+        <v>1</v>
+      </c>
+      <c r="R376" s="4">
+        <v>1</v>
+      </c>
+      <c r="S376" s="4">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="T373" s="4">
+      <c r="T376" s="4">
         <v>175</v>
       </c>
-      <c r="U373" s="4" t="s">
+      <c r="U376" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V373" s="4">
-        <v>0</v>
-      </c>
-      <c r="W373" s="4">
-        <v>1</v>
-      </c>
-      <c r="X373" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y373" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z373" s="41" t="s">
+      <c r="V376" s="4">
+        <v>0</v>
+      </c>
+      <c r="W376" s="4">
+        <v>1</v>
+      </c>
+      <c r="X376" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y376" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z376" s="41" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="374" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C374" s="39">
+    <row r="377" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C377" s="39">
         <v>6104002</v>
       </c>
-      <c r="D374" s="40" t="s">
+      <c r="D377" s="40" t="s">
         <v>666</v>
       </c>
-      <c r="E374" s="4">
+      <c r="E377" s="4">
         <v>6</v>
       </c>
-      <c r="F374" s="39">
+      <c r="F377" s="39">
         <v>10101402</v>
       </c>
-      <c r="G374" s="4">
-        <v>0</v>
-      </c>
-      <c r="H374" s="38">
+      <c r="G377" s="4">
+        <v>0</v>
+      </c>
+      <c r="H377" s="38">
         <v>14</v>
       </c>
-      <c r="I374" s="4">
+      <c r="I377" s="4">
         <v>5000</v>
       </c>
-      <c r="J374" s="4">
+      <c r="J377" s="4">
         <v>5</v>
       </c>
-      <c r="K374" s="4">
-        <v>0</v>
-      </c>
-      <c r="L374" s="4">
-        <v>1</v>
-      </c>
-      <c r="M374" s="4">
-        <v>1</v>
-      </c>
-      <c r="N374" s="4">
+      <c r="K377" s="4">
+        <v>0</v>
+      </c>
+      <c r="L377" s="4">
+        <v>1</v>
+      </c>
+      <c r="M377" s="4">
+        <v>1</v>
+      </c>
+      <c r="N377" s="4">
         <v>0.02</v>
       </c>
-      <c r="O374" s="4">
-        <v>0</v>
-      </c>
-      <c r="P374" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q374" s="4">
-        <v>1</v>
-      </c>
-      <c r="R374" s="4">
-        <v>1</v>
-      </c>
-      <c r="S374" s="4">
+      <c r="O377" s="4">
+        <v>0</v>
+      </c>
+      <c r="P377" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q377" s="4">
+        <v>1</v>
+      </c>
+      <c r="R377" s="4">
+        <v>1</v>
+      </c>
+      <c r="S377" s="4">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="T374" s="4">
+      <c r="T377" s="4">
         <v>175</v>
       </c>
-      <c r="U374" s="4" t="s">
+      <c r="U377" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V374" s="4">
-        <v>0</v>
-      </c>
-      <c r="W374" s="4">
-        <v>1</v>
-      </c>
-      <c r="X374" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y374" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z374" s="41" t="s">
+      <c r="V377" s="4">
+        <v>0</v>
+      </c>
+      <c r="W377" s="4">
+        <v>1</v>
+      </c>
+      <c r="X377" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y377" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z377" s="41" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="375" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C375" s="39">
+    <row r="378" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C378" s="39">
         <v>6104003</v>
       </c>
-      <c r="D375" s="40" t="s">
+      <c r="D378" s="40" t="s">
         <v>667</v>
       </c>
-      <c r="E375" s="4">
+      <c r="E378" s="4">
         <v>6</v>
       </c>
-      <c r="F375" s="39">
+      <c r="F378" s="39">
         <v>10101403</v>
       </c>
-      <c r="G375" s="4">
-        <v>0</v>
-      </c>
-      <c r="H375" s="38">
+      <c r="G378" s="4">
+        <v>0</v>
+      </c>
+      <c r="H378" s="38">
         <v>14</v>
       </c>
-      <c r="I375" s="4">
+      <c r="I378" s="4">
         <v>5000</v>
       </c>
-      <c r="J375" s="4">
+      <c r="J378" s="4">
         <v>5</v>
       </c>
-      <c r="K375" s="4">
-        <v>0</v>
-      </c>
-      <c r="L375" s="4">
-        <v>1</v>
-      </c>
-      <c r="M375" s="4">
-        <v>1</v>
-      </c>
-      <c r="N375" s="4">
+      <c r="K378" s="4">
+        <v>0</v>
+      </c>
+      <c r="L378" s="4">
+        <v>1</v>
+      </c>
+      <c r="M378" s="4">
+        <v>1</v>
+      </c>
+      <c r="N378" s="4">
         <v>0.02</v>
       </c>
-      <c r="O375" s="4">
-        <v>0</v>
-      </c>
-      <c r="P375" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q375" s="4">
-        <v>1</v>
-      </c>
-      <c r="R375" s="4">
-        <v>1</v>
-      </c>
-      <c r="S375" s="4">
+      <c r="O378" s="4">
+        <v>0</v>
+      </c>
+      <c r="P378" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q378" s="4">
+        <v>1</v>
+      </c>
+      <c r="R378" s="4">
+        <v>1</v>
+      </c>
+      <c r="S378" s="4">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="T375" s="4">
+      <c r="T378" s="4">
         <v>175</v>
       </c>
-      <c r="U375" s="4" t="s">
+      <c r="U378" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V375" s="4">
-        <v>0</v>
-      </c>
-      <c r="W375" s="4">
-        <v>1</v>
-      </c>
-      <c r="X375" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y375" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z375" s="41" t="s">
+      <c r="V378" s="4">
+        <v>0</v>
+      </c>
+      <c r="W378" s="4">
+        <v>1</v>
+      </c>
+      <c r="X378" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y378" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z378" s="41" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="376" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C376" s="39">
+    <row r="379" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C379" s="39">
         <v>6104004</v>
       </c>
-      <c r="D376" s="40" t="s">
+      <c r="D379" s="40" t="s">
         <v>669</v>
       </c>
-      <c r="E376" s="4">
+      <c r="E379" s="4">
         <v>6</v>
       </c>
-      <c r="F376" s="39">
+      <c r="F379" s="39">
         <v>10101404</v>
       </c>
-      <c r="G376" s="1">
-        <v>1</v>
-      </c>
-      <c r="H376" s="38">
-        <v>1</v>
-      </c>
-      <c r="I376" s="4">
+      <c r="G379" s="1">
+        <v>1</v>
+      </c>
+      <c r="H379" s="38">
+        <v>1</v>
+      </c>
+      <c r="I379" s="4">
         <v>5000</v>
       </c>
-      <c r="J376" s="4">
+      <c r="J379" s="4">
         <v>5</v>
       </c>
-      <c r="K376" s="4">
-        <v>0</v>
-      </c>
-      <c r="L376" s="4">
-        <v>1</v>
-      </c>
-      <c r="M376" s="4">
-        <v>1</v>
-      </c>
-      <c r="N376" s="4">
+      <c r="K379" s="4">
+        <v>0</v>
+      </c>
+      <c r="L379" s="4">
+        <v>1</v>
+      </c>
+      <c r="M379" s="4">
+        <v>1</v>
+      </c>
+      <c r="N379" s="4">
         <v>0.02</v>
       </c>
-      <c r="O376" s="4">
-        <v>0</v>
-      </c>
-      <c r="P376" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q376" s="4">
-        <v>1</v>
-      </c>
-      <c r="R376" s="4">
-        <v>1</v>
-      </c>
-      <c r="S376" s="4">
-        <v>0</v>
-      </c>
-      <c r="T376" s="4">
+      <c r="O379" s="4">
+        <v>0</v>
+      </c>
+      <c r="P379" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q379" s="4">
+        <v>1</v>
+      </c>
+      <c r="R379" s="4">
+        <v>1</v>
+      </c>
+      <c r="S379" s="4">
+        <v>0</v>
+      </c>
+      <c r="T379" s="4">
         <v>175</v>
       </c>
-      <c r="U376" s="4" t="s">
+      <c r="U379" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V376" s="4">
-        <v>0</v>
-      </c>
-      <c r="W376" s="4">
-        <v>1</v>
-      </c>
-      <c r="X376" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y376" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z376" s="41" t="s">
+      <c r="V379" s="4">
+        <v>0</v>
+      </c>
+      <c r="W379" s="4">
+        <v>1</v>
+      </c>
+      <c r="X379" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y379" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z379" s="41" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="377" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C377" s="39">
+    <row r="380" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C380" s="39">
         <v>6105001</v>
       </c>
-      <c r="D377" s="40" t="s">
+      <c r="D380" s="40" t="s">
         <v>670</v>
       </c>
-      <c r="E377" s="4">
+      <c r="E380" s="4">
         <v>6</v>
       </c>
-      <c r="F377" s="39">
+      <c r="F380" s="39">
         <v>10101501</v>
       </c>
-      <c r="G377" s="1">
-        <v>0</v>
-      </c>
-      <c r="H377" s="38">
+      <c r="G380" s="1">
+        <v>0</v>
+      </c>
+      <c r="H380" s="38">
         <v>8</v>
       </c>
-      <c r="I377" s="4">
+      <c r="I380" s="4">
         <v>5000</v>
       </c>
-      <c r="J377" s="4">
+      <c r="J380" s="4">
         <v>5</v>
       </c>
-      <c r="K377" s="4">
-        <v>0</v>
-      </c>
-      <c r="L377" s="4">
-        <v>1</v>
-      </c>
-      <c r="M377" s="4">
-        <v>1</v>
-      </c>
-      <c r="N377" s="4">
+      <c r="K380" s="4">
+        <v>0</v>
+      </c>
+      <c r="L380" s="4">
+        <v>1</v>
+      </c>
+      <c r="M380" s="4">
+        <v>1</v>
+      </c>
+      <c r="N380" s="4">
         <v>0.02</v>
       </c>
-      <c r="O377" s="4">
-        <v>0</v>
-      </c>
-      <c r="P377" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q377" s="4">
-        <v>1</v>
-      </c>
-      <c r="R377" s="4">
-        <v>1</v>
-      </c>
-      <c r="S377" s="4">
+      <c r="O380" s="4">
+        <v>0</v>
+      </c>
+      <c r="P380" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q380" s="4">
+        <v>1</v>
+      </c>
+      <c r="R380" s="4">
+        <v>1</v>
+      </c>
+      <c r="S380" s="4">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="T377" s="4">
+      <c r="T380" s="4">
         <v>175</v>
       </c>
-      <c r="U377" s="4" t="s">
+      <c r="U380" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V377" s="4">
-        <v>0</v>
-      </c>
-      <c r="W377" s="4">
-        <v>1</v>
-      </c>
-      <c r="X377" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y377" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z377" s="41" t="s">
+      <c r="V380" s="4">
+        <v>0</v>
+      </c>
+      <c r="W380" s="4">
+        <v>1</v>
+      </c>
+      <c r="X380" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y380" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z380" s="41" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="378" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C378" s="39">
+    <row r="381" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C381" s="39">
         <v>6105002</v>
       </c>
-      <c r="D378" s="40" t="s">
+      <c r="D381" s="40" t="s">
         <v>671</v>
       </c>
-      <c r="E378" s="4">
+      <c r="E381" s="4">
         <v>6</v>
       </c>
-      <c r="F378" s="39">
+      <c r="F381" s="39">
         <v>10101502</v>
       </c>
-      <c r="G378" s="1">
-        <v>0</v>
-      </c>
-      <c r="H378" s="38">
+      <c r="G381" s="1">
+        <v>0</v>
+      </c>
+      <c r="H381" s="38">
         <v>15</v>
       </c>
-      <c r="I378" s="4">
+      <c r="I381" s="4">
         <v>5000</v>
       </c>
-      <c r="J378" s="4">
+      <c r="J381" s="4">
         <v>5</v>
       </c>
-      <c r="K378" s="4">
-        <v>0</v>
-      </c>
-      <c r="L378" s="4">
-        <v>1</v>
-      </c>
-      <c r="M378" s="4">
-        <v>1</v>
-      </c>
-      <c r="N378" s="4">
+      <c r="K381" s="4">
+        <v>0</v>
+      </c>
+      <c r="L381" s="4">
+        <v>1</v>
+      </c>
+      <c r="M381" s="4">
+        <v>1</v>
+      </c>
+      <c r="N381" s="4">
         <v>0.02</v>
       </c>
-      <c r="O378" s="4">
-        <v>0</v>
-      </c>
-      <c r="P378" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q378" s="4">
-        <v>1</v>
-      </c>
-      <c r="R378" s="4">
-        <v>1</v>
-      </c>
-      <c r="S378" s="4">
+      <c r="O381" s="4">
+        <v>0</v>
+      </c>
+      <c r="P381" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q381" s="4">
+        <v>1</v>
+      </c>
+      <c r="R381" s="4">
+        <v>1</v>
+      </c>
+      <c r="S381" s="4">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="T378" s="4">
+      <c r="T381" s="4">
         <v>175</v>
       </c>
-      <c r="U378" s="4" t="s">
+      <c r="U381" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V378" s="4">
-        <v>0</v>
-      </c>
-      <c r="W378" s="4">
-        <v>1</v>
-      </c>
-      <c r="X378" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y378" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z378" s="41" t="s">
+      <c r="V381" s="4">
+        <v>0</v>
+      </c>
+      <c r="W381" s="4">
+        <v>1</v>
+      </c>
+      <c r="X381" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y381" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z381" s="41" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="379" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C379" s="39">
+    <row r="382" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C382" s="39">
         <v>6105003</v>
       </c>
-      <c r="D379" s="40" t="s">
+      <c r="D382" s="40" t="s">
         <v>672</v>
       </c>
-      <c r="E379" s="4">
+      <c r="E382" s="4">
         <v>6</v>
       </c>
-      <c r="F379" s="39">
+      <c r="F382" s="39">
         <v>10101503</v>
       </c>
-      <c r="G379" s="1">
-        <v>0</v>
-      </c>
-      <c r="H379" s="38">
+      <c r="G382" s="1">
+        <v>0</v>
+      </c>
+      <c r="H382" s="38">
         <v>15</v>
       </c>
-      <c r="I379" s="4">
+      <c r="I382" s="4">
         <v>5000</v>
       </c>
-      <c r="J379" s="4">
+      <c r="J382" s="4">
         <v>5</v>
       </c>
-      <c r="K379" s="4">
-        <v>0</v>
-      </c>
-      <c r="L379" s="4">
-        <v>1</v>
-      </c>
-      <c r="M379" s="4">
-        <v>1</v>
-      </c>
-      <c r="N379" s="4">
+      <c r="K382" s="4">
+        <v>0</v>
+      </c>
+      <c r="L382" s="4">
+        <v>1</v>
+      </c>
+      <c r="M382" s="4">
+        <v>1</v>
+      </c>
+      <c r="N382" s="4">
         <v>0.02</v>
       </c>
-      <c r="O379" s="4">
-        <v>0</v>
-      </c>
-      <c r="P379" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q379" s="4">
-        <v>1</v>
-      </c>
-      <c r="R379" s="4">
-        <v>1</v>
-      </c>
-      <c r="S379" s="4">
+      <c r="O382" s="4">
+        <v>0</v>
+      </c>
+      <c r="P382" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q382" s="4">
+        <v>1</v>
+      </c>
+      <c r="R382" s="4">
+        <v>1</v>
+      </c>
+      <c r="S382" s="4">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="T379" s="4">
+      <c r="T382" s="4">
         <v>175</v>
       </c>
-      <c r="U379" s="4" t="s">
+      <c r="U382" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V379" s="4">
-        <v>0</v>
-      </c>
-      <c r="W379" s="4">
-        <v>1</v>
-      </c>
-      <c r="X379" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y379" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z379" s="41" t="s">
+      <c r="V382" s="4">
+        <v>0</v>
+      </c>
+      <c r="W382" s="4">
+        <v>1</v>
+      </c>
+      <c r="X382" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y382" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z382" s="41" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="380" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C380" s="39">
+    <row r="383" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C383" s="39">
         <v>6105004</v>
       </c>
-      <c r="D380" s="40" t="s">
+      <c r="D383" s="40" t="s">
         <v>673</v>
       </c>
-      <c r="E380" s="4">
+      <c r="E383" s="4">
         <v>6</v>
       </c>
-      <c r="F380" s="39">
+      <c r="F383" s="39">
         <v>10101504</v>
       </c>
-      <c r="G380" s="1">
-        <v>1</v>
-      </c>
-      <c r="H380" s="38">
-        <v>1</v>
-      </c>
-      <c r="I380" s="4">
+      <c r="G383" s="1">
+        <v>1</v>
+      </c>
+      <c r="H383" s="38">
+        <v>1</v>
+      </c>
+      <c r="I383" s="4">
         <v>5000</v>
       </c>
-      <c r="J380" s="4">
+      <c r="J383" s="4">
         <v>5</v>
       </c>
-      <c r="K380" s="4">
-        <v>0</v>
-      </c>
-      <c r="L380" s="4">
-        <v>1</v>
-      </c>
-      <c r="M380" s="4">
-        <v>1</v>
-      </c>
-      <c r="N380" s="4">
+      <c r="K383" s="4">
+        <v>0</v>
+      </c>
+      <c r="L383" s="4">
+        <v>1</v>
+      </c>
+      <c r="M383" s="4">
+        <v>1</v>
+      </c>
+      <c r="N383" s="4">
         <v>0.02</v>
       </c>
-      <c r="O380" s="4">
-        <v>0</v>
-      </c>
-      <c r="P380" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q380" s="4">
-        <v>1</v>
-      </c>
-      <c r="R380" s="4">
-        <v>1</v>
-      </c>
-      <c r="S380" s="4">
-        <v>0</v>
-      </c>
-      <c r="T380" s="4">
+      <c r="O383" s="4">
+        <v>0</v>
+      </c>
+      <c r="P383" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q383" s="4">
+        <v>1</v>
+      </c>
+      <c r="R383" s="4">
+        <v>1</v>
+      </c>
+      <c r="S383" s="4">
+        <v>0</v>
+      </c>
+      <c r="T383" s="4">
         <v>175</v>
       </c>
-      <c r="U380" s="4" t="s">
+      <c r="U383" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V380" s="4">
-        <v>0</v>
-      </c>
-      <c r="W380" s="4">
-        <v>1</v>
-      </c>
-      <c r="X380" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y380" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z380" s="41" t="s">
+      <c r="V383" s="4">
+        <v>0</v>
+      </c>
+      <c r="W383" s="4">
+        <v>1</v>
+      </c>
+      <c r="X383" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y383" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z383" s="41" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="381" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C381" s="39">
+    <row r="384" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C384" s="39">
         <v>6106001</v>
       </c>
-      <c r="D381" s="40" t="s">
+      <c r="D384" s="40" t="s">
         <v>674</v>
       </c>
-      <c r="E381" s="4">
+      <c r="E384" s="4">
         <v>6</v>
       </c>
-      <c r="F381" s="39">
+      <c r="F384" s="39">
         <v>10101601</v>
       </c>
-      <c r="G381" s="1">
-        <v>0</v>
-      </c>
-      <c r="H381" s="38">
+      <c r="G384" s="1">
+        <v>0</v>
+      </c>
+      <c r="H384" s="38">
         <v>10</v>
       </c>
-      <c r="I381" s="4">
+      <c r="I384" s="4">
         <v>5000</v>
       </c>
-      <c r="J381" s="4">
+      <c r="J384" s="4">
         <v>5</v>
       </c>
-      <c r="K381" s="4">
-        <v>0</v>
-      </c>
-      <c r="L381" s="4">
-        <v>1</v>
-      </c>
-      <c r="M381" s="4">
-        <v>1</v>
-      </c>
-      <c r="N381" s="4">
+      <c r="K384" s="4">
+        <v>0</v>
+      </c>
+      <c r="L384" s="4">
+        <v>1</v>
+      </c>
+      <c r="M384" s="4">
+        <v>1</v>
+      </c>
+      <c r="N384" s="4">
         <v>0.02</v>
       </c>
-      <c r="O381" s="4">
-        <v>0</v>
-      </c>
-      <c r="P381" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q381" s="4">
-        <v>1</v>
-      </c>
-      <c r="R381" s="4">
-        <v>1</v>
-      </c>
-      <c r="S381" s="4">
+      <c r="O384" s="4">
+        <v>0</v>
+      </c>
+      <c r="P384" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q384" s="4">
+        <v>1</v>
+      </c>
+      <c r="R384" s="4">
+        <v>1</v>
+      </c>
+      <c r="S384" s="4">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="T381" s="4">
+      <c r="T384" s="4">
         <v>175</v>
       </c>
-      <c r="U381" s="4" t="s">
+      <c r="U384" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V381" s="4">
-        <v>0</v>
-      </c>
-      <c r="W381" s="4">
-        <v>1</v>
-      </c>
-      <c r="X381" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y381" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z381" s="41" t="s">
+      <c r="V384" s="4">
+        <v>0</v>
+      </c>
+      <c r="W384" s="4">
+        <v>1</v>
+      </c>
+      <c r="X384" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y384" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z384" s="41" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="382" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C382" s="39">
+    <row r="385" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C385" s="39">
         <v>6106002</v>
       </c>
-      <c r="D382" s="40" t="s">
+      <c r="D385" s="40" t="s">
         <v>676</v>
       </c>
-      <c r="E382" s="4">
+      <c r="E385" s="4">
         <v>6</v>
       </c>
-      <c r="F382" s="39">
+      <c r="F385" s="39">
         <v>10101602</v>
       </c>
-      <c r="G382" s="1">
-        <v>0</v>
-      </c>
-      <c r="H382" s="38">
+      <c r="G385" s="1">
+        <v>0</v>
+      </c>
+      <c r="H385" s="38">
         <v>16</v>
       </c>
-      <c r="I382" s="4">
+      <c r="I385" s="4">
         <v>5000</v>
       </c>
-      <c r="J382" s="4">
+      <c r="J385" s="4">
         <v>5</v>
       </c>
-      <c r="K382" s="4">
-        <v>0</v>
-      </c>
-      <c r="L382" s="4">
-        <v>1</v>
-      </c>
-      <c r="M382" s="4">
-        <v>1</v>
-      </c>
-      <c r="N382" s="4">
+      <c r="K385" s="4">
+        <v>0</v>
+      </c>
+      <c r="L385" s="4">
+        <v>1</v>
+      </c>
+      <c r="M385" s="4">
+        <v>1</v>
+      </c>
+      <c r="N385" s="4">
         <v>0.02</v>
       </c>
-      <c r="O382" s="4">
-        <v>0</v>
-      </c>
-      <c r="P382" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q382" s="4">
-        <v>1</v>
-      </c>
-      <c r="R382" s="4">
-        <v>1</v>
-      </c>
-      <c r="S382" s="4">
+      <c r="O385" s="4">
+        <v>0</v>
+      </c>
+      <c r="P385" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q385" s="4">
+        <v>1</v>
+      </c>
+      <c r="R385" s="4">
+        <v>1</v>
+      </c>
+      <c r="S385" s="4">
         <f t="shared" si="8"/>
         <v>140</v>
       </c>
-      <c r="T382" s="4">
+      <c r="T385" s="4">
         <v>175</v>
-      </c>
-      <c r="U382" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="V382" s="4">
-        <v>0</v>
-      </c>
-      <c r="W382" s="4">
-        <v>1</v>
-      </c>
-      <c r="X382" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y382" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z382" s="41" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="383" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C383" s="39">
-        <v>6106003</v>
-      </c>
-      <c r="D383" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="E383" s="4">
-        <v>6</v>
-      </c>
-      <c r="F383" s="39">
-        <v>10101603</v>
-      </c>
-      <c r="G383" s="1">
-        <v>1</v>
-      </c>
-      <c r="H383" s="38">
-        <v>1</v>
-      </c>
-      <c r="I383" s="4">
-        <v>5000</v>
-      </c>
-      <c r="J383" s="4">
-        <v>5</v>
-      </c>
-      <c r="K383" s="4">
-        <v>0</v>
-      </c>
-      <c r="L383" s="4">
-        <v>1</v>
-      </c>
-      <c r="M383" s="4">
-        <v>1</v>
-      </c>
-      <c r="N383" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="O383" s="4">
-        <v>0</v>
-      </c>
-      <c r="P383" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q383" s="4">
-        <v>1</v>
-      </c>
-      <c r="R383" s="4">
-        <v>1</v>
-      </c>
-      <c r="S383" s="4">
-        <v>0</v>
-      </c>
-      <c r="T383" s="4">
-        <v>175</v>
-      </c>
-      <c r="U383" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="V383" s="4">
-        <v>0</v>
-      </c>
-      <c r="W383" s="4">
-        <v>1</v>
-      </c>
-      <c r="X383" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y383" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z383" s="41" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="384" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C384" s="39">
-        <v>6201001</v>
-      </c>
-      <c r="D384" s="40" t="s">
-        <v>678</v>
-      </c>
-      <c r="E384" s="4">
-        <v>6</v>
-      </c>
-      <c r="F384" s="39">
-        <v>10102101</v>
-      </c>
-      <c r="G384" s="4">
-        <v>0</v>
-      </c>
-      <c r="H384" s="38">
-        <v>30</v>
-      </c>
-      <c r="I384" s="4">
-        <v>10000</v>
-      </c>
-      <c r="J384" s="4">
-        <v>5</v>
-      </c>
-      <c r="K384" s="4">
-        <v>0</v>
-      </c>
-      <c r="L384" s="4">
-        <v>1</v>
-      </c>
-      <c r="M384" s="4">
-        <v>1</v>
-      </c>
-      <c r="N384" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="O384" s="4">
-        <v>0</v>
-      </c>
-      <c r="P384" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q384" s="4">
-        <v>1</v>
-      </c>
-      <c r="R384" s="4">
-        <v>1</v>
-      </c>
-      <c r="S384" s="4">
-        <v>150</v>
-      </c>
-      <c r="T384" s="4">
-        <v>350</v>
-      </c>
-      <c r="U384" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="V384" s="4">
-        <v>0</v>
-      </c>
-      <c r="W384" s="4">
-        <v>1</v>
-      </c>
-      <c r="X384" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y384" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z384" s="41" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="385" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C385" s="39">
-        <v>6201002</v>
-      </c>
-      <c r="D385" s="40" t="s">
-        <v>680</v>
-      </c>
-      <c r="E385" s="4">
-        <v>6</v>
-      </c>
-      <c r="F385" s="39">
-        <v>10102102</v>
-      </c>
-      <c r="G385" s="4">
-        <v>0</v>
-      </c>
-      <c r="H385" s="38">
-        <v>40</v>
-      </c>
-      <c r="I385" s="4">
-        <v>10000</v>
-      </c>
-      <c r="J385" s="4">
-        <v>5</v>
-      </c>
-      <c r="K385" s="4">
-        <v>0</v>
-      </c>
-      <c r="L385" s="4">
-        <v>1</v>
-      </c>
-      <c r="M385" s="4">
-        <v>1</v>
-      </c>
-      <c r="N385" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="O385" s="4">
-        <v>0</v>
-      </c>
-      <c r="P385" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q385" s="4">
-        <v>1</v>
-      </c>
-      <c r="R385" s="4">
-        <v>1</v>
-      </c>
-      <c r="S385" s="4">
-        <v>250</v>
-      </c>
-      <c r="T385" s="4">
-        <v>350</v>
       </c>
       <c r="U385" s="4" t="s">
         <v>449</v>
@@ -32071,30 +32106,30 @@
         <v>0</v>
       </c>
       <c r="Z385" s="41" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
     </row>
     <row r="386" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C386" s="39">
-        <v>6201003</v>
+        <v>6106003</v>
       </c>
       <c r="D386" s="40" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="E386" s="4">
         <v>6</v>
       </c>
       <c r="F386" s="39">
-        <v>10102103</v>
-      </c>
-      <c r="G386" s="4">
+        <v>10101603</v>
+      </c>
+      <c r="G386" s="1">
         <v>1</v>
       </c>
       <c r="H386" s="38">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I386" s="4">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="J386" s="4">
         <v>5</v>
@@ -32127,7 +32162,7 @@
         <v>0</v>
       </c>
       <c r="T386" s="4">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="U386" s="4" t="s">
         <v>449</v>
@@ -32145,27 +32180,27 @@
         <v>0</v>
       </c>
       <c r="Z386" s="41" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
     </row>
     <row r="387" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C387" s="39">
-        <v>6202001</v>
+        <v>6201001</v>
       </c>
       <c r="D387" s="40" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="E387" s="4">
         <v>6</v>
       </c>
       <c r="F387" s="39">
-        <v>10102201</v>
+        <v>10102101</v>
       </c>
       <c r="G387" s="4">
         <v>0</v>
       </c>
       <c r="H387" s="38">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I387" s="4">
         <v>10000</v>
@@ -32198,7 +32233,7 @@
         <v>1</v>
       </c>
       <c r="S387" s="4">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="T387" s="4">
         <v>350</v>
@@ -32224,22 +32259,22 @@
     </row>
     <row r="388" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C388" s="39">
-        <v>6202002</v>
+        <v>6201002</v>
       </c>
       <c r="D388" s="40" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E388" s="4">
         <v>6</v>
       </c>
       <c r="F388" s="39">
-        <v>10102202</v>
+        <v>10102102</v>
       </c>
       <c r="G388" s="4">
         <v>0</v>
       </c>
       <c r="H388" s="38">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I388" s="4">
         <v>10000</v>
@@ -32272,7 +32307,7 @@
         <v>1</v>
       </c>
       <c r="S388" s="4">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="T388" s="4">
         <v>350</v>
@@ -32293,21 +32328,21 @@
         <v>0</v>
       </c>
       <c r="Z388" s="41" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="389" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C389" s="39">
-        <v>6202003</v>
+        <v>6201003</v>
       </c>
       <c r="D389" s="40" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E389" s="4">
         <v>6</v>
       </c>
       <c r="F389" s="39">
-        <v>10102203</v>
+        <v>10102103</v>
       </c>
       <c r="G389" s="4">
         <v>1</v>
@@ -32367,27 +32402,27 @@
         <v>0</v>
       </c>
       <c r="Z389" s="41" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="390" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C390" s="39">
-        <v>6203001</v>
+        <v>6202001</v>
       </c>
       <c r="D390" s="40" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E390" s="4">
         <v>6</v>
       </c>
       <c r="F390" s="39">
-        <v>10102301</v>
+        <v>10102201</v>
       </c>
       <c r="G390" s="4">
         <v>0</v>
       </c>
       <c r="H390" s="38">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I390" s="4">
         <v>10000</v>
@@ -32420,7 +32455,7 @@
         <v>1</v>
       </c>
       <c r="S390" s="4">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="T390" s="4">
         <v>350</v>
@@ -32441,27 +32476,27 @@
         <v>0</v>
       </c>
       <c r="Z390" s="41" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
     </row>
     <row r="391" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C391" s="39">
-        <v>6203002</v>
+        <v>6202002</v>
       </c>
       <c r="D391" s="40" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E391" s="4">
         <v>6</v>
       </c>
       <c r="F391" s="39">
-        <v>10102302</v>
+        <v>10102202</v>
       </c>
       <c r="G391" s="4">
         <v>0</v>
       </c>
       <c r="H391" s="38">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I391" s="4">
         <v>10000</v>
@@ -32494,7 +32529,7 @@
         <v>1</v>
       </c>
       <c r="S391" s="4">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="T391" s="4">
         <v>350</v>
@@ -32515,21 +32550,21 @@
         <v>0</v>
       </c>
       <c r="Z391" s="41" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="392" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C392" s="39">
-        <v>6203003</v>
+        <v>6202003</v>
       </c>
       <c r="D392" s="40" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E392" s="4">
         <v>6</v>
       </c>
       <c r="F392" s="39">
-        <v>10102303</v>
+        <v>10102203</v>
       </c>
       <c r="G392" s="4">
         <v>1</v>
@@ -32589,27 +32624,27 @@
         <v>0</v>
       </c>
       <c r="Z392" s="41" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="393" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C393" s="39">
-        <v>6204001</v>
+        <v>6203001</v>
       </c>
       <c r="D393" s="40" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E393" s="4">
         <v>6</v>
       </c>
       <c r="F393" s="39">
-        <v>10102401</v>
+        <v>10102301</v>
       </c>
       <c r="G393" s="4">
         <v>0</v>
       </c>
       <c r="H393" s="38">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I393" s="4">
         <v>10000</v>
@@ -32642,7 +32677,7 @@
         <v>1</v>
       </c>
       <c r="S393" s="4">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="T393" s="4">
         <v>350</v>
@@ -32663,27 +32698,27 @@
         <v>0</v>
       </c>
       <c r="Z393" s="41" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="394" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C394" s="39">
-        <v>6204002</v>
+        <v>6203002</v>
       </c>
       <c r="D394" s="40" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E394" s="4">
         <v>6</v>
       </c>
       <c r="F394" s="39">
-        <v>10102402</v>
+        <v>10102302</v>
       </c>
       <c r="G394" s="4">
         <v>0</v>
       </c>
       <c r="H394" s="38">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I394" s="4">
         <v>10000</v>
@@ -32716,7 +32751,7 @@
         <v>1</v>
       </c>
       <c r="S394" s="4">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="T394" s="4">
         <v>350</v>
@@ -32737,27 +32772,27 @@
         <v>0</v>
       </c>
       <c r="Z394" s="41" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="395" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C395" s="39">
-        <v>6204003</v>
+        <v>6203003</v>
       </c>
       <c r="D395" s="40" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="E395" s="4">
         <v>6</v>
       </c>
       <c r="F395" s="39">
-        <v>10102403</v>
+        <v>10102303</v>
       </c>
       <c r="G395" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H395" s="38">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I395" s="4">
         <v>10000</v>
@@ -32790,7 +32825,7 @@
         <v>1</v>
       </c>
       <c r="S395" s="4">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="T395" s="4">
         <v>350</v>
@@ -32811,27 +32846,27 @@
         <v>0</v>
       </c>
       <c r="Z395" s="41" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="396" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C396" s="39">
-        <v>6204004</v>
+        <v>6204001</v>
       </c>
       <c r="D396" s="40" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E396" s="4">
         <v>6</v>
       </c>
       <c r="F396" s="39">
-        <v>10102404</v>
-      </c>
-      <c r="G396" s="1">
-        <v>1</v>
+        <v>10102401</v>
+      </c>
+      <c r="G396" s="4">
+        <v>0</v>
       </c>
       <c r="H396" s="38">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I396" s="4">
         <v>10000</v>
@@ -32864,7 +32899,7 @@
         <v>1</v>
       </c>
       <c r="S396" s="4">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="T396" s="4">
         <v>350</v>
@@ -32885,27 +32920,27 @@
         <v>0</v>
       </c>
       <c r="Z396" s="41" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="397" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C397" s="39">
-        <v>6205001</v>
+        <v>6204002</v>
       </c>
       <c r="D397" s="40" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E397" s="4">
         <v>6</v>
       </c>
       <c r="F397" s="39">
-        <v>10102501</v>
-      </c>
-      <c r="G397" s="1">
+        <v>10102402</v>
+      </c>
+      <c r="G397" s="4">
         <v>0</v>
       </c>
       <c r="H397" s="38">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I397" s="4">
         <v>10000</v>
@@ -32938,7 +32973,7 @@
         <v>1</v>
       </c>
       <c r="S397" s="4">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="T397" s="4">
         <v>350</v>
@@ -32959,27 +32994,27 @@
         <v>0</v>
       </c>
       <c r="Z397" s="41" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="398" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C398" s="39">
-        <v>6205002</v>
+        <v>6204003</v>
       </c>
       <c r="D398" s="40" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E398" s="4">
         <v>6</v>
       </c>
       <c r="F398" s="39">
-        <v>10102502</v>
-      </c>
-      <c r="G398" s="1">
+        <v>10102403</v>
+      </c>
+      <c r="G398" s="4">
         <v>0</v>
       </c>
       <c r="H398" s="38">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I398" s="4">
         <v>10000</v>
@@ -33012,7 +33047,7 @@
         <v>1</v>
       </c>
       <c r="S398" s="4">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="T398" s="4">
         <v>350</v>
@@ -33033,27 +33068,27 @@
         <v>0</v>
       </c>
       <c r="Z398" s="41" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
     </row>
     <row r="399" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C399" s="39">
-        <v>6205003</v>
+        <v>6204004</v>
       </c>
       <c r="D399" s="40" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E399" s="4">
         <v>6</v>
       </c>
       <c r="F399" s="39">
-        <v>10102503</v>
+        <v>10102404</v>
       </c>
       <c r="G399" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H399" s="38">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I399" s="4">
         <v>10000</v>
@@ -33086,7 +33121,7 @@
         <v>1</v>
       </c>
       <c r="S399" s="4">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="T399" s="4">
         <v>350</v>
@@ -33107,27 +33142,27 @@
         <v>0</v>
       </c>
       <c r="Z399" s="41" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="400" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C400" s="39">
-        <v>6205004</v>
+        <v>6205001</v>
       </c>
       <c r="D400" s="40" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E400" s="4">
         <v>6</v>
       </c>
       <c r="F400" s="39">
-        <v>10102504</v>
+        <v>10102501</v>
       </c>
       <c r="G400" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H400" s="38">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I400" s="4">
         <v>10000</v>
@@ -33160,7 +33195,7 @@
         <v>1</v>
       </c>
       <c r="S400" s="4">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="T400" s="4">
         <v>350</v>
@@ -33181,27 +33216,27 @@
         <v>0</v>
       </c>
       <c r="Z400" s="41" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="401" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C401" s="39">
-        <v>6206001</v>
+        <v>6205002</v>
       </c>
       <c r="D401" s="40" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="E401" s="4">
         <v>6</v>
       </c>
       <c r="F401" s="39">
-        <v>10102601</v>
+        <v>10102502</v>
       </c>
       <c r="G401" s="1">
         <v>0</v>
       </c>
       <c r="H401" s="38">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I401" s="4">
         <v>10000</v>
@@ -33234,7 +33269,7 @@
         <v>1</v>
       </c>
       <c r="S401" s="4">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="T401" s="4">
         <v>350</v>
@@ -33255,27 +33290,27 @@
         <v>0</v>
       </c>
       <c r="Z401" s="41" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
     </row>
     <row r="402" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C402" s="39">
-        <v>6206002</v>
+        <v>6205003</v>
       </c>
       <c r="D402" s="40" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E402" s="4">
         <v>6</v>
       </c>
       <c r="F402" s="39">
-        <v>10102602</v>
+        <v>10102503</v>
       </c>
       <c r="G402" s="1">
         <v>0</v>
       </c>
       <c r="H402" s="38">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I402" s="4">
         <v>10000</v>
@@ -33308,7 +33343,7 @@
         <v>1</v>
       </c>
       <c r="S402" s="4">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="T402" s="4">
         <v>350</v>
@@ -33329,27 +33364,27 @@
         <v>0</v>
       </c>
       <c r="Z402" s="41" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="403" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C403" s="39">
-        <v>6206003</v>
+        <v>6205004</v>
       </c>
       <c r="D403" s="40" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="E403" s="4">
         <v>6</v>
       </c>
       <c r="F403" s="39">
-        <v>10102603</v>
+        <v>10102504</v>
       </c>
       <c r="G403" s="1">
         <v>1</v>
       </c>
       <c r="H403" s="38">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I403" s="4">
         <v>10000</v>
@@ -33408,26 +33443,25 @@
     </row>
     <row r="404" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C404" s="39">
-        <v>6301001</v>
+        <v>6206001</v>
       </c>
       <c r="D404" s="40" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="E404" s="4">
         <v>6</v>
       </c>
       <c r="F404" s="39">
-        <v>10103101</v>
-      </c>
-      <c r="G404" s="4">
+        <v>10102601</v>
+      </c>
+      <c r="G404" s="1">
         <v>0</v>
       </c>
       <c r="H404" s="38">
-        <f>H384+20</f>
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I404" s="4">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="J404" s="4">
         <v>5</v>
@@ -33457,10 +33491,10 @@
         <v>1</v>
       </c>
       <c r="S404" s="4">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="T404" s="4">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="U404" s="4" t="s">
         <v>449</v>
@@ -33478,31 +33512,30 @@
         <v>0</v>
       </c>
       <c r="Z404" s="41" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="405" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C405" s="39">
-        <v>6301002</v>
+        <v>6206002</v>
       </c>
       <c r="D405" s="40" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E405" s="4">
         <v>6</v>
       </c>
       <c r="F405" s="39">
-        <v>10103102</v>
-      </c>
-      <c r="G405" s="4">
+        <v>10102602</v>
+      </c>
+      <c r="G405" s="1">
         <v>0</v>
       </c>
       <c r="H405" s="38">
-        <f t="shared" ref="H405:H421" si="10">H385+20</f>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I405" s="4">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="J405" s="4">
         <v>5</v>
@@ -33532,10 +33565,10 @@
         <v>1</v>
       </c>
       <c r="S405" s="4">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="T405" s="4">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="U405" s="4" t="s">
         <v>449</v>
@@ -33553,31 +33586,30 @@
         <v>0</v>
       </c>
       <c r="Z405" s="41" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="406" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C406" s="39">
-        <v>6301003</v>
+        <v>6206003</v>
       </c>
       <c r="D406" s="40" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="E406" s="4">
         <v>6</v>
       </c>
       <c r="F406" s="39">
-        <v>10103103</v>
-      </c>
-      <c r="G406" s="4">
+        <v>10102603</v>
+      </c>
+      <c r="G406" s="1">
         <v>1</v>
       </c>
       <c r="H406" s="38">
-        <f t="shared" si="10"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I406" s="4">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="J406" s="4">
         <v>5</v>
@@ -33610,7 +33642,7 @@
         <v>0</v>
       </c>
       <c r="T406" s="4">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="U406" s="4" t="s">
         <v>449</v>
@@ -33628,28 +33660,28 @@
         <v>0</v>
       </c>
       <c r="Z406" s="41" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
     </row>
     <row r="407" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C407" s="39">
-        <v>6302001</v>
+        <v>6301001</v>
       </c>
       <c r="D407" s="40" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="E407" s="4">
         <v>6</v>
       </c>
       <c r="F407" s="39">
-        <v>10103201</v>
+        <v>10103101</v>
       </c>
       <c r="G407" s="4">
         <v>0</v>
       </c>
       <c r="H407" s="38">
-        <f t="shared" si="10"/>
-        <v>52</v>
+        <f>H387+20</f>
+        <v>50</v>
       </c>
       <c r="I407" s="4">
         <v>12500</v>
@@ -33682,7 +33714,7 @@
         <v>1</v>
       </c>
       <c r="S407" s="4">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="T407" s="4">
         <v>500</v>
@@ -33708,22 +33740,23 @@
     </row>
     <row r="408" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C408" s="39">
-        <v>6302002</v>
+        <v>6301002</v>
       </c>
       <c r="D408" s="40" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E408" s="4">
         <v>6</v>
       </c>
       <c r="F408" s="39">
-        <v>10103202</v>
+        <v>10103102</v>
       </c>
       <c r="G408" s="4">
         <v>0</v>
       </c>
       <c r="H408" s="38">
-        <v>51</v>
+        <f t="shared" ref="H408:H424" si="10">H388+20</f>
+        <v>60</v>
       </c>
       <c r="I408" s="4">
         <v>12500</v>
@@ -33756,7 +33789,7 @@
         <v>1</v>
       </c>
       <c r="S408" s="4">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="T408" s="4">
         <v>500</v>
@@ -33777,21 +33810,21 @@
         <v>0</v>
       </c>
       <c r="Z408" s="41" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="409" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C409" s="39">
-        <v>6302003</v>
+        <v>6301003</v>
       </c>
       <c r="D409" s="40" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="E409" s="4">
         <v>6</v>
       </c>
       <c r="F409" s="39">
-        <v>10103203</v>
+        <v>10103103</v>
       </c>
       <c r="G409" s="4">
         <v>1</v>
@@ -33852,28 +33885,28 @@
         <v>0</v>
       </c>
       <c r="Z409" s="41" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="410" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C410" s="39">
-        <v>6303001</v>
+        <v>6302001</v>
       </c>
       <c r="D410" s="40" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E410" s="4">
         <v>6</v>
       </c>
       <c r="F410" s="39">
-        <v>10103301</v>
+        <v>10103201</v>
       </c>
       <c r="G410" s="4">
         <v>0</v>
       </c>
       <c r="H410" s="38">
         <f t="shared" si="10"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I410" s="4">
         <v>12500</v>
@@ -33906,7 +33939,7 @@
         <v>1</v>
       </c>
       <c r="S410" s="4">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="T410" s="4">
         <v>500</v>
@@ -33927,27 +33960,27 @@
         <v>0</v>
       </c>
       <c r="Z410" s="41" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
     </row>
     <row r="411" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C411" s="39">
-        <v>6303002</v>
+        <v>6302002</v>
       </c>
       <c r="D411" s="40" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E411" s="4">
         <v>6</v>
       </c>
       <c r="F411" s="39">
-        <v>10103302</v>
+        <v>10103202</v>
       </c>
       <c r="G411" s="4">
         <v>0</v>
       </c>
       <c r="H411" s="38">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I411" s="4">
         <v>12500</v>
@@ -33980,7 +34013,7 @@
         <v>1</v>
       </c>
       <c r="S411" s="4">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="T411" s="4">
         <v>500</v>
@@ -34001,21 +34034,21 @@
         <v>0</v>
       </c>
       <c r="Z411" s="41" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="412" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C412" s="39">
-        <v>6303003</v>
+        <v>6302003</v>
       </c>
       <c r="D412" s="40" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E412" s="4">
         <v>6</v>
       </c>
       <c r="F412" s="39">
-        <v>10103303</v>
+        <v>10103203</v>
       </c>
       <c r="G412" s="4">
         <v>1</v>
@@ -34076,28 +34109,28 @@
         <v>0</v>
       </c>
       <c r="Z412" s="41" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="413" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C413" s="39">
-        <v>6304001</v>
+        <v>6303001</v>
       </c>
       <c r="D413" s="40" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E413" s="4">
         <v>6</v>
       </c>
       <c r="F413" s="39">
-        <v>10103401</v>
+        <v>10103301</v>
       </c>
       <c r="G413" s="4">
         <v>0</v>
       </c>
       <c r="H413" s="38">
         <f t="shared" si="10"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I413" s="4">
         <v>12500</v>
@@ -34130,7 +34163,7 @@
         <v>1</v>
       </c>
       <c r="S413" s="4">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="T413" s="4">
         <v>500</v>
@@ -34151,27 +34184,27 @@
         <v>0</v>
       </c>
       <c r="Z413" s="41" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="414" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C414" s="39">
-        <v>6304002</v>
+        <v>6303002</v>
       </c>
       <c r="D414" s="40" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E414" s="4">
         <v>6</v>
       </c>
       <c r="F414" s="39">
-        <v>10103402</v>
+        <v>10103302</v>
       </c>
       <c r="G414" s="4">
         <v>0</v>
       </c>
       <c r="H414" s="38">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I414" s="4">
         <v>12500</v>
@@ -34204,7 +34237,7 @@
         <v>1</v>
       </c>
       <c r="S414" s="4">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="T414" s="4">
         <v>500</v>
@@ -34225,27 +34258,28 @@
         <v>0</v>
       </c>
       <c r="Z414" s="41" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="415" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C415" s="39">
-        <v>6304003</v>
+        <v>6303003</v>
       </c>
       <c r="D415" s="40" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E415" s="4">
         <v>6</v>
       </c>
       <c r="F415" s="39">
-        <v>10103403</v>
+        <v>10103303</v>
       </c>
       <c r="G415" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H415" s="38">
-        <v>53</v>
+        <f t="shared" si="10"/>
+        <v>50</v>
       </c>
       <c r="I415" s="4">
         <v>12500</v>
@@ -34278,7 +34312,7 @@
         <v>1</v>
       </c>
       <c r="S415" s="4">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="T415" s="4">
         <v>500</v>
@@ -34299,28 +34333,28 @@
         <v>0</v>
       </c>
       <c r="Z415" s="41" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="416" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C416" s="39">
-        <v>6304004</v>
+        <v>6304001</v>
       </c>
       <c r="D416" s="40" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E416" s="4">
         <v>6</v>
       </c>
       <c r="F416" s="39">
-        <v>10103404</v>
-      </c>
-      <c r="G416" s="1">
-        <v>1</v>
+        <v>10103401</v>
+      </c>
+      <c r="G416" s="4">
+        <v>0</v>
       </c>
       <c r="H416" s="38">
         <f t="shared" si="10"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I416" s="4">
         <v>12500</v>
@@ -34353,7 +34387,7 @@
         <v>1</v>
       </c>
       <c r="S416" s="4">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="T416" s="4">
         <v>500</v>
@@ -34374,551 +34408,552 @@
         <v>0</v>
       </c>
       <c r="Z416" s="41" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="417" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C417" s="39">
-        <v>6305001</v>
+        <v>6304002</v>
       </c>
       <c r="D417" s="40" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E417" s="4">
         <v>6</v>
       </c>
       <c r="F417" s="39">
+        <v>10103402</v>
+      </c>
+      <c r="G417" s="4">
+        <v>0</v>
+      </c>
+      <c r="H417" s="38">
+        <v>53</v>
+      </c>
+      <c r="I417" s="4">
+        <v>12500</v>
+      </c>
+      <c r="J417" s="4">
+        <v>5</v>
+      </c>
+      <c r="K417" s="4">
+        <v>0</v>
+      </c>
+      <c r="L417" s="4">
+        <v>1</v>
+      </c>
+      <c r="M417" s="4">
+        <v>1</v>
+      </c>
+      <c r="N417" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O417" s="4">
+        <v>0</v>
+      </c>
+      <c r="P417" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q417" s="4">
+        <v>1</v>
+      </c>
+      <c r="R417" s="4">
+        <v>1</v>
+      </c>
+      <c r="S417" s="4">
+        <v>360</v>
+      </c>
+      <c r="T417" s="4">
+        <v>500</v>
+      </c>
+      <c r="U417" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="V417" s="4">
+        <v>0</v>
+      </c>
+      <c r="W417" s="4">
+        <v>1</v>
+      </c>
+      <c r="X417" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y417" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z417" s="41" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="418" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C418" s="39">
+        <v>6304003</v>
+      </c>
+      <c r="D418" s="40" t="s">
+        <v>730</v>
+      </c>
+      <c r="E418" s="4">
+        <v>6</v>
+      </c>
+      <c r="F418" s="39">
+        <v>10103403</v>
+      </c>
+      <c r="G418" s="4">
+        <v>0</v>
+      </c>
+      <c r="H418" s="38">
+        <v>53</v>
+      </c>
+      <c r="I418" s="4">
+        <v>12500</v>
+      </c>
+      <c r="J418" s="4">
+        <v>5</v>
+      </c>
+      <c r="K418" s="4">
+        <v>0</v>
+      </c>
+      <c r="L418" s="4">
+        <v>1</v>
+      </c>
+      <c r="M418" s="4">
+        <v>1</v>
+      </c>
+      <c r="N418" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O418" s="4">
+        <v>0</v>
+      </c>
+      <c r="P418" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q418" s="4">
+        <v>1</v>
+      </c>
+      <c r="R418" s="4">
+        <v>1</v>
+      </c>
+      <c r="S418" s="4">
+        <v>390</v>
+      </c>
+      <c r="T418" s="4">
+        <v>500</v>
+      </c>
+      <c r="U418" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="V418" s="4">
+        <v>0</v>
+      </c>
+      <c r="W418" s="4">
+        <v>1</v>
+      </c>
+      <c r="X418" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y418" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z418" s="41" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="419" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C419" s="39">
+        <v>6304004</v>
+      </c>
+      <c r="D419" s="40" t="s">
+        <v>732</v>
+      </c>
+      <c r="E419" s="4">
+        <v>6</v>
+      </c>
+      <c r="F419" s="39">
+        <v>10103404</v>
+      </c>
+      <c r="G419" s="1">
+        <v>1</v>
+      </c>
+      <c r="H419" s="38">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="I419" s="4">
+        <v>12500</v>
+      </c>
+      <c r="J419" s="4">
+        <v>5</v>
+      </c>
+      <c r="K419" s="4">
+        <v>0</v>
+      </c>
+      <c r="L419" s="4">
+        <v>1</v>
+      </c>
+      <c r="M419" s="4">
+        <v>1</v>
+      </c>
+      <c r="N419" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O419" s="4">
+        <v>0</v>
+      </c>
+      <c r="P419" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q419" s="4">
+        <v>1</v>
+      </c>
+      <c r="R419" s="4">
+        <v>1</v>
+      </c>
+      <c r="S419" s="4">
+        <v>0</v>
+      </c>
+      <c r="T419" s="4">
+        <v>500</v>
+      </c>
+      <c r="U419" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="V419" s="4">
+        <v>0</v>
+      </c>
+      <c r="W419" s="4">
+        <v>1</v>
+      </c>
+      <c r="X419" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y419" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z419" s="41" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="420" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C420" s="39">
+        <v>6305001</v>
+      </c>
+      <c r="D420" s="40" t="s">
+        <v>733</v>
+      </c>
+      <c r="E420" s="4">
+        <v>6</v>
+      </c>
+      <c r="F420" s="39">
         <v>10103501</v>
       </c>
-      <c r="G417" s="1">
-        <v>0</v>
-      </c>
-      <c r="H417" s="38">
+      <c r="G420" s="1">
+        <v>0</v>
+      </c>
+      <c r="H420" s="38">
         <f t="shared" si="10"/>
         <v>57</v>
       </c>
-      <c r="I417" s="4">
+      <c r="I420" s="4">
         <v>12500</v>
       </c>
-      <c r="J417" s="4">
+      <c r="J420" s="4">
         <v>5</v>
       </c>
-      <c r="K417" s="4">
-        <v>0</v>
-      </c>
-      <c r="L417" s="4">
-        <v>1</v>
-      </c>
-      <c r="M417" s="4">
-        <v>1</v>
-      </c>
-      <c r="N417" s="4">
+      <c r="K420" s="4">
+        <v>0</v>
+      </c>
+      <c r="L420" s="4">
+        <v>1</v>
+      </c>
+      <c r="M420" s="4">
+        <v>1</v>
+      </c>
+      <c r="N420" s="4">
         <v>0.02</v>
       </c>
-      <c r="O417" s="4">
-        <v>0</v>
-      </c>
-      <c r="P417" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q417" s="4">
-        <v>1</v>
-      </c>
-      <c r="R417" s="4">
-        <v>1</v>
-      </c>
-      <c r="S417" s="4">
+      <c r="O420" s="4">
+        <v>0</v>
+      </c>
+      <c r="P420" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q420" s="4">
+        <v>1</v>
+      </c>
+      <c r="R420" s="4">
+        <v>1</v>
+      </c>
+      <c r="S420" s="4">
         <v>330</v>
       </c>
-      <c r="T417" s="4">
+      <c r="T420" s="4">
         <v>500</v>
       </c>
-      <c r="U417" s="4" t="s">
+      <c r="U420" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V417" s="4">
-        <v>0</v>
-      </c>
-      <c r="W417" s="4">
-        <v>1</v>
-      </c>
-      <c r="X417" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y417" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z417" s="41" t="s">
+      <c r="V420" s="4">
+        <v>0</v>
+      </c>
+      <c r="W420" s="4">
+        <v>1</v>
+      </c>
+      <c r="X420" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y420" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z420" s="41" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="418" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C418" s="39">
+    <row r="421" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C421" s="39">
         <v>6305002</v>
       </c>
-      <c r="D418" s="40" t="s">
+      <c r="D421" s="40" t="s">
         <v>734</v>
       </c>
-      <c r="E418" s="4">
+      <c r="E421" s="4">
         <v>6</v>
       </c>
-      <c r="F418" s="39">
+      <c r="F421" s="39">
         <v>10103502</v>
       </c>
-      <c r="G418" s="1">
-        <v>0</v>
-      </c>
-      <c r="H418" s="38">
+      <c r="G421" s="1">
+        <v>0</v>
+      </c>
+      <c r="H421" s="38">
         <v>54</v>
       </c>
-      <c r="I418" s="4">
+      <c r="I421" s="4">
         <v>12500</v>
       </c>
-      <c r="J418" s="4">
+      <c r="J421" s="4">
         <v>5</v>
       </c>
-      <c r="K418" s="4">
-        <v>0</v>
-      </c>
-      <c r="L418" s="4">
-        <v>1</v>
-      </c>
-      <c r="M418" s="4">
-        <v>1</v>
-      </c>
-      <c r="N418" s="4">
+      <c r="K421" s="4">
+        <v>0</v>
+      </c>
+      <c r="L421" s="4">
+        <v>1</v>
+      </c>
+      <c r="M421" s="4">
+        <v>1</v>
+      </c>
+      <c r="N421" s="4">
         <v>0.02</v>
       </c>
-      <c r="O418" s="4">
-        <v>0</v>
-      </c>
-      <c r="P418" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q418" s="4">
-        <v>1</v>
-      </c>
-      <c r="R418" s="4">
-        <v>1</v>
-      </c>
-      <c r="S418" s="4">
+      <c r="O421" s="4">
+        <v>0</v>
+      </c>
+      <c r="P421" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q421" s="4">
+        <v>1</v>
+      </c>
+      <c r="R421" s="4">
+        <v>1</v>
+      </c>
+      <c r="S421" s="4">
         <v>360</v>
       </c>
-      <c r="T418" s="4">
+      <c r="T421" s="4">
         <v>500</v>
       </c>
-      <c r="U418" s="4" t="s">
+      <c r="U421" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V418" s="4">
-        <v>0</v>
-      </c>
-      <c r="W418" s="4">
-        <v>1</v>
-      </c>
-      <c r="X418" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y418" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z418" s="41" t="s">
+      <c r="V421" s="4">
+        <v>0</v>
+      </c>
+      <c r="W421" s="4">
+        <v>1</v>
+      </c>
+      <c r="X421" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y421" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z421" s="41" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="419" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C419" s="39">
+    <row r="422" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C422" s="39">
         <v>6305003</v>
       </c>
-      <c r="D419" s="40" t="s">
+      <c r="D422" s="40" t="s">
         <v>735</v>
       </c>
-      <c r="E419" s="4">
+      <c r="E422" s="4">
         <v>6</v>
       </c>
-      <c r="F419" s="39">
+      <c r="F422" s="39">
         <v>10103503</v>
       </c>
-      <c r="G419" s="1">
-        <v>0</v>
-      </c>
-      <c r="H419" s="38">
+      <c r="G422" s="1">
+        <v>0</v>
+      </c>
+      <c r="H422" s="38">
         <v>55</v>
       </c>
-      <c r="I419" s="4">
+      <c r="I422" s="4">
         <v>12500</v>
       </c>
-      <c r="J419" s="4">
+      <c r="J422" s="4">
         <v>5</v>
       </c>
-      <c r="K419" s="4">
-        <v>0</v>
-      </c>
-      <c r="L419" s="4">
-        <v>1</v>
-      </c>
-      <c r="M419" s="4">
-        <v>1</v>
-      </c>
-      <c r="N419" s="4">
+      <c r="K422" s="4">
+        <v>0</v>
+      </c>
+      <c r="L422" s="4">
+        <v>1</v>
+      </c>
+      <c r="M422" s="4">
+        <v>1</v>
+      </c>
+      <c r="N422" s="4">
         <v>0.02</v>
       </c>
-      <c r="O419" s="4">
-        <v>0</v>
-      </c>
-      <c r="P419" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q419" s="4">
-        <v>1</v>
-      </c>
-      <c r="R419" s="4">
-        <v>1</v>
-      </c>
-      <c r="S419" s="4">
+      <c r="O422" s="4">
+        <v>0</v>
+      </c>
+      <c r="P422" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q422" s="4">
+        <v>1</v>
+      </c>
+      <c r="R422" s="4">
+        <v>1</v>
+      </c>
+      <c r="S422" s="4">
         <v>390</v>
       </c>
-      <c r="T419" s="4">
+      <c r="T422" s="4">
         <v>500</v>
       </c>
-      <c r="U419" s="4" t="s">
+      <c r="U422" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V419" s="4">
-        <v>0</v>
-      </c>
-      <c r="W419" s="4">
-        <v>1</v>
-      </c>
-      <c r="X419" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y419" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z419" s="41" t="s">
+      <c r="V422" s="4">
+        <v>0</v>
+      </c>
+      <c r="W422" s="4">
+        <v>1</v>
+      </c>
+      <c r="X422" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y422" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z422" s="41" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="420" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C420" s="39">
+    <row r="423" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C423" s="39">
         <v>6305004</v>
       </c>
-      <c r="D420" s="40" t="s">
+      <c r="D423" s="40" t="s">
         <v>736</v>
       </c>
-      <c r="E420" s="4">
+      <c r="E423" s="4">
         <v>6</v>
       </c>
-      <c r="F420" s="39">
+      <c r="F423" s="39">
         <v>10103504</v>
       </c>
-      <c r="G420" s="1">
-        <v>1</v>
-      </c>
-      <c r="H420" s="38">
+      <c r="G423" s="1">
+        <v>1</v>
+      </c>
+      <c r="H423" s="38">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="I420" s="4">
+      <c r="I423" s="4">
         <v>12500</v>
       </c>
-      <c r="J420" s="4">
+      <c r="J423" s="4">
         <v>5</v>
       </c>
-      <c r="K420" s="4">
-        <v>0</v>
-      </c>
-      <c r="L420" s="4">
-        <v>1</v>
-      </c>
-      <c r="M420" s="4">
-        <v>1</v>
-      </c>
-      <c r="N420" s="4">
+      <c r="K423" s="4">
+        <v>0</v>
+      </c>
+      <c r="L423" s="4">
+        <v>1</v>
+      </c>
+      <c r="M423" s="4">
+        <v>1</v>
+      </c>
+      <c r="N423" s="4">
         <v>0.02</v>
       </c>
-      <c r="O420" s="4">
-        <v>0</v>
-      </c>
-      <c r="P420" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q420" s="4">
-        <v>1</v>
-      </c>
-      <c r="R420" s="4">
-        <v>1</v>
-      </c>
-      <c r="S420" s="4">
-        <v>0</v>
-      </c>
-      <c r="T420" s="4">
+      <c r="O423" s="4">
+        <v>0</v>
+      </c>
+      <c r="P423" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q423" s="4">
+        <v>1</v>
+      </c>
+      <c r="R423" s="4">
+        <v>1</v>
+      </c>
+      <c r="S423" s="4">
+        <v>0</v>
+      </c>
+      <c r="T423" s="4">
         <v>500</v>
       </c>
-      <c r="U420" s="4" t="s">
+      <c r="U423" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V420" s="4">
-        <v>0</v>
-      </c>
-      <c r="W420" s="4">
-        <v>1</v>
-      </c>
-      <c r="X420" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y420" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z420" s="41" t="s">
+      <c r="V423" s="4">
+        <v>0</v>
+      </c>
+      <c r="W423" s="4">
+        <v>1</v>
+      </c>
+      <c r="X423" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y423" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z423" s="41" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="421" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C421" s="39">
+    <row r="424" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C424" s="39">
         <v>6306001</v>
       </c>
-      <c r="D421" s="40" t="s">
+      <c r="D424" s="40" t="s">
         <v>737</v>
       </c>
-      <c r="E421" s="4">
+      <c r="E424" s="4">
         <v>6</v>
       </c>
-      <c r="F421" s="39">
+      <c r="F424" s="39">
         <v>10103601</v>
       </c>
-      <c r="G421" s="1">
-        <v>0</v>
-      </c>
-      <c r="H421" s="38">
+      <c r="G424" s="1">
+        <v>0</v>
+      </c>
+      <c r="H424" s="38">
         <f t="shared" si="10"/>
         <v>59</v>
       </c>
-      <c r="I421" s="4">
+      <c r="I424" s="4">
         <v>12500</v>
-      </c>
-      <c r="J421" s="4">
-        <v>5</v>
-      </c>
-      <c r="K421" s="4">
-        <v>0</v>
-      </c>
-      <c r="L421" s="4">
-        <v>1</v>
-      </c>
-      <c r="M421" s="4">
-        <v>1</v>
-      </c>
-      <c r="N421" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="O421" s="4">
-        <v>0</v>
-      </c>
-      <c r="P421" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q421" s="4">
-        <v>1</v>
-      </c>
-      <c r="R421" s="4">
-        <v>1</v>
-      </c>
-      <c r="S421" s="4">
-        <v>380</v>
-      </c>
-      <c r="T421" s="4">
-        <v>500</v>
-      </c>
-      <c r="U421" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="V421" s="4">
-        <v>0</v>
-      </c>
-      <c r="W421" s="4">
-        <v>1</v>
-      </c>
-      <c r="X421" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y421" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z421" s="41" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="422" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C422" s="39">
-        <v>6306002</v>
-      </c>
-      <c r="D422" s="40" t="s">
-        <v>739</v>
-      </c>
-      <c r="E422" s="4">
-        <v>6</v>
-      </c>
-      <c r="F422" s="39">
-        <v>10103602</v>
-      </c>
-      <c r="G422" s="1">
-        <v>0</v>
-      </c>
-      <c r="H422" s="38">
-        <v>55</v>
-      </c>
-      <c r="I422" s="4">
-        <v>12500</v>
-      </c>
-      <c r="J422" s="4">
-        <v>5</v>
-      </c>
-      <c r="K422" s="4">
-        <v>0</v>
-      </c>
-      <c r="L422" s="4">
-        <v>1</v>
-      </c>
-      <c r="M422" s="4">
-        <v>1</v>
-      </c>
-      <c r="N422" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="O422" s="4">
-        <v>0</v>
-      </c>
-      <c r="P422" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q422" s="4">
-        <v>1</v>
-      </c>
-      <c r="R422" s="4">
-        <v>1</v>
-      </c>
-      <c r="S422" s="4">
-        <v>440</v>
-      </c>
-      <c r="T422" s="4">
-        <v>500</v>
-      </c>
-      <c r="U422" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="V422" s="4">
-        <v>0</v>
-      </c>
-      <c r="W422" s="4">
-        <v>1</v>
-      </c>
-      <c r="X422" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y422" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z422" s="41" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="423" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C423" s="39">
-        <v>6306003</v>
-      </c>
-      <c r="D423" s="40" t="s">
-        <v>740</v>
-      </c>
-      <c r="E423" s="4">
-        <v>6</v>
-      </c>
-      <c r="F423" s="39">
-        <v>10103603</v>
-      </c>
-      <c r="G423" s="1">
-        <v>1</v>
-      </c>
-      <c r="H423" s="38">
-        <v>50</v>
-      </c>
-      <c r="I423" s="4">
-        <v>12500</v>
-      </c>
-      <c r="J423" s="4">
-        <v>5</v>
-      </c>
-      <c r="K423" s="4">
-        <v>0</v>
-      </c>
-      <c r="L423" s="4">
-        <v>1</v>
-      </c>
-      <c r="M423" s="4">
-        <v>1</v>
-      </c>
-      <c r="N423" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="O423" s="4">
-        <v>0</v>
-      </c>
-      <c r="P423" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q423" s="4">
-        <v>1</v>
-      </c>
-      <c r="R423" s="4">
-        <v>1</v>
-      </c>
-      <c r="S423" s="4">
-        <v>0</v>
-      </c>
-      <c r="T423" s="4">
-        <v>500</v>
-      </c>
-      <c r="U423" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="V423" s="4">
-        <v>0</v>
-      </c>
-      <c r="W423" s="4">
-        <v>1</v>
-      </c>
-      <c r="X423" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y423" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z423" s="41" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="424" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C424" s="39">
-        <v>7101001</v>
-      </c>
-      <c r="D424" s="40" t="s">
-        <v>741</v>
-      </c>
-      <c r="E424" s="4">
-        <v>1</v>
-      </c>
-      <c r="F424" s="39">
-        <v>10070101</v>
-      </c>
-      <c r="G424" s="4">
-        <v>0</v>
-      </c>
-      <c r="H424" s="38">
-        <v>10</v>
-      </c>
-      <c r="I424" s="4">
-        <v>5000</v>
       </c>
       <c r="J424" s="4">
         <v>5</v>
@@ -34948,10 +34983,10 @@
         <v>1</v>
       </c>
       <c r="S424" s="4">
-        <v>125</v>
+        <v>380</v>
       </c>
       <c r="T424" s="4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="U424" s="4" t="s">
         <v>449</v>
@@ -34969,30 +35004,30 @@
         <v>0</v>
       </c>
       <c r="Z424" s="41" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="425" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C425" s="39">
-        <v>7101002</v>
+        <v>6306002</v>
       </c>
       <c r="D425" s="40" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E425" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F425" s="39">
-        <v>10070102</v>
-      </c>
-      <c r="G425" s="4">
-        <v>0</v>
-      </c>
-      <c r="H425" s="4">
-        <v>12</v>
+        <v>10103602</v>
+      </c>
+      <c r="G425" s="1">
+        <v>0</v>
+      </c>
+      <c r="H425" s="38">
+        <v>55</v>
       </c>
       <c r="I425" s="4">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="J425" s="4">
         <v>5</v>
@@ -35022,10 +35057,10 @@
         <v>1</v>
       </c>
       <c r="S425" s="4">
-        <v>100</v>
+        <v>440</v>
       </c>
       <c r="T425" s="4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="U425" s="4" t="s">
         <v>449</v>
@@ -35042,31 +35077,31 @@
       <c r="Y425" s="4">
         <v>0</v>
       </c>
-      <c r="Z425" s="5" t="s">
-        <v>742</v>
+      <c r="Z425" s="41" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="426" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C426" s="39">
-        <v>7101003</v>
+        <v>6306003</v>
       </c>
       <c r="D426" s="40" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="E426" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F426" s="39">
-        <v>10070103</v>
-      </c>
-      <c r="G426" s="4">
-        <v>0</v>
-      </c>
-      <c r="H426" s="4">
-        <v>14</v>
+        <v>10103603</v>
+      </c>
+      <c r="G426" s="1">
+        <v>1</v>
+      </c>
+      <c r="H426" s="38">
+        <v>50</v>
       </c>
       <c r="I426" s="4">
-        <v>5000</v>
+        <v>12500</v>
       </c>
       <c r="J426" s="4">
         <v>5</v>
@@ -35096,10 +35131,10 @@
         <v>1</v>
       </c>
       <c r="S426" s="4">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="T426" s="4">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="U426" s="4" t="s">
         <v>449</v>
@@ -35116,28 +35151,28 @@
       <c r="Y426" s="4">
         <v>0</v>
       </c>
-      <c r="Z426" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="427" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z426" s="41" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="427" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C427" s="39">
-        <v>7101004</v>
+        <v>7101001</v>
       </c>
       <c r="D427" s="40" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="E427" s="4">
         <v>1</v>
       </c>
       <c r="F427" s="39">
-        <v>10070104</v>
+        <v>10070101</v>
       </c>
       <c r="G427" s="4">
         <v>0</v>
       </c>
-      <c r="H427" s="4">
-        <v>16</v>
+      <c r="H427" s="38">
+        <v>10</v>
       </c>
       <c r="I427" s="4">
         <v>5000</v>
@@ -35170,7 +35205,7 @@
         <v>1</v>
       </c>
       <c r="S427" s="4">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="T427" s="4">
         <v>0</v>
@@ -35190,31 +35225,31 @@
       <c r="Y427" s="4">
         <v>0</v>
       </c>
-      <c r="Z427" s="5" t="s">
+      <c r="Z427" s="41" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="428" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C428" s="39">
-        <v>7102001</v>
+        <v>7101002</v>
       </c>
       <c r="D428" s="40" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E428" s="4">
         <v>1</v>
       </c>
       <c r="F428" s="39">
-        <v>10070201</v>
+        <v>10070102</v>
       </c>
       <c r="G428" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H428" s="4">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I428" s="4">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="J428" s="4">
         <v>5</v>
@@ -35244,8 +35279,7 @@
         <v>1</v>
       </c>
       <c r="S428" s="4">
-        <f t="shared" ref="S428:S435" si="11">S424+150</f>
-        <v>275</v>
+        <v>100</v>
       </c>
       <c r="T428" s="4">
         <v>0</v>
@@ -35266,30 +35300,30 @@
         <v>0</v>
       </c>
       <c r="Z428" s="5" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="429" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C429" s="39">
-        <v>7102002</v>
+        <v>7101003</v>
       </c>
       <c r="D429" s="40" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="E429" s="4">
         <v>1</v>
       </c>
       <c r="F429" s="39">
-        <v>10070202</v>
+        <v>10070103</v>
       </c>
       <c r="G429" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H429" s="4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I429" s="4">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="J429" s="4">
         <v>5</v>
@@ -35319,683 +35353,684 @@
         <v>1</v>
       </c>
       <c r="S429" s="4">
+        <v>75</v>
+      </c>
+      <c r="T429" s="4">
+        <v>0</v>
+      </c>
+      <c r="U429" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="V429" s="4">
+        <v>0</v>
+      </c>
+      <c r="W429" s="4">
+        <v>1</v>
+      </c>
+      <c r="X429" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y429" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z429" s="5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="430" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C430" s="39">
+        <v>7101004</v>
+      </c>
+      <c r="D430" s="40" t="s">
+        <v>745</v>
+      </c>
+      <c r="E430" s="4">
+        <v>1</v>
+      </c>
+      <c r="F430" s="39">
+        <v>10070104</v>
+      </c>
+      <c r="G430" s="4">
+        <v>0</v>
+      </c>
+      <c r="H430" s="4">
+        <v>16</v>
+      </c>
+      <c r="I430" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J430" s="4">
+        <v>5</v>
+      </c>
+      <c r="K430" s="4">
+        <v>0</v>
+      </c>
+      <c r="L430" s="4">
+        <v>1</v>
+      </c>
+      <c r="M430" s="4">
+        <v>1</v>
+      </c>
+      <c r="N430" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O430" s="4">
+        <v>0</v>
+      </c>
+      <c r="P430" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q430" s="4">
+        <v>1</v>
+      </c>
+      <c r="R430" s="4">
+        <v>1</v>
+      </c>
+      <c r="S430" s="4">
+        <v>50</v>
+      </c>
+      <c r="T430" s="4">
+        <v>0</v>
+      </c>
+      <c r="U430" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="V430" s="4">
+        <v>0</v>
+      </c>
+      <c r="W430" s="4">
+        <v>1</v>
+      </c>
+      <c r="X430" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y430" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z430" s="5" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="431" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C431" s="39">
+        <v>7102001</v>
+      </c>
+      <c r="D431" s="40" t="s">
+        <v>746</v>
+      </c>
+      <c r="E431" s="4">
+        <v>1</v>
+      </c>
+      <c r="F431" s="39">
+        <v>10070201</v>
+      </c>
+      <c r="G431" s="4">
+        <v>1</v>
+      </c>
+      <c r="H431" s="4">
+        <v>30</v>
+      </c>
+      <c r="I431" s="4">
+        <v>7500</v>
+      </c>
+      <c r="J431" s="4">
+        <v>5</v>
+      </c>
+      <c r="K431" s="4">
+        <v>0</v>
+      </c>
+      <c r="L431" s="4">
+        <v>1</v>
+      </c>
+      <c r="M431" s="4">
+        <v>1</v>
+      </c>
+      <c r="N431" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O431" s="4">
+        <v>0</v>
+      </c>
+      <c r="P431" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q431" s="4">
+        <v>1</v>
+      </c>
+      <c r="R431" s="4">
+        <v>1</v>
+      </c>
+      <c r="S431" s="4">
+        <f t="shared" ref="S431:S438" si="11">S427+150</f>
+        <v>275</v>
+      </c>
+      <c r="T431" s="4">
+        <v>0</v>
+      </c>
+      <c r="U431" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="V431" s="4">
+        <v>0</v>
+      </c>
+      <c r="W431" s="4">
+        <v>1</v>
+      </c>
+      <c r="X431" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y431" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z431" s="5" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="432" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C432" s="39">
+        <v>7102002</v>
+      </c>
+      <c r="D432" s="40" t="s">
+        <v>748</v>
+      </c>
+      <c r="E432" s="4">
+        <v>1</v>
+      </c>
+      <c r="F432" s="39">
+        <v>10070202</v>
+      </c>
+      <c r="G432" s="4">
+        <v>1</v>
+      </c>
+      <c r="H432" s="4">
+        <v>30</v>
+      </c>
+      <c r="I432" s="4">
+        <v>7500</v>
+      </c>
+      <c r="J432" s="4">
+        <v>5</v>
+      </c>
+      <c r="K432" s="4">
+        <v>0</v>
+      </c>
+      <c r="L432" s="4">
+        <v>1</v>
+      </c>
+      <c r="M432" s="4">
+        <v>1</v>
+      </c>
+      <c r="N432" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O432" s="4">
+        <v>0</v>
+      </c>
+      <c r="P432" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q432" s="4">
+        <v>1</v>
+      </c>
+      <c r="R432" s="4">
+        <v>1</v>
+      </c>
+      <c r="S432" s="4">
         <f t="shared" si="11"/>
         <v>250</v>
       </c>
-      <c r="T429" s="4">
-        <v>0</v>
-      </c>
-      <c r="U429" s="4" t="s">
+      <c r="T432" s="4">
+        <v>0</v>
+      </c>
+      <c r="U432" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V429" s="4">
-        <v>0</v>
-      </c>
-      <c r="W429" s="4">
-        <v>1</v>
-      </c>
-      <c r="X429" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y429" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z429" s="5" t="s">
+      <c r="V432" s="4">
+        <v>0</v>
+      </c>
+      <c r="W432" s="4">
+        <v>1</v>
+      </c>
+      <c r="X432" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y432" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z432" s="5" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="430" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C430" s="39">
+    <row r="433" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C433" s="39">
         <v>7102003</v>
       </c>
-      <c r="D430" s="40" t="s">
+      <c r="D433" s="40" t="s">
         <v>749</v>
       </c>
-      <c r="E430" s="4">
-        <v>1</v>
-      </c>
-      <c r="F430" s="39">
+      <c r="E433" s="4">
+        <v>1</v>
+      </c>
+      <c r="F433" s="39">
         <v>10070203</v>
       </c>
-      <c r="G430" s="4">
-        <v>1</v>
-      </c>
-      <c r="H430" s="4">
+      <c r="G433" s="4">
+        <v>1</v>
+      </c>
+      <c r="H433" s="4">
         <v>30</v>
       </c>
-      <c r="I430" s="4">
+      <c r="I433" s="4">
         <v>7500</v>
       </c>
-      <c r="J430" s="4">
+      <c r="J433" s="4">
         <v>5</v>
       </c>
-      <c r="K430" s="4">
-        <v>0</v>
-      </c>
-      <c r="L430" s="4">
-        <v>1</v>
-      </c>
-      <c r="M430" s="4">
-        <v>1</v>
-      </c>
-      <c r="N430" s="4">
+      <c r="K433" s="4">
+        <v>0</v>
+      </c>
+      <c r="L433" s="4">
+        <v>1</v>
+      </c>
+      <c r="M433" s="4">
+        <v>1</v>
+      </c>
+      <c r="N433" s="4">
         <v>0.02</v>
       </c>
-      <c r="O430" s="4">
-        <v>0</v>
-      </c>
-      <c r="P430" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q430" s="4">
-        <v>1</v>
-      </c>
-      <c r="R430" s="4">
-        <v>1</v>
-      </c>
-      <c r="S430" s="4">
+      <c r="O433" s="4">
+        <v>0</v>
+      </c>
+      <c r="P433" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q433" s="4">
+        <v>1</v>
+      </c>
+      <c r="R433" s="4">
+        <v>1</v>
+      </c>
+      <c r="S433" s="4">
         <f t="shared" si="11"/>
         <v>225</v>
       </c>
-      <c r="T430" s="4">
-        <v>0</v>
-      </c>
-      <c r="U430" s="4" t="s">
+      <c r="T433" s="4">
+        <v>0</v>
+      </c>
+      <c r="U433" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V430" s="4">
-        <v>0</v>
-      </c>
-      <c r="W430" s="4">
-        <v>1</v>
-      </c>
-      <c r="X430" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y430" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z430" s="5" t="s">
+      <c r="V433" s="4">
+        <v>0</v>
+      </c>
+      <c r="W433" s="4">
+        <v>1</v>
+      </c>
+      <c r="X433" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y433" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z433" s="5" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="431" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C431" s="39">
+    <row r="434" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C434" s="39">
         <v>7102004</v>
       </c>
-      <c r="D431" s="40" t="s">
+      <c r="D434" s="40" t="s">
         <v>750</v>
       </c>
-      <c r="E431" s="4">
-        <v>1</v>
-      </c>
-      <c r="F431" s="39">
+      <c r="E434" s="4">
+        <v>1</v>
+      </c>
+      <c r="F434" s="39">
         <v>10070204</v>
       </c>
-      <c r="G431" s="4">
-        <v>1</v>
-      </c>
-      <c r="H431" s="4">
+      <c r="G434" s="4">
+        <v>1</v>
+      </c>
+      <c r="H434" s="4">
         <v>30</v>
       </c>
-      <c r="I431" s="4">
+      <c r="I434" s="4">
         <v>7500</v>
       </c>
-      <c r="J431" s="4">
+      <c r="J434" s="4">
         <v>5</v>
       </c>
-      <c r="K431" s="4">
-        <v>0</v>
-      </c>
-      <c r="L431" s="4">
-        <v>1</v>
-      </c>
-      <c r="M431" s="4">
-        <v>1</v>
-      </c>
-      <c r="N431" s="4">
+      <c r="K434" s="4">
+        <v>0</v>
+      </c>
+      <c r="L434" s="4">
+        <v>1</v>
+      </c>
+      <c r="M434" s="4">
+        <v>1</v>
+      </c>
+      <c r="N434" s="4">
         <v>0.02</v>
       </c>
-      <c r="O431" s="4">
-        <v>0</v>
-      </c>
-      <c r="P431" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q431" s="4">
-        <v>1</v>
-      </c>
-      <c r="R431" s="4">
-        <v>1</v>
-      </c>
-      <c r="S431" s="4">
+      <c r="O434" s="4">
+        <v>0</v>
+      </c>
+      <c r="P434" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q434" s="4">
+        <v>1</v>
+      </c>
+      <c r="R434" s="4">
+        <v>1</v>
+      </c>
+      <c r="S434" s="4">
         <f t="shared" si="11"/>
         <v>200</v>
       </c>
-      <c r="T431" s="4">
-        <v>0</v>
-      </c>
-      <c r="U431" s="4" t="s">
+      <c r="T434" s="4">
+        <v>0</v>
+      </c>
+      <c r="U434" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V431" s="4">
-        <v>0</v>
-      </c>
-      <c r="W431" s="4">
-        <v>1</v>
-      </c>
-      <c r="X431" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y431" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z431" s="5" t="s">
+      <c r="V434" s="4">
+        <v>0</v>
+      </c>
+      <c r="W434" s="4">
+        <v>1</v>
+      </c>
+      <c r="X434" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y434" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z434" s="5" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="432" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C432" s="39">
+    <row r="435" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C435" s="39">
         <v>7103001</v>
       </c>
-      <c r="D432" s="40" t="s">
+      <c r="D435" s="40" t="s">
         <v>751</v>
       </c>
-      <c r="E432" s="4">
-        <v>1</v>
-      </c>
-      <c r="F432" s="39">
+      <c r="E435" s="4">
+        <v>1</v>
+      </c>
+      <c r="F435" s="39">
         <v>10070301</v>
       </c>
-      <c r="G432" s="4">
-        <v>1</v>
-      </c>
-      <c r="H432" s="4">
+      <c r="G435" s="4">
+        <v>1</v>
+      </c>
+      <c r="H435" s="4">
         <v>50</v>
       </c>
-      <c r="I432" s="4">
+      <c r="I435" s="4">
         <v>10000</v>
       </c>
-      <c r="J432" s="4">
+      <c r="J435" s="4">
         <v>5</v>
       </c>
-      <c r="K432" s="4">
-        <v>0</v>
-      </c>
-      <c r="L432" s="4">
-        <v>1</v>
-      </c>
-      <c r="M432" s="4">
-        <v>1</v>
-      </c>
-      <c r="N432" s="4">
+      <c r="K435" s="4">
+        <v>0</v>
+      </c>
+      <c r="L435" s="4">
+        <v>1</v>
+      </c>
+      <c r="M435" s="4">
+        <v>1</v>
+      </c>
+      <c r="N435" s="4">
         <v>0.02</v>
       </c>
-      <c r="O432" s="4">
-        <v>0</v>
-      </c>
-      <c r="P432" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q432" s="4">
-        <v>1</v>
-      </c>
-      <c r="R432" s="4">
-        <v>1</v>
-      </c>
-      <c r="S432" s="4">
+      <c r="O435" s="4">
+        <v>0</v>
+      </c>
+      <c r="P435" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q435" s="4">
+        <v>1</v>
+      </c>
+      <c r="R435" s="4">
+        <v>1</v>
+      </c>
+      <c r="S435" s="4">
         <f t="shared" si="11"/>
         <v>425</v>
       </c>
-      <c r="T432" s="4">
-        <v>0</v>
-      </c>
-      <c r="U432" s="4" t="s">
+      <c r="T435" s="4">
+        <v>0</v>
+      </c>
+      <c r="U435" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V432" s="4">
-        <v>0</v>
-      </c>
-      <c r="W432" s="4">
-        <v>1</v>
-      </c>
-      <c r="X432" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y432" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z432" s="5" t="s">
+      <c r="V435" s="4">
+        <v>0</v>
+      </c>
+      <c r="W435" s="4">
+        <v>1</v>
+      </c>
+      <c r="X435" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y435" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z435" s="5" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="433" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C433" s="39">
+    <row r="436" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C436" s="39">
         <v>7103002</v>
       </c>
-      <c r="D433" s="40" t="s">
+      <c r="D436" s="40" t="s">
         <v>753</v>
       </c>
-      <c r="E433" s="4">
-        <v>1</v>
-      </c>
-      <c r="F433" s="39">
+      <c r="E436" s="4">
+        <v>1</v>
+      </c>
+      <c r="F436" s="39">
         <v>10070302</v>
       </c>
-      <c r="G433" s="4">
-        <v>1</v>
-      </c>
-      <c r="H433" s="4">
+      <c r="G436" s="4">
+        <v>1</v>
+      </c>
+      <c r="H436" s="4">
         <v>50</v>
       </c>
-      <c r="I433" s="4">
+      <c r="I436" s="4">
         <v>10000</v>
       </c>
-      <c r="J433" s="4">
+      <c r="J436" s="4">
         <v>5</v>
       </c>
-      <c r="K433" s="4">
-        <v>0</v>
-      </c>
-      <c r="L433" s="4">
-        <v>1</v>
-      </c>
-      <c r="M433" s="4">
-        <v>1</v>
-      </c>
-      <c r="N433" s="4">
+      <c r="K436" s="4">
+        <v>0</v>
+      </c>
+      <c r="L436" s="4">
+        <v>1</v>
+      </c>
+      <c r="M436" s="4">
+        <v>1</v>
+      </c>
+      <c r="N436" s="4">
         <v>0.02</v>
       </c>
-      <c r="O433" s="4">
-        <v>0</v>
-      </c>
-      <c r="P433" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q433" s="4">
-        <v>1</v>
-      </c>
-      <c r="R433" s="4">
-        <v>1</v>
-      </c>
-      <c r="S433" s="4">
+      <c r="O436" s="4">
+        <v>0</v>
+      </c>
+      <c r="P436" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q436" s="4">
+        <v>1</v>
+      </c>
+      <c r="R436" s="4">
+        <v>1</v>
+      </c>
+      <c r="S436" s="4">
         <f t="shared" si="11"/>
         <v>400</v>
       </c>
-      <c r="T433" s="4">
-        <v>0</v>
-      </c>
-      <c r="U433" s="4" t="s">
+      <c r="T436" s="4">
+        <v>0</v>
+      </c>
+      <c r="U436" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V433" s="4">
-        <v>0</v>
-      </c>
-      <c r="W433" s="4">
-        <v>1</v>
-      </c>
-      <c r="X433" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y433" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z433" s="5" t="s">
+      <c r="V436" s="4">
+        <v>0</v>
+      </c>
+      <c r="W436" s="4">
+        <v>1</v>
+      </c>
+      <c r="X436" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y436" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z436" s="5" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="434" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C434" s="39">
+    <row r="437" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C437" s="39">
         <v>7103003</v>
       </c>
-      <c r="D434" s="40" t="s">
+      <c r="D437" s="40" t="s">
         <v>754</v>
       </c>
-      <c r="E434" s="4">
-        <v>1</v>
-      </c>
-      <c r="F434" s="39">
+      <c r="E437" s="4">
+        <v>1</v>
+      </c>
+      <c r="F437" s="39">
         <v>10070303</v>
       </c>
-      <c r="G434" s="4">
-        <v>1</v>
-      </c>
-      <c r="H434" s="4">
+      <c r="G437" s="4">
+        <v>1</v>
+      </c>
+      <c r="H437" s="4">
         <v>50</v>
       </c>
-      <c r="I434" s="4">
+      <c r="I437" s="4">
         <v>10000</v>
       </c>
-      <c r="J434" s="4">
+      <c r="J437" s="4">
         <v>5</v>
       </c>
-      <c r="K434" s="4">
-        <v>0</v>
-      </c>
-      <c r="L434" s="4">
-        <v>1</v>
-      </c>
-      <c r="M434" s="4">
-        <v>1</v>
-      </c>
-      <c r="N434" s="4">
+      <c r="K437" s="4">
+        <v>0</v>
+      </c>
+      <c r="L437" s="4">
+        <v>1</v>
+      </c>
+      <c r="M437" s="4">
+        <v>1</v>
+      </c>
+      <c r="N437" s="4">
         <v>0.02</v>
       </c>
-      <c r="O434" s="4">
-        <v>0</v>
-      </c>
-      <c r="P434" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q434" s="4">
-        <v>1</v>
-      </c>
-      <c r="R434" s="4">
-        <v>1</v>
-      </c>
-      <c r="S434" s="4">
+      <c r="O437" s="4">
+        <v>0</v>
+      </c>
+      <c r="P437" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q437" s="4">
+        <v>1</v>
+      </c>
+      <c r="R437" s="4">
+        <v>1</v>
+      </c>
+      <c r="S437" s="4">
         <f t="shared" si="11"/>
         <v>375</v>
       </c>
-      <c r="T434" s="4">
-        <v>0</v>
-      </c>
-      <c r="U434" s="4" t="s">
+      <c r="T437" s="4">
+        <v>0</v>
+      </c>
+      <c r="U437" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V434" s="4">
-        <v>0</v>
-      </c>
-      <c r="W434" s="4">
-        <v>1</v>
-      </c>
-      <c r="X434" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y434" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z434" s="5" t="s">
+      <c r="V437" s="4">
+        <v>0</v>
+      </c>
+      <c r="W437" s="4">
+        <v>1</v>
+      </c>
+      <c r="X437" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y437" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z437" s="5" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="435" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C435" s="39">
+    <row r="438" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C438" s="39">
         <v>7103004</v>
       </c>
-      <c r="D435" s="40" t="s">
+      <c r="D438" s="40" t="s">
         <v>755</v>
       </c>
-      <c r="E435" s="4">
-        <v>1</v>
-      </c>
-      <c r="F435" s="39">
+      <c r="E438" s="4">
+        <v>1</v>
+      </c>
+      <c r="F438" s="39">
         <v>10070304</v>
       </c>
-      <c r="G435" s="4">
-        <v>1</v>
-      </c>
-      <c r="H435" s="4">
+      <c r="G438" s="4">
+        <v>1</v>
+      </c>
+      <c r="H438" s="4">
         <v>50</v>
       </c>
-      <c r="I435" s="4">
+      <c r="I438" s="4">
         <v>10000</v>
       </c>
-      <c r="J435" s="4">
+      <c r="J438" s="4">
         <v>5</v>
       </c>
-      <c r="K435" s="4">
-        <v>0</v>
-      </c>
-      <c r="L435" s="4">
-        <v>1</v>
-      </c>
-      <c r="M435" s="4">
-        <v>1</v>
-      </c>
-      <c r="N435" s="4">
+      <c r="K438" s="4">
+        <v>0</v>
+      </c>
+      <c r="L438" s="4">
+        <v>1</v>
+      </c>
+      <c r="M438" s="4">
+        <v>1</v>
+      </c>
+      <c r="N438" s="4">
         <v>0.02</v>
       </c>
-      <c r="O435" s="4">
-        <v>0</v>
-      </c>
-      <c r="P435" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q435" s="4">
-        <v>1</v>
-      </c>
-      <c r="R435" s="4">
-        <v>1</v>
-      </c>
-      <c r="S435" s="4">
+      <c r="O438" s="4">
+        <v>0</v>
+      </c>
+      <c r="P438" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q438" s="4">
+        <v>1</v>
+      </c>
+      <c r="R438" s="4">
+        <v>1</v>
+      </c>
+      <c r="S438" s="4">
         <f t="shared" si="11"/>
         <v>350</v>
       </c>
-      <c r="T435" s="4">
-        <v>0</v>
-      </c>
-      <c r="U435" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="V435" s="4">
-        <v>0</v>
-      </c>
-      <c r="W435" s="4">
-        <v>1</v>
-      </c>
-      <c r="X435" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y435" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z435" s="5" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="436" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C436" s="39">
-        <v>7201001</v>
-      </c>
-      <c r="D436" s="36" t="s">
-        <v>756</v>
-      </c>
-      <c r="E436" s="4">
-        <v>2</v>
-      </c>
-      <c r="F436" s="39">
-        <v>10080101</v>
-      </c>
-      <c r="G436" s="4">
-        <v>0</v>
-      </c>
-      <c r="H436" s="38">
-        <v>10</v>
-      </c>
-      <c r="I436" s="4">
-        <v>5000</v>
-      </c>
-      <c r="J436" s="4">
-        <v>5</v>
-      </c>
-      <c r="K436" s="4">
-        <v>0</v>
-      </c>
-      <c r="L436" s="4">
-        <v>1</v>
-      </c>
-      <c r="M436" s="4">
-        <v>1</v>
-      </c>
-      <c r="N436" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="O436" s="4">
-        <v>0</v>
-      </c>
-      <c r="P436" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q436" s="4">
-        <v>1</v>
-      </c>
-      <c r="R436" s="4">
-        <v>1</v>
-      </c>
-      <c r="S436" s="4">
-        <v>125</v>
-      </c>
-      <c r="T436" s="4">
-        <v>200</v>
-      </c>
-      <c r="U436" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="V436" s="4">
-        <v>0</v>
-      </c>
-      <c r="W436" s="4">
-        <v>1</v>
-      </c>
-      <c r="X436" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y436" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z436" s="5" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="437" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C437" s="39">
-        <v>7201002</v>
-      </c>
-      <c r="D437" s="36" t="s">
-        <v>758</v>
-      </c>
-      <c r="E437" s="4">
-        <v>2</v>
-      </c>
-      <c r="F437" s="39">
-        <v>10080102</v>
-      </c>
-      <c r="G437" s="4">
-        <v>0</v>
-      </c>
-      <c r="H437" s="4">
-        <v>12</v>
-      </c>
-      <c r="I437" s="4">
-        <v>5000</v>
-      </c>
-      <c r="J437" s="4">
-        <v>5</v>
-      </c>
-      <c r="K437" s="4">
-        <v>0</v>
-      </c>
-      <c r="L437" s="4">
-        <v>1</v>
-      </c>
-      <c r="M437" s="4">
-        <v>1</v>
-      </c>
-      <c r="N437" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="O437" s="4">
-        <v>0</v>
-      </c>
-      <c r="P437" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q437" s="4">
-        <v>1</v>
-      </c>
-      <c r="R437" s="4">
-        <v>1</v>
-      </c>
-      <c r="S437" s="4">
-        <v>100</v>
-      </c>
-      <c r="T437" s="4">
-        <v>200</v>
-      </c>
-      <c r="U437" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="V437" s="4">
-        <v>0</v>
-      </c>
-      <c r="W437" s="4">
-        <v>1</v>
-      </c>
-      <c r="X437" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y437" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z437" s="5" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="438" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C438" s="39">
-        <v>7201003</v>
-      </c>
-      <c r="D438" s="36" t="s">
-        <v>759</v>
-      </c>
-      <c r="E438" s="4">
-        <v>2</v>
-      </c>
-      <c r="F438" s="39">
-        <v>10080103</v>
-      </c>
-      <c r="G438" s="4">
-        <v>0</v>
-      </c>
-      <c r="H438" s="4">
-        <v>14</v>
-      </c>
-      <c r="I438" s="4">
-        <v>5000</v>
-      </c>
-      <c r="J438" s="4">
-        <v>5</v>
-      </c>
-      <c r="K438" s="4">
-        <v>0</v>
-      </c>
-      <c r="L438" s="4">
-        <v>1</v>
-      </c>
-      <c r="M438" s="4">
-        <v>1</v>
-      </c>
-      <c r="N438" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="O438" s="4">
-        <v>0</v>
-      </c>
-      <c r="P438" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q438" s="4">
-        <v>1</v>
-      </c>
-      <c r="R438" s="4">
-        <v>1</v>
-      </c>
-      <c r="S438" s="4">
-        <v>75</v>
-      </c>
       <c r="T438" s="4">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U438" s="4" t="s">
         <v>449</v>
@@ -36013,27 +36048,27 @@
         <v>0</v>
       </c>
       <c r="Z438" s="5" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="439" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C439" s="39">
-        <v>7201004</v>
+        <v>7201001</v>
       </c>
       <c r="D439" s="36" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="E439" s="4">
         <v>2</v>
       </c>
       <c r="F439" s="39">
-        <v>10080104</v>
+        <v>10080101</v>
       </c>
       <c r="G439" s="4">
         <v>0</v>
       </c>
-      <c r="H439" s="4">
-        <v>16</v>
+      <c r="H439" s="38">
+        <v>10</v>
       </c>
       <c r="I439" s="4">
         <v>5000</v>
@@ -36066,7 +36101,7 @@
         <v>1</v>
       </c>
       <c r="S439" s="4">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="T439" s="4">
         <v>200</v>
@@ -36092,25 +36127,25 @@
     </row>
     <row r="440" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C440" s="39">
-        <v>7202001</v>
+        <v>7201002</v>
       </c>
       <c r="D440" s="36" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E440" s="4">
         <v>2</v>
       </c>
       <c r="F440" s="39">
-        <v>10080201</v>
+        <v>10080102</v>
       </c>
       <c r="G440" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H440" s="4">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I440" s="4">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="J440" s="4">
         <v>5</v>
@@ -36140,11 +36175,10 @@
         <v>1</v>
       </c>
       <c r="S440" s="4">
-        <f t="shared" ref="S440:S447" si="12">S436+150</f>
-        <v>275</v>
+        <v>100</v>
       </c>
       <c r="T440" s="4">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="U440" s="4" t="s">
         <v>449</v>
@@ -36162,30 +36196,30 @@
         <v>0</v>
       </c>
       <c r="Z440" s="5" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="441" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C441" s="39">
-        <v>7202002</v>
+        <v>7201003</v>
       </c>
       <c r="D441" s="36" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="E441" s="4">
         <v>2</v>
       </c>
       <c r="F441" s="39">
-        <v>10080202</v>
+        <v>10080103</v>
       </c>
       <c r="G441" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H441" s="4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I441" s="4">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="J441" s="4">
         <v>5</v>
@@ -36215,724 +36249,725 @@
         <v>1</v>
       </c>
       <c r="S441" s="4">
+        <v>75</v>
+      </c>
+      <c r="T441" s="4">
+        <v>200</v>
+      </c>
+      <c r="U441" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="V441" s="4">
+        <v>0</v>
+      </c>
+      <c r="W441" s="4">
+        <v>1</v>
+      </c>
+      <c r="X441" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y441" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z441" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="442" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C442" s="39">
+        <v>7201004</v>
+      </c>
+      <c r="D442" s="36" t="s">
+        <v>760</v>
+      </c>
+      <c r="E442" s="4">
+        <v>2</v>
+      </c>
+      <c r="F442" s="39">
+        <v>10080104</v>
+      </c>
+      <c r="G442" s="4">
+        <v>0</v>
+      </c>
+      <c r="H442" s="4">
+        <v>16</v>
+      </c>
+      <c r="I442" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J442" s="4">
+        <v>5</v>
+      </c>
+      <c r="K442" s="4">
+        <v>0</v>
+      </c>
+      <c r="L442" s="4">
+        <v>1</v>
+      </c>
+      <c r="M442" s="4">
+        <v>1</v>
+      </c>
+      <c r="N442" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O442" s="4">
+        <v>0</v>
+      </c>
+      <c r="P442" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q442" s="4">
+        <v>1</v>
+      </c>
+      <c r="R442" s="4">
+        <v>1</v>
+      </c>
+      <c r="S442" s="4">
+        <v>50</v>
+      </c>
+      <c r="T442" s="4">
+        <v>200</v>
+      </c>
+      <c r="U442" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="V442" s="4">
+        <v>0</v>
+      </c>
+      <c r="W442" s="4">
+        <v>1</v>
+      </c>
+      <c r="X442" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y442" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z442" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="443" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C443" s="39">
+        <v>7202001</v>
+      </c>
+      <c r="D443" s="36" t="s">
+        <v>761</v>
+      </c>
+      <c r="E443" s="4">
+        <v>2</v>
+      </c>
+      <c r="F443" s="39">
+        <v>10080201</v>
+      </c>
+      <c r="G443" s="4">
+        <v>1</v>
+      </c>
+      <c r="H443" s="4">
+        <v>30</v>
+      </c>
+      <c r="I443" s="4">
+        <v>7500</v>
+      </c>
+      <c r="J443" s="4">
+        <v>5</v>
+      </c>
+      <c r="K443" s="4">
+        <v>0</v>
+      </c>
+      <c r="L443" s="4">
+        <v>1</v>
+      </c>
+      <c r="M443" s="4">
+        <v>1</v>
+      </c>
+      <c r="N443" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O443" s="4">
+        <v>0</v>
+      </c>
+      <c r="P443" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q443" s="4">
+        <v>1</v>
+      </c>
+      <c r="R443" s="4">
+        <v>1</v>
+      </c>
+      <c r="S443" s="4">
+        <f t="shared" ref="S443:S450" si="12">S439+150</f>
+        <v>275</v>
+      </c>
+      <c r="T443" s="4">
+        <v>350</v>
+      </c>
+      <c r="U443" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="V443" s="4">
+        <v>0</v>
+      </c>
+      <c r="W443" s="4">
+        <v>1</v>
+      </c>
+      <c r="X443" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y443" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z443" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="444" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C444" s="39">
+        <v>7202002</v>
+      </c>
+      <c r="D444" s="36" t="s">
+        <v>763</v>
+      </c>
+      <c r="E444" s="4">
+        <v>2</v>
+      </c>
+      <c r="F444" s="39">
+        <v>10080202</v>
+      </c>
+      <c r="G444" s="4">
+        <v>1</v>
+      </c>
+      <c r="H444" s="4">
+        <v>30</v>
+      </c>
+      <c r="I444" s="4">
+        <v>7500</v>
+      </c>
+      <c r="J444" s="4">
+        <v>5</v>
+      </c>
+      <c r="K444" s="4">
+        <v>0</v>
+      </c>
+      <c r="L444" s="4">
+        <v>1</v>
+      </c>
+      <c r="M444" s="4">
+        <v>1</v>
+      </c>
+      <c r="N444" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O444" s="4">
+        <v>0</v>
+      </c>
+      <c r="P444" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q444" s="4">
+        <v>1</v>
+      </c>
+      <c r="R444" s="4">
+        <v>1</v>
+      </c>
+      <c r="S444" s="4">
         <f t="shared" si="12"/>
         <v>250</v>
       </c>
-      <c r="T441" s="4">
+      <c r="T444" s="4">
         <v>350</v>
       </c>
-      <c r="U441" s="4" t="s">
+      <c r="U444" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V441" s="4">
-        <v>0</v>
-      </c>
-      <c r="W441" s="4">
-        <v>1</v>
-      </c>
-      <c r="X441" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y441" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z441" s="5" t="s">
+      <c r="V444" s="4">
+        <v>0</v>
+      </c>
+      <c r="W444" s="4">
+        <v>1</v>
+      </c>
+      <c r="X444" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y444" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z444" s="5" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="442" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C442" s="39">
+    <row r="445" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C445" s="39">
         <v>7202003</v>
       </c>
-      <c r="D442" s="36" t="s">
+      <c r="D445" s="36" t="s">
         <v>764</v>
       </c>
-      <c r="E442" s="4">
+      <c r="E445" s="4">
         <v>2</v>
       </c>
-      <c r="F442" s="39">
+      <c r="F445" s="39">
         <v>10080203</v>
       </c>
-      <c r="G442" s="4">
-        <v>1</v>
-      </c>
-      <c r="H442" s="4">
+      <c r="G445" s="4">
+        <v>1</v>
+      </c>
+      <c r="H445" s="4">
         <v>30</v>
       </c>
-      <c r="I442" s="4">
+      <c r="I445" s="4">
         <v>7500</v>
       </c>
-      <c r="J442" s="4">
+      <c r="J445" s="4">
         <v>5</v>
       </c>
-      <c r="K442" s="4">
-        <v>0</v>
-      </c>
-      <c r="L442" s="4">
-        <v>1</v>
-      </c>
-      <c r="M442" s="4">
-        <v>1</v>
-      </c>
-      <c r="N442" s="4">
+      <c r="K445" s="4">
+        <v>0</v>
+      </c>
+      <c r="L445" s="4">
+        <v>1</v>
+      </c>
+      <c r="M445" s="4">
+        <v>1</v>
+      </c>
+      <c r="N445" s="4">
         <v>0.02</v>
       </c>
-      <c r="O442" s="4">
-        <v>0</v>
-      </c>
-      <c r="P442" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q442" s="4">
-        <v>1</v>
-      </c>
-      <c r="R442" s="4">
-        <v>1</v>
-      </c>
-      <c r="S442" s="4">
+      <c r="O445" s="4">
+        <v>0</v>
+      </c>
+      <c r="P445" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q445" s="4">
+        <v>1</v>
+      </c>
+      <c r="R445" s="4">
+        <v>1</v>
+      </c>
+      <c r="S445" s="4">
         <f t="shared" si="12"/>
         <v>225</v>
       </c>
-      <c r="T442" s="4">
+      <c r="T445" s="4">
         <v>350</v>
       </c>
-      <c r="U442" s="4" t="s">
+      <c r="U445" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V442" s="4">
-        <v>0</v>
-      </c>
-      <c r="W442" s="4">
-        <v>1</v>
-      </c>
-      <c r="X442" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y442" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z442" s="5" t="s">
+      <c r="V445" s="4">
+        <v>0</v>
+      </c>
+      <c r="W445" s="4">
+        <v>1</v>
+      </c>
+      <c r="X445" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y445" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z445" s="5" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="443" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C443" s="39">
+    <row r="446" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C446" s="39">
         <v>7202004</v>
       </c>
-      <c r="D443" s="36" t="s">
+      <c r="D446" s="36" t="s">
         <v>765</v>
       </c>
-      <c r="E443" s="4">
+      <c r="E446" s="4">
         <v>2</v>
       </c>
-      <c r="F443" s="39">
+      <c r="F446" s="39">
         <v>10080204</v>
       </c>
-      <c r="G443" s="4">
-        <v>1</v>
-      </c>
-      <c r="H443" s="4">
+      <c r="G446" s="4">
+        <v>1</v>
+      </c>
+      <c r="H446" s="4">
         <v>30</v>
       </c>
-      <c r="I443" s="4">
+      <c r="I446" s="4">
         <v>7500</v>
       </c>
-      <c r="J443" s="4">
+      <c r="J446" s="4">
         <v>5</v>
       </c>
-      <c r="K443" s="4">
-        <v>0</v>
-      </c>
-      <c r="L443" s="4">
-        <v>1</v>
-      </c>
-      <c r="M443" s="4">
-        <v>1</v>
-      </c>
-      <c r="N443" s="4">
+      <c r="K446" s="4">
+        <v>0</v>
+      </c>
+      <c r="L446" s="4">
+        <v>1</v>
+      </c>
+      <c r="M446" s="4">
+        <v>1</v>
+      </c>
+      <c r="N446" s="4">
         <v>0.02</v>
       </c>
-      <c r="O443" s="4">
-        <v>0</v>
-      </c>
-      <c r="P443" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q443" s="4">
-        <v>1</v>
-      </c>
-      <c r="R443" s="4">
-        <v>1</v>
-      </c>
-      <c r="S443" s="4">
+      <c r="O446" s="4">
+        <v>0</v>
+      </c>
+      <c r="P446" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q446" s="4">
+        <v>1</v>
+      </c>
+      <c r="R446" s="4">
+        <v>1</v>
+      </c>
+      <c r="S446" s="4">
         <f t="shared" si="12"/>
         <v>200</v>
       </c>
-      <c r="T443" s="4">
+      <c r="T446" s="4">
         <v>350</v>
       </c>
-      <c r="U443" s="4" t="s">
+      <c r="U446" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V443" s="4">
-        <v>0</v>
-      </c>
-      <c r="W443" s="4">
-        <v>1</v>
-      </c>
-      <c r="X443" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y443" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z443" s="5" t="s">
+      <c r="V446" s="4">
+        <v>0</v>
+      </c>
+      <c r="W446" s="4">
+        <v>1</v>
+      </c>
+      <c r="X446" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y446" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z446" s="5" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="444" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C444" s="39">
+    <row r="447" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C447" s="39">
         <v>7203001</v>
       </c>
-      <c r="D444" s="36" t="s">
+      <c r="D447" s="36" t="s">
         <v>766</v>
       </c>
-      <c r="E444" s="4">
+      <c r="E447" s="4">
         <v>2</v>
       </c>
-      <c r="F444" s="39">
+      <c r="F447" s="39">
         <v>10080301</v>
       </c>
-      <c r="G444" s="4">
-        <v>1</v>
-      </c>
-      <c r="H444" s="4">
+      <c r="G447" s="4">
+        <v>1</v>
+      </c>
+      <c r="H447" s="4">
         <v>50</v>
       </c>
-      <c r="I444" s="4">
+      <c r="I447" s="4">
         <v>10000</v>
       </c>
-      <c r="J444" s="4">
+      <c r="J447" s="4">
         <v>5</v>
       </c>
-      <c r="K444" s="4">
-        <v>0</v>
-      </c>
-      <c r="L444" s="4">
-        <v>1</v>
-      </c>
-      <c r="M444" s="4">
-        <v>1</v>
-      </c>
-      <c r="N444" s="4">
+      <c r="K447" s="4">
+        <v>0</v>
+      </c>
+      <c r="L447" s="4">
+        <v>1</v>
+      </c>
+      <c r="M447" s="4">
+        <v>1</v>
+      </c>
+      <c r="N447" s="4">
         <v>0.02</v>
       </c>
-      <c r="O444" s="4">
-        <v>0</v>
-      </c>
-      <c r="P444" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q444" s="4">
-        <v>1</v>
-      </c>
-      <c r="R444" s="4">
-        <v>1</v>
-      </c>
-      <c r="S444" s="4">
+      <c r="O447" s="4">
+        <v>0</v>
+      </c>
+      <c r="P447" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q447" s="4">
+        <v>1</v>
+      </c>
+      <c r="R447" s="4">
+        <v>1</v>
+      </c>
+      <c r="S447" s="4">
         <f t="shared" si="12"/>
         <v>425</v>
       </c>
-      <c r="T444" s="4">
+      <c r="T447" s="4">
         <v>500</v>
       </c>
-      <c r="U444" s="4" t="s">
+      <c r="U447" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V444" s="4">
-        <v>0</v>
-      </c>
-      <c r="W444" s="4">
-        <v>1</v>
-      </c>
-      <c r="X444" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y444" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z444" s="5" t="s">
+      <c r="V447" s="4">
+        <v>0</v>
+      </c>
+      <c r="W447" s="4">
+        <v>1</v>
+      </c>
+      <c r="X447" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y447" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z447" s="5" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="445" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C445" s="39">
+    <row r="448" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C448" s="39">
         <v>7203002</v>
       </c>
-      <c r="D445" s="36" t="s">
+      <c r="D448" s="36" t="s">
         <v>768</v>
       </c>
-      <c r="E445" s="4">
+      <c r="E448" s="4">
         <v>2</v>
       </c>
-      <c r="F445" s="39">
+      <c r="F448" s="39">
         <v>10080302</v>
       </c>
-      <c r="G445" s="4">
-        <v>1</v>
-      </c>
-      <c r="H445" s="4">
+      <c r="G448" s="4">
+        <v>1</v>
+      </c>
+      <c r="H448" s="4">
         <v>50</v>
       </c>
-      <c r="I445" s="4">
+      <c r="I448" s="4">
         <v>10000</v>
       </c>
-      <c r="J445" s="4">
+      <c r="J448" s="4">
         <v>5</v>
       </c>
-      <c r="K445" s="4">
-        <v>0</v>
-      </c>
-      <c r="L445" s="4">
-        <v>1</v>
-      </c>
-      <c r="M445" s="4">
-        <v>1</v>
-      </c>
-      <c r="N445" s="4">
+      <c r="K448" s="4">
+        <v>0</v>
+      </c>
+      <c r="L448" s="4">
+        <v>1</v>
+      </c>
+      <c r="M448" s="4">
+        <v>1</v>
+      </c>
+      <c r="N448" s="4">
         <v>0.02</v>
       </c>
-      <c r="O445" s="4">
-        <v>0</v>
-      </c>
-      <c r="P445" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q445" s="4">
-        <v>1</v>
-      </c>
-      <c r="R445" s="4">
-        <v>1</v>
-      </c>
-      <c r="S445" s="4">
+      <c r="O448" s="4">
+        <v>0</v>
+      </c>
+      <c r="P448" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q448" s="4">
+        <v>1</v>
+      </c>
+      <c r="R448" s="4">
+        <v>1</v>
+      </c>
+      <c r="S448" s="4">
         <f t="shared" si="12"/>
         <v>400</v>
       </c>
-      <c r="T445" s="4">
+      <c r="T448" s="4">
         <v>500</v>
       </c>
-      <c r="U445" s="4" t="s">
+      <c r="U448" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V445" s="4">
-        <v>0</v>
-      </c>
-      <c r="W445" s="4">
-        <v>1</v>
-      </c>
-      <c r="X445" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y445" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z445" s="5" t="s">
+      <c r="V448" s="4">
+        <v>0</v>
+      </c>
+      <c r="W448" s="4">
+        <v>1</v>
+      </c>
+      <c r="X448" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y448" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z448" s="5" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="446" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C446" s="39">
+    <row r="449" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C449" s="39">
         <v>7203003</v>
       </c>
-      <c r="D446" s="36" t="s">
+      <c r="D449" s="36" t="s">
         <v>769</v>
       </c>
-      <c r="E446" s="4">
+      <c r="E449" s="4">
         <v>2</v>
       </c>
-      <c r="F446" s="39">
+      <c r="F449" s="39">
         <v>10080303</v>
       </c>
-      <c r="G446" s="4">
-        <v>1</v>
-      </c>
-      <c r="H446" s="4">
+      <c r="G449" s="4">
+        <v>1</v>
+      </c>
+      <c r="H449" s="4">
         <v>50</v>
       </c>
-      <c r="I446" s="4">
+      <c r="I449" s="4">
         <v>10000</v>
       </c>
-      <c r="J446" s="4">
+      <c r="J449" s="4">
         <v>5</v>
       </c>
-      <c r="K446" s="4">
-        <v>0</v>
-      </c>
-      <c r="L446" s="4">
-        <v>1</v>
-      </c>
-      <c r="M446" s="4">
-        <v>1</v>
-      </c>
-      <c r="N446" s="4">
+      <c r="K449" s="4">
+        <v>0</v>
+      </c>
+      <c r="L449" s="4">
+        <v>1</v>
+      </c>
+      <c r="M449" s="4">
+        <v>1</v>
+      </c>
+      <c r="N449" s="4">
         <v>0.02</v>
       </c>
-      <c r="O446" s="4">
-        <v>0</v>
-      </c>
-      <c r="P446" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q446" s="4">
-        <v>1</v>
-      </c>
-      <c r="R446" s="4">
-        <v>1</v>
-      </c>
-      <c r="S446" s="4">
+      <c r="O449" s="4">
+        <v>0</v>
+      </c>
+      <c r="P449" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q449" s="4">
+        <v>1</v>
+      </c>
+      <c r="R449" s="4">
+        <v>1</v>
+      </c>
+      <c r="S449" s="4">
         <f t="shared" si="12"/>
         <v>375</v>
       </c>
-      <c r="T446" s="4">
+      <c r="T449" s="4">
         <v>500</v>
       </c>
-      <c r="U446" s="4" t="s">
+      <c r="U449" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V446" s="4">
-        <v>0</v>
-      </c>
-      <c r="W446" s="4">
-        <v>1</v>
-      </c>
-      <c r="X446" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y446" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z446" s="5" t="s">
+      <c r="V449" s="4">
+        <v>0</v>
+      </c>
+      <c r="W449" s="4">
+        <v>1</v>
+      </c>
+      <c r="X449" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y449" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z449" s="5" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="447" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C447" s="39">
+    <row r="450" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C450" s="39">
         <v>7203004</v>
       </c>
-      <c r="D447" s="36" t="s">
+      <c r="D450" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="E447" s="4">
+      <c r="E450" s="4">
         <v>2</v>
       </c>
-      <c r="F447" s="39">
+      <c r="F450" s="39">
         <v>10080304</v>
       </c>
-      <c r="G447" s="4">
-        <v>1</v>
-      </c>
-      <c r="H447" s="4">
+      <c r="G450" s="4">
+        <v>1</v>
+      </c>
+      <c r="H450" s="4">
         <v>50</v>
       </c>
-      <c r="I447" s="4">
+      <c r="I450" s="4">
         <v>10000</v>
       </c>
-      <c r="J447" s="4">
+      <c r="J450" s="4">
         <v>5</v>
       </c>
-      <c r="K447" s="4">
-        <v>0</v>
-      </c>
-      <c r="L447" s="4">
-        <v>1</v>
-      </c>
-      <c r="M447" s="4">
-        <v>1</v>
-      </c>
-      <c r="N447" s="4">
+      <c r="K450" s="4">
+        <v>0</v>
+      </c>
+      <c r="L450" s="4">
+        <v>1</v>
+      </c>
+      <c r="M450" s="4">
+        <v>1</v>
+      </c>
+      <c r="N450" s="4">
         <v>0.02</v>
       </c>
-      <c r="O447" s="4">
-        <v>0</v>
-      </c>
-      <c r="P447" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q447" s="4">
-        <v>1</v>
-      </c>
-      <c r="R447" s="4">
-        <v>1</v>
-      </c>
-      <c r="S447" s="4">
+      <c r="O450" s="4">
+        <v>0</v>
+      </c>
+      <c r="P450" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q450" s="4">
+        <v>1</v>
+      </c>
+      <c r="R450" s="4">
+        <v>1</v>
+      </c>
+      <c r="S450" s="4">
         <f t="shared" si="12"/>
         <v>350</v>
       </c>
-      <c r="T447" s="4">
+      <c r="T450" s="4">
         <v>500</v>
       </c>
-      <c r="U447" s="4" t="s">
+      <c r="U450" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="V447" s="4">
-        <v>0</v>
-      </c>
-      <c r="W447" s="4">
-        <v>1</v>
-      </c>
-      <c r="X447" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y447" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z447" s="5" t="s">
+      <c r="V450" s="4">
+        <v>0</v>
+      </c>
+      <c r="W450" s="4">
+        <v>1</v>
+      </c>
+      <c r="X450" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y450" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z450" s="5" t="s">
         <v>767</v>
-      </c>
-    </row>
-    <row r="448" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C448" s="39">
-        <v>7301001</v>
-      </c>
-      <c r="D448" s="36" t="s">
-        <v>771</v>
-      </c>
-      <c r="E448" s="4">
-        <v>3</v>
-      </c>
-      <c r="F448" s="39">
-        <v>10090101</v>
-      </c>
-      <c r="G448" s="4">
-        <v>0</v>
-      </c>
-      <c r="H448" s="4">
-        <v>12</v>
-      </c>
-      <c r="I448" s="4">
-        <v>5000</v>
-      </c>
-      <c r="J448" s="4">
-        <v>20</v>
-      </c>
-      <c r="K448" s="4">
-        <v>0</v>
-      </c>
-      <c r="L448" s="4">
-        <v>1</v>
-      </c>
-      <c r="M448" s="4">
-        <v>1</v>
-      </c>
-      <c r="N448" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="O448" s="4">
-        <v>1</v>
-      </c>
-      <c r="P448" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q448" s="4">
-        <v>1</v>
-      </c>
-      <c r="R448" s="4">
-        <v>1</v>
-      </c>
-      <c r="S448" s="4">
-        <v>150</v>
-      </c>
-      <c r="T448" s="4">
-        <v>200</v>
-      </c>
-      <c r="U448" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="V448" s="4">
-        <v>0</v>
-      </c>
-      <c r="W448" s="4">
-        <v>1</v>
-      </c>
-      <c r="X448" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y448" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z448" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="449" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C449" s="39">
-        <v>7301002</v>
-      </c>
-      <c r="D449" s="36" t="s">
-        <v>773</v>
-      </c>
-      <c r="E449" s="4">
-        <v>3</v>
-      </c>
-      <c r="F449" s="39">
-        <v>10090102</v>
-      </c>
-      <c r="G449" s="4">
-        <v>0</v>
-      </c>
-      <c r="H449" s="4">
-        <v>15</v>
-      </c>
-      <c r="I449" s="4">
-        <v>5000</v>
-      </c>
-      <c r="J449" s="4">
-        <v>20</v>
-      </c>
-      <c r="K449" s="4">
-        <v>0</v>
-      </c>
-      <c r="L449" s="4">
-        <v>1</v>
-      </c>
-      <c r="M449" s="4">
-        <v>1</v>
-      </c>
-      <c r="N449" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="O449" s="4">
-        <v>1</v>
-      </c>
-      <c r="P449" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q449" s="4">
-        <v>1</v>
-      </c>
-      <c r="R449" s="4">
-        <v>1</v>
-      </c>
-      <c r="S449" s="4">
-        <v>175</v>
-      </c>
-      <c r="T449" s="4">
-        <v>200</v>
-      </c>
-      <c r="U449" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="V449" s="4">
-        <v>0</v>
-      </c>
-      <c r="W449" s="4">
-        <v>1</v>
-      </c>
-      <c r="X449" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y449" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z449" s="5" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="450" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C450" s="39">
-        <v>7302001</v>
-      </c>
-      <c r="D450" s="36" t="s">
-        <v>774</v>
-      </c>
-      <c r="E450" s="4">
-        <v>3</v>
-      </c>
-      <c r="F450" s="39">
-        <v>10090201</v>
-      </c>
-      <c r="G450" s="4">
-        <v>1</v>
-      </c>
-      <c r="H450" s="4">
-        <v>30</v>
-      </c>
-      <c r="I450" s="4">
-        <v>12500</v>
-      </c>
-      <c r="J450" s="4">
-        <v>20</v>
-      </c>
-      <c r="K450" s="4">
-        <v>0</v>
-      </c>
-      <c r="L450" s="4">
-        <v>1</v>
-      </c>
-      <c r="M450" s="4">
-        <v>1</v>
-      </c>
-      <c r="N450" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="O450" s="4">
-        <v>1</v>
-      </c>
-      <c r="P450" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q450" s="4">
-        <v>1</v>
-      </c>
-      <c r="R450" s="4">
-        <v>1</v>
-      </c>
-      <c r="S450" s="4">
-        <v>275</v>
-      </c>
-      <c r="T450" s="4">
-        <v>350</v>
-      </c>
-      <c r="U450" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="V450" s="4">
-        <v>0</v>
-      </c>
-      <c r="W450" s="4">
-        <v>1</v>
-      </c>
-      <c r="X450" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y450" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z450" s="5" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="451" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C451" s="39">
-        <v>7302002</v>
+        <v>7301001</v>
       </c>
       <c r="D451" s="36" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="E451" s="4">
         <v>3</v>
       </c>
       <c r="F451" s="39">
-        <v>10090202</v>
+        <v>10090101</v>
       </c>
       <c r="G451" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H451" s="4">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I451" s="4">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="J451" s="4">
         <v>20</v>
@@ -36962,10 +36997,10 @@
         <v>1</v>
       </c>
       <c r="S451" s="4">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="T451" s="4">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="U451" s="4" t="s">
         <v>185</v>
@@ -36983,30 +37018,30 @@
         <v>0</v>
       </c>
       <c r="Z451" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="452" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C452" s="39">
-        <v>7303001</v>
+        <v>7301002</v>
       </c>
       <c r="D452" s="36" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E452" s="4">
         <v>3</v>
       </c>
       <c r="F452" s="39">
-        <v>10090301</v>
+        <v>10090102</v>
       </c>
       <c r="G452" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H452" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="I452" s="4">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="J452" s="4">
         <v>20</v>
@@ -37036,10 +37071,10 @@
         <v>1</v>
       </c>
       <c r="S452" s="4">
-        <v>400</v>
+        <v>175</v>
       </c>
       <c r="T452" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="U452" s="4" t="s">
         <v>185</v>
@@ -37057,30 +37092,30 @@
         <v>0</v>
       </c>
       <c r="Z452" s="5" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="453" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C453" s="39">
-        <v>7303002</v>
+        <v>7302001</v>
       </c>
       <c r="D453" s="36" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E453" s="4">
         <v>3</v>
       </c>
       <c r="F453" s="39">
-        <v>10090302</v>
+        <v>10090201</v>
       </c>
       <c r="G453" s="4">
         <v>1</v>
       </c>
       <c r="H453" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I453" s="4">
-        <v>20000</v>
+        <v>12500</v>
       </c>
       <c r="J453" s="4">
         <v>20</v>
@@ -37110,10 +37145,10 @@
         <v>1</v>
       </c>
       <c r="S453" s="4">
-        <v>425</v>
+        <v>275</v>
       </c>
       <c r="T453" s="4">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="U453" s="4" t="s">
         <v>185</v>
@@ -37131,53 +37166,257 @@
         <v>0</v>
       </c>
       <c r="Z453" s="5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="454" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C454" s="39">
+        <v>7302002</v>
+      </c>
+      <c r="D454" s="36" t="s">
+        <v>776</v>
+      </c>
+      <c r="E454" s="4">
+        <v>3</v>
+      </c>
+      <c r="F454" s="39">
+        <v>10090202</v>
+      </c>
+      <c r="G454" s="4">
+        <v>1</v>
+      </c>
+      <c r="H454" s="4">
+        <v>30</v>
+      </c>
+      <c r="I454" s="4">
+        <v>12500</v>
+      </c>
+      <c r="J454" s="4">
+        <v>20</v>
+      </c>
+      <c r="K454" s="4">
+        <v>0</v>
+      </c>
+      <c r="L454" s="4">
+        <v>1</v>
+      </c>
+      <c r="M454" s="4">
+        <v>1</v>
+      </c>
+      <c r="N454" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O454" s="4">
+        <v>1</v>
+      </c>
+      <c r="P454" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q454" s="4">
+        <v>1</v>
+      </c>
+      <c r="R454" s="4">
+        <v>1</v>
+      </c>
+      <c r="S454" s="4">
+        <v>300</v>
+      </c>
+      <c r="T454" s="4">
+        <v>350</v>
+      </c>
+      <c r="U454" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="V454" s="4">
+        <v>0</v>
+      </c>
+      <c r="W454" s="4">
+        <v>1</v>
+      </c>
+      <c r="X454" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y454" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z454" s="5" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="455" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C455" s="39">
+        <v>7303001</v>
+      </c>
+      <c r="D455" s="36" t="s">
+        <v>777</v>
+      </c>
+      <c r="E455" s="4">
+        <v>3</v>
+      </c>
+      <c r="F455" s="39">
+        <v>10090301</v>
+      </c>
+      <c r="G455" s="4">
+        <v>1</v>
+      </c>
+      <c r="H455" s="4">
+        <v>50</v>
+      </c>
+      <c r="I455" s="4">
+        <v>20000</v>
+      </c>
+      <c r="J455" s="4">
+        <v>20</v>
+      </c>
+      <c r="K455" s="4">
+        <v>0</v>
+      </c>
+      <c r="L455" s="4">
+        <v>1</v>
+      </c>
+      <c r="M455" s="4">
+        <v>1</v>
+      </c>
+      <c r="N455" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O455" s="4">
+        <v>1</v>
+      </c>
+      <c r="P455" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q455" s="4">
+        <v>1</v>
+      </c>
+      <c r="R455" s="4">
+        <v>1</v>
+      </c>
+      <c r="S455" s="4">
+        <v>400</v>
+      </c>
+      <c r="T455" s="4">
+        <v>500</v>
+      </c>
+      <c r="U455" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="V455" s="4">
+        <v>0</v>
+      </c>
+      <c r="W455" s="4">
+        <v>1</v>
+      </c>
+      <c r="X455" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y455" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z455" s="5" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="454" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E454" s="5"/>
-      <c r="H454" s="5"/>
-      <c r="K454" s="4"/>
-      <c r="L454" s="4"/>
-      <c r="M454" s="4"/>
-      <c r="N454" s="4"/>
-      <c r="O454" s="4"/>
-      <c r="P454" s="4"/>
-      <c r="Q454" s="4"/>
-      <c r="R454" s="4"/>
-      <c r="S454" s="4"/>
-      <c r="T454" s="4"/>
-      <c r="U454" s="4"/>
-      <c r="V454" s="4"/>
-      <c r="W454" s="4"/>
-      <c r="X454" s="18"/>
-      <c r="Y454" s="4"/>
-    </row>
-    <row r="455" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E455" s="5"/>
-      <c r="H455" s="5"/>
-      <c r="I455" s="5"/>
-      <c r="J455" s="5"/>
-    </row>
     <row r="456" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E456" s="5"/>
-      <c r="H456" s="5"/>
-      <c r="I456" s="5"/>
-      <c r="J456" s="5"/>
-    </row>
-    <row r="457" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="C456" s="39">
+        <v>7303002</v>
+      </c>
+      <c r="D456" s="36" t="s">
+        <v>779</v>
+      </c>
+      <c r="E456" s="4">
+        <v>3</v>
+      </c>
+      <c r="F456" s="39">
+        <v>10090302</v>
+      </c>
+      <c r="G456" s="4">
+        <v>1</v>
+      </c>
+      <c r="H456" s="4">
+        <v>50</v>
+      </c>
+      <c r="I456" s="4">
+        <v>20000</v>
+      </c>
+      <c r="J456" s="4">
+        <v>20</v>
+      </c>
+      <c r="K456" s="4">
+        <v>0</v>
+      </c>
+      <c r="L456" s="4">
+        <v>1</v>
+      </c>
+      <c r="M456" s="4">
+        <v>1</v>
+      </c>
+      <c r="N456" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O456" s="4">
+        <v>1</v>
+      </c>
+      <c r="P456" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q456" s="4">
+        <v>1</v>
+      </c>
+      <c r="R456" s="4">
+        <v>1</v>
+      </c>
+      <c r="S456" s="4">
+        <v>425</v>
+      </c>
+      <c r="T456" s="4">
+        <v>500</v>
+      </c>
+      <c r="U456" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="V456" s="4">
+        <v>0</v>
+      </c>
+      <c r="W456" s="4">
+        <v>1</v>
+      </c>
+      <c r="X456" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y456" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z456" s="5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="457" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E457" s="5"/>
       <c r="H457" s="5"/>
-      <c r="I457" s="5"/>
-      <c r="J457" s="5"/>
-    </row>
-    <row r="458" spans="3:26" x14ac:dyDescent="0.3">
+      <c r="K457" s="4"/>
+      <c r="L457" s="4"/>
+      <c r="M457" s="4"/>
+      <c r="N457" s="4"/>
+      <c r="O457" s="4"/>
+      <c r="P457" s="4"/>
+      <c r="Q457" s="4"/>
+      <c r="R457" s="4"/>
+      <c r="S457" s="4"/>
+      <c r="T457" s="4"/>
+      <c r="U457" s="4"/>
+      <c r="V457" s="4"/>
+      <c r="W457" s="4"/>
+      <c r="X457" s="18"/>
+      <c r="Y457" s="4"/>
+    </row>
+    <row r="458" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E458" s="5"/>
       <c r="H458" s="5"/>
       <c r="I458" s="5"/>
       <c r="J458" s="5"/>
     </row>
-    <row r="459" spans="3:26" x14ac:dyDescent="0.3">
+    <row r="459" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E459" s="5"/>
       <c r="H459" s="5"/>
       <c r="I459" s="5"/>
@@ -41041,8 +41280,26 @@
       <c r="I1102" s="5"/>
       <c r="J1102" s="5"/>
     </row>
+    <row r="1103" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1103" s="5"/>
+      <c r="H1103" s="5"/>
+      <c r="I1103" s="5"/>
+      <c r="J1103" s="5"/>
+    </row>
+    <row r="1104" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1104" s="5"/>
+      <c r="H1104" s="5"/>
+      <c r="I1104" s="5"/>
+      <c r="J1104" s="5"/>
+    </row>
+    <row r="1105" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1105" s="5"/>
+      <c r="H1105" s="5"/>
+      <c r="I1105" s="5"/>
+      <c r="J1105" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="G1:G1102" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="G1:G1105" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -48,23 +48,7 @@
             <rFont val="Tahoma"/>
             <charset val="134"/>
           </rPr>
-          <t>0:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>图纸制造（需要消耗图纸）</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+          <t xml:space="preserve">0:图纸制造（需要消耗图纸）
 </t>
         </r>
         <r>
@@ -2563,82 +2547,82 @@
     <t>10010037;100</t>
   </si>
   <si>
-    <t>10020001;1000@10000152;30@15601001;1@10025008;50@10025009;20@10000143;35</t>
-  </si>
-  <si>
-    <t>10020001;1000@10000152;30@15601002;1@10025008;50@10025009;20@10000143;35</t>
-  </si>
-  <si>
-    <t>10020001;1000@10000152;30@15601003;1@10025008;50@10025009;20@10000143;35</t>
-  </si>
-  <si>
-    <t>10020001;1000@10000152;30@15602001;1@10025008;50@10025009;20@10000143;35</t>
-  </si>
-  <si>
-    <t>10020001;1000@10000152;30@15602002;1@10025008;50@10025009;20@10000143;35</t>
-  </si>
-  <si>
-    <t>10020001;1000@10000152;30@15602003;1@10025008;50@10025009;20@10000143;35</t>
-  </si>
-  <si>
-    <t>10020001;1000@10000152;30@15603001;1@10025008;50@10025009;20@10000143;35</t>
-  </si>
-  <si>
-    <t>10020001;1000@10000152;30@15603002;1@10025008;50@10025009;20@10000143;35</t>
-  </si>
-  <si>
-    <t>10020001;1000@10000152;30@15603003;1@10025008;50@10025009;20@10000143;35</t>
-  </si>
-  <si>
-    <t>10020001;1000@10000152;30@15604001;1@10025008;50@10025009;20@10000143;35</t>
-  </si>
-  <si>
-    <t>10020001;1000@10000152;30@15604002;1@10025008;50@10025009;20@10000143;35</t>
-  </si>
-  <si>
-    <t>10020001;1000@10000152;30@15604003;1@10025008;50@10025009;20@10000143;35</t>
-  </si>
-  <si>
-    <t>10020001;1000@10000152;30@15605001;1@10025008;50@10025009;20@10000143;35</t>
-  </si>
-  <si>
-    <t>10020001;1000@10000152;30@15605002;1@10025008;50@10025009;20@10000143;35</t>
-  </si>
-  <si>
-    <t>10020001;1000@10000152;30@15605003;1@10025008;50@10025009;20@10000143;35</t>
-  </si>
-  <si>
-    <t>10020001;1750@10000152;40@15606001;1@10025008;50@10025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>10020001;1750@10000152;40@15607001;1@10025008;50@10025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>10020001;1750@10000152;40@15608001;1@10025008;50@10025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>10020001;1750@10000152;40@15609001;1@10025008;50@10025009;20@10000143;50</t>
-  </si>
-  <si>
-    <t>10020001;2500@10000152;80@15610001;1@10025008;50@10025009;20@10000143;100</t>
-  </si>
-  <si>
-    <t>10020001;2500@10000152;80@15610002;1@10025008;50@10025009;20@10000143;100</t>
-  </si>
-  <si>
-    <t>10020001;2500@10000152;80@15610101;1@10025008;50@10025009;20@10000143;100</t>
-  </si>
-  <si>
-    <t>10020001;2500@10000152;80@15610102;1@10025008;50@10025009;20@10000143;100</t>
-  </si>
-  <si>
-    <t>10020001;1500@10000152;60@15611001;1@10025008;50@10025009;20@10000143;70</t>
-  </si>
-  <si>
-    <t>10020001;1500@10000152;60@15611002;1@10025008;50@10025009;20@10000143;70</t>
-  </si>
-  <si>
-    <t>10020001;1500@10000152;60@15611003;1@10025008;50@10025009;20@10000143;70</t>
+    <t>10020001;1000@10000152;30@15601001;1@10025008;50@10025009;20@10000143;50</t>
+  </si>
+  <si>
+    <t>10020001;1000@10000152;30@15601002;1@10025008;50@10025009;20@10000143;50</t>
+  </si>
+  <si>
+    <t>10020001;1000@10000152;30@15601003;1@10025008;50@10025009;20@10000143;50</t>
+  </si>
+  <si>
+    <t>10020001;1000@10000152;30@15602001;1@10025008;50@10025009;20@10000143;50</t>
+  </si>
+  <si>
+    <t>10020001;1000@10000152;30@15602002;1@10025008;50@10025009;20@10000143;50</t>
+  </si>
+  <si>
+    <t>10020001;1000@10000152;30@15602003;1@10025008;50@10025009;20@10000143;50</t>
+  </si>
+  <si>
+    <t>10020001;1000@10000152;30@15603001;1@10025008;50@10025009;20@10000143;50</t>
+  </si>
+  <si>
+    <t>10020001;1000@10000152;30@15603002;1@10025008;50@10025009;20@10000143;50</t>
+  </si>
+  <si>
+    <t>10020001;1000@10000152;30@15603003;1@10025008;50@10025009;20@10000143;50</t>
+  </si>
+  <si>
+    <t>10020001;1000@10000152;30@15604001;1@10025008;50@10025009;20@10000143;50</t>
+  </si>
+  <si>
+    <t>10020001;1000@10000152;30@15604002;1@10025008;50@10025009;20@10000143;50</t>
+  </si>
+  <si>
+    <t>10020001;1000@10000152;30@15604003;1@10025008;50@10025009;20@10000143;50</t>
+  </si>
+  <si>
+    <t>10020001;1000@10000152;30@15605001;1@10025008;50@10025009;20@10000143;50</t>
+  </si>
+  <si>
+    <t>10020001;1000@10000152;30@15605002;1@10025008;50@10025009;20@10000143;50</t>
+  </si>
+  <si>
+    <t>10020001;1000@10000152;30@15605003;1@10025008;50@10025009;20@10000143;50</t>
+  </si>
+  <si>
+    <t>10020001;1750@10000152;40@15606001;1@10025008;50@10025009;20@10000143;75</t>
+  </si>
+  <si>
+    <t>10020001;1750@10000152;40@15607001;1@10025008;50@10025009;20@10000143;75</t>
+  </si>
+  <si>
+    <t>10020001;1750@10000152;40@15608001;1@10025008;50@10025009;20@10000143;75</t>
+  </si>
+  <si>
+    <t>10020001;1750@10000152;40@15609001;1@10025008;50@10025009;20@10000143;75</t>
+  </si>
+  <si>
+    <t>10020001;2500@10000152;80@15610001;1@10025008;50@10025009;20@10000143;150</t>
+  </si>
+  <si>
+    <t>10020001;2500@10000152;80@15610002;1@10025008;50@10025009;20@10000143;150</t>
+  </si>
+  <si>
+    <t>10020001;2500@10000152;80@15610101;1@10025008;50@10025009;20@10000143;150</t>
+  </si>
+  <si>
+    <t>10020001;2500@10000152;80@15610102;1@10025008;50@10025009;20@10000143;150</t>
+  </si>
+  <si>
+    <t>10020001;1500@10000152;60@15611001;1@10025008;50@10025009;20@10000143;100</t>
+  </si>
+  <si>
+    <t>10020001;1500@10000152;60@15611002;1@10025008;50@10025009;20@10000143;100</t>
+  </si>
+  <si>
+    <t>10020001;1500@10000152;60@15611003;1@10025008;50@10025009;20@10000143;100</t>
   </si>
   <si>
     <t>附魔头盔:初级攻击</t>
@@ -3050,7 +3034,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3126,12 +3110,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3141,6 +3126,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3148,15 +3148,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3165,6 +3171,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3179,20 +3193,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3208,22 +3214,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -3231,18 +3221,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3254,23 +3237,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3333,7 +3310,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3345,19 +3394,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3375,7 +3460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3393,127 +3484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3585,33 +3562,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3631,6 +3586,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3642,26 +3621,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3686,10 +3663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3698,137 +3675,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4304,10 +4281,10 @@
   <sheetPr/>
   <dimension ref="C1:Z1131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F372" sqref="F372"/>
+      <selection pane="bottomLeft" activeCell="Z376" sqref="Z376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2654BC-262A-4E98-AD8E-3816DB8BD456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0FD51A-47E8-445B-B201-4906C330C9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="EquipMakeProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EquipMakeProto!$G$1:$G$1131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EquipMakeProto!$G$1:$G$1130</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -46,15 +46,16 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
+0:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">0:图纸制造（需要消耗图纸）
+          <t xml:space="preserve">图纸制造（需要消耗图纸）
 </t>
         </r>
         <r>
@@ -127,26 +128,10 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">宝石类型
+5.神器类型
+6.附魔类型
+8.家园类型
 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">5.神器类型
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>6.附魔类型</t>
         </r>
       </text>
     </comment>
@@ -537,7 +522,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="890">
   <si>
     <t>#</t>
   </si>
@@ -3064,6 +3049,251 @@
   </si>
   <si>
     <t>10020001;200@10025010;200@15511006;1@10025008;30@10025009;15@10000143;25</t>
+  </si>
+  <si>
+    <t>炒鸡蛋</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸鸭蛋</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡萝卜汁</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>腌蛋</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>红萝卜汁</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡汤</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔绒披风</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>绒毛面具</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>红薯团</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋汉堡</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤肉</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉串</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛皮护腕</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>清蒸土豆</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果汁</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜羹</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>绒毛围裙</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄瓜汁</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶点心</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿炒蛋</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>美味拼盘</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>美味蛋糕</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>美味奶汁</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米骨汤</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>风味肉汁</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>风味炒饭</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>风味奶酪</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿组合</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>风味南瓜粥</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>回味汤圆</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤鸡肉</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧烤肉</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>加厚皮裙</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>香味奶汁</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色果汁</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>10033001;1@10035001;1</t>
+  </si>
+  <si>
+    <t>10035002;1@10035002;1</t>
+  </si>
+  <si>
+    <t>10033002;1@10033003;1@10033003;1</t>
+  </si>
+  <si>
+    <t>10033002;1@10035001;1@10035002;1</t>
+  </si>
+  <si>
+    <t>10033001;1@10033004;1@10033004;1</t>
+  </si>
+  <si>
+    <t>10035003;1@10033001;1@10033002;1</t>
+  </si>
+  <si>
+    <t>10035004;1@10035004;1@10035004;1</t>
+  </si>
+  <si>
+    <t>10035004;1@10035005;1@10035004;1@10035005;1</t>
+  </si>
+  <si>
+    <t>10033005;1@10033005;1@10033004;1@10035002;1</t>
+  </si>
+  <si>
+    <t>10033006;1@10033005;1@10035003;1@10035001;1</t>
+  </si>
+  <si>
+    <t>10035006;1@10035003;1@10033003;1@10033001;1</t>
+  </si>
+  <si>
+    <t>10035007;1@10035007;1@10033002;1@10033006;1</t>
+  </si>
+  <si>
+    <t>10035008;1@10035008;1@10035006;1@10035003;1</t>
+  </si>
+  <si>
+    <t>10033007;1@10033007;1@10033005;1@10035001;1</t>
+  </si>
+  <si>
+    <t>10033008;1@10033008;1@10033004;1@10033003;1</t>
+  </si>
+  <si>
+    <t>10033009;1@10033009;1@10033006;1@10033002;1</t>
+  </si>
+  <si>
+    <t>10035009;1@10035009;1@10035005;1@10035004;1</t>
+  </si>
+  <si>
+    <t>10033010;1@10033010;1@10033008;1@10033007;1</t>
+  </si>
+  <si>
+    <t>10035010;1@10035010;1@10033009;1@10035002;1</t>
+  </si>
+  <si>
+    <t>10033011;1@10033011;1@10035001;1@10033001;1</t>
+  </si>
+  <si>
+    <t>10035011;1@10035011;1@10033006;1@10033005;1</t>
+  </si>
+  <si>
+    <t>10033012;1@10033012;1@10035010;1@10033010;1</t>
+  </si>
+  <si>
+    <t>10035012;1@10035012;1@10035010;1@10033009;1</t>
+  </si>
+  <si>
+    <t>10033013;1@10033013;1@10035011;1@10035007;1</t>
+  </si>
+  <si>
+    <t>10035013;1@10035013;1@10035007;1@10033006;1</t>
+  </si>
+  <si>
+    <t>10033014;1@10033014;1@10033012;1@10033010;1</t>
+  </si>
+  <si>
+    <t>10035014;1@10035014;1@10035012;1@10033012;1</t>
+  </si>
+  <si>
+    <t>10033011;1@10033011;1</t>
+  </si>
+  <si>
+    <t>10033011;1@10033009;1@10033010;1@10033001;1</t>
+  </si>
+  <si>
+    <t>10033012;1@10033012;1@10033007;1@10033004;1</t>
+  </si>
+  <si>
+    <t>10035003;1@10035003;1@10033001;1@10033002;1</t>
+  </si>
+  <si>
+    <t>10035006;1@10035006;1@10033006;1@10033002;1</t>
+  </si>
+  <si>
+    <t>10035009;1@10035009;1@10035008;1@10035008;1</t>
+  </si>
+  <si>
+    <t>10035012;1@10035012;1@10035010;1</t>
+  </si>
+  <si>
+    <t>10033008;1@10033008;1@10033010;1</t>
   </si>
 </sst>
 </file>
@@ -3321,7 +3551,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3446,6 +3676,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3754,11 +3987,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:Z1131"/>
+  <dimension ref="C1:Z1130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A265" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z274" sqref="Z274"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A479" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D488" sqref="D488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -39402,290 +39635,2622 @@
         <v>786</v>
       </c>
     </row>
-    <row r="483" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E483" s="6"/>
-      <c r="H483" s="6"/>
-      <c r="K483" s="4"/>
-      <c r="L483" s="4"/>
-      <c r="M483" s="4"/>
-      <c r="N483" s="4"/>
-      <c r="O483" s="4"/>
-      <c r="P483" s="4"/>
-      <c r="Q483" s="4"/>
-      <c r="R483" s="4"/>
-      <c r="S483" s="4"/>
-      <c r="T483" s="4"/>
-      <c r="U483" s="4"/>
-      <c r="V483" s="4"/>
-      <c r="W483" s="4"/>
-      <c r="X483" s="19"/>
-      <c r="Y483" s="4"/>
-    </row>
-    <row r="484" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E484" s="6"/>
-      <c r="H484" s="6"/>
-      <c r="I484" s="6"/>
-      <c r="J484" s="6"/>
-    </row>
-    <row r="485" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E485" s="6"/>
-      <c r="H485" s="6"/>
-      <c r="I485" s="6"/>
-      <c r="J485" s="6"/>
-    </row>
-    <row r="486" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="E486" s="6"/>
-      <c r="H486" s="6"/>
-      <c r="I486" s="6"/>
-      <c r="J486" s="6"/>
-    </row>
-    <row r="487" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="E487" s="6"/>
-      <c r="H487" s="6"/>
-      <c r="I487" s="6"/>
-      <c r="J487" s="6"/>
-    </row>
-    <row r="488" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="E488" s="6"/>
-      <c r="H488" s="6"/>
-      <c r="I488" s="6"/>
-      <c r="J488" s="6"/>
-    </row>
-    <row r="489" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="E489" s="6"/>
-      <c r="H489" s="6"/>
-      <c r="I489" s="6"/>
-      <c r="J489" s="6"/>
-    </row>
-    <row r="490" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="E490" s="6"/>
-      <c r="H490" s="6"/>
-      <c r="I490" s="6"/>
-      <c r="J490" s="6"/>
-    </row>
-    <row r="491" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="E491" s="6"/>
-      <c r="H491" s="6"/>
-      <c r="I491" s="6"/>
-      <c r="J491" s="6"/>
-    </row>
-    <row r="492" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="E492" s="6"/>
-      <c r="H492" s="6"/>
-      <c r="I492" s="6"/>
-      <c r="J492" s="6"/>
-    </row>
-    <row r="493" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="E493" s="6"/>
-      <c r="H493" s="6"/>
-      <c r="I493" s="6"/>
-      <c r="J493" s="6"/>
-    </row>
-    <row r="494" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="E494" s="6"/>
-      <c r="H494" s="6"/>
-      <c r="I494" s="6"/>
-      <c r="J494" s="6"/>
-    </row>
-    <row r="495" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="E495" s="6"/>
-      <c r="H495" s="6"/>
-      <c r="I495" s="6"/>
-      <c r="J495" s="6"/>
-    </row>
-    <row r="496" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="E496" s="6"/>
-      <c r="H496" s="6"/>
-      <c r="I496" s="6"/>
-      <c r="J496" s="6"/>
-    </row>
-    <row r="497" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E497" s="6"/>
-      <c r="H497" s="6"/>
-      <c r="I497" s="6"/>
-      <c r="J497" s="6"/>
-    </row>
-    <row r="498" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E498" s="6"/>
-      <c r="H498" s="6"/>
-      <c r="I498" s="6"/>
-      <c r="J498" s="6"/>
-    </row>
-    <row r="499" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E499" s="6"/>
-      <c r="H499" s="6"/>
-      <c r="I499" s="6"/>
-      <c r="J499" s="6"/>
-    </row>
-    <row r="500" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E500" s="6"/>
-      <c r="H500" s="6"/>
-      <c r="I500" s="6"/>
-      <c r="J500" s="6"/>
-    </row>
-    <row r="501" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E501" s="6"/>
-      <c r="H501" s="6"/>
-      <c r="I501" s="6"/>
-      <c r="J501" s="6"/>
-    </row>
-    <row r="502" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E502" s="6"/>
-      <c r="H502" s="6"/>
-      <c r="I502" s="6"/>
-      <c r="J502" s="6"/>
-    </row>
-    <row r="503" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E503" s="6"/>
-      <c r="H503" s="6"/>
-      <c r="I503" s="6"/>
-      <c r="J503" s="6"/>
-    </row>
-    <row r="504" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E504" s="6"/>
-      <c r="H504" s="6"/>
-      <c r="I504" s="6"/>
-      <c r="J504" s="6"/>
-    </row>
-    <row r="505" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E505" s="6"/>
-      <c r="H505" s="6"/>
-      <c r="I505" s="6"/>
-      <c r="J505" s="6"/>
-    </row>
-    <row r="506" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E506" s="6"/>
-      <c r="H506" s="6"/>
-      <c r="I506" s="6"/>
-      <c r="J506" s="6"/>
-    </row>
-    <row r="507" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E507" s="6"/>
-      <c r="H507" s="6"/>
-      <c r="I507" s="6"/>
-      <c r="J507" s="6"/>
-    </row>
-    <row r="508" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E508" s="6"/>
-      <c r="H508" s="6"/>
-      <c r="I508" s="6"/>
-      <c r="J508" s="6"/>
-    </row>
-    <row r="509" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E509" s="6"/>
-      <c r="H509" s="6"/>
-      <c r="I509" s="6"/>
-      <c r="J509" s="6"/>
-    </row>
-    <row r="510" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E510" s="6"/>
-      <c r="H510" s="6"/>
-      <c r="I510" s="6"/>
-      <c r="J510" s="6"/>
-    </row>
-    <row r="511" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E511" s="6"/>
-      <c r="H511" s="6"/>
-      <c r="I511" s="6"/>
-      <c r="J511" s="6"/>
-    </row>
-    <row r="512" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E512" s="6"/>
-      <c r="H512" s="6"/>
-      <c r="I512" s="6"/>
-      <c r="J512" s="6"/>
-    </row>
-    <row r="513" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E513" s="6"/>
-      <c r="H513" s="6"/>
-      <c r="I513" s="6"/>
-      <c r="J513" s="6"/>
-    </row>
-    <row r="514" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E514" s="6"/>
-      <c r="H514" s="6"/>
-      <c r="I514" s="6"/>
-      <c r="J514" s="6"/>
-    </row>
-    <row r="515" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E515" s="6"/>
-      <c r="H515" s="6"/>
-      <c r="I515" s="6"/>
-      <c r="J515" s="6"/>
-    </row>
-    <row r="516" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E516" s="6"/>
-      <c r="H516" s="6"/>
-      <c r="I516" s="6"/>
-      <c r="J516" s="6"/>
-    </row>
-    <row r="517" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E517" s="6"/>
-      <c r="H517" s="6"/>
-      <c r="I517" s="6"/>
-      <c r="J517" s="6"/>
-    </row>
-    <row r="518" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E518" s="6"/>
-      <c r="H518" s="6"/>
-      <c r="I518" s="6"/>
-      <c r="J518" s="6"/>
-    </row>
-    <row r="519" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E519" s="6"/>
-      <c r="H519" s="6"/>
-      <c r="I519" s="6"/>
-      <c r="J519" s="6"/>
-    </row>
-    <row r="520" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E520" s="6"/>
-      <c r="H520" s="6"/>
-      <c r="I520" s="6"/>
-      <c r="J520" s="6"/>
-    </row>
-    <row r="521" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E521" s="6"/>
-      <c r="H521" s="6"/>
-      <c r="I521" s="6"/>
-      <c r="J521" s="6"/>
-    </row>
-    <row r="522" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E522" s="6"/>
-      <c r="H522" s="6"/>
-      <c r="I522" s="6"/>
-      <c r="J522" s="6"/>
-    </row>
-    <row r="523" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E523" s="6"/>
-      <c r="H523" s="6"/>
-      <c r="I523" s="6"/>
-      <c r="J523" s="6"/>
-    </row>
-    <row r="524" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E524" s="6"/>
-      <c r="H524" s="6"/>
-      <c r="I524" s="6"/>
-      <c r="J524" s="6"/>
-    </row>
-    <row r="525" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="483" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C483" s="4">
+        <v>8000001</v>
+      </c>
+      <c r="D483" s="37" t="s">
+        <v>820</v>
+      </c>
+      <c r="E483" s="4">
+        <v>8</v>
+      </c>
+      <c r="F483" s="37">
+        <v>10036001</v>
+      </c>
+      <c r="G483" s="4">
+        <v>0</v>
+      </c>
+      <c r="H483" s="4">
+        <v>1</v>
+      </c>
+      <c r="I483" s="4">
+        <v>0</v>
+      </c>
+      <c r="J483" s="4">
+        <v>0</v>
+      </c>
+      <c r="K483" s="4">
+        <v>0</v>
+      </c>
+      <c r="L483" s="4">
+        <v>1</v>
+      </c>
+      <c r="M483" s="4">
+        <v>1</v>
+      </c>
+      <c r="N483" s="4">
+        <v>0</v>
+      </c>
+      <c r="O483" s="4">
+        <v>1</v>
+      </c>
+      <c r="P483" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q483" s="4">
+        <v>1</v>
+      </c>
+      <c r="R483" s="4">
+        <v>1</v>
+      </c>
+      <c r="S483" s="4">
+        <v>0</v>
+      </c>
+      <c r="T483" s="4">
+        <v>0</v>
+      </c>
+      <c r="U483" s="4">
+        <v>0</v>
+      </c>
+      <c r="V483" s="4">
+        <v>0</v>
+      </c>
+      <c r="W483" s="4">
+        <v>0</v>
+      </c>
+      <c r="X483" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y483" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z483" s="46" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="484" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C484" s="4">
+        <v>8000002</v>
+      </c>
+      <c r="D484" s="37" t="s">
+        <v>821</v>
+      </c>
+      <c r="E484" s="4">
+        <v>8</v>
+      </c>
+      <c r="F484" s="37">
+        <v>10036002</v>
+      </c>
+      <c r="G484" s="4">
+        <v>0</v>
+      </c>
+      <c r="H484" s="4">
+        <v>2</v>
+      </c>
+      <c r="I484" s="4">
+        <v>0</v>
+      </c>
+      <c r="J484" s="4">
+        <v>0</v>
+      </c>
+      <c r="K484" s="4">
+        <v>0</v>
+      </c>
+      <c r="L484" s="4">
+        <v>1</v>
+      </c>
+      <c r="M484" s="4">
+        <v>1</v>
+      </c>
+      <c r="N484" s="4">
+        <v>0</v>
+      </c>
+      <c r="O484" s="4">
+        <v>1</v>
+      </c>
+      <c r="P484" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q484" s="4">
+        <v>1</v>
+      </c>
+      <c r="R484" s="4">
+        <v>1</v>
+      </c>
+      <c r="S484" s="4">
+        <v>0</v>
+      </c>
+      <c r="T484" s="4">
+        <v>0</v>
+      </c>
+      <c r="U484" s="4">
+        <v>0</v>
+      </c>
+      <c r="V484" s="4">
+        <v>0</v>
+      </c>
+      <c r="W484" s="4">
+        <v>0</v>
+      </c>
+      <c r="X484" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y484" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z484" s="46" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="485" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C485" s="4">
+        <v>8000003</v>
+      </c>
+      <c r="D485" s="37" t="s">
+        <v>822</v>
+      </c>
+      <c r="E485" s="4">
+        <v>8</v>
+      </c>
+      <c r="F485" s="37">
+        <v>10036003</v>
+      </c>
+      <c r="G485" s="4">
+        <v>0</v>
+      </c>
+      <c r="H485" s="4">
+        <v>2</v>
+      </c>
+      <c r="I485" s="4">
+        <v>0</v>
+      </c>
+      <c r="J485" s="4">
+        <v>0</v>
+      </c>
+      <c r="K485" s="4">
+        <v>0</v>
+      </c>
+      <c r="L485" s="4">
+        <v>1</v>
+      </c>
+      <c r="M485" s="4">
+        <v>1</v>
+      </c>
+      <c r="N485" s="4">
+        <v>0</v>
+      </c>
+      <c r="O485" s="4">
+        <v>1</v>
+      </c>
+      <c r="P485" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q485" s="4">
+        <v>1</v>
+      </c>
+      <c r="R485" s="4">
+        <v>1</v>
+      </c>
+      <c r="S485" s="4">
+        <v>0</v>
+      </c>
+      <c r="T485" s="4">
+        <v>0</v>
+      </c>
+      <c r="U485" s="4">
+        <v>0</v>
+      </c>
+      <c r="V485" s="4">
+        <v>0</v>
+      </c>
+      <c r="W485" s="4">
+        <v>0</v>
+      </c>
+      <c r="X485" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y485" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z485" s="46" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="486" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C486" s="4">
+        <v>8000004</v>
+      </c>
+      <c r="D486" s="37" t="s">
+        <v>823</v>
+      </c>
+      <c r="E486" s="4">
+        <v>8</v>
+      </c>
+      <c r="F486" s="37">
+        <v>10036004</v>
+      </c>
+      <c r="G486" s="4">
+        <v>0</v>
+      </c>
+      <c r="H486" s="4">
+        <v>2</v>
+      </c>
+      <c r="I486" s="4">
+        <v>0</v>
+      </c>
+      <c r="J486" s="4">
+        <v>0</v>
+      </c>
+      <c r="K486" s="4">
+        <v>0</v>
+      </c>
+      <c r="L486" s="4">
+        <v>1</v>
+      </c>
+      <c r="M486" s="4">
+        <v>1</v>
+      </c>
+      <c r="N486" s="4">
+        <v>0</v>
+      </c>
+      <c r="O486" s="4">
+        <v>1</v>
+      </c>
+      <c r="P486" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q486" s="4">
+        <v>1</v>
+      </c>
+      <c r="R486" s="4">
+        <v>1</v>
+      </c>
+      <c r="S486" s="4">
+        <v>0</v>
+      </c>
+      <c r="T486" s="4">
+        <v>0</v>
+      </c>
+      <c r="U486" s="4">
+        <v>0</v>
+      </c>
+      <c r="V486" s="4">
+        <v>0</v>
+      </c>
+      <c r="W486" s="4">
+        <v>0</v>
+      </c>
+      <c r="X486" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y486" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z486" s="46" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="487" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C487" s="4">
+        <v>8000005</v>
+      </c>
+      <c r="D487" s="37" t="s">
+        <v>824</v>
+      </c>
+      <c r="E487" s="4">
+        <v>8</v>
+      </c>
+      <c r="F487" s="37">
+        <v>10036005</v>
+      </c>
+      <c r="G487" s="4">
+        <v>0</v>
+      </c>
+      <c r="H487" s="4">
+        <v>1</v>
+      </c>
+      <c r="I487" s="4">
+        <v>0</v>
+      </c>
+      <c r="J487" s="4">
+        <v>0</v>
+      </c>
+      <c r="K487" s="4">
+        <v>0</v>
+      </c>
+      <c r="L487" s="4">
+        <v>1</v>
+      </c>
+      <c r="M487" s="4">
+        <v>1</v>
+      </c>
+      <c r="N487" s="4">
+        <v>0</v>
+      </c>
+      <c r="O487" s="4">
+        <v>1</v>
+      </c>
+      <c r="P487" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q487" s="4">
+        <v>1</v>
+      </c>
+      <c r="R487" s="4">
+        <v>1</v>
+      </c>
+      <c r="S487" s="4">
+        <v>0</v>
+      </c>
+      <c r="T487" s="4">
+        <v>0</v>
+      </c>
+      <c r="U487" s="4">
+        <v>0</v>
+      </c>
+      <c r="V487" s="4">
+        <v>0</v>
+      </c>
+      <c r="W487" s="4">
+        <v>0</v>
+      </c>
+      <c r="X487" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y487" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z487" s="46" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="488" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C488" s="4">
+        <v>8000006</v>
+      </c>
+      <c r="D488" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="E488" s="4">
+        <v>8</v>
+      </c>
+      <c r="F488" s="37">
+        <v>10036006</v>
+      </c>
+      <c r="G488" s="4">
+        <v>0</v>
+      </c>
+      <c r="H488" s="4">
+        <v>3</v>
+      </c>
+      <c r="I488" s="4">
+        <v>0</v>
+      </c>
+      <c r="J488" s="4">
+        <v>0</v>
+      </c>
+      <c r="K488" s="4">
+        <v>0</v>
+      </c>
+      <c r="L488" s="4">
+        <v>1</v>
+      </c>
+      <c r="M488" s="4">
+        <v>1</v>
+      </c>
+      <c r="N488" s="4">
+        <v>0</v>
+      </c>
+      <c r="O488" s="4">
+        <v>1</v>
+      </c>
+      <c r="P488" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q488" s="4">
+        <v>1</v>
+      </c>
+      <c r="R488" s="4">
+        <v>1</v>
+      </c>
+      <c r="S488" s="4">
+        <v>0</v>
+      </c>
+      <c r="T488" s="4">
+        <v>0</v>
+      </c>
+      <c r="U488" s="4">
+        <v>0</v>
+      </c>
+      <c r="V488" s="4">
+        <v>0</v>
+      </c>
+      <c r="W488" s="4">
+        <v>0</v>
+      </c>
+      <c r="X488" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y488" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z488" s="46" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="489" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C489" s="4">
+        <v>8000007</v>
+      </c>
+      <c r="D489" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="E489" s="4">
+        <v>8</v>
+      </c>
+      <c r="F489" s="37">
+        <v>10036007</v>
+      </c>
+      <c r="G489" s="4">
+        <v>0</v>
+      </c>
+      <c r="H489" s="4">
+        <v>5</v>
+      </c>
+      <c r="I489" s="4">
+        <v>0</v>
+      </c>
+      <c r="J489" s="4">
+        <v>0</v>
+      </c>
+      <c r="K489" s="4">
+        <v>0</v>
+      </c>
+      <c r="L489" s="4">
+        <v>1</v>
+      </c>
+      <c r="M489" s="4">
+        <v>1</v>
+      </c>
+      <c r="N489" s="4">
+        <v>0</v>
+      </c>
+      <c r="O489" s="4">
+        <v>1</v>
+      </c>
+      <c r="P489" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q489" s="4">
+        <v>1</v>
+      </c>
+      <c r="R489" s="4">
+        <v>1</v>
+      </c>
+      <c r="S489" s="4">
+        <v>0</v>
+      </c>
+      <c r="T489" s="4">
+        <v>0</v>
+      </c>
+      <c r="U489" s="4">
+        <v>0</v>
+      </c>
+      <c r="V489" s="4">
+        <v>0</v>
+      </c>
+      <c r="W489" s="4">
+        <v>0</v>
+      </c>
+      <c r="X489" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y489" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z489" s="46" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="490" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C490" s="4">
+        <v>8000008</v>
+      </c>
+      <c r="D490" s="37" t="s">
+        <v>827</v>
+      </c>
+      <c r="E490" s="4">
+        <v>8</v>
+      </c>
+      <c r="F490" s="37">
+        <v>10036008</v>
+      </c>
+      <c r="G490" s="4">
+        <v>0</v>
+      </c>
+      <c r="H490" s="4">
+        <v>5</v>
+      </c>
+      <c r="I490" s="4">
+        <v>0</v>
+      </c>
+      <c r="J490" s="4">
+        <v>0</v>
+      </c>
+      <c r="K490" s="4">
+        <v>0</v>
+      </c>
+      <c r="L490" s="4">
+        <v>1</v>
+      </c>
+      <c r="M490" s="4">
+        <v>1</v>
+      </c>
+      <c r="N490" s="4">
+        <v>0</v>
+      </c>
+      <c r="O490" s="4">
+        <v>1</v>
+      </c>
+      <c r="P490" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q490" s="4">
+        <v>1</v>
+      </c>
+      <c r="R490" s="4">
+        <v>1</v>
+      </c>
+      <c r="S490" s="4">
+        <v>0</v>
+      </c>
+      <c r="T490" s="4">
+        <v>0</v>
+      </c>
+      <c r="U490" s="4">
+        <v>0</v>
+      </c>
+      <c r="V490" s="4">
+        <v>0</v>
+      </c>
+      <c r="W490" s="4">
+        <v>0</v>
+      </c>
+      <c r="X490" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y490" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z490" s="46" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="491" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C491" s="4">
+        <v>8000009</v>
+      </c>
+      <c r="D491" s="37" t="s">
+        <v>828</v>
+      </c>
+      <c r="E491" s="4">
+        <v>8</v>
+      </c>
+      <c r="F491" s="37">
+        <v>10036009</v>
+      </c>
+      <c r="G491" s="4">
+        <v>0</v>
+      </c>
+      <c r="H491" s="4">
+        <v>7</v>
+      </c>
+      <c r="I491" s="4">
+        <v>0</v>
+      </c>
+      <c r="J491" s="4">
+        <v>0</v>
+      </c>
+      <c r="K491" s="4">
+        <v>0</v>
+      </c>
+      <c r="L491" s="4">
+        <v>1</v>
+      </c>
+      <c r="M491" s="4">
+        <v>1</v>
+      </c>
+      <c r="N491" s="4">
+        <v>0</v>
+      </c>
+      <c r="O491" s="4">
+        <v>1</v>
+      </c>
+      <c r="P491" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q491" s="4">
+        <v>1</v>
+      </c>
+      <c r="R491" s="4">
+        <v>1</v>
+      </c>
+      <c r="S491" s="4">
+        <v>0</v>
+      </c>
+      <c r="T491" s="4">
+        <v>0</v>
+      </c>
+      <c r="U491" s="4">
+        <v>0</v>
+      </c>
+      <c r="V491" s="4">
+        <v>0</v>
+      </c>
+      <c r="W491" s="4">
+        <v>0</v>
+      </c>
+      <c r="X491" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y491" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z491" s="46" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="492" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C492" s="4">
+        <v>8000010</v>
+      </c>
+      <c r="D492" s="37" t="s">
+        <v>829</v>
+      </c>
+      <c r="E492" s="4">
+        <v>8</v>
+      </c>
+      <c r="F492" s="37">
+        <v>10036010</v>
+      </c>
+      <c r="G492" s="4">
+        <v>0</v>
+      </c>
+      <c r="H492" s="4">
+        <v>9</v>
+      </c>
+      <c r="I492" s="4">
+        <v>0</v>
+      </c>
+      <c r="J492" s="4">
+        <v>0</v>
+      </c>
+      <c r="K492" s="4">
+        <v>0</v>
+      </c>
+      <c r="L492" s="4">
+        <v>1</v>
+      </c>
+      <c r="M492" s="4">
+        <v>1</v>
+      </c>
+      <c r="N492" s="4">
+        <v>0</v>
+      </c>
+      <c r="O492" s="4">
+        <v>1</v>
+      </c>
+      <c r="P492" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q492" s="4">
+        <v>1</v>
+      </c>
+      <c r="R492" s="4">
+        <v>1</v>
+      </c>
+      <c r="S492" s="4">
+        <v>0</v>
+      </c>
+      <c r="T492" s="4">
+        <v>0</v>
+      </c>
+      <c r="U492" s="4">
+        <v>0</v>
+      </c>
+      <c r="V492" s="4">
+        <v>0</v>
+      </c>
+      <c r="W492" s="4">
+        <v>0</v>
+      </c>
+      <c r="X492" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y492" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z492" s="46" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="493" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C493" s="4">
+        <v>8000011</v>
+      </c>
+      <c r="D493" s="37" t="s">
+        <v>830</v>
+      </c>
+      <c r="E493" s="4">
+        <v>8</v>
+      </c>
+      <c r="F493" s="37">
+        <v>10036011</v>
+      </c>
+      <c r="G493" s="4">
+        <v>0</v>
+      </c>
+      <c r="H493" s="4">
+        <v>9</v>
+      </c>
+      <c r="I493" s="4">
+        <v>0</v>
+      </c>
+      <c r="J493" s="4">
+        <v>0</v>
+      </c>
+      <c r="K493" s="4">
+        <v>0</v>
+      </c>
+      <c r="L493" s="4">
+        <v>1</v>
+      </c>
+      <c r="M493" s="4">
+        <v>1</v>
+      </c>
+      <c r="N493" s="4">
+        <v>0</v>
+      </c>
+      <c r="O493" s="4">
+        <v>1</v>
+      </c>
+      <c r="P493" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q493" s="4">
+        <v>1</v>
+      </c>
+      <c r="R493" s="4">
+        <v>1</v>
+      </c>
+      <c r="S493" s="4">
+        <v>0</v>
+      </c>
+      <c r="T493" s="4">
+        <v>0</v>
+      </c>
+      <c r="U493" s="4">
+        <v>0</v>
+      </c>
+      <c r="V493" s="4">
+        <v>0</v>
+      </c>
+      <c r="W493" s="4">
+        <v>0</v>
+      </c>
+      <c r="X493" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y493" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z493" s="46" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="494" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C494" s="4">
+        <v>8000012</v>
+      </c>
+      <c r="D494" s="37" t="s">
+        <v>831</v>
+      </c>
+      <c r="E494" s="4">
+        <v>8</v>
+      </c>
+      <c r="F494" s="37">
+        <v>10036012</v>
+      </c>
+      <c r="G494" s="4">
+        <v>0</v>
+      </c>
+      <c r="H494" s="4">
+        <v>11</v>
+      </c>
+      <c r="I494" s="4">
+        <v>0</v>
+      </c>
+      <c r="J494" s="4">
+        <v>0</v>
+      </c>
+      <c r="K494" s="4">
+        <v>0</v>
+      </c>
+      <c r="L494" s="4">
+        <v>1</v>
+      </c>
+      <c r="M494" s="4">
+        <v>1</v>
+      </c>
+      <c r="N494" s="4">
+        <v>0</v>
+      </c>
+      <c r="O494" s="4">
+        <v>1</v>
+      </c>
+      <c r="P494" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q494" s="4">
+        <v>1</v>
+      </c>
+      <c r="R494" s="4">
+        <v>1</v>
+      </c>
+      <c r="S494" s="4">
+        <v>0</v>
+      </c>
+      <c r="T494" s="4">
+        <v>0</v>
+      </c>
+      <c r="U494" s="4">
+        <v>0</v>
+      </c>
+      <c r="V494" s="4">
+        <v>0</v>
+      </c>
+      <c r="W494" s="4">
+        <v>0</v>
+      </c>
+      <c r="X494" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y494" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z494" s="46" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="495" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C495" s="4">
+        <v>8000013</v>
+      </c>
+      <c r="D495" s="37" t="s">
+        <v>832</v>
+      </c>
+      <c r="E495" s="4">
+        <v>8</v>
+      </c>
+      <c r="F495" s="37">
+        <v>10036013</v>
+      </c>
+      <c r="G495" s="4">
+        <v>0</v>
+      </c>
+      <c r="H495" s="4">
+        <v>13</v>
+      </c>
+      <c r="I495" s="4">
+        <v>0</v>
+      </c>
+      <c r="J495" s="4">
+        <v>0</v>
+      </c>
+      <c r="K495" s="4">
+        <v>0</v>
+      </c>
+      <c r="L495" s="4">
+        <v>1</v>
+      </c>
+      <c r="M495" s="4">
+        <v>1</v>
+      </c>
+      <c r="N495" s="4">
+        <v>0</v>
+      </c>
+      <c r="O495" s="4">
+        <v>1</v>
+      </c>
+      <c r="P495" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q495" s="4">
+        <v>1</v>
+      </c>
+      <c r="R495" s="4">
+        <v>1</v>
+      </c>
+      <c r="S495" s="4">
+        <v>0</v>
+      </c>
+      <c r="T495" s="4">
+        <v>0</v>
+      </c>
+      <c r="U495" s="4">
+        <v>0</v>
+      </c>
+      <c r="V495" s="4">
+        <v>0</v>
+      </c>
+      <c r="W495" s="4">
+        <v>0</v>
+      </c>
+      <c r="X495" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y495" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z495" s="46" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="496" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C496" s="4">
+        <v>8000014</v>
+      </c>
+      <c r="D496" s="37" t="s">
+        <v>833</v>
+      </c>
+      <c r="E496" s="4">
+        <v>8</v>
+      </c>
+      <c r="F496" s="37">
+        <v>10036014</v>
+      </c>
+      <c r="G496" s="4">
+        <v>0</v>
+      </c>
+      <c r="H496" s="4">
+        <v>11</v>
+      </c>
+      <c r="I496" s="4">
+        <v>0</v>
+      </c>
+      <c r="J496" s="4">
+        <v>0</v>
+      </c>
+      <c r="K496" s="4">
+        <v>0</v>
+      </c>
+      <c r="L496" s="4">
+        <v>1</v>
+      </c>
+      <c r="M496" s="4">
+        <v>1</v>
+      </c>
+      <c r="N496" s="4">
+        <v>0</v>
+      </c>
+      <c r="O496" s="4">
+        <v>1</v>
+      </c>
+      <c r="P496" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q496" s="4">
+        <v>1</v>
+      </c>
+      <c r="R496" s="4">
+        <v>1</v>
+      </c>
+      <c r="S496" s="4">
+        <v>0</v>
+      </c>
+      <c r="T496" s="4">
+        <v>0</v>
+      </c>
+      <c r="U496" s="4">
+        <v>0</v>
+      </c>
+      <c r="V496" s="4">
+        <v>0</v>
+      </c>
+      <c r="W496" s="4">
+        <v>0</v>
+      </c>
+      <c r="X496" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y496" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z496" s="46" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="497" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C497" s="4">
+        <v>8000015</v>
+      </c>
+      <c r="D497" s="37" t="s">
+        <v>834</v>
+      </c>
+      <c r="E497" s="4">
+        <v>8</v>
+      </c>
+      <c r="F497" s="37">
+        <v>10036015</v>
+      </c>
+      <c r="G497" s="4">
+        <v>0</v>
+      </c>
+      <c r="H497" s="4">
+        <v>13</v>
+      </c>
+      <c r="I497" s="4">
+        <v>0</v>
+      </c>
+      <c r="J497" s="4">
+        <v>0</v>
+      </c>
+      <c r="K497" s="4">
+        <v>0</v>
+      </c>
+      <c r="L497" s="4">
+        <v>1</v>
+      </c>
+      <c r="M497" s="4">
+        <v>1</v>
+      </c>
+      <c r="N497" s="4">
+        <v>0</v>
+      </c>
+      <c r="O497" s="4">
+        <v>1</v>
+      </c>
+      <c r="P497" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q497" s="4">
+        <v>1</v>
+      </c>
+      <c r="R497" s="4">
+        <v>1</v>
+      </c>
+      <c r="S497" s="4">
+        <v>0</v>
+      </c>
+      <c r="T497" s="4">
+        <v>0</v>
+      </c>
+      <c r="U497" s="4">
+        <v>0</v>
+      </c>
+      <c r="V497" s="4">
+        <v>0</v>
+      </c>
+      <c r="W497" s="4">
+        <v>0</v>
+      </c>
+      <c r="X497" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y497" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z497" s="46" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="498" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C498" s="4">
+        <v>8000016</v>
+      </c>
+      <c r="D498" s="37" t="s">
+        <v>835</v>
+      </c>
+      <c r="E498" s="4">
+        <v>8</v>
+      </c>
+      <c r="F498" s="37">
+        <v>10036016</v>
+      </c>
+      <c r="G498" s="4">
+        <v>0</v>
+      </c>
+      <c r="H498" s="4">
+        <v>15</v>
+      </c>
+      <c r="I498" s="4">
+        <v>0</v>
+      </c>
+      <c r="J498" s="4">
+        <v>0</v>
+      </c>
+      <c r="K498" s="4">
+        <v>0</v>
+      </c>
+      <c r="L498" s="4">
+        <v>1</v>
+      </c>
+      <c r="M498" s="4">
+        <v>1</v>
+      </c>
+      <c r="N498" s="4">
+        <v>0</v>
+      </c>
+      <c r="O498" s="4">
+        <v>1</v>
+      </c>
+      <c r="P498" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q498" s="4">
+        <v>1</v>
+      </c>
+      <c r="R498" s="4">
+        <v>1</v>
+      </c>
+      <c r="S498" s="4">
+        <v>0</v>
+      </c>
+      <c r="T498" s="4">
+        <v>0</v>
+      </c>
+      <c r="U498" s="4">
+        <v>0</v>
+      </c>
+      <c r="V498" s="4">
+        <v>0</v>
+      </c>
+      <c r="W498" s="4">
+        <v>0</v>
+      </c>
+      <c r="X498" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y498" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z498" s="46" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="499" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C499" s="4">
+        <v>8000017</v>
+      </c>
+      <c r="D499" s="37" t="s">
+        <v>836</v>
+      </c>
+      <c r="E499" s="4">
+        <v>8</v>
+      </c>
+      <c r="F499" s="37">
+        <v>10036017</v>
+      </c>
+      <c r="G499" s="4">
+        <v>0</v>
+      </c>
+      <c r="H499" s="4">
+        <v>15</v>
+      </c>
+      <c r="I499" s="4">
+        <v>0</v>
+      </c>
+      <c r="J499" s="4">
+        <v>0</v>
+      </c>
+      <c r="K499" s="4">
+        <v>0</v>
+      </c>
+      <c r="L499" s="4">
+        <v>1</v>
+      </c>
+      <c r="M499" s="4">
+        <v>1</v>
+      </c>
+      <c r="N499" s="4">
+        <v>0</v>
+      </c>
+      <c r="O499" s="4">
+        <v>1</v>
+      </c>
+      <c r="P499" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q499" s="4">
+        <v>1</v>
+      </c>
+      <c r="R499" s="4">
+        <v>1</v>
+      </c>
+      <c r="S499" s="4">
+        <v>0</v>
+      </c>
+      <c r="T499" s="4">
+        <v>0</v>
+      </c>
+      <c r="U499" s="4">
+        <v>0</v>
+      </c>
+      <c r="V499" s="4">
+        <v>0</v>
+      </c>
+      <c r="W499" s="4">
+        <v>0</v>
+      </c>
+      <c r="X499" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y499" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z499" s="46" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="500" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C500" s="4">
+        <v>8000018</v>
+      </c>
+      <c r="D500" s="37" t="s">
+        <v>837</v>
+      </c>
+      <c r="E500" s="4">
+        <v>8</v>
+      </c>
+      <c r="F500" s="37">
+        <v>10036018</v>
+      </c>
+      <c r="G500" s="4">
+        <v>0</v>
+      </c>
+      <c r="H500" s="4">
+        <v>17</v>
+      </c>
+      <c r="I500" s="4">
+        <v>0</v>
+      </c>
+      <c r="J500" s="4">
+        <v>0</v>
+      </c>
+      <c r="K500" s="4">
+        <v>0</v>
+      </c>
+      <c r="L500" s="4">
+        <v>1</v>
+      </c>
+      <c r="M500" s="4">
+        <v>1</v>
+      </c>
+      <c r="N500" s="4">
+        <v>0</v>
+      </c>
+      <c r="O500" s="4">
+        <v>1</v>
+      </c>
+      <c r="P500" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q500" s="4">
+        <v>1</v>
+      </c>
+      <c r="R500" s="4">
+        <v>1</v>
+      </c>
+      <c r="S500" s="4">
+        <v>0</v>
+      </c>
+      <c r="T500" s="4">
+        <v>0</v>
+      </c>
+      <c r="U500" s="4">
+        <v>0</v>
+      </c>
+      <c r="V500" s="4">
+        <v>0</v>
+      </c>
+      <c r="W500" s="4">
+        <v>0</v>
+      </c>
+      <c r="X500" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y500" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z500" s="46" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="501" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C501" s="4">
+        <v>8000019</v>
+      </c>
+      <c r="D501" s="37" t="s">
+        <v>838</v>
+      </c>
+      <c r="E501" s="4">
+        <v>8</v>
+      </c>
+      <c r="F501" s="37">
+        <v>10036019</v>
+      </c>
+      <c r="G501" s="4">
+        <v>0</v>
+      </c>
+      <c r="H501" s="4">
+        <v>17</v>
+      </c>
+      <c r="I501" s="4">
+        <v>0</v>
+      </c>
+      <c r="J501" s="4">
+        <v>0</v>
+      </c>
+      <c r="K501" s="4">
+        <v>0</v>
+      </c>
+      <c r="L501" s="4">
+        <v>1</v>
+      </c>
+      <c r="M501" s="4">
+        <v>1</v>
+      </c>
+      <c r="N501" s="4">
+        <v>0</v>
+      </c>
+      <c r="O501" s="4">
+        <v>1</v>
+      </c>
+      <c r="P501" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q501" s="4">
+        <v>1</v>
+      </c>
+      <c r="R501" s="4">
+        <v>1</v>
+      </c>
+      <c r="S501" s="4">
+        <v>0</v>
+      </c>
+      <c r="T501" s="4">
+        <v>0</v>
+      </c>
+      <c r="U501" s="4">
+        <v>0</v>
+      </c>
+      <c r="V501" s="4">
+        <v>0</v>
+      </c>
+      <c r="W501" s="4">
+        <v>0</v>
+      </c>
+      <c r="X501" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y501" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z501" s="46" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="502" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C502" s="4">
+        <v>8000020</v>
+      </c>
+      <c r="D502" s="37" t="s">
+        <v>839</v>
+      </c>
+      <c r="E502" s="4">
+        <v>8</v>
+      </c>
+      <c r="F502" s="37">
+        <v>10036020</v>
+      </c>
+      <c r="G502" s="4">
+        <v>0</v>
+      </c>
+      <c r="H502" s="4">
+        <v>19</v>
+      </c>
+      <c r="I502" s="4">
+        <v>0</v>
+      </c>
+      <c r="J502" s="4">
+        <v>0</v>
+      </c>
+      <c r="K502" s="4">
+        <v>0</v>
+      </c>
+      <c r="L502" s="4">
+        <v>1</v>
+      </c>
+      <c r="M502" s="4">
+        <v>1</v>
+      </c>
+      <c r="N502" s="4">
+        <v>0</v>
+      </c>
+      <c r="O502" s="4">
+        <v>1</v>
+      </c>
+      <c r="P502" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q502" s="4">
+        <v>1</v>
+      </c>
+      <c r="R502" s="4">
+        <v>1</v>
+      </c>
+      <c r="S502" s="4">
+        <v>0</v>
+      </c>
+      <c r="T502" s="4">
+        <v>0</v>
+      </c>
+      <c r="U502" s="4">
+        <v>0</v>
+      </c>
+      <c r="V502" s="4">
+        <v>0</v>
+      </c>
+      <c r="W502" s="4">
+        <v>0</v>
+      </c>
+      <c r="X502" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y502" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z502" s="46" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="503" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C503" s="4">
+        <v>8000021</v>
+      </c>
+      <c r="D503" s="37" t="s">
+        <v>840</v>
+      </c>
+      <c r="E503" s="4">
+        <v>8</v>
+      </c>
+      <c r="F503" s="37">
+        <v>10036021</v>
+      </c>
+      <c r="G503" s="4">
+        <v>0</v>
+      </c>
+      <c r="H503" s="4">
+        <v>19</v>
+      </c>
+      <c r="I503" s="4">
+        <v>0</v>
+      </c>
+      <c r="J503" s="4">
+        <v>0</v>
+      </c>
+      <c r="K503" s="4">
+        <v>0</v>
+      </c>
+      <c r="L503" s="4">
+        <v>1</v>
+      </c>
+      <c r="M503" s="4">
+        <v>1</v>
+      </c>
+      <c r="N503" s="4">
+        <v>0</v>
+      </c>
+      <c r="O503" s="4">
+        <v>1</v>
+      </c>
+      <c r="P503" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q503" s="4">
+        <v>1</v>
+      </c>
+      <c r="R503" s="4">
+        <v>1</v>
+      </c>
+      <c r="S503" s="4">
+        <v>0</v>
+      </c>
+      <c r="T503" s="4">
+        <v>0</v>
+      </c>
+      <c r="U503" s="4">
+        <v>0</v>
+      </c>
+      <c r="V503" s="4">
+        <v>0</v>
+      </c>
+      <c r="W503" s="4">
+        <v>0</v>
+      </c>
+      <c r="X503" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y503" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z503" s="46" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="504" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C504" s="4">
+        <v>8000022</v>
+      </c>
+      <c r="D504" s="37" t="s">
+        <v>841</v>
+      </c>
+      <c r="E504" s="4">
+        <v>8</v>
+      </c>
+      <c r="F504" s="37">
+        <v>10036022</v>
+      </c>
+      <c r="G504" s="4">
+        <v>0</v>
+      </c>
+      <c r="H504" s="4">
+        <v>21</v>
+      </c>
+      <c r="I504" s="4">
+        <v>0</v>
+      </c>
+      <c r="J504" s="4">
+        <v>0</v>
+      </c>
+      <c r="K504" s="4">
+        <v>0</v>
+      </c>
+      <c r="L504" s="4">
+        <v>1</v>
+      </c>
+      <c r="M504" s="4">
+        <v>1</v>
+      </c>
+      <c r="N504" s="4">
+        <v>0</v>
+      </c>
+      <c r="O504" s="4">
+        <v>1</v>
+      </c>
+      <c r="P504" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q504" s="4">
+        <v>1</v>
+      </c>
+      <c r="R504" s="4">
+        <v>1</v>
+      </c>
+      <c r="S504" s="4">
+        <v>0</v>
+      </c>
+      <c r="T504" s="4">
+        <v>0</v>
+      </c>
+      <c r="U504" s="4">
+        <v>0</v>
+      </c>
+      <c r="V504" s="4">
+        <v>0</v>
+      </c>
+      <c r="W504" s="4">
+        <v>0</v>
+      </c>
+      <c r="X504" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y504" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z504" s="46" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="505" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C505" s="4">
+        <v>8000023</v>
+      </c>
+      <c r="D505" s="37" t="s">
+        <v>842</v>
+      </c>
+      <c r="E505" s="4">
+        <v>8</v>
+      </c>
+      <c r="F505" s="37">
+        <v>10036023</v>
+      </c>
+      <c r="G505" s="4">
+        <v>0</v>
+      </c>
+      <c r="H505" s="4">
+        <v>21</v>
+      </c>
+      <c r="I505" s="4">
+        <v>0</v>
+      </c>
+      <c r="J505" s="4">
+        <v>0</v>
+      </c>
+      <c r="K505" s="4">
+        <v>0</v>
+      </c>
+      <c r="L505" s="4">
+        <v>1</v>
+      </c>
+      <c r="M505" s="4">
+        <v>1</v>
+      </c>
+      <c r="N505" s="4">
+        <v>0</v>
+      </c>
+      <c r="O505" s="4">
+        <v>1</v>
+      </c>
+      <c r="P505" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q505" s="4">
+        <v>1</v>
+      </c>
+      <c r="R505" s="4">
+        <v>1</v>
+      </c>
+      <c r="S505" s="4">
+        <v>0</v>
+      </c>
+      <c r="T505" s="4">
+        <v>0</v>
+      </c>
+      <c r="U505" s="4">
+        <v>0</v>
+      </c>
+      <c r="V505" s="4">
+        <v>0</v>
+      </c>
+      <c r="W505" s="4">
+        <v>0</v>
+      </c>
+      <c r="X505" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y505" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z505" s="46" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="506" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C506" s="4">
+        <v>8000024</v>
+      </c>
+      <c r="D506" s="37" t="s">
+        <v>843</v>
+      </c>
+      <c r="E506" s="4">
+        <v>8</v>
+      </c>
+      <c r="F506" s="37">
+        <v>10036024</v>
+      </c>
+      <c r="G506" s="4">
+        <v>0</v>
+      </c>
+      <c r="H506" s="4">
+        <v>23</v>
+      </c>
+      <c r="I506" s="4">
+        <v>0</v>
+      </c>
+      <c r="J506" s="4">
+        <v>0</v>
+      </c>
+      <c r="K506" s="4">
+        <v>0</v>
+      </c>
+      <c r="L506" s="4">
+        <v>1</v>
+      </c>
+      <c r="M506" s="4">
+        <v>1</v>
+      </c>
+      <c r="N506" s="4">
+        <v>0</v>
+      </c>
+      <c r="O506" s="4">
+        <v>1</v>
+      </c>
+      <c r="P506" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q506" s="4">
+        <v>1</v>
+      </c>
+      <c r="R506" s="4">
+        <v>1</v>
+      </c>
+      <c r="S506" s="4">
+        <v>0</v>
+      </c>
+      <c r="T506" s="4">
+        <v>0</v>
+      </c>
+      <c r="U506" s="4">
+        <v>0</v>
+      </c>
+      <c r="V506" s="4">
+        <v>0</v>
+      </c>
+      <c r="W506" s="4">
+        <v>0</v>
+      </c>
+      <c r="X506" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y506" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z506" s="46" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="507" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C507" s="4">
+        <v>8000025</v>
+      </c>
+      <c r="D507" s="37" t="s">
+        <v>844</v>
+      </c>
+      <c r="E507" s="4">
+        <v>8</v>
+      </c>
+      <c r="F507" s="37">
+        <v>10036025</v>
+      </c>
+      <c r="G507" s="4">
+        <v>0</v>
+      </c>
+      <c r="H507" s="4">
+        <v>23</v>
+      </c>
+      <c r="I507" s="4">
+        <v>0</v>
+      </c>
+      <c r="J507" s="4">
+        <v>0</v>
+      </c>
+      <c r="K507" s="4">
+        <v>0</v>
+      </c>
+      <c r="L507" s="4">
+        <v>1</v>
+      </c>
+      <c r="M507" s="4">
+        <v>1</v>
+      </c>
+      <c r="N507" s="4">
+        <v>0</v>
+      </c>
+      <c r="O507" s="4">
+        <v>1</v>
+      </c>
+      <c r="P507" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q507" s="4">
+        <v>1</v>
+      </c>
+      <c r="R507" s="4">
+        <v>1</v>
+      </c>
+      <c r="S507" s="4">
+        <v>0</v>
+      </c>
+      <c r="T507" s="4">
+        <v>0</v>
+      </c>
+      <c r="U507" s="4">
+        <v>0</v>
+      </c>
+      <c r="V507" s="4">
+        <v>0</v>
+      </c>
+      <c r="W507" s="4">
+        <v>0</v>
+      </c>
+      <c r="X507" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y507" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z507" s="46" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="508" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C508" s="4">
+        <v>8000026</v>
+      </c>
+      <c r="D508" s="37" t="s">
+        <v>845</v>
+      </c>
+      <c r="E508" s="4">
+        <v>8</v>
+      </c>
+      <c r="F508" s="37">
+        <v>10036026</v>
+      </c>
+      <c r="G508" s="4">
+        <v>0</v>
+      </c>
+      <c r="H508" s="4">
+        <v>25</v>
+      </c>
+      <c r="I508" s="4">
+        <v>0</v>
+      </c>
+      <c r="J508" s="4">
+        <v>0</v>
+      </c>
+      <c r="K508" s="4">
+        <v>0</v>
+      </c>
+      <c r="L508" s="4">
+        <v>1</v>
+      </c>
+      <c r="M508" s="4">
+        <v>1</v>
+      </c>
+      <c r="N508" s="4">
+        <v>0</v>
+      </c>
+      <c r="O508" s="4">
+        <v>1</v>
+      </c>
+      <c r="P508" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q508" s="4">
+        <v>1</v>
+      </c>
+      <c r="R508" s="4">
+        <v>1</v>
+      </c>
+      <c r="S508" s="4">
+        <v>0</v>
+      </c>
+      <c r="T508" s="4">
+        <v>0</v>
+      </c>
+      <c r="U508" s="4">
+        <v>0</v>
+      </c>
+      <c r="V508" s="4">
+        <v>0</v>
+      </c>
+      <c r="W508" s="4">
+        <v>0</v>
+      </c>
+      <c r="X508" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y508" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z508" s="46" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="509" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C509" s="4">
+        <v>8000027</v>
+      </c>
+      <c r="D509" s="37" t="s">
+        <v>846</v>
+      </c>
+      <c r="E509" s="4">
+        <v>8</v>
+      </c>
+      <c r="F509" s="37">
+        <v>10036027</v>
+      </c>
+      <c r="G509" s="4">
+        <v>0</v>
+      </c>
+      <c r="H509" s="4">
+        <v>25</v>
+      </c>
+      <c r="I509" s="4">
+        <v>0</v>
+      </c>
+      <c r="J509" s="4">
+        <v>0</v>
+      </c>
+      <c r="K509" s="4">
+        <v>0</v>
+      </c>
+      <c r="L509" s="4">
+        <v>1</v>
+      </c>
+      <c r="M509" s="4">
+        <v>1</v>
+      </c>
+      <c r="N509" s="4">
+        <v>0</v>
+      </c>
+      <c r="O509" s="4">
+        <v>1</v>
+      </c>
+      <c r="P509" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q509" s="4">
+        <v>1</v>
+      </c>
+      <c r="R509" s="4">
+        <v>1</v>
+      </c>
+      <c r="S509" s="4">
+        <v>0</v>
+      </c>
+      <c r="T509" s="4">
+        <v>0</v>
+      </c>
+      <c r="U509" s="4">
+        <v>0</v>
+      </c>
+      <c r="V509" s="4">
+        <v>0</v>
+      </c>
+      <c r="W509" s="4">
+        <v>0</v>
+      </c>
+      <c r="X509" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y509" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z509" s="46" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="510" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C510" s="4">
+        <v>8000028</v>
+      </c>
+      <c r="D510" s="37" t="s">
+        <v>847</v>
+      </c>
+      <c r="E510" s="4">
+        <v>8</v>
+      </c>
+      <c r="F510" s="37">
+        <v>10036028</v>
+      </c>
+      <c r="G510" s="4">
+        <v>0</v>
+      </c>
+      <c r="H510" s="4">
+        <v>19</v>
+      </c>
+      <c r="I510" s="4">
+        <v>0</v>
+      </c>
+      <c r="J510" s="4">
+        <v>0</v>
+      </c>
+      <c r="K510" s="4">
+        <v>0</v>
+      </c>
+      <c r="L510" s="4">
+        <v>1</v>
+      </c>
+      <c r="M510" s="4">
+        <v>1</v>
+      </c>
+      <c r="N510" s="4">
+        <v>0</v>
+      </c>
+      <c r="O510" s="4">
+        <v>1</v>
+      </c>
+      <c r="P510" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q510" s="4">
+        <v>1</v>
+      </c>
+      <c r="R510" s="4">
+        <v>1</v>
+      </c>
+      <c r="S510" s="4">
+        <v>0</v>
+      </c>
+      <c r="T510" s="4">
+        <v>0</v>
+      </c>
+      <c r="U510" s="4">
+        <v>0</v>
+      </c>
+      <c r="V510" s="4">
+        <v>0</v>
+      </c>
+      <c r="W510" s="4">
+        <v>0</v>
+      </c>
+      <c r="X510" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y510" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z510" s="46" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="511" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C511" s="4">
+        <v>8000029</v>
+      </c>
+      <c r="D511" s="37" t="s">
+        <v>848</v>
+      </c>
+      <c r="E511" s="4">
+        <v>8</v>
+      </c>
+      <c r="F511" s="37">
+        <v>10036029</v>
+      </c>
+      <c r="G511" s="4">
+        <v>0</v>
+      </c>
+      <c r="H511" s="4">
+        <v>19</v>
+      </c>
+      <c r="I511" s="4">
+        <v>0</v>
+      </c>
+      <c r="J511" s="4">
+        <v>0</v>
+      </c>
+      <c r="K511" s="4">
+        <v>0</v>
+      </c>
+      <c r="L511" s="4">
+        <v>1</v>
+      </c>
+      <c r="M511" s="4">
+        <v>1</v>
+      </c>
+      <c r="N511" s="4">
+        <v>0</v>
+      </c>
+      <c r="O511" s="4">
+        <v>1</v>
+      </c>
+      <c r="P511" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q511" s="4">
+        <v>1</v>
+      </c>
+      <c r="R511" s="4">
+        <v>1</v>
+      </c>
+      <c r="S511" s="4">
+        <v>0</v>
+      </c>
+      <c r="T511" s="4">
+        <v>0</v>
+      </c>
+      <c r="U511" s="4">
+        <v>0</v>
+      </c>
+      <c r="V511" s="4">
+        <v>0</v>
+      </c>
+      <c r="W511" s="4">
+        <v>0</v>
+      </c>
+      <c r="X511" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y511" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z511" s="46" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="512" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C512" s="4">
+        <v>8000030</v>
+      </c>
+      <c r="D512" s="37" t="s">
+        <v>849</v>
+      </c>
+      <c r="E512" s="4">
+        <v>8</v>
+      </c>
+      <c r="F512" s="37">
+        <v>10036030</v>
+      </c>
+      <c r="G512" s="4">
+        <v>0</v>
+      </c>
+      <c r="H512" s="4">
+        <v>21</v>
+      </c>
+      <c r="I512" s="4">
+        <v>0</v>
+      </c>
+      <c r="J512" s="4">
+        <v>0</v>
+      </c>
+      <c r="K512" s="4">
+        <v>0</v>
+      </c>
+      <c r="L512" s="4">
+        <v>1</v>
+      </c>
+      <c r="M512" s="4">
+        <v>1</v>
+      </c>
+      <c r="N512" s="4">
+        <v>0</v>
+      </c>
+      <c r="O512" s="4">
+        <v>1</v>
+      </c>
+      <c r="P512" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q512" s="4">
+        <v>1</v>
+      </c>
+      <c r="R512" s="4">
+        <v>1</v>
+      </c>
+      <c r="S512" s="4">
+        <v>0</v>
+      </c>
+      <c r="T512" s="4">
+        <v>0</v>
+      </c>
+      <c r="U512" s="4">
+        <v>0</v>
+      </c>
+      <c r="V512" s="4">
+        <v>0</v>
+      </c>
+      <c r="W512" s="4">
+        <v>0</v>
+      </c>
+      <c r="X512" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y512" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z512" s="46" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="513" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C513" s="4">
+        <v>8000031</v>
+      </c>
+      <c r="D513" s="37" t="s">
+        <v>850</v>
+      </c>
+      <c r="E513" s="4">
+        <v>8</v>
+      </c>
+      <c r="F513" s="37">
+        <v>10036031</v>
+      </c>
+      <c r="G513" s="4">
+        <v>0</v>
+      </c>
+      <c r="H513" s="4">
+        <v>3</v>
+      </c>
+      <c r="I513" s="4">
+        <v>0</v>
+      </c>
+      <c r="J513" s="4">
+        <v>0</v>
+      </c>
+      <c r="K513" s="4">
+        <v>0</v>
+      </c>
+      <c r="L513" s="4">
+        <v>1</v>
+      </c>
+      <c r="M513" s="4">
+        <v>1</v>
+      </c>
+      <c r="N513" s="4">
+        <v>0</v>
+      </c>
+      <c r="O513" s="4">
+        <v>1</v>
+      </c>
+      <c r="P513" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q513" s="4">
+        <v>1</v>
+      </c>
+      <c r="R513" s="4">
+        <v>1</v>
+      </c>
+      <c r="S513" s="4">
+        <v>0</v>
+      </c>
+      <c r="T513" s="4">
+        <v>0</v>
+      </c>
+      <c r="U513" s="4">
+        <v>0</v>
+      </c>
+      <c r="V513" s="4">
+        <v>0</v>
+      </c>
+      <c r="W513" s="4">
+        <v>0</v>
+      </c>
+      <c r="X513" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y513" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z513" s="46" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="514" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C514" s="4">
+        <v>8000032</v>
+      </c>
+      <c r="D514" s="37" t="s">
+        <v>851</v>
+      </c>
+      <c r="E514" s="4">
+        <v>8</v>
+      </c>
+      <c r="F514" s="37">
+        <v>10036032</v>
+      </c>
+      <c r="G514" s="4">
+        <v>0</v>
+      </c>
+      <c r="H514" s="4">
+        <v>9</v>
+      </c>
+      <c r="I514" s="4">
+        <v>0</v>
+      </c>
+      <c r="J514" s="4">
+        <v>0</v>
+      </c>
+      <c r="K514" s="4">
+        <v>0</v>
+      </c>
+      <c r="L514" s="4">
+        <v>1</v>
+      </c>
+      <c r="M514" s="4">
+        <v>1</v>
+      </c>
+      <c r="N514" s="4">
+        <v>0</v>
+      </c>
+      <c r="O514" s="4">
+        <v>1</v>
+      </c>
+      <c r="P514" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q514" s="4">
+        <v>1</v>
+      </c>
+      <c r="R514" s="4">
+        <v>1</v>
+      </c>
+      <c r="S514" s="4">
+        <v>0</v>
+      </c>
+      <c r="T514" s="4">
+        <v>0</v>
+      </c>
+      <c r="U514" s="4">
+        <v>0</v>
+      </c>
+      <c r="V514" s="4">
+        <v>0</v>
+      </c>
+      <c r="W514" s="4">
+        <v>0</v>
+      </c>
+      <c r="X514" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y514" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z514" s="46" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="515" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C515" s="4">
+        <v>8000033</v>
+      </c>
+      <c r="D515" s="37" t="s">
+        <v>852</v>
+      </c>
+      <c r="E515" s="4">
+        <v>8</v>
+      </c>
+      <c r="F515" s="37">
+        <v>10036033</v>
+      </c>
+      <c r="G515" s="4">
+        <v>0</v>
+      </c>
+      <c r="H515" s="4">
+        <v>15</v>
+      </c>
+      <c r="I515" s="4">
+        <v>0</v>
+      </c>
+      <c r="J515" s="4">
+        <v>0</v>
+      </c>
+      <c r="K515" s="4">
+        <v>0</v>
+      </c>
+      <c r="L515" s="4">
+        <v>1</v>
+      </c>
+      <c r="M515" s="4">
+        <v>1</v>
+      </c>
+      <c r="N515" s="4">
+        <v>0</v>
+      </c>
+      <c r="O515" s="4">
+        <v>1</v>
+      </c>
+      <c r="P515" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q515" s="4">
+        <v>1</v>
+      </c>
+      <c r="R515" s="4">
+        <v>1</v>
+      </c>
+      <c r="S515" s="4">
+        <v>0</v>
+      </c>
+      <c r="T515" s="4">
+        <v>0</v>
+      </c>
+      <c r="U515" s="4">
+        <v>0</v>
+      </c>
+      <c r="V515" s="4">
+        <v>0</v>
+      </c>
+      <c r="W515" s="4">
+        <v>0</v>
+      </c>
+      <c r="X515" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y515" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z515" s="46" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="516" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C516" s="4">
+        <v>8000034</v>
+      </c>
+      <c r="D516" s="37" t="s">
+        <v>853</v>
+      </c>
+      <c r="E516" s="4">
+        <v>8</v>
+      </c>
+      <c r="F516" s="37">
+        <v>10036034</v>
+      </c>
+      <c r="G516" s="4">
+        <v>0</v>
+      </c>
+      <c r="H516" s="4">
+        <v>21</v>
+      </c>
+      <c r="I516" s="4">
+        <v>0</v>
+      </c>
+      <c r="J516" s="4">
+        <v>0</v>
+      </c>
+      <c r="K516" s="4">
+        <v>0</v>
+      </c>
+      <c r="L516" s="4">
+        <v>1</v>
+      </c>
+      <c r="M516" s="4">
+        <v>1</v>
+      </c>
+      <c r="N516" s="4">
+        <v>0</v>
+      </c>
+      <c r="O516" s="4">
+        <v>1</v>
+      </c>
+      <c r="P516" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q516" s="4">
+        <v>1</v>
+      </c>
+      <c r="R516" s="4">
+        <v>1</v>
+      </c>
+      <c r="S516" s="4">
+        <v>0</v>
+      </c>
+      <c r="T516" s="4">
+        <v>0</v>
+      </c>
+      <c r="U516" s="4">
+        <v>0</v>
+      </c>
+      <c r="V516" s="4">
+        <v>0</v>
+      </c>
+      <c r="W516" s="4">
+        <v>0</v>
+      </c>
+      <c r="X516" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y516" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z516" s="46" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="517" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C517" s="4">
+        <v>8000035</v>
+      </c>
+      <c r="D517" s="37" t="s">
+        <v>854</v>
+      </c>
+      <c r="E517" s="4">
+        <v>8</v>
+      </c>
+      <c r="F517" s="37">
+        <v>10036035</v>
+      </c>
+      <c r="G517" s="4">
+        <v>0</v>
+      </c>
+      <c r="H517" s="4">
+        <v>17</v>
+      </c>
+      <c r="I517" s="4">
+        <v>0</v>
+      </c>
+      <c r="J517" s="4">
+        <v>0</v>
+      </c>
+      <c r="K517" s="4">
+        <v>0</v>
+      </c>
+      <c r="L517" s="4">
+        <v>1</v>
+      </c>
+      <c r="M517" s="4">
+        <v>1</v>
+      </c>
+      <c r="N517" s="4">
+        <v>0</v>
+      </c>
+      <c r="O517" s="4">
+        <v>1</v>
+      </c>
+      <c r="P517" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q517" s="4">
+        <v>1</v>
+      </c>
+      <c r="R517" s="4">
+        <v>1</v>
+      </c>
+      <c r="S517" s="4">
+        <v>0</v>
+      </c>
+      <c r="T517" s="4">
+        <v>0</v>
+      </c>
+      <c r="U517" s="4">
+        <v>0</v>
+      </c>
+      <c r="V517" s="4">
+        <v>0</v>
+      </c>
+      <c r="W517" s="4">
+        <v>0</v>
+      </c>
+      <c r="X517" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y517" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z517" s="46" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="518" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" spans="3:26" x14ac:dyDescent="0.3">
       <c r="E525" s="6"/>
       <c r="H525" s="6"/>
       <c r="I525" s="6"/>
       <c r="J525" s="6"/>
     </row>
-    <row r="526" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="526" spans="3:26" x14ac:dyDescent="0.3">
       <c r="E526" s="6"/>
       <c r="H526" s="6"/>
       <c r="I526" s="6"/>
       <c r="J526" s="6"/>
     </row>
-    <row r="527" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="527" spans="3:26" x14ac:dyDescent="0.3">
       <c r="E527" s="6"/>
       <c r="H527" s="6"/>
       <c r="I527" s="6"/>
       <c r="J527" s="6"/>
     </row>
-    <row r="528" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="528" spans="3:26" x14ac:dyDescent="0.3">
       <c r="E528" s="6"/>
       <c r="H528" s="6"/>
       <c r="I528" s="6"/>
@@ -43303,14 +45868,8 @@
       <c r="I1130" s="6"/>
       <c r="J1130" s="6"/>
     </row>
-    <row r="1131" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E1131" s="6"/>
-      <c r="H1131" s="6"/>
-      <c r="I1131" s="6"/>
-      <c r="J1131" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="G1:G1131" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="G1:G1130" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053E0425-9B8F-418F-9F74-5E7A1BE4D9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5622B3A8-3D1A-4CB8-AEC1-257362DBBE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipMakeProto" sheetId="1" r:id="rId1"/>
@@ -2298,9 +2298,6 @@
     <t>10045306;2</t>
   </si>
   <si>
-    <t>8级物防石</t>
-  </si>
-  <si>
     <t>10045307;2</t>
   </si>
   <si>
@@ -3357,6 +3354,10 @@
   </si>
   <si>
     <t>10045411;2</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>8级物防石</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -4085,8 +4086,8 @@
   <dimension ref="C1:Z1138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D330" sqref="D330"/>
+      <pane ySplit="5" topLeftCell="A484" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D493" sqref="D493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -13630,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="Z132" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="133" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13704,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="Z133" s="36" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="134" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13778,7 +13779,7 @@
         <v>0</v>
       </c>
       <c r="Z134" s="36" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="135" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13852,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="Z135" s="36" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="136" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13926,7 +13927,7 @@
         <v>0</v>
       </c>
       <c r="Z136" s="36" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="137" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14000,7 +14001,7 @@
         <v>0</v>
       </c>
       <c r="Z137" s="36" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="138" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14074,7 +14075,7 @@
         <v>0</v>
       </c>
       <c r="Z138" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="139" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14148,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="Z139" s="36" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="140" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16172,7 +16173,7 @@
         <v>0</v>
       </c>
       <c r="Z166" s="36" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="167" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16246,7 +16247,7 @@
         <v>0</v>
       </c>
       <c r="Z167" s="36" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="168" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16320,7 +16321,7 @@
         <v>0</v>
       </c>
       <c r="Z168" s="36" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="169" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16394,7 +16395,7 @@
         <v>0</v>
       </c>
       <c r="Z169" s="36" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="170" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16468,7 +16469,7 @@
         <v>0</v>
       </c>
       <c r="Z170" s="36" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="171" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16542,7 +16543,7 @@
         <v>0</v>
       </c>
       <c r="Z171" s="36" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="172" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16616,7 +16617,7 @@
         <v>0</v>
       </c>
       <c r="Z172" s="36" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="173" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16690,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="Z173" s="36" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="174" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18714,7 +18715,7 @@
         <v>0</v>
       </c>
       <c r="Z200" s="36" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="201" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18788,7 +18789,7 @@
         <v>0</v>
       </c>
       <c r="Z201" s="36" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="202" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18862,7 +18863,7 @@
         <v>0</v>
       </c>
       <c r="Z202" s="36" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="203" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18936,7 +18937,7 @@
         <v>0</v>
       </c>
       <c r="Z203" s="36" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="204" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19010,7 +19011,7 @@
         <v>0</v>
       </c>
       <c r="Z204" s="36" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="205" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19084,7 +19085,7 @@
         <v>0</v>
       </c>
       <c r="Z205" s="36" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="206" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19158,7 +19159,7 @@
         <v>0</v>
       </c>
       <c r="Z206" s="36" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="207" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19232,7 +19233,7 @@
         <v>0</v>
       </c>
       <c r="Z207" s="36" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="208" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21283,7 +21284,7 @@
         <v>0</v>
       </c>
       <c r="Z234" s="35" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="235" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21358,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="Z235" s="35" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="236" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21433,7 +21434,7 @@
         <v>0</v>
       </c>
       <c r="Z236" s="36" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="237" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21508,7 +21509,7 @@
         <v>0</v>
       </c>
       <c r="Z237" s="36" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="238" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21583,7 +21584,7 @@
         <v>0</v>
       </c>
       <c r="Z238" s="36" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="239" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21658,7 +21659,7 @@
         <v>0</v>
       </c>
       <c r="Z239" s="36" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="240" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21733,7 +21734,7 @@
         <v>0</v>
       </c>
       <c r="Z240" s="36" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="241" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21808,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="Z241" s="36" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="242" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -26959,7 +26960,7 @@
         <v>4000110</v>
       </c>
       <c r="D311" s="48" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E311" s="49">
         <v>4</v>
@@ -27025,7 +27026,7 @@
         <v>100000</v>
       </c>
       <c r="Z311" s="47" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="312" spans="3:26" s="47" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -27033,7 +27034,7 @@
         <v>4000111</v>
       </c>
       <c r="D312" s="48" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E312" s="49">
         <v>4</v>
@@ -27099,7 +27100,7 @@
         <v>200000</v>
       </c>
       <c r="Z312" s="47" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="313" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -27773,7 +27774,7 @@
         <v>4000210</v>
       </c>
       <c r="D322" s="48" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E322" s="49">
         <v>4</v>
@@ -27839,7 +27840,7 @@
         <v>100000</v>
       </c>
       <c r="Z322" s="53" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="323" spans="3:26" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -27847,7 +27848,7 @@
         <v>4000211</v>
       </c>
       <c r="D323" s="48" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E323" s="49">
         <v>4</v>
@@ -27913,7 +27914,7 @@
         <v>200000</v>
       </c>
       <c r="Z323" s="53" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="324" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -28365,7 +28366,7 @@
         <v>4000307</v>
       </c>
       <c r="D330" s="38" t="s">
-        <v>569</v>
+        <v>905</v>
       </c>
       <c r="E330" s="23">
         <v>4</v>
@@ -28431,7 +28432,7 @@
         <v>30000</v>
       </c>
       <c r="Z330" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="331" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -28439,7 +28440,7 @@
         <v>4000308</v>
       </c>
       <c r="D331" s="38" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E331" s="23">
         <v>4</v>
@@ -28505,7 +28506,7 @@
         <v>40000</v>
       </c>
       <c r="Z331" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="332" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -28513,7 +28514,7 @@
         <v>4000309</v>
       </c>
       <c r="D332" s="38" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E332" s="23">
         <v>4</v>
@@ -28579,7 +28580,7 @@
         <v>50000</v>
       </c>
       <c r="Z332" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="333" spans="3:26" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -28587,7 +28588,7 @@
         <v>4000310</v>
       </c>
       <c r="D333" s="38" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E333" s="49">
         <v>4</v>
@@ -28653,7 +28654,7 @@
         <v>100000</v>
       </c>
       <c r="Z333" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="334" spans="3:26" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -28661,7 +28662,7 @@
         <v>4000311</v>
       </c>
       <c r="D334" s="38" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E334" s="49">
         <v>4</v>
@@ -28727,7 +28728,7 @@
         <v>200000</v>
       </c>
       <c r="Z334" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="335" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -28735,7 +28736,7 @@
         <v>4000401</v>
       </c>
       <c r="D335" s="38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E335" s="23">
         <v>4</v>
@@ -28801,7 +28802,7 @@
         <v>2500</v>
       </c>
       <c r="Z335" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="336" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -28809,7 +28810,7 @@
         <v>4000402</v>
       </c>
       <c r="D336" s="38" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E336" s="23">
         <v>4</v>
@@ -28875,7 +28876,7 @@
         <v>3500</v>
       </c>
       <c r="Z336" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="337" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -28883,7 +28884,7 @@
         <v>4000403</v>
       </c>
       <c r="D337" s="38" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E337" s="23">
         <v>4</v>
@@ -28949,7 +28950,7 @@
         <v>5000</v>
       </c>
       <c r="Z337" s="6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="338" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -28957,7 +28958,7 @@
         <v>4000404</v>
       </c>
       <c r="D338" s="38" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E338" s="23">
         <v>4</v>
@@ -29023,7 +29024,7 @@
         <v>7500</v>
       </c>
       <c r="Z338" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="339" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -29031,7 +29032,7 @@
         <v>4000405</v>
       </c>
       <c r="D339" s="38" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E339" s="23">
         <v>4</v>
@@ -29097,7 +29098,7 @@
         <v>10000</v>
       </c>
       <c r="Z339" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="340" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -29105,7 +29106,7 @@
         <v>4000406</v>
       </c>
       <c r="D340" s="38" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E340" s="23">
         <v>4</v>
@@ -29171,7 +29172,7 @@
         <v>20000</v>
       </c>
       <c r="Z340" s="6" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="341" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -29179,7 +29180,7 @@
         <v>4000407</v>
       </c>
       <c r="D341" s="38" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E341" s="23">
         <v>4</v>
@@ -29245,7 +29246,7 @@
         <v>30000</v>
       </c>
       <c r="Z341" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="342" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -29253,7 +29254,7 @@
         <v>4000408</v>
       </c>
       <c r="D342" s="38" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E342" s="23">
         <v>4</v>
@@ -29319,7 +29320,7 @@
         <v>40000</v>
       </c>
       <c r="Z342" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="343" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -29327,7 +29328,7 @@
         <v>4000409</v>
       </c>
       <c r="D343" s="38" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E343" s="23">
         <v>4</v>
@@ -29393,7 +29394,7 @@
         <v>50000</v>
       </c>
       <c r="Z343" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="344" spans="3:26" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -29401,7 +29402,7 @@
         <v>4000410</v>
       </c>
       <c r="D344" s="38" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E344" s="49">
         <v>4</v>
@@ -29467,7 +29468,7 @@
         <v>100000</v>
       </c>
       <c r="Z344" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="345" spans="3:26" s="53" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -29475,7 +29476,7 @@
         <v>4000411</v>
       </c>
       <c r="D345" s="38" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E345" s="49">
         <v>4</v>
@@ -29541,7 +29542,7 @@
         <v>200000</v>
       </c>
       <c r="Z345" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="346" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29549,7 +29550,7 @@
         <v>5000001</v>
       </c>
       <c r="D346" s="39" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E346" s="4">
         <v>5</v>
@@ -29615,7 +29616,7 @@
         <v>1000000</v>
       </c>
       <c r="Z346" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="347" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29623,7 +29624,7 @@
         <v>5000002</v>
       </c>
       <c r="D347" s="39" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E347" s="4">
         <v>5</v>
@@ -29689,7 +29690,7 @@
         <v>1000000</v>
       </c>
       <c r="Z347" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="348" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29697,7 +29698,7 @@
         <v>5000003</v>
       </c>
       <c r="D348" s="39" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E348" s="4">
         <v>5</v>
@@ -29763,7 +29764,7 @@
         <v>1000000</v>
       </c>
       <c r="Z348" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="349" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29771,7 +29772,7 @@
         <v>5000011</v>
       </c>
       <c r="D349" s="39" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E349" s="4">
         <v>5</v>
@@ -29837,7 +29838,7 @@
         <v>1000000</v>
       </c>
       <c r="Z349" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="350" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29845,7 +29846,7 @@
         <v>5000012</v>
       </c>
       <c r="D350" s="39" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E350" s="4">
         <v>5</v>
@@ -29911,7 +29912,7 @@
         <v>1000000</v>
       </c>
       <c r="Z350" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="351" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29919,7 +29920,7 @@
         <v>5000013</v>
       </c>
       <c r="D351" s="39" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E351" s="4">
         <v>5</v>
@@ -29985,7 +29986,7 @@
         <v>1000000</v>
       </c>
       <c r="Z351" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="352" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29993,7 +29994,7 @@
         <v>5000021</v>
       </c>
       <c r="D352" s="39" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E352" s="4">
         <v>5</v>
@@ -30059,7 +30060,7 @@
         <v>1000000</v>
       </c>
       <c r="Z352" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="353" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30067,7 +30068,7 @@
         <v>5000022</v>
       </c>
       <c r="D353" s="39" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E353" s="4">
         <v>5</v>
@@ -30133,7 +30134,7 @@
         <v>1000000</v>
       </c>
       <c r="Z353" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="354" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30141,7 +30142,7 @@
         <v>5000023</v>
       </c>
       <c r="D354" s="39" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E354" s="4">
         <v>5</v>
@@ -30207,7 +30208,7 @@
         <v>1000000</v>
       </c>
       <c r="Z354" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="355" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30215,7 +30216,7 @@
         <v>5000031</v>
       </c>
       <c r="D355" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E355" s="4">
         <v>5</v>
@@ -30281,7 +30282,7 @@
         <v>1000000</v>
       </c>
       <c r="Z355" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="356" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30289,7 +30290,7 @@
         <v>5000032</v>
       </c>
       <c r="D356" s="39" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E356" s="4">
         <v>5</v>
@@ -30355,7 +30356,7 @@
         <v>1000000</v>
       </c>
       <c r="Z356" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="357" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30363,7 +30364,7 @@
         <v>5000033</v>
       </c>
       <c r="D357" s="39" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E357" s="4">
         <v>5</v>
@@ -30429,7 +30430,7 @@
         <v>1000000</v>
       </c>
       <c r="Z357" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="358" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30437,7 +30438,7 @@
         <v>5000041</v>
       </c>
       <c r="D358" s="39" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E358" s="4">
         <v>5</v>
@@ -30503,7 +30504,7 @@
         <v>1000000</v>
       </c>
       <c r="Z358" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="359" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30511,7 +30512,7 @@
         <v>5000042</v>
       </c>
       <c r="D359" s="39" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E359" s="4">
         <v>5</v>
@@ -30577,7 +30578,7 @@
         <v>1000000</v>
       </c>
       <c r="Z359" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="360" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30585,7 +30586,7 @@
         <v>5000043</v>
       </c>
       <c r="D360" s="39" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E360" s="4">
         <v>5</v>
@@ -30651,7 +30652,7 @@
         <v>1000000</v>
       </c>
       <c r="Z360" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="361" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30659,7 +30660,7 @@
         <v>5000051</v>
       </c>
       <c r="D361" s="39" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E361" s="4">
         <v>5</v>
@@ -30725,7 +30726,7 @@
         <v>1000000</v>
       </c>
       <c r="Z361" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="362" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30733,7 +30734,7 @@
         <v>5000052</v>
       </c>
       <c r="D362" s="39" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E362" s="4">
         <v>5</v>
@@ -30799,7 +30800,7 @@
         <v>1000000</v>
       </c>
       <c r="Z362" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="363" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30807,7 +30808,7 @@
         <v>5000061</v>
       </c>
       <c r="D363" s="39" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E363" s="4">
         <v>5</v>
@@ -30873,7 +30874,7 @@
         <v>1000000</v>
       </c>
       <c r="Z363" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="364" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30881,7 +30882,7 @@
         <v>5000062</v>
       </c>
       <c r="D364" s="39" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E364" s="4">
         <v>5</v>
@@ -30947,7 +30948,7 @@
         <v>1000000</v>
       </c>
       <c r="Z364" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="365" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30955,7 +30956,7 @@
         <v>5000071</v>
       </c>
       <c r="D365" s="39" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E365" s="4">
         <v>5</v>
@@ -31021,7 +31022,7 @@
         <v>1000000</v>
       </c>
       <c r="Z365" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="366" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31029,7 +31030,7 @@
         <v>5000072</v>
       </c>
       <c r="D366" s="39" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E366" s="4">
         <v>5</v>
@@ -31095,7 +31096,7 @@
         <v>1000000</v>
       </c>
       <c r="Z366" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="367" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31103,7 +31104,7 @@
         <v>5000081</v>
       </c>
       <c r="D367" s="25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E367" s="4">
         <v>5</v>
@@ -31169,7 +31170,7 @@
         <v>1000000</v>
       </c>
       <c r="Z367" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="368" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31177,7 +31178,7 @@
         <v>5000082</v>
       </c>
       <c r="D368" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E368" s="4">
         <v>5</v>
@@ -31243,7 +31244,7 @@
         <v>1000000</v>
       </c>
       <c r="Z368" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="369" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31251,7 +31252,7 @@
         <v>5000091</v>
       </c>
       <c r="D369" s="39" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E369" s="4">
         <v>5</v>
@@ -31317,7 +31318,7 @@
         <v>1000000</v>
       </c>
       <c r="Z369" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="370" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31325,7 +31326,7 @@
         <v>5000092</v>
       </c>
       <c r="D370" s="39" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E370" s="4">
         <v>5</v>
@@ -31391,7 +31392,7 @@
         <v>1000000</v>
       </c>
       <c r="Z370" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="371" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31399,7 +31400,7 @@
         <v>5000093</v>
       </c>
       <c r="D371" s="39" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E371" s="4">
         <v>5</v>
@@ -31465,7 +31466,7 @@
         <v>1000000</v>
       </c>
       <c r="Z371" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="372" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31473,7 +31474,7 @@
         <v>5001001</v>
       </c>
       <c r="D372" s="40" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E372" s="4">
         <v>5</v>
@@ -31539,7 +31540,7 @@
         <v>50000</v>
       </c>
       <c r="Z372" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="373" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31547,7 +31548,7 @@
         <v>5001002</v>
       </c>
       <c r="D373" s="40" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E373" s="4">
         <v>5</v>
@@ -31613,7 +31614,7 @@
         <v>100000</v>
       </c>
       <c r="Z373" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="374" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31621,7 +31622,7 @@
         <v>5001003</v>
       </c>
       <c r="D374" s="40" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E374" s="4">
         <v>5</v>
@@ -31687,7 +31688,7 @@
         <v>300000</v>
       </c>
       <c r="Z374" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="375" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31695,7 +31696,7 @@
         <v>5002001</v>
       </c>
       <c r="D375" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E375" s="5">
         <v>0</v>
@@ -31761,7 +31762,7 @@
         <v>1000000</v>
       </c>
       <c r="Z375" s="41" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="376" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31769,7 +31770,7 @@
         <v>5002002</v>
       </c>
       <c r="D376" s="25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E376" s="5">
         <v>0</v>
@@ -31835,7 +31836,7 @@
         <v>1000000</v>
       </c>
       <c r="Z376" s="41" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="377" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31843,7 +31844,7 @@
         <v>5002003</v>
       </c>
       <c r="D377" s="25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E377" s="5">
         <v>0</v>
@@ -31909,7 +31910,7 @@
         <v>1000000</v>
       </c>
       <c r="Z377" s="41" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="378" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31917,7 +31918,7 @@
         <v>5002011</v>
       </c>
       <c r="D378" s="25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E378" s="5">
         <v>0</v>
@@ -31983,7 +31984,7 @@
         <v>1000000</v>
       </c>
       <c r="Z378" s="41" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="379" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31991,7 +31992,7 @@
         <v>5002012</v>
       </c>
       <c r="D379" s="25" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E379" s="5">
         <v>0</v>
@@ -32057,7 +32058,7 @@
         <v>1000000</v>
       </c>
       <c r="Z379" s="41" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="380" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32065,7 +32066,7 @@
         <v>5002013</v>
       </c>
       <c r="D380" s="25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E380" s="5">
         <v>0</v>
@@ -32131,7 +32132,7 @@
         <v>1000000</v>
       </c>
       <c r="Z380" s="41" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="381" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32139,7 +32140,7 @@
         <v>5002021</v>
       </c>
       <c r="D381" s="25" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E381" s="5">
         <v>0</v>
@@ -32205,7 +32206,7 @@
         <v>1000000</v>
       </c>
       <c r="Z381" s="41" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="382" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32213,7 +32214,7 @@
         <v>5002022</v>
       </c>
       <c r="D382" s="25" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E382" s="5">
         <v>0</v>
@@ -32279,7 +32280,7 @@
         <v>1000000</v>
       </c>
       <c r="Z382" s="41" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="383" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32287,7 +32288,7 @@
         <v>5002023</v>
       </c>
       <c r="D383" s="25" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E383" s="5">
         <v>0</v>
@@ -32353,7 +32354,7 @@
         <v>1000000</v>
       </c>
       <c r="Z383" s="41" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="384" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32361,7 +32362,7 @@
         <v>5002031</v>
       </c>
       <c r="D384" s="25" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E384" s="5">
         <v>0</v>
@@ -32427,7 +32428,7 @@
         <v>1000000</v>
       </c>
       <c r="Z384" s="41" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="385" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32435,7 +32436,7 @@
         <v>5002032</v>
       </c>
       <c r="D385" s="25" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E385" s="5">
         <v>0</v>
@@ -32501,7 +32502,7 @@
         <v>1000000</v>
       </c>
       <c r="Z385" s="41" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="386" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32509,7 +32510,7 @@
         <v>5002033</v>
       </c>
       <c r="D386" s="25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E386" s="5">
         <v>0</v>
@@ -32575,7 +32576,7 @@
         <v>1000000</v>
       </c>
       <c r="Z386" s="41" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="387" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32583,7 +32584,7 @@
         <v>5002041</v>
       </c>
       <c r="D387" s="25" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E387" s="5">
         <v>0</v>
@@ -32649,7 +32650,7 @@
         <v>1000000</v>
       </c>
       <c r="Z387" s="41" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="388" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32657,7 +32658,7 @@
         <v>5002042</v>
       </c>
       <c r="D388" s="25" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E388" s="5">
         <v>0</v>
@@ -32723,7 +32724,7 @@
         <v>1000000</v>
       </c>
       <c r="Z388" s="41" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="389" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32731,7 +32732,7 @@
         <v>5002043</v>
       </c>
       <c r="D389" s="25" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E389" s="5">
         <v>0</v>
@@ -32797,7 +32798,7 @@
         <v>1000000</v>
       </c>
       <c r="Z389" s="41" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="390" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32805,7 +32806,7 @@
         <v>5002051</v>
       </c>
       <c r="D390" s="25" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E390" s="5">
         <v>0</v>
@@ -32871,7 +32872,7 @@
         <v>1000000</v>
       </c>
       <c r="Z390" s="41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="391" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32879,7 +32880,7 @@
         <v>5002052</v>
       </c>
       <c r="D391" s="25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E391" s="5">
         <v>0</v>
@@ -32945,7 +32946,7 @@
         <v>1000000</v>
       </c>
       <c r="Z391" s="41" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="392" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32953,7 +32954,7 @@
         <v>5002061</v>
       </c>
       <c r="D392" s="25" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E392" s="5">
         <v>0</v>
@@ -33019,7 +33020,7 @@
         <v>1000000</v>
       </c>
       <c r="Z392" s="41" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="393" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33027,7 +33028,7 @@
         <v>5002062</v>
       </c>
       <c r="D393" s="25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E393" s="5">
         <v>0</v>
@@ -33093,7 +33094,7 @@
         <v>1000000</v>
       </c>
       <c r="Z393" s="41" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="394" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33101,7 +33102,7 @@
         <v>5002071</v>
       </c>
       <c r="D394" s="25" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E394" s="5">
         <v>0</v>
@@ -33167,7 +33168,7 @@
         <v>1000000</v>
       </c>
       <c r="Z394" s="41" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="395" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33175,7 +33176,7 @@
         <v>5002072</v>
       </c>
       <c r="D395" s="25" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E395" s="5">
         <v>0</v>
@@ -33241,7 +33242,7 @@
         <v>1000000</v>
       </c>
       <c r="Z395" s="41" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="396" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33249,7 +33250,7 @@
         <v>5002081</v>
       </c>
       <c r="D396" s="25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E396" s="5">
         <v>0</v>
@@ -33315,7 +33316,7 @@
         <v>1000000</v>
       </c>
       <c r="Z396" s="41" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="397" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33323,7 +33324,7 @@
         <v>5002082</v>
       </c>
       <c r="D397" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E397" s="5">
         <v>0</v>
@@ -33389,7 +33390,7 @@
         <v>1000000</v>
       </c>
       <c r="Z397" s="41" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="398" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33397,7 +33398,7 @@
         <v>5002091</v>
       </c>
       <c r="D398" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E398" s="5">
         <v>0</v>
@@ -33463,7 +33464,7 @@
         <v>1000000</v>
       </c>
       <c r="Z398" s="41" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="399" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33471,7 +33472,7 @@
         <v>5002092</v>
       </c>
       <c r="D399" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E399" s="5">
         <v>0</v>
@@ -33537,7 +33538,7 @@
         <v>1000000</v>
       </c>
       <c r="Z399" s="41" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="400" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33545,7 +33546,7 @@
         <v>5002093</v>
       </c>
       <c r="D400" s="25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E400" s="5">
         <v>0</v>
@@ -33611,7 +33612,7 @@
         <v>1000000</v>
       </c>
       <c r="Z400" s="41" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="401" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33619,7 +33620,7 @@
         <v>6101001</v>
       </c>
       <c r="D401" s="43" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E401" s="4">
         <v>6</v>
@@ -33686,7 +33687,7 @@
         <v>0</v>
       </c>
       <c r="Z401" s="44" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="402" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33694,7 +33695,7 @@
         <v>6101002</v>
       </c>
       <c r="D402" s="43" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E402" s="4">
         <v>6</v>
@@ -33761,7 +33762,7 @@
         <v>0</v>
       </c>
       <c r="Z402" s="44" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="403" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33769,7 +33770,7 @@
         <v>6101003</v>
       </c>
       <c r="D403" s="43" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E403" s="4">
         <v>6</v>
@@ -33835,7 +33836,7 @@
         <v>0</v>
       </c>
       <c r="Z403" s="44" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="404" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33844,7 +33845,7 @@
         <v>6102001</v>
       </c>
       <c r="D404" s="43" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E404" s="4">
         <v>6</v>
@@ -33911,7 +33912,7 @@
         <v>0</v>
       </c>
       <c r="Z404" s="44" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="405" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33920,7 +33921,7 @@
         <v>6102002</v>
       </c>
       <c r="D405" s="43" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E405" s="4">
         <v>6</v>
@@ -33987,7 +33988,7 @@
         <v>0</v>
       </c>
       <c r="Z405" s="44" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="406" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33996,7 +33997,7 @@
         <v>6102003</v>
       </c>
       <c r="D406" s="43" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E406" s="4">
         <v>6</v>
@@ -34062,7 +34063,7 @@
         <v>0</v>
       </c>
       <c r="Z406" s="44" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="407" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34071,7 +34072,7 @@
         <v>6103001</v>
       </c>
       <c r="D407" s="43" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E407" s="4">
         <v>6</v>
@@ -34138,7 +34139,7 @@
         <v>0</v>
       </c>
       <c r="Z407" s="44" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="408" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34147,7 +34148,7 @@
         <v>6103002</v>
       </c>
       <c r="D408" s="43" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E408" s="4">
         <v>6</v>
@@ -34214,7 +34215,7 @@
         <v>0</v>
       </c>
       <c r="Z408" s="44" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="409" spans="3:26" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -34223,7 +34224,7 @@
         <v>6103003</v>
       </c>
       <c r="D409" s="43" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E409" s="4">
         <v>6</v>
@@ -34289,7 +34290,7 @@
         <v>0</v>
       </c>
       <c r="Z409" s="44" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="410" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34297,7 +34298,7 @@
         <v>6104001</v>
       </c>
       <c r="D410" s="43" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E410" s="4">
         <v>6</v>
@@ -34364,7 +34365,7 @@
         <v>0</v>
       </c>
       <c r="Z410" s="44" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="411" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34372,7 +34373,7 @@
         <v>6104002</v>
       </c>
       <c r="D411" s="43" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E411" s="4">
         <v>6</v>
@@ -34439,7 +34440,7 @@
         <v>0</v>
       </c>
       <c r="Z411" s="44" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="412" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34447,7 +34448,7 @@
         <v>6104003</v>
       </c>
       <c r="D412" s="43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E412" s="4">
         <v>6</v>
@@ -34514,7 +34515,7 @@
         <v>0</v>
       </c>
       <c r="Z412" s="44" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="413" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34522,7 +34523,7 @@
         <v>6104004</v>
       </c>
       <c r="D413" s="43" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E413" s="4">
         <v>6</v>
@@ -34588,7 +34589,7 @@
         <v>0</v>
       </c>
       <c r="Z413" s="44" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="414" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34596,7 +34597,7 @@
         <v>6105001</v>
       </c>
       <c r="D414" s="43" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E414" s="4">
         <v>6</v>
@@ -34663,7 +34664,7 @@
         <v>0</v>
       </c>
       <c r="Z414" s="44" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="415" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34671,7 +34672,7 @@
         <v>6105002</v>
       </c>
       <c r="D415" s="43" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E415" s="4">
         <v>6</v>
@@ -34738,7 +34739,7 @@
         <v>0</v>
       </c>
       <c r="Z415" s="44" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="416" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34746,7 +34747,7 @@
         <v>6105003</v>
       </c>
       <c r="D416" s="43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E416" s="4">
         <v>6</v>
@@ -34813,7 +34814,7 @@
         <v>0</v>
       </c>
       <c r="Z416" s="44" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="417" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34821,7 +34822,7 @@
         <v>6105004</v>
       </c>
       <c r="D417" s="43" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E417" s="4">
         <v>6</v>
@@ -34887,7 +34888,7 @@
         <v>0</v>
       </c>
       <c r="Z417" s="44" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="418" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34895,7 +34896,7 @@
         <v>6106001</v>
       </c>
       <c r="D418" s="43" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E418" s="4">
         <v>6</v>
@@ -34962,7 +34963,7 @@
         <v>0</v>
       </c>
       <c r="Z418" s="44" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="419" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34970,7 +34971,7 @@
         <v>6106002</v>
       </c>
       <c r="D419" s="43" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E419" s="4">
         <v>6</v>
@@ -35037,7 +35038,7 @@
         <v>0</v>
       </c>
       <c r="Z419" s="44" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="420" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35045,7 +35046,7 @@
         <v>6106003</v>
       </c>
       <c r="D420" s="43" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E420" s="4">
         <v>6</v>
@@ -35111,7 +35112,7 @@
         <v>0</v>
       </c>
       <c r="Z420" s="44" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="421" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35119,7 +35120,7 @@
         <v>6201001</v>
       </c>
       <c r="D421" s="43" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E421" s="4">
         <v>6</v>
@@ -35185,7 +35186,7 @@
         <v>0</v>
       </c>
       <c r="Z421" s="44" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="422" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35193,7 +35194,7 @@
         <v>6201002</v>
       </c>
       <c r="D422" s="43" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E422" s="4">
         <v>6</v>
@@ -35259,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="Z422" s="44" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="423" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35267,7 +35268,7 @@
         <v>6201003</v>
       </c>
       <c r="D423" s="43" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E423" s="4">
         <v>6</v>
@@ -35333,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="Z423" s="44" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="424" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35341,7 +35342,7 @@
         <v>6202001</v>
       </c>
       <c r="D424" s="43" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E424" s="4">
         <v>6</v>
@@ -35407,7 +35408,7 @@
         <v>0</v>
       </c>
       <c r="Z424" s="44" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="425" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35415,7 +35416,7 @@
         <v>6202002</v>
       </c>
       <c r="D425" s="43" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E425" s="4">
         <v>6</v>
@@ -35481,7 +35482,7 @@
         <v>0</v>
       </c>
       <c r="Z425" s="44" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="426" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35489,7 +35490,7 @@
         <v>6202003</v>
       </c>
       <c r="D426" s="43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E426" s="4">
         <v>6</v>
@@ -35555,7 +35556,7 @@
         <v>0</v>
       </c>
       <c r="Z426" s="44" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="427" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35563,7 +35564,7 @@
         <v>6203001</v>
       </c>
       <c r="D427" s="43" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E427" s="4">
         <v>6</v>
@@ -35629,7 +35630,7 @@
         <v>0</v>
       </c>
       <c r="Z427" s="44" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="428" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35637,7 +35638,7 @@
         <v>6203002</v>
       </c>
       <c r="D428" s="43" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E428" s="4">
         <v>6</v>
@@ -35703,7 +35704,7 @@
         <v>0</v>
       </c>
       <c r="Z428" s="44" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="429" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35711,7 +35712,7 @@
         <v>6203003</v>
       </c>
       <c r="D429" s="43" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E429" s="4">
         <v>6</v>
@@ -35777,7 +35778,7 @@
         <v>0</v>
       </c>
       <c r="Z429" s="44" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="430" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35785,7 +35786,7 @@
         <v>6204001</v>
       </c>
       <c r="D430" s="43" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E430" s="4">
         <v>6</v>
@@ -35851,7 +35852,7 @@
         <v>0</v>
       </c>
       <c r="Z430" s="44" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="431" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35859,7 +35860,7 @@
         <v>6204002</v>
       </c>
       <c r="D431" s="43" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E431" s="4">
         <v>6</v>
@@ -35925,7 +35926,7 @@
         <v>0</v>
       </c>
       <c r="Z431" s="44" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="432" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -35933,7 +35934,7 @@
         <v>6204003</v>
       </c>
       <c r="D432" s="43" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E432" s="4">
         <v>6</v>
@@ -35999,7 +36000,7 @@
         <v>0</v>
       </c>
       <c r="Z432" s="44" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="433" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36007,7 +36008,7 @@
         <v>6204004</v>
       </c>
       <c r="D433" s="43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E433" s="4">
         <v>6</v>
@@ -36073,7 +36074,7 @@
         <v>0</v>
       </c>
       <c r="Z433" s="44" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="434" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36081,7 +36082,7 @@
         <v>6205001</v>
       </c>
       <c r="D434" s="43" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E434" s="4">
         <v>6</v>
@@ -36147,7 +36148,7 @@
         <v>0</v>
       </c>
       <c r="Z434" s="44" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="435" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36155,7 +36156,7 @@
         <v>6205002</v>
       </c>
       <c r="D435" s="43" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E435" s="4">
         <v>6</v>
@@ -36221,7 +36222,7 @@
         <v>0</v>
       </c>
       <c r="Z435" s="44" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="436" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36229,7 +36230,7 @@
         <v>6205003</v>
       </c>
       <c r="D436" s="43" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E436" s="4">
         <v>6</v>
@@ -36295,7 +36296,7 @@
         <v>0</v>
       </c>
       <c r="Z436" s="44" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="437" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36303,7 +36304,7 @@
         <v>6205004</v>
       </c>
       <c r="D437" s="43" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E437" s="4">
         <v>6</v>
@@ -36369,7 +36370,7 @@
         <v>0</v>
       </c>
       <c r="Z437" s="44" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="438" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36377,7 +36378,7 @@
         <v>6206001</v>
       </c>
       <c r="D438" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E438" s="4">
         <v>6</v>
@@ -36443,7 +36444,7 @@
         <v>0</v>
       </c>
       <c r="Z438" s="44" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="439" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36451,7 +36452,7 @@
         <v>6206002</v>
       </c>
       <c r="D439" s="43" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E439" s="4">
         <v>6</v>
@@ -36517,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="Z439" s="44" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="440" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36525,7 +36526,7 @@
         <v>6206003</v>
       </c>
       <c r="D440" s="43" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E440" s="4">
         <v>6</v>
@@ -36591,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="Z440" s="44" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="441" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36599,7 +36600,7 @@
         <v>6301001</v>
       </c>
       <c r="D441" s="43" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E441" s="4">
         <v>6</v>
@@ -36666,7 +36667,7 @@
         <v>0</v>
       </c>
       <c r="Z441" s="44" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="442" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36674,7 +36675,7 @@
         <v>6301002</v>
       </c>
       <c r="D442" s="43" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E442" s="4">
         <v>6</v>
@@ -36741,7 +36742,7 @@
         <v>0</v>
       </c>
       <c r="Z442" s="44" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="443" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36749,7 +36750,7 @@
         <v>6301003</v>
       </c>
       <c r="D443" s="43" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E443" s="4">
         <v>6</v>
@@ -36816,7 +36817,7 @@
         <v>0</v>
       </c>
       <c r="Z443" s="44" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="444" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36824,7 +36825,7 @@
         <v>6302001</v>
       </c>
       <c r="D444" s="43" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E444" s="4">
         <v>6</v>
@@ -36891,7 +36892,7 @@
         <v>0</v>
       </c>
       <c r="Z444" s="44" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="445" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36899,7 +36900,7 @@
         <v>6302002</v>
       </c>
       <c r="D445" s="43" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E445" s="4">
         <v>6</v>
@@ -36965,7 +36966,7 @@
         <v>0</v>
       </c>
       <c r="Z445" s="44" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="446" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -36973,7 +36974,7 @@
         <v>6302003</v>
       </c>
       <c r="D446" s="43" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E446" s="4">
         <v>6</v>
@@ -37040,7 +37041,7 @@
         <v>0</v>
       </c>
       <c r="Z446" s="44" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="447" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37048,7 +37049,7 @@
         <v>6303001</v>
       </c>
       <c r="D447" s="43" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E447" s="4">
         <v>6</v>
@@ -37115,7 +37116,7 @@
         <v>0</v>
       </c>
       <c r="Z447" s="44" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="448" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37123,7 +37124,7 @@
         <v>6303002</v>
       </c>
       <c r="D448" s="43" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E448" s="4">
         <v>6</v>
@@ -37189,7 +37190,7 @@
         <v>0</v>
       </c>
       <c r="Z448" s="44" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="449" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37197,7 +37198,7 @@
         <v>6303003</v>
       </c>
       <c r="D449" s="43" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E449" s="4">
         <v>6</v>
@@ -37264,7 +37265,7 @@
         <v>0</v>
       </c>
       <c r="Z449" s="44" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="450" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37272,7 +37273,7 @@
         <v>6304001</v>
       </c>
       <c r="D450" s="43" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E450" s="4">
         <v>6</v>
@@ -37339,7 +37340,7 @@
         <v>0</v>
       </c>
       <c r="Z450" s="44" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="451" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37347,7 +37348,7 @@
         <v>6304002</v>
       </c>
       <c r="D451" s="43" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E451" s="4">
         <v>6</v>
@@ -37413,7 +37414,7 @@
         <v>0</v>
       </c>
       <c r="Z451" s="44" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="452" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37421,7 +37422,7 @@
         <v>6304003</v>
       </c>
       <c r="D452" s="43" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E452" s="4">
         <v>6</v>
@@ -37487,7 +37488,7 @@
         <v>0</v>
       </c>
       <c r="Z452" s="44" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="453" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37495,7 +37496,7 @@
         <v>6304004</v>
       </c>
       <c r="D453" s="43" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E453" s="4">
         <v>6</v>
@@ -37562,7 +37563,7 @@
         <v>0</v>
       </c>
       <c r="Z453" s="44" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="454" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37570,7 +37571,7 @@
         <v>6305001</v>
       </c>
       <c r="D454" s="43" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E454" s="4">
         <v>6</v>
@@ -37637,7 +37638,7 @@
         <v>0</v>
       </c>
       <c r="Z454" s="44" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="455" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37645,7 +37646,7 @@
         <v>6305002</v>
       </c>
       <c r="D455" s="43" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E455" s="4">
         <v>6</v>
@@ -37711,7 +37712,7 @@
         <v>0</v>
       </c>
       <c r="Z455" s="44" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="456" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37719,7 +37720,7 @@
         <v>6305003</v>
       </c>
       <c r="D456" s="43" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E456" s="4">
         <v>6</v>
@@ -37785,7 +37786,7 @@
         <v>0</v>
       </c>
       <c r="Z456" s="44" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="457" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37793,7 +37794,7 @@
         <v>6305004</v>
       </c>
       <c r="D457" s="43" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E457" s="4">
         <v>6</v>
@@ -37860,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="Z457" s="44" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="458" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37868,7 +37869,7 @@
         <v>6306001</v>
       </c>
       <c r="D458" s="43" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E458" s="4">
         <v>6</v>
@@ -37935,7 +37936,7 @@
         <v>0</v>
       </c>
       <c r="Z458" s="44" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="459" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -37943,7 +37944,7 @@
         <v>6306002</v>
       </c>
       <c r="D459" s="43" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E459" s="4">
         <v>6</v>
@@ -38009,7 +38010,7 @@
         <v>0</v>
       </c>
       <c r="Z459" s="44" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="460" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -38017,7 +38018,7 @@
         <v>6306003</v>
       </c>
       <c r="D460" s="43" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E460" s="4">
         <v>6</v>
@@ -38083,7 +38084,7 @@
         <v>0</v>
       </c>
       <c r="Z460" s="44" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="461" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -38091,7 +38092,7 @@
         <v>7101001</v>
       </c>
       <c r="D461" s="43" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E461" s="4">
         <v>1</v>
@@ -38157,7 +38158,7 @@
         <v>0</v>
       </c>
       <c r="Z461" s="44" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="462" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -38165,7 +38166,7 @@
         <v>7101002</v>
       </c>
       <c r="D462" s="43" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E462" s="4">
         <v>1</v>
@@ -38231,7 +38232,7 @@
         <v>0</v>
       </c>
       <c r="Z462" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="463" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -38239,7 +38240,7 @@
         <v>7101003</v>
       </c>
       <c r="D463" s="43" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E463" s="4">
         <v>1</v>
@@ -38305,7 +38306,7 @@
         <v>0</v>
       </c>
       <c r="Z463" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="464" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -38313,7 +38314,7 @@
         <v>7101004</v>
       </c>
       <c r="D464" s="43" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E464" s="4">
         <v>1</v>
@@ -38379,7 +38380,7 @@
         <v>0</v>
       </c>
       <c r="Z464" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="465" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -38387,7 +38388,7 @@
         <v>7102001</v>
       </c>
       <c r="D465" s="43" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E465" s="4">
         <v>1</v>
@@ -38454,7 +38455,7 @@
         <v>0</v>
       </c>
       <c r="Z465" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="466" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -38462,7 +38463,7 @@
         <v>7102002</v>
       </c>
       <c r="D466" s="43" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E466" s="4">
         <v>1</v>
@@ -38529,7 +38530,7 @@
         <v>0</v>
       </c>
       <c r="Z466" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="467" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -38537,7 +38538,7 @@
         <v>7102003</v>
       </c>
       <c r="D467" s="43" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E467" s="4">
         <v>1</v>
@@ -38604,7 +38605,7 @@
         <v>0</v>
       </c>
       <c r="Z467" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="468" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -38612,7 +38613,7 @@
         <v>7102004</v>
       </c>
       <c r="D468" s="43" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E468" s="4">
         <v>1</v>
@@ -38679,7 +38680,7 @@
         <v>0</v>
       </c>
       <c r="Z468" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="469" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -38687,7 +38688,7 @@
         <v>7103001</v>
       </c>
       <c r="D469" s="43" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E469" s="4">
         <v>1</v>
@@ -38754,7 +38755,7 @@
         <v>0</v>
       </c>
       <c r="Z469" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="470" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -38762,7 +38763,7 @@
         <v>7103002</v>
       </c>
       <c r="D470" s="43" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E470" s="4">
         <v>1</v>
@@ -38829,7 +38830,7 @@
         <v>0</v>
       </c>
       <c r="Z470" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="471" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -38837,7 +38838,7 @@
         <v>7103003</v>
       </c>
       <c r="D471" s="43" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E471" s="4">
         <v>1</v>
@@ -38904,7 +38905,7 @@
         <v>0</v>
       </c>
       <c r="Z471" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="472" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -38912,7 +38913,7 @@
         <v>7103004</v>
       </c>
       <c r="D472" s="43" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E472" s="4">
         <v>1</v>
@@ -38979,7 +38980,7 @@
         <v>0</v>
       </c>
       <c r="Z472" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="473" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -38987,7 +38988,7 @@
         <v>7201001</v>
       </c>
       <c r="D473" s="37" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E473" s="4">
         <v>2</v>
@@ -39053,7 +39054,7 @@
         <v>0</v>
       </c>
       <c r="Z473" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="474" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -39061,7 +39062,7 @@
         <v>7201002</v>
       </c>
       <c r="D474" s="37" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E474" s="4">
         <v>2</v>
@@ -39127,7 +39128,7 @@
         <v>0</v>
       </c>
       <c r="Z474" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="475" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -39135,7 +39136,7 @@
         <v>7201003</v>
       </c>
       <c r="D475" s="37" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E475" s="4">
         <v>2</v>
@@ -39201,7 +39202,7 @@
         <v>0</v>
       </c>
       <c r="Z475" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="476" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -39209,7 +39210,7 @@
         <v>7201004</v>
       </c>
       <c r="D476" s="37" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E476" s="4">
         <v>2</v>
@@ -39275,7 +39276,7 @@
         <v>0</v>
       </c>
       <c r="Z476" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="477" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -39283,7 +39284,7 @@
         <v>7202001</v>
       </c>
       <c r="D477" s="37" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E477" s="4">
         <v>2</v>
@@ -39350,7 +39351,7 @@
         <v>0</v>
       </c>
       <c r="Z477" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="478" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -39358,7 +39359,7 @@
         <v>7202002</v>
       </c>
       <c r="D478" s="37" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E478" s="4">
         <v>2</v>
@@ -39425,7 +39426,7 @@
         <v>0</v>
       </c>
       <c r="Z478" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="479" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -39433,7 +39434,7 @@
         <v>7202003</v>
       </c>
       <c r="D479" s="37" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E479" s="4">
         <v>2</v>
@@ -39500,7 +39501,7 @@
         <v>0</v>
       </c>
       <c r="Z479" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="480" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -39508,7 +39509,7 @@
         <v>7202004</v>
       </c>
       <c r="D480" s="37" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E480" s="4">
         <v>2</v>
@@ -39575,7 +39576,7 @@
         <v>0</v>
       </c>
       <c r="Z480" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="481" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -39583,7 +39584,7 @@
         <v>7203001</v>
       </c>
       <c r="D481" s="37" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E481" s="4">
         <v>2</v>
@@ -39650,7 +39651,7 @@
         <v>0</v>
       </c>
       <c r="Z481" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="482" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -39658,7 +39659,7 @@
         <v>7203002</v>
       </c>
       <c r="D482" s="37" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E482" s="4">
         <v>2</v>
@@ -39725,7 +39726,7 @@
         <v>0</v>
       </c>
       <c r="Z482" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="483" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -39733,7 +39734,7 @@
         <v>7203003</v>
       </c>
       <c r="D483" s="37" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E483" s="4">
         <v>2</v>
@@ -39800,7 +39801,7 @@
         <v>0</v>
       </c>
       <c r="Z483" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="484" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -39808,7 +39809,7 @@
         <v>7203004</v>
       </c>
       <c r="D484" s="37" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E484" s="4">
         <v>2</v>
@@ -39875,7 +39876,7 @@
         <v>0</v>
       </c>
       <c r="Z484" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="485" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -39883,7 +39884,7 @@
         <v>7301001</v>
       </c>
       <c r="D485" s="37" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E485" s="4">
         <v>3</v>
@@ -39949,7 +39950,7 @@
         <v>0</v>
       </c>
       <c r="Z485" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="486" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -39957,7 +39958,7 @@
         <v>7301002</v>
       </c>
       <c r="D486" s="37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E486" s="4">
         <v>3</v>
@@ -40023,7 +40024,7 @@
         <v>0</v>
       </c>
       <c r="Z486" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="487" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -40031,7 +40032,7 @@
         <v>7302001</v>
       </c>
       <c r="D487" s="37" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E487" s="4">
         <v>3</v>
@@ -40097,7 +40098,7 @@
         <v>0</v>
       </c>
       <c r="Z487" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="488" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -40105,7 +40106,7 @@
         <v>7302002</v>
       </c>
       <c r="D488" s="37" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E488" s="4">
         <v>3</v>
@@ -40171,7 +40172,7 @@
         <v>0</v>
       </c>
       <c r="Z488" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="489" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -40179,7 +40180,7 @@
         <v>7303001</v>
       </c>
       <c r="D489" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E489" s="4">
         <v>3</v>
@@ -40245,7 +40246,7 @@
         <v>0</v>
       </c>
       <c r="Z489" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="490" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -40253,7 +40254,7 @@
         <v>7303002</v>
       </c>
       <c r="D490" s="37" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E490" s="4">
         <v>3</v>
@@ -40319,7 +40320,7 @@
         <v>0</v>
       </c>
       <c r="Z490" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="491" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40327,7 +40328,7 @@
         <v>8000001</v>
       </c>
       <c r="D491" s="37" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E491" s="4">
         <v>8</v>
@@ -40393,7 +40394,7 @@
         <v>0</v>
       </c>
       <c r="Z491" s="46" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="492" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40401,7 +40402,7 @@
         <v>8000002</v>
       </c>
       <c r="D492" s="37" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E492" s="4">
         <v>8</v>
@@ -40467,7 +40468,7 @@
         <v>0</v>
       </c>
       <c r="Z492" s="46" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="493" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40475,7 +40476,7 @@
         <v>8000003</v>
       </c>
       <c r="D493" s="37" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E493" s="4">
         <v>8</v>
@@ -40541,7 +40542,7 @@
         <v>0</v>
       </c>
       <c r="Z493" s="46" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="494" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40549,7 +40550,7 @@
         <v>8000004</v>
       </c>
       <c r="D494" s="37" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E494" s="4">
         <v>8</v>
@@ -40615,7 +40616,7 @@
         <v>0</v>
       </c>
       <c r="Z494" s="46" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="495" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40623,7 +40624,7 @@
         <v>8000005</v>
       </c>
       <c r="D495" s="37" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E495" s="4">
         <v>8</v>
@@ -40689,7 +40690,7 @@
         <v>0</v>
       </c>
       <c r="Z495" s="46" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="496" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40697,7 +40698,7 @@
         <v>8000006</v>
       </c>
       <c r="D496" s="37" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E496" s="4">
         <v>8</v>
@@ -40763,7 +40764,7 @@
         <v>0</v>
       </c>
       <c r="Z496" s="46" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="497" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40771,7 +40772,7 @@
         <v>8000007</v>
       </c>
       <c r="D497" s="37" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E497" s="4">
         <v>8</v>
@@ -40837,7 +40838,7 @@
         <v>0</v>
       </c>
       <c r="Z497" s="46" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="498" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40845,7 +40846,7 @@
         <v>8000008</v>
       </c>
       <c r="D498" s="37" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E498" s="4">
         <v>8</v>
@@ -40911,7 +40912,7 @@
         <v>0</v>
       </c>
       <c r="Z498" s="46" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="499" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40919,7 +40920,7 @@
         <v>8000009</v>
       </c>
       <c r="D499" s="37" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E499" s="4">
         <v>8</v>
@@ -40985,7 +40986,7 @@
         <v>0</v>
       </c>
       <c r="Z499" s="46" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="500" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -40993,7 +40994,7 @@
         <v>8000010</v>
       </c>
       <c r="D500" s="37" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E500" s="4">
         <v>8</v>
@@ -41059,7 +41060,7 @@
         <v>0</v>
       </c>
       <c r="Z500" s="46" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="501" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -41067,7 +41068,7 @@
         <v>8000011</v>
       </c>
       <c r="D501" s="37" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E501" s="4">
         <v>8</v>
@@ -41133,7 +41134,7 @@
         <v>0</v>
       </c>
       <c r="Z501" s="46" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="502" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -41141,7 +41142,7 @@
         <v>8000012</v>
       </c>
       <c r="D502" s="37" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E502" s="4">
         <v>8</v>
@@ -41207,7 +41208,7 @@
         <v>0</v>
       </c>
       <c r="Z502" s="46" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="503" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -41215,7 +41216,7 @@
         <v>8000013</v>
       </c>
       <c r="D503" s="37" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E503" s="4">
         <v>8</v>
@@ -41281,7 +41282,7 @@
         <v>0</v>
       </c>
       <c r="Z503" s="46" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="504" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -41289,7 +41290,7 @@
         <v>8000014</v>
       </c>
       <c r="D504" s="37" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E504" s="4">
         <v>8</v>
@@ -41355,7 +41356,7 @@
         <v>0</v>
       </c>
       <c r="Z504" s="46" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="505" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -41363,7 +41364,7 @@
         <v>8000015</v>
       </c>
       <c r="D505" s="37" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E505" s="4">
         <v>8</v>
@@ -41429,7 +41430,7 @@
         <v>0</v>
       </c>
       <c r="Z505" s="46" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="506" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -41437,7 +41438,7 @@
         <v>8000016</v>
       </c>
       <c r="D506" s="37" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E506" s="4">
         <v>8</v>
@@ -41503,7 +41504,7 @@
         <v>0</v>
       </c>
       <c r="Z506" s="46" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="507" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -41511,7 +41512,7 @@
         <v>8000017</v>
       </c>
       <c r="D507" s="37" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E507" s="4">
         <v>8</v>
@@ -41577,7 +41578,7 @@
         <v>0</v>
       </c>
       <c r="Z507" s="46" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="508" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -41585,7 +41586,7 @@
         <v>8000018</v>
       </c>
       <c r="D508" s="37" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E508" s="4">
         <v>8</v>
@@ -41651,7 +41652,7 @@
         <v>0</v>
       </c>
       <c r="Z508" s="46" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="509" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -41659,7 +41660,7 @@
         <v>8000019</v>
       </c>
       <c r="D509" s="37" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E509" s="4">
         <v>8</v>
@@ -41725,7 +41726,7 @@
         <v>0</v>
       </c>
       <c r="Z509" s="46" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="510" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -41733,7 +41734,7 @@
         <v>8000020</v>
       </c>
       <c r="D510" s="37" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E510" s="4">
         <v>8</v>
@@ -41799,7 +41800,7 @@
         <v>0</v>
       </c>
       <c r="Z510" s="46" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="511" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -41807,7 +41808,7 @@
         <v>8000021</v>
       </c>
       <c r="D511" s="37" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E511" s="4">
         <v>8</v>
@@ -41873,7 +41874,7 @@
         <v>0</v>
       </c>
       <c r="Z511" s="46" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="512" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -41881,7 +41882,7 @@
         <v>8000022</v>
       </c>
       <c r="D512" s="37" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E512" s="4">
         <v>8</v>
@@ -41947,7 +41948,7 @@
         <v>0</v>
       </c>
       <c r="Z512" s="46" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="513" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -41955,7 +41956,7 @@
         <v>8000023</v>
       </c>
       <c r="D513" s="37" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E513" s="4">
         <v>8</v>
@@ -42021,7 +42022,7 @@
         <v>0</v>
       </c>
       <c r="Z513" s="46" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="514" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -42029,7 +42030,7 @@
         <v>8000024</v>
       </c>
       <c r="D514" s="37" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E514" s="4">
         <v>8</v>
@@ -42095,7 +42096,7 @@
         <v>0</v>
       </c>
       <c r="Z514" s="46" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="515" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -42103,7 +42104,7 @@
         <v>8000025</v>
       </c>
       <c r="D515" s="37" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E515" s="4">
         <v>8</v>
@@ -42169,7 +42170,7 @@
         <v>0</v>
       </c>
       <c r="Z515" s="46" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="516" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -42177,7 +42178,7 @@
         <v>8000026</v>
       </c>
       <c r="D516" s="37" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E516" s="4">
         <v>8</v>
@@ -42243,7 +42244,7 @@
         <v>0</v>
       </c>
       <c r="Z516" s="46" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="517" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -42251,7 +42252,7 @@
         <v>8000027</v>
       </c>
       <c r="D517" s="37" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E517" s="4">
         <v>8</v>
@@ -42317,7 +42318,7 @@
         <v>0</v>
       </c>
       <c r="Z517" s="46" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="518" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -42325,7 +42326,7 @@
         <v>8000028</v>
       </c>
       <c r="D518" s="37" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E518" s="4">
         <v>8</v>
@@ -42391,7 +42392,7 @@
         <v>0</v>
       </c>
       <c r="Z518" s="46" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="519" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -42399,7 +42400,7 @@
         <v>8000029</v>
       </c>
       <c r="D519" s="37" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E519" s="4">
         <v>8</v>
@@ -42465,7 +42466,7 @@
         <v>0</v>
       </c>
       <c r="Z519" s="46" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="520" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -42473,7 +42474,7 @@
         <v>8000030</v>
       </c>
       <c r="D520" s="37" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E520" s="4">
         <v>8</v>
@@ -42539,7 +42540,7 @@
         <v>0</v>
       </c>
       <c r="Z520" s="46" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="521" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -42547,7 +42548,7 @@
         <v>8000031</v>
       </c>
       <c r="D521" s="37" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E521" s="4">
         <v>8</v>
@@ -42613,7 +42614,7 @@
         <v>0</v>
       </c>
       <c r="Z521" s="46" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="522" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -42621,7 +42622,7 @@
         <v>8000032</v>
       </c>
       <c r="D522" s="37" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E522" s="4">
         <v>8</v>
@@ -42687,7 +42688,7 @@
         <v>0</v>
       </c>
       <c r="Z522" s="46" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="523" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -42695,7 +42696,7 @@
         <v>8000033</v>
       </c>
       <c r="D523" s="37" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E523" s="4">
         <v>8</v>
@@ -42761,7 +42762,7 @@
         <v>0</v>
       </c>
       <c r="Z523" s="46" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="524" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -42769,7 +42770,7 @@
         <v>8000034</v>
       </c>
       <c r="D524" s="37" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E524" s="4">
         <v>8</v>
@@ -42835,7 +42836,7 @@
         <v>0</v>
       </c>
       <c r="Z524" s="46" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="525" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -42843,7 +42844,7 @@
         <v>8000035</v>
       </c>
       <c r="D525" s="37" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E525" s="4">
         <v>8</v>
@@ -42909,7 +42910,7 @@
         <v>0</v>
       </c>
       <c r="Z525" s="46" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="526" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5622B3A8-3D1A-4CB8-AEC1-257362DBBE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226105D1-EF6D-4109-B3B3-D85653CB9C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="EquipMakeProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EquipMakeProto!$G$1:$G$1138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EquipMakeProto!$G$1:$G$1148</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -4083,11 +4083,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:Z1138"/>
+  <dimension ref="C1:Z1148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A484" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D493" sqref="D493"/>
+      <pane ySplit="5" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E475" sqref="E475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -39880,1207 +39880,677 @@
       </c>
     </row>
     <row r="485" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C485" s="42">
+      <c r="C485" s="42"/>
+      <c r="D485" s="37"/>
+      <c r="F485" s="42"/>
+      <c r="G485" s="4"/>
+      <c r="K485" s="4"/>
+      <c r="L485" s="4"/>
+      <c r="M485" s="4"/>
+      <c r="N485" s="4"/>
+      <c r="O485" s="4"/>
+      <c r="P485" s="4"/>
+      <c r="Q485" s="4"/>
+      <c r="R485" s="4"/>
+      <c r="S485" s="4"/>
+      <c r="T485" s="4"/>
+      <c r="U485" s="4"/>
+      <c r="V485" s="4"/>
+      <c r="W485" s="4"/>
+      <c r="X485" s="19"/>
+      <c r="Y485" s="4"/>
+    </row>
+    <row r="486" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C486" s="42"/>
+      <c r="D486" s="37"/>
+      <c r="F486" s="42"/>
+      <c r="G486" s="4"/>
+      <c r="K486" s="4"/>
+      <c r="L486" s="4"/>
+      <c r="M486" s="4"/>
+      <c r="N486" s="4"/>
+      <c r="O486" s="4"/>
+      <c r="P486" s="4"/>
+      <c r="Q486" s="4"/>
+      <c r="R486" s="4"/>
+      <c r="S486" s="4"/>
+      <c r="T486" s="4"/>
+      <c r="U486" s="4"/>
+      <c r="V486" s="4"/>
+      <c r="W486" s="4"/>
+      <c r="X486" s="19"/>
+      <c r="Y486" s="4"/>
+    </row>
+    <row r="487" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C487" s="42"/>
+      <c r="D487" s="37"/>
+      <c r="F487" s="42"/>
+      <c r="G487" s="4"/>
+      <c r="K487" s="4"/>
+      <c r="L487" s="4"/>
+      <c r="M487" s="4"/>
+      <c r="N487" s="4"/>
+      <c r="O487" s="4"/>
+      <c r="P487" s="4"/>
+      <c r="Q487" s="4"/>
+      <c r="R487" s="4"/>
+      <c r="S487" s="4"/>
+      <c r="T487" s="4"/>
+      <c r="U487" s="4"/>
+      <c r="V487" s="4"/>
+      <c r="W487" s="4"/>
+      <c r="X487" s="19"/>
+      <c r="Y487" s="4"/>
+    </row>
+    <row r="488" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C488" s="42"/>
+      <c r="D488" s="37"/>
+      <c r="F488" s="42"/>
+      <c r="G488" s="4"/>
+      <c r="K488" s="4"/>
+      <c r="L488" s="4"/>
+      <c r="M488" s="4"/>
+      <c r="N488" s="4"/>
+      <c r="O488" s="4"/>
+      <c r="P488" s="4"/>
+      <c r="Q488" s="4"/>
+      <c r="R488" s="4"/>
+      <c r="S488" s="4"/>
+      <c r="T488" s="4"/>
+      <c r="U488" s="4"/>
+      <c r="V488" s="4"/>
+      <c r="W488" s="4"/>
+      <c r="X488" s="19"/>
+      <c r="Y488" s="4"/>
+    </row>
+    <row r="489" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C489" s="42"/>
+      <c r="D489" s="37"/>
+      <c r="F489" s="42"/>
+      <c r="G489" s="4"/>
+      <c r="K489" s="4"/>
+      <c r="L489" s="4"/>
+      <c r="M489" s="4"/>
+      <c r="N489" s="4"/>
+      <c r="O489" s="4"/>
+      <c r="P489" s="4"/>
+      <c r="Q489" s="4"/>
+      <c r="R489" s="4"/>
+      <c r="S489" s="4"/>
+      <c r="T489" s="4"/>
+      <c r="U489" s="4"/>
+      <c r="V489" s="4"/>
+      <c r="W489" s="4"/>
+      <c r="X489" s="19"/>
+      <c r="Y489" s="4"/>
+    </row>
+    <row r="490" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C490" s="42"/>
+      <c r="D490" s="37"/>
+      <c r="F490" s="42"/>
+      <c r="G490" s="4"/>
+      <c r="K490" s="4"/>
+      <c r="L490" s="4"/>
+      <c r="M490" s="4"/>
+      <c r="N490" s="4"/>
+      <c r="O490" s="4"/>
+      <c r="P490" s="4"/>
+      <c r="Q490" s="4"/>
+      <c r="R490" s="4"/>
+      <c r="S490" s="4"/>
+      <c r="T490" s="4"/>
+      <c r="U490" s="4"/>
+      <c r="V490" s="4"/>
+      <c r="W490" s="4"/>
+      <c r="X490" s="19"/>
+      <c r="Y490" s="4"/>
+    </row>
+    <row r="491" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C491" s="42"/>
+      <c r="D491" s="37"/>
+      <c r="F491" s="42"/>
+      <c r="G491" s="4"/>
+      <c r="K491" s="4"/>
+      <c r="L491" s="4"/>
+      <c r="M491" s="4"/>
+      <c r="N491" s="4"/>
+      <c r="O491" s="4"/>
+      <c r="P491" s="4"/>
+      <c r="Q491" s="4"/>
+      <c r="R491" s="4"/>
+      <c r="S491" s="4"/>
+      <c r="T491" s="4"/>
+      <c r="U491" s="4"/>
+      <c r="V491" s="4"/>
+      <c r="W491" s="4"/>
+      <c r="X491" s="19"/>
+      <c r="Y491" s="4"/>
+    </row>
+    <row r="492" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C492" s="42"/>
+      <c r="D492" s="37"/>
+      <c r="F492" s="42"/>
+      <c r="G492" s="4"/>
+      <c r="K492" s="4"/>
+      <c r="L492" s="4"/>
+      <c r="M492" s="4"/>
+      <c r="N492" s="4"/>
+      <c r="O492" s="4"/>
+      <c r="P492" s="4"/>
+      <c r="Q492" s="4"/>
+      <c r="R492" s="4"/>
+      <c r="S492" s="4"/>
+      <c r="T492" s="4"/>
+      <c r="U492" s="4"/>
+      <c r="V492" s="4"/>
+      <c r="W492" s="4"/>
+      <c r="X492" s="19"/>
+      <c r="Y492" s="4"/>
+    </row>
+    <row r="493" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C493" s="42"/>
+      <c r="D493" s="37"/>
+      <c r="F493" s="42"/>
+      <c r="G493" s="4"/>
+      <c r="K493" s="4"/>
+      <c r="L493" s="4"/>
+      <c r="M493" s="4"/>
+      <c r="N493" s="4"/>
+      <c r="O493" s="4"/>
+      <c r="P493" s="4"/>
+      <c r="Q493" s="4"/>
+      <c r="R493" s="4"/>
+      <c r="S493" s="4"/>
+      <c r="T493" s="4"/>
+      <c r="U493" s="4"/>
+      <c r="V493" s="4"/>
+      <c r="W493" s="4"/>
+      <c r="X493" s="19"/>
+      <c r="Y493" s="4"/>
+    </row>
+    <row r="494" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C494" s="42"/>
+      <c r="D494" s="37"/>
+      <c r="F494" s="42"/>
+      <c r="G494" s="4"/>
+      <c r="K494" s="4"/>
+      <c r="L494" s="4"/>
+      <c r="M494" s="4"/>
+      <c r="N494" s="4"/>
+      <c r="O494" s="4"/>
+      <c r="P494" s="4"/>
+      <c r="Q494" s="4"/>
+      <c r="R494" s="4"/>
+      <c r="S494" s="4"/>
+      <c r="T494" s="4"/>
+      <c r="U494" s="4"/>
+      <c r="V494" s="4"/>
+      <c r="W494" s="4"/>
+      <c r="X494" s="19"/>
+      <c r="Y494" s="4"/>
+    </row>
+    <row r="495" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C495" s="42">
         <v>7301001</v>
       </c>
-      <c r="D485" s="37" t="s">
+      <c r="D495" s="37" t="s">
         <v>778</v>
       </c>
-      <c r="E485" s="4">
+      <c r="E495" s="4">
         <v>3</v>
       </c>
-      <c r="F485" s="42">
+      <c r="F495" s="42">
         <v>10090101</v>
       </c>
-      <c r="G485" s="4">
-        <v>0</v>
-      </c>
-      <c r="H485" s="4">
+      <c r="G495" s="4">
+        <v>0</v>
+      </c>
+      <c r="H495" s="4">
         <v>12</v>
       </c>
-      <c r="I485" s="4">
+      <c r="I495" s="4">
         <v>5000</v>
       </c>
-      <c r="J485" s="4">
+      <c r="J495" s="4">
         <v>20</v>
       </c>
-      <c r="K485" s="4">
-        <v>0</v>
-      </c>
-      <c r="L485" s="4">
-        <v>1</v>
-      </c>
-      <c r="M485" s="4">
-        <v>1</v>
-      </c>
-      <c r="N485" s="4">
+      <c r="K495" s="4">
+        <v>0</v>
+      </c>
+      <c r="L495" s="4">
+        <v>1</v>
+      </c>
+      <c r="M495" s="4">
+        <v>1</v>
+      </c>
+      <c r="N495" s="4">
         <v>0.02</v>
       </c>
-      <c r="O485" s="4">
-        <v>1</v>
-      </c>
-      <c r="P485" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q485" s="4">
-        <v>1</v>
-      </c>
-      <c r="R485" s="4">
-        <v>1</v>
-      </c>
-      <c r="S485" s="4">
+      <c r="O495" s="4">
+        <v>1</v>
+      </c>
+      <c r="P495" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q495" s="4">
+        <v>1</v>
+      </c>
+      <c r="R495" s="4">
+        <v>1</v>
+      </c>
+      <c r="S495" s="4">
         <v>150</v>
       </c>
-      <c r="T485" s="4">
+      <c r="T495" s="4">
         <v>200</v>
       </c>
-      <c r="U485" s="4" t="s">
+      <c r="U495" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="V485" s="4">
-        <v>0</v>
-      </c>
-      <c r="W485" s="4">
-        <v>1</v>
-      </c>
-      <c r="X485" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y485" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z485" s="6" t="s">
+      <c r="V495" s="4">
+        <v>0</v>
+      </c>
+      <c r="W495" s="4">
+        <v>1</v>
+      </c>
+      <c r="X495" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y495" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z495" s="6" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="486" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C486" s="42">
+    <row r="496" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C496" s="42">
         <v>7301002</v>
       </c>
-      <c r="D486" s="37" t="s">
+      <c r="D496" s="37" t="s">
         <v>780</v>
       </c>
-      <c r="E486" s="4">
+      <c r="E496" s="4">
         <v>3</v>
       </c>
-      <c r="F486" s="42">
+      <c r="F496" s="42">
         <v>10090102</v>
       </c>
-      <c r="G486" s="4">
-        <v>0</v>
-      </c>
-      <c r="H486" s="4">
+      <c r="G496" s="4">
+        <v>0</v>
+      </c>
+      <c r="H496" s="4">
         <v>15</v>
       </c>
-      <c r="I486" s="4">
+      <c r="I496" s="4">
         <v>5000</v>
       </c>
-      <c r="J486" s="4">
+      <c r="J496" s="4">
         <v>20</v>
       </c>
-      <c r="K486" s="4">
-        <v>0</v>
-      </c>
-      <c r="L486" s="4">
-        <v>1</v>
-      </c>
-      <c r="M486" s="4">
-        <v>1</v>
-      </c>
-      <c r="N486" s="4">
+      <c r="K496" s="4">
+        <v>0</v>
+      </c>
+      <c r="L496" s="4">
+        <v>1</v>
+      </c>
+      <c r="M496" s="4">
+        <v>1</v>
+      </c>
+      <c r="N496" s="4">
         <v>0.02</v>
       </c>
-      <c r="O486" s="4">
-        <v>1</v>
-      </c>
-      <c r="P486" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q486" s="4">
-        <v>1</v>
-      </c>
-      <c r="R486" s="4">
-        <v>1</v>
-      </c>
-      <c r="S486" s="4">
+      <c r="O496" s="4">
+        <v>1</v>
+      </c>
+      <c r="P496" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q496" s="4">
+        <v>1</v>
+      </c>
+      <c r="R496" s="4">
+        <v>1</v>
+      </c>
+      <c r="S496" s="4">
         <v>175</v>
       </c>
-      <c r="T486" s="4">
+      <c r="T496" s="4">
         <v>200</v>
       </c>
-      <c r="U486" s="4" t="s">
+      <c r="U496" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="V486" s="4">
-        <v>0</v>
-      </c>
-      <c r="W486" s="4">
-        <v>1</v>
-      </c>
-      <c r="X486" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y486" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z486" s="6" t="s">
+      <c r="V496" s="4">
+        <v>0</v>
+      </c>
+      <c r="W496" s="4">
+        <v>1</v>
+      </c>
+      <c r="X496" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y496" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z496" s="6" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="487" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C487" s="42">
+    <row r="497" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C497" s="42">
         <v>7302001</v>
       </c>
-      <c r="D487" s="37" t="s">
+      <c r="D497" s="37" t="s">
         <v>781</v>
       </c>
-      <c r="E487" s="4">
+      <c r="E497" s="4">
         <v>3</v>
       </c>
-      <c r="F487" s="42">
+      <c r="F497" s="42">
         <v>10090201</v>
       </c>
-      <c r="G487" s="4">
-        <v>1</v>
-      </c>
-      <c r="H487" s="4">
+      <c r="G497" s="4">
+        <v>1</v>
+      </c>
+      <c r="H497" s="4">
         <v>30</v>
       </c>
-      <c r="I487" s="4">
+      <c r="I497" s="4">
         <v>12500</v>
       </c>
-      <c r="J487" s="4">
+      <c r="J497" s="4">
         <v>20</v>
       </c>
-      <c r="K487" s="4">
-        <v>0</v>
-      </c>
-      <c r="L487" s="4">
-        <v>1</v>
-      </c>
-      <c r="M487" s="4">
-        <v>1</v>
-      </c>
-      <c r="N487" s="4">
+      <c r="K497" s="4">
+        <v>0</v>
+      </c>
+      <c r="L497" s="4">
+        <v>1</v>
+      </c>
+      <c r="M497" s="4">
+        <v>1</v>
+      </c>
+      <c r="N497" s="4">
         <v>0.02</v>
       </c>
-      <c r="O487" s="4">
-        <v>1</v>
-      </c>
-      <c r="P487" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q487" s="4">
-        <v>1</v>
-      </c>
-      <c r="R487" s="4">
-        <v>1</v>
-      </c>
-      <c r="S487" s="4">
+      <c r="O497" s="4">
+        <v>1</v>
+      </c>
+      <c r="P497" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q497" s="4">
+        <v>1</v>
+      </c>
+      <c r="R497" s="4">
+        <v>1</v>
+      </c>
+      <c r="S497" s="4">
         <v>275</v>
       </c>
-      <c r="T487" s="4">
+      <c r="T497" s="4">
         <v>350</v>
       </c>
-      <c r="U487" s="4" t="s">
+      <c r="U497" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="V487" s="4">
-        <v>0</v>
-      </c>
-      <c r="W487" s="4">
-        <v>1</v>
-      </c>
-      <c r="X487" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y487" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z487" s="6" t="s">
+      <c r="V497" s="4">
+        <v>0</v>
+      </c>
+      <c r="W497" s="4">
+        <v>1</v>
+      </c>
+      <c r="X497" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y497" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z497" s="6" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="488" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C488" s="42">
+    <row r="498" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C498" s="42">
         <v>7302002</v>
       </c>
-      <c r="D488" s="37" t="s">
+      <c r="D498" s="37" t="s">
         <v>783</v>
       </c>
-      <c r="E488" s="4">
+      <c r="E498" s="4">
         <v>3</v>
       </c>
-      <c r="F488" s="42">
+      <c r="F498" s="42">
         <v>10090202</v>
       </c>
-      <c r="G488" s="4">
-        <v>1</v>
-      </c>
-      <c r="H488" s="4">
+      <c r="G498" s="4">
+        <v>1</v>
+      </c>
+      <c r="H498" s="4">
         <v>30</v>
       </c>
-      <c r="I488" s="4">
+      <c r="I498" s="4">
         <v>12500</v>
       </c>
-      <c r="J488" s="4">
+      <c r="J498" s="4">
         <v>20</v>
       </c>
-      <c r="K488" s="4">
-        <v>0</v>
-      </c>
-      <c r="L488" s="4">
-        <v>1</v>
-      </c>
-      <c r="M488" s="4">
-        <v>1</v>
-      </c>
-      <c r="N488" s="4">
+      <c r="K498" s="4">
+        <v>0</v>
+      </c>
+      <c r="L498" s="4">
+        <v>1</v>
+      </c>
+      <c r="M498" s="4">
+        <v>1</v>
+      </c>
+      <c r="N498" s="4">
         <v>0.02</v>
       </c>
-      <c r="O488" s="4">
-        <v>1</v>
-      </c>
-      <c r="P488" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q488" s="4">
-        <v>1</v>
-      </c>
-      <c r="R488" s="4">
-        <v>1</v>
-      </c>
-      <c r="S488" s="4">
+      <c r="O498" s="4">
+        <v>1</v>
+      </c>
+      <c r="P498" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q498" s="4">
+        <v>1</v>
+      </c>
+      <c r="R498" s="4">
+        <v>1</v>
+      </c>
+      <c r="S498" s="4">
         <v>300</v>
       </c>
-      <c r="T488" s="4">
+      <c r="T498" s="4">
         <v>350</v>
       </c>
-      <c r="U488" s="4" t="s">
+      <c r="U498" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="V488" s="4">
-        <v>0</v>
-      </c>
-      <c r="W488" s="4">
-        <v>1</v>
-      </c>
-      <c r="X488" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y488" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z488" s="6" t="s">
+      <c r="V498" s="4">
+        <v>0</v>
+      </c>
+      <c r="W498" s="4">
+        <v>1</v>
+      </c>
+      <c r="X498" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y498" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z498" s="6" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="489" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C489" s="42">
+    <row r="499" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C499" s="42">
         <v>7303001</v>
       </c>
-      <c r="D489" s="37" t="s">
+      <c r="D499" s="37" t="s">
         <v>784</v>
       </c>
-      <c r="E489" s="4">
+      <c r="E499" s="4">
         <v>3</v>
       </c>
-      <c r="F489" s="42">
+      <c r="F499" s="42">
         <v>10090301</v>
       </c>
-      <c r="G489" s="4">
-        <v>1</v>
-      </c>
-      <c r="H489" s="4">
+      <c r="G499" s="4">
+        <v>1</v>
+      </c>
+      <c r="H499" s="4">
         <v>50</v>
       </c>
-      <c r="I489" s="4">
+      <c r="I499" s="4">
         <v>20000</v>
       </c>
-      <c r="J489" s="4">
+      <c r="J499" s="4">
         <v>20</v>
       </c>
-      <c r="K489" s="4">
-        <v>0</v>
-      </c>
-      <c r="L489" s="4">
-        <v>1</v>
-      </c>
-      <c r="M489" s="4">
-        <v>1</v>
-      </c>
-      <c r="N489" s="4">
+      <c r="K499" s="4">
+        <v>0</v>
+      </c>
+      <c r="L499" s="4">
+        <v>1</v>
+      </c>
+      <c r="M499" s="4">
+        <v>1</v>
+      </c>
+      <c r="N499" s="4">
         <v>0.02</v>
       </c>
-      <c r="O489" s="4">
-        <v>1</v>
-      </c>
-      <c r="P489" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q489" s="4">
-        <v>1</v>
-      </c>
-      <c r="R489" s="4">
-        <v>1</v>
-      </c>
-      <c r="S489" s="4">
+      <c r="O499" s="4">
+        <v>1</v>
+      </c>
+      <c r="P499" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q499" s="4">
+        <v>1</v>
+      </c>
+      <c r="R499" s="4">
+        <v>1</v>
+      </c>
+      <c r="S499" s="4">
         <v>400</v>
       </c>
-      <c r="T489" s="4">
+      <c r="T499" s="4">
         <v>500</v>
       </c>
-      <c r="U489" s="4" t="s">
+      <c r="U499" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="V489" s="4">
-        <v>0</v>
-      </c>
-      <c r="W489" s="4">
-        <v>1</v>
-      </c>
-      <c r="X489" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y489" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z489" s="6" t="s">
+      <c r="V499" s="4">
+        <v>0</v>
+      </c>
+      <c r="W499" s="4">
+        <v>1</v>
+      </c>
+      <c r="X499" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y499" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z499" s="6" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="490" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C490" s="42">
+    <row r="500" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C500" s="42">
         <v>7303002</v>
       </c>
-      <c r="D490" s="37" t="s">
+      <c r="D500" s="37" t="s">
         <v>786</v>
       </c>
-      <c r="E490" s="4">
+      <c r="E500" s="4">
         <v>3</v>
       </c>
-      <c r="F490" s="42">
+      <c r="F500" s="42">
         <v>10090302</v>
       </c>
-      <c r="G490" s="4">
-        <v>1</v>
-      </c>
-      <c r="H490" s="4">
+      <c r="G500" s="4">
+        <v>1</v>
+      </c>
+      <c r="H500" s="4">
         <v>50</v>
       </c>
-      <c r="I490" s="4">
+      <c r="I500" s="4">
         <v>20000</v>
       </c>
-      <c r="J490" s="4">
+      <c r="J500" s="4">
         <v>20</v>
       </c>
-      <c r="K490" s="4">
-        <v>0</v>
-      </c>
-      <c r="L490" s="4">
-        <v>1</v>
-      </c>
-      <c r="M490" s="4">
-        <v>1</v>
-      </c>
-      <c r="N490" s="4">
+      <c r="K500" s="4">
+        <v>0</v>
+      </c>
+      <c r="L500" s="4">
+        <v>1</v>
+      </c>
+      <c r="M500" s="4">
+        <v>1</v>
+      </c>
+      <c r="N500" s="4">
         <v>0.02</v>
       </c>
-      <c r="O490" s="4">
-        <v>1</v>
-      </c>
-      <c r="P490" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q490" s="4">
-        <v>1</v>
-      </c>
-      <c r="R490" s="4">
-        <v>1</v>
-      </c>
-      <c r="S490" s="4">
+      <c r="O500" s="4">
+        <v>1</v>
+      </c>
+      <c r="P500" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q500" s="4">
+        <v>1</v>
+      </c>
+      <c r="R500" s="4">
+        <v>1</v>
+      </c>
+      <c r="S500" s="4">
         <v>425</v>
       </c>
-      <c r="T490" s="4">
+      <c r="T500" s="4">
         <v>500</v>
       </c>
-      <c r="U490" s="4" t="s">
+      <c r="U500" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="V490" s="4">
-        <v>0</v>
-      </c>
-      <c r="W490" s="4">
-        <v>1</v>
-      </c>
-      <c r="X490" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y490" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z490" s="6" t="s">
+      <c r="V500" s="4">
+        <v>0</v>
+      </c>
+      <c r="W500" s="4">
+        <v>1</v>
+      </c>
+      <c r="X500" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y500" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z500" s="6" t="s">
         <v>785</v>
-      </c>
-    </row>
-    <row r="491" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C491" s="4">
-        <v>8000001</v>
-      </c>
-      <c r="D491" s="37" t="s">
-        <v>819</v>
-      </c>
-      <c r="E491" s="4">
-        <v>8</v>
-      </c>
-      <c r="F491" s="37">
-        <v>10036001</v>
-      </c>
-      <c r="G491" s="4">
-        <v>0</v>
-      </c>
-      <c r="H491" s="4">
-        <v>1</v>
-      </c>
-      <c r="I491" s="4">
-        <v>0</v>
-      </c>
-      <c r="J491" s="4">
-        <v>0</v>
-      </c>
-      <c r="K491" s="4">
-        <v>0</v>
-      </c>
-      <c r="L491" s="4">
-        <v>1</v>
-      </c>
-      <c r="M491" s="4">
-        <v>1</v>
-      </c>
-      <c r="N491" s="4">
-        <v>0</v>
-      </c>
-      <c r="O491" s="4">
-        <v>1</v>
-      </c>
-      <c r="P491" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q491" s="4">
-        <v>1</v>
-      </c>
-      <c r="R491" s="4">
-        <v>1</v>
-      </c>
-      <c r="S491" s="4">
-        <v>0</v>
-      </c>
-      <c r="T491" s="4">
-        <v>0</v>
-      </c>
-      <c r="U491" s="4">
-        <v>0</v>
-      </c>
-      <c r="V491" s="4">
-        <v>0</v>
-      </c>
-      <c r="W491" s="4">
-        <v>0</v>
-      </c>
-      <c r="X491" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y491" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z491" s="46" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="492" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C492" s="4">
-        <v>8000002</v>
-      </c>
-      <c r="D492" s="37" t="s">
-        <v>820</v>
-      </c>
-      <c r="E492" s="4">
-        <v>8</v>
-      </c>
-      <c r="F492" s="37">
-        <v>10036002</v>
-      </c>
-      <c r="G492" s="4">
-        <v>0</v>
-      </c>
-      <c r="H492" s="4">
-        <v>2</v>
-      </c>
-      <c r="I492" s="4">
-        <v>0</v>
-      </c>
-      <c r="J492" s="4">
-        <v>0</v>
-      </c>
-      <c r="K492" s="4">
-        <v>0</v>
-      </c>
-      <c r="L492" s="4">
-        <v>1</v>
-      </c>
-      <c r="M492" s="4">
-        <v>1</v>
-      </c>
-      <c r="N492" s="4">
-        <v>0</v>
-      </c>
-      <c r="O492" s="4">
-        <v>1</v>
-      </c>
-      <c r="P492" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q492" s="4">
-        <v>1</v>
-      </c>
-      <c r="R492" s="4">
-        <v>1</v>
-      </c>
-      <c r="S492" s="4">
-        <v>0</v>
-      </c>
-      <c r="T492" s="4">
-        <v>0</v>
-      </c>
-      <c r="U492" s="4">
-        <v>0</v>
-      </c>
-      <c r="V492" s="4">
-        <v>0</v>
-      </c>
-      <c r="W492" s="4">
-        <v>0</v>
-      </c>
-      <c r="X492" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y492" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z492" s="46" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="493" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C493" s="4">
-        <v>8000003</v>
-      </c>
-      <c r="D493" s="37" t="s">
-        <v>821</v>
-      </c>
-      <c r="E493" s="4">
-        <v>8</v>
-      </c>
-      <c r="F493" s="37">
-        <v>10036003</v>
-      </c>
-      <c r="G493" s="4">
-        <v>0</v>
-      </c>
-      <c r="H493" s="4">
-        <v>2</v>
-      </c>
-      <c r="I493" s="4">
-        <v>0</v>
-      </c>
-      <c r="J493" s="4">
-        <v>0</v>
-      </c>
-      <c r="K493" s="4">
-        <v>0</v>
-      </c>
-      <c r="L493" s="4">
-        <v>1</v>
-      </c>
-      <c r="M493" s="4">
-        <v>1</v>
-      </c>
-      <c r="N493" s="4">
-        <v>0</v>
-      </c>
-      <c r="O493" s="4">
-        <v>1</v>
-      </c>
-      <c r="P493" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q493" s="4">
-        <v>1</v>
-      </c>
-      <c r="R493" s="4">
-        <v>1</v>
-      </c>
-      <c r="S493" s="4">
-        <v>0</v>
-      </c>
-      <c r="T493" s="4">
-        <v>0</v>
-      </c>
-      <c r="U493" s="4">
-        <v>0</v>
-      </c>
-      <c r="V493" s="4">
-        <v>0</v>
-      </c>
-      <c r="W493" s="4">
-        <v>0</v>
-      </c>
-      <c r="X493" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y493" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z493" s="46" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="494" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C494" s="4">
-        <v>8000004</v>
-      </c>
-      <c r="D494" s="37" t="s">
-        <v>822</v>
-      </c>
-      <c r="E494" s="4">
-        <v>8</v>
-      </c>
-      <c r="F494" s="37">
-        <v>10036004</v>
-      </c>
-      <c r="G494" s="4">
-        <v>0</v>
-      </c>
-      <c r="H494" s="4">
-        <v>2</v>
-      </c>
-      <c r="I494" s="4">
-        <v>0</v>
-      </c>
-      <c r="J494" s="4">
-        <v>0</v>
-      </c>
-      <c r="K494" s="4">
-        <v>0</v>
-      </c>
-      <c r="L494" s="4">
-        <v>1</v>
-      </c>
-      <c r="M494" s="4">
-        <v>1</v>
-      </c>
-      <c r="N494" s="4">
-        <v>0</v>
-      </c>
-      <c r="O494" s="4">
-        <v>1</v>
-      </c>
-      <c r="P494" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q494" s="4">
-        <v>1</v>
-      </c>
-      <c r="R494" s="4">
-        <v>1</v>
-      </c>
-      <c r="S494" s="4">
-        <v>0</v>
-      </c>
-      <c r="T494" s="4">
-        <v>0</v>
-      </c>
-      <c r="U494" s="4">
-        <v>0</v>
-      </c>
-      <c r="V494" s="4">
-        <v>0</v>
-      </c>
-      <c r="W494" s="4">
-        <v>0</v>
-      </c>
-      <c r="X494" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y494" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z494" s="46" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="495" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C495" s="4">
-        <v>8000005</v>
-      </c>
-      <c r="D495" s="37" t="s">
-        <v>823</v>
-      </c>
-      <c r="E495" s="4">
-        <v>8</v>
-      </c>
-      <c r="F495" s="37">
-        <v>10036005</v>
-      </c>
-      <c r="G495" s="4">
-        <v>0</v>
-      </c>
-      <c r="H495" s="4">
-        <v>1</v>
-      </c>
-      <c r="I495" s="4">
-        <v>0</v>
-      </c>
-      <c r="J495" s="4">
-        <v>0</v>
-      </c>
-      <c r="K495" s="4">
-        <v>0</v>
-      </c>
-      <c r="L495" s="4">
-        <v>1</v>
-      </c>
-      <c r="M495" s="4">
-        <v>1</v>
-      </c>
-      <c r="N495" s="4">
-        <v>0</v>
-      </c>
-      <c r="O495" s="4">
-        <v>1</v>
-      </c>
-      <c r="P495" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q495" s="4">
-        <v>1</v>
-      </c>
-      <c r="R495" s="4">
-        <v>1</v>
-      </c>
-      <c r="S495" s="4">
-        <v>0</v>
-      </c>
-      <c r="T495" s="4">
-        <v>0</v>
-      </c>
-      <c r="U495" s="4">
-        <v>0</v>
-      </c>
-      <c r="V495" s="4">
-        <v>0</v>
-      </c>
-      <c r="W495" s="4">
-        <v>0</v>
-      </c>
-      <c r="X495" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y495" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z495" s="46" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="496" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C496" s="4">
-        <v>8000006</v>
-      </c>
-      <c r="D496" s="37" t="s">
-        <v>824</v>
-      </c>
-      <c r="E496" s="4">
-        <v>8</v>
-      </c>
-      <c r="F496" s="37">
-        <v>10036006</v>
-      </c>
-      <c r="G496" s="4">
-        <v>0</v>
-      </c>
-      <c r="H496" s="4">
-        <v>3</v>
-      </c>
-      <c r="I496" s="4">
-        <v>0</v>
-      </c>
-      <c r="J496" s="4">
-        <v>0</v>
-      </c>
-      <c r="K496" s="4">
-        <v>0</v>
-      </c>
-      <c r="L496" s="4">
-        <v>1</v>
-      </c>
-      <c r="M496" s="4">
-        <v>1</v>
-      </c>
-      <c r="N496" s="4">
-        <v>0</v>
-      </c>
-      <c r="O496" s="4">
-        <v>1</v>
-      </c>
-      <c r="P496" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q496" s="4">
-        <v>1</v>
-      </c>
-      <c r="R496" s="4">
-        <v>1</v>
-      </c>
-      <c r="S496" s="4">
-        <v>0</v>
-      </c>
-      <c r="T496" s="4">
-        <v>0</v>
-      </c>
-      <c r="U496" s="4">
-        <v>0</v>
-      </c>
-      <c r="V496" s="4">
-        <v>0</v>
-      </c>
-      <c r="W496" s="4">
-        <v>0</v>
-      </c>
-      <c r="X496" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y496" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z496" s="46" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="497" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C497" s="4">
-        <v>8000007</v>
-      </c>
-      <c r="D497" s="37" t="s">
-        <v>825</v>
-      </c>
-      <c r="E497" s="4">
-        <v>8</v>
-      </c>
-      <c r="F497" s="37">
-        <v>10036007</v>
-      </c>
-      <c r="G497" s="4">
-        <v>0</v>
-      </c>
-      <c r="H497" s="4">
-        <v>5</v>
-      </c>
-      <c r="I497" s="4">
-        <v>0</v>
-      </c>
-      <c r="J497" s="4">
-        <v>0</v>
-      </c>
-      <c r="K497" s="4">
-        <v>0</v>
-      </c>
-      <c r="L497" s="4">
-        <v>1</v>
-      </c>
-      <c r="M497" s="4">
-        <v>1</v>
-      </c>
-      <c r="N497" s="4">
-        <v>0</v>
-      </c>
-      <c r="O497" s="4">
-        <v>1</v>
-      </c>
-      <c r="P497" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q497" s="4">
-        <v>1</v>
-      </c>
-      <c r="R497" s="4">
-        <v>1</v>
-      </c>
-      <c r="S497" s="4">
-        <v>0</v>
-      </c>
-      <c r="T497" s="4">
-        <v>0</v>
-      </c>
-      <c r="U497" s="4">
-        <v>0</v>
-      </c>
-      <c r="V497" s="4">
-        <v>0</v>
-      </c>
-      <c r="W497" s="4">
-        <v>0</v>
-      </c>
-      <c r="X497" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y497" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z497" s="46" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="498" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C498" s="4">
-        <v>8000008</v>
-      </c>
-      <c r="D498" s="37" t="s">
-        <v>826</v>
-      </c>
-      <c r="E498" s="4">
-        <v>8</v>
-      </c>
-      <c r="F498" s="37">
-        <v>10036008</v>
-      </c>
-      <c r="G498" s="4">
-        <v>0</v>
-      </c>
-      <c r="H498" s="4">
-        <v>5</v>
-      </c>
-      <c r="I498" s="4">
-        <v>0</v>
-      </c>
-      <c r="J498" s="4">
-        <v>0</v>
-      </c>
-      <c r="K498" s="4">
-        <v>0</v>
-      </c>
-      <c r="L498" s="4">
-        <v>1</v>
-      </c>
-      <c r="M498" s="4">
-        <v>1</v>
-      </c>
-      <c r="N498" s="4">
-        <v>0</v>
-      </c>
-      <c r="O498" s="4">
-        <v>1</v>
-      </c>
-      <c r="P498" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q498" s="4">
-        <v>1</v>
-      </c>
-      <c r="R498" s="4">
-        <v>1</v>
-      </c>
-      <c r="S498" s="4">
-        <v>0</v>
-      </c>
-      <c r="T498" s="4">
-        <v>0</v>
-      </c>
-      <c r="U498" s="4">
-        <v>0</v>
-      </c>
-      <c r="V498" s="4">
-        <v>0</v>
-      </c>
-      <c r="W498" s="4">
-        <v>0</v>
-      </c>
-      <c r="X498" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y498" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z498" s="46" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="499" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C499" s="4">
-        <v>8000009</v>
-      </c>
-      <c r="D499" s="37" t="s">
-        <v>827</v>
-      </c>
-      <c r="E499" s="4">
-        <v>8</v>
-      </c>
-      <c r="F499" s="37">
-        <v>10036009</v>
-      </c>
-      <c r="G499" s="4">
-        <v>0</v>
-      </c>
-      <c r="H499" s="4">
-        <v>7</v>
-      </c>
-      <c r="I499" s="4">
-        <v>0</v>
-      </c>
-      <c r="J499" s="4">
-        <v>0</v>
-      </c>
-      <c r="K499" s="4">
-        <v>0</v>
-      </c>
-      <c r="L499" s="4">
-        <v>1</v>
-      </c>
-      <c r="M499" s="4">
-        <v>1</v>
-      </c>
-      <c r="N499" s="4">
-        <v>0</v>
-      </c>
-      <c r="O499" s="4">
-        <v>1</v>
-      </c>
-      <c r="P499" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q499" s="4">
-        <v>1</v>
-      </c>
-      <c r="R499" s="4">
-        <v>1</v>
-      </c>
-      <c r="S499" s="4">
-        <v>0</v>
-      </c>
-      <c r="T499" s="4">
-        <v>0</v>
-      </c>
-      <c r="U499" s="4">
-        <v>0</v>
-      </c>
-      <c r="V499" s="4">
-        <v>0</v>
-      </c>
-      <c r="W499" s="4">
-        <v>0</v>
-      </c>
-      <c r="X499" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y499" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z499" s="46" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="500" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C500" s="4">
-        <v>8000010</v>
-      </c>
-      <c r="D500" s="37" t="s">
-        <v>828</v>
-      </c>
-      <c r="E500" s="4">
-        <v>8</v>
-      </c>
-      <c r="F500" s="37">
-        <v>10036010</v>
-      </c>
-      <c r="G500" s="4">
-        <v>0</v>
-      </c>
-      <c r="H500" s="4">
-        <v>9</v>
-      </c>
-      <c r="I500" s="4">
-        <v>0</v>
-      </c>
-      <c r="J500" s="4">
-        <v>0</v>
-      </c>
-      <c r="K500" s="4">
-        <v>0</v>
-      </c>
-      <c r="L500" s="4">
-        <v>1</v>
-      </c>
-      <c r="M500" s="4">
-        <v>1</v>
-      </c>
-      <c r="N500" s="4">
-        <v>0</v>
-      </c>
-      <c r="O500" s="4">
-        <v>1</v>
-      </c>
-      <c r="P500" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q500" s="4">
-        <v>1</v>
-      </c>
-      <c r="R500" s="4">
-        <v>1</v>
-      </c>
-      <c r="S500" s="4">
-        <v>0</v>
-      </c>
-      <c r="T500" s="4">
-        <v>0</v>
-      </c>
-      <c r="U500" s="4">
-        <v>0</v>
-      </c>
-      <c r="V500" s="4">
-        <v>0</v>
-      </c>
-      <c r="W500" s="4">
-        <v>0</v>
-      </c>
-      <c r="X500" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y500" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z500" s="46" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="501" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C501" s="4">
-        <v>8000011</v>
+        <v>8000001</v>
       </c>
       <c r="D501" s="37" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="E501" s="4">
         <v>8</v>
       </c>
       <c r="F501" s="37">
-        <v>10036011</v>
+        <v>10036001</v>
       </c>
       <c r="G501" s="4">
         <v>0</v>
       </c>
       <c r="H501" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I501" s="4">
         <v>0</v>
@@ -41134,27 +40604,27 @@
         <v>0</v>
       </c>
       <c r="Z501" s="46" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="502" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C502" s="4">
-        <v>8000012</v>
+        <v>8000002</v>
       </c>
       <c r="D502" s="37" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="E502" s="4">
         <v>8</v>
       </c>
       <c r="F502" s="37">
-        <v>10036012</v>
+        <v>10036002</v>
       </c>
       <c r="G502" s="4">
         <v>0</v>
       </c>
       <c r="H502" s="4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I502" s="4">
         <v>0</v>
@@ -41208,27 +40678,27 @@
         <v>0</v>
       </c>
       <c r="Z502" s="46" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
     <row r="503" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C503" s="4">
-        <v>8000013</v>
+        <v>8000003</v>
       </c>
       <c r="D503" s="37" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="E503" s="4">
         <v>8</v>
       </c>
       <c r="F503" s="37">
-        <v>10036013</v>
+        <v>10036003</v>
       </c>
       <c r="G503" s="4">
         <v>0</v>
       </c>
       <c r="H503" s="4">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I503" s="4">
         <v>0</v>
@@ -41282,27 +40752,27 @@
         <v>0</v>
       </c>
       <c r="Z503" s="46" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
     </row>
     <row r="504" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C504" s="4">
-        <v>8000014</v>
+        <v>8000004</v>
       </c>
       <c r="D504" s="37" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="E504" s="4">
         <v>8</v>
       </c>
       <c r="F504" s="37">
-        <v>10036014</v>
+        <v>10036004</v>
       </c>
       <c r="G504" s="4">
         <v>0</v>
       </c>
       <c r="H504" s="4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I504" s="4">
         <v>0</v>
@@ -41356,27 +40826,27 @@
         <v>0</v>
       </c>
       <c r="Z504" s="46" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
     </row>
     <row r="505" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C505" s="4">
-        <v>8000015</v>
+        <v>8000005</v>
       </c>
       <c r="D505" s="37" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="E505" s="4">
         <v>8</v>
       </c>
       <c r="F505" s="37">
-        <v>10036015</v>
+        <v>10036005</v>
       </c>
       <c r="G505" s="4">
         <v>0</v>
       </c>
       <c r="H505" s="4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I505" s="4">
         <v>0</v>
@@ -41430,27 +40900,27 @@
         <v>0</v>
       </c>
       <c r="Z505" s="46" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
     <row r="506" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C506" s="4">
-        <v>8000016</v>
+        <v>8000006</v>
       </c>
       <c r="D506" s="37" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="E506" s="4">
         <v>8</v>
       </c>
       <c r="F506" s="37">
-        <v>10036016</v>
+        <v>10036006</v>
       </c>
       <c r="G506" s="4">
         <v>0</v>
       </c>
       <c r="H506" s="4">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I506" s="4">
         <v>0</v>
@@ -41504,27 +40974,27 @@
         <v>0</v>
       </c>
       <c r="Z506" s="46" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
     </row>
     <row r="507" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C507" s="4">
-        <v>8000017</v>
+        <v>8000007</v>
       </c>
       <c r="D507" s="37" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="E507" s="4">
         <v>8</v>
       </c>
       <c r="F507" s="37">
-        <v>10036017</v>
+        <v>10036007</v>
       </c>
       <c r="G507" s="4">
         <v>0</v>
       </c>
       <c r="H507" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I507" s="4">
         <v>0</v>
@@ -41578,27 +41048,27 @@
         <v>0</v>
       </c>
       <c r="Z507" s="46" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="508" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C508" s="4">
-        <v>8000018</v>
+        <v>8000008</v>
       </c>
       <c r="D508" s="37" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="E508" s="4">
         <v>8</v>
       </c>
       <c r="F508" s="37">
-        <v>10036018</v>
+        <v>10036008</v>
       </c>
       <c r="G508" s="4">
         <v>0</v>
       </c>
       <c r="H508" s="4">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I508" s="4">
         <v>0</v>
@@ -41652,27 +41122,27 @@
         <v>0</v>
       </c>
       <c r="Z508" s="46" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
     </row>
     <row r="509" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C509" s="4">
-        <v>8000019</v>
+        <v>8000009</v>
       </c>
       <c r="D509" s="37" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="E509" s="4">
         <v>8</v>
       </c>
       <c r="F509" s="37">
-        <v>10036019</v>
+        <v>10036009</v>
       </c>
       <c r="G509" s="4">
         <v>0</v>
       </c>
       <c r="H509" s="4">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I509" s="4">
         <v>0</v>
@@ -41726,27 +41196,27 @@
         <v>0</v>
       </c>
       <c r="Z509" s="46" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="510" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C510" s="4">
-        <v>8000020</v>
+        <v>8000010</v>
       </c>
       <c r="D510" s="37" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="E510" s="4">
         <v>8</v>
       </c>
       <c r="F510" s="37">
-        <v>10036020</v>
+        <v>10036010</v>
       </c>
       <c r="G510" s="4">
         <v>0</v>
       </c>
       <c r="H510" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I510" s="4">
         <v>0</v>
@@ -41800,27 +41270,27 @@
         <v>0</v>
       </c>
       <c r="Z510" s="46" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
     </row>
     <row r="511" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C511" s="4">
-        <v>8000021</v>
+        <v>8000011</v>
       </c>
       <c r="D511" s="37" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="E511" s="4">
         <v>8</v>
       </c>
       <c r="F511" s="37">
-        <v>10036021</v>
+        <v>10036011</v>
       </c>
       <c r="G511" s="4">
         <v>0</v>
       </c>
       <c r="H511" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I511" s="4">
         <v>0</v>
@@ -41874,27 +41344,27 @@
         <v>0</v>
       </c>
       <c r="Z511" s="46" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
     </row>
     <row r="512" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C512" s="4">
-        <v>8000022</v>
+        <v>8000012</v>
       </c>
       <c r="D512" s="37" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="E512" s="4">
         <v>8</v>
       </c>
       <c r="F512" s="37">
-        <v>10036022</v>
+        <v>10036012</v>
       </c>
       <c r="G512" s="4">
         <v>0</v>
       </c>
       <c r="H512" s="4">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I512" s="4">
         <v>0</v>
@@ -41948,27 +41418,27 @@
         <v>0</v>
       </c>
       <c r="Z512" s="46" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="513" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C513" s="4">
-        <v>8000023</v>
+        <v>8000013</v>
       </c>
       <c r="D513" s="37" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="E513" s="4">
         <v>8</v>
       </c>
       <c r="F513" s="37">
-        <v>10036023</v>
+        <v>10036013</v>
       </c>
       <c r="G513" s="4">
         <v>0</v>
       </c>
       <c r="H513" s="4">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I513" s="4">
         <v>0</v>
@@ -42022,27 +41492,27 @@
         <v>0</v>
       </c>
       <c r="Z513" s="46" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
     </row>
     <row r="514" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C514" s="4">
-        <v>8000024</v>
+        <v>8000014</v>
       </c>
       <c r="D514" s="37" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="E514" s="4">
         <v>8</v>
       </c>
       <c r="F514" s="37">
-        <v>10036024</v>
+        <v>10036014</v>
       </c>
       <c r="G514" s="4">
         <v>0</v>
       </c>
       <c r="H514" s="4">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="I514" s="4">
         <v>0</v>
@@ -42096,27 +41566,27 @@
         <v>0</v>
       </c>
       <c r="Z514" s="46" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
     <row r="515" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C515" s="4">
-        <v>8000025</v>
+        <v>8000015</v>
       </c>
       <c r="D515" s="37" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="E515" s="4">
         <v>8</v>
       </c>
       <c r="F515" s="37">
-        <v>10036025</v>
+        <v>10036015</v>
       </c>
       <c r="G515" s="4">
         <v>0</v>
       </c>
       <c r="H515" s="4">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I515" s="4">
         <v>0</v>
@@ -42170,27 +41640,27 @@
         <v>0</v>
       </c>
       <c r="Z515" s="46" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="516" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C516" s="4">
-        <v>8000026</v>
+        <v>8000016</v>
       </c>
       <c r="D516" s="37" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="E516" s="4">
         <v>8</v>
       </c>
       <c r="F516" s="37">
-        <v>10036026</v>
+        <v>10036016</v>
       </c>
       <c r="G516" s="4">
         <v>0</v>
       </c>
       <c r="H516" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I516" s="4">
         <v>0</v>
@@ -42244,27 +41714,27 @@
         <v>0</v>
       </c>
       <c r="Z516" s="46" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
     </row>
     <row r="517" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C517" s="4">
-        <v>8000027</v>
+        <v>8000017</v>
       </c>
       <c r="D517" s="37" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="E517" s="4">
         <v>8</v>
       </c>
       <c r="F517" s="37">
-        <v>10036027</v>
+        <v>10036017</v>
       </c>
       <c r="G517" s="4">
         <v>0</v>
       </c>
       <c r="H517" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I517" s="4">
         <v>0</v>
@@ -42318,27 +41788,27 @@
         <v>0</v>
       </c>
       <c r="Z517" s="46" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
     <row r="518" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C518" s="4">
-        <v>8000028</v>
+        <v>8000018</v>
       </c>
       <c r="D518" s="37" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="E518" s="4">
         <v>8</v>
       </c>
       <c r="F518" s="37">
-        <v>10036028</v>
+        <v>10036018</v>
       </c>
       <c r="G518" s="4">
         <v>0</v>
       </c>
       <c r="H518" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I518" s="4">
         <v>0</v>
@@ -42392,27 +41862,27 @@
         <v>0</v>
       </c>
       <c r="Z518" s="46" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="519" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C519" s="4">
-        <v>8000029</v>
+        <v>8000019</v>
       </c>
       <c r="D519" s="37" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="E519" s="4">
         <v>8</v>
       </c>
       <c r="F519" s="37">
-        <v>10036029</v>
+        <v>10036019</v>
       </c>
       <c r="G519" s="4">
         <v>0</v>
       </c>
       <c r="H519" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I519" s="4">
         <v>0</v>
@@ -42466,27 +41936,27 @@
         <v>0</v>
       </c>
       <c r="Z519" s="46" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="520" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C520" s="4">
-        <v>8000030</v>
+        <v>8000020</v>
       </c>
       <c r="D520" s="37" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="E520" s="4">
         <v>8</v>
       </c>
       <c r="F520" s="37">
-        <v>10036030</v>
+        <v>10036020</v>
       </c>
       <c r="G520" s="4">
         <v>0</v>
       </c>
       <c r="H520" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I520" s="4">
         <v>0</v>
@@ -42540,27 +42010,27 @@
         <v>0</v>
       </c>
       <c r="Z520" s="46" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
     </row>
     <row r="521" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C521" s="4">
-        <v>8000031</v>
+        <v>8000021</v>
       </c>
       <c r="D521" s="37" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="E521" s="4">
         <v>8</v>
       </c>
       <c r="F521" s="37">
-        <v>10036031</v>
+        <v>10036021</v>
       </c>
       <c r="G521" s="4">
         <v>0</v>
       </c>
       <c r="H521" s="4">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I521" s="4">
         <v>0</v>
@@ -42614,27 +42084,27 @@
         <v>0</v>
       </c>
       <c r="Z521" s="46" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="522" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C522" s="4">
-        <v>8000032</v>
+        <v>8000022</v>
       </c>
       <c r="D522" s="37" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="E522" s="4">
         <v>8</v>
       </c>
       <c r="F522" s="37">
-        <v>10036032</v>
+        <v>10036022</v>
       </c>
       <c r="G522" s="4">
         <v>0</v>
       </c>
       <c r="H522" s="4">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I522" s="4">
         <v>0</v>
@@ -42688,27 +42158,27 @@
         <v>0</v>
       </c>
       <c r="Z522" s="46" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
     </row>
     <row r="523" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C523" s="4">
-        <v>8000033</v>
+        <v>8000023</v>
       </c>
       <c r="D523" s="37" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="E523" s="4">
         <v>8</v>
       </c>
       <c r="F523" s="37">
-        <v>10036033</v>
+        <v>10036023</v>
       </c>
       <c r="G523" s="4">
         <v>0</v>
       </c>
       <c r="H523" s="4">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I523" s="4">
         <v>0</v>
@@ -42762,27 +42232,27 @@
         <v>0</v>
       </c>
       <c r="Z523" s="46" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="524" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C524" s="4">
-        <v>8000034</v>
+        <v>8000024</v>
       </c>
       <c r="D524" s="37" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="E524" s="4">
         <v>8</v>
       </c>
       <c r="F524" s="37">
-        <v>10036034</v>
+        <v>10036024</v>
       </c>
       <c r="G524" s="4">
         <v>0</v>
       </c>
       <c r="H524" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I524" s="4">
         <v>0</v>
@@ -42836,157 +42306,837 @@
         <v>0</v>
       </c>
       <c r="Z524" s="46" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
     </row>
     <row r="525" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C525" s="4">
-        <v>8000035</v>
+        <v>8000025</v>
       </c>
       <c r="D525" s="37" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="E525" s="4">
         <v>8</v>
       </c>
       <c r="F525" s="37">
+        <v>10036025</v>
+      </c>
+      <c r="G525" s="4">
+        <v>0</v>
+      </c>
+      <c r="H525" s="4">
+        <v>23</v>
+      </c>
+      <c r="I525" s="4">
+        <v>0</v>
+      </c>
+      <c r="J525" s="4">
+        <v>0</v>
+      </c>
+      <c r="K525" s="4">
+        <v>0</v>
+      </c>
+      <c r="L525" s="4">
+        <v>1</v>
+      </c>
+      <c r="M525" s="4">
+        <v>1</v>
+      </c>
+      <c r="N525" s="4">
+        <v>0</v>
+      </c>
+      <c r="O525" s="4">
+        <v>1</v>
+      </c>
+      <c r="P525" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q525" s="4">
+        <v>1</v>
+      </c>
+      <c r="R525" s="4">
+        <v>1</v>
+      </c>
+      <c r="S525" s="4">
+        <v>0</v>
+      </c>
+      <c r="T525" s="4">
+        <v>0</v>
+      </c>
+      <c r="U525" s="4">
+        <v>0</v>
+      </c>
+      <c r="V525" s="4">
+        <v>0</v>
+      </c>
+      <c r="W525" s="4">
+        <v>0</v>
+      </c>
+      <c r="X525" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y525" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z525" s="46" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="526" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C526" s="4">
+        <v>8000026</v>
+      </c>
+      <c r="D526" s="37" t="s">
+        <v>844</v>
+      </c>
+      <c r="E526" s="4">
+        <v>8</v>
+      </c>
+      <c r="F526" s="37">
+        <v>10036026</v>
+      </c>
+      <c r="G526" s="4">
+        <v>0</v>
+      </c>
+      <c r="H526" s="4">
+        <v>25</v>
+      </c>
+      <c r="I526" s="4">
+        <v>0</v>
+      </c>
+      <c r="J526" s="4">
+        <v>0</v>
+      </c>
+      <c r="K526" s="4">
+        <v>0</v>
+      </c>
+      <c r="L526" s="4">
+        <v>1</v>
+      </c>
+      <c r="M526" s="4">
+        <v>1</v>
+      </c>
+      <c r="N526" s="4">
+        <v>0</v>
+      </c>
+      <c r="O526" s="4">
+        <v>1</v>
+      </c>
+      <c r="P526" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q526" s="4">
+        <v>1</v>
+      </c>
+      <c r="R526" s="4">
+        <v>1</v>
+      </c>
+      <c r="S526" s="4">
+        <v>0</v>
+      </c>
+      <c r="T526" s="4">
+        <v>0</v>
+      </c>
+      <c r="U526" s="4">
+        <v>0</v>
+      </c>
+      <c r="V526" s="4">
+        <v>0</v>
+      </c>
+      <c r="W526" s="4">
+        <v>0</v>
+      </c>
+      <c r="X526" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y526" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z526" s="46" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="527" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C527" s="4">
+        <v>8000027</v>
+      </c>
+      <c r="D527" s="37" t="s">
+        <v>845</v>
+      </c>
+      <c r="E527" s="4">
+        <v>8</v>
+      </c>
+      <c r="F527" s="37">
+        <v>10036027</v>
+      </c>
+      <c r="G527" s="4">
+        <v>0</v>
+      </c>
+      <c r="H527" s="4">
+        <v>25</v>
+      </c>
+      <c r="I527" s="4">
+        <v>0</v>
+      </c>
+      <c r="J527" s="4">
+        <v>0</v>
+      </c>
+      <c r="K527" s="4">
+        <v>0</v>
+      </c>
+      <c r="L527" s="4">
+        <v>1</v>
+      </c>
+      <c r="M527" s="4">
+        <v>1</v>
+      </c>
+      <c r="N527" s="4">
+        <v>0</v>
+      </c>
+      <c r="O527" s="4">
+        <v>1</v>
+      </c>
+      <c r="P527" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q527" s="4">
+        <v>1</v>
+      </c>
+      <c r="R527" s="4">
+        <v>1</v>
+      </c>
+      <c r="S527" s="4">
+        <v>0</v>
+      </c>
+      <c r="T527" s="4">
+        <v>0</v>
+      </c>
+      <c r="U527" s="4">
+        <v>0</v>
+      </c>
+      <c r="V527" s="4">
+        <v>0</v>
+      </c>
+      <c r="W527" s="4">
+        <v>0</v>
+      </c>
+      <c r="X527" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y527" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z527" s="46" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="528" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C528" s="4">
+        <v>8000028</v>
+      </c>
+      <c r="D528" s="37" t="s">
+        <v>846</v>
+      </c>
+      <c r="E528" s="4">
+        <v>8</v>
+      </c>
+      <c r="F528" s="37">
+        <v>10036028</v>
+      </c>
+      <c r="G528" s="4">
+        <v>0</v>
+      </c>
+      <c r="H528" s="4">
+        <v>19</v>
+      </c>
+      <c r="I528" s="4">
+        <v>0</v>
+      </c>
+      <c r="J528" s="4">
+        <v>0</v>
+      </c>
+      <c r="K528" s="4">
+        <v>0</v>
+      </c>
+      <c r="L528" s="4">
+        <v>1</v>
+      </c>
+      <c r="M528" s="4">
+        <v>1</v>
+      </c>
+      <c r="N528" s="4">
+        <v>0</v>
+      </c>
+      <c r="O528" s="4">
+        <v>1</v>
+      </c>
+      <c r="P528" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q528" s="4">
+        <v>1</v>
+      </c>
+      <c r="R528" s="4">
+        <v>1</v>
+      </c>
+      <c r="S528" s="4">
+        <v>0</v>
+      </c>
+      <c r="T528" s="4">
+        <v>0</v>
+      </c>
+      <c r="U528" s="4">
+        <v>0</v>
+      </c>
+      <c r="V528" s="4">
+        <v>0</v>
+      </c>
+      <c r="W528" s="4">
+        <v>0</v>
+      </c>
+      <c r="X528" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y528" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z528" s="46" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="529" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C529" s="4">
+        <v>8000029</v>
+      </c>
+      <c r="D529" s="37" t="s">
+        <v>847</v>
+      </c>
+      <c r="E529" s="4">
+        <v>8</v>
+      </c>
+      <c r="F529" s="37">
+        <v>10036029</v>
+      </c>
+      <c r="G529" s="4">
+        <v>0</v>
+      </c>
+      <c r="H529" s="4">
+        <v>19</v>
+      </c>
+      <c r="I529" s="4">
+        <v>0</v>
+      </c>
+      <c r="J529" s="4">
+        <v>0</v>
+      </c>
+      <c r="K529" s="4">
+        <v>0</v>
+      </c>
+      <c r="L529" s="4">
+        <v>1</v>
+      </c>
+      <c r="M529" s="4">
+        <v>1</v>
+      </c>
+      <c r="N529" s="4">
+        <v>0</v>
+      </c>
+      <c r="O529" s="4">
+        <v>1</v>
+      </c>
+      <c r="P529" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q529" s="4">
+        <v>1</v>
+      </c>
+      <c r="R529" s="4">
+        <v>1</v>
+      </c>
+      <c r="S529" s="4">
+        <v>0</v>
+      </c>
+      <c r="T529" s="4">
+        <v>0</v>
+      </c>
+      <c r="U529" s="4">
+        <v>0</v>
+      </c>
+      <c r="V529" s="4">
+        <v>0</v>
+      </c>
+      <c r="W529" s="4">
+        <v>0</v>
+      </c>
+      <c r="X529" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y529" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z529" s="46" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="530" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C530" s="4">
+        <v>8000030</v>
+      </c>
+      <c r="D530" s="37" t="s">
+        <v>848</v>
+      </c>
+      <c r="E530" s="4">
+        <v>8</v>
+      </c>
+      <c r="F530" s="37">
+        <v>10036030</v>
+      </c>
+      <c r="G530" s="4">
+        <v>0</v>
+      </c>
+      <c r="H530" s="4">
+        <v>21</v>
+      </c>
+      <c r="I530" s="4">
+        <v>0</v>
+      </c>
+      <c r="J530" s="4">
+        <v>0</v>
+      </c>
+      <c r="K530" s="4">
+        <v>0</v>
+      </c>
+      <c r="L530" s="4">
+        <v>1</v>
+      </c>
+      <c r="M530" s="4">
+        <v>1</v>
+      </c>
+      <c r="N530" s="4">
+        <v>0</v>
+      </c>
+      <c r="O530" s="4">
+        <v>1</v>
+      </c>
+      <c r="P530" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q530" s="4">
+        <v>1</v>
+      </c>
+      <c r="R530" s="4">
+        <v>1</v>
+      </c>
+      <c r="S530" s="4">
+        <v>0</v>
+      </c>
+      <c r="T530" s="4">
+        <v>0</v>
+      </c>
+      <c r="U530" s="4">
+        <v>0</v>
+      </c>
+      <c r="V530" s="4">
+        <v>0</v>
+      </c>
+      <c r="W530" s="4">
+        <v>0</v>
+      </c>
+      <c r="X530" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y530" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z530" s="46" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="531" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C531" s="4">
+        <v>8000031</v>
+      </c>
+      <c r="D531" s="37" t="s">
+        <v>849</v>
+      </c>
+      <c r="E531" s="4">
+        <v>8</v>
+      </c>
+      <c r="F531" s="37">
+        <v>10036031</v>
+      </c>
+      <c r="G531" s="4">
+        <v>0</v>
+      </c>
+      <c r="H531" s="4">
+        <v>3</v>
+      </c>
+      <c r="I531" s="4">
+        <v>0</v>
+      </c>
+      <c r="J531" s="4">
+        <v>0</v>
+      </c>
+      <c r="K531" s="4">
+        <v>0</v>
+      </c>
+      <c r="L531" s="4">
+        <v>1</v>
+      </c>
+      <c r="M531" s="4">
+        <v>1</v>
+      </c>
+      <c r="N531" s="4">
+        <v>0</v>
+      </c>
+      <c r="O531" s="4">
+        <v>1</v>
+      </c>
+      <c r="P531" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q531" s="4">
+        <v>1</v>
+      </c>
+      <c r="R531" s="4">
+        <v>1</v>
+      </c>
+      <c r="S531" s="4">
+        <v>0</v>
+      </c>
+      <c r="T531" s="4">
+        <v>0</v>
+      </c>
+      <c r="U531" s="4">
+        <v>0</v>
+      </c>
+      <c r="V531" s="4">
+        <v>0</v>
+      </c>
+      <c r="W531" s="4">
+        <v>0</v>
+      </c>
+      <c r="X531" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y531" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z531" s="46" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="532" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C532" s="4">
+        <v>8000032</v>
+      </c>
+      <c r="D532" s="37" t="s">
+        <v>850</v>
+      </c>
+      <c r="E532" s="4">
+        <v>8</v>
+      </c>
+      <c r="F532" s="37">
+        <v>10036032</v>
+      </c>
+      <c r="G532" s="4">
+        <v>0</v>
+      </c>
+      <c r="H532" s="4">
+        <v>9</v>
+      </c>
+      <c r="I532" s="4">
+        <v>0</v>
+      </c>
+      <c r="J532" s="4">
+        <v>0</v>
+      </c>
+      <c r="K532" s="4">
+        <v>0</v>
+      </c>
+      <c r="L532" s="4">
+        <v>1</v>
+      </c>
+      <c r="M532" s="4">
+        <v>1</v>
+      </c>
+      <c r="N532" s="4">
+        <v>0</v>
+      </c>
+      <c r="O532" s="4">
+        <v>1</v>
+      </c>
+      <c r="P532" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q532" s="4">
+        <v>1</v>
+      </c>
+      <c r="R532" s="4">
+        <v>1</v>
+      </c>
+      <c r="S532" s="4">
+        <v>0</v>
+      </c>
+      <c r="T532" s="4">
+        <v>0</v>
+      </c>
+      <c r="U532" s="4">
+        <v>0</v>
+      </c>
+      <c r="V532" s="4">
+        <v>0</v>
+      </c>
+      <c r="W532" s="4">
+        <v>0</v>
+      </c>
+      <c r="X532" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y532" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z532" s="46" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="533" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C533" s="4">
+        <v>8000033</v>
+      </c>
+      <c r="D533" s="37" t="s">
+        <v>851</v>
+      </c>
+      <c r="E533" s="4">
+        <v>8</v>
+      </c>
+      <c r="F533" s="37">
+        <v>10036033</v>
+      </c>
+      <c r="G533" s="4">
+        <v>0</v>
+      </c>
+      <c r="H533" s="4">
+        <v>15</v>
+      </c>
+      <c r="I533" s="4">
+        <v>0</v>
+      </c>
+      <c r="J533" s="4">
+        <v>0</v>
+      </c>
+      <c r="K533" s="4">
+        <v>0</v>
+      </c>
+      <c r="L533" s="4">
+        <v>1</v>
+      </c>
+      <c r="M533" s="4">
+        <v>1</v>
+      </c>
+      <c r="N533" s="4">
+        <v>0</v>
+      </c>
+      <c r="O533" s="4">
+        <v>1</v>
+      </c>
+      <c r="P533" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q533" s="4">
+        <v>1</v>
+      </c>
+      <c r="R533" s="4">
+        <v>1</v>
+      </c>
+      <c r="S533" s="4">
+        <v>0</v>
+      </c>
+      <c r="T533" s="4">
+        <v>0</v>
+      </c>
+      <c r="U533" s="4">
+        <v>0</v>
+      </c>
+      <c r="V533" s="4">
+        <v>0</v>
+      </c>
+      <c r="W533" s="4">
+        <v>0</v>
+      </c>
+      <c r="X533" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y533" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z533" s="46" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="534" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C534" s="4">
+        <v>8000034</v>
+      </c>
+      <c r="D534" s="37" t="s">
+        <v>852</v>
+      </c>
+      <c r="E534" s="4">
+        <v>8</v>
+      </c>
+      <c r="F534" s="37">
+        <v>10036034</v>
+      </c>
+      <c r="G534" s="4">
+        <v>0</v>
+      </c>
+      <c r="H534" s="4">
+        <v>21</v>
+      </c>
+      <c r="I534" s="4">
+        <v>0</v>
+      </c>
+      <c r="J534" s="4">
+        <v>0</v>
+      </c>
+      <c r="K534" s="4">
+        <v>0</v>
+      </c>
+      <c r="L534" s="4">
+        <v>1</v>
+      </c>
+      <c r="M534" s="4">
+        <v>1</v>
+      </c>
+      <c r="N534" s="4">
+        <v>0</v>
+      </c>
+      <c r="O534" s="4">
+        <v>1</v>
+      </c>
+      <c r="P534" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q534" s="4">
+        <v>1</v>
+      </c>
+      <c r="R534" s="4">
+        <v>1</v>
+      </c>
+      <c r="S534" s="4">
+        <v>0</v>
+      </c>
+      <c r="T534" s="4">
+        <v>0</v>
+      </c>
+      <c r="U534" s="4">
+        <v>0</v>
+      </c>
+      <c r="V534" s="4">
+        <v>0</v>
+      </c>
+      <c r="W534" s="4">
+        <v>0</v>
+      </c>
+      <c r="X534" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y534" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z534" s="46" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="535" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C535" s="4">
+        <v>8000035</v>
+      </c>
+      <c r="D535" s="37" t="s">
+        <v>853</v>
+      </c>
+      <c r="E535" s="4">
+        <v>8</v>
+      </c>
+      <c r="F535" s="37">
         <v>10036035</v>
       </c>
-      <c r="G525" s="4">
-        <v>0</v>
-      </c>
-      <c r="H525" s="4">
+      <c r="G535" s="4">
+        <v>0</v>
+      </c>
+      <c r="H535" s="4">
         <v>17</v>
       </c>
-      <c r="I525" s="4">
-        <v>0</v>
-      </c>
-      <c r="J525" s="4">
-        <v>0</v>
-      </c>
-      <c r="K525" s="4">
-        <v>0</v>
-      </c>
-      <c r="L525" s="4">
-        <v>1</v>
-      </c>
-      <c r="M525" s="4">
-        <v>1</v>
-      </c>
-      <c r="N525" s="4">
-        <v>0</v>
-      </c>
-      <c r="O525" s="4">
-        <v>1</v>
-      </c>
-      <c r="P525" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q525" s="4">
-        <v>1</v>
-      </c>
-      <c r="R525" s="4">
-        <v>1</v>
-      </c>
-      <c r="S525" s="4">
-        <v>0</v>
-      </c>
-      <c r="T525" s="4">
-        <v>0</v>
-      </c>
-      <c r="U525" s="4">
-        <v>0</v>
-      </c>
-      <c r="V525" s="4">
-        <v>0</v>
-      </c>
-      <c r="W525" s="4">
-        <v>0</v>
-      </c>
-      <c r="X525" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y525" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z525" s="46" t="s">
+      <c r="I535" s="4">
+        <v>0</v>
+      </c>
+      <c r="J535" s="4">
+        <v>0</v>
+      </c>
+      <c r="K535" s="4">
+        <v>0</v>
+      </c>
+      <c r="L535" s="4">
+        <v>1</v>
+      </c>
+      <c r="M535" s="4">
+        <v>1</v>
+      </c>
+      <c r="N535" s="4">
+        <v>0</v>
+      </c>
+      <c r="O535" s="4">
+        <v>1</v>
+      </c>
+      <c r="P535" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q535" s="4">
+        <v>1</v>
+      </c>
+      <c r="R535" s="4">
+        <v>1</v>
+      </c>
+      <c r="S535" s="4">
+        <v>0</v>
+      </c>
+      <c r="T535" s="4">
+        <v>0</v>
+      </c>
+      <c r="U535" s="4">
+        <v>0</v>
+      </c>
+      <c r="V535" s="4">
+        <v>0</v>
+      </c>
+      <c r="W535" s="4">
+        <v>0</v>
+      </c>
+      <c r="X535" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y535" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z535" s="46" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="526" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" spans="5:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" spans="5:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" spans="5:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" spans="5:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E533" s="6"/>
-      <c r="H533" s="6"/>
-      <c r="I533" s="6"/>
-      <c r="J533" s="6"/>
-    </row>
-    <row r="534" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E534" s="6"/>
-      <c r="H534" s="6"/>
-      <c r="I534" s="6"/>
-      <c r="J534" s="6"/>
-    </row>
-    <row r="535" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E535" s="6"/>
-      <c r="H535" s="6"/>
-      <c r="I535" s="6"/>
-      <c r="J535" s="6"/>
-    </row>
-    <row r="536" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E536" s="6"/>
-      <c r="H536" s="6"/>
-      <c r="I536" s="6"/>
-      <c r="J536" s="6"/>
-    </row>
-    <row r="537" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E537" s="6"/>
-      <c r="H537" s="6"/>
-      <c r="I537" s="6"/>
-      <c r="J537" s="6"/>
-    </row>
-    <row r="538" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E538" s="6"/>
-      <c r="H538" s="6"/>
-      <c r="I538" s="6"/>
-      <c r="J538" s="6"/>
-    </row>
-    <row r="539" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E539" s="6"/>
-      <c r="H539" s="6"/>
-      <c r="I539" s="6"/>
-      <c r="J539" s="6"/>
-    </row>
-    <row r="540" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E540" s="6"/>
-      <c r="H540" s="6"/>
-      <c r="I540" s="6"/>
-      <c r="J540" s="6"/>
-    </row>
-    <row r="541" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E541" s="6"/>
-      <c r="H541" s="6"/>
-      <c r="I541" s="6"/>
-      <c r="J541" s="6"/>
-    </row>
-    <row r="542" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E542" s="6"/>
-      <c r="H542" s="6"/>
-      <c r="I542" s="6"/>
-      <c r="J542" s="6"/>
-    </row>
-    <row r="543" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="536" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" spans="3:26" x14ac:dyDescent="0.3">
       <c r="E543" s="6"/>
       <c r="H543" s="6"/>
       <c r="I543" s="6"/>
       <c r="J543" s="6"/>
     </row>
-    <row r="544" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="544" spans="3:26" x14ac:dyDescent="0.3">
       <c r="E544" s="6"/>
       <c r="H544" s="6"/>
       <c r="I544" s="6"/>
@@ -46556,8 +46706,68 @@
       <c r="I1138" s="6"/>
       <c r="J1138" s="6"/>
     </row>
+    <row r="1139" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1139" s="6"/>
+      <c r="H1139" s="6"/>
+      <c r="I1139" s="6"/>
+      <c r="J1139" s="6"/>
+    </row>
+    <row r="1140" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1140" s="6"/>
+      <c r="H1140" s="6"/>
+      <c r="I1140" s="6"/>
+      <c r="J1140" s="6"/>
+    </row>
+    <row r="1141" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1141" s="6"/>
+      <c r="H1141" s="6"/>
+      <c r="I1141" s="6"/>
+      <c r="J1141" s="6"/>
+    </row>
+    <row r="1142" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1142" s="6"/>
+      <c r="H1142" s="6"/>
+      <c r="I1142" s="6"/>
+      <c r="J1142" s="6"/>
+    </row>
+    <row r="1143" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1143" s="6"/>
+      <c r="H1143" s="6"/>
+      <c r="I1143" s="6"/>
+      <c r="J1143" s="6"/>
+    </row>
+    <row r="1144" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1144" s="6"/>
+      <c r="H1144" s="6"/>
+      <c r="I1144" s="6"/>
+      <c r="J1144" s="6"/>
+    </row>
+    <row r="1145" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1145" s="6"/>
+      <c r="H1145" s="6"/>
+      <c r="I1145" s="6"/>
+      <c r="J1145" s="6"/>
+    </row>
+    <row r="1146" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1146" s="6"/>
+      <c r="H1146" s="6"/>
+      <c r="I1146" s="6"/>
+      <c r="J1146" s="6"/>
+    </row>
+    <row r="1147" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1147" s="6"/>
+      <c r="H1147" s="6"/>
+      <c r="I1147" s="6"/>
+      <c r="J1147" s="6"/>
+    </row>
+    <row r="1148" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1148" s="6"/>
+      <c r="H1148" s="6"/>
+      <c r="I1148" s="6"/>
+      <c r="J1148" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="G1:G1138" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="G1:G1148" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226105D1-EF6D-4109-B3B3-D85653CB9C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E37A4F7-A381-4C9C-8358-2BFC1C82CB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="EquipMakeProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EquipMakeProto!$G$1:$G$1148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">EquipMakeProto!$G$1:$G$1153</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -522,7 +522,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="924">
   <si>
     <t>#</t>
   </si>
@@ -3359,6 +3359,63 @@
   <si>
     <t>8级物防石</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>10020001;20@10000147;4@10021010;20@10021008;1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>10020001;25@10000147;6@10023010;25@10023008;1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>10020001;30@10000147;8@10025010;30@10025008;1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级力量魔灵</t>
+  </si>
+  <si>
+    <t>高级力量魔灵</t>
+  </si>
+  <si>
+    <t>初级智力魔灵</t>
+  </si>
+  <si>
+    <t>中级智力魔灵</t>
+  </si>
+  <si>
+    <t>高级智力魔灵</t>
+  </si>
+  <si>
+    <t>初级敏捷魔灵</t>
+  </si>
+  <si>
+    <t>中级敏捷魔灵</t>
+  </si>
+  <si>
+    <t>高级敏捷魔灵</t>
+  </si>
+  <si>
+    <t>初级耐力魔灵</t>
+  </si>
+  <si>
+    <t>中级耐力魔灵</t>
+  </si>
+  <si>
+    <t>高级耐力魔灵</t>
+  </si>
+  <si>
+    <t>初级体质魔灵</t>
+  </si>
+  <si>
+    <t>中级体质魔灵</t>
+  </si>
+  <si>
+    <t>高级体质魔灵</t>
+  </si>
+  <si>
+    <t>初级力量魔灵</t>
   </si>
 </sst>
 </file>
@@ -4083,11 +4140,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:Z1148"/>
+  <dimension ref="C1:Z1153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E475" sqref="E475"/>
+      <pane ySplit="5" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E491" sqref="E491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -39880,239 +39937,769 @@
       </c>
     </row>
     <row r="485" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C485" s="42"/>
-      <c r="D485" s="37"/>
-      <c r="F485" s="42"/>
-      <c r="G485" s="4"/>
-      <c r="K485" s="4"/>
-      <c r="L485" s="4"/>
-      <c r="M485" s="4"/>
-      <c r="N485" s="4"/>
-      <c r="O485" s="4"/>
-      <c r="P485" s="4"/>
-      <c r="Q485" s="4"/>
-      <c r="R485" s="4"/>
-      <c r="S485" s="4"/>
-      <c r="T485" s="4"/>
-      <c r="U485" s="4"/>
-      <c r="V485" s="4"/>
-      <c r="W485" s="4"/>
-      <c r="X485" s="19"/>
-      <c r="Y485" s="4"/>
+      <c r="C485" s="42">
+        <v>7204101</v>
+      </c>
+      <c r="D485" s="37" t="s">
+        <v>923</v>
+      </c>
+      <c r="E485" s="4">
+        <v>2</v>
+      </c>
+      <c r="F485" s="42">
+        <v>10080401</v>
+      </c>
+      <c r="G485" s="4">
+        <v>0</v>
+      </c>
+      <c r="H485" s="4">
+        <v>10</v>
+      </c>
+      <c r="I485" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J485" s="4">
+        <v>5</v>
+      </c>
+      <c r="K485" s="4">
+        <v>0</v>
+      </c>
+      <c r="L485" s="4">
+        <v>1</v>
+      </c>
+      <c r="M485" s="4">
+        <v>1</v>
+      </c>
+      <c r="N485" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O485" s="4">
+        <v>0</v>
+      </c>
+      <c r="P485" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q485" s="4">
+        <v>1</v>
+      </c>
+      <c r="R485" s="4">
+        <v>1</v>
+      </c>
+      <c r="S485" s="4">
+        <v>150</v>
+      </c>
+      <c r="T485" s="4">
+        <v>200</v>
+      </c>
+      <c r="U485" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="V485" s="4">
+        <v>0</v>
+      </c>
+      <c r="W485" s="4">
+        <v>1</v>
+      </c>
+      <c r="X485" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y485" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z485" s="6" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="486" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C486" s="42"/>
-      <c r="D486" s="37"/>
-      <c r="F486" s="42"/>
-      <c r="G486" s="4"/>
-      <c r="K486" s="4"/>
-      <c r="L486" s="4"/>
-      <c r="M486" s="4"/>
-      <c r="N486" s="4"/>
-      <c r="O486" s="4"/>
-      <c r="P486" s="4"/>
-      <c r="Q486" s="4"/>
-      <c r="R486" s="4"/>
-      <c r="S486" s="4"/>
-      <c r="T486" s="4"/>
-      <c r="U486" s="4"/>
-      <c r="V486" s="4"/>
-      <c r="W486" s="4"/>
-      <c r="X486" s="19"/>
-      <c r="Y486" s="4"/>
+      <c r="C486" s="42">
+        <v>7204102</v>
+      </c>
+      <c r="D486" s="37" t="s">
+        <v>909</v>
+      </c>
+      <c r="E486" s="4">
+        <v>2</v>
+      </c>
+      <c r="F486" s="42">
+        <v>10080402</v>
+      </c>
+      <c r="G486" s="4">
+        <v>0</v>
+      </c>
+      <c r="H486" s="4">
+        <v>30</v>
+      </c>
+      <c r="I486" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J486" s="4">
+        <v>5</v>
+      </c>
+      <c r="K486" s="4">
+        <v>0</v>
+      </c>
+      <c r="L486" s="4">
+        <v>1</v>
+      </c>
+      <c r="M486" s="4">
+        <v>1</v>
+      </c>
+      <c r="N486" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O486" s="4">
+        <v>0</v>
+      </c>
+      <c r="P486" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q486" s="4">
+        <v>1</v>
+      </c>
+      <c r="R486" s="4">
+        <v>1</v>
+      </c>
+      <c r="S486" s="4">
+        <v>300</v>
+      </c>
+      <c r="T486" s="4">
+        <v>200</v>
+      </c>
+      <c r="U486" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="V486" s="4">
+        <v>0</v>
+      </c>
+      <c r="W486" s="4">
+        <v>1</v>
+      </c>
+      <c r="X486" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y486" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z486" s="6" t="s">
+        <v>907</v>
+      </c>
     </row>
     <row r="487" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C487" s="42"/>
-      <c r="D487" s="37"/>
-      <c r="F487" s="42"/>
-      <c r="G487" s="4"/>
-      <c r="K487" s="4"/>
-      <c r="L487" s="4"/>
-      <c r="M487" s="4"/>
-      <c r="N487" s="4"/>
-      <c r="O487" s="4"/>
-      <c r="P487" s="4"/>
-      <c r="Q487" s="4"/>
-      <c r="R487" s="4"/>
-      <c r="S487" s="4"/>
-      <c r="T487" s="4"/>
-      <c r="U487" s="4"/>
-      <c r="V487" s="4"/>
-      <c r="W487" s="4"/>
-      <c r="X487" s="19"/>
-      <c r="Y487" s="4"/>
+      <c r="C487" s="42">
+        <v>7204103</v>
+      </c>
+      <c r="D487" s="37" t="s">
+        <v>910</v>
+      </c>
+      <c r="E487" s="4">
+        <v>2</v>
+      </c>
+      <c r="F487" s="42">
+        <v>10080403</v>
+      </c>
+      <c r="G487" s="4">
+        <v>0</v>
+      </c>
+      <c r="H487" s="4">
+        <v>50</v>
+      </c>
+      <c r="I487" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J487" s="4">
+        <v>5</v>
+      </c>
+      <c r="K487" s="4">
+        <v>0</v>
+      </c>
+      <c r="L487" s="4">
+        <v>1</v>
+      </c>
+      <c r="M487" s="4">
+        <v>1</v>
+      </c>
+      <c r="N487" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O487" s="4">
+        <v>0</v>
+      </c>
+      <c r="P487" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q487" s="4">
+        <v>1</v>
+      </c>
+      <c r="R487" s="4">
+        <v>1</v>
+      </c>
+      <c r="S487" s="4">
+        <v>450</v>
+      </c>
+      <c r="T487" s="4">
+        <v>200</v>
+      </c>
+      <c r="U487" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="V487" s="4">
+        <v>0</v>
+      </c>
+      <c r="W487" s="4">
+        <v>1</v>
+      </c>
+      <c r="X487" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y487" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z487" s="6" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="488" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C488" s="42"/>
-      <c r="D488" s="37"/>
-      <c r="F488" s="42"/>
-      <c r="G488" s="4"/>
-      <c r="K488" s="4"/>
-      <c r="L488" s="4"/>
-      <c r="M488" s="4"/>
-      <c r="N488" s="4"/>
-      <c r="O488" s="4"/>
-      <c r="P488" s="4"/>
-      <c r="Q488" s="4"/>
-      <c r="R488" s="4"/>
-      <c r="S488" s="4"/>
-      <c r="T488" s="4"/>
-      <c r="U488" s="4"/>
-      <c r="V488" s="4"/>
-      <c r="W488" s="4"/>
-      <c r="X488" s="19"/>
-      <c r="Y488" s="4"/>
+      <c r="C488" s="42">
+        <v>7204201</v>
+      </c>
+      <c r="D488" s="37" t="s">
+        <v>911</v>
+      </c>
+      <c r="E488" s="4">
+        <v>2</v>
+      </c>
+      <c r="F488" s="42">
+        <v>10080501</v>
+      </c>
+      <c r="G488" s="4">
+        <v>0</v>
+      </c>
+      <c r="H488" s="4">
+        <v>11</v>
+      </c>
+      <c r="I488" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J488" s="4">
+        <v>5</v>
+      </c>
+      <c r="K488" s="4">
+        <v>0</v>
+      </c>
+      <c r="L488" s="4">
+        <v>1</v>
+      </c>
+      <c r="M488" s="4">
+        <v>1</v>
+      </c>
+      <c r="N488" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O488" s="4">
+        <v>0</v>
+      </c>
+      <c r="P488" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q488" s="4">
+        <v>1</v>
+      </c>
+      <c r="R488" s="4">
+        <v>1</v>
+      </c>
+      <c r="S488" s="4">
+        <v>150</v>
+      </c>
+      <c r="T488" s="4">
+        <v>200</v>
+      </c>
+      <c r="U488" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="V488" s="4">
+        <v>0</v>
+      </c>
+      <c r="W488" s="4">
+        <v>1</v>
+      </c>
+      <c r="X488" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y488" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z488" s="6" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="489" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C489" s="42"/>
-      <c r="D489" s="37"/>
-      <c r="F489" s="42"/>
-      <c r="G489" s="4"/>
-      <c r="K489" s="4"/>
-      <c r="L489" s="4"/>
-      <c r="M489" s="4"/>
-      <c r="N489" s="4"/>
-      <c r="O489" s="4"/>
-      <c r="P489" s="4"/>
-      <c r="Q489" s="4"/>
-      <c r="R489" s="4"/>
-      <c r="S489" s="4"/>
-      <c r="T489" s="4"/>
-      <c r="U489" s="4"/>
-      <c r="V489" s="4"/>
-      <c r="W489" s="4"/>
-      <c r="X489" s="19"/>
-      <c r="Y489" s="4"/>
+      <c r="C489" s="42">
+        <v>7204202</v>
+      </c>
+      <c r="D489" s="37" t="s">
+        <v>912</v>
+      </c>
+      <c r="E489" s="4">
+        <v>2</v>
+      </c>
+      <c r="F489" s="42">
+        <v>10080502</v>
+      </c>
+      <c r="G489" s="4">
+        <v>0</v>
+      </c>
+      <c r="H489" s="4">
+        <v>31</v>
+      </c>
+      <c r="I489" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J489" s="4">
+        <v>5</v>
+      </c>
+      <c r="K489" s="4">
+        <v>0</v>
+      </c>
+      <c r="L489" s="4">
+        <v>1</v>
+      </c>
+      <c r="M489" s="4">
+        <v>1</v>
+      </c>
+      <c r="N489" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O489" s="4">
+        <v>0</v>
+      </c>
+      <c r="P489" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q489" s="4">
+        <v>1</v>
+      </c>
+      <c r="R489" s="4">
+        <v>1</v>
+      </c>
+      <c r="S489" s="4">
+        <v>300</v>
+      </c>
+      <c r="T489" s="4">
+        <v>200</v>
+      </c>
+      <c r="U489" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="V489" s="4">
+        <v>0</v>
+      </c>
+      <c r="W489" s="4">
+        <v>1</v>
+      </c>
+      <c r="X489" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y489" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z489" s="6" t="s">
+        <v>907</v>
+      </c>
     </row>
     <row r="490" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C490" s="42"/>
-      <c r="D490" s="37"/>
-      <c r="F490" s="42"/>
-      <c r="G490" s="4"/>
-      <c r="K490" s="4"/>
-      <c r="L490" s="4"/>
-      <c r="M490" s="4"/>
-      <c r="N490" s="4"/>
-      <c r="O490" s="4"/>
-      <c r="P490" s="4"/>
-      <c r="Q490" s="4"/>
-      <c r="R490" s="4"/>
-      <c r="S490" s="4"/>
-      <c r="T490" s="4"/>
-      <c r="U490" s="4"/>
-      <c r="V490" s="4"/>
-      <c r="W490" s="4"/>
-      <c r="X490" s="19"/>
-      <c r="Y490" s="4"/>
+      <c r="C490" s="42">
+        <v>7204203</v>
+      </c>
+      <c r="D490" s="37" t="s">
+        <v>913</v>
+      </c>
+      <c r="E490" s="4">
+        <v>2</v>
+      </c>
+      <c r="F490" s="42">
+        <v>10080503</v>
+      </c>
+      <c r="G490" s="4">
+        <v>0</v>
+      </c>
+      <c r="H490" s="4">
+        <v>51</v>
+      </c>
+      <c r="I490" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J490" s="4">
+        <v>5</v>
+      </c>
+      <c r="K490" s="4">
+        <v>0</v>
+      </c>
+      <c r="L490" s="4">
+        <v>1</v>
+      </c>
+      <c r="M490" s="4">
+        <v>1</v>
+      </c>
+      <c r="N490" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O490" s="4">
+        <v>0</v>
+      </c>
+      <c r="P490" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q490" s="4">
+        <v>1</v>
+      </c>
+      <c r="R490" s="4">
+        <v>1</v>
+      </c>
+      <c r="S490" s="4">
+        <v>450</v>
+      </c>
+      <c r="T490" s="4">
+        <v>200</v>
+      </c>
+      <c r="U490" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="V490" s="4">
+        <v>0</v>
+      </c>
+      <c r="W490" s="4">
+        <v>1</v>
+      </c>
+      <c r="X490" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y490" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z490" s="6" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="491" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C491" s="42"/>
-      <c r="D491" s="37"/>
-      <c r="F491" s="42"/>
-      <c r="G491" s="4"/>
-      <c r="K491" s="4"/>
-      <c r="L491" s="4"/>
-      <c r="M491" s="4"/>
-      <c r="N491" s="4"/>
-      <c r="O491" s="4"/>
-      <c r="P491" s="4"/>
-      <c r="Q491" s="4"/>
-      <c r="R491" s="4"/>
-      <c r="S491" s="4"/>
-      <c r="T491" s="4"/>
-      <c r="U491" s="4"/>
-      <c r="V491" s="4"/>
-      <c r="W491" s="4"/>
-      <c r="X491" s="19"/>
-      <c r="Y491" s="4"/>
+      <c r="C491" s="42">
+        <v>7204301</v>
+      </c>
+      <c r="D491" s="37" t="s">
+        <v>914</v>
+      </c>
+      <c r="E491" s="4">
+        <v>2</v>
+      </c>
+      <c r="F491" s="42">
+        <v>10080601</v>
+      </c>
+      <c r="G491" s="4">
+        <v>0</v>
+      </c>
+      <c r="H491" s="4">
+        <v>12</v>
+      </c>
+      <c r="I491" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J491" s="4">
+        <v>5</v>
+      </c>
+      <c r="K491" s="4">
+        <v>0</v>
+      </c>
+      <c r="L491" s="4">
+        <v>1</v>
+      </c>
+      <c r="M491" s="4">
+        <v>1</v>
+      </c>
+      <c r="N491" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O491" s="4">
+        <v>0</v>
+      </c>
+      <c r="P491" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q491" s="4">
+        <v>1</v>
+      </c>
+      <c r="R491" s="4">
+        <v>1</v>
+      </c>
+      <c r="S491" s="4">
+        <v>150</v>
+      </c>
+      <c r="T491" s="4">
+        <v>200</v>
+      </c>
+      <c r="U491" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="V491" s="4">
+        <v>0</v>
+      </c>
+      <c r="W491" s="4">
+        <v>1</v>
+      </c>
+      <c r="X491" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y491" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z491" s="6" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="492" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C492" s="42"/>
-      <c r="D492" s="37"/>
-      <c r="F492" s="42"/>
-      <c r="G492" s="4"/>
-      <c r="K492" s="4"/>
-      <c r="L492" s="4"/>
-      <c r="M492" s="4"/>
-      <c r="N492" s="4"/>
-      <c r="O492" s="4"/>
-      <c r="P492" s="4"/>
-      <c r="Q492" s="4"/>
-      <c r="R492" s="4"/>
-      <c r="S492" s="4"/>
-      <c r="T492" s="4"/>
-      <c r="U492" s="4"/>
-      <c r="V492" s="4"/>
-      <c r="W492" s="4"/>
-      <c r="X492" s="19"/>
-      <c r="Y492" s="4"/>
+      <c r="C492" s="42">
+        <v>7204302</v>
+      </c>
+      <c r="D492" s="37" t="s">
+        <v>915</v>
+      </c>
+      <c r="E492" s="4">
+        <v>2</v>
+      </c>
+      <c r="F492" s="42">
+        <v>10080602</v>
+      </c>
+      <c r="G492" s="4">
+        <v>0</v>
+      </c>
+      <c r="H492" s="4">
+        <v>32</v>
+      </c>
+      <c r="I492" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J492" s="4">
+        <v>5</v>
+      </c>
+      <c r="K492" s="4">
+        <v>0</v>
+      </c>
+      <c r="L492" s="4">
+        <v>1</v>
+      </c>
+      <c r="M492" s="4">
+        <v>1</v>
+      </c>
+      <c r="N492" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O492" s="4">
+        <v>0</v>
+      </c>
+      <c r="P492" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q492" s="4">
+        <v>1</v>
+      </c>
+      <c r="R492" s="4">
+        <v>1</v>
+      </c>
+      <c r="S492" s="4">
+        <v>300</v>
+      </c>
+      <c r="T492" s="4">
+        <v>200</v>
+      </c>
+      <c r="U492" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="V492" s="4">
+        <v>0</v>
+      </c>
+      <c r="W492" s="4">
+        <v>1</v>
+      </c>
+      <c r="X492" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y492" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z492" s="6" t="s">
+        <v>907</v>
+      </c>
     </row>
     <row r="493" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C493" s="42"/>
-      <c r="D493" s="37"/>
-      <c r="F493" s="42"/>
-      <c r="G493" s="4"/>
-      <c r="K493" s="4"/>
-      <c r="L493" s="4"/>
-      <c r="M493" s="4"/>
-      <c r="N493" s="4"/>
-      <c r="O493" s="4"/>
-      <c r="P493" s="4"/>
-      <c r="Q493" s="4"/>
-      <c r="R493" s="4"/>
-      <c r="S493" s="4"/>
-      <c r="T493" s="4"/>
-      <c r="U493" s="4"/>
-      <c r="V493" s="4"/>
-      <c r="W493" s="4"/>
-      <c r="X493" s="19"/>
-      <c r="Y493" s="4"/>
+      <c r="C493" s="42">
+        <v>7204303</v>
+      </c>
+      <c r="D493" s="37" t="s">
+        <v>916</v>
+      </c>
+      <c r="E493" s="4">
+        <v>2</v>
+      </c>
+      <c r="F493" s="42">
+        <v>10080603</v>
+      </c>
+      <c r="G493" s="4">
+        <v>0</v>
+      </c>
+      <c r="H493" s="4">
+        <v>52</v>
+      </c>
+      <c r="I493" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J493" s="4">
+        <v>5</v>
+      </c>
+      <c r="K493" s="4">
+        <v>0</v>
+      </c>
+      <c r="L493" s="4">
+        <v>1</v>
+      </c>
+      <c r="M493" s="4">
+        <v>1</v>
+      </c>
+      <c r="N493" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O493" s="4">
+        <v>0</v>
+      </c>
+      <c r="P493" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q493" s="4">
+        <v>1</v>
+      </c>
+      <c r="R493" s="4">
+        <v>1</v>
+      </c>
+      <c r="S493" s="4">
+        <v>450</v>
+      </c>
+      <c r="T493" s="4">
+        <v>200</v>
+      </c>
+      <c r="U493" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="V493" s="4">
+        <v>0</v>
+      </c>
+      <c r="W493" s="4">
+        <v>1</v>
+      </c>
+      <c r="X493" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y493" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z493" s="6" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="494" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C494" s="42"/>
-      <c r="D494" s="37"/>
-      <c r="F494" s="42"/>
-      <c r="G494" s="4"/>
-      <c r="K494" s="4"/>
-      <c r="L494" s="4"/>
-      <c r="M494" s="4"/>
-      <c r="N494" s="4"/>
-      <c r="O494" s="4"/>
-      <c r="P494" s="4"/>
-      <c r="Q494" s="4"/>
-      <c r="R494" s="4"/>
-      <c r="S494" s="4"/>
-      <c r="T494" s="4"/>
-      <c r="U494" s="4"/>
-      <c r="V494" s="4"/>
-      <c r="W494" s="4"/>
-      <c r="X494" s="19"/>
-      <c r="Y494" s="4"/>
+      <c r="C494" s="42">
+        <v>7204401</v>
+      </c>
+      <c r="D494" s="37" t="s">
+        <v>917</v>
+      </c>
+      <c r="E494" s="4">
+        <v>2</v>
+      </c>
+      <c r="F494" s="42">
+        <v>10080701</v>
+      </c>
+      <c r="G494" s="4">
+        <v>0</v>
+      </c>
+      <c r="H494" s="4">
+        <v>13</v>
+      </c>
+      <c r="I494" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J494" s="4">
+        <v>5</v>
+      </c>
+      <c r="K494" s="4">
+        <v>0</v>
+      </c>
+      <c r="L494" s="4">
+        <v>1</v>
+      </c>
+      <c r="M494" s="4">
+        <v>1</v>
+      </c>
+      <c r="N494" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O494" s="4">
+        <v>0</v>
+      </c>
+      <c r="P494" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q494" s="4">
+        <v>1</v>
+      </c>
+      <c r="R494" s="4">
+        <v>1</v>
+      </c>
+      <c r="S494" s="4">
+        <v>150</v>
+      </c>
+      <c r="T494" s="4">
+        <v>200</v>
+      </c>
+      <c r="U494" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="V494" s="4">
+        <v>0</v>
+      </c>
+      <c r="W494" s="4">
+        <v>1</v>
+      </c>
+      <c r="X494" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y494" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z494" s="6" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="495" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C495" s="42">
-        <v>7301001</v>
+        <v>7204402</v>
       </c>
       <c r="D495" s="37" t="s">
-        <v>778</v>
+        <v>918</v>
       </c>
       <c r="E495" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F495" s="42">
-        <v>10090101</v>
+        <v>10080702</v>
       </c>
       <c r="G495" s="4">
         <v>0</v>
       </c>
       <c r="H495" s="4">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I495" s="4">
         <v>5000</v>
       </c>
       <c r="J495" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K495" s="4">
         <v>0</v>
@@ -40127,7 +40714,7 @@
         <v>0.02</v>
       </c>
       <c r="O495" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P495" s="4">
         <v>1</v>
@@ -40139,13 +40726,13 @@
         <v>1</v>
       </c>
       <c r="S495" s="4">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="T495" s="4">
         <v>200</v>
       </c>
       <c r="U495" s="4" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="V495" s="4">
         <v>0</v>
@@ -40160,33 +40747,33 @@
         <v>0</v>
       </c>
       <c r="Z495" s="6" t="s">
-        <v>779</v>
+        <v>907</v>
       </c>
     </row>
     <row r="496" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C496" s="42">
-        <v>7301002</v>
+        <v>7204403</v>
       </c>
       <c r="D496" s="37" t="s">
-        <v>780</v>
+        <v>919</v>
       </c>
       <c r="E496" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F496" s="42">
-        <v>10090102</v>
+        <v>10080703</v>
       </c>
       <c r="G496" s="4">
         <v>0</v>
       </c>
       <c r="H496" s="4">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="I496" s="4">
         <v>5000</v>
       </c>
       <c r="J496" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K496" s="4">
         <v>0</v>
@@ -40201,7 +40788,7 @@
         <v>0.02</v>
       </c>
       <c r="O496" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P496" s="4">
         <v>1</v>
@@ -40213,13 +40800,13 @@
         <v>1</v>
       </c>
       <c r="S496" s="4">
-        <v>175</v>
+        <v>450</v>
       </c>
       <c r="T496" s="4">
         <v>200</v>
       </c>
       <c r="U496" s="4" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="V496" s="4">
         <v>0</v>
@@ -40234,33 +40821,33 @@
         <v>0</v>
       </c>
       <c r="Z496" s="6" t="s">
-        <v>779</v>
+        <v>908</v>
       </c>
     </row>
     <row r="497" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C497" s="42">
-        <v>7302001</v>
+        <v>7204501</v>
       </c>
       <c r="D497" s="37" t="s">
-        <v>781</v>
+        <v>920</v>
       </c>
       <c r="E497" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F497" s="42">
-        <v>10090201</v>
+        <v>10080801</v>
       </c>
       <c r="G497" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H497" s="4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I497" s="4">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="J497" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K497" s="4">
         <v>0</v>
@@ -40275,7 +40862,7 @@
         <v>0.02</v>
       </c>
       <c r="O497" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P497" s="4">
         <v>1</v>
@@ -40287,13 +40874,13 @@
         <v>1</v>
       </c>
       <c r="S497" s="4">
-        <v>275</v>
+        <v>150</v>
       </c>
       <c r="T497" s="4">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="U497" s="4" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="V497" s="4">
         <v>0</v>
@@ -40308,33 +40895,33 @@
         <v>0</v>
       </c>
       <c r="Z497" s="6" t="s">
-        <v>782</v>
+        <v>906</v>
       </c>
     </row>
     <row r="498" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C498" s="42">
-        <v>7302002</v>
+        <v>7204502</v>
       </c>
       <c r="D498" s="37" t="s">
-        <v>783</v>
+        <v>921</v>
       </c>
       <c r="E498" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F498" s="42">
-        <v>10090202</v>
+        <v>10080802</v>
       </c>
       <c r="G498" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H498" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I498" s="4">
-        <v>12500</v>
+        <v>5000</v>
       </c>
       <c r="J498" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K498" s="4">
         <v>0</v>
@@ -40349,7 +40936,7 @@
         <v>0.02</v>
       </c>
       <c r="O498" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P498" s="4">
         <v>1</v>
@@ -40364,10 +40951,10 @@
         <v>300</v>
       </c>
       <c r="T498" s="4">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="U498" s="4" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="V498" s="4">
         <v>0</v>
@@ -40382,33 +40969,33 @@
         <v>0</v>
       </c>
       <c r="Z498" s="6" t="s">
-        <v>782</v>
+        <v>907</v>
       </c>
     </row>
     <row r="499" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C499" s="42">
-        <v>7303001</v>
+        <v>7204503</v>
       </c>
       <c r="D499" s="37" t="s">
-        <v>784</v>
+        <v>922</v>
       </c>
       <c r="E499" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F499" s="42">
-        <v>10090301</v>
+        <v>10080803</v>
       </c>
       <c r="G499" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H499" s="4">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I499" s="4">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="J499" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K499" s="4">
         <v>0</v>
@@ -40423,7 +41010,7 @@
         <v>0.02</v>
       </c>
       <c r="O499" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P499" s="4">
         <v>1</v>
@@ -40435,13 +41022,13 @@
         <v>1</v>
       </c>
       <c r="S499" s="4">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="T499" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="U499" s="4" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="V499" s="4">
         <v>0</v>
@@ -40456,30 +41043,30 @@
         <v>0</v>
       </c>
       <c r="Z499" s="6" t="s">
-        <v>785</v>
+        <v>908</v>
       </c>
     </row>
     <row r="500" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C500" s="42">
-        <v>7303002</v>
+        <v>7301001</v>
       </c>
       <c r="D500" s="37" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="E500" s="4">
         <v>3</v>
       </c>
       <c r="F500" s="42">
-        <v>10090302</v>
+        <v>10090101</v>
       </c>
       <c r="G500" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H500" s="4">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I500" s="4">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="J500" s="4">
         <v>20</v>
@@ -40509,10 +41096,10 @@
         <v>1</v>
       </c>
       <c r="S500" s="4">
-        <v>425</v>
+        <v>150</v>
       </c>
       <c r="T500" s="4">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="U500" s="4" t="s">
         <v>185</v>
@@ -40530,329 +41117,329 @@
         <v>0</v>
       </c>
       <c r="Z500" s="6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="501" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C501" s="42">
+        <v>7301002</v>
+      </c>
+      <c r="D501" s="37" t="s">
+        <v>780</v>
+      </c>
+      <c r="E501" s="4">
+        <v>3</v>
+      </c>
+      <c r="F501" s="42">
+        <v>10090102</v>
+      </c>
+      <c r="G501" s="4">
+        <v>0</v>
+      </c>
+      <c r="H501" s="4">
+        <v>15</v>
+      </c>
+      <c r="I501" s="4">
+        <v>5000</v>
+      </c>
+      <c r="J501" s="4">
+        <v>20</v>
+      </c>
+      <c r="K501" s="4">
+        <v>0</v>
+      </c>
+      <c r="L501" s="4">
+        <v>1</v>
+      </c>
+      <c r="M501" s="4">
+        <v>1</v>
+      </c>
+      <c r="N501" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O501" s="4">
+        <v>1</v>
+      </c>
+      <c r="P501" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q501" s="4">
+        <v>1</v>
+      </c>
+      <c r="R501" s="4">
+        <v>1</v>
+      </c>
+      <c r="S501" s="4">
+        <v>175</v>
+      </c>
+      <c r="T501" s="4">
+        <v>200</v>
+      </c>
+      <c r="U501" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="V501" s="4">
+        <v>0</v>
+      </c>
+      <c r="W501" s="4">
+        <v>1</v>
+      </c>
+      <c r="X501" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y501" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z501" s="6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="502" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C502" s="42">
+        <v>7302001</v>
+      </c>
+      <c r="D502" s="37" t="s">
+        <v>781</v>
+      </c>
+      <c r="E502" s="4">
+        <v>3</v>
+      </c>
+      <c r="F502" s="42">
+        <v>10090201</v>
+      </c>
+      <c r="G502" s="4">
+        <v>1</v>
+      </c>
+      <c r="H502" s="4">
+        <v>30</v>
+      </c>
+      <c r="I502" s="4">
+        <v>12500</v>
+      </c>
+      <c r="J502" s="4">
+        <v>20</v>
+      </c>
+      <c r="K502" s="4">
+        <v>0</v>
+      </c>
+      <c r="L502" s="4">
+        <v>1</v>
+      </c>
+      <c r="M502" s="4">
+        <v>1</v>
+      </c>
+      <c r="N502" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O502" s="4">
+        <v>1</v>
+      </c>
+      <c r="P502" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q502" s="4">
+        <v>1</v>
+      </c>
+      <c r="R502" s="4">
+        <v>1</v>
+      </c>
+      <c r="S502" s="4">
+        <v>275</v>
+      </c>
+      <c r="T502" s="4">
+        <v>350</v>
+      </c>
+      <c r="U502" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="V502" s="4">
+        <v>0</v>
+      </c>
+      <c r="W502" s="4">
+        <v>1</v>
+      </c>
+      <c r="X502" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y502" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z502" s="6" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="503" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C503" s="42">
+        <v>7302002</v>
+      </c>
+      <c r="D503" s="37" t="s">
+        <v>783</v>
+      </c>
+      <c r="E503" s="4">
+        <v>3</v>
+      </c>
+      <c r="F503" s="42">
+        <v>10090202</v>
+      </c>
+      <c r="G503" s="4">
+        <v>1</v>
+      </c>
+      <c r="H503" s="4">
+        <v>30</v>
+      </c>
+      <c r="I503" s="4">
+        <v>12500</v>
+      </c>
+      <c r="J503" s="4">
+        <v>20</v>
+      </c>
+      <c r="K503" s="4">
+        <v>0</v>
+      </c>
+      <c r="L503" s="4">
+        <v>1</v>
+      </c>
+      <c r="M503" s="4">
+        <v>1</v>
+      </c>
+      <c r="N503" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O503" s="4">
+        <v>1</v>
+      </c>
+      <c r="P503" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q503" s="4">
+        <v>1</v>
+      </c>
+      <c r="R503" s="4">
+        <v>1</v>
+      </c>
+      <c r="S503" s="4">
+        <v>300</v>
+      </c>
+      <c r="T503" s="4">
+        <v>350</v>
+      </c>
+      <c r="U503" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="V503" s="4">
+        <v>0</v>
+      </c>
+      <c r="W503" s="4">
+        <v>1</v>
+      </c>
+      <c r="X503" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y503" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z503" s="6" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="504" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C504" s="42">
+        <v>7303001</v>
+      </c>
+      <c r="D504" s="37" t="s">
+        <v>784</v>
+      </c>
+      <c r="E504" s="4">
+        <v>3</v>
+      </c>
+      <c r="F504" s="42">
+        <v>10090301</v>
+      </c>
+      <c r="G504" s="4">
+        <v>1</v>
+      </c>
+      <c r="H504" s="4">
+        <v>50</v>
+      </c>
+      <c r="I504" s="4">
+        <v>20000</v>
+      </c>
+      <c r="J504" s="4">
+        <v>20</v>
+      </c>
+      <c r="K504" s="4">
+        <v>0</v>
+      </c>
+      <c r="L504" s="4">
+        <v>1</v>
+      </c>
+      <c r="M504" s="4">
+        <v>1</v>
+      </c>
+      <c r="N504" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="O504" s="4">
+        <v>1</v>
+      </c>
+      <c r="P504" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q504" s="4">
+        <v>1</v>
+      </c>
+      <c r="R504" s="4">
+        <v>1</v>
+      </c>
+      <c r="S504" s="4">
+        <v>400</v>
+      </c>
+      <c r="T504" s="4">
+        <v>500</v>
+      </c>
+      <c r="U504" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="V504" s="4">
+        <v>0</v>
+      </c>
+      <c r="W504" s="4">
+        <v>1</v>
+      </c>
+      <c r="X504" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y504" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z504" s="6" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="501" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C501" s="4">
-        <v>8000001</v>
-      </c>
-      <c r="D501" s="37" t="s">
-        <v>819</v>
-      </c>
-      <c r="E501" s="4">
-        <v>8</v>
-      </c>
-      <c r="F501" s="37">
-        <v>10036001</v>
-      </c>
-      <c r="G501" s="4">
-        <v>0</v>
-      </c>
-      <c r="H501" s="4">
-        <v>1</v>
-      </c>
-      <c r="I501" s="4">
-        <v>0</v>
-      </c>
-      <c r="J501" s="4">
-        <v>0</v>
-      </c>
-      <c r="K501" s="4">
-        <v>0</v>
-      </c>
-      <c r="L501" s="4">
-        <v>1</v>
-      </c>
-      <c r="M501" s="4">
-        <v>1</v>
-      </c>
-      <c r="N501" s="4">
-        <v>0</v>
-      </c>
-      <c r="O501" s="4">
-        <v>1</v>
-      </c>
-      <c r="P501" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q501" s="4">
-        <v>1</v>
-      </c>
-      <c r="R501" s="4">
-        <v>1</v>
-      </c>
-      <c r="S501" s="4">
-        <v>0</v>
-      </c>
-      <c r="T501" s="4">
-        <v>0</v>
-      </c>
-      <c r="U501" s="4">
-        <v>0</v>
-      </c>
-      <c r="V501" s="4">
-        <v>0</v>
-      </c>
-      <c r="W501" s="4">
-        <v>0</v>
-      </c>
-      <c r="X501" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y501" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z501" s="46" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="502" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C502" s="4">
-        <v>8000002</v>
-      </c>
-      <c r="D502" s="37" t="s">
-        <v>820</v>
-      </c>
-      <c r="E502" s="4">
-        <v>8</v>
-      </c>
-      <c r="F502" s="37">
-        <v>10036002</v>
-      </c>
-      <c r="G502" s="4">
-        <v>0</v>
-      </c>
-      <c r="H502" s="4">
-        <v>2</v>
-      </c>
-      <c r="I502" s="4">
-        <v>0</v>
-      </c>
-      <c r="J502" s="4">
-        <v>0</v>
-      </c>
-      <c r="K502" s="4">
-        <v>0</v>
-      </c>
-      <c r="L502" s="4">
-        <v>1</v>
-      </c>
-      <c r="M502" s="4">
-        <v>1</v>
-      </c>
-      <c r="N502" s="4">
-        <v>0</v>
-      </c>
-      <c r="O502" s="4">
-        <v>1</v>
-      </c>
-      <c r="P502" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q502" s="4">
-        <v>1</v>
-      </c>
-      <c r="R502" s="4">
-        <v>1</v>
-      </c>
-      <c r="S502" s="4">
-        <v>0</v>
-      </c>
-      <c r="T502" s="4">
-        <v>0</v>
-      </c>
-      <c r="U502" s="4">
-        <v>0</v>
-      </c>
-      <c r="V502" s="4">
-        <v>0</v>
-      </c>
-      <c r="W502" s="4">
-        <v>0</v>
-      </c>
-      <c r="X502" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y502" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z502" s="46" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="503" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C503" s="4">
-        <v>8000003</v>
-      </c>
-      <c r="D503" s="37" t="s">
-        <v>821</v>
-      </c>
-      <c r="E503" s="4">
-        <v>8</v>
-      </c>
-      <c r="F503" s="37">
-        <v>10036003</v>
-      </c>
-      <c r="G503" s="4">
-        <v>0</v>
-      </c>
-      <c r="H503" s="4">
-        <v>2</v>
-      </c>
-      <c r="I503" s="4">
-        <v>0</v>
-      </c>
-      <c r="J503" s="4">
-        <v>0</v>
-      </c>
-      <c r="K503" s="4">
-        <v>0</v>
-      </c>
-      <c r="L503" s="4">
-        <v>1</v>
-      </c>
-      <c r="M503" s="4">
-        <v>1</v>
-      </c>
-      <c r="N503" s="4">
-        <v>0</v>
-      </c>
-      <c r="O503" s="4">
-        <v>1</v>
-      </c>
-      <c r="P503" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q503" s="4">
-        <v>1</v>
-      </c>
-      <c r="R503" s="4">
-        <v>1</v>
-      </c>
-      <c r="S503" s="4">
-        <v>0</v>
-      </c>
-      <c r="T503" s="4">
-        <v>0</v>
-      </c>
-      <c r="U503" s="4">
-        <v>0</v>
-      </c>
-      <c r="V503" s="4">
-        <v>0</v>
-      </c>
-      <c r="W503" s="4">
-        <v>0</v>
-      </c>
-      <c r="X503" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y503" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z503" s="46" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="504" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C504" s="4">
-        <v>8000004</v>
-      </c>
-      <c r="D504" s="37" t="s">
-        <v>822</v>
-      </c>
-      <c r="E504" s="4">
-        <v>8</v>
-      </c>
-      <c r="F504" s="37">
-        <v>10036004</v>
-      </c>
-      <c r="G504" s="4">
-        <v>0</v>
-      </c>
-      <c r="H504" s="4">
-        <v>2</v>
-      </c>
-      <c r="I504" s="4">
-        <v>0</v>
-      </c>
-      <c r="J504" s="4">
-        <v>0</v>
-      </c>
-      <c r="K504" s="4">
-        <v>0</v>
-      </c>
-      <c r="L504" s="4">
-        <v>1</v>
-      </c>
-      <c r="M504" s="4">
-        <v>1</v>
-      </c>
-      <c r="N504" s="4">
-        <v>0</v>
-      </c>
-      <c r="O504" s="4">
-        <v>1</v>
-      </c>
-      <c r="P504" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q504" s="4">
-        <v>1</v>
-      </c>
-      <c r="R504" s="4">
-        <v>1</v>
-      </c>
-      <c r="S504" s="4">
-        <v>0</v>
-      </c>
-      <c r="T504" s="4">
-        <v>0</v>
-      </c>
-      <c r="U504" s="4">
-        <v>0</v>
-      </c>
-      <c r="V504" s="4">
-        <v>0</v>
-      </c>
-      <c r="W504" s="4">
-        <v>0</v>
-      </c>
-      <c r="X504" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y504" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z504" s="46" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="505" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C505" s="4">
-        <v>8000005</v>
+    <row r="505" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C505" s="42">
+        <v>7303002</v>
       </c>
       <c r="D505" s="37" t="s">
-        <v>823</v>
+        <v>786</v>
       </c>
       <c r="E505" s="4">
-        <v>8</v>
-      </c>
-      <c r="F505" s="37">
-        <v>10036005</v>
+        <v>3</v>
+      </c>
+      <c r="F505" s="42">
+        <v>10090302</v>
       </c>
       <c r="G505" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H505" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I505" s="4">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="J505" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K505" s="4">
         <v>0</v>
@@ -40864,7 +41451,7 @@
         <v>1</v>
       </c>
       <c r="N505" s="4">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O505" s="4">
         <v>1</v>
@@ -40879,48 +41466,48 @@
         <v>1</v>
       </c>
       <c r="S505" s="4">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="T505" s="4">
-        <v>0</v>
-      </c>
-      <c r="U505" s="4">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="U505" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="V505" s="4">
         <v>0</v>
       </c>
       <c r="W505" s="4">
-        <v>0</v>
-      </c>
-      <c r="X505" s="4">
+        <v>1</v>
+      </c>
+      <c r="X505" s="19">
         <v>0</v>
       </c>
       <c r="Y505" s="4">
         <v>0</v>
       </c>
-      <c r="Z505" s="46" t="s">
-        <v>858</v>
+      <c r="Z505" s="6" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="506" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C506" s="4">
-        <v>8000006</v>
+        <v>8000001</v>
       </c>
       <c r="D506" s="37" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="E506" s="4">
         <v>8</v>
       </c>
       <c r="F506" s="37">
-        <v>10036006</v>
+        <v>10036001</v>
       </c>
       <c r="G506" s="4">
         <v>0</v>
       </c>
       <c r="H506" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I506" s="4">
         <v>0</v>
@@ -40974,27 +41561,27 @@
         <v>0</v>
       </c>
       <c r="Z506" s="46" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="507" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C507" s="4">
-        <v>8000007</v>
+        <v>8000002</v>
       </c>
       <c r="D507" s="37" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="E507" s="4">
         <v>8</v>
       </c>
       <c r="F507" s="37">
-        <v>10036007</v>
+        <v>10036002</v>
       </c>
       <c r="G507" s="4">
         <v>0</v>
       </c>
       <c r="H507" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I507" s="4">
         <v>0</v>
@@ -41048,27 +41635,27 @@
         <v>0</v>
       </c>
       <c r="Z507" s="46" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="508" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C508" s="4">
-        <v>8000008</v>
+        <v>8000003</v>
       </c>
       <c r="D508" s="37" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E508" s="4">
         <v>8</v>
       </c>
       <c r="F508" s="37">
-        <v>10036008</v>
+        <v>10036003</v>
       </c>
       <c r="G508" s="4">
         <v>0</v>
       </c>
       <c r="H508" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I508" s="4">
         <v>0</v>
@@ -41122,27 +41709,27 @@
         <v>0</v>
       </c>
       <c r="Z508" s="46" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="509" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C509" s="4">
-        <v>8000009</v>
+        <v>8000004</v>
       </c>
       <c r="D509" s="37" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E509" s="4">
         <v>8</v>
       </c>
       <c r="F509" s="37">
-        <v>10036009</v>
+        <v>10036004</v>
       </c>
       <c r="G509" s="4">
         <v>0</v>
       </c>
       <c r="H509" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I509" s="4">
         <v>0</v>
@@ -41196,27 +41783,27 @@
         <v>0</v>
       </c>
       <c r="Z509" s="46" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="510" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C510" s="4">
-        <v>8000010</v>
+        <v>8000005</v>
       </c>
       <c r="D510" s="37" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E510" s="4">
         <v>8</v>
       </c>
       <c r="F510" s="37">
-        <v>10036010</v>
+        <v>10036005</v>
       </c>
       <c r="G510" s="4">
         <v>0</v>
       </c>
       <c r="H510" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I510" s="4">
         <v>0</v>
@@ -41270,27 +41857,27 @@
         <v>0</v>
       </c>
       <c r="Z510" s="46" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="511" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C511" s="4">
-        <v>8000011</v>
+        <v>8000006</v>
       </c>
       <c r="D511" s="37" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="E511" s="4">
         <v>8</v>
       </c>
       <c r="F511" s="37">
-        <v>10036011</v>
+        <v>10036006</v>
       </c>
       <c r="G511" s="4">
         <v>0</v>
       </c>
       <c r="H511" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I511" s="4">
         <v>0</v>
@@ -41344,27 +41931,27 @@
         <v>0</v>
       </c>
       <c r="Z511" s="46" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="512" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C512" s="4">
-        <v>8000012</v>
+        <v>8000007</v>
       </c>
       <c r="D512" s="37" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="E512" s="4">
         <v>8</v>
       </c>
       <c r="F512" s="37">
-        <v>10036012</v>
+        <v>10036007</v>
       </c>
       <c r="G512" s="4">
         <v>0</v>
       </c>
       <c r="H512" s="4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I512" s="4">
         <v>0</v>
@@ -41418,27 +42005,27 @@
         <v>0</v>
       </c>
       <c r="Z512" s="46" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="513" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C513" s="4">
-        <v>8000013</v>
+        <v>8000008</v>
       </c>
       <c r="D513" s="37" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="E513" s="4">
         <v>8</v>
       </c>
       <c r="F513" s="37">
-        <v>10036013</v>
+        <v>10036008</v>
       </c>
       <c r="G513" s="4">
         <v>0</v>
       </c>
       <c r="H513" s="4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I513" s="4">
         <v>0</v>
@@ -41492,27 +42079,27 @@
         <v>0</v>
       </c>
       <c r="Z513" s="46" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="514" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C514" s="4">
-        <v>8000014</v>
+        <v>8000009</v>
       </c>
       <c r="D514" s="37" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E514" s="4">
         <v>8</v>
       </c>
       <c r="F514" s="37">
-        <v>10036014</v>
+        <v>10036009</v>
       </c>
       <c r="G514" s="4">
         <v>0</v>
       </c>
       <c r="H514" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I514" s="4">
         <v>0</v>
@@ -41566,27 +42153,27 @@
         <v>0</v>
       </c>
       <c r="Z514" s="46" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
     </row>
     <row r="515" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C515" s="4">
-        <v>8000015</v>
+        <v>8000010</v>
       </c>
       <c r="D515" s="37" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="E515" s="4">
         <v>8</v>
       </c>
       <c r="F515" s="37">
-        <v>10036015</v>
+        <v>10036010</v>
       </c>
       <c r="G515" s="4">
         <v>0</v>
       </c>
       <c r="H515" s="4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I515" s="4">
         <v>0</v>
@@ -41640,27 +42227,27 @@
         <v>0</v>
       </c>
       <c r="Z515" s="46" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="516" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C516" s="4">
-        <v>8000016</v>
+        <v>8000011</v>
       </c>
       <c r="D516" s="37" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E516" s="4">
         <v>8</v>
       </c>
       <c r="F516" s="37">
-        <v>10036016</v>
+        <v>10036011</v>
       </c>
       <c r="G516" s="4">
         <v>0</v>
       </c>
       <c r="H516" s="4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I516" s="4">
         <v>0</v>
@@ -41714,27 +42301,27 @@
         <v>0</v>
       </c>
       <c r="Z516" s="46" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="517" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C517" s="4">
-        <v>8000017</v>
+        <v>8000012</v>
       </c>
       <c r="D517" s="37" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="E517" s="4">
         <v>8</v>
       </c>
       <c r="F517" s="37">
-        <v>10036017</v>
+        <v>10036012</v>
       </c>
       <c r="G517" s="4">
         <v>0</v>
       </c>
       <c r="H517" s="4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I517" s="4">
         <v>0</v>
@@ -41788,27 +42375,27 @@
         <v>0</v>
       </c>
       <c r="Z517" s="46" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="518" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C518" s="4">
-        <v>8000018</v>
+        <v>8000013</v>
       </c>
       <c r="D518" s="37" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E518" s="4">
         <v>8</v>
       </c>
       <c r="F518" s="37">
-        <v>10036018</v>
+        <v>10036013</v>
       </c>
       <c r="G518" s="4">
         <v>0</v>
       </c>
       <c r="H518" s="4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I518" s="4">
         <v>0</v>
@@ -41862,27 +42449,27 @@
         <v>0</v>
       </c>
       <c r="Z518" s="46" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="519" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C519" s="4">
-        <v>8000019</v>
+        <v>8000014</v>
       </c>
       <c r="D519" s="37" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E519" s="4">
         <v>8</v>
       </c>
       <c r="F519" s="37">
-        <v>10036019</v>
+        <v>10036014</v>
       </c>
       <c r="G519" s="4">
         <v>0</v>
       </c>
       <c r="H519" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I519" s="4">
         <v>0</v>
@@ -41936,27 +42523,27 @@
         <v>0</v>
       </c>
       <c r="Z519" s="46" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="520" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C520" s="4">
-        <v>8000020</v>
+        <v>8000015</v>
       </c>
       <c r="D520" s="37" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="E520" s="4">
         <v>8</v>
       </c>
       <c r="F520" s="37">
-        <v>10036020</v>
+        <v>10036015</v>
       </c>
       <c r="G520" s="4">
         <v>0</v>
       </c>
       <c r="H520" s="4">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I520" s="4">
         <v>0</v>
@@ -42010,27 +42597,27 @@
         <v>0</v>
       </c>
       <c r="Z520" s="46" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="521" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C521" s="4">
-        <v>8000021</v>
+        <v>8000016</v>
       </c>
       <c r="D521" s="37" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="E521" s="4">
         <v>8</v>
       </c>
       <c r="F521" s="37">
-        <v>10036021</v>
+        <v>10036016</v>
       </c>
       <c r="G521" s="4">
         <v>0</v>
       </c>
       <c r="H521" s="4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I521" s="4">
         <v>0</v>
@@ -42084,27 +42671,27 @@
         <v>0</v>
       </c>
       <c r="Z521" s="46" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="522" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C522" s="4">
-        <v>8000022</v>
+        <v>8000017</v>
       </c>
       <c r="D522" s="37" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E522" s="4">
         <v>8</v>
       </c>
       <c r="F522" s="37">
-        <v>10036022</v>
+        <v>10036017</v>
       </c>
       <c r="G522" s="4">
         <v>0</v>
       </c>
       <c r="H522" s="4">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I522" s="4">
         <v>0</v>
@@ -42158,27 +42745,27 @@
         <v>0</v>
       </c>
       <c r="Z522" s="46" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
     </row>
     <row r="523" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C523" s="4">
-        <v>8000023</v>
+        <v>8000018</v>
       </c>
       <c r="D523" s="37" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E523" s="4">
         <v>8</v>
       </c>
       <c r="F523" s="37">
-        <v>10036023</v>
+        <v>10036018</v>
       </c>
       <c r="G523" s="4">
         <v>0</v>
       </c>
       <c r="H523" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I523" s="4">
         <v>0</v>
@@ -42232,27 +42819,27 @@
         <v>0</v>
       </c>
       <c r="Z523" s="46" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="524" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C524" s="4">
-        <v>8000024</v>
+        <v>8000019</v>
       </c>
       <c r="D524" s="37" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E524" s="4">
         <v>8</v>
       </c>
       <c r="F524" s="37">
-        <v>10036024</v>
+        <v>10036019</v>
       </c>
       <c r="G524" s="4">
         <v>0</v>
       </c>
       <c r="H524" s="4">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I524" s="4">
         <v>0</v>
@@ -42306,27 +42893,27 @@
         <v>0</v>
       </c>
       <c r="Z524" s="46" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="525" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C525" s="4">
-        <v>8000025</v>
+        <v>8000020</v>
       </c>
       <c r="D525" s="37" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="E525" s="4">
         <v>8</v>
       </c>
       <c r="F525" s="37">
-        <v>10036025</v>
+        <v>10036020</v>
       </c>
       <c r="G525" s="4">
         <v>0</v>
       </c>
       <c r="H525" s="4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I525" s="4">
         <v>0</v>
@@ -42380,27 +42967,27 @@
         <v>0</v>
       </c>
       <c r="Z525" s="46" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="526" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C526" s="4">
-        <v>8000026</v>
+        <v>8000021</v>
       </c>
       <c r="D526" s="37" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="E526" s="4">
         <v>8</v>
       </c>
       <c r="F526" s="37">
-        <v>10036026</v>
+        <v>10036021</v>
       </c>
       <c r="G526" s="4">
         <v>0</v>
       </c>
       <c r="H526" s="4">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I526" s="4">
         <v>0</v>
@@ -42454,27 +43041,27 @@
         <v>0</v>
       </c>
       <c r="Z526" s="46" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="527" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C527" s="4">
-        <v>8000027</v>
+        <v>8000022</v>
       </c>
       <c r="D527" s="37" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="E527" s="4">
         <v>8</v>
       </c>
       <c r="F527" s="37">
-        <v>10036027</v>
+        <v>10036022</v>
       </c>
       <c r="G527" s="4">
         <v>0</v>
       </c>
       <c r="H527" s="4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I527" s="4">
         <v>0</v>
@@ -42528,27 +43115,27 @@
         <v>0</v>
       </c>
       <c r="Z527" s="46" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="528" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C528" s="4">
-        <v>8000028</v>
+        <v>8000023</v>
       </c>
       <c r="D528" s="37" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="E528" s="4">
         <v>8</v>
       </c>
       <c r="F528" s="37">
-        <v>10036028</v>
+        <v>10036023</v>
       </c>
       <c r="G528" s="4">
         <v>0</v>
       </c>
       <c r="H528" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I528" s="4">
         <v>0</v>
@@ -42602,27 +43189,27 @@
         <v>0</v>
       </c>
       <c r="Z528" s="46" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="529" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C529" s="4">
-        <v>8000029</v>
+        <v>8000024</v>
       </c>
       <c r="D529" s="37" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="E529" s="4">
         <v>8</v>
       </c>
       <c r="F529" s="37">
-        <v>10036029</v>
+        <v>10036024</v>
       </c>
       <c r="G529" s="4">
         <v>0</v>
       </c>
       <c r="H529" s="4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I529" s="4">
         <v>0</v>
@@ -42676,27 +43263,27 @@
         <v>0</v>
       </c>
       <c r="Z529" s="46" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="530" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C530" s="4">
-        <v>8000030</v>
+        <v>8000025</v>
       </c>
       <c r="D530" s="37" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="E530" s="4">
         <v>8</v>
       </c>
       <c r="F530" s="37">
-        <v>10036030</v>
+        <v>10036025</v>
       </c>
       <c r="G530" s="4">
         <v>0</v>
       </c>
       <c r="H530" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I530" s="4">
         <v>0</v>
@@ -42750,27 +43337,27 @@
         <v>0</v>
       </c>
       <c r="Z530" s="46" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="531" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C531" s="4">
-        <v>8000031</v>
+        <v>8000026</v>
       </c>
       <c r="D531" s="37" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="E531" s="4">
         <v>8</v>
       </c>
       <c r="F531" s="37">
-        <v>10036031</v>
+        <v>10036026</v>
       </c>
       <c r="G531" s="4">
         <v>0</v>
       </c>
       <c r="H531" s="4">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I531" s="4">
         <v>0</v>
@@ -42824,27 +43411,27 @@
         <v>0</v>
       </c>
       <c r="Z531" s="46" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="532" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C532" s="4">
-        <v>8000032</v>
+        <v>8000027</v>
       </c>
       <c r="D532" s="37" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E532" s="4">
         <v>8</v>
       </c>
       <c r="F532" s="37">
-        <v>10036032</v>
+        <v>10036027</v>
       </c>
       <c r="G532" s="4">
         <v>0</v>
       </c>
       <c r="H532" s="4">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I532" s="4">
         <v>0</v>
@@ -42898,27 +43485,27 @@
         <v>0</v>
       </c>
       <c r="Z532" s="46" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
     <row r="533" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C533" s="4">
-        <v>8000033</v>
+        <v>8000028</v>
       </c>
       <c r="D533" s="37" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E533" s="4">
         <v>8</v>
       </c>
       <c r="F533" s="37">
-        <v>10036033</v>
+        <v>10036028</v>
       </c>
       <c r="G533" s="4">
         <v>0</v>
       </c>
       <c r="H533" s="4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I533" s="4">
         <v>0</v>
@@ -42972,27 +43559,27 @@
         <v>0</v>
       </c>
       <c r="Z533" s="46" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="534" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C534" s="4">
-        <v>8000034</v>
+        <v>8000029</v>
       </c>
       <c r="D534" s="37" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="E534" s="4">
         <v>8</v>
       </c>
       <c r="F534" s="37">
-        <v>10036034</v>
+        <v>10036029</v>
       </c>
       <c r="G534" s="4">
         <v>0</v>
       </c>
       <c r="H534" s="4">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I534" s="4">
         <v>0</v>
@@ -43046,120 +43633,460 @@
         <v>0</v>
       </c>
       <c r="Z534" s="46" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="535" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C535" s="4">
-        <v>8000035</v>
+        <v>8000030</v>
       </c>
       <c r="D535" s="37" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="E535" s="4">
         <v>8</v>
       </c>
       <c r="F535" s="37">
+        <v>10036030</v>
+      </c>
+      <c r="G535" s="4">
+        <v>0</v>
+      </c>
+      <c r="H535" s="4">
+        <v>21</v>
+      </c>
+      <c r="I535" s="4">
+        <v>0</v>
+      </c>
+      <c r="J535" s="4">
+        <v>0</v>
+      </c>
+      <c r="K535" s="4">
+        <v>0</v>
+      </c>
+      <c r="L535" s="4">
+        <v>1</v>
+      </c>
+      <c r="M535" s="4">
+        <v>1</v>
+      </c>
+      <c r="N535" s="4">
+        <v>0</v>
+      </c>
+      <c r="O535" s="4">
+        <v>1</v>
+      </c>
+      <c r="P535" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q535" s="4">
+        <v>1</v>
+      </c>
+      <c r="R535" s="4">
+        <v>1</v>
+      </c>
+      <c r="S535" s="4">
+        <v>0</v>
+      </c>
+      <c r="T535" s="4">
+        <v>0</v>
+      </c>
+      <c r="U535" s="4">
+        <v>0</v>
+      </c>
+      <c r="V535" s="4">
+        <v>0</v>
+      </c>
+      <c r="W535" s="4">
+        <v>0</v>
+      </c>
+      <c r="X535" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y535" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z535" s="46" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="536" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C536" s="4">
+        <v>8000031</v>
+      </c>
+      <c r="D536" s="37" t="s">
+        <v>849</v>
+      </c>
+      <c r="E536" s="4">
+        <v>8</v>
+      </c>
+      <c r="F536" s="37">
+        <v>10036031</v>
+      </c>
+      <c r="G536" s="4">
+        <v>0</v>
+      </c>
+      <c r="H536" s="4">
+        <v>3</v>
+      </c>
+      <c r="I536" s="4">
+        <v>0</v>
+      </c>
+      <c r="J536" s="4">
+        <v>0</v>
+      </c>
+      <c r="K536" s="4">
+        <v>0</v>
+      </c>
+      <c r="L536" s="4">
+        <v>1</v>
+      </c>
+      <c r="M536" s="4">
+        <v>1</v>
+      </c>
+      <c r="N536" s="4">
+        <v>0</v>
+      </c>
+      <c r="O536" s="4">
+        <v>1</v>
+      </c>
+      <c r="P536" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q536" s="4">
+        <v>1</v>
+      </c>
+      <c r="R536" s="4">
+        <v>1</v>
+      </c>
+      <c r="S536" s="4">
+        <v>0</v>
+      </c>
+      <c r="T536" s="4">
+        <v>0</v>
+      </c>
+      <c r="U536" s="4">
+        <v>0</v>
+      </c>
+      <c r="V536" s="4">
+        <v>0</v>
+      </c>
+      <c r="W536" s="4">
+        <v>0</v>
+      </c>
+      <c r="X536" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y536" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z536" s="46" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="537" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C537" s="4">
+        <v>8000032</v>
+      </c>
+      <c r="D537" s="37" t="s">
+        <v>850</v>
+      </c>
+      <c r="E537" s="4">
+        <v>8</v>
+      </c>
+      <c r="F537" s="37">
+        <v>10036032</v>
+      </c>
+      <c r="G537" s="4">
+        <v>0</v>
+      </c>
+      <c r="H537" s="4">
+        <v>9</v>
+      </c>
+      <c r="I537" s="4">
+        <v>0</v>
+      </c>
+      <c r="J537" s="4">
+        <v>0</v>
+      </c>
+      <c r="K537" s="4">
+        <v>0</v>
+      </c>
+      <c r="L537" s="4">
+        <v>1</v>
+      </c>
+      <c r="M537" s="4">
+        <v>1</v>
+      </c>
+      <c r="N537" s="4">
+        <v>0</v>
+      </c>
+      <c r="O537" s="4">
+        <v>1</v>
+      </c>
+      <c r="P537" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q537" s="4">
+        <v>1</v>
+      </c>
+      <c r="R537" s="4">
+        <v>1</v>
+      </c>
+      <c r="S537" s="4">
+        <v>0</v>
+      </c>
+      <c r="T537" s="4">
+        <v>0</v>
+      </c>
+      <c r="U537" s="4">
+        <v>0</v>
+      </c>
+      <c r="V537" s="4">
+        <v>0</v>
+      </c>
+      <c r="W537" s="4">
+        <v>0</v>
+      </c>
+      <c r="X537" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y537" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z537" s="46" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="538" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C538" s="4">
+        <v>8000033</v>
+      </c>
+      <c r="D538" s="37" t="s">
+        <v>851</v>
+      </c>
+      <c r="E538" s="4">
+        <v>8</v>
+      </c>
+      <c r="F538" s="37">
+        <v>10036033</v>
+      </c>
+      <c r="G538" s="4">
+        <v>0</v>
+      </c>
+      <c r="H538" s="4">
+        <v>15</v>
+      </c>
+      <c r="I538" s="4">
+        <v>0</v>
+      </c>
+      <c r="J538" s="4">
+        <v>0</v>
+      </c>
+      <c r="K538" s="4">
+        <v>0</v>
+      </c>
+      <c r="L538" s="4">
+        <v>1</v>
+      </c>
+      <c r="M538" s="4">
+        <v>1</v>
+      </c>
+      <c r="N538" s="4">
+        <v>0</v>
+      </c>
+      <c r="O538" s="4">
+        <v>1</v>
+      </c>
+      <c r="P538" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q538" s="4">
+        <v>1</v>
+      </c>
+      <c r="R538" s="4">
+        <v>1</v>
+      </c>
+      <c r="S538" s="4">
+        <v>0</v>
+      </c>
+      <c r="T538" s="4">
+        <v>0</v>
+      </c>
+      <c r="U538" s="4">
+        <v>0</v>
+      </c>
+      <c r="V538" s="4">
+        <v>0</v>
+      </c>
+      <c r="W538" s="4">
+        <v>0</v>
+      </c>
+      <c r="X538" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y538" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z538" s="46" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="539" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C539" s="4">
+        <v>8000034</v>
+      </c>
+      <c r="D539" s="37" t="s">
+        <v>852</v>
+      </c>
+      <c r="E539" s="4">
+        <v>8</v>
+      </c>
+      <c r="F539" s="37">
+        <v>10036034</v>
+      </c>
+      <c r="G539" s="4">
+        <v>0</v>
+      </c>
+      <c r="H539" s="4">
+        <v>21</v>
+      </c>
+      <c r="I539" s="4">
+        <v>0</v>
+      </c>
+      <c r="J539" s="4">
+        <v>0</v>
+      </c>
+      <c r="K539" s="4">
+        <v>0</v>
+      </c>
+      <c r="L539" s="4">
+        <v>1</v>
+      </c>
+      <c r="M539" s="4">
+        <v>1</v>
+      </c>
+      <c r="N539" s="4">
+        <v>0</v>
+      </c>
+      <c r="O539" s="4">
+        <v>1</v>
+      </c>
+      <c r="P539" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q539" s="4">
+        <v>1</v>
+      </c>
+      <c r="R539" s="4">
+        <v>1</v>
+      </c>
+      <c r="S539" s="4">
+        <v>0</v>
+      </c>
+      <c r="T539" s="4">
+        <v>0</v>
+      </c>
+      <c r="U539" s="4">
+        <v>0</v>
+      </c>
+      <c r="V539" s="4">
+        <v>0</v>
+      </c>
+      <c r="W539" s="4">
+        <v>0</v>
+      </c>
+      <c r="X539" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y539" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z539" s="46" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="540" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C540" s="4">
+        <v>8000035</v>
+      </c>
+      <c r="D540" s="37" t="s">
+        <v>853</v>
+      </c>
+      <c r="E540" s="4">
+        <v>8</v>
+      </c>
+      <c r="F540" s="37">
         <v>10036035</v>
       </c>
-      <c r="G535" s="4">
-        <v>0</v>
-      </c>
-      <c r="H535" s="4">
+      <c r="G540" s="4">
+        <v>0</v>
+      </c>
+      <c r="H540" s="4">
         <v>17</v>
       </c>
-      <c r="I535" s="4">
-        <v>0</v>
-      </c>
-      <c r="J535" s="4">
-        <v>0</v>
-      </c>
-      <c r="K535" s="4">
-        <v>0</v>
-      </c>
-      <c r="L535" s="4">
-        <v>1</v>
-      </c>
-      <c r="M535" s="4">
-        <v>1</v>
-      </c>
-      <c r="N535" s="4">
-        <v>0</v>
-      </c>
-      <c r="O535" s="4">
-        <v>1</v>
-      </c>
-      <c r="P535" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q535" s="4">
-        <v>1</v>
-      </c>
-      <c r="R535" s="4">
-        <v>1</v>
-      </c>
-      <c r="S535" s="4">
-        <v>0</v>
-      </c>
-      <c r="T535" s="4">
-        <v>0</v>
-      </c>
-      <c r="U535" s="4">
-        <v>0</v>
-      </c>
-      <c r="V535" s="4">
-        <v>0</v>
-      </c>
-      <c r="W535" s="4">
-        <v>0</v>
-      </c>
-      <c r="X535" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y535" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z535" s="46" t="s">
+      <c r="I540" s="4">
+        <v>0</v>
+      </c>
+      <c r="J540" s="4">
+        <v>0</v>
+      </c>
+      <c r="K540" s="4">
+        <v>0</v>
+      </c>
+      <c r="L540" s="4">
+        <v>1</v>
+      </c>
+      <c r="M540" s="4">
+        <v>1</v>
+      </c>
+      <c r="N540" s="4">
+        <v>0</v>
+      </c>
+      <c r="O540" s="4">
+        <v>1</v>
+      </c>
+      <c r="P540" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q540" s="4">
+        <v>1</v>
+      </c>
+      <c r="R540" s="4">
+        <v>1</v>
+      </c>
+      <c r="S540" s="4">
+        <v>0</v>
+      </c>
+      <c r="T540" s="4">
+        <v>0</v>
+      </c>
+      <c r="U540" s="4">
+        <v>0</v>
+      </c>
+      <c r="V540" s="4">
+        <v>0</v>
+      </c>
+      <c r="W540" s="4">
+        <v>0</v>
+      </c>
+      <c r="X540" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y540" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z540" s="46" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="536" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="541" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="542" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="E543" s="6"/>
-      <c r="H543" s="6"/>
-      <c r="I543" s="6"/>
-      <c r="J543" s="6"/>
-    </row>
-    <row r="544" spans="3:26" x14ac:dyDescent="0.3">
-      <c r="E544" s="6"/>
-      <c r="H544" s="6"/>
-      <c r="I544" s="6"/>
-      <c r="J544" s="6"/>
-    </row>
-    <row r="545" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E545" s="6"/>
-      <c r="H545" s="6"/>
-      <c r="I545" s="6"/>
-      <c r="J545" s="6"/>
-    </row>
-    <row r="546" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E546" s="6"/>
-      <c r="H546" s="6"/>
-      <c r="I546" s="6"/>
-      <c r="J546" s="6"/>
-    </row>
-    <row r="547" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E547" s="6"/>
-      <c r="H547" s="6"/>
-      <c r="I547" s="6"/>
-      <c r="J547" s="6"/>
-    </row>
+    <row r="543" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" spans="5:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" spans="5:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" spans="5:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="548" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E548" s="6"/>
       <c r="H548" s="6"/>
@@ -46766,8 +47693,38 @@
       <c r="I1148" s="6"/>
       <c r="J1148" s="6"/>
     </row>
+    <row r="1149" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1149" s="6"/>
+      <c r="H1149" s="6"/>
+      <c r="I1149" s="6"/>
+      <c r="J1149" s="6"/>
+    </row>
+    <row r="1150" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1150" s="6"/>
+      <c r="H1150" s="6"/>
+      <c r="I1150" s="6"/>
+      <c r="J1150" s="6"/>
+    </row>
+    <row r="1151" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1151" s="6"/>
+      <c r="H1151" s="6"/>
+      <c r="I1151" s="6"/>
+      <c r="J1151" s="6"/>
+    </row>
+    <row r="1152" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1152" s="6"/>
+      <c r="H1152" s="6"/>
+      <c r="I1152" s="6"/>
+      <c r="J1152" s="6"/>
+    </row>
+    <row r="1153" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E1153" s="6"/>
+      <c r="H1153" s="6"/>
+      <c r="I1153" s="6"/>
+      <c r="J1153" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="G1:G1148" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="G1:G1153" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997C1D0A-32B9-42D0-B478-7B6BC2790CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F67E0D-6162-4CC4-B82E-7BADEA26E798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3716,9 +3716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Z1094"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y341" sqref="Y341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="Y316" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z316" s="39" t="s">
         <v>550</v>
@@ -27231,7 +27231,7 @@
         <v>0</v>
       </c>
       <c r="Y317" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z317" s="39" t="s">
         <v>551</v>
@@ -27305,7 +27305,7 @@
         <v>0</v>
       </c>
       <c r="Y318" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z318" s="39" t="s">
         <v>552</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="Y319" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z319" s="39" t="s">
         <v>553</v>
@@ -27453,7 +27453,7 @@
         <v>0</v>
       </c>
       <c r="Y320" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z320" s="39" t="s">
         <v>554</v>
@@ -27527,7 +27527,7 @@
         <v>0</v>
       </c>
       <c r="Y321" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z321" s="39" t="s">
         <v>555</v>
@@ -27601,7 +27601,7 @@
         <v>0</v>
       </c>
       <c r="Y322" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z322" s="39" t="s">
         <v>556</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="Y323" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z323" s="39" t="s">
         <v>557</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="Y324" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z324" s="39" t="s">
         <v>558</v>
@@ -27823,7 +27823,7 @@
         <v>0</v>
       </c>
       <c r="Y325" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z325" s="39" t="s">
         <v>559</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Y326" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z326" s="39" t="s">
         <v>560</v>
@@ -27971,7 +27971,7 @@
         <v>0</v>
       </c>
       <c r="Y327" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z327" s="39" t="s">
         <v>561</v>
@@ -28045,7 +28045,7 @@
         <v>0</v>
       </c>
       <c r="Y328" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z328" s="39" t="s">
         <v>562</v>
@@ -28119,7 +28119,7 @@
         <v>0</v>
       </c>
       <c r="Y329" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z329" s="39" t="s">
         <v>563</v>
@@ -28193,7 +28193,7 @@
         <v>0</v>
       </c>
       <c r="Y330" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z330" s="39" t="s">
         <v>564</v>
@@ -28267,7 +28267,7 @@
         <v>0</v>
       </c>
       <c r="Y331" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z331" s="39" t="s">
         <v>565</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="Y332" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z332" s="39" t="s">
         <v>566</v>
@@ -28415,7 +28415,7 @@
         <v>0</v>
       </c>
       <c r="Y333" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z333" s="39" t="s">
         <v>567</v>
@@ -28489,7 +28489,7 @@
         <v>0</v>
       </c>
       <c r="Y334" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z334" s="39" t="s">
         <v>568</v>
@@ -28563,7 +28563,7 @@
         <v>0</v>
       </c>
       <c r="Y335" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z335" s="39" t="s">
         <v>569</v>
@@ -28637,7 +28637,7 @@
         <v>0</v>
       </c>
       <c r="Y336" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z336" s="39" t="s">
         <v>570</v>
@@ -28711,7 +28711,7 @@
         <v>0</v>
       </c>
       <c r="Y337" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z337" s="39" t="s">
         <v>571</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="Y338" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z338" s="39" t="s">
         <v>572</v>
@@ -28859,7 +28859,7 @@
         <v>0</v>
       </c>
       <c r="Y339" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z339" s="39" t="s">
         <v>573</v>
@@ -28933,7 +28933,7 @@
         <v>0</v>
       </c>
       <c r="Y340" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z340" s="39" t="s">
         <v>574</v>
@@ -29007,7 +29007,7 @@
         <v>0</v>
       </c>
       <c r="Y341" s="7">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="Z341" s="39" t="s">
         <v>575</v>

--- a/Excel/EquipMakeConfig.xlsx
+++ b/Excel/EquipMakeConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F67E0D-6162-4CC4-B82E-7BADEA26E798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C6EE6F-6592-4801-9511-4918B437FA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EquipMakeProto" sheetId="1" r:id="rId1"/>
@@ -929,9 +929,6 @@
     <t>传承:守护者的神杖</t>
   </si>
   <si>
-    <t>10020001;200@10021010;200@14100107;1@10021008;20@10021009;10@10000143;6</t>
-  </si>
-  <si>
     <t>传承:圣灵的魔法书</t>
   </si>
   <si>
@@ -3030,6 +3027,10 @@
   </si>
   <si>
     <t>10020001;10</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>10020001;200@10021010;200@14100104;1@10021008;20@10021009;10@10000143;6</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -3716,9 +3717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Z1094"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A336" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y341" sqref="Y341"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -6190,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="29" t="s">
-        <v>101</v>
+        <v>800</v>
       </c>
     </row>
     <row r="36" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6198,7 +6199,7 @@
         <v>100155</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E36" s="22">
         <v>5</v>
@@ -6264,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6272,7 +6273,7 @@
         <v>100156</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37" s="22">
         <v>5</v>
@@ -6338,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="Z37" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6346,7 +6347,7 @@
         <v>100157</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E38" s="22">
         <v>5</v>
@@ -6412,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="Z38" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6420,7 +6421,7 @@
         <v>100158</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E39" s="22">
         <v>5</v>
@@ -6486,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="Z39" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6494,7 +6495,7 @@
         <v>100201</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E40" s="16">
         <v>2</v>
@@ -6561,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6569,7 +6570,7 @@
         <v>100202</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E41" s="16">
         <v>2</v>
@@ -6636,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="Z41" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6644,7 +6645,7 @@
         <v>100203</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E42" s="16">
         <v>2</v>
@@ -6711,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="Z42" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6719,7 +6720,7 @@
         <v>100204</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43" s="16">
         <v>2</v>
@@ -6786,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="Z43" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6794,7 +6795,7 @@
         <v>100205</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E44" s="16">
         <v>2</v>
@@ -6861,7 +6862,7 @@
         <v>0</v>
       </c>
       <c r="Z44" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6869,7 +6870,7 @@
         <v>100206</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E45" s="16">
         <v>2</v>
@@ -6936,7 +6937,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -6944,7 +6945,7 @@
         <v>100207</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E46" s="16">
         <v>2</v>
@@ -7011,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7019,7 +7020,7 @@
         <v>100208</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E47" s="16">
         <v>2</v>
@@ -7086,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7094,7 +7095,7 @@
         <v>100209</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E48" s="16">
         <v>2</v>
@@ -7161,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7169,7 +7170,7 @@
         <v>100210</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E49" s="16">
         <v>2</v>
@@ -7236,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="Z49" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7244,7 +7245,7 @@
         <v>100211</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E50" s="16">
         <v>2</v>
@@ -7311,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="Z50" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7319,7 +7320,7 @@
         <v>100212</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E51" s="16">
         <v>2</v>
@@ -7386,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="Z51" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7394,7 +7395,7 @@
         <v>100213</v>
       </c>
       <c r="D52" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E52" s="16">
         <v>2</v>
@@ -7461,7 +7462,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7469,7 +7470,7 @@
         <v>100214</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E53" s="16">
         <v>2</v>
@@ -7536,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="Z53" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7544,7 +7545,7 @@
         <v>100215</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E54" s="16">
         <v>2</v>
@@ -7611,7 +7612,7 @@
         <v>0</v>
       </c>
       <c r="Z54" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7619,7 +7620,7 @@
         <v>100216</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E55" s="16">
         <v>3</v>
@@ -7686,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="Z55" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7694,7 +7695,7 @@
         <v>100217</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E56" s="16">
         <v>3</v>
@@ -7761,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7769,7 +7770,7 @@
         <v>100218</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E57" s="16">
         <v>1</v>
@@ -7836,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="Z57" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7844,7 +7845,7 @@
         <v>100219</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E58" s="16">
         <v>1</v>
@@ -7911,7 +7912,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7919,7 +7920,7 @@
         <v>100220</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E59" s="16">
         <v>1</v>
@@ -7986,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -7994,7 +7995,7 @@
         <v>100221</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E60" s="16">
         <v>1</v>
@@ -8061,7 +8062,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8069,7 +8070,7 @@
         <v>100222</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E61" s="16">
         <v>2</v>
@@ -8136,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8144,7 +8145,7 @@
         <v>100223</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E62" s="16">
         <v>2</v>
@@ -8211,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="Z62" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8219,7 +8220,7 @@
         <v>100224</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E63" s="16">
         <v>2</v>
@@ -8286,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="Z63" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8294,7 +8295,7 @@
         <v>100225</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E64" s="16">
         <v>1</v>
@@ -8361,7 +8362,7 @@
         <v>0</v>
       </c>
       <c r="Z64" s="28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8369,7 +8370,7 @@
         <v>100226</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E65" s="16">
         <v>1</v>
@@ -8436,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="Z65" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8444,7 +8445,7 @@
         <v>100251</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E66" s="22">
         <v>5</v>
@@ -8510,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8518,7 +8519,7 @@
         <v>100252</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E67" s="22">
         <v>5</v>
@@ -8584,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8592,7 +8593,7 @@
         <v>100253</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E68" s="22">
         <v>5</v>
@@ -8658,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8666,7 +8667,7 @@
         <v>100254</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E69" s="22">
         <v>5</v>
@@ -8732,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="Z69" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8740,7 +8741,7 @@
         <v>100255</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E70" s="22">
         <v>5</v>
@@ -8806,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="Z70" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8814,7 +8815,7 @@
         <v>100256</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E71" s="22">
         <v>5</v>
@@ -8880,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="Z71" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8888,7 +8889,7 @@
         <v>100257</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E72" s="22">
         <v>5</v>
@@ -8954,7 +8955,7 @@
         <v>0</v>
       </c>
       <c r="Z72" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -8962,7 +8963,7 @@
         <v>100258</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E73" s="22">
         <v>5</v>
@@ -9028,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="Z73" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9036,7 +9037,7 @@
         <v>100301</v>
       </c>
       <c r="D74" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E74" s="16">
         <v>2</v>
@@ -9103,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="Z74" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9111,7 +9112,7 @@
         <v>100302</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E75" s="16">
         <v>2</v>
@@ -9178,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="Z75" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9186,7 +9187,7 @@
         <v>100303</v>
       </c>
       <c r="D76" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E76" s="16">
         <v>2</v>
@@ -9253,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="Z76" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9261,7 +9262,7 @@
         <v>100304</v>
       </c>
       <c r="D77" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E77" s="16">
         <v>2</v>
@@ -9328,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="Z77" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9336,7 +9337,7 @@
         <v>100305</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E78" s="16">
         <v>2</v>
@@ -9403,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="Z78" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9411,7 +9412,7 @@
         <v>100306</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E79" s="16">
         <v>2</v>
@@ -9478,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="Z79" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9486,7 +9487,7 @@
         <v>100307</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E80" s="16">
         <v>2</v>
@@ -9553,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="Z80" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9561,7 +9562,7 @@
         <v>100308</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E81" s="16">
         <v>2</v>
@@ -9628,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="Z81" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9636,7 +9637,7 @@
         <v>100309</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E82" s="16">
         <v>2</v>
@@ -9703,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="Z82" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9711,7 +9712,7 @@
         <v>100310</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E83" s="16">
         <v>2</v>
@@ -9778,7 +9779,7 @@
         <v>0</v>
       </c>
       <c r="Z83" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9786,7 +9787,7 @@
         <v>100311</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E84" s="16">
         <v>2</v>
@@ -9853,7 +9854,7 @@
         <v>0</v>
       </c>
       <c r="Z84" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9861,7 +9862,7 @@
         <v>100312</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E85" s="16">
         <v>2</v>
@@ -9928,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="Z85" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -9936,7 +9937,7 @@
         <v>100313</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E86" s="16">
         <v>2</v>
@@ -10003,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="Z86" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10011,7 +10012,7 @@
         <v>100314</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E87" s="16">
         <v>2</v>
@@ -10078,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10086,7 +10087,7 @@
         <v>100315</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E88" s="16">
         <v>2</v>
@@ -10153,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="Z88" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10161,7 +10162,7 @@
         <v>100316</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E89" s="16">
         <v>3</v>
@@ -10228,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="Z89" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10236,7 +10237,7 @@
         <v>100317</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E90" s="16">
         <v>3</v>
@@ -10303,7 +10304,7 @@
         <v>0</v>
       </c>
       <c r="Z90" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="91" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10311,7 +10312,7 @@
         <v>100318</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E91" s="16">
         <v>1</v>
@@ -10378,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="Z91" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10386,7 +10387,7 @@
         <v>100319</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E92" s="16">
         <v>1</v>
@@ -10453,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="Z92" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10461,7 +10462,7 @@
         <v>100320</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E93" s="16">
         <v>1</v>
@@ -10528,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="Z93" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10536,7 +10537,7 @@
         <v>100321</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E94" s="16">
         <v>1</v>
@@ -10603,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Z94" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10611,7 +10612,7 @@
         <v>100322</v>
       </c>
       <c r="D95" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E95" s="16">
         <v>2</v>
@@ -10678,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="Z95" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10686,7 +10687,7 @@
         <v>100323</v>
       </c>
       <c r="D96" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E96" s="16">
         <v>2</v>
@@ -10753,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="Z96" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10761,7 +10762,7 @@
         <v>100324</v>
       </c>
       <c r="D97" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E97" s="16">
         <v>2</v>
@@ -10828,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="Z97" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10836,7 +10837,7 @@
         <v>100325</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E98" s="16">
         <v>1</v>
@@ -10903,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="Z98" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10911,7 +10912,7 @@
         <v>100326</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E99" s="16">
         <v>1</v>
@@ -10978,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="Z99" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -10986,7 +10987,7 @@
         <v>100351</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E100" s="22">
         <v>5</v>
@@ -11052,7 +11053,7 @@
         <v>0</v>
       </c>
       <c r="Z100" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="101" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11060,7 +11061,7 @@
         <v>100352</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E101" s="22">
         <v>5</v>
@@ -11126,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="Z101" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11134,7 +11135,7 @@
         <v>100353</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="22">
         <v>5</v>
@@ -11200,7 +11201,7 @@
         <v>0</v>
       </c>
       <c r="Z102" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11208,7 +11209,7 @@
         <v>100354</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E103" s="22">
         <v>5</v>
@@ -11274,7 +11275,7 @@
         <v>0</v>
       </c>
       <c r="Z103" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="104" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11282,7 +11283,7 @@
         <v>100355</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E104" s="22">
         <v>5</v>
@@ -11348,7 +11349,7 @@
         <v>0</v>
       </c>
       <c r="Z104" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11356,7 +11357,7 @@
         <v>100356</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E105" s="22">
         <v>5</v>
@@ -11422,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="Z105" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="106" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11430,7 +11431,7 @@
         <v>100357</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E106" s="22">
         <v>5</v>
@@ -11496,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="Z106" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11504,7 +11505,7 @@
         <v>100358</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E107" s="22">
         <v>5</v>
@@ -11570,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="Z107" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11578,7 +11579,7 @@
         <v>100401</v>
       </c>
       <c r="D108" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E108" s="16">
         <v>2</v>
@@ -11645,7 +11646,7 @@
         <v>0</v>
       </c>
       <c r="Z108" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11653,7 +11654,7 @@
         <v>100402</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E109" s="16">
         <v>2</v>
@@ -11720,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="Z109" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="110" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11728,7 +11729,7 @@
         <v>100403</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E110" s="16">
         <v>2</v>
@@ -11795,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="Z110" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11803,7 +11804,7 @@
         <v>100404</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E111" s="16">
         <v>2</v>
@@ -11870,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="Z111" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="112" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11878,7 +11879,7 @@
         <v>100405</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E112" s="16">
         <v>2</v>
@@ -11945,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="Z112" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -11953,7 +11954,7 @@
         <v>100406</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E113" s="16">
         <v>2</v>
@@ -12020,7 +12021,7 @@
         <v>0</v>
       </c>
       <c r="Z113" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="114" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12028,7 +12029,7 @@
         <v>100407</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E114" s="16">
         <v>2</v>
@@ -12095,7 +12096,7 @@
         <v>0</v>
       </c>
       <c r="Z114" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12103,7 +12104,7 @@
         <v>100408</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E115" s="16">
         <v>2</v>
@@ -12170,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="Z115" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12178,7 +12179,7 @@
         <v>100409</v>
       </c>
       <c r="D116" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E116" s="16">
         <v>2</v>
@@ -12245,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="Z116" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12253,7 +12254,7 @@
         <v>100410</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E117" s="16">
         <v>2</v>
@@ -12320,7 +12321,7 @@
         <v>0</v>
       </c>
       <c r="Z117" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12328,7 +12329,7 @@
         <v>100411</v>
       </c>
       <c r="D118" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E118" s="16">
         <v>2</v>
@@ -12395,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="Z118" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12403,7 +12404,7 @@
         <v>100412</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E119" s="16">
         <v>2</v>
@@ -12470,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="Z119" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12478,7 +12479,7 @@
         <v>100413</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E120" s="16">
         <v>2</v>
@@ -12545,7 +12546,7 @@
         <v>0</v>
       </c>
       <c r="Z120" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="121" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12553,7 +12554,7 @@
         <v>100414</v>
       </c>
       <c r="D121" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E121" s="16">
         <v>2</v>
@@ -12620,7 +12621,7 @@
         <v>0</v>
       </c>
       <c r="Z121" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="122" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12628,7 +12629,7 @@
         <v>100415</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E122" s="16">
         <v>2</v>
@@ -12695,7 +12696,7 @@
         <v>0</v>
       </c>
       <c r="Z122" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="123" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12703,7 +12704,7 @@
         <v>100416</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E123" s="16">
         <v>3</v>
@@ -12770,7 +12771,7 @@
         <v>0</v>
       </c>
       <c r="Z123" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12778,7 +12779,7 @@
         <v>100417</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E124" s="16">
         <v>3</v>
@@ -12845,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="Z124" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12853,7 +12854,7 @@
         <v>100418</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E125" s="16">
         <v>1</v>
@@ -12920,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="Z125" s="28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -12928,7 +12929,7 @@
         <v>100419</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E126" s="16">
         <v>1</v>
@@ -12995,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="Z126" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13003,7 +13004,7 @@
         <v>100420</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E127" s="16">
         <v>1</v>
@@ -13070,7 +13071,7 @@
         <v>0</v>
       </c>
       <c r="Z127" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13078,7 +13079,7 @@
         <v>100421</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E128" s="16">
         <v>1</v>
@@ -13145,7 +13146,7 @@
         <v>0</v>
       </c>
       <c r="Z128" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13153,7 +13154,7 @@
         <v>100422</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E129" s="16">
         <v>2</v>
@@ -13220,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="Z129" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13228,7 +13229,7 @@
         <v>100423</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E130" s="16">
         <v>2</v>
@@ -13295,7 +13296,7 @@
         <v>0</v>
       </c>
       <c r="Z130" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13303,7 +13304,7 @@
         <v>100424</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E131" s="16">
         <v>2</v>
@@ -13370,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="Z131" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13378,7 +13379,7 @@
         <v>100425</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E132" s="16">
         <v>1</v>
@@ -13445,7 +13446,7 @@
         <v>0</v>
       </c>
       <c r="Z132" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="133" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13453,7 +13454,7 @@
         <v>100426</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E133" s="16">
         <v>1</v>
@@ -13520,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="Z133" s="28" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13528,7 +13529,7 @@
         <v>100451</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E134" s="22">
         <v>5</v>
@@ -13594,7 +13595,7 @@
         <v>0</v>
       </c>
       <c r="Z134" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13602,7 +13603,7 @@
         <v>100452</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E135" s="22">
         <v>5</v>
@@ -13668,7 +13669,7 @@
         <v>0</v>
       </c>
       <c r="Z135" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13676,7 +13677,7 @@
         <v>100453</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E136" s="22">
         <v>5</v>
@@ -13742,7 +13743,7 @@
         <v>0</v>
       </c>
       <c r="Z136" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13750,7 +13751,7 @@
         <v>100454</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E137" s="22">
         <v>5</v>
@@ -13816,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="Z137" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="138" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13824,7 +13825,7 @@
         <v>100455</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E138" s="22">
         <v>5</v>
@@ -13890,7 +13891,7 @@
         <v>0</v>
       </c>
       <c r="Z138" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="139" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13898,7 +13899,7 @@
         <v>100456</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E139" s="22">
         <v>5</v>
@@ -13964,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="Z139" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -13972,7 +13973,7 @@
         <v>100457</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E140" s="22">
         <v>5</v>
@@ -14038,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="Z140" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14046,7 +14047,7 @@
         <v>100458</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E141" s="22">
         <v>5</v>
@@ -14112,7 +14113,7 @@
         <v>0</v>
       </c>
       <c r="Z141" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14120,7 +14121,7 @@
         <v>100501</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E142" s="16">
         <v>2</v>
@@ -14188,7 +14189,7 @@
         <v>0</v>
       </c>
       <c r="Z142" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14196,7 +14197,7 @@
         <v>100502</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E143" s="16">
         <v>2</v>
@@ -14264,7 +14265,7 @@
         <v>0</v>
       </c>
       <c r="Z143" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="144" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14272,7 +14273,7 @@
         <v>100503</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E144" s="16">
         <v>2</v>
@@ -14340,7 +14341,7 @@
         <v>0</v>
       </c>
       <c r="Z144" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14348,7 +14349,7 @@
         <v>100504</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E145" s="16">
         <v>2</v>
@@ -14416,7 +14417,7 @@
         <v>0</v>
       </c>
       <c r="Z145" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="146" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14424,7 +14425,7 @@
         <v>100505</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E146" s="16">
         <v>2</v>
@@ -14492,7 +14493,7 @@
         <v>0</v>
       </c>
       <c r="Z146" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="147" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14500,7 +14501,7 @@
         <v>100506</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E147" s="16">
         <v>2</v>
@@ -14568,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="Z147" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="148" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14576,7 +14577,7 @@
         <v>100507</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E148" s="16">
         <v>2</v>
@@ -14644,7 +14645,7 @@
         <v>0</v>
       </c>
       <c r="Z148" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="149" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14652,7 +14653,7 @@
         <v>100508</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E149" s="16">
         <v>2</v>
@@ -14720,7 +14721,7 @@
         <v>0</v>
       </c>
       <c r="Z149" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="150" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14728,7 +14729,7 @@
         <v>100509</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E150" s="16">
         <v>2</v>
@@ -14796,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="Z150" s="28" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="151" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14804,7 +14805,7 @@
         <v>100510</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E151" s="16">
         <v>2</v>
@@ -14872,7 +14873,7 @@
         <v>0</v>
       </c>
       <c r="Z151" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="152" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14880,7 +14881,7 @@
         <v>100511</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E152" s="16">
         <v>2</v>
@@ -14948,7 +14949,7 @@
         <v>0</v>
       </c>
       <c r="Z152" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="153" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -14956,7 +14957,7 @@
         <v>100512</v>
       </c>
       <c r="D153" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E153" s="16">
         <v>2</v>
@@ -15024,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="Z153" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="154" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15032,7 +15033,7 @@
         <v>100513</v>
       </c>
       <c r="D154" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E154" s="16">
         <v>2</v>
@@ -15100,7 +15101,7 @@
         <v>0</v>
       </c>
       <c r="Z154" s="28" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="155" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15108,7 +15109,7 @@
         <v>100514</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E155" s="16">
         <v>2</v>
@@ -15176,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="Z155" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="156" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15184,7 +15185,7 @@
         <v>100515</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E156" s="16">
         <v>2</v>
@@ -15252,7 +15253,7 @@
         <v>0</v>
       </c>
       <c r="Z156" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="157" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15260,7 +15261,7 @@
         <v>100516</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E157" s="16">
         <v>3</v>
@@ -15328,7 +15329,7 @@
         <v>0</v>
       </c>
       <c r="Z157" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="158" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15336,7 +15337,7 @@
         <v>100517</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E158" s="16">
         <v>3</v>
@@ -15404,7 +15405,7 @@
         <v>0</v>
       </c>
       <c r="Z158" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="159" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15412,7 +15413,7 @@
         <v>100518</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E159" s="16">
         <v>1</v>
@@ -15480,7 +15481,7 @@
         <v>0</v>
       </c>
       <c r="Z159" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="160" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15488,7 +15489,7 @@
         <v>100519</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E160" s="16">
         <v>1</v>
@@ -15556,7 +15557,7 @@
         <v>0</v>
       </c>
       <c r="Z160" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="161" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15564,7 +15565,7 @@
         <v>100520</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E161" s="16">
         <v>1</v>
@@ -15632,7 +15633,7 @@
         <v>0</v>
       </c>
       <c r="Z161" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="162" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15640,7 +15641,7 @@
         <v>100521</v>
       </c>
       <c r="D162" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E162" s="16">
         <v>1</v>
@@ -15708,7 +15709,7 @@
         <v>0</v>
       </c>
       <c r="Z162" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="163" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15716,7 +15717,7 @@
         <v>100522</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E163" s="16">
         <v>2</v>
@@ -15784,7 +15785,7 @@
         <v>0</v>
       </c>
       <c r="Z163" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="164" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15792,7 +15793,7 @@
         <v>100523</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E164" s="16">
         <v>2</v>
@@ -15860,7 +15861,7 @@
         <v>0</v>
       </c>
       <c r="Z164" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="165" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15868,7 +15869,7 @@
         <v>100524</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E165" s="16">
         <v>2</v>
@@ -15936,7 +15937,7 @@
         <v>0</v>
       </c>
       <c r="Z165" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="166" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -15944,7 +15945,7 @@
         <v>100525</v>
       </c>
       <c r="D166" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E166" s="16">
         <v>1</v>
@@ -16012,7 +16013,7 @@
         <v>0</v>
       </c>
       <c r="Z166" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="167" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16020,7 +16021,7 @@
         <v>100526</v>
       </c>
       <c r="D167" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E167" s="16">
         <v>1</v>
@@ -16088,7 +16089,7 @@
         <v>0</v>
       </c>
       <c r="Z167" s="28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="168" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16096,7 +16097,7 @@
         <v>100551</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E168" s="22">
         <v>5</v>
@@ -16163,7 +16164,7 @@
         <v>0</v>
       </c>
       <c r="Z168" s="28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16171,7 +16172,7 @@
         <v>100552</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E169" s="22">
         <v>5</v>
@@ -16238,7 +16239,7 @@
         <v>0</v>
       </c>
       <c r="Z169" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16246,7 +16247,7 @@
         <v>100553</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E170" s="22">
         <v>5</v>
@@ -16313,7 +16314,7 @@
         <v>0</v>
       </c>
       <c r="Z170" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="171" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16321,7 +16322,7 @@
         <v>100554</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E171" s="22">
         <v>5</v>
@@ -16388,7 +16389,7 @@
         <v>0</v>
       </c>
       <c r="Z171" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="172" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16396,7 +16397,7 @@
         <v>100555</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E172" s="22">
         <v>5</v>
@@ -16463,7 +16464,7 @@
         <v>0</v>
       </c>
       <c r="Z172" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="173" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16471,7 +16472,7 @@
         <v>100556</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E173" s="22">
         <v>5</v>
@@ -16538,7 +16539,7 @@
         <v>0</v>
       </c>
       <c r="Z173" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="174" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16546,7 +16547,7 @@
         <v>100557</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E174" s="22">
         <v>5</v>
@@ -16613,7 +16614,7 @@
         <v>0</v>
       </c>
       <c r="Z174" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="175" spans="3:26" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16621,7 +16622,7 @@
         <v>100558</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E175" s="22">
         <v>5</v>
@@ -16688,7 +16689,7 @@
         <v>0</v>
       </c>
       <c r="Z175" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="176" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16696,7 +16697,7 @@
         <v>200001</v>
       </c>
       <c r="D176" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E176" s="16">
         <v>3</v>
@@ -16747,22 +16748,22 @@
         <v>75</v>
       </c>
       <c r="U176" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="V176" s="24">
+        <v>1</v>
+      </c>
+      <c r="W176" s="24">
+        <v>1</v>
+      </c>
+      <c r="X176" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y176" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z176" s="28" t="s">
         <v>316</v>
-      </c>
-      <c r="V176" s="24">
-        <v>1</v>
-      </c>
-      <c r="W176" s="24">
-        <v>1</v>
-      </c>
-      <c r="X176" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y176" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z176" s="28" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="177" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16770,7 +16771,7 @@
         <v>200002</v>
       </c>
       <c r="D177" s="23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E177" s="16">
         <v>3</v>
@@ -16821,22 +16822,22 @@
         <v>120</v>
       </c>
       <c r="U177" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="V177" s="24">
+        <v>1</v>
+      </c>
+      <c r="W177" s="24">
+        <v>1</v>
+      </c>
+      <c r="X177" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y177" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z177" s="28" t="s">
         <v>319</v>
-      </c>
-      <c r="V177" s="24">
-        <v>1</v>
-      </c>
-      <c r="W177" s="24">
-        <v>1</v>
-      </c>
-      <c r="X177" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y177" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z177" s="28" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="178" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16844,7 +16845,7 @@
         <v>200003</v>
       </c>
       <c r="D178" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E178" s="16">
         <v>3</v>
@@ -16895,7 +16896,7 @@
         <v>120</v>
       </c>
       <c r="U178" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V178" s="24">
         <v>1</v>
@@ -16910,7 +16911,7 @@
         <v>0</v>
       </c>
       <c r="Z178" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="179" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16918,7 +16919,7 @@
         <v>200004</v>
       </c>
       <c r="D179" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E179" s="16">
         <v>3</v>
@@ -16969,22 +16970,22 @@
         <v>120</v>
       </c>
       <c r="U179" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="V179" s="24">
+        <v>1</v>
+      </c>
+      <c r="W179" s="24">
+        <v>1</v>
+      </c>
+      <c r="X179" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y179" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z179" s="28" t="s">
         <v>324</v>
-      </c>
-      <c r="V179" s="24">
-        <v>1</v>
-      </c>
-      <c r="W179" s="24">
-        <v>1</v>
-      </c>
-      <c r="X179" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y179" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z179" s="28" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="180" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -16992,7 +16993,7 @@
         <v>200005</v>
       </c>
       <c r="D180" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E180" s="16">
         <v>3</v>
@@ -17043,7 +17044,7 @@
         <v>120</v>
       </c>
       <c r="U180" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V180" s="24">
         <v>1</v>
@@ -17058,7 +17059,7 @@
         <v>0</v>
       </c>
       <c r="Z180" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="181" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17066,7 +17067,7 @@
         <v>200006</v>
       </c>
       <c r="D181" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E181" s="16">
         <v>3</v>
@@ -17117,7 +17118,7 @@
         <v>120</v>
       </c>
       <c r="U181" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V181" s="24">
         <v>1</v>
@@ -17132,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="Z181" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="182" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17140,7 +17141,7 @@
         <v>200007</v>
       </c>
       <c r="D182" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E182" s="16">
         <v>3</v>
@@ -17191,22 +17192,22 @@
         <v>200</v>
       </c>
       <c r="U182" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="V182" s="24">
+        <v>1</v>
+      </c>
+      <c r="W182" s="24">
+        <v>1</v>
+      </c>
+      <c r="X182" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y182" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z182" s="28" t="s">
         <v>316</v>
-      </c>
-      <c r="V182" s="24">
-        <v>1</v>
-      </c>
-      <c r="W182" s="24">
-        <v>1</v>
-      </c>
-      <c r="X182" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y182" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z182" s="28" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="183" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17214,7 +17215,7 @@
         <v>200008</v>
       </c>
       <c r="D183" s="23" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E183" s="16">
         <v>3</v>
@@ -17265,7 +17266,7 @@
         <v>220</v>
       </c>
       <c r="U183" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V183" s="24">
         <v>1</v>
@@ -17280,7 +17281,7 @@
         <v>0</v>
       </c>
       <c r="Z183" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="184" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17288,7 +17289,7 @@
         <v>200009</v>
       </c>
       <c r="D184" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E184" s="16">
         <v>3</v>
@@ -17339,7 +17340,7 @@
         <v>220</v>
       </c>
       <c r="U184" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V184" s="24">
         <v>1</v>
@@ -17354,7 +17355,7 @@
         <v>0</v>
       </c>
       <c r="Z184" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="185" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17362,7 +17363,7 @@
         <v>200010</v>
       </c>
       <c r="D185" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E185" s="16">
         <v>3</v>
@@ -17413,7 +17414,7 @@
         <v>220</v>
       </c>
       <c r="U185" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V185" s="24">
         <v>1</v>
@@ -17428,7 +17429,7 @@
         <v>0</v>
       </c>
       <c r="Z185" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="186" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17436,7 +17437,7 @@
         <v>200011</v>
       </c>
       <c r="D186" s="23" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E186" s="16">
         <v>3</v>
@@ -17487,7 +17488,7 @@
         <v>220</v>
       </c>
       <c r="U186" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V186" s="24">
         <v>1</v>
@@ -17502,7 +17503,7 @@
         <v>0</v>
       </c>
       <c r="Z186" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="187" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17510,7 +17511,7 @@
         <v>200012</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E187" s="16">
         <v>3</v>
@@ -17561,7 +17562,7 @@
         <v>220</v>
       </c>
       <c r="U187" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V187" s="24">
         <v>1</v>
@@ -17576,7 +17577,7 @@
         <v>0</v>
       </c>
       <c r="Z187" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="188" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17584,7 +17585,7 @@
         <v>200013</v>
       </c>
       <c r="D188" s="23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E188" s="16">
         <v>3</v>
@@ -17635,7 +17636,7 @@
         <v>275</v>
       </c>
       <c r="U188" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V188" s="24">
         <v>1</v>
@@ -17650,7 +17651,7 @@
         <v>0</v>
       </c>
       <c r="Z188" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="189" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17658,7 +17659,7 @@
         <v>200014</v>
       </c>
       <c r="D189" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E189" s="16">
         <v>3</v>
@@ -17710,7 +17711,7 @@
         <v>320</v>
       </c>
       <c r="U189" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V189" s="24">
         <v>1</v>
@@ -17725,7 +17726,7 @@
         <v>0</v>
       </c>
       <c r="Z189" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="190" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17733,7 +17734,7 @@
         <v>200015</v>
       </c>
       <c r="D190" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E190" s="16">
         <v>3</v>
@@ -17785,7 +17786,7 @@
         <v>320</v>
       </c>
       <c r="U190" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V190" s="24">
         <v>1</v>
@@ -17800,7 +17801,7 @@
         <v>0</v>
       </c>
       <c r="Z190" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="191" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17808,7 +17809,7 @@
         <v>200016</v>
       </c>
       <c r="D191" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E191" s="16">
         <v>3</v>
@@ -17860,7 +17861,7 @@
         <v>320</v>
       </c>
       <c r="U191" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V191" s="24">
         <v>1</v>
@@ -17875,7 +17876,7 @@
         <v>0</v>
       </c>
       <c r="Z191" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="192" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17883,7 +17884,7 @@
         <v>200017</v>
       </c>
       <c r="D192" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E192" s="16">
         <v>3</v>
@@ -17935,7 +17936,7 @@
         <v>320</v>
       </c>
       <c r="U192" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V192" s="24">
         <v>1</v>
@@ -17950,7 +17951,7 @@
         <v>0</v>
       </c>
       <c r="Z192" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="193" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -17958,7 +17959,7 @@
         <v>200018</v>
       </c>
       <c r="D193" s="23" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E193" s="16">
         <v>3</v>
@@ -18010,7 +18011,7 @@
         <v>320</v>
       </c>
       <c r="U193" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V193" s="24">
         <v>1</v>
@@ -18025,7 +18026,7 @@
         <v>0</v>
       </c>
       <c r="Z193" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="194" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18033,7 +18034,7 @@
         <v>200019</v>
       </c>
       <c r="D194" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E194" s="16">
         <v>3</v>
@@ -18085,7 +18086,7 @@
         <v>375</v>
       </c>
       <c r="U194" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V194" s="24">
         <v>1</v>
@@ -18100,7 +18101,7 @@
         <v>0</v>
       </c>
       <c r="Z194" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="195" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18108,7 +18109,7 @@
         <v>200020</v>
       </c>
       <c r="D195" s="23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E195" s="16">
         <v>3</v>
@@ -18160,7 +18161,7 @@
         <v>420</v>
       </c>
       <c r="U195" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V195" s="24">
         <v>1</v>
@@ -18175,7 +18176,7 @@
         <v>0</v>
       </c>
       <c r="Z195" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="196" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18183,7 +18184,7 @@
         <v>200021</v>
       </c>
       <c r="D196" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E196" s="16">
         <v>3</v>
@@ -18235,7 +18236,7 @@
         <v>420</v>
       </c>
       <c r="U196" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V196" s="24">
         <v>1</v>
@@ -18250,7 +18251,7 @@
         <v>0</v>
       </c>
       <c r="Z196" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="197" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18258,7 +18259,7 @@
         <v>200022</v>
       </c>
       <c r="D197" s="23" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E197" s="16">
         <v>3</v>
@@ -18310,7 +18311,7 @@
         <v>420</v>
       </c>
       <c r="U197" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V197" s="24">
         <v>1</v>
@@ -18325,7 +18326,7 @@
         <v>0</v>
       </c>
       <c r="Z197" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="198" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18333,7 +18334,7 @@
         <v>200023</v>
       </c>
       <c r="D198" s="23" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E198" s="16">
         <v>3</v>
@@ -18385,7 +18386,7 @@
         <v>420</v>
       </c>
       <c r="U198" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V198" s="24">
         <v>1</v>
@@ -18400,7 +18401,7 @@
         <v>0</v>
       </c>
       <c r="Z198" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="199" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18408,7 +18409,7 @@
         <v>200024</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E199" s="16">
         <v>3</v>
@@ -18460,7 +18461,7 @@
         <v>420</v>
       </c>
       <c r="U199" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V199" s="24">
         <v>1</v>
@@ -18475,7 +18476,7 @@
         <v>0</v>
       </c>
       <c r="Z199" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="200" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18483,7 +18484,7 @@
         <v>200025</v>
       </c>
       <c r="D200" s="23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E200" s="16">
         <v>3</v>
@@ -18535,7 +18536,7 @@
         <v>450</v>
       </c>
       <c r="U200" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V200" s="24">
         <v>1</v>
@@ -18550,7 +18551,7 @@
         <v>0</v>
       </c>
       <c r="Z200" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="201" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18558,7 +18559,7 @@
         <v>200026</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E201" s="16">
         <v>3</v>
@@ -18610,7 +18611,7 @@
         <v>500</v>
       </c>
       <c r="U201" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V201" s="24">
         <v>1</v>
@@ -18625,7 +18626,7 @@
         <v>0</v>
       </c>
       <c r="Z201" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="202" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18633,7 +18634,7 @@
         <v>200027</v>
       </c>
       <c r="D202" s="23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E202" s="16">
         <v>3</v>
@@ -18685,7 +18686,7 @@
         <v>500</v>
       </c>
       <c r="U202" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V202" s="24">
         <v>1</v>
@@ -18700,7 +18701,7 @@
         <v>0</v>
       </c>
       <c r="Z202" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="203" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18708,7 +18709,7 @@
         <v>200028</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E203" s="16">
         <v>3</v>
@@ -18760,7 +18761,7 @@
         <v>500</v>
       </c>
       <c r="U203" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V203" s="24">
         <v>1</v>
@@ -18775,7 +18776,7 @@
         <v>0</v>
       </c>
       <c r="Z203" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="204" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18783,7 +18784,7 @@
         <v>200029</v>
       </c>
       <c r="D204" s="23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E204" s="16">
         <v>3</v>
@@ -18835,7 +18836,7 @@
         <v>500</v>
       </c>
       <c r="U204" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V204" s="24">
         <v>1</v>
@@ -18850,7 +18851,7 @@
         <v>0</v>
       </c>
       <c r="Z204" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="205" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18858,7 +18859,7 @@
         <v>200030</v>
       </c>
       <c r="D205" s="23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E205" s="16">
         <v>3</v>
@@ -18910,7 +18911,7 @@
         <v>500</v>
       </c>
       <c r="U205" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V205" s="24">
         <v>1</v>
@@ -18925,7 +18926,7 @@
         <v>0</v>
       </c>
       <c r="Z205" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="206" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -18933,7 +18934,7 @@
         <v>200031</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E206" s="16">
         <v>3</v>
@@ -18985,7 +18986,7 @@
         <v>450</v>
       </c>
       <c r="U206" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="V206" s="24">
         <v>1</v>
@@ -19000,7 +19001,7 @@
         <v>0</v>
       </c>
       <c r="Z206" s="28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="207" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19008,7 +19009,7 @@
         <v>200101</v>
       </c>
       <c r="D207" s="30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E207" s="16">
         <v>3</v>
@@ -19059,7 +19060,7 @@
         <v>120</v>
       </c>
       <c r="U207" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V207" s="24">
         <v>1</v>
@@ -19074,7 +19075,7 @@
         <v>0</v>
       </c>
       <c r="Z207" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="208" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19082,7 +19083,7 @@
         <v>200102</v>
       </c>
       <c r="D208" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E208" s="16">
         <v>3</v>
@@ -19133,7 +19134,7 @@
         <v>120</v>
       </c>
       <c r="U208" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V208" s="24">
         <v>1</v>
@@ -19148,7 +19149,7 @@
         <v>0</v>
       </c>
       <c r="Z208" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="209" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19156,7 +19157,7 @@
         <v>200103</v>
       </c>
       <c r="D209" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E209" s="16">
         <v>3</v>
@@ -19207,7 +19208,7 @@
         <v>120</v>
       </c>
       <c r="U209" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V209" s="24">
         <v>1</v>
@@ -19222,7 +19223,7 @@
         <v>0</v>
       </c>
       <c r="Z209" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="210" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19230,7 +19231,7 @@
         <v>200104</v>
       </c>
       <c r="D210" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E210" s="16">
         <v>3</v>
@@ -19281,7 +19282,7 @@
         <v>120</v>
       </c>
       <c r="U210" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V210" s="24">
         <v>1</v>
@@ -19296,7 +19297,7 @@
         <v>0</v>
       </c>
       <c r="Z210" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="211" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19304,7 +19305,7 @@
         <v>200105</v>
       </c>
       <c r="D211" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E211" s="16">
         <v>3</v>
@@ -19355,7 +19356,7 @@
         <v>120</v>
       </c>
       <c r="U211" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V211" s="24">
         <v>1</v>
@@ -19370,7 +19371,7 @@
         <v>0</v>
       </c>
       <c r="Z211" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="212" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19379,7 +19380,7 @@
         <v>200201</v>
       </c>
       <c r="D212" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E212" s="16">
         <v>3</v>
@@ -19430,7 +19431,7 @@
         <v>220</v>
       </c>
       <c r="U212" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V212" s="24">
         <v>1</v>
@@ -19445,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="Z212" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="213" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19454,7 +19455,7 @@
         <v>200202</v>
       </c>
       <c r="D213" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E213" s="16">
         <v>3</v>
@@ -19505,7 +19506,7 @@
         <v>220</v>
       </c>
       <c r="U213" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V213" s="24">
         <v>1</v>
@@ -19520,7 +19521,7 @@
         <v>0</v>
       </c>
       <c r="Z213" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="214" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19529,7 +19530,7 @@
         <v>200203</v>
       </c>
       <c r="D214" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E214" s="16">
         <v>3</v>
@@ -19580,7 +19581,7 @@
         <v>220</v>
       </c>
       <c r="U214" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V214" s="24">
         <v>1</v>
@@ -19595,7 +19596,7 @@
         <v>0</v>
       </c>
       <c r="Z214" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="215" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19604,7 +19605,7 @@
         <v>200204</v>
       </c>
       <c r="D215" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E215" s="16">
         <v>3</v>
@@ -19655,7 +19656,7 @@
         <v>220</v>
       </c>
       <c r="U215" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V215" s="24">
         <v>1</v>
@@ -19670,7 +19671,7 @@
         <v>0</v>
       </c>
       <c r="Z215" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="216" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19679,7 +19680,7 @@
         <v>200205</v>
       </c>
       <c r="D216" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E216" s="16">
         <v>3</v>
@@ -19730,7 +19731,7 @@
         <v>220</v>
       </c>
       <c r="U216" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V216" s="24">
         <v>1</v>
@@ -19745,7 +19746,7 @@
         <v>0</v>
       </c>
       <c r="Z216" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="217" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19754,7 +19755,7 @@
         <v>200301</v>
       </c>
       <c r="D217" s="30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E217" s="16">
         <v>3</v>
@@ -19805,7 +19806,7 @@
         <v>320</v>
       </c>
       <c r="U217" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V217" s="24">
         <v>1</v>
@@ -19820,7 +19821,7 @@
         <v>0</v>
       </c>
       <c r="Z217" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="218" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19829,7 +19830,7 @@
         <v>200302</v>
       </c>
       <c r="D218" s="30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E218" s="16">
         <v>3</v>
@@ -19880,7 +19881,7 @@
         <v>320</v>
       </c>
       <c r="U218" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V218" s="24">
         <v>1</v>
@@ -19895,7 +19896,7 @@
         <v>0</v>
       </c>
       <c r="Z218" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="219" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19904,7 +19905,7 @@
         <v>200303</v>
       </c>
       <c r="D219" s="30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E219" s="16">
         <v>3</v>
@@ -19955,7 +19956,7 @@
         <v>320</v>
       </c>
       <c r="U219" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V219" s="24">
         <v>1</v>
@@ -19970,7 +19971,7 @@
         <v>0</v>
       </c>
       <c r="Z219" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="220" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -19979,7 +19980,7 @@
         <v>200304</v>
       </c>
       <c r="D220" s="30" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E220" s="16">
         <v>3</v>
@@ -20030,7 +20031,7 @@
         <v>320</v>
       </c>
       <c r="U220" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V220" s="24">
         <v>1</v>
@@ -20045,7 +20046,7 @@
         <v>0</v>
       </c>
       <c r="Z220" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="221" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20054,7 +20055,7 @@
         <v>200305</v>
       </c>
       <c r="D221" s="30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E221" s="16">
         <v>3</v>
@@ -20105,7 +20106,7 @@
         <v>320</v>
       </c>
       <c r="U221" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V221" s="24">
         <v>1</v>
@@ -20120,7 +20121,7 @@
         <v>0</v>
       </c>
       <c r="Z221" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="222" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20129,7 +20130,7 @@
         <v>200401</v>
       </c>
       <c r="D222" s="30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E222" s="16">
         <v>3</v>
@@ -20180,7 +20181,7 @@
         <v>420</v>
       </c>
       <c r="U222" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V222" s="24">
         <v>1</v>
@@ -20195,7 +20196,7 @@
         <v>0</v>
       </c>
       <c r="Z222" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="223" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20204,7 +20205,7 @@
         <v>200402</v>
       </c>
       <c r="D223" s="30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E223" s="16">
         <v>3</v>
@@ -20255,7 +20256,7 @@
         <v>420</v>
       </c>
       <c r="U223" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V223" s="24">
         <v>1</v>
@@ -20270,7 +20271,7 @@
         <v>0</v>
       </c>
       <c r="Z223" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="224" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20279,7 +20280,7 @@
         <v>200403</v>
       </c>
       <c r="D224" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E224" s="16">
         <v>3</v>
@@ -20330,7 +20331,7 @@
         <v>420</v>
       </c>
       <c r="U224" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V224" s="24">
         <v>1</v>
@@ -20345,7 +20346,7 @@
         <v>0</v>
       </c>
       <c r="Z224" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="225" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20354,7 +20355,7 @@
         <v>200404</v>
       </c>
       <c r="D225" s="30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E225" s="16">
         <v>3</v>
@@ -20405,7 +20406,7 @@
         <v>420</v>
       </c>
       <c r="U225" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V225" s="24">
         <v>1</v>
@@ -20420,7 +20421,7 @@
         <v>0</v>
       </c>
       <c r="Z225" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="226" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20429,7 +20430,7 @@
         <v>200405</v>
       </c>
       <c r="D226" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E226" s="16">
         <v>3</v>
@@ -20480,7 +20481,7 @@
         <v>420</v>
       </c>
       <c r="U226" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V226" s="24">
         <v>1</v>
@@ -20495,7 +20496,7 @@
         <v>0</v>
       </c>
       <c r="Z226" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="227" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20504,7 +20505,7 @@
         <v>200501</v>
       </c>
       <c r="D227" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E227" s="16">
         <v>3</v>
@@ -20555,7 +20556,7 @@
         <v>500</v>
       </c>
       <c r="U227" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V227" s="24">
         <v>1</v>
@@ -20570,7 +20571,7 @@
         <v>0</v>
       </c>
       <c r="Z227" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="228" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20579,7 +20580,7 @@
         <v>200502</v>
       </c>
       <c r="D228" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E228" s="16">
         <v>3</v>
@@ -20630,7 +20631,7 @@
         <v>500</v>
       </c>
       <c r="U228" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V228" s="24">
         <v>1</v>
@@ -20645,7 +20646,7 @@
         <v>0</v>
       </c>
       <c r="Z228" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="229" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20654,7 +20655,7 @@
         <v>200503</v>
       </c>
       <c r="D229" s="30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E229" s="16">
         <v>3</v>
@@ -20705,7 +20706,7 @@
         <v>500</v>
       </c>
       <c r="U229" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V229" s="24">
         <v>1</v>
@@ -20720,7 +20721,7 @@
         <v>0</v>
       </c>
       <c r="Z229" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="230" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20729,7 +20730,7 @@
         <v>200504</v>
       </c>
       <c r="D230" s="30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E230" s="16">
         <v>3</v>
@@ -20780,7 +20781,7 @@
         <v>500</v>
       </c>
       <c r="U230" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V230" s="24">
         <v>1</v>
@@ -20795,7 +20796,7 @@
         <v>0</v>
       </c>
       <c r="Z230" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="231" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20804,7 +20805,7 @@
         <v>200505</v>
       </c>
       <c r="D231" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E231" s="16">
         <v>3</v>
@@ -20855,7 +20856,7 @@
         <v>500</v>
       </c>
       <c r="U231" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V231" s="24">
         <v>1</v>
@@ -20870,7 +20871,7 @@
         <v>0</v>
       </c>
       <c r="Z231" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="232" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20878,7 +20879,7 @@
         <v>200602</v>
       </c>
       <c r="D232" s="45" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E232" s="16">
         <v>3</v>
@@ -20929,7 +20930,7 @@
         <v>150</v>
       </c>
       <c r="U232" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V232" s="24">
         <v>1</v>
@@ -20944,7 +20945,7 @@
         <v>0</v>
       </c>
       <c r="Z232" s="28" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="233" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -20952,7 +20953,7 @@
         <v>200603</v>
       </c>
       <c r="D233" s="46" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E233" s="16">
         <v>3</v>
@@ -21003,7 +21004,7 @@
         <v>150</v>
       </c>
       <c r="U233" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V233" s="24">
         <v>1</v>
@@ -21018,7 +21019,7 @@
         <v>0</v>
       </c>
       <c r="Z233" s="28" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="234" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21026,7 +21027,7 @@
         <v>200604</v>
       </c>
       <c r="D234" s="46" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E234" s="16">
         <v>3</v>
@@ -21077,7 +21078,7 @@
         <v>150</v>
       </c>
       <c r="U234" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V234" s="24">
         <v>1</v>
@@ -21092,7 +21093,7 @@
         <v>0</v>
       </c>
       <c r="Z234" s="28" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="235" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21100,7 +21101,7 @@
         <v>201001</v>
       </c>
       <c r="D235" s="30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E235" s="16">
         <v>3</v>
@@ -21151,7 +21152,7 @@
         <v>200</v>
       </c>
       <c r="U235" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V235" s="24">
         <v>1</v>
@@ -21166,7 +21167,7 @@
         <v>0</v>
       </c>
       <c r="Z235" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="236" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21174,7 +21175,7 @@
         <v>201002</v>
       </c>
       <c r="D236" s="30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E236" s="16">
         <v>3</v>
@@ -21225,7 +21226,7 @@
         <v>200</v>
       </c>
       <c r="U236" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V236" s="24">
         <v>1</v>
@@ -21240,7 +21241,7 @@
         <v>0</v>
       </c>
       <c r="Z236" s="28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="237" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21248,7 +21249,7 @@
         <v>201101</v>
       </c>
       <c r="D237" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E237" s="16">
         <v>3</v>
@@ -21299,7 +21300,7 @@
         <v>200</v>
       </c>
       <c r="U237" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V237" s="24">
         <v>1</v>
@@ -21314,7 +21315,7 @@
         <v>0</v>
       </c>
       <c r="Z237" s="28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="238" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21322,7 +21323,7 @@
         <v>201102</v>
       </c>
       <c r="D238" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E238" s="16">
         <v>3</v>
@@ -21373,7 +21374,7 @@
         <v>200</v>
       </c>
       <c r="U238" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V238" s="24">
         <v>1</v>
@@ -21388,7 +21389,7 @@
         <v>0</v>
       </c>
       <c r="Z238" s="28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="239" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21396,7 +21397,7 @@
         <v>201103</v>
       </c>
       <c r="D239" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E239" s="16">
         <v>3</v>
@@ -21447,7 +21448,7 @@
         <v>200</v>
       </c>
       <c r="U239" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="V239" s="24">
         <v>1</v>
@@ -21462,7 +21463,7 @@
         <v>0</v>
       </c>
       <c r="Z239" s="28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="240" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21470,7 +21471,7 @@
         <v>300001</v>
       </c>
       <c r="D240" s="23" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E240" s="16">
         <v>1</v>
@@ -21521,7 +21522,7 @@
         <v>200</v>
       </c>
       <c r="U240" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V240" s="24">
         <v>1</v>
@@ -21536,7 +21537,7 @@
         <v>0</v>
       </c>
       <c r="Z240" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="241" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21544,7 +21545,7 @@
         <v>300002</v>
       </c>
       <c r="D241" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E241" s="16">
         <v>1</v>
@@ -21595,7 +21596,7 @@
         <v>200</v>
       </c>
       <c r="U241" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V241" s="24">
         <v>1</v>
@@ -21610,7 +21611,7 @@
         <v>0</v>
       </c>
       <c r="Z241" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="242" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21618,7 +21619,7 @@
         <v>300003</v>
       </c>
       <c r="D242" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E242" s="16">
         <v>1</v>
@@ -21669,7 +21670,7 @@
         <v>200</v>
       </c>
       <c r="U242" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V242" s="24">
         <v>1</v>
@@ -21684,7 +21685,7 @@
         <v>0</v>
       </c>
       <c r="Z242" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="243" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21692,7 +21693,7 @@
         <v>4000101</v>
       </c>
       <c r="D243" s="31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E243" s="16">
         <v>4</v>
@@ -21758,7 +21759,7 @@
         <v>2500</v>
       </c>
       <c r="Z243" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="244" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21766,7 +21767,7 @@
         <v>4000102</v>
       </c>
       <c r="D244" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E244" s="16">
         <v>4</v>
@@ -21832,7 +21833,7 @@
         <v>3500</v>
       </c>
       <c r="Z244" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="245" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21840,7 +21841,7 @@
         <v>4000103</v>
       </c>
       <c r="D245" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E245" s="16">
         <v>4</v>
@@ -21906,7 +21907,7 @@
         <v>5000</v>
       </c>
       <c r="Z245" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="246" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21914,7 +21915,7 @@
         <v>4000104</v>
       </c>
       <c r="D246" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E246" s="16">
         <v>4</v>
@@ -21980,7 +21981,7 @@
         <v>7500</v>
       </c>
       <c r="Z246" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="247" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -21988,7 +21989,7 @@
         <v>4000105</v>
       </c>
       <c r="D247" s="31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E247" s="16">
         <v>4</v>
@@ -22054,7 +22055,7 @@
         <v>10000</v>
       </c>
       <c r="Z247" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="248" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22062,7 +22063,7 @@
         <v>4000106</v>
       </c>
       <c r="D248" s="31" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E248" s="16">
         <v>4</v>
@@ -22128,7 +22129,7 @@
         <v>20000</v>
       </c>
       <c r="Z248" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="249" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22136,7 +22137,7 @@
         <v>4000107</v>
       </c>
       <c r="D249" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E249" s="16">
         <v>4</v>
@@ -22202,7 +22203,7 @@
         <v>30000</v>
       </c>
       <c r="Z249" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="250" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22210,7 +22211,7 @@
         <v>4000108</v>
       </c>
       <c r="D250" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E250" s="16">
         <v>4</v>
@@ -22276,7 +22277,7 @@
         <v>40000</v>
       </c>
       <c r="Z250" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="251" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22284,7 +22285,7 @@
         <v>4000109</v>
       </c>
       <c r="D251" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E251" s="16">
         <v>4</v>
@@ -22350,7 +22351,7 @@
         <v>50000</v>
       </c>
       <c r="Z251" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="252" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22358,7 +22359,7 @@
         <v>4000110</v>
       </c>
       <c r="D252" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E252" s="33">
         <v>4</v>
@@ -22424,7 +22425,7 @@
         <v>100000</v>
       </c>
       <c r="Z252" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="253" spans="3:26" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22432,7 +22433,7 @@
         <v>4000111</v>
       </c>
       <c r="D253" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E253" s="33">
         <v>4</v>
@@ -22498,7 +22499,7 @@
         <v>200000</v>
       </c>
       <c r="Z253" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="254" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22506,7 +22507,7 @@
         <v>4000201</v>
       </c>
       <c r="D254" s="31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E254" s="16">
         <v>4</v>
@@ -22572,7 +22573,7 @@
         <v>2500</v>
       </c>
       <c r="Z254" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="255" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22580,7 +22581,7 @@
         <v>4000202</v>
       </c>
       <c r="D255" s="31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E255" s="16">
         <v>4</v>
@@ -22646,7 +22647,7 @@
         <v>3500</v>
       </c>
       <c r="Z255" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="256" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22654,7 +22655,7 @@
         <v>4000203</v>
       </c>
       <c r="D256" s="31" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E256" s="16">
         <v>4</v>
@@ -22720,7 +22721,7 @@
         <v>5000</v>
       </c>
       <c r="Z256" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="257" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22728,7 +22729,7 @@
         <v>4000204</v>
       </c>
       <c r="D257" s="31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E257" s="16">
         <v>4</v>
@@ -22794,7 +22795,7 @@
         <v>7500</v>
       </c>
       <c r="Z257" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="258" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22802,7 +22803,7 @@
         <v>4000205</v>
       </c>
       <c r="D258" s="31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E258" s="16">
         <v>4</v>
@@ -22868,7 +22869,7 @@
         <v>10000</v>
       </c>
       <c r="Z258" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="259" spans="3:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22876,7 +22877,7 @@
         <v>4000206</v>
       </c>
       <c r="D259" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E259" s="16">
         <v>4</v>
@@ -22942,7 +22943,7 @@
         <v>20000</v>
       </c>
       <c r="Z259" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="260" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -22950,7 +22951,7 @@
         <v>4000207</v>
       </c>
       <c r="D260" s="31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E260" s="16">
         <v>4</v>
@@ -23016,7 +23017,7 @@
         <v>30000</v>
       </c>
       <c r="Z260" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="261" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23024,7 +23025,7 @@
         <v>4000208</v>
       </c>
       <c r="D261" s="31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E261" s="16">
         <v>4</v>
@@ -23090,7 +23091,7 @@
         <v>40000</v>
       </c>
       <c r="Z261" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="262" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23098,7 +23099,7 @@
         <v>4000209</v>
       </c>
       <c r="D262" s="31" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E262" s="16">
         <v>4</v>
@@ -23164,7 +23165,7 @@
         <v>50000</v>
       </c>
       <c r="Z262" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="263" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23172,7 +23173,7 @@
         <v>4000210</v>
       </c>
       <c r="D263" s="32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E263" s="33">
         <v>4</v>
@@ -23238,7 +23239,7 @@
         <v>100000</v>
       </c>
       <c r="Z263" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="264" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23246,7 +23247,7 @@
         <v>4000211</v>
       </c>
       <c r="D264" s="32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E264" s="33">
         <v>4</v>
@@ -23312,7 +23313,7 @@
         <v>200000</v>
       </c>
       <c r="Z264" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="265" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23320,7 +23321,7 @@
         <v>4000301</v>
       </c>
       <c r="D265" s="31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E265" s="16">
         <v>4</v>
@@ -23386,7 +23387,7 @@
         <v>2500</v>
       </c>
       <c r="Z265" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="266" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23394,7 +23395,7 @@
         <v>4000302</v>
       </c>
       <c r="D266" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E266" s="16">
         <v>4</v>
@@ -23460,7 +23461,7 @@
         <v>3500</v>
       </c>
       <c r="Z266" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="267" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23468,7 +23469,7 @@
         <v>4000303</v>
       </c>
       <c r="D267" s="31" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E267" s="16">
         <v>4</v>
@@ -23534,7 +23535,7 @@
         <v>5000</v>
       </c>
       <c r="Z267" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="268" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23542,7 +23543,7 @@
         <v>4000304</v>
       </c>
       <c r="D268" s="31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E268" s="16">
         <v>4</v>
@@ -23608,7 +23609,7 @@
         <v>7500</v>
       </c>
       <c r="Z268" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="269" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23616,7 +23617,7 @@
         <v>4000305</v>
       </c>
       <c r="D269" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E269" s="16">
         <v>4</v>
@@ -23682,7 +23683,7 @@
         <v>10000</v>
       </c>
       <c r="Z269" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="270" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23690,7 +23691,7 @@
         <v>4000306</v>
       </c>
       <c r="D270" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E270" s="16">
         <v>4</v>
@@ -23756,7 +23757,7 @@
         <v>20000</v>
       </c>
       <c r="Z270" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="271" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23764,7 +23765,7 @@
         <v>4000307</v>
       </c>
       <c r="D271" s="31" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E271" s="16">
         <v>4</v>
@@ -23830,7 +23831,7 @@
         <v>30000</v>
       </c>
       <c r="Z271" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="272" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23838,7 +23839,7 @@
         <v>4000308</v>
       </c>
       <c r="D272" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E272" s="16">
         <v>4</v>
@@ -23904,7 +23905,7 @@
         <v>40000</v>
       </c>
       <c r="Z272" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="273" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23912,7 +23913,7 @@
         <v>4000309</v>
       </c>
       <c r="D273" s="31" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E273" s="16">
         <v>4</v>
@@ -23978,7 +23979,7 @@
         <v>50000</v>
       </c>
       <c r="Z273" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="274" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -23986,7 +23987,7 @@
         <v>4000310</v>
       </c>
       <c r="D274" s="31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E274" s="33">
         <v>4</v>
@@ -24052,7 +24053,7 @@
         <v>100000</v>
       </c>
       <c r="Z274" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="275" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24060,7 +24061,7 @@
         <v>4000311</v>
       </c>
       <c r="D275" s="31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E275" s="33">
         <v>4</v>
@@ -24126,7 +24127,7 @@
         <v>200000</v>
       </c>
       <c r="Z275" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="276" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24134,7 +24135,7 @@
         <v>4000401</v>
       </c>
       <c r="D276" s="31" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E276" s="16">
         <v>4</v>
@@ -24200,7 +24201,7 @@
         <v>2500</v>
       </c>
       <c r="Z276" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="277" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24208,7 +24209,7 @@
         <v>4000402</v>
       </c>
       <c r="D277" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E277" s="16">
         <v>4</v>
@@ -24274,7 +24275,7 @@
         <v>3500</v>
       </c>
       <c r="Z277" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="278" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24282,7 +24283,7 @@
         <v>4000403</v>
       </c>
       <c r="D278" s="31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E278" s="16">
         <v>4</v>
@@ -24348,7 +24349,7 @@
         <v>5000</v>
       </c>
       <c r="Z278" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="279" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24356,7 +24357,7 @@
         <v>4000404</v>
       </c>
       <c r="D279" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E279" s="16">
         <v>4</v>
@@ -24422,7 +24423,7 @@
         <v>7500</v>
       </c>
       <c r="Z279" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="280" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24430,7 +24431,7 @@
         <v>4000405</v>
       </c>
       <c r="D280" s="31" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E280" s="16">
         <v>4</v>
@@ -24496,7 +24497,7 @@
         <v>10000</v>
       </c>
       <c r="Z280" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="281" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24504,7 +24505,7 @@
         <v>4000406</v>
       </c>
       <c r="D281" s="31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E281" s="16">
         <v>4</v>
@@ -24570,7 +24571,7 @@
         <v>20000</v>
       </c>
       <c r="Z281" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="282" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24578,7 +24579,7 @@
         <v>4000407</v>
       </c>
       <c r="D282" s="31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E282" s="16">
         <v>4</v>
@@ -24644,7 +24645,7 @@
         <v>30000</v>
       </c>
       <c r="Z282" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="283" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24652,7 +24653,7 @@
         <v>4000408</v>
       </c>
       <c r="D283" s="31" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E283" s="16">
         <v>4</v>
@@ -24718,7 +24719,7 @@
         <v>40000</v>
       </c>
       <c r="Z283" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="284" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24726,7 +24727,7 @@
         <v>4000409</v>
       </c>
       <c r="D284" s="31" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E284" s="16">
         <v>4</v>
@@ -24792,7 +24793,7 @@
         <v>50000</v>
       </c>
       <c r="Z284" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="285" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24800,7 +24801,7 @@
         <v>4000410</v>
       </c>
       <c r="D285" s="31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E285" s="33">
         <v>4</v>
@@ -24866,7 +24867,7 @@
         <v>100000</v>
       </c>
       <c r="Z285" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="286" spans="3:26" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -24874,7 +24875,7 @@
         <v>4000411</v>
       </c>
       <c r="D286" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E286" s="33">
         <v>4</v>
@@ -24940,7 +24941,7 @@
         <v>200000</v>
       </c>
       <c r="Z286" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="287" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -24948,7 +24949,7 @@
         <v>5000001</v>
       </c>
       <c r="D287" s="37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E287" s="6">
         <v>5</v>
@@ -25014,7 +25015,7 @@
         <v>1000000</v>
       </c>
       <c r="Z287" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="288" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25022,7 +25023,7 @@
         <v>5000002</v>
       </c>
       <c r="D288" s="37" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E288" s="6">
         <v>5</v>
@@ -25088,7 +25089,7 @@
         <v>1000000</v>
       </c>
       <c r="Z288" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="289" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25096,7 +25097,7 @@
         <v>5000003</v>
       </c>
       <c r="D289" s="37" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E289" s="6">
         <v>5</v>
@@ -25162,7 +25163,7 @@
         <v>1000000</v>
       </c>
       <c r="Z289" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="290" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25170,7 +25171,7 @@
         <v>5000011</v>
       </c>
       <c r="D290" s="37" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E290" s="6">
         <v>5</v>
@@ -25236,7 +25237,7 @@
         <v>1000000</v>
       </c>
       <c r="Z290" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="291" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25244,7 +25245,7 @@
         <v>5000012</v>
       </c>
       <c r="D291" s="37" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E291" s="6">
         <v>5</v>
@@ -25310,7 +25311,7 @@
         <v>1000000</v>
       </c>
       <c r="Z291" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="292" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25318,7 +25319,7 @@
         <v>5000013</v>
       </c>
       <c r="D292" s="37" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E292" s="6">
         <v>5</v>
@@ -25384,7 +25385,7 @@
         <v>1000000</v>
       </c>
       <c r="Z292" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="293" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25392,7 +25393,7 @@
         <v>5000021</v>
       </c>
       <c r="D293" s="37" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E293" s="6">
         <v>5</v>
@@ -25458,7 +25459,7 @@
         <v>1000000</v>
       </c>
       <c r="Z293" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="294" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25466,7 +25467,7 @@
         <v>5000022</v>
       </c>
       <c r="D294" s="37" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E294" s="6">
         <v>5</v>
@@ -25532,7 +25533,7 @@
         <v>1000000</v>
       </c>
       <c r="Z294" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="295" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25540,7 +25541,7 @@
         <v>5000023</v>
       </c>
       <c r="D295" s="37" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E295" s="6">
         <v>5</v>
@@ -25606,7 +25607,7 @@
         <v>1000000</v>
       </c>
       <c r="Z295" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="296" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25614,7 +25615,7 @@
         <v>5000031</v>
       </c>
       <c r="D296" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E296" s="6">
         <v>5</v>
@@ -25680,7 +25681,7 @@
         <v>1000000</v>
       </c>
       <c r="Z296" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="297" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25688,7 +25689,7 @@
         <v>5000032</v>
       </c>
       <c r="D297" s="37" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E297" s="6">
         <v>5</v>
@@ -25754,7 +25755,7 @@
         <v>1000000</v>
       </c>
       <c r="Z297" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="298" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25762,7 +25763,7 @@
         <v>5000033</v>
       </c>
       <c r="D298" s="37" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E298" s="6">
         <v>5</v>
@@ -25828,7 +25829,7 @@
         <v>1000000</v>
       </c>
       <c r="Z298" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="299" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25836,7 +25837,7 @@
         <v>5000041</v>
       </c>
       <c r="D299" s="37" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E299" s="6">
         <v>5</v>
@@ -25902,7 +25903,7 @@
         <v>1000000</v>
       </c>
       <c r="Z299" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="300" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25910,7 +25911,7 @@
         <v>5000042</v>
       </c>
       <c r="D300" s="37" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E300" s="6">
         <v>5</v>
@@ -25976,7 +25977,7 @@
         <v>1000000</v>
       </c>
       <c r="Z300" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="301" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -25984,7 +25985,7 @@
         <v>5000043</v>
       </c>
       <c r="D301" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E301" s="6">
         <v>5</v>
@@ -26050,7 +26051,7 @@
         <v>1000000</v>
       </c>
       <c r="Z301" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="302" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26058,7 +26059,7 @@
         <v>5000051</v>
       </c>
       <c r="D302" s="37" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E302" s="6">
         <v>5</v>
@@ -26124,7 +26125,7 @@
         <v>1000000</v>
       </c>
       <c r="Z302" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="303" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26132,7 +26133,7 @@
         <v>5000052</v>
       </c>
       <c r="D303" s="37" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E303" s="6">
         <v>5</v>
@@ -26198,7 +26199,7 @@
         <v>1000000</v>
       </c>
       <c r="Z303" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="304" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26206,7 +26207,7 @@
         <v>5000061</v>
       </c>
       <c r="D304" s="37" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E304" s="6">
         <v>5</v>
@@ -26272,7 +26273,7 @@
         <v>1000000</v>
       </c>
       <c r="Z304" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="305" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26280,7 +26281,7 @@
         <v>5000062</v>
       </c>
       <c r="D305" s="37" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E305" s="6">
         <v>5</v>
@@ -26346,7 +26347,7 @@
         <v>1000000</v>
       </c>
       <c r="Z305" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="306" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26354,7 +26355,7 @@
         <v>5000071</v>
       </c>
       <c r="D306" s="37" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E306" s="6">
         <v>5</v>
@@ -26420,7 +26421,7 @@
         <v>1000000</v>
       </c>
       <c r="Z306" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="307" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26428,7 +26429,7 @@
         <v>5000072</v>
       </c>
       <c r="D307" s="37" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E307" s="6">
         <v>5</v>
@@ -26494,7 +26495,7 @@
         <v>1000000</v>
       </c>
       <c r="Z307" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="308" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26502,7 +26503,7 @@
         <v>5000081</v>
       </c>
       <c r="D308" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E308" s="6">
         <v>5</v>
@@ -26568,7 +26569,7 @@
         <v>1000000</v>
       </c>
       <c r="Z308" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="309" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26576,7 +26577,7 @@
         <v>5000082</v>
       </c>
       <c r="D309" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E309" s="6">
         <v>5</v>
@@ -26642,7 +26643,7 @@
         <v>1000000</v>
       </c>
       <c r="Z309" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="310" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26650,7 +26651,7 @@
         <v>5000091</v>
       </c>
       <c r="D310" s="37" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E310" s="6">
         <v>5</v>
@@ -26716,7 +26717,7 @@
         <v>1000000</v>
       </c>
       <c r="Z310" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="311" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26724,7 +26725,7 @@
         <v>5000092</v>
       </c>
       <c r="D311" s="37" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E311" s="6">
         <v>5</v>
@@ -26790,7 +26791,7 @@
         <v>1000000</v>
       </c>
       <c r="Z311" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="312" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26798,7 +26799,7 @@
         <v>5000093</v>
       </c>
       <c r="D312" s="37" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E312" s="6">
         <v>5</v>
@@ -26864,7 +26865,7 @@
         <v>1000000</v>
       </c>
       <c r="Z312" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="313" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26872,7 +26873,7 @@
         <v>5001001</v>
       </c>
       <c r="D313" s="38" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E313" s="6">
         <v>5</v>
@@ -26938,7 +26939,7 @@
         <v>50000</v>
       </c>
       <c r="Z313" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="314" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -26946,7 +26947,7 @@
         <v>5001002</v>
       </c>
       <c r="D314" s="38" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E314" s="6">
         <v>5</v>
@@ -27012,7 +27013,7 @@
         <v>100000</v>
       </c>
       <c r="Z314" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="315" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27020,7 +27021,7 @@
         <v>5001003</v>
       </c>
       <c r="D315" s="38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E315" s="6">
         <v>5</v>
@@ -27086,7 +27087,7 @@
         <v>300000</v>
       </c>
       <c r="Z315" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="316" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27094,7 +27095,7 @@
         <v>5002001</v>
       </c>
       <c r="D316" s="18" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E316" s="7">
         <v>0</v>
@@ -27160,7 +27161,7 @@
         <v>0</v>
       </c>
       <c r="Z316" s="39" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="317" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27168,7 +27169,7 @@
         <v>5002002</v>
       </c>
       <c r="D317" s="18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E317" s="7">
         <v>0</v>
@@ -27234,7 +27235,7 @@
         <v>0</v>
       </c>
       <c r="Z317" s="39" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="318" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27242,7 +27243,7 @@
         <v>5002003</v>
       </c>
       <c r="D318" s="18" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E318" s="7">
         <v>0</v>
@@ -27308,7 +27309,7 @@
         <v>0</v>
       </c>
       <c r="Z318" s="39" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="319" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27316,7 +27317,7 @@
         <v>5002011</v>
       </c>
       <c r="D319" s="18" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E319" s="7">
         <v>0</v>
@@ -27382,7 +27383,7 @@
         <v>0</v>
       </c>
       <c r="Z319" s="39" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="320" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27390,7 +27391,7 @@
         <v>5002012</v>
       </c>
       <c r="D320" s="18" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E320" s="7">
         <v>0</v>
@@ -27456,7 +27457,7 @@
         <v>0</v>
       </c>
       <c r="Z320" s="39" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="321" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27464,7 +27465,7 @@
         <v>5002013</v>
       </c>
       <c r="D321" s="18" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E321" s="7">
         <v>0</v>
@@ -27530,7 +27531,7 @@
         <v>0</v>
       </c>
       <c r="Z321" s="39" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="322" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27538,7 +27539,7 @@
         <v>5002021</v>
       </c>
       <c r="D322" s="18" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E322" s="7">
         <v>0</v>
@@ -27604,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Z322" s="39" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="323" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27612,7 +27613,7 @@
         <v>5002022</v>
       </c>
       <c r="D323" s="18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E323" s="7">
         <v>0</v>
@@ -27678,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="Z323" s="39" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="324" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27686,7 +27687,7 @@
         <v>5002023</v>
       </c>
       <c r="D324" s="18" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E324" s="7">
         <v>0</v>
@@ -27752,7 +27753,7 @@
         <v>0</v>
       </c>
       <c r="Z324" s="39" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="325" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27760,7 +27761,7 @@
         <v>5002031</v>
       </c>
       <c r="D325" s="18" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E325" s="7">
         <v>0</v>
@@ -27826,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="Z325" s="39" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="326" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27834,7 +27835,7 @@
         <v>5002032</v>
       </c>
       <c r="D326" s="18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E326" s="7">
         <v>0</v>
@@ -27900,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="Z326" s="39" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="327" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27908,7 +27909,7 @@
         <v>5002033</v>
       </c>
       <c r="D327" s="18" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E327" s="7">
         <v>0</v>
@@ -27974,7 +27975,7 @@
         <v>0</v>
       </c>
       <c r="Z327" s="39" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="328" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -27982,7 +27983,7 @@
         <v>5002041</v>
       </c>
       <c r="D328" s="18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E328" s="7">
         <v>0</v>
@@ -28048,7 +28049,7 @@
         <v>0</v>
       </c>
       <c r="Z328" s="39" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="329" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28056,7 +28057,7 @@
         <v>5002042</v>
       </c>
       <c r="D329" s="18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E329" s="7">
         <v>0</v>
@@ -28122,7 +28123,7 @@
         <v>0</v>
       </c>
       <c r="Z329" s="39" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="330" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28130,7 +28131,7 @@
         <v>5002043</v>
       </c>
       <c r="D330" s="18" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E330" s="7">
         <v>0</v>
@@ -28196,7 +28197,7 @@
         <v>0</v>
       </c>
       <c r="Z330" s="39" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="331" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28204,7 +28205,7 @@
         <v>5002051</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E331" s="7">
         <v>0</v>
@@ -28270,7 +28271,7 @@
         <v>0</v>
       </c>
       <c r="Z331" s="39" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="332" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28278,7 +28279,7 @@
         <v>5002052</v>
       </c>
       <c r="D332" s="18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E332" s="7">
         <v>0</v>
@@ -28344,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="Z332" s="39" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="333" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28352,7 +28353,7 @@
         <v>5002061</v>
       </c>
       <c r="D333" s="18" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E333" s="7">
         <v>0</v>
@@ -28418,7 +28419,7 @@
         <v>0</v>
       </c>
       <c r="Z333" s="39" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="334" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28426,7 +28427,7 @@
         <v>5002062</v>
       </c>
       <c r="D334" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E334" s="7">
         <v>0</v>
@@ -28492,7 +28493,7 @@
         <v>0</v>
       </c>
       <c r="Z334" s="39" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="335" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28500,7 +28501,7 @@
         <v>5002071</v>
       </c>
       <c r="D335" s="18" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E335" s="7">
         <v>0</v>
@@ -28566,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="Z335" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="336" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28574,7 +28575,7 @@
         <v>5002072</v>
       </c>
       <c r="D336" s="18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E336" s="7">
         <v>0</v>
@@ -28640,7 +28641,7 @@
         <v>0</v>
       </c>
       <c r="Z336" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="337" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28648,7 +28649,7 @@
         <v>5002081</v>
       </c>
       <c r="D337" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E337" s="7">
         <v>0</v>
@@ -28714,7 +28715,7 @@
         <v>0</v>
       </c>
       <c r="Z337" s="39" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="338" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28722,7 +28723,7 @@
         <v>5002082</v>
       </c>
       <c r="D338" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E338" s="7">
         <v>0</v>
@@ -28788,7 +28789,7 @@
         <v>0</v>
       </c>
       <c r="Z338" s="39" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="339" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28796,7 +28797,7 @@
         <v>5002091</v>
       </c>
       <c r="D339" s="18" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E339" s="7">
         <v>0</v>
@@ -28862,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="Z339" s="39" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="340" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28870,7 +28871,7 @@
         <v>5002092</v>
       </c>
       <c r="D340" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E340" s="7">
         <v>0</v>
@@ -28936,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="Z340" s="39" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="341" spans="3:26" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -28944,7 +28945,7 @@
         <v>5002093</v>
       </c>
       <c r="D341" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E341" s="7">
         <v>0</v>
@@ -29010,7 +29011,7 @@
         <v>0</v>
       </c>
       <c r="Z341" s="39" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="342" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29018,7 +29019,7 @@
         <v>6101001</v>
       </c>
       <c r="D342" s="41" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E342" s="6">
         <v>6</v>
@@ -29070,7 +29071,7 @@
         <v>175</v>
       </c>
       <c r="U342" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V342" s="6">
         <v>0</v>
@@ -29085,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="Z342" s="42" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="343" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29093,7 +29094,7 @@
         <v>6101002</v>
       </c>
       <c r="D343" s="41" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E343" s="6">
         <v>6</v>
@@ -29145,7 +29146,7 @@
         <v>175</v>
       </c>
       <c r="U343" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V343" s="6">
         <v>0</v>
@@ -29160,7 +29161,7 @@
         <v>0</v>
       </c>
       <c r="Z343" s="42" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="344" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29168,7 +29169,7 @@
         <v>6101003</v>
       </c>
       <c r="D344" s="41" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E344" s="6">
         <v>6</v>
@@ -29219,7 +29220,7 @@
         <v>175</v>
       </c>
       <c r="U344" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V344" s="6">
         <v>0</v>
@@ -29234,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="Z344" s="42" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="345" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29243,7 +29244,7 @@
         <v>6102001</v>
       </c>
       <c r="D345" s="41" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E345" s="6">
         <v>6</v>
@@ -29295,7 +29296,7 @@
         <v>175</v>
       </c>
       <c r="U345" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V345" s="6">
         <v>0</v>
@@ -29310,7 +29311,7 @@
         <v>0</v>
       </c>
       <c r="Z345" s="42" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="346" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29319,7 +29320,7 @@
         <v>6102002</v>
       </c>
       <c r="D346" s="41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E346" s="6">
         <v>6</v>
@@ -29371,7 +29372,7 @@
         <v>175</v>
       </c>
       <c r="U346" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V346" s="6">
         <v>0</v>
@@ -29386,7 +29387,7 @@
         <v>0</v>
       </c>
       <c r="Z346" s="42" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="347" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29395,7 +29396,7 @@
         <v>6102003</v>
       </c>
       <c r="D347" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E347" s="6">
         <v>6</v>
@@ -29446,7 +29447,7 @@
         <v>175</v>
       </c>
       <c r="U347" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V347" s="6">
         <v>0</v>
@@ -29461,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="Z347" s="42" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="348" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29470,7 +29471,7 @@
         <v>6103001</v>
       </c>
       <c r="D348" s="41" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E348" s="6">
         <v>6</v>
@@ -29522,7 +29523,7 @@
         <v>175</v>
       </c>
       <c r="U348" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V348" s="6">
         <v>0</v>
@@ -29537,7 +29538,7 @@
         <v>0</v>
       </c>
       <c r="Z348" s="42" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="349" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29546,7 +29547,7 @@
         <v>6103002</v>
       </c>
       <c r="D349" s="41" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E349" s="6">
         <v>6</v>
@@ -29598,7 +29599,7 @@
         <v>175</v>
       </c>
       <c r="U349" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V349" s="6">
         <v>0</v>
@@ -29613,7 +29614,7 @@
         <v>0</v>
       </c>
       <c r="Z349" s="42" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="350" spans="3:26" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -29622,7 +29623,7 @@
         <v>6103003</v>
       </c>
       <c r="D350" s="41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E350" s="6">
         <v>6</v>
@@ -29673,7 +29674,7 @@
         <v>175</v>
       </c>
       <c r="U350" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V350" s="6">
         <v>0</v>
@@ -29688,7 +29689,7 @@
         <v>0</v>
       </c>
       <c r="Z350" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="351" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29696,7 +29697,7 @@
         <v>6104001</v>
       </c>
       <c r="D351" s="41" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E351" s="6">
         <v>6</v>
@@ -29748,7 +29749,7 @@
         <v>175</v>
       </c>
       <c r="U351" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V351" s="6">
         <v>0</v>
@@ -29763,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="Z351" s="42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="352" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29771,7 +29772,7 @@
         <v>6104002</v>
       </c>
       <c r="D352" s="41" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E352" s="6">
         <v>6</v>
@@ -29823,7 +29824,7 @@
         <v>175</v>
       </c>
       <c r="U352" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V352" s="6">
         <v>0</v>
@@ -29838,7 +29839,7 @@
         <v>0</v>
       </c>
       <c r="Z352" s="42" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="353" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29846,7 +29847,7 @@
         <v>6104003</v>
       </c>
       <c r="D353" s="41" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E353" s="6">
         <v>6</v>
@@ -29898,7 +29899,7 @@
         <v>175</v>
       </c>
       <c r="U353" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V353" s="6">
         <v>0</v>
@@ -29913,7 +29914,7 @@
         <v>0</v>
       </c>
       <c r="Z353" s="42" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="354" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29921,7 +29922,7 @@
         <v>6104004</v>
       </c>
       <c r="D354" s="41" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E354" s="6">
         <v>6</v>
@@ -29972,7 +29973,7 @@
         <v>175</v>
       </c>
       <c r="U354" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V354" s="6">
         <v>0</v>
@@ -29987,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="Z354" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="355" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -29995,7 +29996,7 @@
         <v>6105001</v>
       </c>
       <c r="D355" s="41" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E355" s="6">
         <v>6</v>
@@ -30047,7 +30048,7 @@
         <v>175</v>
       </c>
       <c r="U355" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V355" s="6">
         <v>0</v>
@@ -30062,7 +30063,7 @@
         <v>0</v>
       </c>
       <c r="Z355" s="42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="356" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30070,7 +30071,7 @@
         <v>6105002</v>
       </c>
       <c r="D356" s="41" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E356" s="6">
         <v>6</v>
@@ -30122,7 +30123,7 @@
         <v>175</v>
       </c>
       <c r="U356" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V356" s="6">
         <v>0</v>
@@ -30137,7 +30138,7 @@
         <v>0</v>
       </c>
       <c r="Z356" s="42" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="357" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30145,7 +30146,7 @@
         <v>6105003</v>
       </c>
       <c r="D357" s="41" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E357" s="6">
         <v>6</v>
@@ -30197,7 +30198,7 @@
         <v>175</v>
       </c>
       <c r="U357" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V357" s="6">
         <v>0</v>
@@ -30212,7 +30213,7 @@
         <v>0</v>
       </c>
       <c r="Z357" s="42" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="358" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30220,7 +30221,7 @@
         <v>6105004</v>
       </c>
       <c r="D358" s="41" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E358" s="6">
         <v>6</v>
@@ -30271,7 +30272,7 @@
         <v>175</v>
       </c>
       <c r="U358" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V358" s="6">
         <v>0</v>
@@ -30286,7 +30287,7 @@
         <v>0</v>
       </c>
       <c r="Z358" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="359" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30294,7 +30295,7 @@
         <v>6106001</v>
       </c>
       <c r="D359" s="41" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E359" s="6">
         <v>6</v>
@@ -30346,7 +30347,7 @@
         <v>175</v>
       </c>
       <c r="U359" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V359" s="6">
         <v>0</v>
@@ -30361,7 +30362,7 @@
         <v>0</v>
       </c>
       <c r="Z359" s="42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="360" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30369,7 +30370,7 @@
         <v>6106002</v>
       </c>
       <c r="D360" s="41" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E360" s="6">
         <v>6</v>
@@ -30421,7 +30422,7 @@
         <v>175</v>
       </c>
       <c r="U360" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V360" s="6">
         <v>0</v>
@@ -30436,7 +30437,7 @@
         <v>0</v>
       </c>
       <c r="Z360" s="42" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="361" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30444,7 +30445,7 @@
         <v>6106003</v>
       </c>
       <c r="D361" s="41" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E361" s="6">
         <v>6</v>
@@ -30495,7 +30496,7 @@
         <v>175</v>
       </c>
       <c r="U361" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V361" s="6">
         <v>0</v>
@@ -30510,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="Z361" s="42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="362" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30518,7 +30519,7 @@
         <v>6201001</v>
       </c>
       <c r="D362" s="41" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E362" s="6">
         <v>6</v>
@@ -30569,7 +30570,7 @@
         <v>350</v>
       </c>
       <c r="U362" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V362" s="6">
         <v>0</v>
@@ -30584,7 +30585,7 @@
         <v>0</v>
       </c>
       <c r="Z362" s="42" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="363" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30592,7 +30593,7 @@
         <v>6201002</v>
       </c>
       <c r="D363" s="41" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E363" s="6">
         <v>6</v>
@@ -30643,7 +30644,7 @@
         <v>350</v>
       </c>
       <c r="U363" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V363" s="6">
         <v>0</v>
@@ -30658,7 +30659,7 @@
         <v>0</v>
       </c>
       <c r="Z363" s="42" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="364" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30666,7 +30667,7 @@
         <v>6201003</v>
       </c>
       <c r="D364" s="41" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E364" s="6">
         <v>6</v>
@@ -30717,7 +30718,7 @@
         <v>350</v>
       </c>
       <c r="U364" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V364" s="6">
         <v>0</v>
@@ -30732,7 +30733,7 @@
         <v>0</v>
       </c>
       <c r="Z364" s="42" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="365" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30740,7 +30741,7 @@
         <v>6202001</v>
       </c>
       <c r="D365" s="41" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E365" s="6">
         <v>6</v>
@@ -30791,7 +30792,7 @@
         <v>350</v>
       </c>
       <c r="U365" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V365" s="6">
         <v>0</v>
@@ -30806,7 +30807,7 @@
         <v>0</v>
       </c>
       <c r="Z365" s="42" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="366" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30814,7 +30815,7 @@
         <v>6202002</v>
       </c>
       <c r="D366" s="41" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E366" s="6">
         <v>6</v>
@@ -30865,7 +30866,7 @@
         <v>350</v>
       </c>
       <c r="U366" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V366" s="6">
         <v>0</v>
@@ -30880,7 +30881,7 @@
         <v>0</v>
       </c>
       <c r="Z366" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="367" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30888,7 +30889,7 @@
         <v>6202003</v>
       </c>
       <c r="D367" s="41" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E367" s="6">
         <v>6</v>
@@ -30939,7 +30940,7 @@
         <v>350</v>
       </c>
       <c r="U367" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V367" s="6">
         <v>0</v>
@@ -30954,7 +30955,7 @@
         <v>0</v>
       </c>
       <c r="Z367" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="368" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -30962,7 +30963,7 @@
         <v>6203001</v>
       </c>
       <c r="D368" s="41" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E368" s="6">
         <v>6</v>
@@ -31013,7 +31014,7 @@
         <v>350</v>
       </c>
       <c r="U368" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V368" s="6">
         <v>0</v>
@@ -31028,7 +31029,7 @@
         <v>0</v>
       </c>
       <c r="Z368" s="42" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="369" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31036,7 +31037,7 @@
         <v>6203002</v>
       </c>
       <c r="D369" s="41" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E369" s="6">
         <v>6</v>
@@ -31087,7 +31088,7 @@
         <v>350</v>
       </c>
       <c r="U369" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V369" s="6">
         <v>0</v>
@@ -31102,7 +31103,7 @@
         <v>0</v>
       </c>
       <c r="Z369" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="370" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31110,7 +31111,7 @@
         <v>6203003</v>
       </c>
       <c r="D370" s="41" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E370" s="6">
         <v>6</v>
@@ -31161,7 +31162,7 @@
         <v>350</v>
       </c>
       <c r="U370" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V370" s="6">
         <v>0</v>
@@ -31176,7 +31177,7 @@
         <v>0</v>
       </c>
       <c r="Z370" s="42" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="371" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31184,7 +31185,7 @@
         <v>6204001</v>
       </c>
       <c r="D371" s="41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E371" s="6">
         <v>6</v>
@@ -31235,7 +31236,7 @@
         <v>350</v>
       </c>
       <c r="U371" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V371" s="6">
         <v>0</v>
@@ -31250,7 +31251,7 @@
         <v>0</v>
       </c>
       <c r="Z371" s="42" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="372" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31258,7 +31259,7 @@
         <v>6204002</v>
       </c>
       <c r="D372" s="41" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E372" s="6">
         <v>6</v>
@@ -31309,7 +31310,7 @@
         <v>350</v>
       </c>
       <c r="U372" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V372" s="6">
         <v>0</v>
@@ -31324,7 +31325,7 @@
         <v>0</v>
       </c>
       <c r="Z372" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="373" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31332,7 +31333,7 @@
         <v>6204003</v>
       </c>
       <c r="D373" s="41" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E373" s="6">
         <v>6</v>
@@ -31383,7 +31384,7 @@
         <v>350</v>
       </c>
       <c r="U373" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V373" s="6">
         <v>0</v>
@@ -31398,7 +31399,7 @@
         <v>0</v>
       </c>
       <c r="Z373" s="42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="374" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31406,7 +31407,7 @@
         <v>6204004</v>
       </c>
       <c r="D374" s="41" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E374" s="6">
         <v>6</v>
@@ -31457,7 +31458,7 @@
         <v>350</v>
       </c>
       <c r="U374" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V374" s="6">
         <v>0</v>
@@ -31472,7 +31473,7 @@
         <v>0</v>
       </c>
       <c r="Z374" s="42" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="375" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31480,7 +31481,7 @@
         <v>6205001</v>
       </c>
       <c r="D375" s="41" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E375" s="6">
         <v>6</v>
@@ -31531,7 +31532,7 @@
         <v>350</v>
       </c>
       <c r="U375" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V375" s="6">
         <v>0</v>
@@ -31546,7 +31547,7 @@
         <v>0</v>
       </c>
       <c r="Z375" s="42" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="376" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31554,7 +31555,7 @@
         <v>6205002</v>
       </c>
       <c r="D376" s="41" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E376" s="6">
         <v>6</v>
@@ -31605,7 +31606,7 @@
         <v>350</v>
       </c>
       <c r="U376" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V376" s="6">
         <v>0</v>
@@ -31620,7 +31621,7 @@
         <v>0</v>
       </c>
       <c r="Z376" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="377" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31628,7 +31629,7 @@
         <v>6205003</v>
       </c>
       <c r="D377" s="41" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E377" s="6">
         <v>6</v>
@@ -31679,7 +31680,7 @@
         <v>350</v>
       </c>
       <c r="U377" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V377" s="6">
         <v>0</v>
@@ -31694,7 +31695,7 @@
         <v>0</v>
       </c>
       <c r="Z377" s="42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="378" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31702,7 +31703,7 @@
         <v>6205004</v>
       </c>
       <c r="D378" s="41" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E378" s="6">
         <v>6</v>
@@ -31753,7 +31754,7 @@
         <v>350</v>
       </c>
       <c r="U378" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V378" s="6">
         <v>0</v>
@@ -31768,7 +31769,7 @@
         <v>0</v>
       </c>
       <c r="Z378" s="42" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="379" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31776,7 +31777,7 @@
         <v>6206001</v>
       </c>
       <c r="D379" s="41" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E379" s="6">
         <v>6</v>
@@ -31827,7 +31828,7 @@
         <v>350</v>
       </c>
       <c r="U379" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V379" s="6">
         <v>0</v>
@@ -31842,7 +31843,7 @@
         <v>0</v>
       </c>
       <c r="Z379" s="42" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="380" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31850,7 +31851,7 @@
         <v>6206002</v>
       </c>
       <c r="D380" s="41" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E380" s="6">
         <v>6</v>
@@ -31901,7 +31902,7 @@
         <v>350</v>
       </c>
       <c r="U380" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V380" s="6">
         <v>0</v>
@@ -31916,7 +31917,7 @@
         <v>0</v>
       </c>
       <c r="Z380" s="42" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="381" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31924,7 +31925,7 @@
         <v>6206003</v>
       </c>
       <c r="D381" s="41" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E381" s="6">
         <v>6</v>
@@ -31975,7 +31976,7 @@
         <v>350</v>
       </c>
       <c r="U381" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V381" s="6">
         <v>0</v>
@@ -31990,7 +31991,7 @@
         <v>0</v>
       </c>
       <c r="Z381" s="42" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="382" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -31998,7 +31999,7 @@
         <v>6301001</v>
       </c>
       <c r="D382" s="41" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E382" s="6">
         <v>6</v>
@@ -32050,7 +32051,7 @@
         <v>500</v>
       </c>
       <c r="U382" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V382" s="6">
         <v>0</v>
@@ -32065,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="Z382" s="42" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="383" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32073,7 +32074,7 @@
         <v>6301002</v>
       </c>
       <c r="D383" s="41" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E383" s="6">
         <v>6</v>
@@ -32125,7 +32126,7 @@
         <v>500</v>
       </c>
       <c r="U383" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V383" s="6">
         <v>0</v>
@@ -32140,7 +32141,7 @@
         <v>0</v>
       </c>
       <c r="Z383" s="42" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="384" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32148,7 +32149,7 @@
         <v>6301003</v>
       </c>
       <c r="D384" s="41" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E384" s="6">
         <v>6</v>
@@ -32200,7 +32201,7 @@
         <v>500</v>
       </c>
       <c r="U384" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V384" s="6">
         <v>0</v>
@@ -32215,7 +32216,7 @@
         <v>0</v>
       </c>
       <c r="Z384" s="42" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="385" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32223,7 +32224,7 @@
         <v>6302001</v>
       </c>
       <c r="D385" s="41" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E385" s="6">
         <v>6</v>
@@ -32275,7 +32276,7 @@
         <v>500</v>
       </c>
       <c r="U385" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V385" s="6">
         <v>0</v>
@@ -32290,7 +32291,7 @@
         <v>0</v>
       </c>
       <c r="Z385" s="42" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="386" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32298,7 +32299,7 @@
         <v>6302002</v>
       </c>
       <c r="D386" s="41" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E386" s="6">
         <v>6</v>
@@ -32349,7 +32350,7 @@
         <v>500</v>
       </c>
       <c r="U386" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V386" s="6">
         <v>0</v>
@@ -32364,7 +32365,7 @@
         <v>0</v>
       </c>
       <c r="Z386" s="42" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="387" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32372,7 +32373,7 @@
         <v>6302003</v>
       </c>
       <c r="D387" s="41" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E387" s="6">
         <v>6</v>
@@ -32424,7 +32425,7 @@
         <v>500</v>
       </c>
       <c r="U387" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V387" s="6">
         <v>0</v>
@@ -32439,7 +32440,7 @@
         <v>0</v>
       </c>
       <c r="Z387" s="42" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="388" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32447,7 +32448,7 @@
         <v>6303001</v>
       </c>
       <c r="D388" s="41" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E388" s="6">
         <v>6</v>
@@ -32499,7 +32500,7 @@
         <v>500</v>
       </c>
       <c r="U388" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V388" s="6">
         <v>0</v>
@@ -32514,7 +32515,7 @@
         <v>0</v>
       </c>
       <c r="Z388" s="42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="389" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32522,7 +32523,7 @@
         <v>6303002</v>
       </c>
       <c r="D389" s="41" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E389" s="6">
         <v>6</v>
@@ -32573,7 +32574,7 @@
         <v>500</v>
       </c>
       <c r="U389" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V389" s="6">
         <v>0</v>
@@ -32588,7 +32589,7 @@
         <v>0</v>
       </c>
       <c r="Z389" s="42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="390" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32596,7 +32597,7 @@
         <v>6303003</v>
       </c>
       <c r="D390" s="41" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E390" s="6">
         <v>6</v>
@@ -32648,7 +32649,7 @@
         <v>500</v>
       </c>
       <c r="U390" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V390" s="6">
         <v>0</v>
@@ -32663,7 +32664,7 @@
         <v>0</v>
       </c>
       <c r="Z390" s="42" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="391" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32671,7 +32672,7 @@
         <v>6304001</v>
       </c>
       <c r="D391" s="41" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E391" s="6">
         <v>6</v>
@@ -32723,7 +32724,7 @@
         <v>500</v>
       </c>
       <c r="U391" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V391" s="6">
         <v>0</v>
@@ -32738,7 +32739,7 @@
         <v>0</v>
       </c>
       <c r="Z391" s="42" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="392" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32746,7 +32747,7 @@
         <v>6304002</v>
       </c>
       <c r="D392" s="41" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E392" s="6">
         <v>6</v>
@@ -32797,7 +32798,7 @@
         <v>500</v>
       </c>
       <c r="U392" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V392" s="6">
         <v>0</v>
@@ -32812,7 +32813,7 @@
         <v>0</v>
       </c>
       <c r="Z392" s="42" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="393" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32820,7 +32821,7 @@
         <v>6304003</v>
       </c>
       <c r="D393" s="41" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E393" s="6">
         <v>6</v>
@@ -32871,7 +32872,7 @@
         <v>500</v>
       </c>
       <c r="U393" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V393" s="6">
         <v>0</v>
@@ -32886,7 +32887,7 @@
         <v>0</v>
       </c>
       <c r="Z393" s="42" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="394" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32894,7 +32895,7 @@
         <v>6304004</v>
       </c>
       <c r="D394" s="41" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E394" s="6">
         <v>6</v>
@@ -32946,7 +32947,7 @@
         <v>500</v>
       </c>
       <c r="U394" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V394" s="6">
         <v>0</v>
@@ -32961,7 +32962,7 @@
         <v>0</v>
       </c>
       <c r="Z394" s="42" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="395" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -32969,7 +32970,7 @@
         <v>6305001</v>
       </c>
       <c r="D395" s="41" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E395" s="6">
         <v>6</v>
@@ -33021,7 +33022,7 @@
         <v>500</v>
       </c>
       <c r="U395" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V395" s="6">
         <v>0</v>
@@ -33036,7 +33037,7 @@
         <v>0</v>
       </c>
       <c r="Z395" s="42" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="396" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33044,7 +33045,7 @@
         <v>6305002</v>
       </c>
       <c r="D396" s="41" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E396" s="6">
         <v>6</v>
@@ -33095,7 +33096,7 @@
         <v>500</v>
       </c>
       <c r="U396" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V396" s="6">
         <v>0</v>
@@ -33110,7 +33111,7 @@
         <v>0</v>
       </c>
       <c r="Z396" s="42" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="397" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33118,7 +33119,7 @@
         <v>6305003</v>
       </c>
       <c r="D397" s="41" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E397" s="6">
         <v>6</v>
@@ -33169,7 +33170,7 @@
         <v>500</v>
       </c>
       <c r="U397" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V397" s="6">
         <v>0</v>
@@ -33184,7 +33185,7 @@
         <v>0</v>
       </c>
       <c r="Z397" s="42" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="398" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33192,7 +33193,7 @@
         <v>6305004</v>
       </c>
       <c r="D398" s="41" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E398" s="6">
         <v>6</v>
@@ -33244,7 +33245,7 @@
         <v>500</v>
       </c>
       <c r="U398" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V398" s="6">
         <v>0</v>
@@ -33259,7 +33260,7 @@
         <v>0</v>
       </c>
       <c r="Z398" s="42" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="399" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33267,7 +33268,7 @@
         <v>6306001</v>
       </c>
       <c r="D399" s="41" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E399" s="6">
         <v>6</v>
@@ -33319,7 +33320,7 @@
         <v>500</v>
       </c>
       <c r="U399" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V399" s="6">
         <v>0</v>
@@ -33334,7 +33335,7 @@
         <v>0</v>
       </c>
       <c r="Z399" s="42" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="400" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33342,7 +33343,7 @@
         <v>6306002</v>
       </c>
       <c r="D400" s="41" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E400" s="6">
         <v>6</v>
@@ -33393,7 +33394,7 @@
         <v>500</v>
       </c>
       <c r="U400" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V400" s="6">
         <v>0</v>
@@ -33408,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="Z400" s="42" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="401" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33416,7 +33417,7 @@
         <v>6306003</v>
       </c>
       <c r="D401" s="41" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E401" s="6">
         <v>6</v>
@@ -33467,7 +33468,7 @@
         <v>500</v>
       </c>
       <c r="U401" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V401" s="6">
         <v>0</v>
@@ -33482,7 +33483,7 @@
         <v>0</v>
       </c>
       <c r="Z401" s="42" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="402" spans="3:26" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33490,7 +33491,7 @@
         <v>7101001</v>
       </c>
       <c r="D402" s="41" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E402" s="6">
         <v>1</v>
@@ -33541,7 +33542,7 @@
         <v>0</v>
       </c>
       <c r="U402" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V402" s="6">
         <v>0</v>
@@ -33556,7 +33557,7 @@
         <v>0</v>
       </c>
       <c r="Z402" s="42" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="403" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33564,7 +33565,7 @@
         <v>7101002</v>
       </c>
       <c r="D403" s="41" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E403" s="6">
         <v>1</v>
@@ -33615,7 +33616,7 @@
         <v>0</v>
       </c>
       <c r="U403" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V403" s="6">
         <v>0</v>
@@ -33630,7 +33631,7 @@
         <v>0</v>
       </c>
       <c r="Z403" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="404" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33638,7 +33639,7 @@
         <v>7101003</v>
       </c>
       <c r="D404" s="41" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E404" s="6">
         <v>1</v>
@@ -33689,7 +33690,7 @@
         <v>0</v>
       </c>
       <c r="U404" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V404" s="6">
         <v>0</v>
@@ -33704,7 +33705,7 @@
         <v>0</v>
       </c>
       <c r="Z404" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="405" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33712,7 +33713,7 @@
         <v>7101004</v>
       </c>
       <c r="D405" s="41" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E405" s="6">
         <v>1</v>
@@ -33763,7 +33764,7 @@
         <v>0</v>
       </c>
       <c r="U405" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V405" s="6">
         <v>0</v>
@@ -33778,7 +33779,7 @@
         <v>0</v>
       </c>
       <c r="Z405" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="406" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33786,7 +33787,7 @@
         <v>7102001</v>
       </c>
       <c r="D406" s="41" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E406" s="6">
         <v>1</v>
@@ -33838,7 +33839,7 @@
         <v>0</v>
       </c>
       <c r="U406" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V406" s="6">
         <v>0</v>
@@ -33853,7 +33854,7 @@
         <v>0</v>
       </c>
       <c r="Z406" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="407" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33861,7 +33862,7 @@
         <v>7102002</v>
       </c>
       <c r="D407" s="41" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E407" s="6">
         <v>1</v>
@@ -33913,7 +33914,7 @@
         <v>0</v>
       </c>
       <c r="U407" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V407" s="6">
         <v>0</v>
@@ -33928,7 +33929,7 @@
         <v>0</v>
       </c>
       <c r="Z407" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="408" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -33936,7 +33937,7 @@
         <v>7102003</v>
       </c>
       <c r="D408" s="41" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E408" s="6">
         <v>1</v>
@@ -33988,7 +33989,7 @@
         <v>0</v>
       </c>
       <c r="U408" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V408" s="6">
         <v>0</v>
@@ -34003,7 +34004,7 @@
         <v>0</v>
       </c>
       <c r="Z408" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="409" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34011,7 +34012,7 @@
         <v>7102004</v>
       </c>
       <c r="D409" s="41" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E409" s="6">
         <v>1</v>
@@ -34063,7 +34064,7 @@
         <v>0</v>
       </c>
       <c r="U409" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V409" s="6">
         <v>0</v>
@@ -34078,7 +34079,7 @@
         <v>0</v>
       </c>
       <c r="Z409" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="410" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34086,7 +34087,7 @@
         <v>7103001</v>
       </c>
       <c r="D410" s="41" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E410" s="6">
         <v>1</v>
@@ -34138,7 +34139,7 @@
         <v>0</v>
       </c>
       <c r="U410" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V410" s="6">
         <v>0</v>
@@ -34153,7 +34154,7 @@
         <v>0</v>
       </c>
       <c r="Z410" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="411" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34161,7 +34162,7 @@
         <v>7103002</v>
       </c>
       <c r="D411" s="41" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E411" s="6">
         <v>1</v>
@@ -34213,7 +34214,7 @@
         <v>0</v>
       </c>
       <c r="U411" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V411" s="6">
         <v>0</v>
@@ -34228,7 +34229,7 @@
         <v>0</v>
       </c>
       <c r="Z411" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="412" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -34236,7 +34237,7 @@
         <v>7103003</v>
       </c>
       <c r="D412" s="41" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E412" s="6">
         <v>1</v>
@@ -34288,7 +34289,7 @@
         <v>0</v>
       </c>
       <c r="U412" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="V412" s="6">
         <v>0</v>
@@ -34303,7 +34304,7 @@
   